--- a/excel/fupan_stocks.xlsx
+++ b/excel/fupan_stocks.xlsx
@@ -470,7 +470,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BB65"/>
+  <dimension ref="A1:BC65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -744,6 +744,11 @@
           <t>2025年01月15日</t>
         </is>
       </c>
+      <c r="BC1" s="5" t="inlineStr">
+        <is>
+          <t>2025年01月16日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="5" t="n">
@@ -1014,6 +1019,11 @@
           <t>002291.SZ; 遥望科技; 0;  09:25:00; 2天2板; 6.96;  09:25:00; 10.0%; 2; 小红书+营销+抖音+出海</t>
         </is>
       </c>
+      <c r="BC2" t="inlineStr">
+        <is>
+          <t>002291.SZ; 遥望科技; 0;  09:25:00; 3天3板; 7.66;  09:25:00; 10.1%; 3; 小红书+营销+抖音+出海</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="n">
@@ -1284,6 +1294,11 @@
           <t>603667.SH; 五洲新春; 0;  09:25:00; 5天4板; 37.99;  09:25:00; 10.0%; 2; 人形机器人+汽车零部件+特斯拉</t>
         </is>
       </c>
+      <c r="BC3" t="inlineStr">
+        <is>
+          <t>002691.SZ; 冀凯股份; 0;  09:25:00; 3天3板; 6.24;  09:25:00; 10.1%; 3; 机器人+矿山装备+3D打印</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="5" t="n">
@@ -1554,6 +1569,11 @@
           <t>002122.SZ; 汇洲智能; 0;  09:25:00; 2天2板; 4.64;  09:25:00; 10.0%; 2; 小红书审核+数据中心+工业母机</t>
         </is>
       </c>
+      <c r="BC4" t="inlineStr">
+        <is>
+          <t>002122.SZ; 汇洲智能; 0;  09:25:00; 3天3板; 5.1;  09:25:00; 9.9%; 3; 小红书审核+数据中心+工业母机</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="n">
@@ -1824,6 +1844,11 @@
           <t>300792.SZ; 壹网壹创; 0;  09:25:00; 2天2板; 31.33;  09:25:00; 20.0%; 2; 小红书+电子商务+出海</t>
         </is>
       </c>
+      <c r="BC5" t="inlineStr">
+        <is>
+          <t>603177.SH; 德创环保; 0;  09:25:01; 3天3板; 9.56;  09:25:01; 10.0%; 3; 钠离子电池+氢能源+节能环保+出海</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="5" t="n">
@@ -2094,6 +2119,11 @@
           <t>002853.SZ; 皮阿诺; 0;  09:25:00; 2天2板; 12.01;  09:25:00; 10.0%; 2; 小红书+电子商务+家具</t>
         </is>
       </c>
+      <c r="BC6" t="inlineStr">
+        <is>
+          <t>600358.SH; 国旅联合; 0;  09:25:01; 3天3板; 4.33;  09:25:01; 9.9%; 3; 小红书+营销+旅游+国企改革</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="n">
@@ -2364,6 +2394,11 @@
           <t>002917.SZ; 金奥博; 0;  09:25:00; 5天5板; 15.8;  09:25:00; 10.0%; 5; 机器人+民爆+芯片概念+一带一路</t>
         </is>
       </c>
+      <c r="BC7" t="inlineStr">
+        <is>
+          <t>600714.SH; 金瑞矿业; 0;  09:25:01; 2天2板; 12.78;  09:25:01; 10.0%; 2; 液晶玻璃基板+锶盐+硫磺+小金属</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="5" t="n">
@@ -2634,6 +2669,11 @@
           <t>603777.SH; 来伊份; 0;  09:25:01; 5天5板; 22.36;  09:25:01; 10.0%; 5; 礼品+小红书+腾讯+电商</t>
         </is>
       </c>
+      <c r="BC8" t="inlineStr">
+        <is>
+          <t>600128.SH; 苏豪弘业; 0;  09:30:01; 6天6板; 14;  09:30:01; 10.0%; 6; AI玩具+跨境电商+参股弘业期货+江苏国资</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="n">
@@ -2904,6 +2944,11 @@
           <t>600539.SH; 狮头股份; 0;  09:25:01; 2天2板; 8.01;  09:25:01; 10.0%; 2; 电商服务+宠物食品+布局小红书</t>
         </is>
       </c>
+      <c r="BC9" t="inlineStr">
+        <is>
+          <t>600556.SH; 天下秀; 1;  09:31:35; 3天3板; 6.34;  09:25:02; 10.1%; 3; 小红书+网红经济+元宇宙</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="5" t="n">
@@ -3174,6 +3219,11 @@
           <t>603598.SH; 引力传媒; 0;  09:25:02; 2天2板; 18.23;  09:25:02; 10.0%; 2; 小红书+营销+抖音概念+大模型</t>
         </is>
       </c>
+      <c r="BC10" t="inlineStr">
+        <is>
+          <t>603808.SH; 歌力思; 1;  09:32:44; 3天3板; 8.81;  09:32:05; 10.0%; 3; 小红书+微信小店+服装纺织+股权转让</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="5" t="n">
@@ -3444,6 +3494,11 @@
           <t>603511.SH; 爱慕股份; 0;  09:25:02; 2天2板; 13.76;  09:25:02; 10.0%; 2; 小红书+服装+IP经济+电商</t>
         </is>
       </c>
+      <c r="BC11" t="inlineStr">
+        <is>
+          <t>600539.SH; 狮头股份; 0;  09:35:38; 3天3板; 8.81;  09:35:38; 10.0%; 3; 电商服务+宠物食品+布局小红书</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="5" t="n">
@@ -3714,6 +3769,11 @@
           <t>600556.SH; 天下秀; 0;  09:25:02; 2天2板; 5.76;  09:25:02; 9.9%; 2; 小红书+网红经济+元宇宙</t>
         </is>
       </c>
+      <c r="BC12" t="inlineStr">
+        <is>
+          <t>603511.SH; 爱慕股份; 1;  09:36:03; 3天3板; 15.14;  09:25:03; 10.0%; 3; 小红书+服装+IP经济+电商</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="5" t="n">
@@ -3979,6 +4039,11 @@
           <t>603808.SH; 歌力思; 0;  09:25:03; 2天2板; 8.01;  09:25:03; 10.0%; 2; 小红书+微信小店+服装纺织+股权转让</t>
         </is>
       </c>
+      <c r="BC13" t="inlineStr">
+        <is>
+          <t>600367.SH; 红星发展; 5;  10:01:01; 2天2板; 14.47;  09:30:19; 10.0%; 2; 小金属+锂电池+国企改革</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="5" t="n">
@@ -4244,6 +4309,11 @@
           <t>002636.SZ; 金安国纪; 0;  09:30:00; 2天2板; 8.48;  09:30:00; 10.0%; 2; 覆铜板+PCB</t>
         </is>
       </c>
+      <c r="BC14" t="inlineStr">
+        <is>
+          <t>603598.SH; 引力传媒; 9;  10:04:33; 3天3板; 20.05;  09:25:00; 10.0%; 3; 小红书+营销+抖音概念+大模型</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="5" t="n">
@@ -4504,6 +4574,11 @@
           <t>600358.SH; 国旅联合; 0;  09:30:00; 2天2板; 3.94;  09:30:00; 10.1%; 2; 营销+旅游+国企改革</t>
         </is>
       </c>
+      <c r="BC15" t="inlineStr">
+        <is>
+          <t>002636.SZ; 金安国纪; 6;  10:13:30; 3天3板; 9.33;  09:47:24; 10.0%; 3; 覆铜板+PCB</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="5" t="n">
@@ -4749,6 +4824,11 @@
           <t>603177.SH; 德创环保; 0;  09:30:12; 2天2板; 8.69;  09:30:12; 10.0%; 2; 钠离子电池+氢能源+节能环保+出海</t>
         </is>
       </c>
+      <c r="BC16" t="inlineStr">
+        <is>
+          <t>002187.SZ; 广百股份; 1;  10:26:21; 8天5板; 10.07;  10:25:51; 10.1%; 2; 百货零售+IP经济+黄金珠宝+国企</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="5" t="n">
@@ -4979,6 +5059,11 @@
           <t>002164.SZ; 宁波东力; 0;  09:30:15; 3天3板; 6.39;  09:30:15; 10.0%; 3; 行星减速器+齿轮箱+传动装置</t>
         </is>
       </c>
+      <c r="BC17" t="inlineStr">
+        <is>
+          <t>603068.SH; 博通集成; 0;  11:10:00; 6天4板; 38.23;  11:10:00; 10.0%; 2; 携手豆包赋能奥嘟比AI智能套件+无线连接芯片</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="5" t="n">
@@ -5204,6 +5289,11 @@
           <t>002131.SZ; 利欧股份; 0;  09:33:57; 7天5板; 4.04;  09:33:57; 10.1%; 2; AI营销+小红书+TikTok+华为鲸鸿</t>
         </is>
       </c>
+      <c r="BC18" t="inlineStr">
+        <is>
+          <t>600545.SH; 卓郎智能; 0;  11:18:11; 3天2板; 2.89;  11:18:11; 9.9%; 1; 机器人+纺织机械+外销+低价股</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="5" t="n">
@@ -5424,6 +5514,11 @@
           <t>002691.SZ; 冀凯股份; 1;  09:37:15; 2天2板; 5.67;  09:25:00; 10.1%; 2; 机器人+矿山装备+3D打印</t>
         </is>
       </c>
+      <c r="BC19" t="inlineStr">
+        <is>
+          <t>600601.SH; 方正科技; 5;  13:26:38; 8天5板; 5.41;  09:45:11; 10.0%; 1; PCB+光模块+外销+国企</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="5" t="n">
@@ -5629,6 +5724,11 @@
           <t>002730.SZ; 电光科技; 3;  09:41:21; 18天11板; 16.29;  09:38:48; 10.0%; 1; 算力+机器人+物联网+防爆电器</t>
         </is>
       </c>
+      <c r="BC20" t="inlineStr">
+        <is>
+          <t>002917.SZ; 金奥博; 16;  13:47:51; 6天6板; 17.38;  09:30:57; 10.0%; 6; 机器人+民爆+芯片概念+一带一路</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="5" t="n">
@@ -5824,6 +5924,11 @@
           <t>002115.SZ; 三维通信; 2;  09:42:54; 2天2板; 7.57;  09:37:57; 10.0%; 2; 营销+小红书+字节+卫星通信</t>
         </is>
       </c>
+      <c r="BC21" t="inlineStr">
+        <is>
+          <t>000016.SZ; 深康佳A; 6;  13:59:21; 3天2板; 6.81;  13:49:39; 10.0%; 1; 拟购买股权+AI眼镜+存储芯片</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="5" t="n">
@@ -6019,6 +6124,11 @@
           <t>605033.SH; 美邦股份; 11;  10:00:40; 10天10板; 31.2;  09:25:02; 10.0%; 10; 农药+西部大开发+流通盘较小</t>
         </is>
       </c>
+      <c r="BC22" t="inlineStr">
+        <is>
+          <t>300792.SZ; 壹网壹创; 3;  14:15:42; 3天3板; 37.6;  09:38:09; 20.0%; 3; 小红书+电子商务+出海</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="5" t="n">
@@ -6204,6 +6314,11 @@
           <t>600128.SH; 苏豪弘业; 0;  10:11:41; 5天5板; 12.73;  10:11:41; 10.0%; 5; AI玩具+跨境电商+参股弘业期货+江苏国资</t>
         </is>
       </c>
+      <c r="BC23" t="inlineStr">
+        <is>
+          <t>603777.SH; 来伊份; 5;  14:37:57; 6天6板; 24.6;  09:34:42; 10.0%; 6; 小红书+礼品+腾讯+电商</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="5" t="n">
@@ -6384,6 +6499,11 @@
           <t>300071.SZ; 福石控股; 0;  10:20:48; 2天2板; 6.19;  10:20:48; 20.0%; 2; 小红书+AI营销+字节</t>
         </is>
       </c>
+      <c r="BC24" t="inlineStr">
+        <is>
+          <t>002712.SZ; 思美传媒; 5;  14:43:18; 2天2板; 6.27;  09:33:03; 10.0%; 2; 小红书+营销+字节+智谱</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="5" t="n">
@@ -6564,6 +6684,11 @@
           <t>002265.SZ; 建设工业; 2;  10:27:51; 4天3板; 33.9;  09:44:30; 10.0%; 2; 机器人+无人驾驶+中兵系</t>
         </is>
       </c>
+      <c r="BC25" t="inlineStr">
+        <is>
+          <t>002164.SZ; 宁波东力; 10;  14:45:06; 4天4板; 7.03;  09:39:06; 10.0%; 4; 行星减速器+齿轮箱+传动装置</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="5" t="n">
@@ -6739,6 +6864,11 @@
           <t>002529.SZ; 海源复材; 0;  10:53:03; 2天2板; 8.11;  10:53:03; 10.0%; 2; 光伏+新型智能机械装备+股权转让</t>
         </is>
       </c>
+      <c r="BC26" t="inlineStr">
+        <is>
+          <t>002582.SZ; 好想你; 0;  14:49:00; 2天2板; 10.47;  14:49:00; 10.0%; 2; 微信小店+红枣+间接参投蜜雪冰城</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="5" t="n">
@@ -6909,6 +7039,11 @@
           <t>002811.SZ; 郑中设计; 7;  13:12:54; 5天3板; 10.71;  10:26:03; 10.0%; 1; IP+AI设计+室内设计</t>
         </is>
       </c>
+      <c r="BC27" t="inlineStr">
+        <is>
+          <t>600981.SH; 汇鸿集团; 1;  14:51:17; 2天2板; 2.97;  14:06:20; 10.0%; 2; 参股弘业期货+供应链运营+资产置换</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="5" t="n">
@@ -7077,6 +7212,11 @@
       <c r="BB28" t="inlineStr">
         <is>
           <t>603068.SH; 博通集成; 2;  13:42:08; 5天3板; 34.75;  09:34:20; 10.0%; 1; 携手豆包赋能奥嘟比AI智能套件+无线连接芯片</t>
+        </is>
+      </c>
+      <c r="BC28" t="inlineStr">
+        <is>
+          <t>600693.SH; 东百集团; 4;  14:55:10; 16天9板; 7.22;  14:49:22; 10.1%; 1; 零售+免税店+跨境电商</t>
         </is>
       </c>
     </row>
@@ -10141,7 +10281,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BB146"/>
+  <dimension ref="A1:BC146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10415,6 +10555,11 @@
           <t>2025年01月15日</t>
         </is>
       </c>
+      <c r="BC1" s="5" t="inlineStr">
+        <is>
+          <t>2025年01月16日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="5" t="n">
@@ -10675,6 +10820,11 @@
           <t>605389.SH; 长龄液压; 8;  09:41:38; 放量跌停; 25.1; -10.0%; 1; 终止筹划控制权变更事项</t>
         </is>
       </c>
+      <c r="BC2" t="inlineStr">
+        <is>
+          <t>002117.SZ; 东港股份; 6;  11:00:36; 缩量跌停; 13.14; -10.0%; 1; 此前涨幅较大+机器人板块大跌</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="n">
@@ -10935,6 +11085,11 @@
           <t>001255.SZ; 博菲电气; 0;  14:11:27; 放量跌停; 29.34; -10.0%; 1; 前三季度业绩下降</t>
         </is>
       </c>
+      <c r="BC3" t="inlineStr">
+        <is>
+          <t>605033.SH; 美邦股份; 1;  13:03:59; 放量跌停; 28.08; -10.0%; 1; 此前发布股票交易风险提示公告+昨日10连板涨停（涨幅过大）</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="5" t="n">
@@ -11190,6 +11345,11 @@
           <t>600202.SH; 哈空调; 1;  14:18:59; 放量跌停; 5.3; -10.0%; 1; 近期股票涨幅较大+业绩下滑风险</t>
         </is>
       </c>
+      <c r="BC4" t="inlineStr">
+        <is>
+          <t>002265.SZ; 建设工业; 2;  13:44:00; 放量跌停; 30.51; -10.0%; 1; 资金获利了结</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="n">
@@ -11418,6 +11578,11 @@
       <c r="BB5" t="inlineStr">
         <is>
           <t>002184.SZ; 海得控制; 0;  14:30:54; 放量跌停; 14.78; -10.0%; 1; 此前涨幅较大+机器人概念板块大跌</t>
+        </is>
+      </c>
+      <c r="BC5" t="inlineStr">
+        <is>
+          <t>603166.SH; 福达股份; 1;  13:54:55; 放量跌停; 8.81; -10.0%; 1; 机器人概念大跌</t>
         </is>
       </c>
     </row>
@@ -17217,7 +17382,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BB72"/>
+  <dimension ref="A1:BC72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17491,6 +17656,11 @@
           <t>2025年01月15日</t>
         </is>
       </c>
+      <c r="BC1" s="5" t="inlineStr">
+        <is>
+          <t>2025年01月16日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="5" t="n">
@@ -17761,6 +17931,11 @@
           <t>000016.SZ; 深康佳A; 1;  09:25:00; 主板; 6.19; 曾涨停; 2.0%; 0.00H;  09:25:00</t>
         </is>
       </c>
+      <c r="BC2" t="inlineStr">
+        <is>
+          <t>603600.SH; 永艺股份; 1;  09:30:20; 主板; 13.54; 曾涨停; 0.8%; 0.01H;  09:30:20</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="n">
@@ -18031,6 +18206,11 @@
           <t>002441.SZ; 众业达; 1;  09:25:00; 主板; 8.55; 曾涨停; 0.7%; 1.96H;  09:25:00</t>
         </is>
       </c>
+      <c r="BC3" t="inlineStr">
+        <is>
+          <t>600423.SH; 柳化股份; 7;  09:30:34; 主板; 3.89; 曾涨停; 4.3%; 0.18H;  09:30:34|| 09:36:16|| 09:36:46|| 09:37:22|| 09:51:10|| 13:11:10|| 13:18:40</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="5" t="n">
@@ -18301,6 +18481,11 @@
           <t>000421.SZ; 南京公用; 1;  09:25:00; 主板; 7.35; 曾涨停; -6.2%; 0.05H;  09:25:00</t>
         </is>
       </c>
+      <c r="BC4" t="inlineStr">
+        <is>
+          <t>002965.SZ; 祥鑫科技; 2;  09:30:36; 主板; 37.27; 曾涨停; 2.8%; 0.05H;  09:30:36|| 09:46:39</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="n">
@@ -18571,6 +18756,11 @@
           <t>603015.SH; 弘讯科技; 2;  09:30:16; 主板; 14.07; 曾涨停; -2.8%; 0.12H;  09:30:16|| 09:38:49</t>
         </is>
       </c>
+      <c r="BC5" t="inlineStr">
+        <is>
+          <t>603667.SH; 五洲新春; 4;  09:33:19; 主板; 40.3; 曾涨停; 6.1%; 1.01H;  09:33:19|| 10:03:40|| 10:05:40|| 10:54:01</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="5" t="n">
@@ -18841,6 +19031,11 @@
           <t>603166.SH; 福达股份; 4;  09:31:14; 主板; 9.79; 曾涨停; 2.6%; 0.29H;  09:31:14|| 09:32:29|| 14:01:23|| 14:13:20</t>
         </is>
       </c>
+      <c r="BC6" t="inlineStr">
+        <is>
+          <t>002786.SZ; 银宝山新; 1;  09:34:06; 主板; 9.74; 曾涨停; 6.0%; 0.44H;  09:34:06</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="n">
@@ -19111,6 +19306,11 @@
           <t>002354.SZ; 天娱数科; 1;  09:38:12; 主板; 6.55; 曾涨停; 6.5%; 0.01H;  09:38:12</t>
         </is>
       </c>
+      <c r="BC7" t="inlineStr">
+        <is>
+          <t>003042.SZ; 中农联合; 1;  09:35:15; 主板; 16.21; 曾涨停; 0.6%; 0.02H;  09:35:15</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="5" t="n">
@@ -19381,6 +19581,11 @@
           <t>002605.SZ; 姚记科技; 1;  09:41:42; 主板; 28.34; 曾涨停; 4.6%; 0.04H;  09:41:42</t>
         </is>
       </c>
+      <c r="BC8" t="inlineStr">
+        <is>
+          <t>002418.SZ; 康盛股份; 3;  09:36:18; 主板; 4.05; 曾涨停; 4.9%; 1.90H;  09:36:18|| 09:59:12|| 13:00:21</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="n">
@@ -19651,6 +19856,11 @@
           <t>003016.SZ; 欣贺股份; 6;  09:42:03; 主板; 8.31; 曾涨停; 3.9%; 0.21H;  09:42:03|| 09:43:21|| 09:44:27|| 09:44:57|| 09:57:48|| 09:58:09</t>
         </is>
       </c>
+      <c r="BC9" t="inlineStr">
+        <is>
+          <t>000620.SZ; 新华联; 1;  09:37:15; 主板; 1.87; 曾涨停; 4.5%; 0.31H;  09:37:15</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="5" t="n">
@@ -19921,6 +20131,11 @@
           <t>000563.SZ; 陕国投A; 1;  09:48:42; 主板; 3.63; 曾涨停; 5.5%; 0.25H;  09:48:42</t>
         </is>
       </c>
+      <c r="BC10" t="inlineStr">
+        <is>
+          <t>002514.SZ; 宝馨科技; 1;  09:38:33; 主板; 8.13; 曾涨停; 6.0%; 0.16H;  09:38:33</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="5" t="n">
@@ -20191,6 +20406,11 @@
           <t>603106.SH; 恒银科技; 1;  09:50:19; 主板; 8.93; 曾涨停; 0.0%; 0.00H;  09:50:19</t>
         </is>
       </c>
+      <c r="BC11" t="inlineStr">
+        <is>
+          <t>600060.SH; 海信视像; 5;  09:40:49; 主板; 21.84; 曾涨停; 7.3%; 2.03H;  09:40:49|| 09:45:55|| 09:47:04|| 09:48:52|| 11:19:25</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="5" t="n">
@@ -20461,6 +20681,11 @@
           <t>002346.SZ; 柘中股份; 2;  09:51:12; 主板; 12.75; 曾涨停; -1.5%; 0.03H;  09:51:12|| 09:52:27</t>
         </is>
       </c>
+      <c r="BC12" t="inlineStr">
+        <is>
+          <t>000981.SZ; 山子高科; 1;  09:42:21; 主板; 2.48; 曾涨停; 8.3%; 0.20H;  09:42:21</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="5" t="n">
@@ -20731,6 +20956,11 @@
           <t>002757.SZ; 南兴股份; 1;  09:55:42; 主板; 16.07; 曾涨停; 8.1%; 3.53H;  09:55:42</t>
         </is>
       </c>
+      <c r="BC13" t="inlineStr">
+        <is>
+          <t>300344.SZ; 立方数科; 3;  09:43:03; 创业板; 9.16; 曾涨停; 20.1%; 0.07H;  09:43:03|| 09:44:42|| 09:45:51</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="5" t="n">
@@ -21001,6 +21231,11 @@
           <t>603236.SH; 移远通信; 5;  09:59:19; 主板; 76.8; 曾涨停; 8.0%; 1.44H;  09:59:19|| 10:09:37|| 10:17:16|| 13:02:52|| 13:04:40</t>
         </is>
       </c>
+      <c r="BC14" t="inlineStr">
+        <is>
+          <t>002482.SZ; 广田集团; 2;  09:46:45; 主板; 2.16; 曾涨停; 4.9%; 0.61H;  09:46:45|| 09:50:09</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="5" t="n">
@@ -21271,6 +21506,11 @@
           <t>002403.SZ; 爱仕达; 1;  10:00:48; 主板; 17.62; 曾涨停; 6.8%; 0.01H;  10:00:48</t>
         </is>
       </c>
+      <c r="BC15" t="inlineStr">
+        <is>
+          <t>002269.SZ; 美邦服饰; 4;  09:46:57; 主板; 2.54; 曾涨停; 6.7%; 0.05H;  09:46:57|| 09:49:00|| 09:49:45|| 09:50:06</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="5" t="n">
@@ -21536,6 +21776,11 @@
           <t>002360.SZ; 同德化工; 5;  10:06:27; 主板; 5.41; 曾涨停; 5.9%; 1.38H;  10:06:27|| 10:06:39|| 10:08:51|| 10:09:36|| 13:08:51</t>
         </is>
       </c>
+      <c r="BC16" t="inlineStr">
+        <is>
+          <t>002706.SZ; 良信股份; 3;  09:47:15; 主板; 6.92; 曾涨停; 6.3%; 0.05H;  09:47:15|| 09:49:24|| 09:50:36</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="5" t="n">
@@ -21791,6 +22036,11 @@
           <t>002292.SZ; 奥飞娱乐; 1;  10:17:24; 主板; 9.5; 曾涨停; 7.3%; 1.57H;  10:17:24</t>
         </is>
       </c>
+      <c r="BC17" t="inlineStr">
+        <is>
+          <t>002580.SZ; 圣阳股份; 1;  09:47:18; 主板; 8.46; 曾涨停; 5.2%; 0.13H;  09:47:18</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="5" t="n">
@@ -22041,6 +22291,11 @@
           <t>603893.SH; 瑞芯微; 3;  10:18:17; 主板; 134.67; 曾涨停; 7.6%; 0.93H;  10:18:17|| 10:18:44|| 10:34:02</t>
         </is>
       </c>
+      <c r="BC18" t="inlineStr">
+        <is>
+          <t>002306.SZ; 中科云网; 2;  09:52:21; 主板; 2.91; 曾涨停; 3.9%; 1.65H;  09:52:21|| 09:53:00</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="5" t="n">
@@ -22291,6 +22546,11 @@
           <t>000607.SZ; 华媒控股; 1;  10:30:30; 主板; 3.8; 曾涨停; 6.1%; 1.62H;  10:30:30</t>
         </is>
       </c>
+      <c r="BC19" t="inlineStr">
+        <is>
+          <t>000430.SZ; 张家界; 2;  10:00:42; 主板; 7.54; 曾涨停; 1.2%; 0.01H;  10:00:42|| 10:02:39</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="5" t="n">
@@ -22521,6 +22781,11 @@
           <t>002489.SZ; 浙江永强; 1;  10:42:00; 主板; 3.29; 曾涨停; 5.8%; 1.59H;  10:42:00</t>
         </is>
       </c>
+      <c r="BC20" t="inlineStr">
+        <is>
+          <t>603045.SH; 福达合金; 3;  10:12:19; 主板; 14.77; 曾涨停; 0.8%; 0.01H;  10:12:19|| 10:12:52|| 10:13:19</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="5" t="n">
@@ -22751,6 +23016,11 @@
           <t>603378.SH; 亚士创能; 1;  10:52:16; 主板; 6.27; 曾涨停; 5.9%; 0.00H;  10:52:16</t>
         </is>
       </c>
+      <c r="BC21" t="inlineStr">
+        <is>
+          <t>002035.SZ; 华帝股份; 2;  10:20:24; 主板; 7.65; 曾涨停; 8.5%; 1.17H;  10:20:24|| 11:05:00</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="5" t="n">
@@ -22976,6 +23246,11 @@
           <t>002865.SZ; 钧达股份; 1;  11:16:51; 主板; 55.75; 曾涨停; 6.6%; 0.30H;  11:16:51</t>
         </is>
       </c>
+      <c r="BC22" t="inlineStr">
+        <is>
+          <t>002763.SZ; 汇洁股份; 2;  10:20:48; 主板; 6.89; 曾涨停; 5.5%; 0.25H;  10:20:48|| 10:22:09</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="5" t="n">
@@ -23186,6 +23461,11 @@
           <t>600481.SH; 双良节能; 1;  11:23:47; 主板; 5.6; 曾涨停; 6.7%; 0.15H;  11:23:47</t>
         </is>
       </c>
+      <c r="BC23" t="inlineStr">
+        <is>
+          <t>601001.SH; 晋控煤业; 1;  10:25:57; 主板; 13.73; 曾涨停; 7.3%; 0.01H;  10:25:57</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="5" t="n">
@@ -23396,6 +23676,11 @@
           <t>600525.SH; 长园集团; 4;  11:27:00; 主板; 5.07; 曾涨停; 6.1%; 0.10H;  11:27:00|| 11:27:54|| 13:09:57|| 13:18:57</t>
         </is>
       </c>
+      <c r="BC24" t="inlineStr">
+        <is>
+          <t>603211.SH; 晋拓股份; 2;  10:41:08; 主板; 16.17; 曾涨停; 5.3%; 0.08H;  10:41:08|| 10:43:08</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="5" t="n">
@@ -23601,6 +23886,11 @@
           <t>603093.SH; 南华期货; 1;  13:30:23; 主板; 11.96; 曾涨停; 5.6%; 0.01H;  13:30:23</t>
         </is>
       </c>
+      <c r="BC25" t="inlineStr">
+        <is>
+          <t>002813.SZ; 路畅科技; 1;  10:52:33; 主板; 23.63; 曾涨停; 5.9%; 0.01H;  10:52:33</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="5" t="n">
@@ -23791,6 +24081,11 @@
           <t>002400.SZ; 省广集团; 2;  13:46:27; 主板; 8.99; 曾涨停; 7.7%; 0.07H;  13:46:27|| 13:51:15</t>
         </is>
       </c>
+      <c r="BC26" t="inlineStr">
+        <is>
+          <t>300150.SZ; 世纪瑞尔; 1;  11:13:15; 创业板; 5.1; 曾涨停; 14.6%; 0.26H;  11:13:15</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="5" t="n">
@@ -23976,6 +24271,11 @@
           <t>002076.SZ; 星光股份; 1;  13:59:04; 主板; 2.8; 曾涨停; -1.4%; 0.04H;  13:59:04</t>
         </is>
       </c>
+      <c r="BC27" t="inlineStr">
+        <is>
+          <t>000707.SZ; 双环科技; 1;  11:26:15; 主板; 7.37; 曾涨停; 7.3%; 0.16H;  11:26:15</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="5" t="n">
@@ -24146,6 +24446,11 @@
           <t>000681.SZ; 视觉中国; 3;  14:03:22; 主板; 22.26; 曾涨停; 1.6%; 0.04H;  14:03:22|| 14:04:45|| 14:05:44</t>
         </is>
       </c>
+      <c r="BC28" t="inlineStr">
+        <is>
+          <t>601208.SH; 东材科技; 1;  13:24:07; 主板; 7.92; 曾涨停; 7.2%; 0.03H;  13:24:07</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="5" t="n">
@@ -24316,6 +24621,11 @@
           <t>300433.SZ; 蓝思科技; 2;  14:07:34; 创业板; 23.79; 曾涨停; -10.6%; 0.10H;  14:07:34|| 14:21:48</t>
         </is>
       </c>
+      <c r="BC29" t="inlineStr">
+        <is>
+          <t>603360.SH; 百傲化学; 1;  13:36:13; 主板; 23.82; 曾涨停; 8.2%; 0.01H;  13:36:13</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="5" t="n">
@@ -24484,6 +24794,11 @@
       <c r="BA30" t="inlineStr">
         <is>
           <t>600418.SH; 江淮汽车; 2;  14:15:49; 主板; 38.2; 曾涨停; 1.3%; 0.01H;  14:15:49|| 14:16:44</t>
+        </is>
+      </c>
+      <c r="BC30" t="inlineStr">
+        <is>
+          <t>002640.SZ; 跨境通; 2;  13:46:03; 主板; 5.62; 曾涨停; 8.3%; 0.13H;  13:46:03|| 13:54:18</t>
         </is>
       </c>
     </row>
@@ -27058,7 +27373,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BB128"/>
+  <dimension ref="A1:BC128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27332,6 +27647,11 @@
           <t>2025年01月15日</t>
         </is>
       </c>
+      <c r="BC1" s="5" t="inlineStr">
+        <is>
+          <t>2025年01月16日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="5" t="n">
@@ -27602,6 +27922,11 @@
           <t>001206.SZ; 依依股份; 0;  09:25:00; 首板涨停; 19.67;  09:25:00; 10.0%; 1; 年报预增+个护用品+三胎概念+外销</t>
         </is>
       </c>
+      <c r="BC2" t="inlineStr">
+        <is>
+          <t>002767.SZ; 先锋电子; 0;  09:25:00; 首板涨停; 14.38;  09:25:00; 10.0%; 1; 年报预增+智能燃气表+机器人</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="n">
@@ -27872,6 +28197,11 @@
           <t>600137.SH; 浪莎股份; 0;  09:30:01; 首板涨停; 15.94;  09:30:01; 10.0%; 1; 内衣+电子商务</t>
         </is>
       </c>
+      <c r="BC3" t="inlineStr">
+        <is>
+          <t>002123.SZ; 梦网科技; 0;  09:25:00; 首板涨停; 11.89;  09:25:00; 10.0%; 1; 拟收购碧橙数字+复牌+云通信</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="5" t="n">
@@ -28142,6 +28472,11 @@
           <t>600753.SH; 庚星股份; 0;  09:30:29; 首板涨停; 6.86;  09:30:29; 9.9%; 1; 充电桩+物流+参股武汉敏声</t>
         </is>
       </c>
+      <c r="BC4" t="inlineStr">
+        <is>
+          <t>600933.SH; 爱柯迪; 0;  09:25:02; 首板涨停; 16.68;  09:25:02; 10.0%; 1; 拟发股收购卓尔博71%股权+汽车零部件</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="n">
@@ -28412,6 +28747,11 @@
           <t>605337.SH; 李子园; 0;  09:33:29; 首板涨停; 11.91;  09:33:29; 10.0%; 1; 饮料乳品+电子商务</t>
         </is>
       </c>
+      <c r="BC5" t="inlineStr">
+        <is>
+          <t>603200.SH; 上海洗霸; 0;  09:30:00; 首板涨停; 25.85;  09:30:00; 10.0%; 1; 高比能软包锂离子固态电池设计完成+低空经济应用前景</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="5" t="n">
@@ -28682,6 +29022,11 @@
           <t>600367.SH; 红星发展; 2;  09:40:12; 首板涨停; 13.15;  09:32:12; 10.0%; 1; 小金属+锂电池+国企改革</t>
         </is>
       </c>
+      <c r="BC6" t="inlineStr">
+        <is>
+          <t>002212.SZ; 天融信; 0;  09:30:03; 首板涨停; 6.66;  09:30:03; 10.1%; 1; 年报预增+量子科技+网络安全+低空经济</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="n">
@@ -28952,6 +29297,11 @@
           <t>605339.SH; 南侨食品; 0;  09:42:51; 首板涨停; 18.21;  09:42:51; 10.0%; 1; 烘焙油脂+出海</t>
         </is>
       </c>
+      <c r="BC7" t="inlineStr">
+        <is>
+          <t>603518.SH; 锦泓集团; 0;  09:30:26; 首板涨停; 10.13;  09:30:26; 10.0%; 1; 小红书+年报预增+IP经济+服装家纺</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="5" t="n">
@@ -29222,6 +29572,11 @@
           <t>000430.SZ; 张家界; 0;  09:44:39; 首板涨停; 7.45;  09:44:39; 10.0%; 1; 披露招募重整投资人进展+旅游+国企改革</t>
         </is>
       </c>
+      <c r="BC8" t="inlineStr">
+        <is>
+          <t>000619.SZ; 海螺新材; 0;  09:30:39; 首板涨停; 6.26;  09:30:39; 10.0%; 1; 光伏+装修建材+智能家居+安徽国资</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="n">
@@ -29492,6 +29847,11 @@
           <t>001222.SZ; 源飞宠物; 0;  09:52:27; 首板涨停; 17.14;  09:52:27; 10.0%; 1; 宠物用品+跨境电商+外销</t>
         </is>
       </c>
+      <c r="BC9" t="inlineStr">
+        <is>
+          <t>603758.SH; 秦安股份; 0;  09:31:39; 首板涨停; 9.17;  09:31:39; 10.0%; 1; 发动机零部件+高分红</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="5" t="n">
@@ -29762,6 +30122,11 @@
           <t>002712.SZ; 思美传媒; 0;  09:53:24; 首板涨停; 5.7;  09:53:24; 10.0%; 1; 营销+小红书+字节+智谱</t>
         </is>
       </c>
+      <c r="BC10" t="inlineStr">
+        <is>
+          <t>600620.SH; 天宸股份; 0;  09:31:50; 首板涨停; 5.59;  09:31:50; 10.0%; 1; 年报预增+光储+房地产+出租车业务（已大幅削减）</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="5" t="n">
@@ -30032,6 +30397,11 @@
           <t>002967.SZ; 广电计量; 0;  09:55:21; 首板涨停; 17.85;  09:55:21; 10.0%; 1; 年报预增+机器人概念+低空经济+计量检测</t>
         </is>
       </c>
+      <c r="BC11" t="inlineStr">
+        <is>
+          <t>002743.SZ; 富煌钢构; 0;  09:32:03; 首板涨停; 6.01;  09:32:03; 10.1%; 1; 拟购买中科视界100%股份+建筑装饰</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="5" t="n">
@@ -30302,6 +30672,11 @@
           <t>603272.SH; 联翔股份; 14;  10:03:17; 首板涨停; 14.92;  09:43:17; 10.0%; 1; 装饰用品+电商</t>
         </is>
       </c>
+      <c r="BC12" t="inlineStr">
+        <is>
+          <t>001338.SZ; 永顺泰; 0;  09:33:06; 首板涨停; 10.75;  09:33:06; 10.0%; 1; 年报预增+麦芽制造+啤酒+国企改革</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="5" t="n">
@@ -30572,6 +30947,11 @@
           <t>600698.SH; 湖南天雁; 1;  10:13:11; 首板涨停; 6.05;  09:47:11; 10.0%; 1; 中兵系+汽车零部件+长安汽车</t>
         </is>
       </c>
+      <c r="BC13" t="inlineStr">
+        <is>
+          <t>000607.SZ; 华媒控股; 0;  09:33:39; 首板涨停; 4.18;  09:33:39; 10.0%; 1; 传媒+国企改革+资产处置</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="5" t="n">
@@ -30842,6 +31222,11 @@
           <t>300472.SZ; 新元科技; 0;  10:14:27; 首板涨停; 8.9;  10:14:27; 19.9%; 1; 数据中心+智能装备+机器人+AI眼镜</t>
         </is>
       </c>
+      <c r="BC14" t="inlineStr">
+        <is>
+          <t>002427.SZ; 尤夫股份; 0;  09:33:42; 首板涨停; 3.75;  09:33:42; 10.0%; 1; 涤纶工业丝+新能源汽车+陕西国资</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="5" t="n">
@@ -31107,6 +31492,11 @@
           <t>600714.SH; 金瑞矿业; 1;  10:15:26; 首板涨停; 11.62;  09:31:05; 10.0%; 1; 液晶玻璃基板+锶盐+硫磺+小金属</t>
         </is>
       </c>
+      <c r="BC15" t="inlineStr">
+        <is>
+          <t>002207.SZ; 准油股份; 0;  09:34:24; 首板涨停; 5.58;  09:34:24; 10.1%; 1; 石油+新疆国企+微盘股</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="5" t="n">
@@ -31372,6 +31762,11 @@
           <t>603600.SH; 永艺股份; 1;  10:27:06; 首板涨停; 13.43;  10:26:27; 10.0%; 1; 小红书+家居用品+外销+鸿蒙</t>
         </is>
       </c>
+      <c r="BC16" t="inlineStr">
+        <is>
+          <t>300894.SZ; 火星人; 0;  09:37:39; 首板涨停; 15.23;  09:37:39; 20.0%; 1; 厨房电器+电商</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="5" t="n">
@@ -31632,6 +32027,11 @@
           <t>605289.SH; 罗曼股份; 0;  10:36:16; 首板涨停; 24.73;  10:36:16; 10.0%; 1; 景观照明+IP运营+虚拟现实+并购重组</t>
         </is>
       </c>
+      <c r="BC17" t="inlineStr">
+        <is>
+          <t>002109.SZ; 兴化股份; 1;  09:37:54; 首板涨停; 3.43;  09:35:21; 9.9%; 1; 煤化工+国企</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="5" t="n">
@@ -31892,6 +32292,11 @@
           <t>603212.SH; 赛伍技术; 0;  10:49:11; 首板涨停; 10.82;  10:49:11; 10.0%; 1; 光伏概念+消费电子+先进封装</t>
         </is>
       </c>
+      <c r="BC18" t="inlineStr">
+        <is>
+          <t>301380.SZ; 挖金客; 0;  09:39:57; 首板涨停; 54.07;  09:39:57; 20.0%; 1; 小红书+数字营销+字节概念</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="5" t="n">
@@ -32147,6 +32552,11 @@
           <t>002640.SZ; 跨境通; 0;  10:50:15; 首板涨停; 5.19;  10:50:15; 10.0%; 1; 跨境电商+三胎概念+重整预期</t>
         </is>
       </c>
+      <c r="BC19" t="inlineStr">
+        <is>
+          <t>002543.SZ; 万和电气; 0;  09:40:54; 首板涨停; 10.85;  09:40:54; 10.0%; 1; 厨卫电器+空气能热泵+高股息</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="5" t="n">
@@ -32402,6 +32812,11 @@
           <t>600843.SH; 上工申贝; 0;  10:56:10; 首板涨停; 12.56;  10:56:10; 10.0%; 1; 机器人概念+碳纤维运动飞机+缝纫设备</t>
         </is>
       </c>
+      <c r="BC20" t="inlineStr">
+        <is>
+          <t>002765.SZ; 蓝黛科技; 1;  09:52:39; 首板涨停; 10.85;  09:33:48; 10.0%; 1; 减速器+低空经济+比亚迪概念+汽车电子</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="5" t="n">
@@ -32657,6 +33072,11 @@
           <t>000863.SZ; 三湘印象; 0;  11:00:33; 首板涨停; 3.99;  11:00:33; 9.9%; 1; IP经济+光伏+演艺+“文化+地产”</t>
         </is>
       </c>
+      <c r="BC21" t="inlineStr">
+        <is>
+          <t>002076.SZ; 星光股份; 2;  10:00:48; 首板涨停; 3.08;  09:36:48; 10.0%; 1; 数据中心+量子科技+锂电池+创投</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="5" t="n">
@@ -32912,6 +33332,11 @@
           <t>600156.SH; 华升股份; 0;  13:06:49; 首板涨停; 5.06;  13:06:49; 10.0%; 1; 小红书设有店铺+纺织+外销+折叠屏</t>
         </is>
       </c>
+      <c r="BC22" t="inlineStr">
+        <is>
+          <t>600397.SH; 安源煤业; 2;  10:03:21; 首板涨停; 4.83;  09:56:54; 10.0%; 1; 控股股东拟变更为江钨控股+江西国资+煤炭</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="5" t="n">
@@ -33162,6 +33587,11 @@
           <t>600981.SH; 汇鸿集团; 2;  13:15:57; 首板涨停; 2.7;  13:08:39; 10.2%; 1; 参股弘业期货+供应链运营+资产置换</t>
         </is>
       </c>
+      <c r="BC23" t="inlineStr">
+        <is>
+          <t>002677.SZ; 浙江美大; 0;  10:06:39; 首板涨停; 7.77;  10:06:39; 10.1%; 1; 智能家居+厨卫电器+高股息</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="5" t="n">
@@ -33407,6 +33837,11 @@
           <t>003030.SZ; 祖名股份; 0;  13:21:00; 首板涨停; 16.61;  13:21:00; 10.0%; 1; 豆制品+小红书+电商</t>
         </is>
       </c>
+      <c r="BC24" t="inlineStr">
+        <is>
+          <t>605336.SH; 帅丰电器; 1;  10:10:06; 首板涨停; 14.03;  10:09:24; 10.0%; 1; 业绩落地+厨房电器+电商+高股息</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="5" t="n">
@@ -33652,6 +34087,11 @@
           <t>001236.SZ; 弘业期货; 0;  13:26:51; 首板涨停; 10.11;  13:26:51; 10.0%; 1; 期货+江苏国资</t>
         </is>
       </c>
+      <c r="BC25" t="inlineStr">
+        <is>
+          <t>600868.SH; 梅雁吉祥; 1;  10:20:52; 首板涨停; 2.78;  10:19:07; 9.9%; 1; 回购+锑+氢能源+绿色电力</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="5" t="n">
@@ -33897,6 +34337,11 @@
           <t>603270.SH; 金帝股份; 0;  13:56:35; 首板涨停; 21.54;  13:56:35; 10.0%; 1; 机器人+汽车零部件+风电</t>
         </is>
       </c>
+      <c r="BC26" t="inlineStr">
+        <is>
+          <t>002766.SZ; 索菱股份; 0;  10:32:24; 首板涨停; 6.58;  10:32:24; 10.0%; 1; 内嵌 ECALL 功能平台+地平线合作+无人驾驶+车联网</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="5" t="n">
@@ -34142,6 +34587,11 @@
           <t>600984.SH; 建设机械; 0;  14:11:41; 首板涨停; 3.5;  14:11:41; 10.1%; 1; 工程机械+西部大开发+一带一路+陕西国资</t>
         </is>
       </c>
+      <c r="BC27" t="inlineStr">
+        <is>
+          <t>002861.SZ; 瀛通通讯; 0;  10:34:45; 首板涨停; 11.68;  10:34:45; 10.0%; 1; AI终端+电声产品+外销</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="5" t="n">
@@ -34382,6 +34832,11 @@
           <t>600689.SH; 上海三毛; 0;  14:13:43; 首板涨停; 10.89;  14:13:43; 10.0%; 1; 进出口贸易+外销+控股股东拟被托管+国企改革</t>
         </is>
       </c>
+      <c r="BC28" t="inlineStr">
+        <is>
+          <t>600490.SH; 鹏欣资源; 0;  10:49:52; 首板涨停; 3.37;  10:49:52; 10.1%; 1; 金矿开采+金属矿产+复产</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="5" t="n">
@@ -34617,6 +35072,11 @@
           <t>002582.SZ; 好想你; 2;  14:34:48; 首板涨停; 9.52;  13:40:39; 10.1%; 1; 微信小店+红枣+间接参投蜜雪冰城</t>
         </is>
       </c>
+      <c r="BC29" t="inlineStr">
+        <is>
+          <t>002348.SZ; 高乐股份; 0;  11:02:51; 首板涨停; 3.44;  11:02:51; 9.9%; 1; IP经济+玩具+机器人概念+固态电池</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="5" t="n">
@@ -34852,6 +35312,11 @@
           <t>601865.SH; 福莱特; 2;  14:39:15; 首板涨停; 20.42;  10:46:03; 10.0%; 1; 光伏玻璃龙头</t>
         </is>
       </c>
+      <c r="BC30" t="inlineStr">
+        <is>
+          <t>002361.SZ; 神剑股份; 8;  13:09:12; 首板涨停; 5.37;  09:32:12; 10.0%; 1; 实控人拟变更+商业航天+聚酯树脂产品+军工</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="5" t="n">
@@ -35082,6 +35547,11 @@
           <t>002552.SZ; 宝鼎科技; 0;  14:39:30; 首板涨停; 16.72;  14:39:30; 10.0%; 1; 覆铜板+黄金+国企</t>
         </is>
       </c>
+      <c r="BC31" t="inlineStr">
+        <is>
+          <t>601100.SH; 恒立液压; 9;  13:57:57; 首板涨停; 59.65;  09:30:00; 10.0%; 1; 高端装备+油缸+滚珠丝杠</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="5" t="n">
@@ -35312,6 +35782,11 @@
           <t>603315.SH; 福鞍股份; 1;  14:41:01; 首板涨停; 11.23;  14:38:13; 10.0%; 1; 算力+锂电池+大型铸钢件</t>
         </is>
       </c>
+      <c r="BC32" t="inlineStr">
+        <is>
+          <t>600962.SH; 国投中鲁; 0;  14:03:12; 首板涨停; 13.82;  14:03:12; 10.0%; 1; 浓缩苹果汁+外销+央企</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="5" t="n">
@@ -35537,6 +36012,11 @@
           <t>000795.SZ; 英洛华; 7;  14:47:12; 首板涨停; 13.01;  11:07:54; 10.0%; 1; 稀土永磁+机器人+健康器材</t>
         </is>
       </c>
+      <c r="BC33" t="inlineStr">
+        <is>
+          <t>300152.SZ; 新动力; 4;  14:07:12; 首板涨停; 5.77;  10:24:09; 20.0%; 1; 变更为无实控人状态+环保+创投+氢燃料电池催化剂</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="5" t="n">
@@ -35757,6 +36237,11 @@
           <t>300242.SZ; 佳云科技; 0;  14:50:21; 首板涨停; 5.5;  14:50:21; 20.1%; 1; 小红书+营销+游戏+化妆品</t>
         </is>
       </c>
+      <c r="BC34" t="inlineStr">
+        <is>
+          <t>603118.SH; 共进股份; 2;  14:09:56; 首板涨停; 10.18;  09:41:14; 10.1%; 1; 交换机+数据中心+先进封装+激光雷达</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="5" t="n">
@@ -35977,6 +36462,11 @@
           <t>300299.SZ; 富春股份; 2;  14:52:12; 首板涨停; 6.71;  10:19:06; 20.0%; 1; AI宠物+游戏+抖音概念+虚拟现实</t>
         </is>
       </c>
+      <c r="BC35" t="inlineStr">
+        <is>
+          <t>300394.SZ; 天孚通信; 0;  14:10:12; 首板涨停; 103.22;  14:10:12; 20.0%; 1; CPO+光引擎</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="5" t="n">
@@ -36192,6 +36682,11 @@
           <t>605080.SH; 浙江自然; 0;  09:57:54; 首板涨停; 27.7;  09:57:54; 0.5%; 1; 股权激励+迪卡侬+露营经济+外销</t>
         </is>
       </c>
+      <c r="BC36" t="inlineStr">
+        <is>
+          <t>002843.SZ; 泰嘉股份; 2;  14:14:27; 首板涨停; 25.19;  13:19:27; 10.0%; 1; 数据中心电源+智能终端充电电源</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="5" t="n">
@@ -36407,6 +36902,11 @@
           <t>002691.SZ; 冀凯股份; 0;  09:58:43; 首板涨停; 5.67;  09:58:43; 10.1%; 1; 机器人+矿山装备+3D打印</t>
         </is>
       </c>
+      <c r="BC37" t="inlineStr">
+        <is>
+          <t>600851.SH; 海欣股份; 0;  14:14:58; 首板涨停; 6.27;  14:14:58; 10.0%; 1; 参股券商+创新药+物业管理+服装纺织</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="5" t="n">
@@ -36622,6 +37122,11 @@
           <t>603989.SH; 艾华集团; 1;  09:58:58; 首板涨停; 16.17;  09:57:54; 1.7%; 1; 铝电解电容器+数据中心+资产注入预期</t>
         </is>
       </c>
+      <c r="BC38" t="inlineStr">
+        <is>
+          <t>002799.SZ; 环球印务; 4;  14:24:54; 首板涨停; 8.76;  13:01:51; 10.1%; 1; 字节（营销）+腾讯+医药包装+国企</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="5" t="n">
@@ -36832,6 +37337,11 @@
           <t>603629.SH; 利通电子; 2;  09:59:28; 首板涨停; 22.08;  09:51:47; -0.3%; 1; 算力租赁+英伟达概念</t>
         </is>
       </c>
+      <c r="BC39" t="inlineStr">
+        <is>
+          <t>600807.SH; 济高发展; 17;  14:31:09; 首板涨停; 2.95;  09:32:51; 10.1%; 1; 资产注入猜测+体外诊断+济南国资</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="5" t="n">
@@ -37037,6 +37547,11 @@
           <t>000531.SZ; 穗恒运A; 3;  10:04:32; 首板涨停; 6.23;  09:45:48; -2.0%; 1; 回购增持再贷款+光伏+绿电+广州国资</t>
         </is>
       </c>
+      <c r="BC40" t="inlineStr">
+        <is>
+          <t>603069.SH; 海汽集团; 0;  14:39:23; 首板涨停; 18.65;  14:39:23; 10.0%; 1; 拟收购海旅免税100%股权+海南自贸区+海南国资</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="5" t="n">
@@ -37242,6 +37757,11 @@
           <t>002530.SZ; 金财互联; 4;  10:06:47; 首板涨停; 9.77;  09:50:14; 1.1%; 1; 财税大模型+财税数字化+机器人</t>
         </is>
       </c>
+      <c r="BC41" t="inlineStr">
+        <is>
+          <t>000759.SZ; 中百集团; 4;  14:44:12; 首板涨停; 10.6;  10:29:27; 10.0%; 1; 商业零售+IP+胖东来指导交流+湖北国资</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="5" t="n">
@@ -37442,6 +37962,11 @@
           <t>600580.SH; 卧龙电驱; 1;  10:09:02; 首板涨停; 19.09;  09:53:54; 1.2%; 1; 人形机器人+飞行汽车+电机</t>
         </is>
       </c>
+      <c r="BC42" t="inlineStr">
+        <is>
+          <t>002578.SZ; 闽发铝业; 0;  14:46:03; 首板涨停; 3.31;  14:46:03; 10.0%; 1; 铝型材+光伏+新能源汽车+国企改革</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="5" t="n">
@@ -37642,6 +38167,11 @@
           <t>300521.SZ; 爱司凯; 0;  10:15:16; 首板涨停; 19.57;  10:15:16; -2.3%; 1; 工业化打印产品+3D打印+柔性屏</t>
         </is>
       </c>
+      <c r="BC43" t="inlineStr">
+        <is>
+          <t>600778.SH; 友好集团; 1;  14:52:23; 首板涨停; 8.94;  14:50:23; 10.0%; 1; 零售+免税店+新疆振兴</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="5" t="n">
@@ -37840,6 +38370,11 @@
       <c r="BA44" t="inlineStr">
         <is>
           <t>600480.SH; 凌云股份; 0;  10:18:35; 首板涨停; 11.76;  10:18:35; 3.0%; 1; 汽车零部件+中兵系+传感器+央企</t>
+        </is>
+      </c>
+      <c r="BC44" t="inlineStr">
+        <is>
+          <t>605179.SH; 一鸣食品; 0;  14:56:16; 首板涨停; 21.66;  14:56:16; 10.0%; 1; 乳品+微信小店+冷链物流</t>
         </is>
       </c>
     </row>
@@ -43084,7 +43619,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BB50"/>
+  <dimension ref="A1:BC50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43358,6 +43893,11 @@
           <t>2025年01月15日</t>
         </is>
       </c>
+      <c r="BC1" s="5" t="inlineStr">
+        <is>
+          <t>2025年01月16日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="5" t="n">
@@ -43628,6 +44168,11 @@
           <t>002187.SZ; 广百股份; 2.9%; 13.2%; 9.15; 10.0%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="BC2" t="inlineStr">
+        <is>
+          <t>000016.SZ; 深康佳A; 4.7%; 15.4%; 6.81; 10.0%; 阳线||放量||价升量缩</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="n">
@@ -43898,6 +44443,11 @@
           <t>603068.SH; 博通集成; 2.6%; 12.9%; 34.75; 10.0%; 强中选强||阳线||放量</t>
         </is>
       </c>
+      <c r="BC3" t="inlineStr">
+        <is>
+          <t>002187.SZ; 广百股份; 3.7%; 14.3%; 10.07; 10.1%; 强中选强||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="5" t="n">
@@ -44156,6 +44706,11 @@
           <t>002811.SZ; 郑中设计; 2.5%; 12.7%; 10.71; 10.0%; 价升量涨||强中选强||阳线</t>
         </is>
       </c>
+      <c r="BC4" t="inlineStr">
+        <is>
+          <t>600693.SH; 东百集团; 2.1%; 12.5%; 7.22; 10.1%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="n">
@@ -44406,6 +44961,11 @@
           <t>002552.SZ; 宝鼎科技; 2.1%; 12.4%; 16.72; 10.0%; 价升量涨||强中选强||阳线</t>
         </is>
       </c>
+      <c r="BC5" t="inlineStr">
+        <is>
+          <t>600778.SH; 友好集团; 2.1%; 12.3%; 8.94; 10.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="5" t="n">
@@ -44648,6 +45208,7 @@
           <t>000795.SZ; 英洛华; 1.9%; 12.1%; 13.01; 10.0%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="BC6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="5" t="n">
@@ -44878,6 +45439,7 @@
           <t>600698.SH; 湖南天雁; 1.8%; 12.0%; 6.05; 10.0%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="BC7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="5" t="n">
@@ -45096,6 +45658,7 @@
         </is>
       </c>
       <c r="BB8" t="inlineStr"/>
+      <c r="BC8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="5" t="n">
@@ -45306,6 +45869,7 @@
         </is>
       </c>
       <c r="BB9" t="inlineStr"/>
+      <c r="BC9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="5" t="n">
@@ -45496,6 +46060,7 @@
       </c>
       <c r="BA10" t="inlineStr"/>
       <c r="BB10" t="inlineStr"/>
+      <c r="BC10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="5" t="n">
@@ -45674,6 +46239,7 @@
       </c>
       <c r="BA11" t="inlineStr"/>
       <c r="BB11" t="inlineStr"/>
+      <c r="BC11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="5" t="n">
@@ -45828,6 +46394,7 @@
       </c>
       <c r="BA12" t="inlineStr"/>
       <c r="BB12" t="inlineStr"/>
+      <c r="BC12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="5" t="n">
@@ -45966,6 +46533,7 @@
       </c>
       <c r="BA13" t="inlineStr"/>
       <c r="BB13" t="inlineStr"/>
+      <c r="BC13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="5" t="n">
@@ -46100,6 +46668,7 @@
       </c>
       <c r="BA14" t="inlineStr"/>
       <c r="BB14" t="inlineStr"/>
+      <c r="BC14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="5" t="n">
@@ -46226,6 +46795,7 @@
       </c>
       <c r="BA15" t="inlineStr"/>
       <c r="BB15" t="inlineStr"/>
+      <c r="BC15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="5" t="n">
@@ -46348,6 +46918,7 @@
       </c>
       <c r="BA16" t="inlineStr"/>
       <c r="BB16" t="inlineStr"/>
+      <c r="BC16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="5" t="n">
@@ -46462,6 +47033,7 @@
       </c>
       <c r="BA17" t="inlineStr"/>
       <c r="BB17" t="inlineStr"/>
+      <c r="BC17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="5" t="n">
@@ -46572,6 +47144,7 @@
       <c r="AZ18" t="inlineStr"/>
       <c r="BA18" t="inlineStr"/>
       <c r="BB18" t="inlineStr"/>
+      <c r="BC18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="5" t="n">
@@ -46678,6 +47251,7 @@
       <c r="AZ19" t="inlineStr"/>
       <c r="BA19" t="inlineStr"/>
       <c r="BB19" t="inlineStr"/>
+      <c r="BC19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="5" t="n">
@@ -46784,6 +47358,7 @@
       <c r="AZ20" t="inlineStr"/>
       <c r="BA20" t="inlineStr"/>
       <c r="BB20" t="inlineStr"/>
+      <c r="BC20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="5" t="n">
@@ -46890,6 +47465,7 @@
       <c r="AZ21" t="inlineStr"/>
       <c r="BA21" t="inlineStr"/>
       <c r="BB21" t="inlineStr"/>
+      <c r="BC21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="5" t="n">
@@ -46988,6 +47564,7 @@
       <c r="AZ22" t="inlineStr"/>
       <c r="BA22" t="inlineStr"/>
       <c r="BB22" t="inlineStr"/>
+      <c r="BC22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="5" t="n">
@@ -47082,6 +47659,7 @@
       <c r="AZ23" t="inlineStr"/>
       <c r="BA23" t="inlineStr"/>
       <c r="BB23" t="inlineStr"/>
+      <c r="BC23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="5" t="n">
@@ -47172,6 +47750,7 @@
       <c r="AZ24" t="inlineStr"/>
       <c r="BA24" t="inlineStr"/>
       <c r="BB24" t="inlineStr"/>
+      <c r="BC24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="5" t="n">
@@ -47258,6 +47837,7 @@
       <c r="AZ25" t="inlineStr"/>
       <c r="BA25" t="inlineStr"/>
       <c r="BB25" t="inlineStr"/>
+      <c r="BC25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="5" t="n">
@@ -47336,6 +47916,7 @@
       <c r="AZ26" t="inlineStr"/>
       <c r="BA26" t="inlineStr"/>
       <c r="BB26" t="inlineStr"/>
+      <c r="BC26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="5" t="n">
@@ -47414,6 +47995,7 @@
       <c r="AZ27" t="inlineStr"/>
       <c r="BA27" t="inlineStr"/>
       <c r="BB27" t="inlineStr"/>
+      <c r="BC27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="5" t="n">
@@ -47492,6 +48074,7 @@
       <c r="AZ28" t="inlineStr"/>
       <c r="BA28" t="inlineStr"/>
       <c r="BB28" t="inlineStr"/>
+      <c r="BC28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="5" t="n">
@@ -47570,6 +48153,7 @@
       <c r="AZ29" t="inlineStr"/>
       <c r="BA29" t="inlineStr"/>
       <c r="BB29" t="inlineStr"/>
+      <c r="BC29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="5" t="n">
@@ -47644,6 +48228,7 @@
       <c r="AZ30" t="inlineStr"/>
       <c r="BA30" t="inlineStr"/>
       <c r="BB30" t="inlineStr"/>
+      <c r="BC30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="5" t="n">
@@ -47718,6 +48303,7 @@
       <c r="AZ31" t="inlineStr"/>
       <c r="BA31" t="inlineStr"/>
       <c r="BB31" t="inlineStr"/>
+      <c r="BC31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="5" t="n">
@@ -47792,6 +48378,7 @@
       <c r="AZ32" t="inlineStr"/>
       <c r="BA32" t="inlineStr"/>
       <c r="BB32" t="inlineStr"/>
+      <c r="BC32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="5" t="n">
@@ -47866,6 +48453,7 @@
       <c r="AZ33" t="inlineStr"/>
       <c r="BA33" t="inlineStr"/>
       <c r="BB33" t="inlineStr"/>
+      <c r="BC33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="5" t="n">
@@ -47932,6 +48520,7 @@
       <c r="AZ34" t="inlineStr"/>
       <c r="BA34" t="inlineStr"/>
       <c r="BB34" t="inlineStr"/>
+      <c r="BC34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="5" t="n">
@@ -47998,6 +48587,7 @@
       <c r="AZ35" t="inlineStr"/>
       <c r="BA35" t="inlineStr"/>
       <c r="BB35" t="inlineStr"/>
+      <c r="BC35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="5" t="n">
@@ -48064,6 +48654,7 @@
       <c r="AZ36" t="inlineStr"/>
       <c r="BA36" t="inlineStr"/>
       <c r="BB36" t="inlineStr"/>
+      <c r="BC36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="5" t="n">
@@ -48130,6 +48721,7 @@
       <c r="AZ37" t="inlineStr"/>
       <c r="BA37" t="inlineStr"/>
       <c r="BB37" t="inlineStr"/>
+      <c r="BC37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="5" t="n">
@@ -48196,6 +48788,7 @@
       <c r="AZ38" t="inlineStr"/>
       <c r="BA38" t="inlineStr"/>
       <c r="BB38" t="inlineStr"/>
+      <c r="BC38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="5" t="n">
@@ -48262,6 +48855,7 @@
       <c r="AZ39" t="inlineStr"/>
       <c r="BA39" t="inlineStr"/>
       <c r="BB39" t="inlineStr"/>
+      <c r="BC39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="5" t="n">
@@ -48328,6 +48922,7 @@
       <c r="AZ40" t="inlineStr"/>
       <c r="BA40" t="inlineStr"/>
       <c r="BB40" t="inlineStr"/>
+      <c r="BC40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="5" t="n">
@@ -48394,6 +48989,7 @@
       <c r="AZ41" t="inlineStr"/>
       <c r="BA41" t="inlineStr"/>
       <c r="BB41" t="inlineStr"/>
+      <c r="BC41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="5" t="n">
@@ -48456,6 +49052,7 @@
       <c r="AZ42" t="inlineStr"/>
       <c r="BA42" t="inlineStr"/>
       <c r="BB42" t="inlineStr"/>
+      <c r="BC42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="5" t="n">
@@ -48518,6 +49115,7 @@
       <c r="AZ43" t="inlineStr"/>
       <c r="BA43" t="inlineStr"/>
       <c r="BB43" t="inlineStr"/>
+      <c r="BC43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="5" t="n">
@@ -48580,6 +49178,7 @@
       <c r="AZ44" t="inlineStr"/>
       <c r="BA44" t="inlineStr"/>
       <c r="BB44" t="inlineStr"/>
+      <c r="BC44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="5" t="n">
@@ -48642,6 +49241,7 @@
       <c r="AZ45" t="inlineStr"/>
       <c r="BA45" t="inlineStr"/>
       <c r="BB45" t="inlineStr"/>
+      <c r="BC45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="5" t="n">
@@ -48704,6 +49304,7 @@
       <c r="AZ46" t="inlineStr"/>
       <c r="BA46" t="inlineStr"/>
       <c r="BB46" t="inlineStr"/>
+      <c r="BC46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="5" t="n">
@@ -48766,6 +49367,7 @@
       <c r="AZ47" t="inlineStr"/>
       <c r="BA47" t="inlineStr"/>
       <c r="BB47" t="inlineStr"/>
+      <c r="BC47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="5" t="n">
@@ -48828,6 +49430,7 @@
       <c r="AZ48" t="inlineStr"/>
       <c r="BA48" t="inlineStr"/>
       <c r="BB48" t="inlineStr"/>
+      <c r="BC48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="5" t="n">
@@ -48890,6 +49493,7 @@
       <c r="AZ49" t="inlineStr"/>
       <c r="BA49" t="inlineStr"/>
       <c r="BB49" t="inlineStr"/>
+      <c r="BC49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="5" t="n">
@@ -48952,6 +49556,7 @@
       <c r="AZ50" t="inlineStr"/>
       <c r="BA50" t="inlineStr"/>
       <c r="BB50" t="inlineStr"/>
+      <c r="BC50" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/excel/fupan_stocks.xlsx
+++ b/excel/fupan_stocks.xlsx
@@ -470,7 +470,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BC65"/>
+  <dimension ref="A1:BD65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -749,6 +749,11 @@
           <t>2025年01月16日</t>
         </is>
       </c>
+      <c r="BD1" s="5" t="inlineStr">
+        <is>
+          <t>2025年01月17日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="5" t="n">
@@ -1024,6 +1029,11 @@
           <t>002291.SZ; 遥望科技; 0;  09:25:00; 3天3板; 7.66;  09:25:00; 10.1%; 3; 小红书+营销+抖音+出海</t>
         </is>
       </c>
+      <c r="BD2" t="inlineStr">
+        <is>
+          <t>600539.SH; 狮头股份; 0;  09:30:00; 4天4板; 9.69;  09:30:00; 10.0%; 4; 电商服务+宠物食品+布局小红书</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="n">
@@ -1299,6 +1309,11 @@
           <t>002691.SZ; 冀凯股份; 0;  09:25:00; 3天3板; 6.24;  09:25:00; 10.1%; 3; 机器人+矿山装备+3D打印</t>
         </is>
       </c>
+      <c r="BD3" t="inlineStr">
+        <is>
+          <t>002691.SZ; 冀凯股份; 0;  09:30:00; 4天4板; 6.86;  09:30:00; 9.9%; 4; 机器人+矿山装备+3D打印</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="5" t="n">
@@ -1574,6 +1589,11 @@
           <t>002122.SZ; 汇洲智能; 0;  09:25:00; 3天3板; 5.1;  09:25:00; 9.9%; 3; 小红书审核+数据中心+工业母机</t>
         </is>
       </c>
+      <c r="BD4" t="inlineStr">
+        <is>
+          <t>002578.SZ; 闽发铝业; 0;  09:30:15; 2天2板; 3.64;  09:30:15; 10.0%; 2; 铝型材+光伏+新能源汽车+国企改革</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="n">
@@ -1849,6 +1869,11 @@
           <t>603177.SH; 德创环保; 0;  09:25:01; 3天3板; 9.56;  09:25:01; 10.0%; 3; 钠离子电池+氢能源+节能环保+出海</t>
         </is>
       </c>
+      <c r="BD5" t="inlineStr">
+        <is>
+          <t>002122.SZ; 汇洲智能; 0;  09:31:00; 4天4板; 5.61;  09:31:00; 10.0%; 4; 小红书审核+数据中心+工业母机</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="5" t="n">
@@ -2124,6 +2149,11 @@
           <t>600358.SH; 国旅联合; 0;  09:25:01; 3天3板; 4.33;  09:25:01; 9.9%; 3; 小红书+营销+旅游+国企改革</t>
         </is>
       </c>
+      <c r="BD6" t="inlineStr">
+        <is>
+          <t>002861.SZ; 瀛通通讯; 0;  09:32:15; 2天2板; 12.85;  09:32:15; 10.0%; 2; AI终端+电声产品+外销</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="n">
@@ -2399,6 +2429,11 @@
           <t>600714.SH; 金瑞矿业; 0;  09:25:01; 2天2板; 12.78;  09:25:01; 10.0%; 2; 液晶玻璃基板+锶盐+硫磺+小金属</t>
         </is>
       </c>
+      <c r="BD7" t="inlineStr">
+        <is>
+          <t>002730.SZ; 电光科技; 0;  09:34:15; 20天12板; 18.81;  09:34:15; 10.0%; 1; 算力+机器人+物联网+防爆电器</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="5" t="n">
@@ -2674,6 +2709,11 @@
           <t>600128.SH; 苏豪弘业; 0;  09:30:01; 6天6板; 14;  09:30:01; 10.0%; 6; AI玩具+跨境电商+参股弘业期货+江苏国资</t>
         </is>
       </c>
+      <c r="BD8" t="inlineStr">
+        <is>
+          <t>002543.SZ; 万和电气; 3;  09:35:15; 2天2板; 11.94;  09:30:45; 10.0%; 2; 厨卫电器+空气能热泵+高股息</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="n">
@@ -2949,6 +2989,11 @@
           <t>600556.SH; 天下秀; 1;  09:31:35; 3天3板; 6.34;  09:25:02; 10.1%; 3; 小红书+网红经济+元宇宙</t>
         </is>
       </c>
+      <c r="BD9" t="inlineStr">
+        <is>
+          <t>600358.SH; 国旅联合; 1;  09:37:15; 4天4板; 4.76;  09:30:00; 9.9%; 4; 小红书+营销+旅游+国企改革</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="5" t="n">
@@ -3224,6 +3269,11 @@
           <t>603808.SH; 歌力思; 1;  09:32:44; 3天3板; 8.81;  09:32:05; 10.0%; 3; 小红书+微信小店+服装纺织+股权转让</t>
         </is>
       </c>
+      <c r="BD10" t="inlineStr">
+        <is>
+          <t>603511.SH; 爱慕股份; 0;  09:42:00; 4天4板; 16.65;  09:42:00; 10.0%; 4; 小红书+服装+IP经济+电商</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="5" t="n">
@@ -3499,6 +3549,11 @@
           <t>600539.SH; 狮头股份; 0;  09:35:38; 3天3板; 8.81;  09:35:38; 10.0%; 3; 电商服务+宠物食品+布局小红书</t>
         </is>
       </c>
+      <c r="BD11" t="inlineStr">
+        <is>
+          <t>002636.SZ; 金安国纪; 0;  09:48:46; 4天4板; 10.26;  09:48:46; 10.0%; 4; 覆铜板+PCB</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="5" t="n">
@@ -3774,6 +3829,11 @@
           <t>603511.SH; 爱慕股份; 1;  09:36:03; 3天3板; 15.14;  09:25:03; 10.0%; 3; 小红书+服装+IP经济+电商</t>
         </is>
       </c>
+      <c r="BD12" t="inlineStr">
+        <is>
+          <t>600714.SH; 金瑞矿业; 3;  09:50:46; 3天3板; 14.06;  09:30:00; 10.0%; 3; 液晶玻璃基板+锶盐+硫磺+小金属</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="5" t="n">
@@ -4044,6 +4104,11 @@
           <t>600367.SH; 红星发展; 5;  10:01:01; 2天2板; 14.47;  09:30:19; 10.0%; 2; 小金属+锂电池+国企改革</t>
         </is>
       </c>
+      <c r="BD13" t="inlineStr">
+        <is>
+          <t>002552.SZ; 宝鼎科技; 0;  10:18:53; 3天2板; 17.48;  10:18:53; 10.0%; 1; 覆铜板+黄金+国企</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="5" t="n">
@@ -4314,6 +4379,11 @@
           <t>603598.SH; 引力传媒; 9;  10:04:33; 3天3板; 20.05;  09:25:00; 10.0%; 3; 小红书+营销+抖音概念+大模型</t>
         </is>
       </c>
+      <c r="BD14" t="inlineStr">
+        <is>
+          <t>600423.SH; 柳化股份; 0;  10:34:23; 5天4板; 4.28;  10:34:23; 10.0%; 1; 化工+芯片概念+电子级双氧水+国企</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="5" t="n">
@@ -4579,6 +4649,11 @@
           <t>002636.SZ; 金安国纪; 6;  10:13:30; 3天3板; 9.33;  09:47:24; 10.0%; 3; 覆铜板+PCB</t>
         </is>
       </c>
+      <c r="BD15" t="inlineStr">
+        <is>
+          <t>603166.SH; 福达股份; 9;  10:57:54; 6天4板; 9.69;  09:40:15; 10.0%; 1; 机器人+比亚迪+汽车离合器</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="5" t="n">
@@ -4829,6 +4904,11 @@
           <t>002187.SZ; 广百股份; 1;  10:26:21; 8天5板; 10.07;  10:25:51; 10.1%; 2; 百货零售+IP经济+黄金珠宝+国企</t>
         </is>
       </c>
+      <c r="BD16" t="inlineStr">
+        <is>
+          <t>003030.SZ; 祖名股份; 0;  13:06:55; 3天2板; 18.07;  13:06:55; 10.0%; 1; 豆制品+小红书+电商</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="5" t="n">
@@ -5064,6 +5144,11 @@
           <t>603068.SH; 博通集成; 0;  11:10:00; 6天4板; 38.23;  11:10:00; 10.0%; 2; 携手豆包赋能奥嘟比AI智能套件+无线连接芯片</t>
         </is>
       </c>
+      <c r="BD17" t="inlineStr">
+        <is>
+          <t>002767.SZ; 先锋电子; 0;  13:21:55; 2天2板; 15.82;  13:21:55; 10.0%; 2; 年报预增+芯片+智能燃气表+机器人</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="5" t="n">
@@ -5294,6 +5379,11 @@
           <t>600545.SH; 卓郎智能; 0;  11:18:11; 3天2板; 2.89;  11:18:11; 9.9%; 1; 机器人+纺织机械+外销+低价股</t>
         </is>
       </c>
+      <c r="BD18" t="inlineStr">
+        <is>
+          <t>603177.SH; 德创环保; 1;  13:38:10; 4天4板; 10.52;  09:30:00; 10.0%; 4; 氢能源+钠离子电池+节能环保+出海</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="5" t="n">
@@ -5519,6 +5609,11 @@
           <t>600601.SH; 方正科技; 5;  13:26:38; 8天5板; 5.41;  09:45:11; 10.0%; 1; PCB+光模块+外销+国企</t>
         </is>
       </c>
+      <c r="BD19" t="inlineStr">
+        <is>
+          <t>605179.SH; 一鸣食品; 3;  14:31:49; 2天2板; 23.83;  13:57:10; 10.0%; 2; 乳品+微信小店+冷链物流</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="5" t="n">
@@ -5729,6 +5824,11 @@
           <t>002917.SZ; 金奥博; 16;  13:47:51; 6天6板; 17.38;  09:30:57; 10.0%; 6; 机器人+民爆+芯片概念+一带一路</t>
         </is>
       </c>
+      <c r="BD20" t="inlineStr">
+        <is>
+          <t>002917.SZ; 金奥博; 8;  14:42:03; 7天7板; 19.12;  09:30:15; 10.0%; 7; 机器人+民爆+芯片概念+一带一路</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="5" t="n">
@@ -5927,6 +6027,11 @@
       <c r="BC21" t="inlineStr">
         <is>
           <t>000016.SZ; 深康佳A; 6;  13:59:21; 3天2板; 6.81;  13:49:39; 10.0%; 1; 拟购买股权+AI眼镜+存储芯片</t>
+        </is>
+      </c>
+      <c r="BD21" t="inlineStr">
+        <is>
+          <t>002031.SZ; 巨轮智能; 3;  14:55:42; 4天3板; 7.24;  09:50:16; 10.0%; 1; 人形机器人+RV减速器+轮胎模具</t>
         </is>
       </c>
     </row>
@@ -10281,7 +10386,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BC146"/>
+  <dimension ref="A1:BD146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10560,6 +10665,11 @@
           <t>2025年01月16日</t>
         </is>
       </c>
+      <c r="BD1" s="5" t="inlineStr">
+        <is>
+          <t>2025年01月17日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="5" t="n">
@@ -10825,6 +10935,11 @@
           <t>002117.SZ; 东港股份; 6;  11:00:36; 缩量跌停; 13.14; -10.0%; 1; 此前涨幅较大+机器人板块大跌</t>
         </is>
       </c>
+      <c r="BD2" t="inlineStr">
+        <is>
+          <t>605033.SH; 美邦股份; 0;  09:30:00; 一字跌停||缩量跌停; 25.27; -10.0%; 2; 此前发布股票交易风险提示公告</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="n">
@@ -11090,6 +11205,11 @@
           <t>605033.SH; 美邦股份; 1;  13:03:59; 放量跌停; 28.08; -10.0%; 1; 此前发布股票交易风险提示公告+昨日10连板涨停（涨幅过大）</t>
         </is>
       </c>
+      <c r="BD3" t="inlineStr">
+        <is>
+          <t>600128.SH; 苏豪弘业; 8;  09:30:45; 放量跌停; 12.6; -10.0%; 1; 异常波动</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="5" t="n">
@@ -11350,6 +11470,11 @@
           <t>002265.SZ; 建设工业; 2;  13:44:00; 放量跌停; 30.51; -10.0%; 1; 资金获利了结</t>
         </is>
       </c>
+      <c r="BD4" t="inlineStr">
+        <is>
+          <t>603777.SH; 来伊份; 0;  09:31:00; 缩量跌停; 22.14; -10.0%; 1; 年报净利预计下滑251%+异常波动</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="n">
@@ -11585,6 +11710,11 @@
           <t>603166.SH; 福达股份; 1;  13:54:55; 放量跌停; 8.81; -10.0%; 1; 机器人概念大跌</t>
         </is>
       </c>
+      <c r="BD5" t="inlineStr">
+        <is>
+          <t>002418.SZ; 康盛股份; 2;  09:32:15; 放量跌停; 3.65; -9.9%; 1; 数据中心板块大跌</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="5" t="n">
@@ -11800,6 +11930,11 @@
           <t>603322.SH; 超讯通信; 2;  14:32:24; 放量跌停; 38.54; -10.0%; 1; 资金获利了结</t>
         </is>
       </c>
+      <c r="BD6" t="inlineStr">
+        <is>
+          <t>002117.SZ; 东港股份; 9;  10:47:09; 缩量跌停; 11.83; -10.0%; 2; 资金出逃</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="n">
@@ -12005,6 +12140,11 @@
           <t>002025.SZ; 航天电器; 0;  14:41:00; 放量跌停; 44.23; -10.0%; 1; 前三季度业绩下降</t>
         </is>
       </c>
+      <c r="BD7" t="inlineStr">
+        <is>
+          <t>002853.SZ; 皮阿诺; 10;  13:26:25; 放量跌停; 10.29; -10.0%; 1; 小红书概念回落走低</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="5" t="n">
@@ -12190,6 +12330,11 @@
           <t>603086.SH; 先达股份; 0;  14:50:31; 放量跌停; 5.03; -10.0%; 1; 异常波动+初步测算预计2024年利润亏损+资金获利了结</t>
         </is>
       </c>
+      <c r="BD8" t="inlineStr">
+        <is>
+          <t>002712.SZ; 思美传媒; 1;  13:55:55; 放量跌停; 5.64; -10.0%; 1; 小红书概念股退潮+异常波动</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="n">
@@ -12355,6 +12500,11 @@
           <t>002364.SZ; 中恒电气; 22;  09:31:42; 缩量跌停; 12.64; -10.0%; 1; 数据中心板块大幅调整</t>
         </is>
       </c>
+      <c r="BD9" t="inlineStr">
+        <is>
+          <t>002164.SZ; 宁波东力; 3;  14:04:55; 放量跌停; 6.33; -10.0%; 1; 近期涨幅较大</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="5" t="n">
@@ -12520,6 +12670,11 @@
           <t>002927.SZ; 泰永长征; 18;  09:31:48; 缩量跌停; 12.52; -10.0%; 2; 数据中心板块大幅调整</t>
         </is>
       </c>
+      <c r="BD10" t="inlineStr">
+        <is>
+          <t>603598.SH; 引力传媒; 0;  14:22:44; 放量跌停; 18.05; -10.0%; 1; 小红书概念回落+异常波动</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="5" t="n">
@@ -12675,6 +12830,11 @@
           <t>603118.SH; 共进股份; 32;  09:31:52; 缩量跌停; 9.42; -10.0%; 2; 高速率交换机收入占比较小+数据中心板块大幅调整</t>
         </is>
       </c>
+      <c r="BD11" t="inlineStr">
+        <is>
+          <t>600202.SH; 哈空调; 2;  14:28:59; 放量跌停; 4.66; -10.0%; 1; 年报预减+此前涨幅较大</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="5" t="n">
@@ -12810,6 +12970,11 @@
           <t>002218.SZ; 拓日新能; 10;  09:32:15; 缩量跌停; 3.66; -10.1%; 2; 高位股开盘延续调整</t>
         </is>
       </c>
+      <c r="BD12" t="inlineStr">
+        <is>
+          <t>002193.SZ; 如意集团; 2;  14:44:07; 放量跌停; 6.67; -10.0%; 1; 服装家纺板块走低</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="5" t="n">
@@ -12943,6 +13108,11 @@
       <c r="AZ13" t="inlineStr">
         <is>
           <t>002571.SZ; 德力股份; 2;  09:38:57; 放量跌停; 4.77; -10.0%; 1; 异常波动+资金获利了结</t>
+        </is>
+      </c>
+      <c r="BD13" t="inlineStr">
+        <is>
+          <t>603682.SH; 锦和商管; 1;  14:47:07; 缩量跌停; 6.71; -10.1%; 1; 异常波动+资金获利了结</t>
         </is>
       </c>
     </row>
@@ -17382,7 +17552,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BC72"/>
+  <dimension ref="A1:BD72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17661,6 +17831,11 @@
           <t>2025年01月16日</t>
         </is>
       </c>
+      <c r="BD1" s="5" t="inlineStr">
+        <is>
+          <t>2025年01月17日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="5" t="n">
@@ -17936,6 +18111,11 @@
           <t>603600.SH; 永艺股份; 1;  09:30:20; 主板; 13.54; 曾涨停; 0.8%; 0.01H;  09:30:20</t>
         </is>
       </c>
+      <c r="BD2" t="inlineStr">
+        <is>
+          <t>002123.SZ; 梦网科技; 1;  09:30:00; 主板; 11.76; 曾涨停; -1.1%; 0.02H;  09:30:00</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="n">
@@ -18211,6 +18391,11 @@
           <t>600423.SH; 柳化股份; 7;  09:30:34; 主板; 3.89; 曾涨停; 4.3%; 0.18H;  09:30:34|| 09:36:16|| 09:36:46|| 09:37:22|| 09:51:10|| 13:11:10|| 13:18:40</t>
         </is>
       </c>
+      <c r="BD3" t="inlineStr">
+        <is>
+          <t>002291.SZ; 遥望科技; 1;  09:30:00; 主板; 7.96; 曾涨停; 3.9%; 0.02H;  09:30:00</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="5" t="n">
@@ -18486,6 +18671,11 @@
           <t>002965.SZ; 祥鑫科技; 2;  09:30:36; 主板; 37.27; 曾涨停; 2.8%; 0.05H;  09:30:36|| 09:46:39</t>
         </is>
       </c>
+      <c r="BD4" t="inlineStr">
+        <is>
+          <t>003016.SZ; 欣贺股份; 1;  09:30:00; 主板; 8.12; 曾涨停; 0.5%; 0.15H;  09:30:00</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="n">
@@ -18761,6 +18951,11 @@
           <t>603667.SH; 五洲新春; 4;  09:33:19; 主板; 40.3; 曾涨停; 6.1%; 1.01H;  09:33:19|| 10:03:40|| 10:05:40|| 10:54:01</t>
         </is>
       </c>
+      <c r="BD5" t="inlineStr">
+        <is>
+          <t>002896.SZ; 中大力德; 2;  09:31:15; 主板; 43.64; 曾涨停; 5.4%; 1.13H;  09:31:15|| 09:32:00</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="5" t="n">
@@ -19036,6 +19231,11 @@
           <t>002786.SZ; 银宝山新; 1;  09:34:06; 主板; 9.74; 曾涨停; 6.0%; 0.44H;  09:34:06</t>
         </is>
       </c>
+      <c r="BD6" t="inlineStr">
+        <is>
+          <t>002531.SZ; 天顺风能; 1;  09:33:45; 主板; 8.04; 曾涨停; 5.9%; 1.10H;  09:33:45</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="n">
@@ -19311,6 +19511,11 @@
           <t>003042.SZ; 中农联合; 1;  09:35:15; 主板; 16.21; 曾涨停; 0.6%; 0.02H;  09:35:15</t>
         </is>
       </c>
+      <c r="BD7" t="inlineStr">
+        <is>
+          <t>002553.SZ; 南方精工; 1;  09:36:30; 主板; 14.22; 曾涨停; 5.5%; 0.83H;  09:36:30</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="5" t="n">
@@ -19586,6 +19791,11 @@
           <t>002418.SZ; 康盛股份; 3;  09:36:18; 主板; 4.05; 曾涨停; 4.9%; 1.90H;  09:36:18|| 09:59:12|| 13:00:21</t>
         </is>
       </c>
+      <c r="BD8" t="inlineStr">
+        <is>
+          <t>002109.SZ; 兴化股份; 2;  09:43:15; 主板; 3.63; 曾涨停; 5.8%; 0.03H;  09:43:15|| 09:43:45</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="n">
@@ -19861,6 +20071,11 @@
           <t>000620.SZ; 新华联; 1;  09:37:15; 主板; 1.87; 曾涨停; 4.5%; 0.31H;  09:37:15</t>
         </is>
       </c>
+      <c r="BD9" t="inlineStr">
+        <is>
+          <t>605398.SH; 新炬网络; 1;  09:50:31; 主板; 19.91; 曾涨停; 2.3%; 0.01H;  09:50:31</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="5" t="n">
@@ -20136,6 +20351,11 @@
           <t>002514.SZ; 宝馨科技; 1;  09:38:33; 主板; 8.13; 曾涨停; 6.0%; 0.16H;  09:38:33</t>
         </is>
       </c>
+      <c r="BD10" t="inlineStr">
+        <is>
+          <t>000833.SZ; 粤桂股份; 1;  09:57:53; 主板; 11.76; 曾涨停; 5.9%; 0.70H;  09:57:53</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="5" t="n">
@@ -20411,6 +20631,11 @@
           <t>600060.SH; 海信视像; 5;  09:40:49; 主板; 21.84; 曾涨停; 7.3%; 2.03H;  09:40:49|| 09:45:55|| 09:47:04|| 09:48:52|| 11:19:25</t>
         </is>
       </c>
+      <c r="BD11" t="inlineStr">
+        <is>
+          <t>605136.SH; 丽人丽妆; 1;  10:01:23; 主板; 8.27; 曾涨停; 2.5%; 0.01H;  10:01:23</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="5" t="n">
@@ -20686,6 +20911,11 @@
           <t>000981.SZ; 山子高科; 1;  09:42:21; 主板; 2.48; 曾涨停; 8.3%; 0.20H;  09:42:21</t>
         </is>
       </c>
+      <c r="BD12" t="inlineStr">
+        <is>
+          <t>000592.SZ; 平潭发展; 2;  10:03:53; 主板; 3.07; 曾涨停; 6.6%; 0.22H;  10:03:53|| 10:16:23</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="5" t="n">
@@ -20961,6 +21191,11 @@
           <t>300344.SZ; 立方数科; 3;  09:43:03; 创业板; 9.16; 曾涨停; 20.1%; 0.07H;  09:43:03|| 09:44:42|| 09:45:51</t>
         </is>
       </c>
+      <c r="BD13" t="inlineStr">
+        <is>
+          <t>600556.SH; 天下秀; 1;  10:04:38; 主板; 6.7; 曾涨停; 5.7%; 0.56H;  10:04:38</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="5" t="n">
@@ -21236,6 +21471,11 @@
           <t>002482.SZ; 广田集团; 2;  09:46:45; 主板; 2.16; 曾涨停; 4.9%; 0.61H;  09:46:45|| 09:50:09</t>
         </is>
       </c>
+      <c r="BD14" t="inlineStr">
+        <is>
+          <t>002791.SZ; 坚朗五金; 2;  10:24:08; 主板; 22.5; 曾涨停; 5.2%; 0.05H;  10:24:08|| 10:27:23</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="5" t="n">
@@ -21511,6 +21751,11 @@
           <t>002269.SZ; 美邦服饰; 4;  09:46:57; 主板; 2.54; 曾涨停; 6.7%; 0.05H;  09:46:57|| 09:49:00|| 09:49:45|| 09:50:06</t>
         </is>
       </c>
+      <c r="BD15" t="inlineStr">
+        <is>
+          <t>002187.SZ; 广百股份; 2;  10:28:08; 主板; 9.4; 曾涨停; -6.7%; 0.01H;  10:28:08|| 10:29:38</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="5" t="n">
@@ -21781,6 +22026,11 @@
           <t>002706.SZ; 良信股份; 3;  09:47:15; 主板; 6.92; 曾涨停; 6.3%; 0.05H;  09:47:15|| 09:49:24|| 09:50:36</t>
         </is>
       </c>
+      <c r="BD16" t="inlineStr">
+        <is>
+          <t>002165.SZ; 红宝丽; 2;  11:28:25; 主板; 4.77; 曾涨停; 6.2%; 1.89H;  11:28:25|| 13:16:55</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="5" t="n">
@@ -22041,6 +22291,11 @@
           <t>002580.SZ; 圣阳股份; 1;  09:47:18; 主板; 8.46; 曾涨停; 5.2%; 0.13H;  09:47:18</t>
         </is>
       </c>
+      <c r="BD17" t="inlineStr">
+        <is>
+          <t>000561.SZ; 烽火电子; 1;  13:02:40; 主板; 8.83; 曾涨停; 5.7%; 0.04H;  13:02:40</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="5" t="n">
@@ -22296,6 +22551,11 @@
           <t>002306.SZ; 中科云网; 2;  09:52:21; 主板; 2.91; 曾涨停; 3.9%; 1.65H;  09:52:21|| 09:53:00</t>
         </is>
       </c>
+      <c r="BD18" t="inlineStr">
+        <is>
+          <t>605258.SH; 协和电子; 1;  13:43:25; 主板; 32.8; 曾涨停; 6.0%; 0.00H;  13:43:25</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="5" t="n">
@@ -22551,6 +22811,11 @@
           <t>000430.SZ; 张家界; 2;  10:00:42; 主板; 7.54; 曾涨停; 1.2%; 0.01H;  10:00:42|| 10:02:39</t>
         </is>
       </c>
+      <c r="BD19" t="inlineStr">
+        <is>
+          <t>605080.SH; 浙江自然; 6;  13:46:40; 主板; 30.18; 曾涨停; 8.0%; 0.10H;  13:46:40|| 13:48:55|| 13:49:40|| 13:50:55|| 13:52:55|| 14:02:25</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="5" t="n">
@@ -22786,6 +23051,11 @@
           <t>603045.SH; 福达合金; 3;  10:12:19; 主板; 14.77; 曾涨停; 0.8%; 0.01H;  10:12:19|| 10:12:52|| 10:13:19</t>
         </is>
       </c>
+      <c r="BD20" t="inlineStr">
+        <is>
+          <t>603328.SH; 依顿电子; 2;  13:49:10; 主板; 10.05; 曾涨停; 8.2%; 0.56H;  13:49:10|| 14:15:59</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="5" t="n">
@@ -23019,6 +23289,11 @@
       <c r="BC21" t="inlineStr">
         <is>
           <t>002035.SZ; 华帝股份; 2;  10:20:24; 主板; 7.65; 曾涨停; 8.5%; 1.17H;  10:20:24|| 11:05:00</t>
+        </is>
+      </c>
+      <c r="BD21" t="inlineStr">
+        <is>
+          <t>301558.SZ; 三态股份; 1;  13:59:55; 创业板; 9.54; 曾涨停; 9.4%; 0.00H;  13:59:55</t>
         </is>
       </c>
     </row>
@@ -27373,7 +27648,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BC128"/>
+  <dimension ref="A1:BD128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27652,6 +27927,11 @@
           <t>2025年01月16日</t>
         </is>
       </c>
+      <c r="BD1" s="5" t="inlineStr">
+        <is>
+          <t>2025年01月17日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="5" t="n">
@@ -27927,6 +28207,11 @@
           <t>002767.SZ; 先锋电子; 0;  09:25:00; 首板涨停; 14.38;  09:25:00; 10.0%; 1; 年报预增+智能燃气表+机器人</t>
         </is>
       </c>
+      <c r="BD2" t="inlineStr">
+        <is>
+          <t>000408.SZ; 藏格矿业; 0;  09:30:00; 首板涨停; 32.45;  09:30:00; 10.0%; 1; 紫金矿业斥资超137亿元控股藏格矿业</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="n">
@@ -28202,6 +28487,11 @@
           <t>002123.SZ; 梦网科技; 0;  09:25:00; 首板涨停; 11.89;  09:25:00; 10.0%; 1; 拟收购碧橙数字+复牌+云通信</t>
         </is>
       </c>
+      <c r="BD3" t="inlineStr">
+        <is>
+          <t>002250.SZ; 联化科技; 0;  09:30:00; 首板涨停; 5.76;  09:30:00; 9.9%; 1; 年报预盈+精细化工+CRO</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="5" t="n">
@@ -28477,6 +28767,11 @@
           <t>600933.SH; 爱柯迪; 0;  09:25:02; 首板涨停; 16.68;  09:25:02; 10.0%; 1; 拟发股收购卓尔博71%股权+汽车零部件</t>
         </is>
       </c>
+      <c r="BD4" t="inlineStr">
+        <is>
+          <t>002787.SZ; 华源控股; 0;  09:30:00; 首板涨停; 8.62;  09:30:00; 9.9%; 1; 年报预增+电池精密结构件+包装</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="n">
@@ -28752,6 +29047,11 @@
           <t>603200.SH; 上海洗霸; 0;  09:30:00; 首板涨停; 25.85;  09:30:00; 10.0%; 1; 高比能软包锂离子固态电池设计完成+低空经济应用前景</t>
         </is>
       </c>
+      <c r="BD5" t="inlineStr">
+        <is>
+          <t>300515.SZ; 三德科技; 0;  09:30:00; 首板涨停; 14.78;  09:30:00; 20.0%; 1; 年报预增+机器人概念+智能装备</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="5" t="n">
@@ -29027,6 +29327,11 @@
           <t>002212.SZ; 天融信; 0;  09:30:03; 首板涨停; 6.66;  09:30:03; 10.1%; 1; 年报预增+量子科技+网络安全+低空经济</t>
         </is>
       </c>
+      <c r="BD6" t="inlineStr">
+        <is>
+          <t>600724.SH; 宁波富达; 0;  09:30:00; 首板涨停; 6.42;  09:30:00; 9.9%; 1; 拟控股晶鑫材料+房地产+宁波国资</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="n">
@@ -29302,6 +29607,11 @@
           <t>603518.SH; 锦泓集团; 0;  09:30:26; 首板涨停; 10.13;  09:30:26; 10.0%; 1; 小红书+年报预增+IP经济+服装家纺</t>
         </is>
       </c>
+      <c r="BD7" t="inlineStr">
+        <is>
+          <t>603042.SH; 华脉科技; 0;  09:30:45; 首板涨停; 12.63;  09:30:45; 10.0%; 1; 年报预增+铜缆高速连接+数据中心</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="5" t="n">
@@ -29577,6 +29887,11 @@
           <t>000619.SZ; 海螺新材; 0;  09:30:39; 首板涨停; 6.26;  09:30:39; 10.0%; 1; 光伏+装修建材+智能家居+安徽国资</t>
         </is>
       </c>
+      <c r="BD8" t="inlineStr">
+        <is>
+          <t>002942.SZ; 新农股份; 0;  09:30:45; 首板涨停; 15.84;  09:30:45; 10.0%; 1; 农药+化工+年报预计扭亏</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="n">
@@ -29852,6 +30167,11 @@
           <t>603758.SH; 秦安股份; 0;  09:31:39; 首板涨停; 9.17;  09:31:39; 10.0%; 1; 发动机零部件+高分红</t>
         </is>
       </c>
+      <c r="BD9" t="inlineStr">
+        <is>
+          <t>001306.SZ; 夏厦精密; 2;  09:37:30; 首板涨停; 63.71;  09:33:30; 10.0%; 1; 人形机器人+减速器+比亚迪</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="5" t="n">
@@ -30127,6 +30447,11 @@
           <t>600620.SH; 天宸股份; 0;  09:31:50; 首板涨停; 5.59;  09:31:50; 10.0%; 1; 年报预增+光储+房地产+出租车业务（已大幅削减）</t>
         </is>
       </c>
+      <c r="BD10" t="inlineStr">
+        <is>
+          <t>002692.SZ; 远程股份; 0;  09:37:30; 首板涨停; 5.03;  09:37:30; 10.1%; 1; 数据中心（电缆）+核电+电网设备+国企改革</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="5" t="n">
@@ -30402,6 +30727,11 @@
           <t>002743.SZ; 富煌钢构; 0;  09:32:03; 首板涨停; 6.01;  09:32:03; 10.1%; 1; 拟购买中科视界100%股份+建筑装饰</t>
         </is>
       </c>
+      <c r="BD11" t="inlineStr">
+        <is>
+          <t>002689.SZ; 远大智能; 0;  09:38:30; 首板涨停; 4.02;  09:38:30; 10.1%; 1; 机器人+电梯+出海</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="5" t="n">
@@ -30677,6 +31007,11 @@
           <t>001338.SZ; 永顺泰; 0;  09:33:06; 首板涨停; 10.75;  09:33:06; 10.0%; 1; 年报预增+麦芽制造+啤酒+国企改革</t>
         </is>
       </c>
+      <c r="BD12" t="inlineStr">
+        <is>
+          <t>002688.SZ; 金河生物; 1;  09:40:15; 首板涨停; 4.59;  09:39:45; 10.1%; 1; 动物保健品+动物疫苗</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="5" t="n">
@@ -30952,6 +31287,11 @@
           <t>000607.SZ; 华媒控股; 0;  09:33:39; 首板涨停; 4.18;  09:33:39; 10.0%; 1; 传媒+国企改革+资产处置</t>
         </is>
       </c>
+      <c r="BD13" t="inlineStr">
+        <is>
+          <t>605058.SH; 澳弘电子; 0;  09:45:00; 首板涨停; 21.42;  09:45:00; 10.0%; 1; PCB+AI算力</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="5" t="n">
@@ -31227,6 +31567,11 @@
           <t>002427.SZ; 尤夫股份; 0;  09:33:42; 首板涨停; 3.75;  09:33:42; 10.0%; 1; 涤纶工业丝+新能源汽车+陕西国资</t>
         </is>
       </c>
+      <c r="BD14" t="inlineStr">
+        <is>
+          <t>301123.SZ; 奕东电子; 0;  09:46:00; 首板涨停; 25.76;  09:46:00; 20.0%; 1; 铜缆高速连接+消费电子+安费诺、小米等客户</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="5" t="n">
@@ -31497,6 +31842,11 @@
           <t>002207.SZ; 准油股份; 0;  09:34:24; 首板涨停; 5.58;  09:34:24; 10.1%; 1; 石油+新疆国企+微盘股</t>
         </is>
       </c>
+      <c r="BD15" t="inlineStr">
+        <is>
+          <t>002137.SZ; 实益达; 1;  09:58:23; 首板涨停; 8.75;  09:31:30; 10.1%; 1; 间接投资宇树科技+微信营销+智能终端+先进封装</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="5" t="n">
@@ -31767,6 +32117,11 @@
           <t>300894.SZ; 火星人; 0;  09:37:39; 首板涨停; 15.23;  09:37:39; 20.0%; 1; 厨房电器+电商</t>
         </is>
       </c>
+      <c r="BD16" t="inlineStr">
+        <is>
+          <t>002931.SZ; 锋龙股份; 0;  10:04:23; 首板涨停; 17.48;  10:04:23; 10.0%; 1; 机器人概念+汽车零部件+园林机械零部件+拟终止公司控制权变更</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="5" t="n">
@@ -32032,6 +32387,11 @@
           <t>002109.SZ; 兴化股份; 1;  09:37:54; 首板涨停; 3.43;  09:35:21; 9.9%; 1; 煤化工+国企</t>
         </is>
       </c>
+      <c r="BD17" t="inlineStr">
+        <is>
+          <t>600657.SH; 信达地产; 0;  10:14:08; 首板涨停; 4.77;  10:14:08; 9.9%; 1; 参与设立200亿元房地产纾困盘活基金+化债概念（AMC）+央企</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="5" t="n">
@@ -32297,6 +32657,11 @@
           <t>301380.SZ; 挖金客; 0;  09:39:57; 首板涨停; 54.07;  09:39:57; 20.0%; 1; 小红书+数字营销+字节概念</t>
         </is>
       </c>
+      <c r="BD18" t="inlineStr">
+        <is>
+          <t>601500.SH; 通用股份; 0;  10:14:38; 首板涨停; 5.53;  10:14:38; 9.9%; 1; 轮胎+工业4.0+外销</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="5" t="n">
@@ -32557,6 +32922,11 @@
           <t>002543.SZ; 万和电气; 0;  09:40:54; 首板涨停; 10.85;  09:40:54; 10.0%; 1; 厨卫电器+空气能热泵+高股息</t>
         </is>
       </c>
+      <c r="BD19" t="inlineStr">
+        <is>
+          <t>002923.SZ; 润都股份; 4;  10:16:53; 首板涨停; 10.02;  09:40:45; 10.0%; 1; 流感+合成生物+原料药+新型烟草</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="5" t="n">
@@ -32817,6 +33187,11 @@
           <t>002765.SZ; 蓝黛科技; 1;  09:52:39; 首板涨停; 10.85;  09:33:48; 10.0%; 1; 减速器+低空经济+比亚迪概念+汽车电子</t>
         </is>
       </c>
+      <c r="BD20" t="inlineStr">
+        <is>
+          <t>002666.SZ; 德联集团; 0;  10:21:08; 首板涨停; 4.88;  10:21:08; 9.9%; 1; 精细化学品+冷却液+新能源汽车+创投</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="5" t="n">
@@ -33077,6 +33452,11 @@
           <t>002076.SZ; 星光股份; 2;  10:00:48; 首板涨停; 3.08;  09:36:48; 10.0%; 1; 数据中心+量子科技+锂电池+创投</t>
         </is>
       </c>
+      <c r="BD21" t="inlineStr">
+        <is>
+          <t>002919.SZ; 名臣健康; 0;  10:57:09; 首板涨停; 17;  10:57:09; 10.0%; 1; 游戏+字节+日化</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="5" t="n">
@@ -33337,6 +33717,11 @@
           <t>600397.SH; 安源煤业; 2;  10:03:21; 首板涨停; 4.83;  09:56:54; 10.0%; 1; 控股股东拟变更为江钨控股+江西国资+煤炭</t>
         </is>
       </c>
+      <c r="BD22" t="inlineStr">
+        <is>
+          <t>002370.SZ; 亚太药业; 0;  11:02:39; 首板涨停; 3.33;  11:02:39; 9.9%; 1; 年报预计扭亏+化学制药+低价股</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="5" t="n">
@@ -33592,6 +33977,11 @@
           <t>002677.SZ; 浙江美大; 0;  10:06:39; 首板涨停; 7.77;  10:06:39; 10.1%; 1; 智能家居+厨卫电器+高股息</t>
         </is>
       </c>
+      <c r="BD23" t="inlineStr">
+        <is>
+          <t>600622.SH; 光大嘉宝; 2;  11:08:25; 首板涨停; 3.39;  10:18:08; 10.1%; 1; 上海+房地产+AMC+央企</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="5" t="n">
@@ -33842,6 +34232,11 @@
           <t>605336.SH; 帅丰电器; 1;  10:10:06; 首板涨停; 14.03;  10:09:24; 10.0%; 1; 业绩落地+厨房电器+电商+高股息</t>
         </is>
       </c>
+      <c r="BD24" t="inlineStr">
+        <is>
+          <t>002312.SZ; 川发龙蟒; 0;  11:18:10; 首板涨停; 14.58;  11:18:10; 10.0%; 1; 磷化工+锂电池+拟收购股权+四川国资</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="5" t="n">
@@ -34092,6 +34487,11 @@
           <t>600868.SH; 梅雁吉祥; 1;  10:20:52; 首板涨停; 2.78;  10:19:07; 9.9%; 1; 回购+锑+氢能源+绿色电力</t>
         </is>
       </c>
+      <c r="BD25" t="inlineStr">
+        <is>
+          <t>002891.SZ; 中宠股份; 0;  11:20:55; 首板涨停; 39.95;  11:20:55; 10.0%; 1; 年报预增+宠物食品+外销</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="5" t="n">
@@ -34342,6 +34742,11 @@
           <t>002766.SZ; 索菱股份; 0;  10:32:24; 首板涨停; 6.58;  10:32:24; 10.0%; 1; 内嵌 ECALL 功能平台+地平线合作+无人驾驶+车联网</t>
         </is>
       </c>
+      <c r="BD26" t="inlineStr">
+        <is>
+          <t>002119.SZ; 康强电子; 0;  11:26:40; 首板涨停; 19.46;  11:26:40; 10.0%; 1; 半导体封装材料+核电</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="5" t="n">
@@ -34592,6 +34997,11 @@
           <t>002861.SZ; 瀛通通讯; 0;  10:34:45; 首板涨停; 11.68;  10:34:45; 10.0%; 1; AI终端+电声产品+外销</t>
         </is>
       </c>
+      <c r="BD27" t="inlineStr">
+        <is>
+          <t>603893.SH; 瑞芯微; 0;  11:28:25; 首板涨停; 139.41;  11:28:25; 10.0%; 1; SoC芯片+AI眼镜+NPU+小米</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="5" t="n">
@@ -34837,6 +35247,11 @@
           <t>600490.SH; 鹏欣资源; 0;  10:49:52; 首板涨停; 3.37;  10:49:52; 10.1%; 1; 金矿开采+金属矿产+复产</t>
         </is>
       </c>
+      <c r="BD28" t="inlineStr">
+        <is>
+          <t>603928.SH; 兴业股份; 0;  13:03:55; 首板涨停; 9.02;  13:03:55; 10.0%; 1; 光刻胶+合成树脂+大飞机</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="5" t="n">
@@ -35077,6 +35492,11 @@
           <t>002348.SZ; 高乐股份; 0;  11:02:51; 首板涨停; 3.44;  11:02:51; 9.9%; 1; IP经济+玩具+机器人概念+固态电池</t>
         </is>
       </c>
+      <c r="BD29" t="inlineStr">
+        <is>
+          <t>300661.SZ; 圣邦股份; 0;  13:17:10; 首板涨停; 91.8;  13:17:10; 20.0%; 1; 模拟芯片+电源管理芯片+三季报增长</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="5" t="n">
@@ -35317,6 +35737,11 @@
           <t>002361.SZ; 神剑股份; 8;  13:09:12; 首板涨停; 5.37;  09:32:12; 10.0%; 1; 实控人拟变更+商业航天+聚酯树脂产品+军工</t>
         </is>
       </c>
+      <c r="BD30" t="inlineStr">
+        <is>
+          <t>603082.SH; 北自科技; 0;  13:32:55; 首板涨停; 37.48;  13:32:55; 10.0%; 1; 次新股+人形机器人+智能物流+国企</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="5" t="n">
@@ -35552,6 +35977,11 @@
           <t>601100.SH; 恒立液压; 9;  13:57:57; 首板涨停; 59.65;  09:30:00; 10.0%; 1; 高端装备+油缸+滚珠丝杠</t>
         </is>
       </c>
+      <c r="BD31" t="inlineStr">
+        <is>
+          <t>603232.SH; 格尔软件; 0;  13:34:10; 首板涨停; 14.8;  13:34:10; 10.0%; 1; 量子密码+商用密码</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="5" t="n">
@@ -35787,6 +36217,11 @@
           <t>600962.SH; 国投中鲁; 0;  14:03:12; 首板涨停; 13.82;  14:03:12; 10.0%; 1; 浓缩苹果汁+外销+央企</t>
         </is>
       </c>
+      <c r="BD32" t="inlineStr">
+        <is>
+          <t>001255.SZ; 博菲电气; 0;  13:35:10; 首板涨停; 32.26;  13:35:10; 10.0%; 1; 电气绝缘材料+光伏+新能源汽车</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="5" t="n">
@@ -36017,6 +36452,11 @@
           <t>300152.SZ; 新动力; 4;  14:07:12; 首板涨停; 5.77;  10:24:09; 20.0%; 1; 变更为无实控人状态+环保+创投+氢燃料电池催化剂</t>
         </is>
       </c>
+      <c r="BD33" t="inlineStr">
+        <is>
+          <t>605588.SH; 冠石科技; 2;  13:39:10; 首板涨停; 44.23;  13:36:25; 10.0%; 1; 电子束掩膜版光刻机+折叠屏+华为</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="5" t="n">
@@ -36242,6 +36682,11 @@
           <t>603118.SH; 共进股份; 2;  14:09:56; 首板涨停; 10.18;  09:41:14; 10.1%; 1; 交换机+数据中心+先进封装+激光雷达</t>
         </is>
       </c>
+      <c r="BD34" t="inlineStr">
+        <is>
+          <t>002660.SZ; 茂硕电源; 0;  13:46:40; 首板涨停; 10.9;  13:46:40; 10.0%; 1; 开关电源+充电桩+光伏逆变器+国企改革</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="5" t="n">
@@ -36467,6 +36912,11 @@
           <t>300394.SZ; 天孚通信; 0;  14:10:12; 首板涨停; 103.22;  14:10:12; 20.0%; 1; CPO+光引擎</t>
         </is>
       </c>
+      <c r="BD35" t="inlineStr">
+        <is>
+          <t>605199.SH; 葫芦娃; 0;  14:18:44; 首板涨停; 18.67;  14:18:44; 10.0%; 1; 流感+海南自贸区</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="5" t="n">
@@ -36687,6 +37137,11 @@
           <t>002843.SZ; 泰嘉股份; 2;  14:14:27; 首板涨停; 25.19;  13:19:27; 10.0%; 1; 数据中心电源+智能终端充电电源</t>
         </is>
       </c>
+      <c r="BD36" t="inlineStr">
+        <is>
+          <t>600183.SH; 生益科技; 3;  14:45:07; 首板涨停; 27.45;  13:22:40; 10.0%; 1; 覆铜板+算力</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="5" t="n">
@@ -36905,6 +37360,11 @@
       <c r="BC37" t="inlineStr">
         <is>
           <t>600851.SH; 海欣股份; 0;  14:14:58; 首板涨停; 6.27;  14:14:58; 10.0%; 1; 参股券商+创新药+物业管理+服装纺织</t>
+        </is>
+      </c>
+      <c r="BD37" t="inlineStr">
+        <is>
+          <t>300153.SZ; 科泰电源; 3;  14:55:57; 首板涨停; 15.06;  14:00:25; 20.0%; 1; 数据中心+电力设备+储能</t>
         </is>
       </c>
     </row>
@@ -43619,7 +44079,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BC50"/>
+  <dimension ref="A1:BD50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43898,6 +44358,11 @@
           <t>2025年01月16日</t>
         </is>
       </c>
+      <c r="BD1" s="5" t="inlineStr">
+        <is>
+          <t>2025年01月17日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="5" t="n">
@@ -44173,6 +44638,11 @@
           <t>000016.SZ; 深康佳A; 4.7%; 15.4%; 6.81; 10.0%; 阳线||放量||价升量缩</t>
         </is>
       </c>
+      <c r="BD2" t="inlineStr">
+        <is>
+          <t>600423.SH; 柳化股份; 6.2%; 17.3%; 4.28; 10.0%; 阳线||放量||价升量缩</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="n">
@@ -44448,6 +44918,11 @@
           <t>002187.SZ; 广百股份; 3.7%; 14.3%; 10.07; 10.1%; 强中选强||阳线||放量</t>
         </is>
       </c>
+      <c r="BD3" t="inlineStr">
+        <is>
+          <t>603166.SH; 福达股份; 5.1%; 15.9%; 9.69; 10.0%; 强中选强||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="5" t="n">
@@ -44711,6 +45186,11 @@
           <t>600693.SH; 东百集团; 2.1%; 12.5%; 7.22; 10.1%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="BD4" t="inlineStr">
+        <is>
+          <t>002119.SZ; 康强电子; 2.9%; 13.3%; 19.46; 10.0%; 阳线||缩量||价升量缩</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="n">
@@ -44966,6 +45446,11 @@
           <t>600778.SH; 友好集团; 2.1%; 12.3%; 8.94; 10.0%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="BD5" t="inlineStr">
+        <is>
+          <t>605179.SH; 一鸣食品; 2.4%; 12.8%; 23.83; 10.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="5" t="n">
@@ -45209,6 +45694,11 @@
         </is>
       </c>
       <c r="BC6" t="inlineStr"/>
+      <c r="BD6" t="inlineStr">
+        <is>
+          <t>003030.SZ; 祖名股份; 1.9%; 12.1%; 18.07; 10.0%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="n">
@@ -45440,6 +45930,11 @@
         </is>
       </c>
       <c r="BC7" t="inlineStr"/>
+      <c r="BD7" t="inlineStr">
+        <is>
+          <t>002031.SZ; 巨轮智能; 1.8%; 12.1%; 7.24; 10.0%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="5" t="n">
@@ -45659,6 +46154,11 @@
       </c>
       <c r="BB8" t="inlineStr"/>
       <c r="BC8" t="inlineStr"/>
+      <c r="BD8" t="inlineStr">
+        <is>
+          <t>301123.SZ; 奕东电子; 0.9%; 21.1%; 25.76; 20.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="n">
@@ -45870,6 +46370,11 @@
       </c>
       <c r="BB9" t="inlineStr"/>
       <c r="BC9" t="inlineStr"/>
+      <c r="BD9" t="inlineStr">
+        <is>
+          <t>300153.SZ; 科泰电源; 0.6%; 20.8%; 15.06; 20.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="5" t="n">
@@ -46061,6 +46566,7 @@
       <c r="BA10" t="inlineStr"/>
       <c r="BB10" t="inlineStr"/>
       <c r="BC10" t="inlineStr"/>
+      <c r="BD10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="5" t="n">
@@ -46240,6 +46746,7 @@
       <c r="BA11" t="inlineStr"/>
       <c r="BB11" t="inlineStr"/>
       <c r="BC11" t="inlineStr"/>
+      <c r="BD11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="5" t="n">
@@ -46395,6 +46902,7 @@
       <c r="BA12" t="inlineStr"/>
       <c r="BB12" t="inlineStr"/>
       <c r="BC12" t="inlineStr"/>
+      <c r="BD12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="5" t="n">
@@ -46534,6 +47042,7 @@
       <c r="BA13" t="inlineStr"/>
       <c r="BB13" t="inlineStr"/>
       <c r="BC13" t="inlineStr"/>
+      <c r="BD13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="5" t="n">
@@ -46669,6 +47178,7 @@
       <c r="BA14" t="inlineStr"/>
       <c r="BB14" t="inlineStr"/>
       <c r="BC14" t="inlineStr"/>
+      <c r="BD14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="5" t="n">
@@ -46796,6 +47306,7 @@
       <c r="BA15" t="inlineStr"/>
       <c r="BB15" t="inlineStr"/>
       <c r="BC15" t="inlineStr"/>
+      <c r="BD15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="5" t="n">
@@ -46919,6 +47430,7 @@
       <c r="BA16" t="inlineStr"/>
       <c r="BB16" t="inlineStr"/>
       <c r="BC16" t="inlineStr"/>
+      <c r="BD16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="5" t="n">
@@ -47034,6 +47546,7 @@
       <c r="BA17" t="inlineStr"/>
       <c r="BB17" t="inlineStr"/>
       <c r="BC17" t="inlineStr"/>
+      <c r="BD17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="5" t="n">
@@ -47145,6 +47658,7 @@
       <c r="BA18" t="inlineStr"/>
       <c r="BB18" t="inlineStr"/>
       <c r="BC18" t="inlineStr"/>
+      <c r="BD18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="5" t="n">
@@ -47252,6 +47766,7 @@
       <c r="BA19" t="inlineStr"/>
       <c r="BB19" t="inlineStr"/>
       <c r="BC19" t="inlineStr"/>
+      <c r="BD19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="5" t="n">
@@ -47359,6 +47874,7 @@
       <c r="BA20" t="inlineStr"/>
       <c r="BB20" t="inlineStr"/>
       <c r="BC20" t="inlineStr"/>
+      <c r="BD20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="5" t="n">
@@ -47466,6 +47982,7 @@
       <c r="BA21" t="inlineStr"/>
       <c r="BB21" t="inlineStr"/>
       <c r="BC21" t="inlineStr"/>
+      <c r="BD21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="5" t="n">
@@ -47565,6 +48082,7 @@
       <c r="BA22" t="inlineStr"/>
       <c r="BB22" t="inlineStr"/>
       <c r="BC22" t="inlineStr"/>
+      <c r="BD22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="5" t="n">
@@ -47660,6 +48178,7 @@
       <c r="BA23" t="inlineStr"/>
       <c r="BB23" t="inlineStr"/>
       <c r="BC23" t="inlineStr"/>
+      <c r="BD23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="5" t="n">
@@ -47751,6 +48270,7 @@
       <c r="BA24" t="inlineStr"/>
       <c r="BB24" t="inlineStr"/>
       <c r="BC24" t="inlineStr"/>
+      <c r="BD24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="5" t="n">
@@ -47838,6 +48358,7 @@
       <c r="BA25" t="inlineStr"/>
       <c r="BB25" t="inlineStr"/>
       <c r="BC25" t="inlineStr"/>
+      <c r="BD25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="5" t="n">
@@ -47917,6 +48438,7 @@
       <c r="BA26" t="inlineStr"/>
       <c r="BB26" t="inlineStr"/>
       <c r="BC26" t="inlineStr"/>
+      <c r="BD26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="5" t="n">
@@ -47996,6 +48518,7 @@
       <c r="BA27" t="inlineStr"/>
       <c r="BB27" t="inlineStr"/>
       <c r="BC27" t="inlineStr"/>
+      <c r="BD27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="5" t="n">
@@ -48075,6 +48598,7 @@
       <c r="BA28" t="inlineStr"/>
       <c r="BB28" t="inlineStr"/>
       <c r="BC28" t="inlineStr"/>
+      <c r="BD28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="5" t="n">
@@ -48154,6 +48678,7 @@
       <c r="BA29" t="inlineStr"/>
       <c r="BB29" t="inlineStr"/>
       <c r="BC29" t="inlineStr"/>
+      <c r="BD29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="5" t="n">
@@ -48229,6 +48754,7 @@
       <c r="BA30" t="inlineStr"/>
       <c r="BB30" t="inlineStr"/>
       <c r="BC30" t="inlineStr"/>
+      <c r="BD30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="5" t="n">
@@ -48304,6 +48830,7 @@
       <c r="BA31" t="inlineStr"/>
       <c r="BB31" t="inlineStr"/>
       <c r="BC31" t="inlineStr"/>
+      <c r="BD31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="5" t="n">
@@ -48379,6 +48906,7 @@
       <c r="BA32" t="inlineStr"/>
       <c r="BB32" t="inlineStr"/>
       <c r="BC32" t="inlineStr"/>
+      <c r="BD32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="5" t="n">
@@ -48454,6 +48982,7 @@
       <c r="BA33" t="inlineStr"/>
       <c r="BB33" t="inlineStr"/>
       <c r="BC33" t="inlineStr"/>
+      <c r="BD33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="5" t="n">
@@ -48521,6 +49050,7 @@
       <c r="BA34" t="inlineStr"/>
       <c r="BB34" t="inlineStr"/>
       <c r="BC34" t="inlineStr"/>
+      <c r="BD34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="5" t="n">
@@ -48588,6 +49118,7 @@
       <c r="BA35" t="inlineStr"/>
       <c r="BB35" t="inlineStr"/>
       <c r="BC35" t="inlineStr"/>
+      <c r="BD35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="5" t="n">
@@ -48655,6 +49186,7 @@
       <c r="BA36" t="inlineStr"/>
       <c r="BB36" t="inlineStr"/>
       <c r="BC36" t="inlineStr"/>
+      <c r="BD36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="5" t="n">
@@ -48722,6 +49254,7 @@
       <c r="BA37" t="inlineStr"/>
       <c r="BB37" t="inlineStr"/>
       <c r="BC37" t="inlineStr"/>
+      <c r="BD37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="5" t="n">
@@ -48789,6 +49322,7 @@
       <c r="BA38" t="inlineStr"/>
       <c r="BB38" t="inlineStr"/>
       <c r="BC38" t="inlineStr"/>
+      <c r="BD38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="5" t="n">
@@ -48856,6 +49390,7 @@
       <c r="BA39" t="inlineStr"/>
       <c r="BB39" t="inlineStr"/>
       <c r="BC39" t="inlineStr"/>
+      <c r="BD39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="5" t="n">
@@ -48923,6 +49458,7 @@
       <c r="BA40" t="inlineStr"/>
       <c r="BB40" t="inlineStr"/>
       <c r="BC40" t="inlineStr"/>
+      <c r="BD40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="5" t="n">
@@ -48990,6 +49526,7 @@
       <c r="BA41" t="inlineStr"/>
       <c r="BB41" t="inlineStr"/>
       <c r="BC41" t="inlineStr"/>
+      <c r="BD41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="5" t="n">
@@ -49053,6 +49590,7 @@
       <c r="BA42" t="inlineStr"/>
       <c r="BB42" t="inlineStr"/>
       <c r="BC42" t="inlineStr"/>
+      <c r="BD42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="5" t="n">
@@ -49116,6 +49654,7 @@
       <c r="BA43" t="inlineStr"/>
       <c r="BB43" t="inlineStr"/>
       <c r="BC43" t="inlineStr"/>
+      <c r="BD43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="5" t="n">
@@ -49179,6 +49718,7 @@
       <c r="BA44" t="inlineStr"/>
       <c r="BB44" t="inlineStr"/>
       <c r="BC44" t="inlineStr"/>
+      <c r="BD44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="5" t="n">
@@ -49242,6 +49782,7 @@
       <c r="BA45" t="inlineStr"/>
       <c r="BB45" t="inlineStr"/>
       <c r="BC45" t="inlineStr"/>
+      <c r="BD45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="5" t="n">
@@ -49305,6 +49846,7 @@
       <c r="BA46" t="inlineStr"/>
       <c r="BB46" t="inlineStr"/>
       <c r="BC46" t="inlineStr"/>
+      <c r="BD46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="5" t="n">
@@ -49368,6 +49910,7 @@
       <c r="BA47" t="inlineStr"/>
       <c r="BB47" t="inlineStr"/>
       <c r="BC47" t="inlineStr"/>
+      <c r="BD47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="5" t="n">
@@ -49431,6 +49974,7 @@
       <c r="BA48" t="inlineStr"/>
       <c r="BB48" t="inlineStr"/>
       <c r="BC48" t="inlineStr"/>
+      <c r="BD48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="5" t="n">
@@ -49494,6 +50038,7 @@
       <c r="BA49" t="inlineStr"/>
       <c r="BB49" t="inlineStr"/>
       <c r="BC49" t="inlineStr"/>
+      <c r="BD49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="5" t="n">
@@ -49557,6 +50102,7 @@
       <c r="BA50" t="inlineStr"/>
       <c r="BB50" t="inlineStr"/>
       <c r="BC50" t="inlineStr"/>
+      <c r="BD50" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/excel/fupan_stocks.xlsx
+++ b/excel/fupan_stocks.xlsx
@@ -470,7 +470,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD65"/>
+  <dimension ref="A1:BF65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -754,6 +754,16 @@
           <t>2025年01月17日</t>
         </is>
       </c>
+      <c r="BE1" s="5" t="inlineStr">
+        <is>
+          <t>2025年01月20日</t>
+        </is>
+      </c>
+      <c r="BF1" s="5" t="inlineStr">
+        <is>
+          <t>2025年01月21日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="5" t="n">
@@ -1034,6 +1044,16 @@
           <t>600539.SH; 狮头股份; 0;  09:30:00; 4天4板; 9.69;  09:30:00; 10.0%; 4; 电商服务+宠物食品+布局小红书</t>
         </is>
       </c>
+      <c r="BE2" t="inlineStr">
+        <is>
+          <t>603928.SH; 兴业股份; 0;  09:30:00; 2天2板; 10.91;  09:30:00; 10.0%; 2; 光刻胶+合成树脂+大飞机</t>
+        </is>
+      </c>
+      <c r="BF2" t="inlineStr">
+        <is>
+          <t>000856.SZ; 冀东装备; 0;  09:25:00; 2天2板; 8.69;  09:25:00; 10.0%; 2; 机器人+水泥装备+北京国资</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="n">
@@ -1314,6 +1334,16 @@
           <t>002691.SZ; 冀凯股份; 0;  09:30:00; 4天4板; 6.86;  09:30:00; 9.9%; 4; 机器人+矿山装备+3D打印</t>
         </is>
       </c>
+      <c r="BE3" t="inlineStr">
+        <is>
+          <t>002666.SZ; 德联集团; 0;  09:30:00; 2天2板; 4.83;  09:30:00; -10.1%; 2; 精细化学品+冷却液+新能源汽车+创投</t>
+        </is>
+      </c>
+      <c r="BF3" t="inlineStr">
+        <is>
+          <t>002090.SZ; 金智科技; 0;  09:25:00; 2天2板; 10.65;  09:25:00; 10.0%; 2; 智能电网+机器人+积极寻求并购项目</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="5" t="n">
@@ -1594,6 +1624,16 @@
           <t>002578.SZ; 闽发铝业; 0;  09:30:15; 2天2板; 3.64;  09:30:15; 10.0%; 2; 铝型材+光伏+新能源汽车+国企改革</t>
         </is>
       </c>
+      <c r="BE4" t="inlineStr">
+        <is>
+          <t>002692.SZ; 远程股份; 0;  09:30:00; 2天2板; 6.08;  09:30:00; 9.9%; 2; 拟投资半导体公司+数据中心（电缆）+核电+国企改革</t>
+        </is>
+      </c>
+      <c r="BF4" t="inlineStr">
+        <is>
+          <t>002692.SZ; 远程股份; 0;  09:25:00; 3天3板; 6.08;  09:25:00; 9.9%; 3; 拟投资半导体公司+数据中心（电缆）+核电+国企改革</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="n">
@@ -1874,6 +1914,16 @@
           <t>002122.SZ; 汇洲智能; 0;  09:31:00; 4天4板; 5.61;  09:31:00; 10.0%; 4; 小红书审核+数据中心+工业母机</t>
         </is>
       </c>
+      <c r="BE5" t="inlineStr">
+        <is>
+          <t>603042.SH; 华脉科技; 0;  09:30:00; 2天2板; 15.28;  09:30:00; 10.0%; 2; 年报预增+铜缆高速连接+数据中心</t>
+        </is>
+      </c>
+      <c r="BF5" t="inlineStr">
+        <is>
+          <t>603928.SH; 兴业股份; 0;  09:25:01; 3天3板; 10.91;  09:25:01; 10.0%; 3; 光刻胶+合成树脂+大飞机</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="5" t="n">
@@ -2154,6 +2204,16 @@
           <t>002861.SZ; 瀛通通讯; 0;  09:32:15; 2天2板; 12.85;  09:32:15; 10.0%; 2; AI终端+电声产品+外销</t>
         </is>
       </c>
+      <c r="BE6" t="inlineStr">
+        <is>
+          <t>002767.SZ; 先锋电子; 0;  09:30:00; 3天3板; 19.14;  09:30:00; 10.0%; 3; 年报预增+芯片+智能燃气表+机器人</t>
+        </is>
+      </c>
+      <c r="BF6" t="inlineStr">
+        <is>
+          <t>600936.SH; 广西广电; 0;  09:25:03; 2天2板; 3.39;  09:25:03; 10.1%; 2; 筹划重大资产置换+业务战略转型</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="n">
@@ -2434,6 +2494,16 @@
           <t>002730.SZ; 电光科技; 0;  09:34:15; 20天12板; 18.81;  09:34:15; 10.0%; 1; 算力+机器人+物联网+防爆电器</t>
         </is>
       </c>
+      <c r="BE7" t="inlineStr">
+        <is>
+          <t>002861.SZ; 瀛通通讯; 0;  09:30:00; 3天3板; 15.55;  09:30:00; 10.0%; 3; AI终端+电声产品+外销</t>
+        </is>
+      </c>
+      <c r="BF7" t="inlineStr">
+        <is>
+          <t>002861.SZ; 瀛通通讯; 1;  09:38:12; 4天4板; 15.55;  09:25:00; 10.0%; 4; AI终端+电声产品+外销</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="5" t="n">
@@ -2714,6 +2784,16 @@
           <t>002543.SZ; 万和电气; 3;  09:35:15; 2天2板; 11.94;  09:30:45; 10.0%; 2; 厨卫电器+空气能热泵+高股息</t>
         </is>
       </c>
+      <c r="BE8" t="inlineStr">
+        <is>
+          <t>002636.SZ; 金安国纪; 0;  09:30:00; 5天5板; 11.3;  09:30:00; 0.1%; 5; 覆铜板+PCB</t>
+        </is>
+      </c>
+      <c r="BF8" t="inlineStr">
+        <is>
+          <t>000882.SZ; 华联股份; 1;  09:38:42; 2天2板; 2.82;  09:31:18; 10.2%; 2; 零售+影视+收购北京SKP旗下资产+间接持有少量地平线股份</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="n">
@@ -2994,6 +3074,16 @@
           <t>600358.SH; 国旅联合; 1;  09:37:15; 4天4板; 4.76;  09:30:00; 9.9%; 4; 小红书+营销+旅游+国企改革</t>
         </is>
       </c>
+      <c r="BE9" t="inlineStr">
+        <is>
+          <t>605058.SH; 澳弘电子; 0;  09:30:30; 2天2板; 24.2;  09:30:30; 2.7%; 2; PCB+AI算力</t>
+        </is>
+      </c>
+      <c r="BF9" t="inlineStr">
+        <is>
+          <t>003030.SZ; 祖名股份; 1;  09:40:00; 5天4板; 21.87;  09:39:27; 10.0%; 3; 豆制品+小红书+电商</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="5" t="n">
@@ -3274,6 +3364,16 @@
           <t>603511.SH; 爱慕股份; 0;  09:42:00; 4天4板; 16.65;  09:42:00; 10.0%; 4; 小红书+服装+IP经济+电商</t>
         </is>
       </c>
+      <c r="BE10" t="inlineStr">
+        <is>
+          <t>002923.SZ; 润都股份; 0;  09:30:30; 2天2板; 10.75;  09:30:30; -2.5%; 2; 流感+合成生物+原料药+新型烟草</t>
+        </is>
+      </c>
+      <c r="BF10" t="inlineStr">
+        <is>
+          <t>002767.SZ; 先锋电子; 1;  09:49:51; 4天4板; 19.14;  09:25:00; 10.0%; 4; 年报预增+芯片+智能燃气表+机器人</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="5" t="n">
@@ -3554,6 +3654,16 @@
           <t>002636.SZ; 金安国纪; 0;  09:48:46; 4天4板; 10.26;  09:48:46; 10.0%; 4; 覆铜板+PCB</t>
         </is>
       </c>
+      <c r="BE11" t="inlineStr">
+        <is>
+          <t>002730.SZ; 电光科技; 0;  09:30:45; 21天13板; 22.76;  09:30:45; 10.0%; 2; 算力+机器人+物联网+防爆电器</t>
+        </is>
+      </c>
+      <c r="BF11" t="inlineStr">
+        <is>
+          <t>002729.SZ; 好利科技; 4;  10:07:18; 2天2板; 15.49;  09:35:06; 10.0%; 2; 年报预增+熔断器+数据中心</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="5" t="n">
@@ -3834,6 +3944,16 @@
           <t>600714.SH; 金瑞矿业; 3;  09:50:46; 3天3板; 14.06;  09:30:00; 10.0%; 3; 液晶玻璃基板+锶盐+硫磺+小金属</t>
         </is>
       </c>
+      <c r="BE12" t="inlineStr">
+        <is>
+          <t>002691.SZ; 冀凯股份; 0;  09:31:00; 5天5板; 8.31;  09:31:00; 10.1%; 5; 机器人+矿山装备+3D打印</t>
+        </is>
+      </c>
+      <c r="BF12" t="inlineStr">
+        <is>
+          <t>605488.SH; 福莱新材; 0;  11:21:41; 2天2板; 29.05;  11:21:41; 10.0%; 2; 灵巧手+机器人+柔性传感器+散热</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="5" t="n">
@@ -4109,6 +4229,16 @@
           <t>002552.SZ; 宝鼎科技; 0;  10:18:53; 3天2板; 17.48;  10:18:53; 10.0%; 1; 覆铜板+黄金+国企</t>
         </is>
       </c>
+      <c r="BE13" t="inlineStr">
+        <is>
+          <t>003030.SZ; 祖名股份; 0;  09:31:45; 4天3板; 21.87;  09:31:45; 10.0%; 2; 豆制品+小红书+电商</t>
+        </is>
+      </c>
+      <c r="BF13" t="inlineStr">
+        <is>
+          <t>603068.SH; 博通集成; 0;  11:30:02; 9天5板; 39.22;  11:30:02; 10.0%; 1; 携手豆包赋能奥嘟比AI智能套件+无线连接芯片</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="5" t="n">
@@ -4384,6 +4514,16 @@
           <t>600423.SH; 柳化股份; 0;  10:34:23; 5天4板; 4.28;  10:34:23; 10.0%; 1; 化工+芯片概念+电子级双氧水+国企</t>
         </is>
       </c>
+      <c r="BE14" t="inlineStr">
+        <is>
+          <t>603511.SH; 爱慕股份; 1;  09:54:18; 5天5板; 16.49;  09:30:15; -10.0%; 5; 小红书+服装+IP经济+电商</t>
+        </is>
+      </c>
+      <c r="BF14" t="inlineStr">
+        <is>
+          <t>002691.SZ; 冀凯股份; 7;  13:09:03; 6天6板; 8.31;  09:30:00; 10.1%; 6; 机器人+矿山装备+3D打印</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="5" t="n">
@@ -4654,6 +4794,16 @@
           <t>603166.SH; 福达股份; 9;  10:57:54; 6天4板; 9.69;  09:40:15; 10.0%; 1; 机器人+比亚迪+汽车离合器</t>
         </is>
       </c>
+      <c r="BE15" t="inlineStr">
+        <is>
+          <t>002543.SZ; 万和电气; 6;  10:03:31; 3天3板; 11.94;  09:33:15; -9.1%; 3; 厨卫电器+空气能热泵+高股息</t>
+        </is>
+      </c>
+      <c r="BF15" t="inlineStr">
+        <is>
+          <t>603042.SH; 华脉科技; 4;  13:39:04; 3天3板; 15.28;  09:25:01; 10.0%; 3; 年报预增+铜缆高速连接+数据中心</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="5" t="n">
@@ -4909,6 +5059,16 @@
           <t>003030.SZ; 祖名股份; 0;  13:06:55; 3天2板; 18.07;  13:06:55; 10.0%; 1; 豆制品+小红书+电商</t>
         </is>
       </c>
+      <c r="BE16" t="inlineStr">
+        <is>
+          <t>603598.SH; 引力传媒; 0;  10:45:25; 5天4板; 19.16;  10:45:25; -3.5%; 1; 营销+抖音概念+小红书+大模型</t>
+        </is>
+      </c>
+      <c r="BF16" t="inlineStr">
+        <is>
+          <t>002730.SZ; 电光科技; 5;  14:32:18; 22天14板; 22.76;  09:30:12; 10.0%; 3; 算力+机器人+物联网+防爆电器</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="5" t="n">
@@ -5149,6 +5309,16 @@
           <t>002767.SZ; 先锋电子; 0;  13:21:55; 2天2板; 15.82;  13:21:55; 10.0%; 2; 年报预增+芯片+智能燃气表+机器人</t>
         </is>
       </c>
+      <c r="BE17" t="inlineStr">
+        <is>
+          <t>603082.SH; 北自科技; 0;  11:26:38; 2天2板; 40.25;  11:26:38; -2.4%; 2; 次新股+人形机器人+智能物流+国企</t>
+        </is>
+      </c>
+      <c r="BF17" t="inlineStr">
+        <is>
+          <t>000880.SZ; 潍柴重机; 0;  14:43:15; 2天2板; 22.55;  14:43:15; 10.0%; 2; 数据中心发电机+柴油机零部件+国企</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="5" t="n">
@@ -5384,6 +5554,16 @@
           <t>603177.SH; 德创环保; 1;  13:38:10; 4天4板; 10.52;  09:30:00; 10.0%; 4; 氢能源+钠离子电池+节能环保+出海</t>
         </is>
       </c>
+      <c r="BE18" t="inlineStr">
+        <is>
+          <t>600693.SH; 东百集团; 5;  11:27:32; 18天10板; 8.12;  10:20:03; 5.9%; 1; 零售+免税店+跨境电商</t>
+        </is>
+      </c>
+      <c r="BF18" t="inlineStr">
+        <is>
+          <t>002582.SZ; 好想你; 2;  14:44:42; 5天3板; 9.87;  14:02:00; 10.0%; 1; 微信小店+红枣+间接参投蜜雪冰城</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="5" t="n">
@@ -5614,6 +5794,16 @@
           <t>605179.SH; 一鸣食品; 3;  14:31:49; 2天2板; 23.83;  13:57:10; 10.0%; 2; 乳品+微信小店+冷链物流</t>
         </is>
       </c>
+      <c r="BE19" t="inlineStr">
+        <is>
+          <t>600981.SH; 汇鸿集团; 0;  13:04:10; 4天3板; 2.97;  13:04:10; -5.4%; 1; 参股弘业期货+供应链运营+资产置换</t>
+        </is>
+      </c>
+      <c r="BF19" t="inlineStr">
+        <is>
+          <t>603893.SH; 瑞芯微; 2;  14:46:48; 3天2板; 158.13;  11:28:00; 10.0%; 1; 年报预增+SoC芯片+AI眼镜+NPU</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="5" t="n">
@@ -5829,6 +6019,11 @@
           <t>002917.SZ; 金奥博; 8;  14:42:03; 7天7板; 19.12;  09:30:15; 10.0%; 7; 机器人+民爆+芯片概念+一带一路</t>
         </is>
       </c>
+      <c r="BE20" t="inlineStr">
+        <is>
+          <t>002799.SZ; 环球印务; 0;  13:15:11; 3天2板; 8.9;  13:15:11; -1.3%; 1; 字节（营销）+腾讯+医药包装+国企</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="5" t="n">
@@ -6032,6 +6227,11 @@
       <c r="BD21" t="inlineStr">
         <is>
           <t>002031.SZ; 巨轮智能; 3;  14:55:42; 4天3板; 7.24;  09:50:16; 10.0%; 1; 人形机器人+RV减速器+轮胎模具</t>
+        </is>
+      </c>
+      <c r="BE21" t="inlineStr">
+        <is>
+          <t>300515.SZ; 三德科技; 3;  14:44:36; 2天2板; 18.44;  09:40:32; 3.9%; 2; 年报预增+机器人概念+智能装备</t>
         </is>
       </c>
     </row>
@@ -10386,7 +10586,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD146"/>
+  <dimension ref="A1:BF146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10670,6 +10870,16 @@
           <t>2025年01月17日</t>
         </is>
       </c>
+      <c r="BE1" s="5" t="inlineStr">
+        <is>
+          <t>2025年01月20日</t>
+        </is>
+      </c>
+      <c r="BF1" s="5" t="inlineStr">
+        <is>
+          <t>2025年01月21日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="5" t="n">
@@ -10940,6 +11150,16 @@
           <t>605033.SH; 美邦股份; 0;  09:30:00; 一字跌停||缩量跌停; 25.27; -10.0%; 2; 此前发布股票交易风险提示公告</t>
         </is>
       </c>
+      <c r="BE2" t="inlineStr">
+        <is>
+          <t>600238.SH; 海南椰岛; 0;  09:30:00; 一字跌停||缩量跌停; 6.27; -1.4%; 1; 可能被实施退市风险警示</t>
+        </is>
+      </c>
+      <c r="BF2" t="inlineStr">
+        <is>
+          <t>001270.SZ; 铖昌科技; 0;  09:25:00; 一字跌停||缩量跌停; 29.05; -10.0%; 2; 可能被实施退市风险警示+业绩预亏</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="n">
@@ -11210,6 +11430,16 @@
           <t>600128.SH; 苏豪弘业; 8;  09:30:45; 放量跌停; 12.6; -10.0%; 1; 异常波动</t>
         </is>
       </c>
+      <c r="BE3" t="inlineStr">
+        <is>
+          <t>001270.SZ; 铖昌科技; 0;  09:30:00; 一字跌停||缩量跌停; 29.05; -10.0%; 1; 可能被实施退市风险警示</t>
+        </is>
+      </c>
+      <c r="BF3" t="inlineStr">
+        <is>
+          <t>002253.SZ; 川大智胜; 0;  09:25:00; 一字跌停||缩量跌停; 13.48; -10.0%; 1; 可能被实施退市风险警示+业绩预亏</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="5" t="n">
@@ -11475,6 +11705,16 @@
           <t>603777.SH; 来伊份; 0;  09:31:00; 缩量跌停; 22.14; -10.0%; 1; 年报净利预计下滑251%+异常波动</t>
         </is>
       </c>
+      <c r="BE4" t="inlineStr">
+        <is>
+          <t>002199.SZ; 东晶电子; 0;  09:30:00; 一字跌停||缩量跌停; 6.42; -6.8%; 1; 可能被实施退市风险警示+2024年报预亏</t>
+        </is>
+      </c>
+      <c r="BF4" t="inlineStr">
+        <is>
+          <t>600539.SH; 狮头股份; 1;  09:25:01; 放量跌停; 7.85; -10.0%; 2; 小红书概念股退潮</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="n">
@@ -11715,6 +11955,16 @@
           <t>002418.SZ; 康盛股份; 2;  09:32:15; 放量跌停; 3.65; -9.9%; 1; 数据中心板块大跌</t>
         </is>
       </c>
+      <c r="BE5" t="inlineStr">
+        <is>
+          <t>600128.SH; 苏豪弘业; 18;  09:30:00; 放量跌停; 10.21; -10.0%; 2; AI玩具尚未销售+未以小红书作平台进行营销</t>
+        </is>
+      </c>
+      <c r="BF5" t="inlineStr">
+        <is>
+          <t>600228.SH; 返利科技; 0;  09:25:01; 一字跌停||缩量跌停; 4.94; -10.0%; 2; 可能被实施退市风险警示</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="5" t="n">
@@ -11935,6 +12185,16 @@
           <t>002117.SZ; 东港股份; 9;  10:47:09; 缩量跌停; 11.83; -10.0%; 2; 资金出逃</t>
         </is>
       </c>
+      <c r="BE6" t="inlineStr">
+        <is>
+          <t>600130.SH; 波导股份; 0;  09:30:00; 一字跌停||缩量跌停; 3.77; -10.0%; 1; 可能被实施退市风险警示</t>
+        </is>
+      </c>
+      <c r="BF6" t="inlineStr">
+        <is>
+          <t>600636.SH; 国新文化; 0;  09:25:01; 一字跌停||缩量跌停; 8.59; -10.0%; 1; 可能被实施退市风险警示+年报预亏</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="n">
@@ -12145,6 +12405,16 @@
           <t>002853.SZ; 皮阿诺; 10;  13:26:25; 放量跌停; 10.29; -10.0%; 1; 小红书概念回落走低</t>
         </is>
       </c>
+      <c r="BE7" t="inlineStr">
+        <is>
+          <t>600228.SH; 返利科技; 0;  09:30:00; 一字跌停||缩量跌停; 4.94; -10.0%; 1; 可能被实施退市风险警示</t>
+        </is>
+      </c>
+      <c r="BF7" t="inlineStr">
+        <is>
+          <t>600243.SH; 青海华鼎; 0;  09:25:03; 一字跌停||缩量跌停; 3.03; -10.1%; 2; 可能被实施退市风险警示</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="5" t="n">
@@ -12335,6 +12605,16 @@
           <t>002712.SZ; 思美传媒; 1;  13:55:55; 放量跌停; 5.64; -10.0%; 1; 小红书概念股退潮+异常波动</t>
         </is>
       </c>
+      <c r="BE8" t="inlineStr">
+        <is>
+          <t>000691.SZ; 亚太实业; 0;  09:30:00; 一字跌停||缩量跌停; 2.89; -6.5%; 1; 可能被实施退市风险</t>
+        </is>
+      </c>
+      <c r="BF8" t="inlineStr">
+        <is>
+          <t>600130.SH; 波导股份; 0;  09:25:03; 一字跌停||缩量跌停; 3.77; -10.0%; 2; 可能被实施退市风险警示</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="n">
@@ -12505,6 +12785,16 @@
           <t>002164.SZ; 宁波东力; 3;  14:04:55; 放量跌停; 6.33; -10.0%; 1; 近期涨幅较大</t>
         </is>
       </c>
+      <c r="BE9" t="inlineStr">
+        <is>
+          <t>600243.SH; 青海华鼎; 0;  09:30:00; 一字跌停||缩量跌停; 3.03; -10.1%; 1; 可能被实施退市风险警示</t>
+        </is>
+      </c>
+      <c r="BF9" t="inlineStr">
+        <is>
+          <t>603177.SH; 德创环保; 1;  09:25:03; 缩量跌停; 8.52; -10.0%; 2; 异常波动+近期涨幅较大</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="5" t="n">
@@ -12675,6 +12965,16 @@
           <t>603598.SH; 引力传媒; 0;  14:22:44; 放量跌停; 18.05; -10.0%; 1; 小红书概念回落+异常波动</t>
         </is>
       </c>
+      <c r="BE10" t="inlineStr">
+        <is>
+          <t>000004.SZ; 国华网安; 0;  09:30:00; 一字跌停||缩量跌停; 11.45; -4.3%; 1; 可能被实施退市风险警示</t>
+        </is>
+      </c>
+      <c r="BF10" t="inlineStr">
+        <is>
+          <t>002122.SZ; 汇洲智能; 1;  09:33:27; 缩量跌停; 4.82; -10.1%; 1; 年报预亏+异常波动</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="5" t="n">
@@ -12835,6 +13135,16 @@
           <t>600202.SH; 哈空调; 2;  14:28:59; 放量跌停; 4.66; -10.0%; 1; 年报预减+此前涨幅较大</t>
         </is>
       </c>
+      <c r="BE11" t="inlineStr">
+        <is>
+          <t>600421.SH; 华嵘控股; 0;  09:30:00; 一字跌停||缩量跌停; 5.49; -4.0%; 1; 可能被实施退市风险警示</t>
+        </is>
+      </c>
+      <c r="BF11" t="inlineStr">
+        <is>
+          <t>603511.SH; 爱慕股份; 3;  09:39:08; 放量跌停; 16.49; -10.0%; 1; 小红书概念股退潮</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="5" t="n">
@@ -12975,6 +13285,16 @@
           <t>002193.SZ; 如意集团; 2;  14:44:07; 放量跌停; 6.67; -10.0%; 1; 服装家纺板块走低</t>
         </is>
       </c>
+      <c r="BE12" t="inlineStr">
+        <is>
+          <t>002291.SZ; 遥望科技; 0;  09:34:01; 缩量跌停; 6.75; -5.7%; 1; 小红书概念股大跌</t>
+        </is>
+      </c>
+      <c r="BF12" t="inlineStr">
+        <is>
+          <t>600714.SH; 金瑞矿业; 1;  09:40:06; 放量跌停; 11.39; -10.0%; 2; 股票交易风险提示+近期涨幅较大</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="5" t="n">
@@ -13115,6 +13435,16 @@
           <t>603682.SH; 锦和商管; 1;  14:47:07; 缩量跌停; 6.71; -10.1%; 1; 异常波动+资金获利了结</t>
         </is>
       </c>
+      <c r="BE13" t="inlineStr">
+        <is>
+          <t>600539.SH; 狮头股份; 11;  09:34:31; 放量跌停; 7.85; -10.0%; 1; 年报预亏+小红书渠道收入较低</t>
+        </is>
+      </c>
+      <c r="BF13" t="inlineStr">
+        <is>
+          <t>600556.SH; 天下秀; 19;  09:49:41; 放量跌停; 5.43; -10.0%; 2; 小红书概念股退潮</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="5" t="n">
@@ -13240,6 +13570,16 @@
           <t>003015.SZ; 日久光电; 2;  09:39:42; 放量跌停; 12.87; -10.0%; 2; 消费电子||AI眼镜板块继续退潮</t>
         </is>
       </c>
+      <c r="BE14" t="inlineStr">
+        <is>
+          <t>600556.SH; 天下秀; 10;  09:35:31; 放量跌停; 5.43; -10.0%; 1; 小红书概念股大跌</t>
+        </is>
+      </c>
+      <c r="BF14" t="inlineStr">
+        <is>
+          <t>002068.SZ; 黑猫股份; 8;  10:22:00; 放量跌停; 10.86; -10.0%; 1; 业绩兑现+此前涨幅较大</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="5" t="n">
@@ -13360,6 +13700,16 @@
           <t>002918.SZ; 蒙娜丽莎; 16;  09:39:42; 缩量跌停; 10.31; -10.0%; 2; 高位股开盘延续调整</t>
         </is>
       </c>
+      <c r="BE15" t="inlineStr">
+        <is>
+          <t>600714.SH; 金瑞矿业; 2;  09:36:16; 放量跌停; 11.39; -10.0%; 1; 股票交易风险提示+近期涨幅较大</t>
+        </is>
+      </c>
+      <c r="BF15" t="inlineStr">
+        <is>
+          <t>002816.SZ; 和科达; 0;  10:33:00; 放量跌停; 11.61; -10.0%; 1; 可能被实施退市风险警示</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="5" t="n">
@@ -13480,6 +13830,16 @@
           <t>603068.SH; 博通集成; 7;  09:40:10; 放量跌停; 30.1; -10.0%; 1; 异常波动+资金获利了结</t>
         </is>
       </c>
+      <c r="BE16" t="inlineStr">
+        <is>
+          <t>605033.SH; 美邦股份; 7;  09:40:02; 放量跌停; 21.03; -7.5%; 3; 公司股价涨幅严重偏离公司基本面</t>
+        </is>
+      </c>
+      <c r="BF16" t="inlineStr">
+        <is>
+          <t>002666.SZ; 德联集团; 5;  11:29:18; 放量跌停; 4.83; -10.1%; 1; 此前连续两日涨停</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="5" t="n">
@@ -13575,6 +13935,16 @@
           <t>002730.SZ; 电光科技; 13;  09:40:54; 放量跌停; 13.93; -10.0%; 1; 高位股开盘延续调整</t>
         </is>
       </c>
+      <c r="BE17" t="inlineStr">
+        <is>
+          <t>002004.SZ; 华邦健康; 9;  09:46:35; 放量跌停; 3.87; -1.3%; 1; 年报预计亏损</t>
+        </is>
+      </c>
+      <c r="BF17" t="inlineStr">
+        <is>
+          <t>600423.SH; 柳化股份; 8;  13:33:08; 放量跌停; 3.47; -9.9%; 2; 拟减持+业绩预减+异常波动</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="5" t="n">
@@ -13670,6 +14040,16 @@
           <t>605378.SH; 野马电池; 1;  09:45:08; 缩量跌停; 19; -10.0%; 2; 前一交易日股价跌停+异常波动+资金出逃</t>
         </is>
       </c>
+      <c r="BE18" t="inlineStr">
+        <is>
+          <t>600423.SH; 柳化股份; 3;  10:42:40; 放量跌停; 3.47; -9.9%; 1; 拟减持+业绩预减+异常波动</t>
+        </is>
+      </c>
+      <c r="BF18" t="inlineStr">
+        <is>
+          <t>300902.SZ; 国安达; 4;  14:17:09; 放量跌停; 19.76; -20.0%; 1; 年报预计下降+会计估计变更</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="5" t="n">
@@ -13765,6 +14145,16 @@
           <t>605118.SH; 力鼎光电; 7;  10:14:52; 放量跌停; 17.24; -10.0%; 2; 异常波动+前一交易日股价跌停+资金出逃</t>
         </is>
       </c>
+      <c r="BE19" t="inlineStr">
+        <is>
+          <t>603177.SH; 德创环保; 1;  13:34:50; 放量跌停; 8.52; -10.0%; 1; 异常波动+近期涨幅较大</t>
+        </is>
+      </c>
+      <c r="BF19" t="inlineStr">
+        <is>
+          <t>600128.SH; 苏豪弘业; 0;  14:19:08; 放量跌停; 10.21; -10.0%; 3; AI玩具尚未销售+未以小红书作平台进行营销+连续跌停</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="5" t="n">
@@ -13858,6 +14248,11 @@
       <c r="AZ20" t="inlineStr">
         <is>
           <t>002660.SZ; 茂硕电源; 4;  10:30:54; 放量跌停; 9.48; -10.0%; 1; 资金获利了结</t>
+        </is>
+      </c>
+      <c r="BE20" t="inlineStr">
+        <is>
+          <t>603800.SH; 洪田股份; 0;  14:39:19; 放量跌停; 25.75; 2.7%; 1; 资金出逃+DDE大单流出</t>
         </is>
       </c>
     </row>
@@ -17552,7 +17947,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD72"/>
+  <dimension ref="A1:BF72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17836,6 +18231,16 @@
           <t>2025年01月17日</t>
         </is>
       </c>
+      <c r="BE1" s="5" t="inlineStr">
+        <is>
+          <t>2025年01月20日</t>
+        </is>
+      </c>
+      <c r="BF1" s="5" t="inlineStr">
+        <is>
+          <t>2025年01月21日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="5" t="n">
@@ -18116,6 +18521,16 @@
           <t>002123.SZ; 梦网科技; 1;  09:30:00; 主板; 11.76; 曾涨停; -1.1%; 0.02H;  09:30:00</t>
         </is>
       </c>
+      <c r="BE2" t="inlineStr">
+        <is>
+          <t>600358.SH; 国旅联合; 1;  09:30:00; 主板; 4.16; 曾涨停; -5.0%; 2.11H;  09:30:00</t>
+        </is>
+      </c>
+      <c r="BF2" t="inlineStr">
+        <is>
+          <t>003013.SZ; 地铁设计; 1;  09:25:00; 主板; 14.39; 曾涨停; -4.2%; 0.01H;  09:25:00</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="n">
@@ -18396,6 +18811,16 @@
           <t>002291.SZ; 遥望科技; 1;  09:30:00; 主板; 7.96; 曾涨停; 3.9%; 0.02H;  09:30:00</t>
         </is>
       </c>
+      <c r="BE3" t="inlineStr">
+        <is>
+          <t>603232.SH; 格尔软件; 1;  09:30:15; 主板; 13.07; 曾涨停; -8.4%; 0.78H;  09:30:15</t>
+        </is>
+      </c>
+      <c r="BF3" t="inlineStr">
+        <is>
+          <t>603063.SH; 禾望电气; 1;  09:25:01; 主板; 35; 曾涨停; 7.3%; 0.23H;  09:25:01</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="5" t="n">
@@ -18676,6 +19101,16 @@
           <t>003016.SZ; 欣贺股份; 1;  09:30:00; 主板; 8.12; 曾涨停; 0.5%; 0.15H;  09:30:00</t>
         </is>
       </c>
+      <c r="BE4" t="inlineStr">
+        <is>
+          <t>603103.SH; 横店影视; 1;  09:31:15; 主板; 14.34; 曾涨停; -0.3%; 3.52H;  09:31:15</t>
+        </is>
+      </c>
+      <c r="BF4" t="inlineStr">
+        <is>
+          <t>600592.SH; 龙溪股份; 1;  09:30:30; 主板; 11.37; 曾涨停; 1.3%; 0.34H;  09:30:30</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="n">
@@ -18956,6 +19391,16 @@
           <t>002896.SZ; 中大力德; 2;  09:31:15; 主板; 43.64; 曾涨停; 5.4%; 1.13H;  09:31:15|| 09:32:00</t>
         </is>
       </c>
+      <c r="BE5" t="inlineStr">
+        <is>
+          <t>002390.SZ; 信邦制药; 1;  09:32:15; 主板; 4.22; 曾涨停; -2.3%; 0.04H;  09:32:15</t>
+        </is>
+      </c>
+      <c r="BF5" t="inlineStr">
+        <is>
+          <t>000558.SZ; 莱茵体育; 1;  09:31:42; 主板; 3.34; 曾涨停; 3.1%; 0.04H;  09:31:42</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="5" t="n">
@@ -19236,6 +19681,16 @@
           <t>002531.SZ; 天顺风能; 1;  09:33:45; 主板; 8.04; 曾涨停; 5.9%; 1.10H;  09:33:45</t>
         </is>
       </c>
+      <c r="BE6" t="inlineStr">
+        <is>
+          <t>600337.SH; 美克家居; 1;  09:32:30; 主板; 1.71; 曾涨停; -4.5%; 0.01H;  09:32:30</t>
+        </is>
+      </c>
+      <c r="BF6" t="inlineStr">
+        <is>
+          <t>002923.SZ; 润都股份; 2;  09:31:45; 主板; 10.75; 曾涨停; -2.5%; 0.01H;  09:31:45|| 09:32:06</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="n">
@@ -19516,6 +19971,16 @@
           <t>002553.SZ; 南方精工; 1;  09:36:30; 主板; 14.22; 曾涨停; 5.5%; 0.83H;  09:36:30</t>
         </is>
       </c>
+      <c r="BE7" t="inlineStr">
+        <is>
+          <t>600408.SH; 安泰集团; 1;  09:40:02; 主板; 2.02; 曾涨停; -1.9%; 0.00H;  09:40:02</t>
+        </is>
+      </c>
+      <c r="BF7" t="inlineStr">
+        <is>
+          <t>603015.SH; 弘讯科技; 2;  09:32:04; 主板; 12.76; 曾涨停; 4.5%; 0.01H;  09:32:04|| 09:32:31</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="5" t="n">
@@ -19796,6 +20261,16 @@
           <t>002109.SZ; 兴化股份; 2;  09:43:15; 主板; 3.63; 曾涨停; 5.8%; 0.03H;  09:43:15|| 09:43:45</t>
         </is>
       </c>
+      <c r="BE8" t="inlineStr">
+        <is>
+          <t>002707.SZ; 众信旅游; 3;  09:41:02; 主板; 7.73; 曾涨停; -0.4%; 2.20H;  09:41:02|| 10:09:31|| 10:13:34</t>
+        </is>
+      </c>
+      <c r="BF8" t="inlineStr">
+        <is>
+          <t>000681.SZ; 视觉中国; 2;  09:32:45; 主板; 21.97; 曾涨停; 4.7%; 0.23H;  09:32:45|| 09:33:30</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="n">
@@ -20076,6 +20551,16 @@
           <t>605398.SH; 新炬网络; 1;  09:50:31; 主板; 19.91; 曾涨停; 2.3%; 0.01H;  09:50:31</t>
         </is>
       </c>
+      <c r="BE9" t="inlineStr">
+        <is>
+          <t>002337.SZ; 赛象科技; 2;  09:44:44; 主板; 5.31; 曾涨停; -0.4%; 0.01H;  09:44:44|| 09:45:14</t>
+        </is>
+      </c>
+      <c r="BF9" t="inlineStr">
+        <is>
+          <t>300043.SZ; 星辉娱乐; 1;  09:35:06; 创业板; 4.11; 曾涨停; 13.2%; 0.01H;  09:35:06</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="5" t="n">
@@ -20356,6 +20841,16 @@
           <t>000833.SZ; 粤桂股份; 1;  09:57:53; 主板; 11.76; 曾涨停; 5.9%; 0.70H;  09:57:53</t>
         </is>
       </c>
+      <c r="BE10" t="inlineStr">
+        <is>
+          <t>600138.SH; 中青旅; 1;  09:44:59; 主板; 10.14; 曾涨停; -1.4%; 0.00H;  09:44:59</t>
+        </is>
+      </c>
+      <c r="BF10" t="inlineStr">
+        <is>
+          <t>002917.SZ; 金奥博; 14;  09:35:27; 主板; 19.43; 曾涨停; 7.1%; 0.83H;  09:35:27|| 09:36:57|| 09:38:33|| 09:49:45|| 09:50:39|| 09:51:24|| 10:03:12|| 10:56:57|| 10:57:42|| 10:59:15|| 11:12:18|| 11:25:00|| 13:13:42|| 13:14:00</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="5" t="n">
@@ -20636,6 +21131,16 @@
           <t>605136.SH; 丽人丽妆; 1;  10:01:23; 主板; 8.27; 曾涨停; 2.5%; 0.01H;  10:01:23</t>
         </is>
       </c>
+      <c r="BE11" t="inlineStr">
+        <is>
+          <t>603386.SH; 骏亚科技; 1;  09:46:35; 主板; 11; 曾涨停; -0.4%; 0.00H;  09:46:35</t>
+        </is>
+      </c>
+      <c r="BF11" t="inlineStr">
+        <is>
+          <t>603111.SH; 康尼机电; 3;  09:36:42; 主板; 6.92; 曾涨停; 4.5%; 0.02H;  09:36:42|| 09:37:15|| 09:38:00</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="5" t="n">
@@ -20916,6 +21421,16 @@
           <t>000592.SZ; 平潭发展; 2;  10:03:53; 主板; 3.07; 曾涨停; 6.6%; 0.22H;  10:03:53|| 10:16:23</t>
         </is>
       </c>
+      <c r="BE12" t="inlineStr">
+        <is>
+          <t>600705.SH; 中航产融; 1;  09:48:20; 主板; 3.55; 曾涨停; -3.3%; 1.69H;  09:48:20</t>
+        </is>
+      </c>
+      <c r="BF12" t="inlineStr">
+        <is>
+          <t>603030.SH; 全筑股份; 1;  09:39:30; 主板; 2.62; 曾涨停; 4.8%; 0.06H;  09:39:30</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="5" t="n">
@@ -21196,6 +21711,16 @@
           <t>600556.SH; 天下秀; 1;  10:04:38; 主板; 6.7; 曾涨停; 5.7%; 0.56H;  10:04:38</t>
         </is>
       </c>
+      <c r="BE13" t="inlineStr">
+        <is>
+          <t>002617.SZ; 露笑科技; 1;  09:51:23; 主板; 7.79; 曾涨停; 0.5%; 0.10H;  09:51:23</t>
+        </is>
+      </c>
+      <c r="BF13" t="inlineStr">
+        <is>
+          <t>603082.SH; 北自科技; 1;  09:40:39; 主板; 40.25; 曾涨停; -2.4%; 0.00H;  09:40:39</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="5" t="n">
@@ -21476,6 +22001,16 @@
           <t>002791.SZ; 坚朗五金; 2;  10:24:08; 主板; 22.5; 曾涨停; 5.2%; 0.05H;  10:24:08|| 10:27:23</t>
         </is>
       </c>
+      <c r="BE14" t="inlineStr">
+        <is>
+          <t>002926.SZ; 华西证券; 2;  09:52:13; 主板; 8.12; 曾涨停; -1.3%; 0.94H;  09:52:13|| 10:33:03</t>
+        </is>
+      </c>
+      <c r="BF14" t="inlineStr">
+        <is>
+          <t>002391.SZ; 长青股份; 1;  09:42:15; 主板; 5.18; 曾涨停; 4.0%; 0.01H;  09:42:15</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="5" t="n">
@@ -21756,6 +22291,16 @@
           <t>002187.SZ; 广百股份; 2;  10:28:08; 主板; 9.4; 曾涨停; -6.7%; 0.01H;  10:28:08|| 10:29:38</t>
         </is>
       </c>
+      <c r="BE15" t="inlineStr">
+        <is>
+          <t>605016.SH; 百龙创园; 3;  09:53:21; 主板; 17.38; 曾涨停; -0.6%; 1.34H;  09:53:21|| 09:55:46|| 10:17:48</t>
+        </is>
+      </c>
+      <c r="BF15" t="inlineStr">
+        <is>
+          <t>002881.SZ; 美格智能; 1;  09:42:57; 主板; 34.98; 曾涨停; 7.2%; 0.01H;  09:42:57</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="5" t="n">
@@ -22031,6 +22576,16 @@
           <t>002165.SZ; 红宝丽; 2;  11:28:25; 主板; 4.77; 曾涨停; 6.2%; 1.89H;  11:28:25|| 13:16:55</t>
         </is>
       </c>
+      <c r="BE16" t="inlineStr">
+        <is>
+          <t>603214.SH; 爱婴室; 1;  09:58:38; 主板; 21.8; 曾涨停; -1.4%; 1.88H;  09:58:38</t>
+        </is>
+      </c>
+      <c r="BF16" t="inlineStr">
+        <is>
+          <t>002636.SZ; 金安国纪; 3;  09:43:21; 主板; 11.3; 曾涨停; 0.1%; 0.02H;  09:43:21|| 09:44:33|| 09:46:15</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="5" t="n">
@@ -22296,6 +22851,16 @@
           <t>000561.SZ; 烽火电子; 1;  13:02:40; 主板; 8.83; 曾涨停; 5.7%; 0.04H;  13:02:40</t>
         </is>
       </c>
+      <c r="BE17" t="inlineStr">
+        <is>
+          <t>002364.SZ; 中恒电气; 1;  10:04:31; 主板; 13.3; 曾涨停; 0.5%; 3.27H;  10:04:31</t>
+        </is>
+      </c>
+      <c r="BF17" t="inlineStr">
+        <is>
+          <t>603387.SH; 基蛋生物; 2;  09:50:09; 主板; 8.75; 曾涨停; 6.1%; 0.01H;  09:50:09|| 09:51:12</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="5" t="n">
@@ -22556,6 +23121,16 @@
           <t>605258.SH; 协和电子; 1;  13:43:25; 主板; 32.8; 曾涨停; 6.0%; 0.00H;  13:43:25</t>
         </is>
       </c>
+      <c r="BE18" t="inlineStr">
+        <is>
+          <t>603190.SH; 亚通精工; 1;  10:06:01; 主板; 22.09; 曾涨停; 0.1%; 0.02H;  10:06:01</t>
+        </is>
+      </c>
+      <c r="BF18" t="inlineStr">
+        <is>
+          <t>000736.SZ; 中交地产; 1;  09:57:45; 主板; 8.73; 曾涨停; 5.6%; 0.38H;  09:57:45</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="5" t="n">
@@ -22816,6 +23391,16 @@
           <t>605080.SH; 浙江自然; 6;  13:46:40; 主板; 30.18; 曾涨停; 8.0%; 0.10H;  13:46:40|| 13:48:55|| 13:49:40|| 13:50:55|| 13:52:55|| 14:02:25</t>
         </is>
       </c>
+      <c r="BE19" t="inlineStr">
+        <is>
+          <t>002449.SZ; 国星光电; 1;  10:08:31; 主板; 11.9; 曾涨停; 0.3%; 0.01H;  10:08:31</t>
+        </is>
+      </c>
+      <c r="BF19" t="inlineStr">
+        <is>
+          <t>600173.SH; 卧龙地产; 5;  09:58:28; 主板; 4.4; 曾涨停; 5.0%; 1.42H;  09:58:28|| 10:00:40|| 10:04:58|| 10:05:28|| 10:07:55</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="5" t="n">
@@ -23056,6 +23641,16 @@
           <t>603328.SH; 依顿电子; 2;  13:49:10; 主板; 10.05; 曾涨停; 8.2%; 0.56H;  13:49:10|| 14:15:59</t>
         </is>
       </c>
+      <c r="BE20" t="inlineStr">
+        <is>
+          <t>002857.SZ; 三晖电气; 2;  10:19:18; 主板; 15.42; 曾涨停; 1.3%; 0.03H;  10:19:18|| 10:22:48</t>
+        </is>
+      </c>
+      <c r="BF20" t="inlineStr">
+        <is>
+          <t>000002.SZ; 万科A; 2;  09:59:57; 主板; 7.36; 曾涨停; 7.4%; 0.55H;  09:59:57|| 10:33:30</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="5" t="n">
@@ -23296,6 +23891,16 @@
           <t>301558.SZ; 三态股份; 1;  13:59:55; 创业板; 9.54; 曾涨停; 9.4%; 0.00H;  13:59:55</t>
         </is>
       </c>
+      <c r="BE21" t="inlineStr">
+        <is>
+          <t>002536.SZ; 飞龙股份; 1;  10:23:03; 主板; 13.3; 曾涨停; -1.4%; 0.00H;  10:23:03</t>
+        </is>
+      </c>
+      <c r="BF21" t="inlineStr">
+        <is>
+          <t>000006.SZ; 深振业A; 1;  10:01:42; 主板; 7.58; 曾涨停; 1.3%; 0.27H;  10:01:42</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="5" t="n">
@@ -23526,6 +24131,16 @@
           <t>002763.SZ; 汇洁股份; 2;  10:20:48; 主板; 6.89; 曾涨停; 5.5%; 0.25H;  10:20:48|| 10:22:09</t>
         </is>
       </c>
+      <c r="BE22" t="inlineStr">
+        <is>
+          <t>600398.SH; 海澜之家; 1;  10:31:48; 主板; 8.66; 曾涨停; 5.1%; 0.01H;  10:31:48</t>
+        </is>
+      </c>
+      <c r="BF22" t="inlineStr">
+        <is>
+          <t>601010.SH; 文峰股份; 1;  10:06:53; 主板; 2.89; 曾涨停; 6.2%; 0.00H;  10:06:53</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="5" t="n">
@@ -23741,6 +24356,16 @@
           <t>601001.SH; 晋控煤业; 1;  10:25:57; 主板; 13.73; 曾涨停; 7.3%; 0.01H;  10:25:57</t>
         </is>
       </c>
+      <c r="BE23" t="inlineStr">
+        <is>
+          <t>300153.SZ; 科泰电源; 3;  10:32:33; 创业板; 17.84; 曾涨停; 0.2%; 1.77H;  10:32:33|| 10:33:35|| 11:30:00</t>
+        </is>
+      </c>
+      <c r="BF23" t="inlineStr">
+        <is>
+          <t>002265.SZ; 建设工业; 2;  11:09:54; 主板; 32.95; 曾涨停; 8.0%; 0.73H;  11:09:54|| 13:22:54</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="5" t="n">
@@ -23956,6 +24581,16 @@
           <t>603211.SH; 晋拓股份; 2;  10:41:08; 主板; 16.17; 曾涨停; 5.3%; 0.08H;  10:41:08|| 10:43:08</t>
         </is>
       </c>
+      <c r="BE24" t="inlineStr">
+        <is>
+          <t>002886.SZ; 沃特股份; 1;  10:37:25; 主板; 17.35; 曾涨停; 0.2%; 0.23H;  10:37:25</t>
+        </is>
+      </c>
+      <c r="BF24" t="inlineStr">
+        <is>
+          <t>002553.SZ; 南方精工; 1;  11:17:33; 主板; 14.8; 曾涨停; 5.3%; 0.01H;  11:17:33</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="5" t="n">
@@ -24166,6 +24801,16 @@
           <t>002813.SZ; 路畅科技; 1;  10:52:33; 主板; 23.63; 曾涨停; 5.9%; 0.01H;  10:52:33</t>
         </is>
       </c>
+      <c r="BE25" t="inlineStr">
+        <is>
+          <t>300603.SZ; 立昂技术; 1;  10:46:25; 创业板; 9.94; 曾涨停; -0.4%; 0.00H;  10:46:25</t>
+        </is>
+      </c>
+      <c r="BF25" t="inlineStr">
+        <is>
+          <t>002241.SZ; 歌尔股份; 1;  11:22:42; 主板; 27.2; 曾涨停; 8.4%; 0.30H;  11:22:42</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="5" t="n">
@@ -24361,6 +25006,16 @@
           <t>300150.SZ; 世纪瑞尔; 1;  11:13:15; 创业板; 5.1; 曾涨停; 14.6%; 0.26H;  11:13:15</t>
         </is>
       </c>
+      <c r="BE26" t="inlineStr">
+        <is>
+          <t>002908.SZ; 德生科技; 1;  10:55:10; 主板; 8.55; 曾涨停; -1.8%; 2.30H;  10:55:10</t>
+        </is>
+      </c>
+      <c r="BF26" t="inlineStr">
+        <is>
+          <t>603341.SH; 龙旗科技; 1;  13:00:15; 主板; 44.4; 曾涨停; 8.1%; 0.02H;  13:00:15</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="5" t="n">
@@ -24551,6 +25206,16 @@
           <t>000707.SZ; 双环科技; 1;  11:26:15; 主板; 7.37; 曾涨停; 7.3%; 0.16H;  11:26:15</t>
         </is>
       </c>
+      <c r="BE27" t="inlineStr">
+        <is>
+          <t>603686.SH; 福龙马; 4;  11:12:59; 主板; 10.77; 曾涨停; 0.8%; 0.07H;  11:12:59|| 11:16:05|| 11:17:09|| 11:17:54</t>
+        </is>
+      </c>
+      <c r="BF27" t="inlineStr">
+        <is>
+          <t>002292.SZ; 奥飞娱乐; 1;  13:03:15; 主板; 10.09; 曾涨停; 7.7%; 0.11H;  13:03:15</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="5" t="n">
@@ -24726,6 +25391,16 @@
           <t>601208.SH; 东材科技; 1;  13:24:07; 主板; 7.92; 曾涨停; 7.2%; 0.03H;  13:24:07</t>
         </is>
       </c>
+      <c r="BE28" t="inlineStr">
+        <is>
+          <t>300697.SZ; 电工合金; 1;  11:13:37; 创业板; 15.88; 曾涨停; 2.4%; 0.19H;  11:13:37</t>
+        </is>
+      </c>
+      <c r="BF28" t="inlineStr">
+        <is>
+          <t>605058.SH; 澳弘电子; 1;  13:45:45; 主板; 24.2; 曾涨停; 2.7%; 0.01H;  13:45:45</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="5" t="n">
@@ -24901,6 +25576,16 @@
           <t>603360.SH; 百傲化学; 1;  13:36:13; 主板; 23.82; 曾涨停; 8.2%; 0.01H;  13:36:13</t>
         </is>
       </c>
+      <c r="BE29" t="inlineStr">
+        <is>
+          <t>600560.SH; 金自天正; 1;  11:29:35; 主板; 16.15; 曾涨停; 0.4%; 0.00H;  11:29:35</t>
+        </is>
+      </c>
+      <c r="BF29" t="inlineStr">
+        <is>
+          <t>600419.SH; 天润乳业; 2;  13:57:09; 主板; 9.62; 曾涨停; 8.5%; 0.04H;  13:57:09|| 13:59:48</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="5" t="n">
@@ -25076,6 +25761,11 @@
           <t>002640.SZ; 跨境通; 2;  13:46:03; 主板; 5.62; 曾涨停; 8.3%; 0.13H;  13:46:03|| 13:54:18</t>
         </is>
       </c>
+      <c r="BE30" t="inlineStr">
+        <is>
+          <t>000021.SZ; 深科技; 1;  13:13:23; 主板; 19.72; 曾涨停; -0.3%; 0.90H;  13:13:23</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="5" t="n">
@@ -25241,6 +25931,11 @@
           <t>002441.SZ; 众业达; 2;  13:20:50; 主板; 7.6; 曾涨停; 4.4%; 0.08H;  13:20:50|| 13:22:05</t>
         </is>
       </c>
+      <c r="BE31" t="inlineStr">
+        <is>
+          <t>002616.SZ; 长青集团; 1;  13:17:31; 主板; 4.92; 曾涨停; 0.2%; 0.01H;  13:17:31</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="5" t="n">
@@ -25386,6 +26081,11 @@
           <t>300100.SZ; 双林股份; 2;  13:23:35; 创业板; 34.44; 曾涨停; 14.9%; 0.12H;  13:23:35|| 13:29:50</t>
         </is>
       </c>
+      <c r="BE32" t="inlineStr">
+        <is>
+          <t>600396.SH; 华电辽能; 2;  13:38:14; 主板; 2.62; 曾涨停; -1.5%; 0.01H;  13:38:14|| 13:38:48</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="5" t="n">
@@ -25521,6 +26221,11 @@
           <t>603063.SH; 禾望电气; 4;  13:23:35; 主板; 29.92; 曾涨停; 7.0%; 0.68H;  13:23:35|| 13:51:11|| 14:30:01|| 14:35:01</t>
         </is>
       </c>
+      <c r="BE33" t="inlineStr">
+        <is>
+          <t>600686.SH; 金龙汽车; 1;  13:46:10; 主板; 14.93; 曾涨停; -0.8%; 0.01H;  13:46:10</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="5" t="n">
@@ -25649,6 +26354,11 @@
       <c r="AY34" t="inlineStr">
         <is>
           <t>600618.SH; 氯碱化工; 2;  14:22:01; 主板; 11.95; 曾涨停; 6.2%; 0.02H;  14:22:01|| 14:23:31</t>
+        </is>
+      </c>
+      <c r="BE34" t="inlineStr">
+        <is>
+          <t>300984.SZ; 金沃股份; 4;  14:21:51; 创业板; 61.3; 曾涨停; 5.7%; 0.19H;  14:21:51|| 14:26:32|| 14:27:39|| 14:35:16</t>
         </is>
       </c>
     </row>
@@ -27648,7 +28358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD128"/>
+  <dimension ref="A1:BF128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27932,6 +28642,16 @@
           <t>2025年01月17日</t>
         </is>
       </c>
+      <c r="BE1" s="5" t="inlineStr">
+        <is>
+          <t>2025年01月20日</t>
+        </is>
+      </c>
+      <c r="BF1" s="5" t="inlineStr">
+        <is>
+          <t>2025年01月21日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="5" t="n">
@@ -28212,6 +28932,16 @@
           <t>000408.SZ; 藏格矿业; 0;  09:30:00; 首板涨停; 32.45;  09:30:00; 10.0%; 1; 紫金矿业斥资超137亿元控股藏格矿业</t>
         </is>
       </c>
+      <c r="BE2" t="inlineStr">
+        <is>
+          <t>002209.SZ; 达意隆; 0;  09:30:00; 首板涨停; 10.49;  09:30:00; -3.8%; 1; 年报预增+机器人+液体包装机械</t>
+        </is>
+      </c>
+      <c r="BF2" t="inlineStr">
+        <is>
+          <t>002296.SZ; 辉煌科技; 0;  09:25:00; 首板涨停; 10.34;  09:25:00; 10.0%; 1; 年报预增+轨交设备</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="n">
@@ -28492,6 +29222,16 @@
           <t>002250.SZ; 联化科技; 0;  09:30:00; 首板涨停; 5.76;  09:30:00; 9.9%; 1; 年报预盈+精细化工+CRO</t>
         </is>
       </c>
+      <c r="BE3" t="inlineStr">
+        <is>
+          <t>600936.SH; 广西广电; 0;  09:30:00; 首板涨停; 3.39;  09:30:00; 10.1%; 1; 筹划重大资产置换+业务战略转型</t>
+        </is>
+      </c>
+      <c r="BF3" t="inlineStr">
+        <is>
+          <t>002802.SZ; 洪汇新材; 0;  09:25:00; 首板涨停; 14.07;  09:25:00; 10.0%; 1; 控股股东、实控人拟变更+化工+风电</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="5" t="n">
@@ -28772,6 +29512,16 @@
           <t>002787.SZ; 华源控股; 0;  09:30:00; 首板涨停; 8.62;  09:30:00; 9.9%; 1; 年报预增+电池精密结构件+包装</t>
         </is>
       </c>
+      <c r="BE4" t="inlineStr">
+        <is>
+          <t>605020.SH; 永和股份; 0;  09:30:00; 首板涨停; 21.38;  09:30:00; -1.6%; 1; 年报预增+制冷剂+浸没冷却液</t>
+        </is>
+      </c>
+      <c r="BF4" t="inlineStr">
+        <is>
+          <t>300422.SZ; 博世科; 0;  09:25:00; 首板涨停; 5.32;  09:25:00; 20.1%; 1; 实控人拟变更为广西国资委+污水处理</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="n">
@@ -29052,6 +29802,16 @@
           <t>300515.SZ; 三德科技; 0;  09:30:00; 首板涨停; 14.78;  09:30:00; 20.0%; 1; 年报预增+机器人概念+智能装备</t>
         </is>
       </c>
+      <c r="BE5" t="inlineStr">
+        <is>
+          <t>600636.SH; 国新文化; 0;  09:30:15; 首板涨停; 8.59;  09:30:15; -10.0%; 1; AI教育+多模态AI+算力+央企</t>
+        </is>
+      </c>
+      <c r="BF5" t="inlineStr">
+        <is>
+          <t>600558.SH; 大西洋; 0;  09:25:04; 首板涨停; 4.49;  09:25:04; 10.0%; 1; 年报预增+核电+焊接材料+国企</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="5" t="n">
@@ -29332,6 +30092,16 @@
           <t>600724.SH; 宁波富达; 0;  09:30:00; 首板涨停; 6.42;  09:30:00; 9.9%; 1; 拟控股晶鑫材料+房地产+宁波国资</t>
         </is>
       </c>
+      <c r="BE6" t="inlineStr">
+        <is>
+          <t>002965.SZ; 祥鑫科技; 0;  09:30:15; 首板涨停; 41.2;  09:30:15; 2.1%; 1; 液冷服务器+机器人+低空经济+小米汽车</t>
+        </is>
+      </c>
+      <c r="BF6" t="inlineStr">
+        <is>
+          <t>002546.SZ; 新联电子; 0;  09:30:03; 首板涨停; 4.87;  09:30:03; 9.9%; 1; 年报预增+电力柜+智能用电云服务+高股息</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="n">
@@ -29612,6 +30382,16 @@
           <t>603042.SH; 华脉科技; 0;  09:30:45; 首板涨停; 12.63;  09:30:45; 10.0%; 1; 年报预增+铜缆高速连接+数据中心</t>
         </is>
       </c>
+      <c r="BE7" t="inlineStr">
+        <is>
+          <t>000020.SZ; 深华发A; 0;  09:30:15; 首板涨停; 12.9;  09:30:15; -3.2%; 1; 年报预增+物业管理+注塑件+液晶显示器</t>
+        </is>
+      </c>
+      <c r="BF7" t="inlineStr">
+        <is>
+          <t>603188.SH; 亚邦股份; 0;  09:31:27; 首板涨停; 3.86;  09:31:27; 10.0%; 1; 实控人拟变更为武进国资办+农药+染料</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="5" t="n">
@@ -29892,6 +30672,16 @@
           <t>002942.SZ; 新农股份; 0;  09:30:45; 首板涨停; 15.84;  09:30:45; 10.0%; 1; 农药+化工+年报预计扭亏</t>
         </is>
       </c>
+      <c r="BE8" t="inlineStr">
+        <is>
+          <t>603838.SH; 四通股份; 0;  09:31:00; 首板涨停; 5.82;  09:31:00; -2.0%; 1; 家居生活陶瓷+外销+与马可波罗为同一实控人+微盘股</t>
+        </is>
+      </c>
+      <c r="BF8" t="inlineStr">
+        <is>
+          <t>605018.SH; 长华集团; 0;  09:34:18; 首板涨停; 10.81;  09:34:18; 10.0%; 1; 碳陶刹车系统+汽车零部件+机器人相关+飞行汽车</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="n">
@@ -30172,6 +30962,16 @@
           <t>001306.SZ; 夏厦精密; 2;  09:37:30; 首板涨停; 63.71;  09:33:30; 10.0%; 1; 人形机器人+减速器+比亚迪</t>
         </is>
       </c>
+      <c r="BE9" t="inlineStr">
+        <is>
+          <t>000880.SZ; 潍柴重机; 0;  09:31:30; 首板涨停; 22.55;  09:31:30; 10.0%; 1; 数据中心发电机+柴油机零部件+国企+分红方案</t>
+        </is>
+      </c>
+      <c r="BF9" t="inlineStr">
+        <is>
+          <t>600579.SH; 克劳斯; 0;  09:39:00; 首板涨停; 9.26;  09:39:00; 10.0%; 1; 机器人+重大资产重组+专用设备+央企</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="5" t="n">
@@ -30452,6 +31252,16 @@
           <t>002692.SZ; 远程股份; 0;  09:37:30; 首板涨停; 5.03;  09:37:30; 10.1%; 1; 数据中心（电缆）+核电+电网设备+国企改革</t>
         </is>
       </c>
+      <c r="BE10" t="inlineStr">
+        <is>
+          <t>002090.SZ; 金智科技; 0;  09:32:00; 首板涨停; 10.65;  09:32:00; 10.0%; 1; 智能电网+积极寻求并购项目</t>
+        </is>
+      </c>
+      <c r="BF10" t="inlineStr">
+        <is>
+          <t>600858.SH; 银座股份; 1;  09:42:59; 首板涨停; 6.53;  09:33:05; 9.9%; 1; 零售+抖音+养老+黄金概念</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="5" t="n">
@@ -30732,6 +31542,16 @@
           <t>002689.SZ; 远大智能; 0;  09:38:30; 首板涨停; 4.02;  09:38:30; 10.1%; 1; 机器人+电梯+出海</t>
         </is>
       </c>
+      <c r="BE11" t="inlineStr">
+        <is>
+          <t>600784.SH; 鲁银投资; 0;  09:32:45; 首板涨停; 6.03;  09:32:45; -2.6%; 1; 筹划重组+化债（AMC）+盐及盐化工+山东国资</t>
+        </is>
+      </c>
+      <c r="BF11" t="inlineStr">
+        <is>
+          <t>000620.SZ; 新华联; 0;  09:49:03; 首板涨停; 2.07;  09:49:03; 10.1%; 1; 房地产+文旅+虚拟现实+低价股</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="5" t="n">
@@ -31012,6 +31832,16 @@
           <t>002688.SZ; 金河生物; 1;  09:40:15; 首板涨停; 4.59;  09:39:45; 10.1%; 1; 动物保健品+动物疫苗</t>
         </is>
       </c>
+      <c r="BE12" t="inlineStr">
+        <is>
+          <t>603717.SH; 天域生物; 1;  09:33:00; 首板涨停; 9.05;  09:31:30; 5.4%; 1; 养殖+光伏+锂电池</t>
+        </is>
+      </c>
+      <c r="BF12" t="inlineStr">
+        <is>
+          <t>002358.SZ; 森源电气; 2;  09:53:12; 首板涨停; 5.3;  09:42:42; 10.0%; 1; 输变电设备+清洁能源+数据中心+河南国资</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="5" t="n">
@@ -31292,6 +32122,16 @@
           <t>605058.SH; 澳弘电子; 0;  09:45:00; 首板涨停; 21.42;  09:45:00; 10.0%; 1; PCB+AI算力</t>
         </is>
       </c>
+      <c r="BE13" t="inlineStr">
+        <is>
+          <t>603063.SH; 禾望电气; 0;  09:34:16; 首板涨停; 35;  09:34:16; 7.3%; 1; 数据中心+风光储+氢能源</t>
+        </is>
+      </c>
+      <c r="BF13" t="inlineStr">
+        <is>
+          <t>300638.SZ; 广和通; 4;  10:09:54; 首板涨停; 28.69;  09:31:33; 20.0%; 1; AI玩具大模型解决方案+机器人概念+端侧AI+无线通信模块</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="5" t="n">
@@ -31572,6 +32412,16 @@
           <t>301123.SZ; 奕东电子; 0;  09:46:00; 首板涨停; 25.76;  09:46:00; 20.0%; 1; 铜缆高速连接+消费电子+安费诺、小米等客户</t>
         </is>
       </c>
+      <c r="BE14" t="inlineStr">
+        <is>
+          <t>000856.SZ; 冀东装备; 0;  09:35:01; 首板涨停; 8.69;  09:35:01; 10.0%; 1; 机器人+水泥装备+北京国资</t>
+        </is>
+      </c>
+      <c r="BF14" t="inlineStr">
+        <is>
+          <t>002514.SZ; 宝馨科技; 1;  10:21:45; 首板涨停; 8.43;  09:40:30; 10.1%; 1; 钙钛矿电池+液冷超充+华为+设立半导体合资公司</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="5" t="n">
@@ -31847,6 +32697,16 @@
           <t>002137.SZ; 实益达; 1;  09:58:23; 首板涨停; 8.75;  09:31:30; 10.1%; 1; 间接投资宇树科技+微信营销+智能终端+先进封装</t>
         </is>
       </c>
+      <c r="BE15" t="inlineStr">
+        <is>
+          <t>603272.SH; 联翔股份; 0;  09:37:46; 首板涨停; 14.48;  09:37:46; -2.6%; 1; 装饰用品+电商+小红书</t>
+        </is>
+      </c>
+      <c r="BF15" t="inlineStr">
+        <is>
+          <t>603719.SH; 良品铺子; 3;  10:29:51; 首板涨停; 16.93;  10:18:00; 10.0%; 1; 休闲食品+电商</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="5" t="n">
@@ -32122,6 +32982,16 @@
           <t>002931.SZ; 锋龙股份; 0;  10:04:23; 首板涨停; 17.48;  10:04:23; 10.0%; 1; 机器人概念+汽车零部件+园林机械零部件+拟终止公司控制权变更</t>
         </is>
       </c>
+      <c r="BE16" t="inlineStr">
+        <is>
+          <t>002333.SZ; 罗普斯金; 0;  09:37:46; 首板涨停; 5.66;  09:37:46; -2.9%; 1; 铝合金型材+房屋检测+光伏铝合金边框</t>
+        </is>
+      </c>
+      <c r="BF16" t="inlineStr">
+        <is>
+          <t>603332.SH; 苏州龙杰; 0;  10:49:45; 首板涨停; 9.8;  10:49:45; 10.0%; 1; 化纤</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="5" t="n">
@@ -32392,6 +33262,16 @@
           <t>600657.SH; 信达地产; 0;  10:14:08; 首板涨停; 4.77;  10:14:08; 9.9%; 1; 参与设立200亿元房地产纾困盘活基金+化债概念（AMC）+央企</t>
         </is>
       </c>
+      <c r="BE17" t="inlineStr">
+        <is>
+          <t>002811.SZ; 郑中设计; 0;  09:38:01; 首板涨停; 10.8;  09:38:01; -4.5%; 1; AI设计+小红书+IP+室内设计</t>
+        </is>
+      </c>
+      <c r="BF17" t="inlineStr">
+        <is>
+          <t>000820.SZ; 神雾节能; 7;  10:55:00; 首板涨停; 3.99;  09:51:39; 9.9%; 1; 子公司签10亿元大单+环保+钢铁</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="5" t="n">
@@ -32662,6 +33542,16 @@
           <t>601500.SH; 通用股份; 0;  10:14:38; 首板涨停; 5.53;  10:14:38; 9.9%; 1; 轮胎+工业4.0+外销</t>
         </is>
       </c>
+      <c r="BE18" t="inlineStr">
+        <is>
+          <t>301503.SZ; 智迪科技; 0;  09:39:46; 首板涨停; 42.3;  09:39:46; 6.3%; 1; 年报预增+消费电子+外销+机器人概念</t>
+        </is>
+      </c>
+      <c r="BF18" t="inlineStr">
+        <is>
+          <t>301199.SZ; 迈赫股份; 0;  11:18:24; 首板涨停; 35.99;  11:18:24; 20.0%; 1; 机器人+物联网</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="5" t="n">
@@ -32927,6 +33817,16 @@
           <t>002923.SZ; 润都股份; 4;  10:16:53; 首板涨停; 10.02;  09:40:45; 10.0%; 1; 流感+合成生物+原料药+新型烟草</t>
         </is>
       </c>
+      <c r="BE19" t="inlineStr">
+        <is>
+          <t>002755.SZ; 奥赛康; 0;  09:39:46; 首板涨停; 13.9;  09:39:46; -0.8%; 1; 创新药+癌症</t>
+        </is>
+      </c>
+      <c r="BF19" t="inlineStr">
+        <is>
+          <t>002196.SZ; 方正电机; 0;  13:09:42; 首板涨停; 6.24;  13:09:42; 10.1%; 1; 电机+机器人+国企</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="5" t="n">
@@ -33192,6 +34092,16 @@
           <t>002666.SZ; 德联集团; 0;  10:21:08; 首板涨停; 4.88;  10:21:08; 9.9%; 1; 精细化学品+冷却液+新能源汽车+创投</t>
         </is>
       </c>
+      <c r="BE20" t="inlineStr">
+        <is>
+          <t>002580.SZ; 圣阳股份; 1;  09:41:02; 首板涨停; 9.06;  09:34:01; -1.1%; 1; 控股股东筹划战略重组+数据中心+字节概念+电源</t>
+        </is>
+      </c>
+      <c r="BF20" t="inlineStr">
+        <is>
+          <t>601689.SH; 拓普集团; 0;  13:11:02; 首板涨停; 62.18;  13:11:02; 10.0%; 1; 特斯拉+机器人+汽车零部件</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="5" t="n">
@@ -33457,6 +34367,16 @@
           <t>002919.SZ; 名臣健康; 0;  10:57:09; 首板涨停; 17;  10:57:09; 10.0%; 1; 游戏+字节+日化</t>
         </is>
       </c>
+      <c r="BE21" t="inlineStr">
+        <is>
+          <t>600255.SH; 鑫科材料; 0;  09:41:32; 首板涨停; 3.81;  09:41:32; 4.7%; 1; 铜缆高速连接+铜合金加工+国企改革</t>
+        </is>
+      </c>
+      <c r="BF21" t="inlineStr">
+        <is>
+          <t>603211.SH; 晋拓股份; 1;  13:48:20; 首板涨停; 17.89;  13:34:05; 10.0%; 1; 机器人+无人驾驶+汽车零部件+特斯拉</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="5" t="n">
@@ -33722,6 +34642,16 @@
           <t>002370.SZ; 亚太药业; 0;  11:02:39; 首板涨停; 3.33;  11:02:39; 9.9%; 1; 年报预计扭亏+化学制药+低价股</t>
         </is>
       </c>
+      <c r="BE22" t="inlineStr">
+        <is>
+          <t>002282.SZ; 博深股份; 0;  09:43:06; 首板涨停; 8.11;  09:43:06; -1.2%; 1; 金刚石工具+轨道交通+外销+国企</t>
+        </is>
+      </c>
+      <c r="BF22" t="inlineStr">
+        <is>
+          <t>600865.SH; 百大集团; 0;  13:52:55; 首板涨停; 9.91;  13:52:55; 10.0%; 1; 零售+物业管理+资产注入预期+股票投资</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="5" t="n">
@@ -33982,6 +34912,16 @@
           <t>600622.SH; 光大嘉宝; 2;  11:08:25; 首板涨停; 3.39;  10:18:08; 10.1%; 1; 上海+房地产+AMC+央企</t>
         </is>
       </c>
+      <c r="BE23" t="inlineStr">
+        <is>
+          <t>002130.SZ; 沃尔核材; 0;  09:48:50; 首板涨停; 28.4;  09:48:50; 4.9%; 1; 铜缆高速连接+机器人</t>
+        </is>
+      </c>
+      <c r="BF23" t="inlineStr">
+        <is>
+          <t>002117.SZ; 东港股份; 3;  14:06:42; 首板涨停; 13.16;  10:50:15; 10.0%; 1; 算力+智能机器人+金融企业客户</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="5" t="n">
@@ -34237,6 +35177,16 @@
           <t>002312.SZ; 川发龙蟒; 0;  11:18:10; 首板涨停; 14.58;  11:18:10; 10.0%; 1; 磷化工+锂电池+拟收购股权+四川国资</t>
         </is>
       </c>
+      <c r="BE24" t="inlineStr">
+        <is>
+          <t>002615.SZ; 哈尔斯; 0;  09:48:50; 首板涨停; 8.49;  09:48:50; -2.3%; 1; 年报预增+杯壶产品+外销</t>
+        </is>
+      </c>
+      <c r="BF24" t="inlineStr">
+        <is>
+          <t>301000.SZ; 肇民科技; 0;  14:10:09; 首板涨停; 37.79;  14:10:09; 20.0%; 1; 人形机器人+PEEK材料+汽车零部件+精密注塑件</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="5" t="n">
@@ -34492,6 +35442,16 @@
           <t>002891.SZ; 中宠股份; 0;  11:20:55; 首板涨停; 39.95;  11:20:55; 10.0%; 1; 年报预增+宠物食品+外销</t>
         </is>
       </c>
+      <c r="BE25" t="inlineStr">
+        <is>
+          <t>002763.SZ; 汇洁股份; 0;  09:55:46; 首板涨停; 7.14;  09:55:46; -3.0%; 1; 服装纺织+电子商务+抖音+出海</t>
+        </is>
+      </c>
+      <c r="BF25" t="inlineStr">
+        <is>
+          <t>603155.SH; 新亚强; 0;  14:24:23; 首板涨停; 14.4;  14:24:23; 10.0%; 1; 芯片概念+有机硅+功能性助剂产品</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="5" t="n">
@@ -34747,6 +35707,16 @@
           <t>002119.SZ; 康强电子; 0;  11:26:40; 首板涨停; 19.46;  11:26:40; 10.0%; 1; 半导体封装材料+核电</t>
         </is>
       </c>
+      <c r="BE26" t="inlineStr">
+        <is>
+          <t>603863.SH; 松炀资源; 0;  09:57:26; 首板涨停; 18.58;  09:57:26; 0.8%; 1; 造纸+推进彩票业务</t>
+        </is>
+      </c>
+      <c r="BF26" t="inlineStr">
+        <is>
+          <t>003021.SZ; 兆威机电; 2;  14:43:48; 首板涨停; 104.96;  14:25:18; 10.0%; 1; 人形机器人+灵巧手+减速器+MR</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="5" t="n">
@@ -35002,6 +35972,16 @@
           <t>603893.SH; 瑞芯微; 0;  11:28:25; 首板涨停; 139.41;  11:28:25; 10.0%; 1; SoC芯片+AI眼镜+NPU+小米</t>
         </is>
       </c>
+      <c r="BE27" t="inlineStr">
+        <is>
+          <t>600592.SH; 龙溪股份; 0;  09:58:38; 首板涨停; 11.37;  09:58:38; 1.3%; 1; 关节轴承+商业航天+参股券商+国企改革</t>
+        </is>
+      </c>
+      <c r="BF27" t="inlineStr">
+        <is>
+          <t>603236.SH; 移远通信; 3;  14:48:07; 首板涨停; 90.18;  09:32:49; 10.0%; 1; 字节AI玩具传闻+AI终端+外销</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="5" t="n">
@@ -35252,6 +36232,16 @@
           <t>603928.SH; 兴业股份; 0;  13:03:55; 首板涨停; 9.02;  13:03:55; 10.0%; 1; 光刻胶+合成树脂+大飞机</t>
         </is>
       </c>
+      <c r="BE28" t="inlineStr">
+        <is>
+          <t>603901.SH; 永创智能; 0;  10:03:46; 首板涨停; 8.44;  10:03:46; 3.3%; 1; 机器人+包装设备+消费行业</t>
+        </is>
+      </c>
+      <c r="BF28" t="inlineStr">
+        <is>
+          <t>002862.SZ; 实丰文化; 7;  14:54:54; 首板涨停; 37.95;  09:30:21; 10.0%; 1; AI玩具+IP经济+豆包+机器人</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="5" t="n">
@@ -35497,6 +36487,11 @@
           <t>300661.SZ; 圣邦股份; 0;  13:17:10; 首板涨停; 91.8;  13:17:10; 20.0%; 1; 模拟芯片+电源管理芯片+三季报增长</t>
         </is>
       </c>
+      <c r="BE29" t="inlineStr">
+        <is>
+          <t>603890.SH; 春秋电子; 1;  10:04:31; 首板涨停; 12.51;  10:01:16; 1.5%; 1; 消费电子+AIPC+华为</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="5" t="n">
@@ -35742,6 +36737,11 @@
           <t>603082.SH; 北自科技; 0;  13:32:55; 首板涨停; 37.48;  13:32:55; 10.0%; 1; 次新股+人形机器人+智能物流+国企</t>
         </is>
       </c>
+      <c r="BE30" t="inlineStr">
+        <is>
+          <t>000006.SZ; 深振业A; 0;  10:09:01; 首板涨停; 7.58;  10:09:01; 1.3%; 1; 深圳国资+房地产开发+物业管理</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="5" t="n">
@@ -35982,6 +36982,11 @@
           <t>603232.SH; 格尔软件; 0;  13:34:10; 首板涨停; 14.8;  13:34:10; 10.0%; 1; 量子密码+商用密码</t>
         </is>
       </c>
+      <c r="BE31" t="inlineStr">
+        <is>
+          <t>002905.SZ; 金逸影视; 0;  10:12:18; 首板涨停; 7.93;  10:12:18; -2.1%; 1; 影视+电商</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="5" t="n">
@@ -36222,6 +37227,11 @@
           <t>001255.SZ; 博菲电气; 0;  13:35:10; 首板涨停; 32.26;  13:35:10; 10.0%; 1; 电气绝缘材料+光伏+新能源汽车</t>
         </is>
       </c>
+      <c r="BE32" t="inlineStr">
+        <is>
+          <t>605086.SH; 龙高股份; 0;  10:20:03; 首板涨停; 30.85;  10:20:03; -1.6%; 1; 紫金矿业拟受让公司20%股份+高岭土+福建国资</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="5" t="n">
@@ -36457,6 +37467,11 @@
           <t>605588.SH; 冠石科技; 2;  13:39:10; 首板涨停; 44.23;  13:36:25; 10.0%; 1; 电子束掩膜版光刻机+折叠屏+华为</t>
         </is>
       </c>
+      <c r="BE33" t="inlineStr">
+        <is>
+          <t>000882.SZ; 华联股份; 0;  10:21:18; 首板涨停; 2.82;  10:21:18; 10.2%; 1; 零售+影视+收购北京SKP旗下资产+间接持有少量地平线股份</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="5" t="n">
@@ -36687,6 +37702,11 @@
           <t>002660.SZ; 茂硕电源; 0;  13:46:40; 首板涨停; 10.9;  13:46:40; 10.0%; 1; 开关电源+充电桩+光伏逆变器+国企改革</t>
         </is>
       </c>
+      <c r="BE34" t="inlineStr">
+        <is>
+          <t>600186.SH; 莲花控股; 2;  10:26:48; 首板涨停; 5.12;  10:20:33; 0.0%; 1; 年报预增+调味品+算力</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="5" t="n">
@@ -36917,6 +37937,11 @@
           <t>605199.SH; 葫芦娃; 0;  14:18:44; 首板涨停; 18.67;  14:18:44; 10.0%; 1; 流感+海南自贸区</t>
         </is>
       </c>
+      <c r="BE35" t="inlineStr">
+        <is>
+          <t>003041.SZ; 真爱美家; 0;  10:31:03; 首板涨停; 29.9;  10:31:03; 6.0%; 1; 近期收到征收补偿款+毛毯+电商+外销</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="5" t="n">
@@ -37142,6 +38167,11 @@
           <t>600183.SH; 生益科技; 3;  14:45:07; 首板涨停; 27.45;  13:22:40; 10.0%; 1; 覆铜板+算力</t>
         </is>
       </c>
+      <c r="BE36" t="inlineStr">
+        <is>
+          <t>600869.SH; 远东股份; 0;  10:33:20; 首板涨停; 4.91;  10:33:20; -0.4%; 1; 智能缆网+数据中心+机器人+核电</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="5" t="n">
@@ -37367,6 +38397,11 @@
           <t>300153.SZ; 科泰电源; 3;  14:55:57; 首板涨停; 15.06;  14:00:25; 20.0%; 1; 数据中心+电力设备+储能</t>
         </is>
       </c>
+      <c r="BE37" t="inlineStr">
+        <is>
+          <t>603228.SH; 景旺电子; 1;  10:34:20; 首板涨停; 35.35;  10:04:46; 1.1%; 1; PCB+英伟达+光模块</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="5" t="n">
@@ -37587,6 +38622,11 @@
           <t>002799.SZ; 环球印务; 4;  14:24:54; 首板涨停; 8.76;  13:01:51; 10.1%; 1; 字节（营销）+腾讯+医药包装+国企</t>
         </is>
       </c>
+      <c r="BE38" t="inlineStr">
+        <is>
+          <t>000541.SZ; 佛山照明; 0;  10:55:55; 首板涨停; 6.15;  10:55:55; -1.1%; 1; 汽车照明+华为汽车+广东国资</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="5" t="n">
@@ -37802,6 +38842,11 @@
           <t>600807.SH; 济高发展; 17;  14:31:09; 首板涨停; 2.95;  09:32:51; 10.1%; 1; 资产注入猜测+体外诊断+济南国资</t>
         </is>
       </c>
+      <c r="BE39" t="inlineStr">
+        <is>
+          <t>002278.SZ; 神开股份; 1;  13:00:07; 首板涨停; 5.68;  11:26:03; -4.9%; 1; 石油化工装备+商业航天+一带一路</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="5" t="n">
@@ -38012,6 +39057,11 @@
           <t>603069.SH; 海汽集团; 0;  14:39:23; 首板涨停; 18.65;  14:39:23; 10.0%; 1; 拟收购海旅免税100%股权+海南自贸区+海南国资</t>
         </is>
       </c>
+      <c r="BE40" t="inlineStr">
+        <is>
+          <t>600782.SH; 新钢股份; 0;  13:04:10; 首板涨停; 3.5;  13:04:10; -3.3%; 1; 钢铁+无人机+高股息+央企</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="5" t="n">
@@ -38222,6 +39272,11 @@
           <t>000759.SZ; 中百集团; 4;  14:44:12; 首板涨停; 10.6;  10:29:27; 10.0%; 1; 商业零售+IP+胖东来指导交流+湖北国资</t>
         </is>
       </c>
+      <c r="BE41" t="inlineStr">
+        <is>
+          <t>301458.SZ; 钧崴电子; 0;  13:08:07; 首板涨停; 40.42;  13:08:07; 0.7%; 1; 次新+电流感测精密电阻+苹果+英伟达</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="5" t="n">
@@ -38427,6 +39482,11 @@
           <t>002578.SZ; 闽发铝业; 0;  14:46:03; 首板涨停; 3.31;  14:46:03; 10.0%; 1; 铝型材+光伏+新能源汽车+国企改革</t>
         </is>
       </c>
+      <c r="BE42" t="inlineStr">
+        <is>
+          <t>605488.SH; 福莱新材; 0;  13:19:03; 首板涨停; 29.05;  13:19:03; 10.0%; 1; 灵巧手+机器人+柔性传感器+散热</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="5" t="n">
@@ -38632,6 +39692,11 @@
           <t>600778.SH; 友好集团; 1;  14:52:23; 首板涨停; 8.94;  14:50:23; 10.0%; 1; 零售+免税店+新疆振兴</t>
         </is>
       </c>
+      <c r="BE43" t="inlineStr">
+        <is>
+          <t>605289.SH; 罗曼股份; 0;  13:20:37; 首板涨停; 25.14;  13:20:37; -2.0%; 1; 并购重组+虚拟现实+景观照明+IP运营</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="5" t="n">
@@ -38837,6 +39902,11 @@
           <t>605179.SH; 一鸣食品; 0;  14:56:16; 首板涨停; 21.66;  14:56:16; 10.0%; 1; 乳品+微信小店+冷链物流</t>
         </is>
       </c>
+      <c r="BE44" t="inlineStr">
+        <is>
+          <t>002729.SZ; 好利科技; 0;  13:52:26; 首板涨停; 15.49;  13:52:26; 10.0%; 1; 年报预增+熔断器+数据中心</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="5" t="n">
@@ -39032,6 +40102,11 @@
           <t>603950.SH; 长源东谷; 0;  10:23:06; 首板涨停; 17.83;  10:23:06; -0.7%; 1; 柴油发动机+汽车零部件+飞行汽车</t>
         </is>
       </c>
+      <c r="BE45" t="inlineStr">
+        <is>
+          <t>601156.SH; 东航物流; 2;  13:54:11; 首板涨停; 17.32;  10:29:18; -1.8%; 1; 物流+跨境电商+国企改革</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="5" t="n">
@@ -39222,6 +40297,11 @@
           <t>002670.SZ; 国盛金控; 6;  10:26:38; 首板涨停; 13.16;  09:55:32; 0.2%; 1; 证券+吸收合并国盛证券事项受理+江西国资</t>
         </is>
       </c>
+      <c r="BE46" t="inlineStr">
+        <is>
+          <t>000833.SZ; 粤桂股份; 10;  13:58:11; 首板涨停; 12.41;  11:05:40; -4.1%; 1; 锂电池+硫铁矿+光伏+广东国资</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="5" t="n">
@@ -39407,6 +40487,11 @@
           <t>002103.SZ; 广博股份; 0;  10:26:53; 首板涨停; 10.49;  10:26:53; 5.2%; 1; IP产品+广告营销+跨境电商</t>
         </is>
       </c>
+      <c r="BE47" t="inlineStr">
+        <is>
+          <t>002397.SZ; 梦洁股份; 0;  14:02:11; 首板涨停; 3.32;  14:02:11; 0.3%; 1; 股权转让+微盟合作+床上用品+电子商务</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="5" t="n">
@@ -39592,6 +40677,11 @@
           <t>603308.SH; 应流股份; 0;  10:30:22; 首板涨停; 17.4;  10:30:22; 0.3%; 1; 核电+无人机+机械设备+燃气轮机</t>
         </is>
       </c>
+      <c r="BE48" t="inlineStr">
+        <is>
+          <t>001379.SZ; 腾达科技; 0;  14:10:13; 首板涨停; 22.03;  14:10:13; -0.7%; 1; 商业航天+不锈钢紧固件产品+核电</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="5" t="n">
@@ -39772,6 +40862,11 @@
           <t>002806.SZ; 华锋股份; 1;  10:32:08; 首板涨停; 12.45;  09:50:29; -0.1%; 1; 汽车零部件+无人驾驶+百度+电极箔</t>
         </is>
       </c>
+      <c r="BE49" t="inlineStr">
+        <is>
+          <t>300718.SZ; 长盛轴承; 1;  14:45:25; 首板涨停; 53.78;  14:44:36; 12.6%; 1; 机器人+宇树科技+自润滑轴承</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="5" t="n">
@@ -39952,6 +41047,11 @@
           <t>600358.SH; 国旅联合; 0;  10:34:50; 首板涨停; 3.94;  10:34:50; 10.1%; 1; 股权转让+资产注入预期+国企+旅游</t>
         </is>
       </c>
+      <c r="BE50" t="inlineStr">
+        <is>
+          <t>603617.SH; 君禾股份; 2;  14:46:49; 首板涨停; 7.94;  14:44:51; -4.1%; 1; 家用水泵+年报预增+外销</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="5" t="n">
@@ -40125,6 +41225,11 @@
       <c r="BA51" t="inlineStr">
         <is>
           <t>603219.SH; 富佳股份; 1;  10:34:50; 首板涨停; 14.96;  10:33:49; 2.0%; 1; 机器人+吸尘器+外销</t>
+        </is>
+      </c>
+      <c r="BE51" t="inlineStr">
+        <is>
+          <t>002213.SZ; 大为股份; 1;  14:51:59; 首板涨停; 15.62;  09:58:38; 1.7%; 1; 存储芯片+智能终端+锂电池</t>
         </is>
       </c>
     </row>
@@ -44079,7 +45184,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD50"/>
+  <dimension ref="A1:BF50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44363,6 +45468,16 @@
           <t>2025年01月17日</t>
         </is>
       </c>
+      <c r="BE1" s="5" t="inlineStr">
+        <is>
+          <t>2025年01月20日</t>
+        </is>
+      </c>
+      <c r="BF1" s="5" t="inlineStr">
+        <is>
+          <t>2025年01月21日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="5" t="n">
@@ -44643,6 +45758,12 @@
           <t>600423.SH; 柳化股份; 6.2%; 17.3%; 4.28; 10.0%; 阳线||放量||价升量缩</t>
         </is>
       </c>
+      <c r="BE2" t="inlineStr">
+        <is>
+          <t>603598.SH; 引力传媒; 2.1%; 12.4%; 19.16; -3.5%; 阳线||放量||价升量缩</t>
+        </is>
+      </c>
+      <c r="BF2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="5" t="n">
@@ -44923,6 +46044,12 @@
           <t>603166.SH; 福达股份; 5.1%; 15.9%; 9.69; 10.0%; 强中选强||阳线||放量</t>
         </is>
       </c>
+      <c r="BE3" t="inlineStr">
+        <is>
+          <t>301458.SZ; 钧崴电子; 1.4%; 21.7%; 40.42; 0.7%; 价升量涨||阳线||大阳线</t>
+        </is>
+      </c>
+      <c r="BF3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="5" t="n">
@@ -45191,6 +46318,8 @@
           <t>002119.SZ; 康强电子; 2.9%; 13.3%; 19.46; 10.0%; 阳线||缩量||价升量缩</t>
         </is>
       </c>
+      <c r="BE4" t="inlineStr"/>
+      <c r="BF4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="5" t="n">
@@ -45451,6 +46580,8 @@
           <t>605179.SH; 一鸣食品; 2.4%; 12.8%; 23.83; 10.0%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="BE5" t="inlineStr"/>
+      <c r="BF5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="5" t="n">
@@ -45699,6 +46830,8 @@
           <t>003030.SZ; 祖名股份; 1.9%; 12.1%; 18.07; 10.0%; 价升量涨||强中选强||阳线</t>
         </is>
       </c>
+      <c r="BE6" t="inlineStr"/>
+      <c r="BF6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="5" t="n">
@@ -45935,6 +47068,8 @@
           <t>002031.SZ; 巨轮智能; 1.8%; 12.1%; 7.24; 10.0%; 价升量涨||强中选强||阳线</t>
         </is>
       </c>
+      <c r="BE7" t="inlineStr"/>
+      <c r="BF7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="5" t="n">
@@ -46159,6 +47294,8 @@
           <t>301123.SZ; 奕东电子; 0.9%; 21.1%; 25.76; 20.0%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="BE8" t="inlineStr"/>
+      <c r="BF8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="5" t="n">
@@ -46375,6 +47512,8 @@
           <t>300153.SZ; 科泰电源; 0.6%; 20.8%; 15.06; 20.0%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="BE9" t="inlineStr"/>
+      <c r="BF9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="5" t="n">
@@ -46567,6 +47706,8 @@
       <c r="BB10" t="inlineStr"/>
       <c r="BC10" t="inlineStr"/>
       <c r="BD10" t="inlineStr"/>
+      <c r="BE10" t="inlineStr"/>
+      <c r="BF10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="5" t="n">
@@ -46747,6 +47888,8 @@
       <c r="BB11" t="inlineStr"/>
       <c r="BC11" t="inlineStr"/>
       <c r="BD11" t="inlineStr"/>
+      <c r="BE11" t="inlineStr"/>
+      <c r="BF11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="5" t="n">
@@ -46903,6 +48046,8 @@
       <c r="BB12" t="inlineStr"/>
       <c r="BC12" t="inlineStr"/>
       <c r="BD12" t="inlineStr"/>
+      <c r="BE12" t="inlineStr"/>
+      <c r="BF12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="5" t="n">
@@ -47043,6 +48188,8 @@
       <c r="BB13" t="inlineStr"/>
       <c r="BC13" t="inlineStr"/>
       <c r="BD13" t="inlineStr"/>
+      <c r="BE13" t="inlineStr"/>
+      <c r="BF13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="5" t="n">
@@ -47179,6 +48326,8 @@
       <c r="BB14" t="inlineStr"/>
       <c r="BC14" t="inlineStr"/>
       <c r="BD14" t="inlineStr"/>
+      <c r="BE14" t="inlineStr"/>
+      <c r="BF14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="5" t="n">
@@ -47307,6 +48456,8 @@
       <c r="BB15" t="inlineStr"/>
       <c r="BC15" t="inlineStr"/>
       <c r="BD15" t="inlineStr"/>
+      <c r="BE15" t="inlineStr"/>
+      <c r="BF15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="5" t="n">
@@ -47431,6 +48582,8 @@
       <c r="BB16" t="inlineStr"/>
       <c r="BC16" t="inlineStr"/>
       <c r="BD16" t="inlineStr"/>
+      <c r="BE16" t="inlineStr"/>
+      <c r="BF16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="5" t="n">
@@ -47547,6 +48700,8 @@
       <c r="BB17" t="inlineStr"/>
       <c r="BC17" t="inlineStr"/>
       <c r="BD17" t="inlineStr"/>
+      <c r="BE17" t="inlineStr"/>
+      <c r="BF17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="5" t="n">
@@ -47659,6 +48814,8 @@
       <c r="BB18" t="inlineStr"/>
       <c r="BC18" t="inlineStr"/>
       <c r="BD18" t="inlineStr"/>
+      <c r="BE18" t="inlineStr"/>
+      <c r="BF18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="5" t="n">
@@ -47767,6 +48924,8 @@
       <c r="BB19" t="inlineStr"/>
       <c r="BC19" t="inlineStr"/>
       <c r="BD19" t="inlineStr"/>
+      <c r="BE19" t="inlineStr"/>
+      <c r="BF19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="5" t="n">
@@ -47875,6 +49034,8 @@
       <c r="BB20" t="inlineStr"/>
       <c r="BC20" t="inlineStr"/>
       <c r="BD20" t="inlineStr"/>
+      <c r="BE20" t="inlineStr"/>
+      <c r="BF20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="5" t="n">
@@ -47983,6 +49144,8 @@
       <c r="BB21" t="inlineStr"/>
       <c r="BC21" t="inlineStr"/>
       <c r="BD21" t="inlineStr"/>
+      <c r="BE21" t="inlineStr"/>
+      <c r="BF21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="5" t="n">
@@ -48083,6 +49246,8 @@
       <c r="BB22" t="inlineStr"/>
       <c r="BC22" t="inlineStr"/>
       <c r="BD22" t="inlineStr"/>
+      <c r="BE22" t="inlineStr"/>
+      <c r="BF22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="5" t="n">
@@ -48179,6 +49344,8 @@
       <c r="BB23" t="inlineStr"/>
       <c r="BC23" t="inlineStr"/>
       <c r="BD23" t="inlineStr"/>
+      <c r="BE23" t="inlineStr"/>
+      <c r="BF23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="5" t="n">
@@ -48271,6 +49438,8 @@
       <c r="BB24" t="inlineStr"/>
       <c r="BC24" t="inlineStr"/>
       <c r="BD24" t="inlineStr"/>
+      <c r="BE24" t="inlineStr"/>
+      <c r="BF24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="5" t="n">
@@ -48359,6 +49528,8 @@
       <c r="BB25" t="inlineStr"/>
       <c r="BC25" t="inlineStr"/>
       <c r="BD25" t="inlineStr"/>
+      <c r="BE25" t="inlineStr"/>
+      <c r="BF25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="5" t="n">
@@ -48439,6 +49610,8 @@
       <c r="BB26" t="inlineStr"/>
       <c r="BC26" t="inlineStr"/>
       <c r="BD26" t="inlineStr"/>
+      <c r="BE26" t="inlineStr"/>
+      <c r="BF26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="5" t="n">
@@ -48519,6 +49692,8 @@
       <c r="BB27" t="inlineStr"/>
       <c r="BC27" t="inlineStr"/>
       <c r="BD27" t="inlineStr"/>
+      <c r="BE27" t="inlineStr"/>
+      <c r="BF27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="5" t="n">
@@ -48599,6 +49774,8 @@
       <c r="BB28" t="inlineStr"/>
       <c r="BC28" t="inlineStr"/>
       <c r="BD28" t="inlineStr"/>
+      <c r="BE28" t="inlineStr"/>
+      <c r="BF28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="5" t="n">
@@ -48679,6 +49856,8 @@
       <c r="BB29" t="inlineStr"/>
       <c r="BC29" t="inlineStr"/>
       <c r="BD29" t="inlineStr"/>
+      <c r="BE29" t="inlineStr"/>
+      <c r="BF29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="5" t="n">
@@ -48755,6 +49934,8 @@
       <c r="BB30" t="inlineStr"/>
       <c r="BC30" t="inlineStr"/>
       <c r="BD30" t="inlineStr"/>
+      <c r="BE30" t="inlineStr"/>
+      <c r="BF30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="5" t="n">
@@ -48831,6 +50012,8 @@
       <c r="BB31" t="inlineStr"/>
       <c r="BC31" t="inlineStr"/>
       <c r="BD31" t="inlineStr"/>
+      <c r="BE31" t="inlineStr"/>
+      <c r="BF31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="5" t="n">
@@ -48907,6 +50090,8 @@
       <c r="BB32" t="inlineStr"/>
       <c r="BC32" t="inlineStr"/>
       <c r="BD32" t="inlineStr"/>
+      <c r="BE32" t="inlineStr"/>
+      <c r="BF32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="5" t="n">
@@ -48983,6 +50168,8 @@
       <c r="BB33" t="inlineStr"/>
       <c r="BC33" t="inlineStr"/>
       <c r="BD33" t="inlineStr"/>
+      <c r="BE33" t="inlineStr"/>
+      <c r="BF33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="5" t="n">
@@ -49051,6 +50238,8 @@
       <c r="BB34" t="inlineStr"/>
       <c r="BC34" t="inlineStr"/>
       <c r="BD34" t="inlineStr"/>
+      <c r="BE34" t="inlineStr"/>
+      <c r="BF34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="5" t="n">
@@ -49119,6 +50308,8 @@
       <c r="BB35" t="inlineStr"/>
       <c r="BC35" t="inlineStr"/>
       <c r="BD35" t="inlineStr"/>
+      <c r="BE35" t="inlineStr"/>
+      <c r="BF35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="5" t="n">
@@ -49187,6 +50378,8 @@
       <c r="BB36" t="inlineStr"/>
       <c r="BC36" t="inlineStr"/>
       <c r="BD36" t="inlineStr"/>
+      <c r="BE36" t="inlineStr"/>
+      <c r="BF36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="5" t="n">
@@ -49255,6 +50448,8 @@
       <c r="BB37" t="inlineStr"/>
       <c r="BC37" t="inlineStr"/>
       <c r="BD37" t="inlineStr"/>
+      <c r="BE37" t="inlineStr"/>
+      <c r="BF37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="5" t="n">
@@ -49323,6 +50518,8 @@
       <c r="BB38" t="inlineStr"/>
       <c r="BC38" t="inlineStr"/>
       <c r="BD38" t="inlineStr"/>
+      <c r="BE38" t="inlineStr"/>
+      <c r="BF38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="5" t="n">
@@ -49391,6 +50588,8 @@
       <c r="BB39" t="inlineStr"/>
       <c r="BC39" t="inlineStr"/>
       <c r="BD39" t="inlineStr"/>
+      <c r="BE39" t="inlineStr"/>
+      <c r="BF39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="5" t="n">
@@ -49459,6 +50658,8 @@
       <c r="BB40" t="inlineStr"/>
       <c r="BC40" t="inlineStr"/>
       <c r="BD40" t="inlineStr"/>
+      <c r="BE40" t="inlineStr"/>
+      <c r="BF40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="5" t="n">
@@ -49527,6 +50728,8 @@
       <c r="BB41" t="inlineStr"/>
       <c r="BC41" t="inlineStr"/>
       <c r="BD41" t="inlineStr"/>
+      <c r="BE41" t="inlineStr"/>
+      <c r="BF41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="5" t="n">
@@ -49591,6 +50794,8 @@
       <c r="BB42" t="inlineStr"/>
       <c r="BC42" t="inlineStr"/>
       <c r="BD42" t="inlineStr"/>
+      <c r="BE42" t="inlineStr"/>
+      <c r="BF42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="5" t="n">
@@ -49655,6 +50860,8 @@
       <c r="BB43" t="inlineStr"/>
       <c r="BC43" t="inlineStr"/>
       <c r="BD43" t="inlineStr"/>
+      <c r="BE43" t="inlineStr"/>
+      <c r="BF43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="5" t="n">
@@ -49719,6 +50926,8 @@
       <c r="BB44" t="inlineStr"/>
       <c r="BC44" t="inlineStr"/>
       <c r="BD44" t="inlineStr"/>
+      <c r="BE44" t="inlineStr"/>
+      <c r="BF44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="5" t="n">
@@ -49783,6 +50992,8 @@
       <c r="BB45" t="inlineStr"/>
       <c r="BC45" t="inlineStr"/>
       <c r="BD45" t="inlineStr"/>
+      <c r="BE45" t="inlineStr"/>
+      <c r="BF45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="5" t="n">
@@ -49847,6 +51058,8 @@
       <c r="BB46" t="inlineStr"/>
       <c r="BC46" t="inlineStr"/>
       <c r="BD46" t="inlineStr"/>
+      <c r="BE46" t="inlineStr"/>
+      <c r="BF46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="5" t="n">
@@ -49911,6 +51124,8 @@
       <c r="BB47" t="inlineStr"/>
       <c r="BC47" t="inlineStr"/>
       <c r="BD47" t="inlineStr"/>
+      <c r="BE47" t="inlineStr"/>
+      <c r="BF47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="5" t="n">
@@ -49975,6 +51190,8 @@
       <c r="BB48" t="inlineStr"/>
       <c r="BC48" t="inlineStr"/>
       <c r="BD48" t="inlineStr"/>
+      <c r="BE48" t="inlineStr"/>
+      <c r="BF48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="5" t="n">
@@ -50039,6 +51256,8 @@
       <c r="BB49" t="inlineStr"/>
       <c r="BC49" t="inlineStr"/>
       <c r="BD49" t="inlineStr"/>
+      <c r="BE49" t="inlineStr"/>
+      <c r="BF49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="5" t="n">
@@ -50103,6 +51322,8 @@
       <c r="BB50" t="inlineStr"/>
       <c r="BC50" t="inlineStr"/>
       <c r="BD50" t="inlineStr"/>
+      <c r="BE50" t="inlineStr"/>
+      <c r="BF50" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/excel/fupan_stocks.xlsx
+++ b/excel/fupan_stocks.xlsx
@@ -470,7 +470,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BF65"/>
+  <dimension ref="A1:BK65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -764,6 +764,31 @@
           <t>2025年01月21日</t>
         </is>
       </c>
+      <c r="BG1" s="5" t="inlineStr">
+        <is>
+          <t>2025年01月22日</t>
+        </is>
+      </c>
+      <c r="BH1" s="5" t="inlineStr">
+        <is>
+          <t>2025年01月23日</t>
+        </is>
+      </c>
+      <c r="BI1" s="5" t="inlineStr">
+        <is>
+          <t>2025年01月24日</t>
+        </is>
+      </c>
+      <c r="BJ1" s="5" t="inlineStr">
+        <is>
+          <t>2025年01月27日</t>
+        </is>
+      </c>
+      <c r="BK1" s="5" t="inlineStr">
+        <is>
+          <t>2025年02月05日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="5" t="n">
@@ -1054,6 +1079,31 @@
           <t>000856.SZ; 冀东装备; 0;  09:25:00; 2天2板; 8.69;  09:25:00; 10.0%; 2; 机器人+水泥装备+北京国资</t>
         </is>
       </c>
+      <c r="BG2" t="inlineStr">
+        <is>
+          <t>002861.SZ; 瀛通通讯; 0;  09:30:00; 5天5板; 16.94;  09:30:00; 10.0%; 5; AI终端+电声产品+外销</t>
+        </is>
+      </c>
+      <c r="BH2" t="inlineStr">
+        <is>
+          <t>605277.SH; 新亚电子; 0;  09:30:00; 2天2板; 19.94;  09:30:00; 10.0%; 2; 铜缆高速连接+消费电子+新能源</t>
+        </is>
+      </c>
+      <c r="BI2" t="inlineStr">
+        <is>
+          <t>605398.SH; 新炬网络; 0;  09:30:00; 3天3板; 25.38;  09:30:00; 10.0%; 3; AI Agent+数据中心运维+华为鲲鹏</t>
+        </is>
+      </c>
+      <c r="BJ2" t="inlineStr">
+        <is>
+          <t>605398.SH; 新炬网络; 0;  09:30:00; 4天4板; 27.92;  09:30:00; 10.0%; 4; AI Agent+数据中心运维+华为鲲鹏</t>
+        </is>
+      </c>
+      <c r="BK2" t="inlineStr">
+        <is>
+          <t>300766.SZ; 每日互动; 0;  09:25:00; 2天2板; 28.92;  09:25:00; 20.0%; 2; DeepSeek概念+营销+数据</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="n">
@@ -1344,6 +1394,31 @@
           <t>002090.SZ; 金智科技; 0;  09:25:00; 2天2板; 10.65;  09:25:00; 10.0%; 2; 智能电网+机器人+积极寻求并购项目</t>
         </is>
       </c>
+      <c r="BG3" t="inlineStr">
+        <is>
+          <t>002358.SZ; 森源电气; 0;  09:30:00; 2天2板; 5.19;  09:30:00; -3.5%; 2; 输变电设备+清洁能源+数据中心+河南国资</t>
+        </is>
+      </c>
+      <c r="BH3" t="inlineStr">
+        <is>
+          <t>603928.SH; 兴业股份; 0;  09:30:00; 5天5板; 14.52;  09:30:00; 10.0%; 5; 光刻胶+合成树脂+大飞机</t>
+        </is>
+      </c>
+      <c r="BI3" t="inlineStr">
+        <is>
+          <t>002398.SZ; 垒知集团; 0;  09:30:00; 2天2板; 5.06;  09:30:00; 10.0%; 2; 整合微软OpenAI解决方案+建筑材料+工程质量检测</t>
+        </is>
+      </c>
+      <c r="BJ3" t="inlineStr">
+        <is>
+          <t>002881.SZ; 美格智能; 0;  09:30:00; 2天2板; 40.24;  09:30:00; 10.0%; 2; 开发DeepSeek-R1模型端侧落地应用+端侧AI+年报预增</t>
+        </is>
+      </c>
+      <c r="BK3" t="inlineStr">
+        <is>
+          <t>003005.SZ; 竞业达; 0;  09:25:00; 2天2板; 35.66;  09:25:00; 10.0%; 2; 年报预增+智慧城市+AI教育</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="5" t="n">
@@ -1634,6 +1709,31 @@
           <t>002692.SZ; 远程股份; 0;  09:25:00; 3天3板; 6.08;  09:25:00; 9.9%; 3; 拟投资半导体公司+数据中心（电缆）+核电+国企改革</t>
         </is>
       </c>
+      <c r="BG4" t="inlineStr">
+        <is>
+          <t>603042.SH; 华脉科技; 0;  09:30:15; 4天4板; 16.64;  09:30:15; 10.0%; 4; 年报预增+铜缆高速连接+数据中心</t>
+        </is>
+      </c>
+      <c r="BH4" t="inlineStr">
+        <is>
+          <t>000586.SZ; 汇源通信; 0;  09:30:00; 2天2板; 10.23;  09:30:00; -10.0%; 2; 电力光缆+光模块+显芯科技注入猜测（公司已澄清）</t>
+        </is>
+      </c>
+      <c r="BI4" t="inlineStr">
+        <is>
+          <t>603928.SH; 兴业股份; 0;  09:30:00; 6天6板; 14.52;  09:30:00; 10.0%; 6; 光刻胶+合成树脂+大飞机</t>
+        </is>
+      </c>
+      <c r="BJ4" t="inlineStr">
+        <is>
+          <t>605069.SH; 正和生态; 0;  09:32:45; 2天2板; 8.48;  09:32:45; 10.0%; 2; 智谱合作+生态保护</t>
+        </is>
+      </c>
+      <c r="BK4" t="inlineStr">
+        <is>
+          <t>002881.SZ; 美格智能; 0;  09:25:00; 3天3板; 44.26;  09:25:00; 10.0%; 3; 开发DeepSeek-R1模型端侧落地应用+端侧AI+年报预增</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="n">
@@ -1924,6 +2024,31 @@
           <t>603928.SH; 兴业股份; 0;  09:25:01; 3天3板; 10.91;  09:25:01; 10.0%; 3; 光刻胶+合成树脂+大飞机</t>
         </is>
       </c>
+      <c r="BG5" t="inlineStr">
+        <is>
+          <t>603928.SH; 兴业股份; 1;  09:30:30; 4天4板; 14.52;  09:30:00; 10.0%; 4; 光刻胶+合成树脂+大飞机</t>
+        </is>
+      </c>
+      <c r="BH5" t="inlineStr">
+        <is>
+          <t>002666.SZ; 德联集团; 0;  09:32:00; 5天3板; 4.78;  09:32:00; -3.2%; 1; 年报预增+冷却液+汽车精细化学品</t>
+        </is>
+      </c>
+      <c r="BI5" t="inlineStr">
+        <is>
+          <t>000856.SZ; 冀东装备; 0;  09:30:30; 5天5板; 11.57;  09:30:30; 10.0%; 5; 机器人+水泥装备+北京国资</t>
+        </is>
+      </c>
+      <c r="BJ5" t="inlineStr">
+        <is>
+          <t>001380.SZ; 华纬科技; 1;  09:32:45; 2天2板; 27.59;  09:30:15; 10.0%; 2; 拟投建墨西哥生产基地项目+机器人+汽车零部件+弹簧</t>
+        </is>
+      </c>
+      <c r="BK5" t="inlineStr">
+        <is>
+          <t>000818.SZ; 航锦科技; 0;  09:25:00; 2天2板; 18.47;  09:25:00; 10.0%; 2; 幻方合作+算力+英伟达+国企</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="5" t="n">
@@ -2214,6 +2339,31 @@
           <t>600936.SH; 广西广电; 0;  09:25:03; 2天2板; 3.39;  09:25:03; 10.1%; 2; 筹划重大资产置换+业务战略转型</t>
         </is>
       </c>
+      <c r="BG6" t="inlineStr">
+        <is>
+          <t>605018.SH; 长华集团; 1;  09:39:21; 2天2板; 12.1;  09:30:00; 10.0%; 2; 碳陶刹车系统+机器人相关+飞行汽车</t>
+        </is>
+      </c>
+      <c r="BH6" t="inlineStr">
+        <is>
+          <t>002718.SZ; 友邦吊顶; 0;  09:33:00; 2天2板; 15.43;  09:33:00; -10.0%; 2; 智能家居+集成吊顶+电子商务</t>
+        </is>
+      </c>
+      <c r="BI6" t="inlineStr">
+        <is>
+          <t>002757.SZ; 南兴股份; 0;  09:30:45; 2天2板; 16.95;  09:30:45; 10.0%; 2; 小鹭AIGC智能助手+云计算+板式家具设备</t>
+        </is>
+      </c>
+      <c r="BJ6" t="inlineStr">
+        <is>
+          <t>002718.SZ; 友邦吊顶; 1;  09:33:30; 4天3板; 16.97;  09:33:00; 10.0%; 1; 智能家居+集成吊顶+电子商务</t>
+        </is>
+      </c>
+      <c r="BK6" t="inlineStr">
+        <is>
+          <t>000532.SZ; 华金资本; 0;  09:25:00; 2天2板; 16.08;  09:25:00; 10.0%; 2; 参与DeepSeek融资+多元金融+珠海国资</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="n">
@@ -2504,6 +2654,31 @@
           <t>002861.SZ; 瀛通通讯; 1;  09:38:12; 4天4板; 15.55;  09:25:00; 10.0%; 4; AI终端+电声产品+外销</t>
         </is>
       </c>
+      <c r="BG7" t="inlineStr">
+        <is>
+          <t>002691.SZ; 冀凯股份; 2;  09:39:21; 7天7板; 7.59;  09:31:15; -10.0%; 7; 矿山装备+机器人+3D打印</t>
+        </is>
+      </c>
+      <c r="BH7" t="inlineStr">
+        <is>
+          <t>603211.SH; 晋拓股份; 1;  09:36:15; 3天3板; 23.82;  09:35:45; 10.0%; 3; 机器人+无人驾驶+汽车零部件+特斯拉</t>
+        </is>
+      </c>
+      <c r="BI7" t="inlineStr">
+        <is>
+          <t>601869.SH; 长飞光纤; 0;  09:34:15; 2天2板; 38.35;  09:34:15; 10.0%; 2; 光纤+铜缆高速连接+博创科技实控人</t>
+        </is>
+      </c>
+      <c r="BJ7" t="inlineStr">
+        <is>
+          <t>603039.SH; 泛微网络; 4;  10:02:43; 2天2板; 59;  09:39:51; 10.0%; 2; AI应用+信创+办公软件+上海</t>
+        </is>
+      </c>
+      <c r="BK7" t="inlineStr">
+        <is>
+          <t>600120.SH; 浙江东方; 0;  09:25:01; 2天2板; 5.6;  09:25:01; 10.0%; 2; DeepSeek+拟收购银行股份+浙江国企+年报预增</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="5" t="n">
@@ -2794,6 +2969,31 @@
           <t>000882.SZ; 华联股份; 1;  09:38:42; 2天2板; 2.82;  09:31:18; 10.2%; 2; 零售+影视+收购北京SKP旗下资产+间接持有少量地平线股份</t>
         </is>
       </c>
+      <c r="BG8" t="inlineStr">
+        <is>
+          <t>000856.SZ; 冀东装备; 3;  09:39:21; 3天3板; 11.57;  09:31:15; 10.0%; 3; 机器人+水泥装备+北京国资</t>
+        </is>
+      </c>
+      <c r="BH8" t="inlineStr">
+        <is>
+          <t>002729.SZ; 好利科技; 0;  10:17:30; 4天3板; 15.54;  10:17:30; -2.3%; 1; 年报预增+熔断器+数据中心</t>
+        </is>
+      </c>
+      <c r="BI8" t="inlineStr">
+        <is>
+          <t>605277.SH; 新亚电子; 1;  09:34:45; 3天3板; 19.94;  09:32:00; 10.0%; 3; 铜缆高速连接+消费电子+新能源</t>
+        </is>
+      </c>
+      <c r="BJ8" t="inlineStr">
+        <is>
+          <t>600936.SH; 广西广电; 0;  10:44:12; 6天4板; 3.33;  10:44:12; 9.9%; 1; 筹划重大资产置换+业务战略转型</t>
+        </is>
+      </c>
+      <c r="BK8" t="inlineStr">
+        <is>
+          <t>603636.SH; 南威软件; 0;  09:25:02; 2天2板; 13.72;  09:25:02; 10.0%; 2; AI智能体+电子政务+华为</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="n">
@@ -3084,6 +3284,31 @@
           <t>003030.SZ; 祖名股份; 1;  09:40:00; 5天4板; 21.87;  09:39:27; 10.0%; 3; 豆制品+小红书+电商</t>
         </is>
       </c>
+      <c r="BG9" t="inlineStr">
+        <is>
+          <t>605488.SH; 福莱新材; 0;  09:47:25; 3天3板; 33.29;  09:47:25; -2.1%; 3; 灵巧手+机器人+柔性传感器+散热</t>
+        </is>
+      </c>
+      <c r="BH9" t="inlineStr">
+        <is>
+          <t>000627.SZ; 天茂集团; 3;  11:23:53; 2天2板; 4.21;  09:30:00; -2.8%; 2; 保险+养老+参股券商</t>
+        </is>
+      </c>
+      <c r="BI9" t="inlineStr">
+        <is>
+          <t>603042.SH; 华脉科技; 0;  09:35:45; 6天5板; 16.64;  09:35:45; 10.0%; 1; 年报预增+铜缆高速连接+数据中心</t>
+        </is>
+      </c>
+      <c r="BJ9" t="inlineStr">
+        <is>
+          <t>000856.SZ; 冀东装备; 9;  14:44:42; 6天6板; 12.73;  09:55:21; 10.0%; 6; 机器人+水泥装备+北京国资</t>
+        </is>
+      </c>
+      <c r="BK9" t="inlineStr">
+        <is>
+          <t>603039.SH; 泛微网络; 0;  09:30:23; 3天3板; 64.9;  09:30:23; 10.0%; 3; AI应用+信创+办公软件+上海</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="5" t="n">
@@ -3374,6 +3599,31 @@
           <t>002767.SZ; 先锋电子; 1;  09:49:51; 4天4板; 19.14;  09:25:00; 10.0%; 4; 年报预增+芯片+智能燃气表+机器人</t>
         </is>
       </c>
+      <c r="BG10" t="inlineStr">
+        <is>
+          <t>002917.SZ; 金奥博; 1;  10:02:30; 10天8板; 18.4;  09:53:59; -4.3%; 1; 机器人+民爆+芯片概念+一带一路</t>
+        </is>
+      </c>
+      <c r="BH10" t="inlineStr">
+        <is>
+          <t>603598.SH; 引力传媒; 3;  11:27:53; 8天5板; 20.4;  11:03:36; 4.1%; 1; 营销+抖音概念+大模型+小红书</t>
+        </is>
+      </c>
+      <c r="BI10" t="inlineStr">
+        <is>
+          <t>002896.SZ; 中大力德; 0;  10:07:31; 2天2板; 54.21;  10:07:31; 10.0%; 2; 机器人+减速器+电机</t>
+        </is>
+      </c>
+      <c r="BJ10" t="inlineStr">
+        <is>
+          <t>002530.SZ; 金财互联; 2;  14:54:46; 2天2板; 12.1;  14:12:12; 10.0%; 2; AI智能体+财税大模型+机器人</t>
+        </is>
+      </c>
+      <c r="BK10" t="inlineStr">
+        <is>
+          <t>301512.SZ; 智信精密; 1;  09:51:00; 2天2板; 54;  09:25:00; 20.0%; 2; 自动化设备+机器人+消费电子+苹果</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="5" t="n">
@@ -3664,6 +3914,31 @@
           <t>002729.SZ; 好利科技; 4;  10:07:18; 2天2板; 15.49;  09:35:06; 10.0%; 2; 年报预增+熔断器+数据中心</t>
         </is>
       </c>
+      <c r="BG11" t="inlineStr">
+        <is>
+          <t>603211.SH; 晋拓股份; 3;  10:28:15; 2天2板; 23.82;  09:58:10; 10.0%; 2; 机器人+无人驾驶+汽车零部件+特斯拉</t>
+        </is>
+      </c>
+      <c r="BH11" t="inlineStr">
+        <is>
+          <t>002453.SZ; 华软科技; 0;  13:23:46; 2天2板; 5.62;  13:23:46; -1.4%; 2; 光刻胶+精细化工+保健品</t>
+        </is>
+      </c>
+      <c r="BI11" t="inlineStr">
+        <is>
+          <t>603211.SH; 晋拓股份; 2;  10:57:17; 4天4板; 23.82;  10:53:32; 10.0%; 4; 机器人+无人驾驶+汽车零部件+特斯拉</t>
+        </is>
+      </c>
+      <c r="BJ11" t="inlineStr">
+        <is>
+          <t>002398.SZ; 垒知集团; 4;  14:54:46; 3天3板; 5.57;  09:30:00; 10.1%; 3; 整合微软OpenAI解决方案+建筑材料+工程质量检测</t>
+        </is>
+      </c>
+      <c r="BK11" t="inlineStr">
+        <is>
+          <t>600261.SH; 阳光照明; 2;  09:57:28; 2天2板; 3.91;  09:25:01; 10.1%; 2; 持有幻方产品+照明电器+高股息+外销</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="5" t="n">
@@ -3954,6 +4229,31 @@
           <t>605488.SH; 福莱新材; 0;  11:21:41; 2天2板; 29.05;  11:21:41; 10.0%; 2; 灵巧手+机器人+柔性传感器+散热</t>
         </is>
       </c>
+      <c r="BG12" t="inlineStr">
+        <is>
+          <t>002730.SZ; 电光科技; 0;  10:41:49; 23天15板; 24.79;  10:41:49; -10.0%; 4; 算力+机器人+物联网+防爆电器</t>
+        </is>
+      </c>
+      <c r="BH12" t="inlineStr">
+        <is>
+          <t>000856.SZ; 冀东装备; 9;  13:35:16; 4天4板; 11.57;  09:47:16; 10.0%; 4; 机器人+水泥装备+北京国资</t>
+        </is>
+      </c>
+      <c r="BI12" t="inlineStr">
+        <is>
+          <t>603729.SH; 龙韵股份; 0;  13:14:37; 2天2板; 16.91;  13:14:37; 10.0%; 2; 年报预增+营销+抖音概念+MCN机构</t>
+        </is>
+      </c>
+      <c r="BJ12" t="inlineStr">
+        <is>
+          <t>002691.SZ; 冀凯股份; 0;  15:00:00; 10天8板; 8.35;  15:00:00; 10.0%; 1; 矿山装备+机器人+3D打印</t>
+        </is>
+      </c>
+      <c r="BK12" t="inlineStr">
+        <is>
+          <t>002816.SZ; 和科达; 0;  09:58:33; 4天3板; 13.56;  09:58:33; 10.0%; 1; 半导体清洗+阜阳国资入主+污水处理</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="5" t="n">
@@ -4239,6 +4539,26 @@
           <t>603068.SH; 博通集成; 0;  11:30:02; 9天5板; 39.22;  11:30:02; 10.0%; 1; 携手豆包赋能奥嘟比AI智能套件+无线连接芯片</t>
         </is>
       </c>
+      <c r="BG13" t="inlineStr">
+        <is>
+          <t>600579.SH; 中化装备; 0;  13:48:47; 2天2板; 9.27;  13:48:47; -10.0%; 2; 机器人+重大资产重组+专用设备+央企</t>
+        </is>
+      </c>
+      <c r="BH13" t="inlineStr">
+        <is>
+          <t>002582.SZ; 好想你; 2;  13:44:31; 7天4板; 10.36;  13:31:01; -4.9%; 1; 红枣+间接参投蜜雪冰城+微信小店</t>
+        </is>
+      </c>
+      <c r="BI13" t="inlineStr">
+        <is>
+          <t>002861.SZ; 瀛通通讯; 0;  14:04:55; 7天6板; 16.94;  14:04:55; 10.0%; 1; AI终端+电声产品+外销</t>
+        </is>
+      </c>
+      <c r="BK13" t="inlineStr">
+        <is>
+          <t>002599.SZ; 盛通股份; 2;  10:04:39; 3天2板; 8.24;  09:30:36; 10.0%; 1; 人形机器人+宇树科技合作+教育+鸿蒙</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="5" t="n">
@@ -4524,6 +4844,26 @@
           <t>002691.SZ; 冀凯股份; 7;  13:09:03; 6天6板; 8.31;  09:30:00; 10.1%; 6; 机器人+矿山装备+3D打印</t>
         </is>
       </c>
+      <c r="BG14" t="inlineStr">
+        <is>
+          <t>600936.SH; 广西广电; 20;  14:38:32; 3天3板; 3.03;  10:14:30; -9.8%; 3; 筹划重大资产置换+业务战略转型</t>
+        </is>
+      </c>
+      <c r="BH14" t="inlineStr">
+        <is>
+          <t>605398.SH; 新炬网络; 1;  14:00:46; 2天2板; 25.38;  09:30:30; 10.0%; 2; 数据中心+智慧运维+华为鲲鹏+信创</t>
+        </is>
+      </c>
+      <c r="BI14" t="inlineStr">
+        <is>
+          <t>600410.SH; 华胜天成; 0;  14:07:45; 3天2板; 8.81;  14:07:45; 10.0%; 1; AI应用+机器人+华为昇腾+字节</t>
+        </is>
+      </c>
+      <c r="BK14" t="inlineStr">
+        <is>
+          <t>605398.SH; 新炬网络; 1;  10:06:38; 5天5板; 30.71;  09:25:02; 10.0%; 5; AI Agent+数据中心运维+华为鲲鹏</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="5" t="n">
@@ -4804,6 +5144,26 @@
           <t>603042.SH; 华脉科技; 4;  13:39:04; 3天3板; 15.28;  09:25:01; 10.0%; 3; 年报预增+铜缆高速连接+数据中心</t>
         </is>
       </c>
+      <c r="BG15" t="inlineStr">
+        <is>
+          <t>000882.SZ; 华联股份; 2;  14:47:17; 3天3板; 3.75;  10:15:30; 10.0%; 3; 零售+影视+收购北京SKP旗下资产</t>
+        </is>
+      </c>
+      <c r="BH15" t="inlineStr">
+        <is>
+          <t>000882.SZ; 华联股份; 0;  14:51:31; 4天4板; 3.75;  14:51:31; 10.0%; 4; 零售+影视+收购北京SKP旗下资产</t>
+        </is>
+      </c>
+      <c r="BI15" t="inlineStr">
+        <is>
+          <t>605018.SH; 长华集团; 0;  14:14:00; 4天3板; 12.1;  14:14:00; 10.0%; 1; 机器人相关+碳陶刹车系统+飞行汽车</t>
+        </is>
+      </c>
+      <c r="BK15" t="inlineStr">
+        <is>
+          <t>600807.SH; 济高发展; 0;  10:07:10; 2天2板; 3.1;  10:07:10; 9.9%; 2; 资产注入猜测+体外诊断+济南国资</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="5" t="n">
@@ -5069,6 +5429,21 @@
           <t>002730.SZ; 电光科技; 5;  14:32:18; 22天14板; 22.76;  09:30:12; 10.0%; 3; 算力+机器人+物联网+防爆电器</t>
         </is>
       </c>
+      <c r="BH16" t="inlineStr">
+        <is>
+          <t>002730.SZ; 电光科技; 6;  14:56:11; 24天16板; 24.79;  09:38:45; -10.0%; 5; 算力+机器人+物联网+防爆电器</t>
+        </is>
+      </c>
+      <c r="BI16" t="inlineStr">
+        <is>
+          <t>002816.SZ; 和科达; 2;  14:20:15; 2天2板; 13.2;  09:40:30; 10.0%; 2; 半导体清洗+阜阳国资入主+污水处理</t>
+        </is>
+      </c>
+      <c r="BK16" t="inlineStr">
+        <is>
+          <t>600588.SH; 用友网络; 0;  10:50:07; 3天2板; 12;  10:50:07; 10.0%; 1; AI应用+业绩落地+ERP龙头</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="5" t="n">
@@ -5319,6 +5694,16 @@
           <t>000880.SZ; 潍柴重机; 0;  14:43:15; 2天2板; 22.55;  14:43:15; 10.0%; 2; 数据中心发电机+柴油机零部件+国企</t>
         </is>
       </c>
+      <c r="BI17" t="inlineStr">
+        <is>
+          <t>603286.SH; 日盈电子; 0;  14:27:30; 2天2板; 24.2;  14:27:30; 10.0%; 2; 无人驾驶+高速线束产品+智能座舱</t>
+        </is>
+      </c>
+      <c r="BK17" t="inlineStr">
+        <is>
+          <t>002691.SZ; 冀凯股份; 2;  10:53:03; 11天9板; 9.19;  10:46:03; 10.1%; 2; 矿山装备+机器人+3D打印</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="5" t="n">
@@ -5564,6 +5949,11 @@
           <t>002582.SZ; 好想你; 2;  14:44:42; 5天3板; 9.87;  14:02:00; 10.0%; 1; 微信小店+红枣+间接参投蜜雪冰城</t>
         </is>
       </c>
+      <c r="BI18" t="inlineStr">
+        <is>
+          <t>000882.SZ; 华联股份; 2;  14:36:46; 5天5板; 3.75;  10:03:01; 10.0%; 5; 零售+影视+收购北京SKP旗下资产</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="5" t="n">
@@ -5802,6 +6192,11 @@
       <c r="BF19" t="inlineStr">
         <is>
           <t>603893.SH; 瑞芯微; 2;  14:46:48; 3天2板; 158.13;  11:28:00; 10.0%; 1; 年报预增+SoC芯片+AI眼镜+NPU</t>
+        </is>
+      </c>
+      <c r="BI19" t="inlineStr">
+        <is>
+          <t>605060.SH; 联德股份; 0;  14:40:31; 3天2板; 22.12;  14:40:31; 10.0%; 1; 压缩机+数据中心+出海</t>
         </is>
       </c>
     </row>
@@ -10586,7 +10981,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BF146"/>
+  <dimension ref="A1:BK146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10880,6 +11275,31 @@
           <t>2025年01月21日</t>
         </is>
       </c>
+      <c r="BG1" s="5" t="inlineStr">
+        <is>
+          <t>2025年01月22日</t>
+        </is>
+      </c>
+      <c r="BH1" s="5" t="inlineStr">
+        <is>
+          <t>2025年01月23日</t>
+        </is>
+      </c>
+      <c r="BI1" s="5" t="inlineStr">
+        <is>
+          <t>2025年01月24日</t>
+        </is>
+      </c>
+      <c r="BJ1" s="5" t="inlineStr">
+        <is>
+          <t>2025年01月27日</t>
+        </is>
+      </c>
+      <c r="BK1" s="5" t="inlineStr">
+        <is>
+          <t>2025年02月05日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="5" t="n">
@@ -11160,6 +11580,31 @@
           <t>001270.SZ; 铖昌科技; 0;  09:25:00; 一字跌停||缩量跌停; 29.05; -10.0%; 2; 可能被实施退市风险警示+业绩预亏</t>
         </is>
       </c>
+      <c r="BG2" t="inlineStr">
+        <is>
+          <t>603838.SH; 四通股份; 0;  09:30:00; 一字跌停||缩量跌停; 5.01; -2.1%; 1; 可能被实施退市风险警示+年报预亏</t>
+        </is>
+      </c>
+      <c r="BH2" t="inlineStr">
+        <is>
+          <t>002848.SZ; 高斯贝尔; 0;  09:30:00; 一字跌停||缩量跌停; 5.64; -10.0%; 1; 可能被实施退市风险警示+年报预亏</t>
+        </is>
+      </c>
+      <c r="BI2" t="inlineStr">
+        <is>
+          <t>002848.SZ; 高斯贝尔; 0;  09:30:00; 一字跌停||缩量跌停; 5.64; -10.0%; 2; 可能被实施退市风险警示+年报预亏</t>
+        </is>
+      </c>
+      <c r="BJ2" t="inlineStr">
+        <is>
+          <t>002519.SZ; 银河电子; 0;  09:30:00; 一字跌停||缩量跌停; 5.35; -9.9%; 1; 年报预亏</t>
+        </is>
+      </c>
+      <c r="BK2" t="inlineStr">
+        <is>
+          <t>000802.SZ; 北京文化; 0;  09:25:00; 一字跌停||缩量跌停; 6.3; -10.0%; 1; 影视股普跌</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="n">
@@ -11440,6 +11885,31 @@
           <t>002253.SZ; 川大智胜; 0;  09:25:00; 一字跌停||缩量跌停; 13.48; -10.0%; 1; 可能被实施退市风险警示+业绩预亏</t>
         </is>
       </c>
+      <c r="BG3" t="inlineStr">
+        <is>
+          <t>001270.SZ; 铖昌科技; 0;  09:30:00; 一字跌停||缩量跌停; 26.33; -3.9%; 3; 可能被实施退市风险警示+业绩预亏</t>
+        </is>
+      </c>
+      <c r="BH3" t="inlineStr">
+        <is>
+          <t>603261.SH; 立航科技; 0;  09:30:00; 一字跌停||缩量跌停; 20.88; -10.0%; 1; 面临退市风险警示+年报预亏</t>
+        </is>
+      </c>
+      <c r="BI3" t="inlineStr">
+        <is>
+          <t>002058.SZ; 威尔泰; 0;  09:30:00; 一字跌停||缩量跌停; 8.96; -9.9%; 1; 可能被实施退市风险警示+年报预亏</t>
+        </is>
+      </c>
+      <c r="BJ3" t="inlineStr">
+        <is>
+          <t>000595.SZ; 宝塔实业; 0;  09:30:00; 一字跌停||缩量跌停; 5.27; -10.1%; 1; 可能被实施退市风险警示+年报预亏</t>
+        </is>
+      </c>
+      <c r="BK3" t="inlineStr">
+        <is>
+          <t>000856.SZ; 冀东装备; 1;  09:25:00; 放量跌停; 11.46; -10.0%; 1; 异常波动+尚未在人形机器人领域进行布局或开展具体合作+近期涨幅较大</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="5" t="n">
@@ -11715,6 +12185,31 @@
           <t>600539.SH; 狮头股份; 1;  09:25:01; 放量跌停; 7.85; -10.0%; 2; 小红书概念股退潮</t>
         </is>
       </c>
+      <c r="BG4" t="inlineStr">
+        <is>
+          <t>002122.SZ; 汇洲智能; 10;  09:30:00; 放量跌停; 4.29; 9.7%; 2; 年报预亏+异常波动+小红书概念股继续退潮</t>
+        </is>
+      </c>
+      <c r="BH4" t="inlineStr">
+        <is>
+          <t>002306.SZ; 中科云网; 0;  09:30:00; 一字跌停||缩量跌停; 2.11; -4.1%; 1; 可能被实施退市风险警示+年报预亏</t>
+        </is>
+      </c>
+      <c r="BI4" t="inlineStr">
+        <is>
+          <t>002496.SZ; 辉丰股份; 0;  09:30:00; 一字跌停||缩量跌停; 1.35; -10.0%; 2; 可能被实施退市风险警示</t>
+        </is>
+      </c>
+      <c r="BJ4" t="inlineStr">
+        <is>
+          <t>603813.SH; 原尚股份; 0;  09:30:00; 一字跌停||缩量跌停; 9.77; -10.0%; 1; 可能被实施退市风险警示+年报预亏</t>
+        </is>
+      </c>
+      <c r="BK4" t="inlineStr">
+        <is>
+          <t>000882.SZ; 华联股份; 0;  09:25:00; 一字跌停||缩量跌停; 3.04; -10.1%; 2; 异常波动+近期涨幅较大</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="n">
@@ -11965,6 +12460,31 @@
           <t>600228.SH; 返利科技; 0;  09:25:01; 一字跌停||缩量跌停; 4.94; -10.0%; 2; 可能被实施退市风险警示</t>
         </is>
       </c>
+      <c r="BG5" t="inlineStr">
+        <is>
+          <t>002253.SZ; 川大智胜; 0;  09:30:00; 一字跌停||缩量跌停; 10.62; -9.2%; 2; 可能被实施退市风险警示+业绩预亏</t>
+        </is>
+      </c>
+      <c r="BH5" t="inlineStr">
+        <is>
+          <t>002496.SZ; 辉丰股份; 0;  09:30:00; 一字跌停||缩量跌停; 1.35; -10.0%; 1; 可能被实施退市风险警示</t>
+        </is>
+      </c>
+      <c r="BI5" t="inlineStr">
+        <is>
+          <t>002691.SZ; 冀凯股份; 0;  09:30:00; 一字跌停||缩量跌停; 7.59; -10.0%; 1; 昨日涨停炸板+近日涨幅较大</t>
+        </is>
+      </c>
+      <c r="BJ5" t="inlineStr">
+        <is>
+          <t>000820.SZ; 神雾节能; 0;  09:30:00; 一字跌停||缩量跌停; 3; -9.9%; 1; 可能被实施退市风险警示+年报预亏</t>
+        </is>
+      </c>
+      <c r="BK5" t="inlineStr">
+        <is>
+          <t>001330.SZ; 博纳影业; 1;  09:25:00; 缩量跌停; 5.36; -10.1%; 1; 《蛟龙行动》票房表现不佳+影视股普跌</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="5" t="n">
@@ -12195,6 +12715,31 @@
           <t>600636.SH; 国新文化; 0;  09:25:01; 一字跌停||缩量跌停; 8.59; -10.0%; 1; 可能被实施退市风险警示+年报预亏</t>
         </is>
       </c>
+      <c r="BG6" t="inlineStr">
+        <is>
+          <t>002529.SZ; 海源复材; 0;  09:30:00; 一字跌停||缩量跌停; 5.91; -1.2%; 1; 可能被实施退市风险警示+年报预亏</t>
+        </is>
+      </c>
+      <c r="BH6" t="inlineStr">
+        <is>
+          <t>002529.SZ; 海源复材; 0;  09:30:00; 一字跌停||缩量跌停; 5.91; -1.2%; 2; 可能被实施退市风险警示+年报预亏</t>
+        </is>
+      </c>
+      <c r="BI6" t="inlineStr">
+        <is>
+          <t>002730.SZ; 电光科技; 1;  09:30:00; 缩量跌停; 24.79; -10.0%; 1; 游资席位离场+异常波动</t>
+        </is>
+      </c>
+      <c r="BJ6" t="inlineStr">
+        <is>
+          <t>603687.SH; 大胜达; 0;  09:30:00; 一字跌停||放量跌停; 7.1; -10.0%; 1; 昨日涨停炸板</t>
+        </is>
+      </c>
+      <c r="BK6" t="inlineStr">
+        <is>
+          <t>002519.SZ; 银河电子; 0;  09:25:00; 一字跌停||缩量跌停; 4.82; -9.9%; 2; 年报预亏</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="n">
@@ -12415,6 +12960,31 @@
           <t>600243.SH; 青海华鼎; 0;  09:25:03; 一字跌停||缩量跌停; 3.03; -10.1%; 2; 可能被实施退市风险警示</t>
         </is>
       </c>
+      <c r="BG7" t="inlineStr">
+        <is>
+          <t>002762.SZ; 金发拉比; 12;  09:30:00; 放量跌停; 4.88; -0.8%; 1; 可能被实施退市风险警示</t>
+        </is>
+      </c>
+      <c r="BH7" t="inlineStr">
+        <is>
+          <t>600446.SH; 金证股份; 3;  09:30:00; 放量跌停; 14.56; -7.8%; 1; 终止筹划控制权变更事项+年报预亏+计提资产减值</t>
+        </is>
+      </c>
+      <c r="BI7" t="inlineStr">
+        <is>
+          <t>003030.SZ; 祖名股份; 0;  09:30:00; 缩量跌停; 16.56; -10.0%; 2; 近日波动较大</t>
+        </is>
+      </c>
+      <c r="BJ7" t="inlineStr">
+        <is>
+          <t>301288.SZ; 清研环境; 6;  09:30:00; 放量跌停; 11.78; -20.0%; 1; 可能被实施退市风险警示+年报预亏</t>
+        </is>
+      </c>
+      <c r="BK7" t="inlineStr">
+        <is>
+          <t>002851.SZ; 麦格米特; 1;  09:25:00; 缩量跌停; 56.56; -10.0%; 1; 英伟达产业链大跌</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="5" t="n">
@@ -12615,6 +13185,31 @@
           <t>600130.SH; 波导股份; 0;  09:25:03; 一字跌停||缩量跌停; 3.77; -10.0%; 2; 可能被实施退市风险警示</t>
         </is>
       </c>
+      <c r="BG8" t="inlineStr">
+        <is>
+          <t>600539.SH; 狮头股份; 5;  09:30:00; 放量跌停; 7.15; 5.1%; 3; 小红书概念股继续退潮</t>
+        </is>
+      </c>
+      <c r="BH8" t="inlineStr">
+        <is>
+          <t>003030.SZ; 祖名股份; 3;  09:31:00; 放量跌停; 16.56; -10.0%; 1; 昨日上演天地板+异常波动</t>
+        </is>
+      </c>
+      <c r="BI8" t="inlineStr">
+        <is>
+          <t>000488.SZ; 晨鸣纸业; 3;  09:30:00; 放量跌停; 2.53; -10.0%; 1; 年报预亏</t>
+        </is>
+      </c>
+      <c r="BJ8" t="inlineStr">
+        <is>
+          <t>600246.SH; 万通发展; 0;  09:30:00; 一字跌停||缩量跌停; 5.47; -10.0%; 1; 终止购买索尔思光电60%股份</t>
+        </is>
+      </c>
+      <c r="BK8" t="inlineStr">
+        <is>
+          <t>600696.SH; 岩石股份; 0;  09:25:01; 一字跌停||缩量跌停; 8.45; -10.0%; 2; 可能被实施退市风险警示+年报预亏</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="n">
@@ -12795,6 +13390,31 @@
           <t>603177.SH; 德创环保; 1;  09:25:03; 缩量跌停; 8.52; -10.0%; 2; 异常波动+近期涨幅较大</t>
         </is>
       </c>
+      <c r="BG9" t="inlineStr">
+        <is>
+          <t>000736.SZ; 中交地产; 3;  09:30:00; 放量跌停; 7; -10.0%; 1; 可能被实施退市风险警示</t>
+        </is>
+      </c>
+      <c r="BH9" t="inlineStr">
+        <is>
+          <t>002767.SZ; 先锋电子; 2;  09:34:00; 放量跌停; 14.14; -8.8%; 2; 异常波动+近期股价波动较大+资金获利了结</t>
+        </is>
+      </c>
+      <c r="BI9" t="inlineStr">
+        <is>
+          <t>600753.SH; 庚星股份; 0;  09:30:00; 一字跌停||缩量跌停; 5.69; -10.0%; 1; 可能被实施退市风险警示+年报预亏</t>
+        </is>
+      </c>
+      <c r="BJ9" t="inlineStr">
+        <is>
+          <t>002305.SZ; 南国置业; 0;  09:30:00; 一字跌停||缩量跌停; 1.56; -9.8%; 1; 可能被实施退市风险警示+年报预亏</t>
+        </is>
+      </c>
+      <c r="BK9" t="inlineStr">
+        <is>
+          <t>603063.SH; 禾望电气; 0;  09:25:02; 一字跌停||缩量跌停; 28.44; -10.0%; 1; 算力电力相关个股大跌</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="5" t="n">
@@ -12975,6 +13595,31 @@
           <t>002122.SZ; 汇洲智能; 1;  09:33:27; 缩量跌停; 4.82; -10.1%; 1; 年报预亏+异常波动</t>
         </is>
       </c>
+      <c r="BG10" t="inlineStr">
+        <is>
+          <t>600636.SH; 国新文化; 0;  09:30:00; 一字跌停||缩量跌停; 7.43; 0.0%; 2; 可能被实施退市风险警示+年报预亏</t>
+        </is>
+      </c>
+      <c r="BH10" t="inlineStr">
+        <is>
+          <t>002692.SZ; 远程股份; 2;  10:15:45; 放量跌停; 4.53; -8.5%; 1; 昨日上演天地板+此前异常波动</t>
+        </is>
+      </c>
+      <c r="BI10" t="inlineStr">
+        <is>
+          <t>600892.SH; 大晟文化; 0;  09:30:00; 一字跌停||缩量跌停; 3.02; -10.1%; 1; 可能被实施退市风险警示+年报预亏</t>
+        </is>
+      </c>
+      <c r="BJ10" t="inlineStr">
+        <is>
+          <t>003032.SZ; 传智教育; 0;  09:30:00; 一字跌停||缩量跌停; 8.19; -10.0%; 1; 可能被实施退市风险警示+年报预亏</t>
+        </is>
+      </c>
+      <c r="BK10" t="inlineStr">
+        <is>
+          <t>603928.SH; 兴业股份; 0;  09:25:03; 一字跌停||缩量跌停; 11.76; -10.0%; 2; 短期涨幅较大</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="5" t="n">
@@ -13145,6 +13790,31 @@
           <t>603511.SH; 爱慕股份; 3;  09:39:08; 放量跌停; 16.49; -10.0%; 1; 小红书概念股退潮</t>
         </is>
       </c>
+      <c r="BG11" t="inlineStr">
+        <is>
+          <t>603511.SH; 爱慕股份; 0;  09:30:00; 一字跌停||缩量跌停; 13.13; -2.4%; 2; 异常波动+小红书概念退潮+前一交易日跌停</t>
+        </is>
+      </c>
+      <c r="BH11" t="inlineStr">
+        <is>
+          <t>002636.SZ; 金安国纪; 2;  11:20:23; 放量跌停; 8.56; -6.4%; 2; PCB概念冲高回落+资金出逃</t>
+        </is>
+      </c>
+      <c r="BI11" t="inlineStr">
+        <is>
+          <t>603261.SH; 立航科技; 0;  09:30:00; 一字跌停||放量跌停; 20.88; -10.0%; 2; 可能被实施退市风险警示</t>
+        </is>
+      </c>
+      <c r="BJ11" t="inlineStr">
+        <is>
+          <t>603042.SH; 华脉科技; 2;  09:30:00; 放量跌停; 14.98; -10.0%; 1; 铜缆高速连接板块大跌</t>
+        </is>
+      </c>
+      <c r="BK11" t="inlineStr">
+        <is>
+          <t>605277.SH; 新亚电子; 1;  09:30:02; 缩量跌停; 16.16; -10.0%; 2; 英伟达产业链大跌</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="5" t="n">
@@ -13295,6 +13965,31 @@
           <t>600714.SH; 金瑞矿业; 1;  09:40:06; 放量跌停; 11.39; -10.0%; 2; 股票交易风险提示+近期涨幅较大</t>
         </is>
       </c>
+      <c r="BG12" t="inlineStr">
+        <is>
+          <t>002636.SZ; 金安国纪; 4;  09:30:30; 放量跌停; 8.56; -6.4%; 1; 近期涨幅较大+昨日涨停炸板</t>
+        </is>
+      </c>
+      <c r="BH12" t="inlineStr">
+        <is>
+          <t>000668.SZ; 荣丰控股; 3;  11:27:08; 放量跌停; 5.55; -10.0%; 1; 业绩持续亏损</t>
+        </is>
+      </c>
+      <c r="BI12" t="inlineStr">
+        <is>
+          <t>603789.SH; 星光农机; 0;  09:30:00; 一字跌停||缩量跌停; 6.47; -10.0%; 1; 可能被实施退市风险警示+年报预亏</t>
+        </is>
+      </c>
+      <c r="BJ12" t="inlineStr">
+        <is>
+          <t>600696.SH; 岩石股份; 0;  09:30:00; 一字跌停||缩量跌停; 9.39; -10.0%; 1; 可能被实施退市风险警示+年报预亏</t>
+        </is>
+      </c>
+      <c r="BK12" t="inlineStr">
+        <is>
+          <t>603308.SH; 应流股份; 1;  09:30:45; 缩量跌停; 20.11; -10.0%; 1; 近期涨幅较大</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="5" t="n">
@@ -13445,6 +14140,31 @@
           <t>600556.SH; 天下秀; 19;  09:49:41; 放量跌停; 5.43; -10.0%; 2; 小红书概念股退潮</t>
         </is>
       </c>
+      <c r="BG13" t="inlineStr">
+        <is>
+          <t>002799.SZ; 环球印务; 0;  10:32:15; 放量跌停; 7.95; 3.2%; 1; 昨日高开低走+前三季度业绩下降</t>
+        </is>
+      </c>
+      <c r="BH13" t="inlineStr">
+        <is>
+          <t>002917.SZ; 金奥博; 0;  13:33:46; 放量跌停; 18.4; -4.3%; 1; 严重异常波动+资金获利了结</t>
+        </is>
+      </c>
+      <c r="BI13" t="inlineStr">
+        <is>
+          <t>000586.SZ; 汇源通信; 4;  09:30:30; 放量跌停; 10.23; -10.0%; 1; 异常波动+说明“CPO概念”涉及情况+年报预亏</t>
+        </is>
+      </c>
+      <c r="BJ13" t="inlineStr">
+        <is>
+          <t>600753.SH; 庚星股份; 0;  09:30:00; 一字跌停||放量跌停; 5.12; -10.0%; 2; 可能被实施退市风险警示+年报预亏</t>
+        </is>
+      </c>
+      <c r="BK13" t="inlineStr">
+        <is>
+          <t>601869.SH; 长飞光纤; 0;  09:30:53; 缩量跌停; 37.62; -10.0%; 1; 英伟达产业链大跌</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="5" t="n">
@@ -13580,6 +14300,31 @@
           <t>002068.SZ; 黑猫股份; 8;  10:22:00; 放量跌停; 10.86; -10.0%; 1; 业绩兑现+此前涨幅较大</t>
         </is>
       </c>
+      <c r="BG14" t="inlineStr">
+        <is>
+          <t>002767.SZ; 先锋电子; 4;  13:08:16; 放量跌停; 14.14; -8.8%; 1; 异常波动+资金获利了结</t>
+        </is>
+      </c>
+      <c r="BH14" t="inlineStr">
+        <is>
+          <t>601515.SH; 东峰集团; 13;  13:34:01; 放量跌停; 3.07; -10.0%; 1; 昨日涨停炸板+筹划控制权变更</t>
+        </is>
+      </c>
+      <c r="BI14" t="inlineStr">
+        <is>
+          <t>002146.SZ; 荣盛发展; 1;  09:31:30; 放量跌停; 1.4; -9.7%; 1; 年报预计亏损</t>
+        </is>
+      </c>
+      <c r="BJ14" t="inlineStr">
+        <is>
+          <t>605277.SH; 新亚电子; 8;  09:30:15; 放量跌停; 17.95; -10.0%; 1; 近期涨幅较大+铜缆高速连接板块大跌</t>
+        </is>
+      </c>
+      <c r="BK14" t="inlineStr">
+        <is>
+          <t>603211.SH; 晋拓股份; 0;  09:31:00; 缩量跌停; 19.3; -10.0%; 2; 近期涨幅较大</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="5" t="n">
@@ -13710,6 +14455,31 @@
           <t>002816.SZ; 和科达; 0;  10:33:00; 放量跌停; 11.61; -10.0%; 1; 可能被实施退市风险警示</t>
         </is>
       </c>
+      <c r="BG15" t="inlineStr">
+        <is>
+          <t>600981.SH; 汇鸿集团; 3;  13:08:46; 放量跌停; 2.54; -2.3%; 1; 资金获利了结+异常波动+前三季度业绩亏损</t>
+        </is>
+      </c>
+      <c r="BH15" t="inlineStr">
+        <is>
+          <t>002122.SZ; 汇洲智能; 2;  13:37:01; 放量跌停; 4.29; 9.7%; 3; 年报预亏</t>
+        </is>
+      </c>
+      <c r="BI15" t="inlineStr">
+        <is>
+          <t>603398.SH; 沐邦高科; 0;  09:32:00; 缩量跌停; 15.53; -10.0%; 1; 年报预亏+光伏行业竞争加剧</t>
+        </is>
+      </c>
+      <c r="BJ15" t="inlineStr">
+        <is>
+          <t>000882.SZ; 华联股份; 5;  09:30:30; 放量跌停; 3.38; -9.9%; 1; 异常波动+近期涨幅较大</t>
+        </is>
+      </c>
+      <c r="BK15" t="inlineStr">
+        <is>
+          <t>002484.SZ; 江海股份; 0;  09:31:00; 缩量跌停; 21.63; -10.0%; 1; 资金获利了结</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="5" t="n">
@@ -13840,6 +14610,31 @@
           <t>002666.SZ; 德联集团; 5;  11:29:18; 放量跌停; 4.83; -10.1%; 1; 此前连续两日涨停</t>
         </is>
       </c>
+      <c r="BG16" t="inlineStr">
+        <is>
+          <t>000759.SZ; 中百集团; 8;  13:14:01; 缩量跌停; 8.63; 0.9%; 1; 零售板块午后走低+年报预计亏损</t>
+        </is>
+      </c>
+      <c r="BH16" t="inlineStr">
+        <is>
+          <t>002861.SZ; 瀛通通讯; 1;  13:48:31; 放量跌停; 16.94; 10.0%; 1; 端侧AI硬件股震荡走低+异常波动</t>
+        </is>
+      </c>
+      <c r="BI16" t="inlineStr">
+        <is>
+          <t>600053.SH; 九鼎投资; 7;  09:36:15; 放量跌停; 12.86; -10.0%; 1; 年报预亏</t>
+        </is>
+      </c>
+      <c r="BJ16" t="inlineStr">
+        <is>
+          <t>603211.SH; 晋拓股份; 4;  09:31:00; 缩量跌停; 21.44; -10.0%; 1; 机器人板块大跌+近期涨幅较大</t>
+        </is>
+      </c>
+      <c r="BK16" t="inlineStr">
+        <is>
+          <t>603042.SH; 华脉科技; 2;  09:31:48; 放量跌停; 13.48; -10.0%; 2; 英伟达产业链大跌</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="5" t="n">
@@ -13945,6 +14740,31 @@
           <t>600423.SH; 柳化股份; 8;  13:33:08; 放量跌停; 3.47; -9.9%; 2; 拟减持+业绩预减+异常波动</t>
         </is>
       </c>
+      <c r="BG17" t="inlineStr">
+        <is>
+          <t>600778.SH; 友好集团; 11;  13:20:01; 缩量跌停; 7.23; -1.4%; 1; 零售板块午后走低+资金获利了结</t>
+        </is>
+      </c>
+      <c r="BH17" t="inlineStr">
+        <is>
+          <t>603717.SH; 天域生物; 3;  13:52:01; 放量跌停; 7.84; 2.9%; 1; 年报预亏+此前涨幅较大</t>
+        </is>
+      </c>
+      <c r="BI17" t="inlineStr">
+        <is>
+          <t>600579.SH; 中化装备; 1;  09:43:15; 缩量跌停; 9.27; -10.0%; 1; 异常波动+机器人板块走势分化</t>
+        </is>
+      </c>
+      <c r="BJ17" t="inlineStr">
+        <is>
+          <t>603667.SH; 五洲新春; 4;  09:32:45; 放量跌停; 43.46; -10.0%; 1; 资金获利了结</t>
+        </is>
+      </c>
+      <c r="BK17" t="inlineStr">
+        <is>
+          <t>002364.SZ; 中恒电气; 23;  09:32:06; 缩量跌停; 12.11; -10.0%; 1; 资金获利了结</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="5" t="n">
@@ -14050,6 +14870,31 @@
           <t>300902.SZ; 国安达; 4;  14:17:09; 放量跌停; 19.76; -20.0%; 1; 年报预计下降+会计估计变更</t>
         </is>
       </c>
+      <c r="BG18" t="inlineStr">
+        <is>
+          <t>002187.SZ; 广百股份; 0;  13:54:32; 缩量跌停; 8.02; -3.1%; 1; 零售板块午后走低+资金获利了结</t>
+        </is>
+      </c>
+      <c r="BH18" t="inlineStr">
+        <is>
+          <t>603042.SH; 华脉科技; 3;  14:41:01; 天地板跌停||放量跌停; 16.64; 10.0%; 1; 算力板块午后跳水+异常波动</t>
+        </is>
+      </c>
+      <c r="BI18" t="inlineStr">
+        <is>
+          <t>002718.SZ; 友邦吊顶; 4;  09:53:01; 放量跌停; 15.43; -10.0%; 1; 异常波动+年报预亏</t>
+        </is>
+      </c>
+      <c r="BJ18" t="inlineStr">
+        <is>
+          <t>603286.SH; 日盈电子; 9;  09:33:15; 放量跌停; 21.78; -10.0%; 1; 异常波动+汽车零部件板块大跌</t>
+        </is>
+      </c>
+      <c r="BK18" t="inlineStr">
+        <is>
+          <t>002917.SZ; 金奥博; 18;  09:32:39; 放量跌停; 14.9; -10.0%; 2; 此前严重异常波动+资金获利了结</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="5" t="n">
@@ -14155,6 +15000,31 @@
           <t>600128.SH; 苏豪弘业; 0;  14:19:08; 放量跌停; 10.21; -10.0%; 3; AI玩具尚未销售+未以小红书作平台进行营销+连续跌停</t>
         </is>
       </c>
+      <c r="BG19" t="inlineStr">
+        <is>
+          <t>000816.SZ; 智慧农业; 2;  14:30:02; 放量跌停; 2.7; -2.2%; 1; 年报预亏</t>
+        </is>
+      </c>
+      <c r="BH19" t="inlineStr">
+        <is>
+          <t>002184.SZ; 海得控制; 0;  14:43:16; 放量跌停; 13.47; -4.6%; 1; 年报预亏+此前涨幅较大</t>
+        </is>
+      </c>
+      <c r="BI19" t="inlineStr">
+        <is>
+          <t>000736.SZ; 中交地产; 6;  10:42:17; 放量跌停; 7; -10.0%; 1; 可能被实施退市风险警示</t>
+        </is>
+      </c>
+      <c r="BJ19" t="inlineStr">
+        <is>
+          <t>002031.SZ; 巨轮智能; 1;  09:33:15; 缩量跌停; 6.14; -10.0%; 1; 年报预亏</t>
+        </is>
+      </c>
+      <c r="BK19" t="inlineStr">
+        <is>
+          <t>603103.SH; 横店影视; 4;  09:32:49; 缩量跌停; 13.28; -10.0%; 1; 影视股普跌</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="5" t="n">
@@ -14255,6 +15125,31 @@
           <t>603800.SH; 洪田股份; 0;  14:39:19; 放量跌停; 25.75; 2.7%; 1; 资金出逃+DDE大单流出</t>
         </is>
       </c>
+      <c r="BG20" t="inlineStr">
+        <is>
+          <t>600622.SH; 光大嘉宝; 2;  14:31:32; 放量跌停; 3.07; -5.0%; 1; 房地产板块回落+年报预亏</t>
+        </is>
+      </c>
+      <c r="BH20" t="inlineStr">
+        <is>
+          <t>002090.SZ; 金智科技; 0;  14:43:31; 放量跌停; 8.8; -5.4%; 1; 昨日涨停炸板+此前涨幅较大</t>
+        </is>
+      </c>
+      <c r="BI20" t="inlineStr">
+        <is>
+          <t>605162.SH; 新中港; 1;  14:49:02; 放量跌停; 7.1; -10.0%; 1; 资金获利了结+DDE大单净额流出</t>
+        </is>
+      </c>
+      <c r="BJ20" t="inlineStr">
+        <is>
+          <t>002779.SZ; 中坚科技; 0;  09:38:36; 缩量跌停; 88.56; -10.0%; 1; 股东拟减持</t>
+        </is>
+      </c>
+      <c r="BK20" t="inlineStr">
+        <is>
+          <t>002112.SZ; 三变科技; 0;  09:33:03; 缩量跌停; 12.59; -10.0%; 1; 此前涨幅较大</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="5" t="n">
@@ -14345,6 +15240,26 @@
           <t>002265.SZ; 建设工业; 1;  11:28:57; 缩量跌停; 28.02; -10.0%; 1; 此前涨幅较大+机器人概念板块大跌</t>
         </is>
       </c>
+      <c r="BG21" t="inlineStr">
+        <is>
+          <t>603177.SH; 德创环保; 1;  14:52:02; 放量跌停; 7.39; 0.4%; 3; 异常波动+连续两个交易日录得跌停</t>
+        </is>
+      </c>
+      <c r="BH21" t="inlineStr">
+        <is>
+          <t>600936.SH; 广西广电; 1;  14:52:37; 放量跌停; 3.03; -9.8%; 1; 短期波动较大+资产重组事项尚处于筹划阶段</t>
+        </is>
+      </c>
+      <c r="BJ21" t="inlineStr">
+        <is>
+          <t>002917.SZ; 金奥博; 9;  09:42:08; 放量跌停; 16.56; -10.0%; 1; 此前严重异常波动+机器人板块大跌</t>
+        </is>
+      </c>
+      <c r="BK21" t="inlineStr">
+        <is>
+          <t>000573.SZ; 粤宏远A; 7;  09:33:18; 缩量跌停; 4.82; -9.9%; 1; 上个交易日炸板+近期涨幅较大</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="5" t="n">
@@ -14435,6 +15350,16 @@
           <t>002361.SZ; 神剑股份; 7;  13:00:00; 放量跌停; 4.9; -9.9%; 2; 前一交易日录得跌停+资金获利了结</t>
         </is>
       </c>
+      <c r="BJ22" t="inlineStr">
+        <is>
+          <t>002629.SZ; 仁智股份; 11;  09:43:08; 放量跌停; 4.34; -10.0%; 1; 异常波动+提示业绩风险</t>
+        </is>
+      </c>
+      <c r="BK22" t="inlineStr">
+        <is>
+          <t>002130.SZ; 沃尔核材; 0;  09:33:30; 缩量跌停; 22.98; -10.0%; 2; 英伟达产业链大跌</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="5" t="n">
@@ -14510,6 +15435,16 @@
           <t>002931.SZ; 锋龙股份; 0;  13:08:12; 放量跌停; 15.61; -10.0%; 1; 资金获利了结</t>
         </is>
       </c>
+      <c r="BJ23" t="inlineStr">
+        <is>
+          <t>603928.SH; 兴业股份; 3;  09:50:51; 天地板跌停||放量跌停; 13.07; -10.0%; 1; 天地板+短期涨幅较大</t>
+        </is>
+      </c>
+      <c r="BK23" t="inlineStr">
+        <is>
+          <t>002730.SZ; 电光科技; 7;  09:34:42; 缩量跌停; 20.75; -10.0%; 1; 股价近期波动较大+资金获利了结</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="5" t="n">
@@ -14580,6 +15515,16 @@
           <t>002885.SZ; 京泉华; 8;  13:14:51; 缩量跌停; 12.27; -10.0%; 2; 资金出逃</t>
         </is>
       </c>
+      <c r="BJ24" t="inlineStr">
+        <is>
+          <t>000620.SZ; 新华联; 3;  09:52:06; 放量跌停; 1.85; -9.8%; 1; 年报预亏</t>
+        </is>
+      </c>
+      <c r="BK24" t="inlineStr">
+        <is>
+          <t>600673.SH; 东阳光; 5;  09:37:56; 缩量跌停; 10.75; -10.0%; 1; 英伟达产业链大跌</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="5" t="n">
@@ -14645,6 +15590,16 @@
           <t>002514.SZ; 宝馨科技; 9;  13:15:51; 放量跌停; 7.79; -10.0%; 1; 前三季度亏损+上周五炸板</t>
         </is>
       </c>
+      <c r="BJ25" t="inlineStr">
+        <is>
+          <t>603803.SH; 瑞斯康达; 8;  09:53:06; 缩量跌停; 9.98; -10.0%; 1; 算力硬件股持续走低</t>
+        </is>
+      </c>
+      <c r="BK25" t="inlineStr">
+        <is>
+          <t>603228.SH; 景旺电子; 7;  09:42:59; 缩量跌停; 30.92; -10.0%; 1; 英伟达产业链大跌</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="5" t="n">
@@ -14705,6 +15660,16 @@
           <t>603070.SH; 万控智造; 2;  13:39:38; 放量跌停; 13.3; -10.0%; 2; 资金出逃+前三季度营收/利润下滑</t>
         </is>
       </c>
+      <c r="BJ26" t="inlineStr">
+        <is>
+          <t>000517.SZ; 荣安地产; 0;  10:23:32; 放量跌停; 1.93; -9.8%; 1; 年报预亏</t>
+        </is>
+      </c>
+      <c r="BK26" t="inlineStr">
+        <is>
+          <t>000759.SZ; 中百集团; 8;  09:58:45; 缩量跌停; 7.82; -10.0%; 1; 零售板块大跌</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="5" t="n">
@@ -14765,6 +15730,16 @@
           <t>000619.SZ; 海螺新材; 1;  13:58:30; 缩量跌停; 5.72; -9.9%; 1; 年报预计增亏+资金出逃</t>
         </is>
       </c>
+      <c r="BJ27" t="inlineStr">
+        <is>
+          <t>002733.SZ; 雄韬股份; 7;  11:02:57; 缩量跌停; 16.25; -10.0%; 1; 资金获利了结</t>
+        </is>
+      </c>
+      <c r="BK27" t="inlineStr">
+        <is>
+          <t>603516.SH; 淳中科技; 8;  10:03:26; 缩量跌停; 51.29; -10.0%; 1; 英伟达产业链大跌</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="5" t="n">
@@ -14825,6 +15800,16 @@
           <t>603315.SH; 福鞍股份; 2;  14:14:46; 放量跌停; 9.82; -10.0%; 2; 前一交易日股价跌停+资金出逃</t>
         </is>
       </c>
+      <c r="BJ28" t="inlineStr">
+        <is>
+          <t>000586.SZ; 汇源通信; 23;  11:23:12; 放量跌停; 9.21; -10.0%; 2; 异常波动+说明“CPO概念”涉及情况+年报预亏</t>
+        </is>
+      </c>
+      <c r="BK28" t="inlineStr">
+        <is>
+          <t>002905.SZ; 金逸影视; 6;  10:34:36; 放量跌停; 7.15; -9.9%; 1; 影视股普跌</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="5" t="n">
@@ -14885,6 +15870,16 @@
           <t>600545.SH; 卓郎智能; 1;  14:45:30; 缩量跌停; 2.27; -9.9%; 1; 资金出逃</t>
         </is>
       </c>
+      <c r="BJ29" t="inlineStr">
+        <is>
+          <t>000736.SZ; 中交地产; 1;  13:00:12; 放量跌停; 6.3; -10.0%; 2; 可能被实施退市风险警示</t>
+        </is>
+      </c>
+      <c r="BK29" t="inlineStr">
+        <is>
+          <t>600183.SH; 生益科技; 101;  10:42:45; 放量跌停; 26.84; -10.0%; 1; 英伟达产业链大跌</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="5" t="n">
@@ -14940,6 +15935,16 @@
           <t>600191.SH; 华资实业; 4;  14:40:16; 放量跌停; 6.68; -10.0%; 1; 大消费板块大跌</t>
         </is>
       </c>
+      <c r="BJ30" t="inlineStr">
+        <is>
+          <t>600468.SH; 百利电气; 5;  13:06:12; 放量跌停; 4.25; -10.0%; 1; 年报预计亏损</t>
+        </is>
+      </c>
+      <c r="BK30" t="inlineStr">
+        <is>
+          <t>601156.SH; 东航物流; 9;  13:24:51; 放量跌停; 14.75; -10.0%; 1; 美国邮政暂停接收来自中国内地和香港的入境包裹</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="5" t="n">
@@ -14995,6 +16000,16 @@
           <t>002918.SZ; 蒙娜丽莎; 0;  14:41:03; 缩量跌停; 11.45; -10.0%; 1; 大消费板块大跌</t>
         </is>
       </c>
+      <c r="BJ31" t="inlineStr">
+        <is>
+          <t>603118.SH; 共进股份; 0;  13:15:27; 缩量跌停; 9.21; -10.0%; 1; 年报预亏</t>
+        </is>
+      </c>
+      <c r="BK31" t="inlineStr">
+        <is>
+          <t>603306.SH; 华懋科技; 0;  13:46:37; 放量跌停; 34.8; -10.0%; 1; 资金获利了结</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="5" t="n">
@@ -15050,6 +16065,16 @@
           <t>002582.SZ; 好想你; 2;  14:42:33; 放量跌停; 7.64; -10.0%; 1; 大消费板块大跌</t>
         </is>
       </c>
+      <c r="BJ32" t="inlineStr">
+        <is>
+          <t>002130.SZ; 沃尔核材; 4;  13:18:12; 缩量跌停; 25.53; -10.0%; 1; 铜缆高速连接板块大跌</t>
+        </is>
+      </c>
+      <c r="BK32" t="inlineStr">
+        <is>
+          <t>002862.SZ; 实丰文化; 2;  14:47:15; 缩量跌停; 35.64; -10.0%; 1; 资金获利了结</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="5" t="n">
@@ -15105,6 +16130,11 @@
           <t>605598.SH; 上海港湾; 0;  14:42:48; 放量跌停; 23.59; -10.0%; 1; 资金出逃+超4800只个股下跌</t>
         </is>
       </c>
+      <c r="BJ33" t="inlineStr">
+        <is>
+          <t>000627.SZ; 天茂集团; 5;  13:31:57; 放量跌停; 3.79; -10.0%; 1; 年报预计续亏+资金出逃</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="5" t="n">
@@ -15160,6 +16190,11 @@
           <t>605118.SH; 力鼎光电; 4;  14:44:33; 放量跌停; 19.16; -10.0%; 1; 异常波动+资金获利了结</t>
         </is>
       </c>
+      <c r="BJ34" t="inlineStr">
+        <is>
+          <t>002747.SZ; 埃斯顿; 1;  13:33:12; 放量跌停; 18.15; -10.0%; 1; 年报预亏</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="5" t="n">
@@ -15215,6 +16250,11 @@
           <t>002530.SZ; 金财互联; 0;  14:50:49; 缩量跌停; 9.11; -10.0%; 1; 超4800只个股下跌</t>
         </is>
       </c>
+      <c r="BJ35" t="inlineStr">
+        <is>
+          <t>000639.SZ; 西王食品; 1;  13:34:42; 放量跌停; 3.02; -10.1%; 1; 年报预亏</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="5" t="n">
@@ -15270,6 +16310,11 @@
           <t>002878.SZ; 元隆雅图; 0;  14:51:04; 缩量跌停; 15.77; -10.0%; 1; 大消费板块大跌</t>
         </is>
       </c>
+      <c r="BJ36" t="inlineStr">
+        <is>
+          <t>000533.SZ; 顺钠股份; 2;  13:55:27; 缩量跌停; 5.99; -9.9%; 1; 异常波动+资金获利了结</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="5" t="n">
@@ -15325,6 +16370,11 @@
           <t>002277.SZ; 友阿股份; 2;  14:51:49; 缩量跌停; 4.87; -10.0%; 1; 资金获利了结</t>
         </is>
       </c>
+      <c r="BJ37" t="inlineStr">
+        <is>
+          <t>002674.SZ; 兴业科技; 4;  14:21:57; 放量跌停; 9.41; -10.0%; 1; 资金出逃</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="5" t="n">
@@ -15375,6 +16425,11 @@
           <t>600858.SH; 银座股份; 1;  14:52:35; 放量跌停; 5.77; -10.0%; 1; 此前涨幅较大+零售板块大跌</t>
         </is>
       </c>
+      <c r="BJ38" t="inlineStr">
+        <is>
+          <t>002582.SZ; 好想你; 2;  14:28:42; 缩量跌停; 9.32; -10.0%; 1; 年报预亏+资金获利了结</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="5" t="n">
@@ -15418,6 +16473,11 @@
       <c r="AY39" t="inlineStr">
         <is>
           <t>002518.SZ; 科士达; 1;  14:52:50; 放量跌停; 22.28; -10.0%; 1; 短线情绪低迷+超4800只个股下跌</t>
+        </is>
+      </c>
+      <c r="BJ39" t="inlineStr">
+        <is>
+          <t>601718.SH; 际华集团; 2;  14:34:27; 放量跌停; 2.55; -9.9%; 1; 年报预亏+收到监管工作函</t>
         </is>
       </c>
     </row>
@@ -17947,7 +19007,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BF72"/>
+  <dimension ref="A1:BK72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18241,6 +19301,31 @@
           <t>2025年01月21日</t>
         </is>
       </c>
+      <c r="BG1" s="5" t="inlineStr">
+        <is>
+          <t>2025年01月22日</t>
+        </is>
+      </c>
+      <c r="BH1" s="5" t="inlineStr">
+        <is>
+          <t>2025年01月23日</t>
+        </is>
+      </c>
+      <c r="BI1" s="5" t="inlineStr">
+        <is>
+          <t>2025年01月24日</t>
+        </is>
+      </c>
+      <c r="BJ1" s="5" t="inlineStr">
+        <is>
+          <t>2025年01月27日</t>
+        </is>
+      </c>
+      <c r="BK1" s="5" t="inlineStr">
+        <is>
+          <t>2025年02月05日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="5" t="n">
@@ -18531,6 +19616,31 @@
           <t>003013.SZ; 地铁设计; 1;  09:25:00; 主板; 14.39; 曾涨停; -4.2%; 0.01H;  09:25:00</t>
         </is>
       </c>
+      <c r="BG2" t="inlineStr">
+        <is>
+          <t>002692.SZ; 远程股份; 2;  09:30:00; 主板; 4.53; 曾涨停; -8.5%; 0.01H;  09:30:00|| 09:39:06</t>
+        </is>
+      </c>
+      <c r="BH2" t="inlineStr">
+        <is>
+          <t>002358.SZ; 森源电气; 1;  09:30:00; 主板; 5.19; 曾涨停; -3.5%; 0.00H;  09:30:00</t>
+        </is>
+      </c>
+      <c r="BI2" t="inlineStr">
+        <is>
+          <t>603687.SH; 大胜达; 4;  09:30:00; 主板; 7.89; 曾涨停; 2.1%; 0.03H;  09:30:00|| 09:31:15|| 09:31:45|| 09:32:45</t>
+        </is>
+      </c>
+      <c r="BJ2" t="inlineStr">
+        <is>
+          <t>603928.SH; 兴业股份; 2;  09:30:00; 主板; 13.07; 曾涨停; -10.0%; 0.31H;  09:30:00|| 09:30:30</t>
+        </is>
+      </c>
+      <c r="BK2" t="inlineStr">
+        <is>
+          <t>000678.SZ; 襄阳轴承; 1;  09:30:36; 主板; 6.44; 曾涨停; 5.2%; 0.08H;  09:30:36</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="n">
@@ -18821,6 +19931,31 @@
           <t>603063.SH; 禾望电气; 1;  09:25:01; 主板; 35; 曾涨停; 7.3%; 0.23H;  09:25:01</t>
         </is>
       </c>
+      <c r="BG3" t="inlineStr">
+        <is>
+          <t>002090.SZ; 金智科技; 4;  09:30:00; 主板; 8.8; 曾涨停; -5.4%; 0.11H;  09:30:00|| 09:39:06|| 10:21:30|| 10:24:00</t>
+        </is>
+      </c>
+      <c r="BH3" t="inlineStr">
+        <is>
+          <t>002825.SZ; 纳尔股份; 1;  09:30:00; 主板; 8.31; 曾涨停; -3.3%; 0.30H;  09:30:00</t>
+        </is>
+      </c>
+      <c r="BI3" t="inlineStr">
+        <is>
+          <t>002295.SZ; 精艺股份; 1;  09:31:00; 主板; 7.23; 曾涨停; 2.6%; 0.10H;  09:31:00</t>
+        </is>
+      </c>
+      <c r="BJ3" t="inlineStr">
+        <is>
+          <t>601869.SH; 长飞光纤; 8;  09:30:15; 主板; 41.8; 曾涨停; 9.0%; 1.66H;  09:30:15|| 10:19:47|| 10:29:47|| 10:50:42|| 11:29:42|| 13:20:27|| 13:32:12|| 14:17:27</t>
+        </is>
+      </c>
+      <c r="BK3" t="inlineStr">
+        <is>
+          <t>002861.SZ; 瀛通通讯; 2;  09:31:36; 主板; 16.7; 曾涨停; 0.5%; 0.00H;  09:31:36|| 09:32:00</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="5" t="n">
@@ -19111,6 +20246,31 @@
           <t>600592.SH; 龙溪股份; 1;  09:30:30; 主板; 11.37; 曾涨停; 1.3%; 0.34H;  09:30:30</t>
         </is>
       </c>
+      <c r="BG4" t="inlineStr">
+        <is>
+          <t>600610.SH; 中毅达; 2;  09:33:00; 主板; 4.06; 曾涨停; 0.7%; 0.05H;  09:33:00|| 09:34:34</t>
+        </is>
+      </c>
+      <c r="BH4" t="inlineStr">
+        <is>
+          <t>603042.SH; 华脉科技; 1;  09:30:00; 主板; 16.64; 曾涨停; 10.0%; 2.50H;  09:30:00</t>
+        </is>
+      </c>
+      <c r="BI4" t="inlineStr">
+        <is>
+          <t>002441.SZ; 众业达; 3;  09:33:45; 主板; 8.75; 曾涨停; 6.3%; 3.16H;  09:33:45|| 09:38:30|| 09:53:16</t>
+        </is>
+      </c>
+      <c r="BJ4" t="inlineStr">
+        <is>
+          <t>002757.SZ; 南兴股份; 2;  09:30:15; 主板; 17.49; 曾涨停; 3.2%; 0.01H;  09:30:15|| 14:14:42</t>
+        </is>
+      </c>
+      <c r="BK4" t="inlineStr">
+        <is>
+          <t>603880.SH; 南卫股份; 4;  09:33:03; 主板; 5.1; 曾涨停; 5.4%; 0.85H;  09:33:03|| 09:33:33|| 09:34:36|| 09:38:45</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="n">
@@ -19401,6 +20561,31 @@
           <t>000558.SZ; 莱茵体育; 1;  09:31:42; 主板; 3.34; 曾涨停; 3.1%; 0.04H;  09:31:42</t>
         </is>
       </c>
+      <c r="BG5" t="inlineStr">
+        <is>
+          <t>603221.SH; 爱丽家居; 1;  09:34:04; 主板; 9.38; 曾涨停; 1.7%; 0.02H;  09:34:04</t>
+        </is>
+      </c>
+      <c r="BH5" t="inlineStr">
+        <is>
+          <t>300996.SZ; 普联软件; 2;  09:30:00; 创业板; 22.84; 曾涨停; 3.3%; 1.81H;  09:30:00|| 09:31:00</t>
+        </is>
+      </c>
+      <c r="BI5" t="inlineStr">
+        <is>
+          <t>000620.SZ; 新华联; 1;  09:59:01; 主板; 2.05; 曾涨停; 4.1%; 0.15H;  09:59:01</t>
+        </is>
+      </c>
+      <c r="BJ5" t="inlineStr">
+        <is>
+          <t>301248.SZ; 杰创智能; 3;  09:30:15; 创业板; 19.96; 曾涨停; 7.7%; 1.26H;  09:30:15|| 09:31:00|| 10:46:12</t>
+        </is>
+      </c>
+      <c r="BK5" t="inlineStr">
+        <is>
+          <t>605069.SH; 正和生态; 1;  09:33:06; 主板; 8.52; 曾涨停; 0.5%; 0.00H;  09:33:06</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="5" t="n">
@@ -19691,6 +20876,31 @@
           <t>002923.SZ; 润都股份; 2;  09:31:45; 主板; 10.75; 曾涨停; -2.5%; 0.01H;  09:31:45|| 09:32:06</t>
         </is>
       </c>
+      <c r="BG6" t="inlineStr">
+        <is>
+          <t>600973.SH; 宝胜股份; 2;  09:47:25; 主板; 4.98; 曾涨停; 1.6%; 0.68H;  09:47:25|| 10:27:15</t>
+        </is>
+      </c>
+      <c r="BH6" t="inlineStr">
+        <is>
+          <t>000632.SZ; 三木集团; 1;  09:31:00; 主板; 3.55; 曾涨停; -3.0%; 2.82H;  09:31:00</t>
+        </is>
+      </c>
+      <c r="BI6" t="inlineStr">
+        <is>
+          <t>003033.SZ; 征和工业; 1;  10:09:31; 主板; 32.3; 曾涨停; 1.9%; 0.01H;  10:09:31</t>
+        </is>
+      </c>
+      <c r="BJ6" t="inlineStr">
+        <is>
+          <t>000802.SZ; 北京文化; 1;  09:30:45; 主板; 7; 曾涨停; 10.1%; 0.04H;  09:30:45</t>
+        </is>
+      </c>
+      <c r="BK6" t="inlineStr">
+        <is>
+          <t>600986.SH; 浙文互联; 1;  09:33:09; 主板; 6.84; 曾涨停; 4.3%; 0.34H;  09:33:09</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="n">
@@ -19981,6 +21191,31 @@
           <t>603015.SH; 弘讯科技; 2;  09:32:04; 主板; 12.76; 曾涨停; 4.5%; 0.01H;  09:32:04|| 09:32:31</t>
         </is>
       </c>
+      <c r="BG7" t="inlineStr">
+        <is>
+          <t>002112.SZ; 三变科技; 14;  09:47:25; 主板; 12.72; 曾涨停; -0.7%; 2.18H;  09:47:25|| 09:57:10|| 09:58:44|| 13:27:46|| 13:29:46|| 13:30:32|| 13:32:02|| 13:32:32|| 13:34:17|| 13:35:02|| 13:35:32|| 13:36:17|| 13:37:17|| 13:40:32</t>
+        </is>
+      </c>
+      <c r="BH7" t="inlineStr">
+        <is>
+          <t>603895.SH; 天永智能; 1;  09:31:00; 主板; 22.76; 曾涨停; 0.9%; 2.04H;  09:31:00</t>
+        </is>
+      </c>
+      <c r="BI7" t="inlineStr">
+        <is>
+          <t>600580.SH; 卧龙电驱; 1;  11:16:04; 主板; 21.19; 曾涨停; 8.0%; 0.33H;  11:16:04</t>
+        </is>
+      </c>
+      <c r="BJ7" t="inlineStr">
+        <is>
+          <t>003042.SZ; 中农联合; 2;  09:31:45; 主板; 16.25; 曾涨停; 9.2%; 0.23H;  09:31:45|| 09:52:36</t>
+        </is>
+      </c>
+      <c r="BK7" t="inlineStr">
+        <is>
+          <t>603890.SH; 春秋电子; 1;  09:44:21; 主板; 13.15; 曾涨停; 6.7%; 0.33H;  09:44:21</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="5" t="n">
@@ -20271,6 +21506,31 @@
           <t>000681.SZ; 视觉中国; 2;  09:32:45; 主板; 21.97; 曾涨停; 4.7%; 0.23H;  09:32:45|| 09:33:30</t>
         </is>
       </c>
+      <c r="BG8" t="inlineStr">
+        <is>
+          <t>002364.SZ; 中恒电气; 2;  11:01:16; 主板; 14.34; 曾涨停; 10.0%; 0.02H;  11:01:16|| 11:02:31</t>
+        </is>
+      </c>
+      <c r="BH8" t="inlineStr">
+        <is>
+          <t>001208.SZ; 华菱线缆; 1;  09:31:15; 主板; 9.71; 曾涨停; -1.7%; 2.00H;  09:31:15</t>
+        </is>
+      </c>
+      <c r="BI8" t="inlineStr">
+        <is>
+          <t>603308.SH; 应流股份; 2;  13:29:41; 主板; 22.04; 曾涨停; 8.0%; 0.04H;  13:29:41|| 13:49:44</t>
+        </is>
+      </c>
+      <c r="BJ8" t="inlineStr">
+        <is>
+          <t>000068.SZ; 华控赛格; 1;  09:32:15; 主板; 3.36; 曾涨停; 0.9%; 0.06H;  09:32:15</t>
+        </is>
+      </c>
+      <c r="BK8" t="inlineStr">
+        <is>
+          <t>002664.SZ; 信质集团; 1;  09:47:36; 主板; 15.4; 曾涨停; 8.1%; 0.00H;  09:47:36</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="n">
@@ -20561,6 +21821,31 @@
           <t>300043.SZ; 星辉娱乐; 1;  09:35:06; 创业板; 4.11; 曾涨停; 13.2%; 0.01H;  09:35:06</t>
         </is>
       </c>
+      <c r="BG9" t="inlineStr">
+        <is>
+          <t>603278.SH; 大业股份; 1;  11:29:01; 主板; 9.37; 曾涨停; -3.0%; 0.02H;  11:29:01</t>
+        </is>
+      </c>
+      <c r="BH9" t="inlineStr">
+        <is>
+          <t>002853.SZ; 皮阿诺; 1;  09:32:45; 主板; 11.62; 曾涨停; 5.8%; 3.63H;  09:32:45</t>
+        </is>
+      </c>
+      <c r="BI9" t="inlineStr">
+        <is>
+          <t>603915.SH; 国茂股份; 2;  14:01:18; 主板; 15.08; 曾涨停; 7.2%; 0.12H;  14:01:18|| 14:08:30</t>
+        </is>
+      </c>
+      <c r="BJ9" t="inlineStr">
+        <is>
+          <t>000761.SZ; 本钢板材; 1;  09:34:47; 主板; 3.32; 曾涨停; 1.5%; 0.01H;  09:34:47</t>
+        </is>
+      </c>
+      <c r="BK9" t="inlineStr">
+        <is>
+          <t>600186.SH; 莲花控股; 1;  09:48:57; 主板; 5.38; 曾涨停; 7.0%; 0.01H;  09:48:57</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="5" t="n">
@@ -20851,6 +22136,31 @@
           <t>002917.SZ; 金奥博; 14;  09:35:27; 主板; 19.43; 曾涨停; 7.1%; 0.83H;  09:35:27|| 09:36:57|| 09:38:33|| 09:49:45|| 09:50:39|| 09:51:24|| 10:03:12|| 10:56:57|| 10:57:42|| 10:59:15|| 11:12:18|| 11:25:00|| 13:13:42|| 13:14:00</t>
         </is>
       </c>
+      <c r="BG10" t="inlineStr">
+        <is>
+          <t>600480.SH; 凌云股份; 6;  13:10:01; 主板; 13.49; 曾涨停; 6.5%; 0.04H;  13:10:01|| 13:11:01|| 13:13:31|| 13:14:31|| 13:15:01|| 13:17:01</t>
+        </is>
+      </c>
+      <c r="BH10" t="inlineStr">
+        <is>
+          <t>002423.SZ; 中粮资本; 3;  09:34:00; 主板; 13.45; 曾涨停; -0.8%; 1.53H;  09:34:00|| 09:37:15|| 10:21:02</t>
+        </is>
+      </c>
+      <c r="BI10" t="inlineStr">
+        <is>
+          <t>002122.SZ; 汇洲智能; 2;  14:11:15; 主板; 4.29; 曾涨停; 9.7%; 0.02H;  14:11:15|| 14:54:15</t>
+        </is>
+      </c>
+      <c r="BJ10" t="inlineStr">
+        <is>
+          <t>603729.SH; 龙韵股份; 3;  09:37:06; 主板; 17.51; 曾涨停; 3.5%; 0.40H;  09:37:06|| 10:01:11|| 10:21:02</t>
+        </is>
+      </c>
+      <c r="BK10" t="inlineStr">
+        <is>
+          <t>000158.SZ; 常山北明; 1;  09:50:15; 主板; 19.31; 曾涨停; 8.5%; 0.28H;  09:50:15</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="5" t="n">
@@ -21141,6 +22451,26 @@
           <t>603111.SH; 康尼机电; 3;  09:36:42; 主板; 6.92; 曾涨停; 4.5%; 0.02H;  09:36:42|| 09:37:15|| 09:38:00</t>
         </is>
       </c>
+      <c r="BG11" t="inlineStr">
+        <is>
+          <t>002929.SZ; 润建股份; 16;  13:23:31; 主板; 33.59; 曾涨停; 1.5%; 0.11H;  13:23:31|| 13:24:01|| 13:25:01|| 13:25:46|| 13:27:16|| 13:28:01|| 13:28:31|| 13:29:16|| 13:34:17|| 13:35:02|| 13:35:32|| 13:36:17|| 13:37:17|| 13:40:32|| 13:43:17|| 13:44:02</t>
+        </is>
+      </c>
+      <c r="BH11" t="inlineStr">
+        <is>
+          <t>600545.SH; 卓郎智能; 2;  09:38:00; 主板; 2.63; 曾涨停; -3.7%; 0.43H;  09:38:00|| 10:03:33</t>
+        </is>
+      </c>
+      <c r="BJ11" t="inlineStr">
+        <is>
+          <t>000573.SZ; 粤宏远A; 2;  09:37:06; 主板; 5.35; 曾涨停; 0.4%; 0.01H;  09:37:06|| 09:38:06</t>
+        </is>
+      </c>
+      <c r="BK11" t="inlineStr">
+        <is>
+          <t>002272.SZ; 川润股份; 3;  09:50:24; 主板; 8.37; 曾涨停; 6.5%; 0.06H;  09:50:24|| 09:53:30|| 09:54:03</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="5" t="n">
@@ -21431,6 +22761,26 @@
           <t>603030.SH; 全筑股份; 1;  09:39:30; 主板; 2.62; 曾涨停; 4.8%; 0.06H;  09:39:30</t>
         </is>
       </c>
+      <c r="BG12" t="inlineStr">
+        <is>
+          <t>601718.SH; 际华集团; 2;  14:22:02; 主板; 2.83; 曾涨停; 0.7%; 0.02H;  14:22:02|| 14:22:47</t>
+        </is>
+      </c>
+      <c r="BH12" t="inlineStr">
+        <is>
+          <t>002530.SZ; 金财互联; 1;  09:38:15; 主板; 11; 曾涨停; 10.0%; 0.50H;  09:38:15</t>
+        </is>
+      </c>
+      <c r="BJ12" t="inlineStr">
+        <is>
+          <t>601360.SH; 三六零; 1;  09:40:06; 主板; 11.1; 曾涨停; 7.4%; 0.01H;  09:40:06</t>
+        </is>
+      </c>
+      <c r="BK12" t="inlineStr">
+        <is>
+          <t>002394.SZ; 联发股份; 6;  09:52:30; 主板; 8.35; 曾涨停; 3.1%; 0.15H;  09:52:30|| 09:53:39|| 09:54:45|| 10:20:42|| 10:25:33|| 10:26:03</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="5" t="n">
@@ -21721,6 +23071,21 @@
           <t>603082.SH; 北自科技; 1;  09:40:39; 主板; 40.25; 曾涨停; -2.4%; 0.00H;  09:40:39</t>
         </is>
       </c>
+      <c r="BH13" t="inlineStr">
+        <is>
+          <t>301315.SZ; 威士顿; 2;  09:38:30; 创业板; 62.55; 曾涨停; -10.3%; 0.28H;  09:38:30|| 09:40:45</t>
+        </is>
+      </c>
+      <c r="BJ13" t="inlineStr">
+        <is>
+          <t>601515.SH; 东峰集团; 1;  09:40:53; 主板; 3.29; 曾涨停; 7.2%; 3.72H;  09:40:53</t>
+        </is>
+      </c>
+      <c r="BK13" t="inlineStr">
+        <is>
+          <t>002406.SZ; 远东传动; 2;  10:02:27; 主板; 6.54; 曾涨停; 5.8%; 0.02H;  10:02:27|| 10:03:42</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="5" t="n">
@@ -22011,6 +23376,21 @@
           <t>002391.SZ; 长青股份; 1;  09:42:15; 主板; 5.18; 曾涨停; 4.0%; 0.01H;  09:42:15</t>
         </is>
       </c>
+      <c r="BH14" t="inlineStr">
+        <is>
+          <t>600705.SH; 中航产融; 1;  09:38:45; 主板; 3.65; 曾涨停; -1.4%; 0.15H;  09:38:45</t>
+        </is>
+      </c>
+      <c r="BJ14" t="inlineStr">
+        <is>
+          <t>000681.SZ; 视觉中国; 5;  09:41:53; 主板; 24.18; 曾涨停; 10.0%; 3.54H;  09:41:53|| 10:07:43|| 10:13:32|| 10:15:32|| 14:48:57</t>
+        </is>
+      </c>
+      <c r="BK14" t="inlineStr">
+        <is>
+          <t>002681.SZ; 奋达科技; 1;  10:10:24; 主板; 7.27; 曾涨停; 8.7%; 0.03H;  10:10:24</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="5" t="n">
@@ -22301,6 +23681,21 @@
           <t>002881.SZ; 美格智能; 1;  09:42:57; 主板; 34.98; 曾涨停; 7.2%; 0.01H;  09:42:57</t>
         </is>
       </c>
+      <c r="BH15" t="inlineStr">
+        <is>
+          <t>600390.SH; 五矿资本; 1;  09:39:00; 主板; 6.22; 曾涨停; 0.3%; 0.01H;  09:39:00</t>
+        </is>
+      </c>
+      <c r="BJ15" t="inlineStr">
+        <is>
+          <t>002529.SZ; 海源复材; 1;  09:42:23; 主板; 6.29; 曾涨停; 6.4%; 0.02H;  09:42:23</t>
+        </is>
+      </c>
+      <c r="BK15" t="inlineStr">
+        <is>
+          <t>601777.SH; 力帆科技; 1;  10:18:58; 主板; 6.74; 曾涨停; 8.7%; 1.80H;  10:18:58</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="5" t="n">
@@ -22586,6 +23981,21 @@
           <t>002636.SZ; 金安国纪; 3;  09:43:21; 主板; 11.3; 曾涨停; 0.1%; 0.02H;  09:43:21|| 09:44:33|| 09:46:15</t>
         </is>
       </c>
+      <c r="BH16" t="inlineStr">
+        <is>
+          <t>600191.SH; 华资实业; 3;  09:39:45; 主板; 7.54; 曾涨停; -3.7%; 2.57H;  09:39:45|| 13:00:52|| 13:29:01</t>
+        </is>
+      </c>
+      <c r="BJ16" t="inlineStr">
+        <is>
+          <t>600539.SH; 狮头股份; 1;  09:47:49; 主板; 7.58; 曾涨停; 6.0%; 0.16H;  09:47:49</t>
+        </is>
+      </c>
+      <c r="BK16" t="inlineStr">
+        <is>
+          <t>600732.SH; 爱旭股份; 1;  10:43:20; 主板; 11.25; 曾涨停; 7.0%; 1.09H;  10:43:20</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="5" t="n">
@@ -22861,6 +24271,21 @@
           <t>603387.SH; 基蛋生物; 2;  09:50:09; 主板; 8.75; 曾涨停; 6.1%; 0.01H;  09:50:09|| 09:51:12</t>
         </is>
       </c>
+      <c r="BH17" t="inlineStr">
+        <is>
+          <t>603803.SH; 瑞斯康达; 1;  09:44:15; 主板; 11.09; 曾涨停; 0.0%; 0.00H;  09:44:15</t>
+        </is>
+      </c>
+      <c r="BJ17" t="inlineStr">
+        <is>
+          <t>300996.SZ; 普联软件; 3;  10:02:43; 创业板; 27.41; 曾涨停; 20.0%; 0.82H;  10:02:43|| 14:10:57|| 14:22:27</t>
+        </is>
+      </c>
+      <c r="BK17" t="inlineStr">
+        <is>
+          <t>003021.SZ; 兆威机电; 1;  11:09:54; 主板; 100.98; 曾涨停; 8.3%; 0.90H;  11:09:54</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="5" t="n">
@@ -23131,6 +24556,21 @@
           <t>000736.SZ; 中交地产; 1;  09:57:45; 主板; 8.73; 曾涨停; 5.6%; 0.38H;  09:57:45</t>
         </is>
       </c>
+      <c r="BH18" t="inlineStr">
+        <is>
+          <t>002279.SZ; 久其软件; 1;  09:46:16; 主板; 6.54; 曾涨停; 2.5%; 0.20H;  09:46:16</t>
+        </is>
+      </c>
+      <c r="BJ18" t="inlineStr">
+        <is>
+          <t>001366.SZ; 播恩集团; 3;  10:11:32; 主板; 11.43; 曾涨停; 2.8%; 0.03H;  10:11:32|| 10:13:32|| 10:15:02</t>
+        </is>
+      </c>
+      <c r="BK18" t="inlineStr">
+        <is>
+          <t>002912.SZ; 中新赛克; 1;  11:17:48; 主板; 26.45; 曾涨停; 5.5%; 0.03H;  11:17:48</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="5" t="n">
@@ -23401,6 +24841,21 @@
           <t>600173.SH; 卧龙地产; 5;  09:58:28; 主板; 4.4; 曾涨停; 5.0%; 1.42H;  09:58:28|| 10:00:40|| 10:04:58|| 10:05:28|| 10:07:55</t>
         </is>
       </c>
+      <c r="BH19" t="inlineStr">
+        <is>
+          <t>300170.SZ; 汉得信息; 7;  09:46:46; 创业板; 19.56; 曾涨停; 20.0%; 2.25H;  09:46:46|| 10:12:30|| 10:13:30|| 11:17:38|| 11:21:38|| 11:27:08|| 14:06:16</t>
+        </is>
+      </c>
+      <c r="BJ19" t="inlineStr">
+        <is>
+          <t>000419.SZ; 通程控股; 1;  10:23:32; 主板; 5.74; 曾涨停; 3.2%; 0.03H;  10:23:32</t>
+        </is>
+      </c>
+      <c r="BK19" t="inlineStr">
+        <is>
+          <t>002153.SZ; 石基信息; 1;  13:00:00; 主板; 7.07; 曾涨停; 7.8%; 0.86H;  13:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="5" t="n">
@@ -23651,6 +25106,21 @@
           <t>000002.SZ; 万科A; 2;  09:59:57; 主板; 7.36; 曾涨停; 7.4%; 0.55H;  09:59:57|| 10:33:30</t>
         </is>
       </c>
+      <c r="BH20" t="inlineStr">
+        <is>
+          <t>002245.SZ; 蔚蓝锂芯; 2;  09:51:09; 主板; 13.07; 曾涨停; 1.6%; 0.08H;  09:51:09|| 09:55:56</t>
+        </is>
+      </c>
+      <c r="BJ20" t="inlineStr">
+        <is>
+          <t>600126.SH; 杭钢股份; 1;  11:09:12; 主板; 5.2; 曾涨停; 5.7%; 0.34H;  11:09:12</t>
+        </is>
+      </c>
+      <c r="BK20" t="inlineStr">
+        <is>
+          <t>300223.SZ; 北京君正; 1;  13:08:42; 创业板; 73.37; 曾涨停; 13.9%; 0.13H;  13:08:42</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="5" t="n">
@@ -23901,6 +25371,21 @@
           <t>000006.SZ; 深振业A; 1;  10:01:42; 主板; 7.58; 曾涨停; 1.3%; 0.27H;  10:01:42</t>
         </is>
       </c>
+      <c r="BH21" t="inlineStr">
+        <is>
+          <t>300840.SZ; 酷特智能; 1;  09:53:09; 创业板; 27.11; 曾涨停; 15.0%; 0.00H;  09:53:09</t>
+        </is>
+      </c>
+      <c r="BJ21" t="inlineStr">
+        <is>
+          <t>002098.SZ; 浔兴股份; 1;  11:19:12; 主板; 8.57; 曾涨停; 5.3%; 0.68H;  11:19:12</t>
+        </is>
+      </c>
+      <c r="BK21" t="inlineStr">
+        <is>
+          <t>002848.SZ; 高斯贝尔; 1;  13:09:21; 主板; 6.03; 曾涨停; 7.1%; 0.02H;  13:09:21</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="5" t="n">
@@ -24141,6 +25626,21 @@
           <t>601010.SH; 文峰股份; 1;  10:06:53; 主板; 2.89; 曾涨停; 6.2%; 0.00H;  10:06:53</t>
         </is>
       </c>
+      <c r="BH22" t="inlineStr">
+        <is>
+          <t>000678.SZ; 襄阳轴承; 1;  10:01:43; 主板; 6.49; 曾涨停; 1.2%; 1.53H;  10:01:43</t>
+        </is>
+      </c>
+      <c r="BJ22" t="inlineStr">
+        <is>
+          <t>002973.SZ; 侨银股份; 1;  14:21:12; 主板; 12.76; 曾涨停; 6.6%; 0.08H;  14:21:12</t>
+        </is>
+      </c>
+      <c r="BK22" t="inlineStr">
+        <is>
+          <t>000681.SZ; 视觉中国; 2;  13:22:24; 主板; 25.35; 曾涨停; 4.8%; 0.00H;  13:22:24|| 13:25:54</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="5" t="n">
@@ -24366,6 +25866,11 @@
           <t>002265.SZ; 建设工业; 2;  11:09:54; 主板; 32.95; 曾涨停; 8.0%; 0.73H;  11:09:54|| 13:22:54</t>
         </is>
       </c>
+      <c r="BH23" t="inlineStr">
+        <is>
+          <t>002583.SZ; 海能达; 1;  10:02:48; 主板; 13.15; 曾涨停; -1.8%; 1.23H;  10:02:48</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="5" t="n">
@@ -24591,6 +26096,11 @@
           <t>002553.SZ; 南方精工; 1;  11:17:33; 主板; 14.8; 曾涨停; 5.3%; 0.01H;  11:17:33</t>
         </is>
       </c>
+      <c r="BH24" t="inlineStr">
+        <is>
+          <t>605018.SH; 长华集团; 1;  10:03:48; 主板; 12.1; 曾涨停; 10.0%; 0.00H;  10:03:48</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="5" t="n">
@@ -24811,6 +26321,11 @@
           <t>002241.SZ; 歌尔股份; 1;  11:22:42; 主板; 27.2; 曾涨停; 8.4%; 0.30H;  11:22:42</t>
         </is>
       </c>
+      <c r="BH25" t="inlineStr">
+        <is>
+          <t>605180.SH; 华生科技; 1;  10:20:17; 主板; 12.85; 曾涨停; 1.8%; 0.08H;  10:20:17</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="5" t="n">
@@ -25016,6 +26531,11 @@
           <t>603341.SH; 龙旗科技; 1;  13:00:15; 主板; 44.4; 曾涨停; 8.1%; 0.02H;  13:00:15</t>
         </is>
       </c>
+      <c r="BH26" t="inlineStr">
+        <is>
+          <t>002691.SZ; 冀凯股份; 7;  10:31:32; 主板; 7.59; 曾涨停; -10.0%; 0.31H;  10:31:32|| 10:33:17|| 10:35:17|| 10:53:31|| 10:54:01|| 10:56:01|| 10:59:16</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="5" t="n">
@@ -25216,6 +26736,11 @@
           <t>002292.SZ; 奥飞娱乐; 1;  13:03:15; 主板; 10.09; 曾涨停; 7.7%; 0.11H;  13:03:15</t>
         </is>
       </c>
+      <c r="BH27" t="inlineStr">
+        <is>
+          <t>301310.SZ; 鑫宏业; 1;  10:43:02; 创业板; 29.6; 曾涨停; -0.1%; 0.60H;  10:43:02</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="5" t="n">
@@ -25401,6 +26926,11 @@
           <t>605058.SH; 澳弘电子; 1;  13:45:45; 主板; 24.2; 曾涨停; 2.7%; 0.01H;  13:45:45</t>
         </is>
       </c>
+      <c r="BH28" t="inlineStr">
+        <is>
+          <t>605488.SH; 福莱新材; 4;  10:45:02; 主板; 33.29; 曾涨停; -2.1%; 0.13H;  10:45:02|| 10:53:46|| 11:05:51|| 11:07:23</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="5" t="n">
@@ -25586,6 +27116,11 @@
           <t>600419.SH; 天润乳业; 2;  13:57:09; 主板; 9.62; 曾涨停; 8.5%; 0.04H;  13:57:09|| 13:59:48</t>
         </is>
       </c>
+      <c r="BH29" t="inlineStr">
+        <is>
+          <t>002645.SZ; 华宏科技; 1;  10:59:01; 主板; 6.88; 曾涨停; -1.0%; 1.05H;  10:59:01</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="5" t="n">
@@ -25766,6 +27301,11 @@
           <t>000021.SZ; 深科技; 1;  13:13:23; 主板; 19.72; 曾涨停; -0.3%; 0.90H;  13:13:23</t>
         </is>
       </c>
+      <c r="BH30" t="inlineStr">
+        <is>
+          <t>002674.SZ; 兴业科技; 1;  11:18:53; 主板; 10.46; 曾涨停; 3.6%; 0.00H;  11:18:53</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="5" t="n">
@@ -25936,6 +27476,11 @@
           <t>002616.SZ; 长青集团; 1;  13:17:31; 主板; 4.92; 曾涨停; 0.2%; 0.01H;  13:17:31</t>
         </is>
       </c>
+      <c r="BH31" t="inlineStr">
+        <is>
+          <t>002921.SZ; 联诚精密; 1;  13:03:07; 主板; 12.31; 曾涨停; 4.1%; 1.07H;  13:03:07</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="5" t="n">
@@ -26086,6 +27631,11 @@
           <t>600396.SH; 华电辽能; 2;  13:38:14; 主板; 2.62; 曾涨停; -1.5%; 0.01H;  13:38:14|| 13:38:48</t>
         </is>
       </c>
+      <c r="BH32" t="inlineStr">
+        <is>
+          <t>001282.SZ; 三联锻造; 1;  13:04:37; 主板; 27.03; 曾涨停; 10.0%; 0.38H;  13:04:37</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="5" t="n">
@@ -26226,6 +27776,11 @@
           <t>600686.SH; 金龙汽车; 1;  13:46:10; 主板; 14.93; 曾涨停; -0.8%; 0.01H;  13:46:10</t>
         </is>
       </c>
+      <c r="BH33" t="inlineStr">
+        <is>
+          <t>603273.SH; 天元智能; 1;  13:18:37; 主板; 17.15; 曾涨停; 0.0%; 0.02H;  13:18:37</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="5" t="n">
@@ -26359,6 +27914,11 @@
       <c r="BE34" t="inlineStr">
         <is>
           <t>300984.SZ; 金沃股份; 4;  14:21:51; 创业板; 61.3; 曾涨停; 5.7%; 0.19H;  14:21:51|| 14:26:32|| 14:27:39|| 14:35:16</t>
+        </is>
+      </c>
+      <c r="BH34" t="inlineStr">
+        <is>
+          <t>002830.SZ; 名雕股份; 1;  14:29:16; 主板; 12.86; 曾涨停; -1.8%; 0.01H;  14:29:16</t>
         </is>
       </c>
     </row>
@@ -28358,7 +29918,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BF128"/>
+  <dimension ref="A1:BK128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28652,6 +30212,31 @@
           <t>2025年01月21日</t>
         </is>
       </c>
+      <c r="BG1" s="5" t="inlineStr">
+        <is>
+          <t>2025年01月22日</t>
+        </is>
+      </c>
+      <c r="BH1" s="5" t="inlineStr">
+        <is>
+          <t>2025年01月23日</t>
+        </is>
+      </c>
+      <c r="BI1" s="5" t="inlineStr">
+        <is>
+          <t>2025年01月24日</t>
+        </is>
+      </c>
+      <c r="BJ1" s="5" t="inlineStr">
+        <is>
+          <t>2025年01月27日</t>
+        </is>
+      </c>
+      <c r="BK1" s="5" t="inlineStr">
+        <is>
+          <t>2025年02月05日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="5" t="n">
@@ -28942,6 +30527,31 @@
           <t>002296.SZ; 辉煌科技; 0;  09:25:00; 首板涨停; 10.34;  09:25:00; 10.0%; 1; 年报预增+轨交设备</t>
         </is>
       </c>
+      <c r="BG2" t="inlineStr">
+        <is>
+          <t>002483.SZ; 润邦股份; 0;  09:30:00; 首板涨停; 5.96;  09:30:00; 1.7%; 1; 年报预增+高端装备+外销</t>
+        </is>
+      </c>
+      <c r="BH2" t="inlineStr">
+        <is>
+          <t>603286.SH; 日盈电子; 0;  09:30:00; 首板涨停; 24.2;  09:30:00; 10.0%; 1; 无人驾驶+高速线束产品+智能座舱</t>
+        </is>
+      </c>
+      <c r="BI2" t="inlineStr">
+        <is>
+          <t>001380.SZ; 华纬科技; 0;  09:31:15; 首板涨停; 25.08;  09:31:15; 10.0%; 1; 机器人+汽车零部件+弹簧</t>
+        </is>
+      </c>
+      <c r="BJ2" t="inlineStr">
+        <is>
+          <t>300766.SZ; 每日互动; 0;  09:30:00; 首板涨停; 24.1;  09:30:00; 20.0%; 1; 幻方合作猜想+营销+数据</t>
+        </is>
+      </c>
+      <c r="BK2" t="inlineStr">
+        <is>
+          <t>000972.SZ; 中基健康; 0;  09:25:00; 首板涨停; 3.31;  09:25:00; 10.0%; 2; 拟购买新业能化100%股权+复牌+番茄</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="n">
@@ -29232,6 +30842,31 @@
           <t>002802.SZ; 洪汇新材; 0;  09:25:00; 首板涨停; 14.07;  09:25:00; 10.0%; 1; 控股股东、实控人拟变更+化工+风电</t>
         </is>
       </c>
+      <c r="BG3" t="inlineStr">
+        <is>
+          <t>605277.SH; 新亚电子; 0;  09:30:30; 首板涨停; 19.94;  09:30:30; 10.0%; 1; 铜缆高速连接+消费电子+新能源</t>
+        </is>
+      </c>
+      <c r="BH3" t="inlineStr">
+        <is>
+          <t>003033.SZ; 征和工业; 0;  09:30:00; 首板涨停; 32.3;  09:30:00; 1.9%; 1; 车辆链+农机+出海</t>
+        </is>
+      </c>
+      <c r="BI3" t="inlineStr">
+        <is>
+          <t>002660.SZ; 茂硕电源; 0;  09:33:15; 首板涨停; 11.28;  09:33:15; 10.0%; 1; 开关电源+充电桩+光伏逆变器+国企改革</t>
+        </is>
+      </c>
+      <c r="BJ3" t="inlineStr">
+        <is>
+          <t>000818.SZ; 航锦科技; 0;  09:30:00; 首板涨停; 16.79;  09:30:00; 10.0%; 1; 算力+幻方合作+英伟达+国企</t>
+        </is>
+      </c>
+      <c r="BK3" t="inlineStr">
+        <is>
+          <t>601360.SH; 三六零; 0;  09:25:00; 首板涨停; 12.21;  09:25:00; 10.0%; 1; DeepSeek概念+纳米AI搜索</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="5" t="n">
@@ -29522,6 +31157,31 @@
           <t>300422.SZ; 博世科; 0;  09:25:00; 首板涨停; 5.32;  09:25:00; 20.1%; 1; 实控人拟变更为广西国资委+污水处理</t>
         </is>
       </c>
+      <c r="BG4" t="inlineStr">
+        <is>
+          <t>605162.SH; 新中港; 1;  09:35:04; 首板涨停; 7.1;  09:32:45; -10.0%; 1; 电力+虚拟电厂+碳交易+稳定分红</t>
+        </is>
+      </c>
+      <c r="BH4" t="inlineStr">
+        <is>
+          <t>603915.SH; 国茂股份; 0;  09:30:30; 首板涨停; 15.08;  09:30:30; 7.2%; 1; 减速机+人形机器人</t>
+        </is>
+      </c>
+      <c r="BI4" t="inlineStr">
+        <is>
+          <t>002599.SZ; 盛通股份; 2;  09:35:15; 首板涨停; 8.12;  09:30:30; 10.0%; 1; 人形机器人+宇树科技合作+教育+鸿蒙</t>
+        </is>
+      </c>
+      <c r="BJ4" t="inlineStr">
+        <is>
+          <t>003005.SZ; 竞业达; 0;  09:30:00; 首板涨停; 32.42;  09:30:00; 10.0%; 1; 年报预增+智慧城市+AI教育</t>
+        </is>
+      </c>
+      <c r="BK4" t="inlineStr">
+        <is>
+          <t>600126.SH; 杭钢股份; 0;  09:25:01; 首板涨停; 5.72;  09:25:01; 10.0%; 1; DeepSeek概念+云计算+钢铁+浙江国资</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="n">
@@ -29812,6 +31472,31 @@
           <t>600558.SH; 大西洋; 0;  09:25:04; 首板涨停; 4.49;  09:25:04; 10.0%; 1; 年报预增+核电+焊接材料+国企</t>
         </is>
       </c>
+      <c r="BG5" t="inlineStr">
+        <is>
+          <t>000586.SZ; 汇源通信; 1;  09:39:21; 首板涨停; 10.23;  09:31:00; -10.0%; 1; 电力光缆+光模块+显芯科技注入猜测（公司已澄清）</t>
+        </is>
+      </c>
+      <c r="BH5" t="inlineStr">
+        <is>
+          <t>600622.SH; 光大嘉宝; 0;  09:34:15; 首板涨停; 3.07;  09:34:15; -5.0%; 1; 房地产+AMC+上海+央企</t>
+        </is>
+      </c>
+      <c r="BI5" t="inlineStr">
+        <is>
+          <t>002364.SZ; 中恒电气; 0;  09:40:30; 首板涨停; 14.34;  09:40:30; 10.0%; 1; 数据中心+字节+电源系统+液冷超充</t>
+        </is>
+      </c>
+      <c r="BJ5" t="inlineStr">
+        <is>
+          <t>000532.SZ; 华金资本; 0;  09:30:00; 首板涨停; 14.62;  09:30:00; 10.0%; 1; 参与DeepSeek融资+多元金融+珠海国资</t>
+        </is>
+      </c>
+      <c r="BK5" t="inlineStr">
+        <is>
+          <t>002313.SZ; 日海智能; 0;  09:30:42; 首板涨停; 9.19;  09:30:42; 10.1%; 1; 机器人+无线通信模组产品+数据中心+控股股东变更</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="5" t="n">
@@ -30102,6 +31787,31 @@
           <t>002546.SZ; 新联电子; 0;  09:30:03; 首板涨停; 4.87;  09:30:03; 9.9%; 1; 年报预增+电力柜+智能用电云服务+高股息</t>
         </is>
       </c>
+      <c r="BG6" t="inlineStr">
+        <is>
+          <t>002852.SZ; 道道全; 1;  09:39:21; 首板涨停; 8.24;  09:30:15; -2.5%; 1; 年报预增+食用植物油</t>
+        </is>
+      </c>
+      <c r="BH6" t="inlineStr">
+        <is>
+          <t>603729.SH; 龙韵股份; 0;  09:36:15; 首板涨停; 16.91;  09:36:15; 10.0%; 1; 年报预增+营销+抖音概念+MCN机构</t>
+        </is>
+      </c>
+      <c r="BI6" t="inlineStr">
+        <is>
+          <t>301248.SZ; 杰创智能; 1;  09:41:30; 首板涨停; 18.54;  09:37:30; 20.0%; 1; AI应用+云计算</t>
+        </is>
+      </c>
+      <c r="BJ6" t="inlineStr">
+        <is>
+          <t>600120.SH; 浙江东方; 0;  09:30:00; 首板涨停; 5.09;  09:30:00; 9.9%; 1; 年报预增+DeepSeek+拟收购银行股份+浙江国企</t>
+        </is>
+      </c>
+      <c r="BK6" t="inlineStr">
+        <is>
+          <t>002261.SZ; 拓维信息; 0;  09:30:48; 首板涨停; 18.57;  09:30:48; 10.0%; 1; 昇腾大模型一体机+鸿蒙+信创</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="n">
@@ -30392,6 +32102,31 @@
           <t>603188.SH; 亚邦股份; 0;  09:31:27; 首板涨停; 3.86;  09:31:27; 10.0%; 1; 实控人拟变更为武进国资办+农药+染料</t>
         </is>
       </c>
+      <c r="BG7" t="inlineStr">
+        <is>
+          <t>002771.SZ; 真视通; 3;  09:39:21; 首板涨停; 17.28;  09:35:04; -1.0%; 1; 年报预增+华为昇腾合作+算力+视频</t>
+        </is>
+      </c>
+      <c r="BH7" t="inlineStr">
+        <is>
+          <t>601869.SH; 长飞光纤; 0;  09:36:30; 首板涨停; 38.35;  09:36:30; 10.0%; 1; 拟收购奔腾激光控制权+铜缆+CPO+光纤</t>
+        </is>
+      </c>
+      <c r="BI7" t="inlineStr">
+        <is>
+          <t>002642.SZ; 荣联科技; 1;  09:46:30; 首板涨停; 7.57;  09:32:00; 10.0%; 1; 年报预增+云计算+AI医疗+国企</t>
+        </is>
+      </c>
+      <c r="BJ7" t="inlineStr">
+        <is>
+          <t>600300.SH; 维维股份; 0;  09:30:00; 首板涨停; 3.29;  09:30:00; 10.0%; 1; 年报预增+豆奶+国企</t>
+        </is>
+      </c>
+      <c r="BK7" t="inlineStr">
+        <is>
+          <t>300287.SZ; 飞利信; 0;  09:30:57; 首板涨停; 5.68;  09:30:57; 20.1%; 1; 会议音视频+算力+国产版“谷歌地球”</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="5" t="n">
@@ -30682,6 +32417,31 @@
           <t>605018.SH; 长华集团; 0;  09:34:18; 首板涨停; 10.81;  09:34:18; 10.0%; 1; 碳陶刹车系统+汽车零部件+机器人相关+飞行汽车</t>
         </is>
       </c>
+      <c r="BG8" t="inlineStr">
+        <is>
+          <t>605389.SH; 长龄液压; 0;  09:47:25; 首板涨停; 25.52;  09:47:25; -2.7%; 1; 机器人+减速器+光伏+液压元件</t>
+        </is>
+      </c>
+      <c r="BH8" t="inlineStr">
+        <is>
+          <t>600851.SH; 海欣股份; 0;  09:39:00; 首板涨停; 6.4;  09:39:00; -1.5%; 1; 参股券商+创新药+物业管理+服装纺织</t>
+        </is>
+      </c>
+      <c r="BI8" t="inlineStr">
+        <is>
+          <t>605069.SH; 正和生态; 0;  09:53:31; 首板涨停; 7.71;  09:53:31; 10.0%; 1; 智谱合作+生态保护</t>
+        </is>
+      </c>
+      <c r="BJ8" t="inlineStr">
+        <is>
+          <t>603880.SH; 南卫股份; 0;  09:31:30; 首板涨停; 4.84;  09:31:30; 10.0%; 1; 医疗器械+摘帽</t>
+        </is>
+      </c>
+      <c r="BK8" t="inlineStr">
+        <is>
+          <t>002123.SZ; 梦网科技; 0;  09:31:51; 首板涨停; 11.73;  09:31:51; 10.0%; 1; DeepSeek概念+拟收购碧橙数字控制权+云通信</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="n">
@@ -30972,6 +32732,31 @@
           <t>600579.SH; 克劳斯; 0;  09:39:00; 首板涨停; 9.26;  09:39:00; 10.0%; 1; 机器人+重大资产重组+专用设备+央企</t>
         </is>
       </c>
+      <c r="BG9" t="inlineStr">
+        <is>
+          <t>001208.SZ; 华菱线缆; 1;  09:47:25; 首板涨停; 9.71;  09:33:00; -1.7%; 1; 特种专用电缆+商业航天+国企</t>
+        </is>
+      </c>
+      <c r="BH9" t="inlineStr">
+        <is>
+          <t>600371.SH; 万向德农; 1;  09:47:46; 首板涨停; 8.65;  09:35:30; -4.1%; 1; 农业种植+转基因+万向系</t>
+        </is>
+      </c>
+      <c r="BI9" t="inlineStr">
+        <is>
+          <t>002536.SZ; 飞龙股份; 1;  09:57:31; 首板涨停; 14.63;  09:44:15; 10.0%; 1; 液冷服务器+汽车热管理+华为</t>
+        </is>
+      </c>
+      <c r="BJ9" t="inlineStr">
+        <is>
+          <t>600191.SH; 华资实业; 0;  09:32:15; 首板涨停; 8.29;  09:32:15; 9.9%; 1; 参股券商+参股银行+农产品加工+代糖</t>
+        </is>
+      </c>
+      <c r="BK9" t="inlineStr">
+        <is>
+          <t>300229.SZ; 拓尔思; 0;  09:32:15; 首板涨停; 26.53;  09:32:15; 20.0%; 1; 与DeepSeek联合开发+大模型+AI语料</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="5" t="n">
@@ -31262,6 +33047,31 @@
           <t>600858.SH; 银座股份; 1;  09:42:59; 首板涨停; 6.53;  09:33:05; 9.9%; 1; 零售+抖音+养老+黄金概念</t>
         </is>
       </c>
+      <c r="BG10" t="inlineStr">
+        <is>
+          <t>002148.SZ; 北纬科技; 0;  09:49:33; 首板涨停; 6.97;  09:49:33; 0.1%; 1; 四足机器人+低空经济+物联网+芯片概念</t>
+        </is>
+      </c>
+      <c r="BH10" t="inlineStr">
+        <is>
+          <t>603021.SH; 山东华鹏; 0;  09:53:39; 首板涨停; 3.93;  09:53:39; -6.2%; 1; 重组公司（现已终止）曾有HBM上游材料+日用玻璃</t>
+        </is>
+      </c>
+      <c r="BI10" t="inlineStr">
+        <is>
+          <t>003040.SZ; 楚天龙; 1;  10:10:31; 首板涨停; 14.1;  10:09:46; 10.0%; 1; AI智能体+智能卡</t>
+        </is>
+      </c>
+      <c r="BJ10" t="inlineStr">
+        <is>
+          <t>600758.SH; 辽宁能源; 0;  09:33:47; 首板涨停; 3.61;  09:33:47; 10.1%; 1; 年报预增+煤炭+电力+国企改革</t>
+        </is>
+      </c>
+      <c r="BK10" t="inlineStr">
+        <is>
+          <t>002137.SZ; 实益达; 0;  09:32:21; 首板涨停; 8.23;  09:32:21; 10.0%; 1; 间接投资宇树科技+微信营销+智能终端+先进封装</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="5" t="n">
@@ -31552,6 +33362,31 @@
           <t>000620.SZ; 新华联; 0;  09:49:03; 首板涨停; 2.07;  09:49:03; 10.1%; 1; 房地产+文旅+虚拟现实+低价股</t>
         </is>
       </c>
+      <c r="BG11" t="inlineStr">
+        <is>
+          <t>603308.SH; 应流股份; 1;  10:06:30; 首板涨停; 22.04;  09:34:34; 8.0%; 1; 核电+无人机+机械设备+燃气轮机</t>
+        </is>
+      </c>
+      <c r="BH11" t="inlineStr">
+        <is>
+          <t>001267.SZ; 汇绿生态; 0;  09:58:58; 首板涨停; 9.76;  09:58:58; -3.3%; 1; 跨界收购+光模块+园林工程</t>
+        </is>
+      </c>
+      <c r="BI11" t="inlineStr">
+        <is>
+          <t>300608.SZ; 思特奇; 0;  10:13:16; 首板涨停; 11.89;  10:13:16; 20.0%; 1; AI智能体+数字经济</t>
+        </is>
+      </c>
+      <c r="BJ11" t="inlineStr">
+        <is>
+          <t>002047.SZ; 宝鹰股份; 1;  09:40:53; 首板涨停; 2.61;  09:38:06; 10.1%; 1; 剥离宝鹰建设+AI眼镜+建筑装饰+珠海国资</t>
+        </is>
+      </c>
+      <c r="BK11" t="inlineStr">
+        <is>
+          <t>002067.SZ; 景兴纸业; 0;  09:35:18; 首板涨停; 3.83;  09:35:18; 10.1%; 1; 间接投资宇树科技+机器人+造纸</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="5" t="n">
@@ -31842,6 +33677,31 @@
           <t>002358.SZ; 森源电气; 2;  09:53:12; 首板涨停; 5.3;  09:42:42; 10.0%; 1; 输变电设备+清洁能源+数据中心+河南国资</t>
         </is>
       </c>
+      <c r="BG12" t="inlineStr">
+        <is>
+          <t>000837.SZ; 秦川机床; 0;  10:12:00; 首板涨停; 10.27;  10:12:00; 0.2%; 1; 机器人+工业母机+国企改革</t>
+        </is>
+      </c>
+      <c r="BH12" t="inlineStr">
+        <is>
+          <t>002398.SZ; 垒知集团; 0;  10:17:15; 首板涨停; 5.06;  10:17:15; 10.0%; 1; 房屋结构鉴定及加固+AIGC+汽车检测+建筑材料</t>
+        </is>
+      </c>
+      <c r="BI12" t="inlineStr">
+        <is>
+          <t>300170.SZ; 汉得信息; 0;  10:17:32; 首板涨停; 19.56;  10:17:32; 20.0%; 1; AI智能体+字节+ERP</t>
+        </is>
+      </c>
+      <c r="BJ12" t="inlineStr">
+        <is>
+          <t>000668.SZ; 荣丰控股; 0;  09:44:23; 首板涨停; 6.11;  09:44:23; 10.1%; 1; 房地产+跨境物流+网络直播+医疗器械（已剥离）</t>
+        </is>
+      </c>
+      <c r="BK12" t="inlineStr">
+        <is>
+          <t>600589.SH; 大位科技; 0;  09:35:26; 首板涨停; 3.85;  09:35:26; 10.0%; 1; 数据中心+拟公开挂牌转让部分资产+完成重整</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="5" t="n">
@@ -32132,6 +33992,31 @@
           <t>300638.SZ; 广和通; 4;  10:09:54; 首板涨停; 28.69;  09:31:33; 20.0%; 1; AI玩具大模型解决方案+机器人概念+端侧AI+无线通信模块</t>
         </is>
       </c>
+      <c r="BG13" t="inlineStr">
+        <is>
+          <t>002453.SZ; 华软科技; 1;  10:12:30; 首板涨停; 5.62;  10:11:00; -1.4%; 1; 光刻胶+精细化工+保健品</t>
+        </is>
+      </c>
+      <c r="BH13" t="inlineStr">
+        <is>
+          <t>002816.SZ; 和科达; 0;  10:27:32; 首板涨停; 13.2;  10:27:32; 10.0%; 1; 半导体清洗+阜阳国资入主+污水处理</t>
+        </is>
+      </c>
+      <c r="BI13" t="inlineStr">
+        <is>
+          <t>002865.SZ; 钧达股份; 2;  10:17:32; 首板涨停; 58.17;  09:59:31; 10.0%; 1; 光伏电池+TOPCon+钙钛矿电池</t>
+        </is>
+      </c>
+      <c r="BJ13" t="inlineStr">
+        <is>
+          <t>002549.SZ; 凯美特气; 0;  09:45:57; 首板涨停; 6.44;  09:45:57; 10.1%; 1; 光刻胶+节能环保+氢能源</t>
+        </is>
+      </c>
+      <c r="BK13" t="inlineStr">
+        <is>
+          <t>600602.SH; 云赛智联; 1;  09:36:05; 首板涨停; 14.96;  09:25:02; 10.0%; 1; 算力+微软+上海国资</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="5" t="n">
@@ -32422,6 +34307,31 @@
           <t>002514.SZ; 宝馨科技; 1;  10:21:45; 首板涨停; 8.43;  09:40:30; 10.1%; 1; 钙钛矿电池+液冷超充+华为+设立半导体合资公司</t>
         </is>
       </c>
+      <c r="BG14" t="inlineStr">
+        <is>
+          <t>603803.SH; 瑞斯康达; 3;  10:18:15; 首板涨停; 11.09;  10:10:45; 0.0%; 1; 光通信+算力+ASIC芯片</t>
+        </is>
+      </c>
+      <c r="BH14" t="inlineStr">
+        <is>
+          <t>603089.SH; 正裕工业; 0;  10:36:32; 首板涨停; 10.67;  10:36:32; 0.4%; 1; 汽车零部件+外销</t>
+        </is>
+      </c>
+      <c r="BI14" t="inlineStr">
+        <is>
+          <t>600734.SH; 实达集团; 2;  10:24:32; 首板涨停; 3.93;  10:18:47; 10.1%; 1; AI智能体+资产注入预期+国企</t>
+        </is>
+      </c>
+      <c r="BJ14" t="inlineStr">
+        <is>
+          <t>002760.SZ; 凤形股份; 0;  09:48:04; 首板涨停; 16.98;  09:48:04; 10.0%; 1; 特种电机+数据中心+军工+耐磨材料</t>
+        </is>
+      </c>
+      <c r="BK14" t="inlineStr">
+        <is>
+          <t>600797.SH; 浙大网新; 1;  09:39:00; 首板涨停; 7.3;  09:32:20; 9.9%; 1; 云计算+蚂蚁金服合作+字节</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="5" t="n">
@@ -32707,6 +34617,31 @@
           <t>603719.SH; 良品铺子; 3;  10:29:51; 首板涨停; 16.93;  10:18:00; 10.0%; 1; 休闲食品+电商</t>
         </is>
       </c>
+      <c r="BG15" t="inlineStr">
+        <is>
+          <t>603045.SH; 福达合金; 0;  10:19:45; 首板涨停; 15.33;  10:19:45; -0.7%; 1; 电接触材料+数据中心+风光储</t>
+        </is>
+      </c>
+      <c r="BH15" t="inlineStr">
+        <is>
+          <t>603687.SH; 大胜达; 0;  11:10:23; 首板涨停; 7.89;  11:10:23; 2.1%; 1; 机器人+AI包装设计师+钙钛矿电池+纸包装产品</t>
+        </is>
+      </c>
+      <c r="BI15" t="inlineStr">
+        <is>
+          <t>600588.SH; 用友网络; 0;  10:25:02; 首板涨停; 10.9;  10:25:02; 10.0%; 1; AI应用+业绩落地+ERP龙头</t>
+        </is>
+      </c>
+      <c r="BJ15" t="inlineStr">
+        <is>
+          <t>002667.SZ; 威领股份; 1;  09:58:51; 首板涨停; 9.52;  09:35:51; 10.1%; 1; 锂矿+股份转让</t>
+        </is>
+      </c>
+      <c r="BK15" t="inlineStr">
+        <is>
+          <t>603918.SH; 金桥信息; 0;  09:45:12; 首板涨停; 14.11;  09:45:12; 10.0%; 1; 智慧法院+蚂蚁+化债(AMC概念）</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="5" t="n">
@@ -32992,6 +34927,31 @@
           <t>603332.SH; 苏州龙杰; 0;  10:49:45; 首板涨停; 9.8;  10:49:45; 10.0%; 1; 化纤</t>
         </is>
       </c>
+      <c r="BG16" t="inlineStr">
+        <is>
+          <t>300996.SZ; 普联软件; 0;  10:36:48; 首板涨停; 22.84;  10:36:48; 3.3%; 1; 年报预增+财税数字化+信创</t>
+        </is>
+      </c>
+      <c r="BH16" t="inlineStr">
+        <is>
+          <t>002420.SZ; 毅昌科技; 1;  13:09:52; 首板涨停; 5.89;  10:44:32; -4.5%; 1; 年报预增+新能源汽车+液冷+医疗器械</t>
+        </is>
+      </c>
+      <c r="BI16" t="inlineStr">
+        <is>
+          <t>603779.SH; 威龙股份; 0;  10:25:32; 首板涨停; 7.65;  10:25:32; 10.1%; 1; 年报预计扭亏为盈+葡萄酒+农业种植</t>
+        </is>
+      </c>
+      <c r="BJ16" t="inlineStr">
+        <is>
+          <t>600261.SH; 阳光照明; 2;  09:59:51; 首板涨停; 3.55;  09:33:47; 9.9%; 1; 持有幻方产品+照明电器+高股息+外销</t>
+        </is>
+      </c>
+      <c r="BK16" t="inlineStr">
+        <is>
+          <t>605299.SH; 舒华体育; 0;  09:46:52; 首板涨停; 8.97;  09:46:52; 10.1%; 1; 健身器材+冰雪产业+跨境电商</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="5" t="n">
@@ -33272,6 +35232,31 @@
           <t>000820.SZ; 神雾节能; 7;  10:55:00; 首板涨停; 3.99;  09:51:39; 9.9%; 1; 子公司签10亿元大单+环保+钢铁</t>
         </is>
       </c>
+      <c r="BG17" t="inlineStr">
+        <is>
+          <t>600410.SH; 华胜天成; 0;  10:42:11; 首板涨停; 8.81;  10:42:11; 10.0%; 1; 华为昇腾+字节+AI应用</t>
+        </is>
+      </c>
+      <c r="BH17" t="inlineStr">
+        <is>
+          <t>600463.SH; 空港股份; 0;  13:10:07; 首板涨停; 9.48;  13:10:07; -3.6%; 1; 房地产+临空型园区+曾拟重组+北京国资</t>
+        </is>
+      </c>
+      <c r="BI17" t="inlineStr">
+        <is>
+          <t>300654.SZ; 世纪天鸿; 0;  10:28:17; 首板涨停; 12.06;  10:28:17; 20.0%; 1; AI智能体+AI教育+出版</t>
+        </is>
+      </c>
+      <c r="BJ17" t="inlineStr">
+        <is>
+          <t>600807.SH; 济高发展; 10;  10:07:28; 首板涨停; 2.82;  09:31:30; 10.2%; 1; 资产注入猜测+体外诊断+济南国资</t>
+        </is>
+      </c>
+      <c r="BK17" t="inlineStr">
+        <is>
+          <t>002421.SZ; 达实智能; 1;  09:50:54; 首板涨停; 3.53;  09:44:03; 10.0%; 1; 机器人+卫星通信+物联网+一带一路</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="5" t="n">
@@ -33552,6 +35537,31 @@
           <t>301199.SZ; 迈赫股份; 0;  11:18:24; 首板涨停; 35.99;  11:18:24; 20.0%; 1; 机器人+物联网</t>
         </is>
       </c>
+      <c r="BG18" t="inlineStr">
+        <is>
+          <t>001389.SZ; 广合科技; 0;  10:55:16; 首板涨停; 61.52;  10:55:16; -2.2%; 1; 服务器PCB+AIPC+次新</t>
+        </is>
+      </c>
+      <c r="BH18" t="inlineStr">
+        <is>
+          <t>603135.SH; 中重科技; 0;  13:13:22; 首板涨停; 9.41;  13:13:22; -3.0%; 1; 机器人+智能制造装备</t>
+        </is>
+      </c>
+      <c r="BI18" t="inlineStr">
+        <is>
+          <t>001330.SZ; 博纳影业; 0;  10:31:17; 首板涨停; 6.23;  10:31:17; 10.1%; 1; 影视院线+AIGC+抖音概念</t>
+        </is>
+      </c>
+      <c r="BJ18" t="inlineStr">
+        <is>
+          <t>600793.SH; 宜宾纸业; 5;  10:28:02; 首板涨停; 20.9;  09:34:02; 10.0%; 1; 拟收购醋纤公司67%股权+造纸+国企</t>
+        </is>
+      </c>
+      <c r="BK18" t="inlineStr">
+        <is>
+          <t>000004.SZ; 国华网安; 0;  09:56:57; 首板涨停; 11.45;  09:56:57; 10.0%; 1; 网络安全+鸿蒙+国产适配</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="5" t="n">
@@ -33827,6 +35837,31 @@
           <t>002196.SZ; 方正电机; 0;  13:09:42; 首板涨停; 6.24;  13:09:42; 10.1%; 1; 电机+机器人+国企</t>
         </is>
       </c>
+      <c r="BG19" t="inlineStr">
+        <is>
+          <t>603191.SH; 望变电气; 1;  10:56:01; 首板涨停; 14.09;  10:36:48; -1.0%; 1; 变压器+取向硅钢+数据中心等领域应用</t>
+        </is>
+      </c>
+      <c r="BH19" t="inlineStr">
+        <is>
+          <t>002757.SZ; 南兴股份; 1;  13:29:31; 首板涨停; 16.95;  09:36:45; 10.0%; 1; 云计算+AIGC+板式家具设备</t>
+        </is>
+      </c>
+      <c r="BI19" t="inlineStr">
+        <is>
+          <t>603039.SH; 泛微网络; 1;  10:39:32; 首板涨停; 53.64;  10:05:31; 10.0%; 1; AI应用+信创+办公软件+上海</t>
+        </is>
+      </c>
+      <c r="BJ19" t="inlineStr">
+        <is>
+          <t>301512.SZ; 智信精密; 2;  10:58:12; 首板涨停; 45;  10:16:02; 20.0%; 1; 自动化设备+机器人+消费电子+苹果</t>
+        </is>
+      </c>
+      <c r="BK19" t="inlineStr">
+        <is>
+          <t>603021.SH; 山东华鹏; 0;  09:59:45; 首板涨停; 4.1;  09:59:45; 9.9%; 1; 重组公司（现已终止）曾有HBM上游材料+日用玻璃</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="5" t="n">
@@ -34102,6 +36137,31 @@
           <t>601689.SH; 拓普集团; 0;  13:11:02; 首板涨停; 62.18;  13:11:02; 10.0%; 1; 特斯拉+机器人+汽车零部件</t>
         </is>
       </c>
+      <c r="BG20" t="inlineStr">
+        <is>
+          <t>605060.SH; 联德股份; 2;  13:02:16; 首板涨停; 22.12;  10:49:46; 10.0%; 1; 压缩机+数据中心+出海</t>
+        </is>
+      </c>
+      <c r="BH20" t="inlineStr">
+        <is>
+          <t>002912.SZ; 中新赛克; 0;  13:43:16; 首板涨停; 25.55;  13:43:16; -2.1%; 1; 网络安全+数据要素+诈骗防范分析系统+深圳国资</t>
+        </is>
+      </c>
+      <c r="BI20" t="inlineStr">
+        <is>
+          <t>002315.SZ; 焦点科技; 0;  10:40:47; 首板涨停; 48.3;  10:40:47; 10.0%; 1; AI麦可+跨境电商+跨境支付</t>
+        </is>
+      </c>
+      <c r="BJ20" t="inlineStr">
+        <is>
+          <t>603068.SH; 博通集成; 1;  11:07:57; 首板涨停; 40.47;  09:39:51; 10.0%; 1; 携手豆包赋能奥嘟比AI智能套件+无线连接芯片</t>
+        </is>
+      </c>
+      <c r="BK20" t="inlineStr">
+        <is>
+          <t>300251.SZ; 光线传媒; 12;  10:08:30; 首板涨停; 11.44;  09:25:00; 20.0%; 1; 《哪吒2》制霸春节档</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="5" t="n">
@@ -34377,6 +36437,31 @@
           <t>603211.SH; 晋拓股份; 1;  13:48:20; 首板涨停; 17.89;  13:34:05; 10.0%; 1; 机器人+无人驾驶+汽车零部件+特斯拉</t>
         </is>
       </c>
+      <c r="BG21" t="inlineStr">
+        <is>
+          <t>002718.SZ; 友邦吊顶; 0;  13:04:16; 首板涨停; 15.43;  13:04:16; -10.0%; 1; 智能家居+集成吊顶+电子商务</t>
+        </is>
+      </c>
+      <c r="BH21" t="inlineStr">
+        <is>
+          <t>002896.SZ; 中大力德; 5;  14:12:16; 首板涨停; 54.21;  10:06:27; 10.0%; 1; 机器人+减速器+电机</t>
+        </is>
+      </c>
+      <c r="BI21" t="inlineStr">
+        <is>
+          <t>002881.SZ; 美格智能; 1;  10:44:47; 首板涨停; 36.58;  09:46:00; 10.0%; 1; 年报预增+AI眼镜+端侧算力+车联网</t>
+        </is>
+      </c>
+      <c r="BJ21" t="inlineStr">
+        <is>
+          <t>002380.SZ; 科远智慧; 2;  11:10:42; 首板涨停; 20.7;  09:30:45; 10.0%; 1; 年报预增+热工自动化+电厂信息化</t>
+        </is>
+      </c>
+      <c r="BK21" t="inlineStr">
+        <is>
+          <t>002819.SZ; 东方中科; 3;  10:12:09; 首板涨停; 28.79;  09:48:57; 10.0%; 1; 网络安全+华为鸿蒙+车联网+中科系</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="5" t="n">
@@ -34652,6 +36737,31 @@
           <t>600865.SH; 百大集团; 0;  13:52:55; 首板涨停; 9.91;  13:52:55; 10.0%; 1; 零售+物业管理+资产注入预期+股票投资</t>
         </is>
       </c>
+      <c r="BG22" t="inlineStr">
+        <is>
+          <t>605118.SH; 力鼎光电; 2;  14:04:17; 首板涨停; 18.73;  09:49:33; 0.8%; 1; AI眼镜+光学镜头+外销</t>
+        </is>
+      </c>
+      <c r="BH22" t="inlineStr">
+        <is>
+          <t>600184.SH; 光电股份; 2;  14:26:16; 首板涨停; 10.72;  09:55:56; -0.8%; 1; 光通信材料+军工+中兵系</t>
+        </is>
+      </c>
+      <c r="BI22" t="inlineStr">
+        <is>
+          <t>603305.SH; 旭升集团; 1;  10:51:47; 首板涨停; 16.62;  10:32:47; 10.0%; 1; 特斯拉+汽车零部件+出海</t>
+        </is>
+      </c>
+      <c r="BJ22" t="inlineStr">
+        <is>
+          <t>002112.SZ; 三变科技; 4;  13:15:27; 首板涨停; 13.99;  09:30:30; 10.0%; 1; 电力设备+光伏+风电+国企</t>
+        </is>
+      </c>
+      <c r="BK22" t="inlineStr">
+        <is>
+          <t>603728.SH; 鸣志电器; 0;  10:12:48; 首板涨停; 68.55;  10:12:48; 10.0%; 1; 人形机器人+电机+外销</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="5" t="n">
@@ -34922,6 +37032,31 @@
           <t>002117.SZ; 东港股份; 3;  14:06:42; 首板涨停; 13.16;  10:50:15; 10.0%; 1; 算力+智能机器人+金融企业客户</t>
         </is>
       </c>
+      <c r="BG23" t="inlineStr">
+        <is>
+          <t>000627.SZ; 天茂集团; 13;  14:13:32; 首板涨停; 4.21;  13:15:31; -2.8%; 1; 保险+养老+参股券商</t>
+        </is>
+      </c>
+      <c r="BH23" t="inlineStr">
+        <is>
+          <t>601727.SH; 上海电气; 3;  14:26:31; 首板涨停; 7.74;  09:54:26; -1.0%; 1; 灵巧手+电力设备+拟收购宁笙实业100%股权+上海国资</t>
+        </is>
+      </c>
+      <c r="BI23" t="inlineStr">
+        <is>
+          <t>300479.SZ; 神思电子; 2;  10:58:49; 首板涨停; 20.41;  09:31:45; 20.0%; 1; 年报预增+人工智能+数字货币+国企</t>
+        </is>
+      </c>
+      <c r="BJ23" t="inlineStr">
+        <is>
+          <t>603636.SH; 南威软件; 4;  13:34:12; 首板涨停; 12.47;  09:30:00; 10.0%; 1; AI智能体+电子政务+华为</t>
+        </is>
+      </c>
+      <c r="BK23" t="inlineStr">
+        <is>
+          <t>002031.SZ; 巨轮智能; 0;  10:20:24; 首板涨停; 6.75;  10:20:24; 9.9%; 1; 人形机器人+XT减速器+轮胎模具</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="5" t="n">
@@ -35187,6 +37322,31 @@
           <t>301000.SZ; 肇民科技; 0;  14:10:09; 首板涨停; 37.79;  14:10:09; 20.0%; 1; 人形机器人+PEEK材料+汽车零部件+精密注塑件</t>
         </is>
       </c>
+      <c r="BG24" t="inlineStr">
+        <is>
+          <t>601138.SH; 工业富联; 13;  14:22:32; 首板涨停; 23.35;  10:45:31; 1.5%; 1; AI服务器+英伟达供应链</t>
+        </is>
+      </c>
+      <c r="BH24" t="inlineStr">
+        <is>
+          <t>002945.SZ; 华林证券; 3;  14:53:07; 首板涨停; 15.83;  09:37:45; -3.2%; 1; 年报预增+证券+字节+创投</t>
+        </is>
+      </c>
+      <c r="BI24" t="inlineStr">
+        <is>
+          <t>603859.SH; 能科科技; 0;  11:03:49; 首板涨停; 35.86;  11:03:49; 10.0%; 1; AI Agent+算力+军工信息化+数字化解决方案</t>
+        </is>
+      </c>
+      <c r="BJ24" t="inlineStr">
+        <is>
+          <t>002256.SZ; 兆新股份; 1;  14:25:12; 首板涨停; 2.42;  13:43:27; 10.0%; 1; 投资人工智能机器人公司+锂电原料+光伏发电</t>
+        </is>
+      </c>
+      <c r="BK24" t="inlineStr">
+        <is>
+          <t>002843.SZ; 泰嘉股份; 6;  10:45:27; 首板涨停; 26.72;  09:35:54; 10.0%; 1; 数据中心电源+智能终端充电电源</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="5" t="n">
@@ -35452,6 +37612,31 @@
           <t>603155.SH; 新亚强; 0;  14:24:23; 首板涨停; 14.4;  14:24:23; 10.0%; 1; 芯片概念+有机硅+功能性助剂产品</t>
         </is>
       </c>
+      <c r="BG25" t="inlineStr">
+        <is>
+          <t>605398.SH; 新炬网络; 0;  14:51:17; 首板涨停; 25.38;  14:51:17; 10.0%; 1; 数据中心+智慧运维+华为鲲鹏+信创</t>
+        </is>
+      </c>
+      <c r="BH25" t="inlineStr">
+        <is>
+          <t>000573.SZ; 粤宏远A; 1;  14:54:26; 首板涨停; 5.33;  14:53:25; 4.1%; 1; 拟购买博创智能约60%股份+向高端装备制造领域转型+房地产</t>
+        </is>
+      </c>
+      <c r="BI25" t="inlineStr">
+        <is>
+          <t>600345.SH; 长江通信; 0;  11:18:19; 首板涨停; 24.07;  11:18:19; 10.0%; 1; 光纤+卫星导航+股权转让+央企</t>
+        </is>
+      </c>
+      <c r="BJ25" t="inlineStr">
+        <is>
+          <t>000042.SZ; 中洲控股; 0;  14:27:42; 首板涨停; 4.87;  14:27:42; 9.9%; 1; 房地产+粤港澳大湾区</t>
+        </is>
+      </c>
+      <c r="BK25" t="inlineStr">
+        <is>
+          <t>603988.SH; 中电电机; 0;  10:46:23; 首板涨停; 21.9;  10:46:23; 10.0%; 1; 电动机+风电+实控人此前变更</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="5" t="n">
@@ -35717,6 +37902,26 @@
           <t>003021.SZ; 兆威机电; 2;  14:43:48; 首板涨停; 104.96;  14:25:18; 10.0%; 1; 人形机器人+灵巧手+减速器+MR</t>
         </is>
       </c>
+      <c r="BH26" t="inlineStr">
+        <is>
+          <t>603278.SH; 大业股份; 5;  14:55:26; 首板涨停; 9.37;  10:48:04; -3.0%; 1; 灵巧手+轮胎+拟投建摩洛哥生产基地</t>
+        </is>
+      </c>
+      <c r="BI26" t="inlineStr">
+        <is>
+          <t>300378.SZ; 鼎捷数智; 0;  11:18:49; 首板涨停; 32.16;  11:18:49; 20.0%; 1; AI智能体+机器人+软件开发</t>
+        </is>
+      </c>
+      <c r="BJ26" t="inlineStr">
+        <is>
+          <t>002394.SZ; 联发股份; 0;  14:44:42; 首板涨停; 8.1;  14:44:42; 10.1%; 1; 机器人+纺织</t>
+        </is>
+      </c>
+      <c r="BK26" t="inlineStr">
+        <is>
+          <t>300846.SZ; 首都在线; 0;  10:46:36; 首板涨停; 14.88;  10:46:36; 20.0%; 1; 算力+数据中心+智谱合作</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="5" t="n">
@@ -35982,6 +38187,21 @@
           <t>603236.SH; 移远通信; 3;  14:48:07; 首板涨停; 90.18;  09:32:49; 10.0%; 1; 字节AI玩具传闻+AI终端+外销</t>
         </is>
       </c>
+      <c r="BI27" t="inlineStr">
+        <is>
+          <t>000761.SZ; 本钢板材; 0;  11:20:19; 首板涨停; 3.27;  11:20:19; 10.1%; 1; 钢铁+央企改革</t>
+        </is>
+      </c>
+      <c r="BJ27" t="inlineStr">
+        <is>
+          <t>301299.SZ; 卓创资讯; 8;  14:45:42; 首板涨停; 80.08;  09:32:15; 20.0%; 1; 大宗商品信息服务+幻方合作传闻</t>
+        </is>
+      </c>
+      <c r="BK27" t="inlineStr">
+        <is>
+          <t>002306.SZ; 中科云网; 0;  10:47:54; 首板涨停; 2.24;  10:47:54; 9.8%; 1; 光伏+餐饮团膳+获1300万元债务豁免</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="5" t="n">
@@ -36242,6 +38462,21 @@
           <t>002862.SZ; 实丰文化; 7;  14:54:54; 首板涨停; 37.95;  09:30:21; 10.0%; 1; AI玩具+IP经济+豆包+机器人</t>
         </is>
       </c>
+      <c r="BI28" t="inlineStr">
+        <is>
+          <t>000681.SZ; 视觉中国; 5;  11:26:49; 首板涨停; 21.99;  10:48:17; 10.0%; 1; AI智能体+视觉版权+剪映等合作</t>
+        </is>
+      </c>
+      <c r="BJ28" t="inlineStr">
+        <is>
+          <t>003015.SZ; 日久光电; 2;  14:47:27; 首板涨停; 15.48;  14:03:57; 10.0%; 1; 可用于AR眼镜+小米+光学光电子+年报预计扭亏</t>
+        </is>
+      </c>
+      <c r="BK28" t="inlineStr">
+        <is>
+          <t>601789.SH; 宁波建工; 0;  10:52:22; 首板涨停; 4.61;  10:52:22; 10.0%; 1; 参股中经云+拟收购宁波交工100%股权+工程施工+宁波国资</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="5" t="n">
@@ -36492,6 +38727,21 @@
           <t>603890.SH; 春秋电子; 1;  10:04:31; 首板涨停; 12.51;  10:01:16; 1.5%; 1; 消费电子+AIPC+华为</t>
         </is>
       </c>
+      <c r="BI29" t="inlineStr">
+        <is>
+          <t>603758.SH; 秦安股份; 0;  11:30:00; 首板涨停; 9.9;  11:30:00; 10.0%; 1; 发动机零部件+高分红</t>
+        </is>
+      </c>
+      <c r="BJ29" t="inlineStr">
+        <is>
+          <t>603716.SH; 塞力医疗; 1;  14:47:42; 首板涨停; 7.38;  14:45:42; 10.0%; 1; DRG/DIP+体外诊断+智慧供应链</t>
+        </is>
+      </c>
+      <c r="BK29" t="inlineStr">
+        <is>
+          <t>603496.SH; 恒为科技; 0;  11:01:15; 首板涨停; 24.21;  11:01:15; 10.0%; 1; 华为昇腾+网络可视化</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="5" t="n">
@@ -36742,6 +38992,16 @@
           <t>000006.SZ; 深振业A; 0;  10:09:01; 首板涨停; 7.58;  10:09:01; 1.3%; 1; 深圳国资+房地产开发+物业管理</t>
         </is>
       </c>
+      <c r="BI30" t="inlineStr">
+        <is>
+          <t>300250.SZ; 初灵信息; 1;  13:00:04; 首板涨停; 16.48;  10:57:47; 20.0%; 1; AI Agent+信息接入方案</t>
+        </is>
+      </c>
+      <c r="BK30" t="inlineStr">
+        <is>
+          <t>600633.SH; 浙数文化; 1;  11:03:11; 首板涨停; 11.23;  09:51:11; 10.0%; 1; 参投云深处+数据要素+AI应用+国企</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="5" t="n">
@@ -36987,6 +39247,16 @@
           <t>002905.SZ; 金逸影视; 0;  10:12:18; 首板涨停; 7.93;  10:12:18; -2.1%; 1; 影视+电商</t>
         </is>
       </c>
+      <c r="BI31" t="inlineStr">
+        <is>
+          <t>603012.SH; 创力集团; 0;  13:03:19; 首板涨停; 5.58;  13:03:19; 10.1%; 1; 煤机智能成套装备+华为+AIGC</t>
+        </is>
+      </c>
+      <c r="BK31" t="inlineStr">
+        <is>
+          <t>300624.SZ; 万兴科技; 0;  11:10:51; 首板涨停; 82.15;  11:10:51; 20.0%; 1; AI应用+视频创意软件</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="5" t="n">
@@ -37232,6 +39502,16 @@
           <t>605086.SH; 龙高股份; 0;  10:20:03; 首板涨停; 30.85;  10:20:03; -1.6%; 1; 紫金矿业拟受让公司20%股份+高岭土+福建国资</t>
         </is>
       </c>
+      <c r="BI32" t="inlineStr">
+        <is>
+          <t>001282.SZ; 三联锻造; 0;  13:05:19; 首板涨停; 27.03;  13:05:19; 10.0%; 1; 减速器+汽车锻造零部件+华为汽车+比亚迪</t>
+        </is>
+      </c>
+      <c r="BK32" t="inlineStr">
+        <is>
+          <t>000815.SZ; 美利云; 1;  11:17:06; 首板涨停; 10.47;  10:47:27; 10.0%; 1; 算力+金山云合作+拟停止造纸业务+央企</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="5" t="n">
@@ -37472,6 +39752,16 @@
           <t>000882.SZ; 华联股份; 0;  10:21:18; 首板涨停; 2.82;  10:21:18; 10.2%; 1; 零售+影视+收购北京SKP旗下资产+间接持有少量地平线股份</t>
         </is>
       </c>
+      <c r="BI33" t="inlineStr">
+        <is>
+          <t>600255.SH; 鑫科材料; 3;  13:14:07; 首板涨停; 4.1;  09:49:45; 9.9%; 1; 铜缆高速连接+铜合金加工+国企改革</t>
+        </is>
+      </c>
+      <c r="BK33" t="inlineStr">
+        <is>
+          <t>603895.SH; 天永智能; 0;  11:21:10; 首板涨停; 24.19;  11:21:10; 10.0%; 1; 机器人+自动化装备+特斯拉+赛力斯</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="5" t="n">
@@ -37707,6 +39997,16 @@
           <t>600186.SH; 莲花控股; 2;  10:26:48; 首板涨停; 5.12;  10:20:33; 0.0%; 1; 年报预增+调味品+算力</t>
         </is>
       </c>
+      <c r="BI34" t="inlineStr">
+        <is>
+          <t>603171.SH; 税友股份; 3;  13:15:07; 首板涨停; 32.38;  11:21:04; 10.0%; 1; 财税数字化+华为鲲鹏+AIGC概念</t>
+        </is>
+      </c>
+      <c r="BK34" t="inlineStr">
+        <is>
+          <t>002122.SZ; 汇洲智能; 4;  11:25:15; 首板涨停; 4.37;  09:30:21; 10.1%; 1; 数据中心+小红书审核+工业母机</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="5" t="n">
@@ -37942,6 +40242,16 @@
           <t>003041.SZ; 真爱美家; 0;  10:31:03; 首板涨停; 29.9;  10:31:03; 6.0%; 1; 近期收到征收补偿款+毛毯+电商+外销</t>
         </is>
       </c>
+      <c r="BI35" t="inlineStr">
+        <is>
+          <t>002629.SZ; 仁智股份; 0;  13:26:52; 首板涨停; 4.82;  13:26:52; 10.0%; 1; 年报预计扭亏+油服工程+光伏+资产出售</t>
+        </is>
+      </c>
+      <c r="BK35" t="inlineStr">
+        <is>
+          <t>002195.SZ; 岩山科技; 0;  11:28:18; 首板涨停; 4.48;  11:28:18; 10.1%; 1; 大模型+脑机接口+互联网信息</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="5" t="n">
@@ -38172,6 +40482,16 @@
           <t>600869.SH; 远东股份; 0;  10:33:20; 首板涨停; 4.91;  10:33:20; -0.4%; 1; 智能缆网+数据中心+机器人+核电</t>
         </is>
       </c>
+      <c r="BI36" t="inlineStr">
+        <is>
+          <t>603929.SH; 亚翔集成; 0;  13:31:41; 首板涨停; 29.82;  13:31:41; 10.0%; 1; 年报预增+半导体洁净室</t>
+        </is>
+      </c>
+      <c r="BK36" t="inlineStr">
+        <is>
+          <t>603110.SH; 东方材料; 1;  11:29:55; 首板涨停; 16.04;  11:23:52; 10.0%; 1; 东方超算+PCB电子油墨</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="5" t="n">
@@ -38402,6 +40722,16 @@
           <t>603228.SH; 景旺电子; 1;  10:34:20; 首板涨停; 35.35;  10:04:46; 1.1%; 1; PCB+英伟达+光模块</t>
         </is>
       </c>
+      <c r="BI37" t="inlineStr">
+        <is>
+          <t>002362.SZ; 汉王科技; 0;  13:36:08; 首板涨停; 24.81;  13:36:08; 10.0%; 1; AI Agent+AI终端+机器人</t>
+        </is>
+      </c>
+      <c r="BK37" t="inlineStr">
+        <is>
+          <t>002213.SZ; 大为股份; 0;  13:06:15; 首板涨停; 15.02;  13:06:15; 10.0%; 1; 存储芯片+智能终端+锂电池</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="5" t="n">
@@ -38627,6 +40957,16 @@
           <t>000541.SZ; 佛山照明; 0;  10:55:55; 首板涨停; 6.15;  10:55:55; -1.1%; 1; 汽车照明+华为汽车+广东国资</t>
         </is>
       </c>
+      <c r="BI38" t="inlineStr">
+        <is>
+          <t>002530.SZ; 金财互联; 0;  13:38:25; 首板涨停; 11;  13:38:25; 10.0%; 1; 财税大模型+财税数字化+机器人</t>
+        </is>
+      </c>
+      <c r="BK38" t="inlineStr">
+        <is>
+          <t>000503.SZ; 国新健康; 1;  13:07:24; 首板涨停; 10.65;  13:00:00; 10.0%; 1; DRG/DIP+数据要素+华为+央企</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="5" t="n">
@@ -38847,6 +41187,16 @@
           <t>002278.SZ; 神开股份; 1;  13:00:07; 首板涨停; 5.68;  11:26:03; -4.9%; 1; 石油化工装备+商业航天+一带一路</t>
         </is>
       </c>
+      <c r="BI39" t="inlineStr">
+        <is>
+          <t>001309.SZ; 德明利; 1;  13:44:29; 首板涨停; 102.19;  13:42:11; 10.0%; 1; 存储芯片+光芯片+外销+年报预增</t>
+        </is>
+      </c>
+      <c r="BK39" t="inlineStr">
+        <is>
+          <t>600173.SH; 卧龙地产; 0;  13:10:21; 首板涨停; 4.66;  13:10:21; 9.9%; 1; 拟收购资产+房地产+金属铜+稀土</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="5" t="n">
@@ -39062,6 +41412,16 @@
           <t>600782.SH; 新钢股份; 0;  13:04:10; 首板涨停; 3.5;  13:04:10; -3.3%; 1; 钢铁+无人机+高股息+央企</t>
         </is>
       </c>
+      <c r="BI40" t="inlineStr">
+        <is>
+          <t>001306.SZ; 夏厦精密; 0;  13:57:28; 首板涨停; 68.96;  13:57:28; 10.0%; 1; 人形机器人+减速器+比亚迪</t>
+        </is>
+      </c>
+      <c r="BK40" t="inlineStr">
+        <is>
+          <t>600421.SH; 华嵘控股; 0;  13:13:46; 首板涨停; 5.78;  13:13:46; 10.1%; 1; 数据要素+房屋建筑PC构件+装配式建筑+风电混塔模具</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="5" t="n">
@@ -39277,6 +41637,16 @@
           <t>301458.SZ; 钧崴电子; 0;  13:08:07; 首板涨停; 40.42;  13:08:07; 0.7%; 1; 次新+电流感测精密电阻+苹果+英伟达</t>
         </is>
       </c>
+      <c r="BI41" t="inlineStr">
+        <is>
+          <t>603667.SH; 五洲新春; 2;  13:58:04; 首板涨停; 48.29;  13:54:58; 10.0%; 1; 人形机器人+汽车零部件+特斯拉</t>
+        </is>
+      </c>
+      <c r="BK41" t="inlineStr">
+        <is>
+          <t>603322.SH; 超讯通信; 0;  13:20:08; 首板涨停; 40.1;  13:20:08; 10.0%; 1; 多模态AI+算力+超聚变服务器</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="5" t="n">
@@ -39487,6 +41857,16 @@
           <t>605488.SH; 福莱新材; 0;  13:19:03; 首板涨停; 29.05;  13:19:03; 10.0%; 1; 灵巧手+机器人+柔性传感器+散热</t>
         </is>
       </c>
+      <c r="BI42" t="inlineStr">
+        <is>
+          <t>603518.SH; 锦泓集团; 8;  14:09:15; 首板涨停; 10.02;  13:24:22; 10.0%; 1; 小红书+IP经济+服装家纺+年报预增</t>
+        </is>
+      </c>
+      <c r="BK42" t="inlineStr">
+        <is>
+          <t>002253.SZ; 川大智胜; 7;  13:25:42; 首板涨停; 11.9;  10:52:15; 10.0%; 1; 华为昇腾+低空安全管控+超跌反弹</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="5" t="n">
@@ -39697,6 +42077,16 @@
           <t>605289.SH; 罗曼股份; 0;  13:20:37; 首板涨停; 25.14;  13:20:37; -2.0%; 1; 并购重组+虚拟现实+景观照明+IP运营</t>
         </is>
       </c>
+      <c r="BI43" t="inlineStr">
+        <is>
+          <t>605338.SH; 巴比食品; 1;  14:22:45; 首板涨停; 18.12;  09:34:30; 10.0%; 1; 年报增长+早餐+预制菜</t>
+        </is>
+      </c>
+      <c r="BK43" t="inlineStr">
+        <is>
+          <t>301306.SZ; 西测测试; 1;  13:48:09; 首板涨停; 40.06;  13:07:18; 20.0%; 1; 存储芯片+商业航天+飞机产品检测</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="5" t="n">
@@ -39907,6 +42297,16 @@
           <t>002729.SZ; 好利科技; 0;  13:52:26; 首板涨停; 15.49;  13:52:26; 10.0%; 1; 年报预增+熔断器+数据中心</t>
         </is>
       </c>
+      <c r="BI44" t="inlineStr">
+        <is>
+          <t>002439.SZ; 启明星辰; 0;  14:45:25; 首板涨停; 15.26;  14:45:25; 10.0%; 1; AI智能体+信息安全+华为+国企</t>
+        </is>
+      </c>
+      <c r="BK44" t="inlineStr">
+        <is>
+          <t>600143.SH; 金发科技; 2;  13:52:41; 首板涨停; 10.23;  10:55:14; 10.0%; 1; 机器人+PEEK材料+改性塑料龙头+年报预增</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="5" t="n">
@@ -40107,6 +42507,16 @@
           <t>601156.SH; 东航物流; 2;  13:54:11; 首板涨停; 17.32;  10:29:18; -1.8%; 1; 物流+跨境电商+国企改革</t>
         </is>
       </c>
+      <c r="BI45" t="inlineStr">
+        <is>
+          <t>002495.SZ; 佳隆股份; 3;  14:51:39; 首板涨停; 2.43;  09:47:00; 10.0%; 1; 年报预计扭亏+鸡精+预制菜+创投</t>
+        </is>
+      </c>
+      <c r="BK45" t="inlineStr">
+        <is>
+          <t>002496.SZ; 辉丰股份; 5;  14:04:27; 首板涨停; 1.55;  10:02:48; 9.9%; 1; 低价股+农药+氢能源+电商</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="5" t="n">
@@ -40302,6 +42712,16 @@
           <t>000833.SZ; 粤桂股份; 10;  13:58:11; 首板涨停; 12.41;  11:05:40; -4.1%; 1; 锂电池+硫铁矿+光伏+广东国资</t>
         </is>
       </c>
+      <c r="BI46" t="inlineStr">
+        <is>
+          <t>002965.SZ; 祥鑫科技; 12;  14:56:40; 首板涨停; 47.04;  11:08:34; 10.0%; 1; 液冷服务器+机器人+低空经济+小米汽车</t>
+        </is>
+      </c>
+      <c r="BK46" t="inlineStr">
+        <is>
+          <t>600355.SH; 精伦电子; 1;  14:12:42; 首板涨停; 3.07;  09:42:03; 10.0%; 1; 机器人+智能制造+智能电网</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="5" t="n">
@@ -40492,6 +42912,11 @@
           <t>002397.SZ; 梦洁股份; 0;  14:02:11; 首板涨停; 3.32;  14:02:11; 0.3%; 1; 股权转让+微盟合作+床上用品+电子商务</t>
         </is>
       </c>
+      <c r="BK47" t="inlineStr">
+        <is>
+          <t>301387.SZ; 光大同创; 18;  14:17:36; 首板涨停; 36.29;  09:43:36; 20.0%; 1; 碳纤维+机器人+智能穿戴+消费电子</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="5" t="n">
@@ -40682,6 +43107,11 @@
           <t>001379.SZ; 腾达科技; 0;  14:10:13; 首板涨停; 22.03;  14:10:13; -0.7%; 1; 商业航天+不锈钢紧固件产品+核电</t>
         </is>
       </c>
+      <c r="BK48" t="inlineStr">
+        <is>
+          <t>603273.SH; 天元智能; 0;  14:18:49; 首板涨停; 18.46;  14:18:49; 10.0%; 1; 工程机械+氢能源</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="5" t="n">
@@ -40867,6 +43297,11 @@
           <t>300718.SZ; 长盛轴承; 1;  14:45:25; 首板涨停; 53.78;  14:44:36; 12.6%; 1; 机器人+宇树科技+自润滑轴承</t>
         </is>
       </c>
+      <c r="BK49" t="inlineStr">
+        <is>
+          <t>002131.SZ; 利欧股份; 2;  14:24:54; 首板涨停; 4;  14:20:12; 9.9%; 1; AI营销+小红书+TikTok+华为鲸鸿</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="5" t="n">
@@ -41052,6 +43487,11 @@
           <t>603617.SH; 君禾股份; 2;  14:46:49; 首板涨停; 7.94;  14:44:51; -4.1%; 1; 家用水泵+年报预增+外销</t>
         </is>
       </c>
+      <c r="BK50" t="inlineStr">
+        <is>
+          <t>603596.SH; 伯特利; 2;  14:27:36; 首板涨停; 50.28;  14:15:06; 10.0%; 1; 汽车零部件+智能驾驶+华为汽车+特斯拉概念</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="5" t="n">
@@ -41232,6 +43672,11 @@
           <t>002213.SZ; 大为股份; 1;  14:51:59; 首板涨停; 15.62;  09:58:38; 1.7%; 1; 存储芯片+智能终端+锂电池</t>
         </is>
       </c>
+      <c r="BK51" t="inlineStr">
+        <is>
+          <t>603881.SH; 数据港; 6;  14:54:38; 首板涨停; 21.84;  13:00:02; 10.0%; 1; 数据中心+液冷+上海国资</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="5" t="n">
@@ -41397,6 +43842,11 @@
           <t>002611.SZ; 东方精工; 0;  10:35:57; 首板涨停; 11.9;  10:35:57; 4.0%; 1; 机器人+可控核聚变+英伟达概念+智能物流</t>
         </is>
       </c>
+      <c r="BK52" t="inlineStr">
+        <is>
+          <t>300253.SZ; 卫宁健康; 1;  14:55:12; 首板涨停; 7.84;  11:13:15; 20.1%; 1; AI智能体+DRG/DIP+智慧医疗+鸿蒙</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="5" t="n">
@@ -41555,6 +44005,11 @@
       <c r="BA53" t="inlineStr">
         <is>
           <t>605133.SH; 嵘泰股份; 0;  10:38:39; 首板涨停; 24.64;  10:38:39; -0.3%; 1; 特斯拉+一体化压铸+工业母机</t>
+        </is>
+      </c>
+      <c r="BK53" t="inlineStr">
+        <is>
+          <t>600580.SH; 卧龙电驱; 13;  14:55:18; 首板涨停; 22.76;  10:21:21; 10.0%; 1; 人形机器人+飞行汽车+电机</t>
         </is>
       </c>
     </row>
@@ -45184,7 +47639,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BF50"/>
+  <dimension ref="A1:BK50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45478,6 +47933,31 @@
           <t>2025年01月21日</t>
         </is>
       </c>
+      <c r="BG1" s="5" t="inlineStr">
+        <is>
+          <t>2025年01月22日</t>
+        </is>
+      </c>
+      <c r="BH1" s="5" t="inlineStr">
+        <is>
+          <t>2025年01月23日</t>
+        </is>
+      </c>
+      <c r="BI1" s="5" t="inlineStr">
+        <is>
+          <t>2025年01月24日</t>
+        </is>
+      </c>
+      <c r="BJ1" s="5" t="inlineStr">
+        <is>
+          <t>2025年01月27日</t>
+        </is>
+      </c>
+      <c r="BK1" s="5" t="inlineStr">
+        <is>
+          <t>2025年02月05日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="5" t="n">
@@ -45764,6 +48244,31 @@
         </is>
       </c>
       <c r="BF2" t="inlineStr"/>
+      <c r="BG2" t="inlineStr">
+        <is>
+          <t>002691.SZ; 冀凯股份; 9.6%; 21.7%; 7.59; -10.0%; 强中选强||阳线||放量</t>
+        </is>
+      </c>
+      <c r="BH2" t="inlineStr">
+        <is>
+          <t>002582.SZ; 好想你; 2.8%; 13.2%; 10.36; -4.9%; 强中选强||阳线||放量</t>
+        </is>
+      </c>
+      <c r="BI2" t="inlineStr">
+        <is>
+          <t>603211.SH; 晋拓股份; 7.2%; 18.6%; 23.82; 10.0%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
+      <c r="BJ2" t="inlineStr">
+        <is>
+          <t>002691.SZ; 冀凯股份; 10.0%; 22.3%; 8.35; 10.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="BK2" t="inlineStr">
+        <is>
+          <t>003032.SZ; 传智教育; 10.0%; 12.1%; 8.26; 0.9%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="n">
@@ -46050,6 +48555,31 @@
         </is>
       </c>
       <c r="BF3" t="inlineStr"/>
+      <c r="BG3" t="inlineStr">
+        <is>
+          <t>002917.SZ; 金奥博; 4.8%; 15.5%; 18.4; -4.3%; 阳线||放量||价升量缩</t>
+        </is>
+      </c>
+      <c r="BH3" t="inlineStr">
+        <is>
+          <t>300547.SZ; 川环科技; 0.0%; 12.2%; 30.5; -0.2%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="BI3" t="inlineStr">
+        <is>
+          <t>002861.SZ; 瀛通通讯; 7.1%; 18.4%; 16.94; 10.0%; 强中选强||阳线||放量</t>
+        </is>
+      </c>
+      <c r="BJ3" t="inlineStr">
+        <is>
+          <t>600892.SH; 大晟文化; 9.9%; 15.1%; 3.13; 3.6%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="BK3" t="inlineStr">
+        <is>
+          <t>002691.SZ; 冀凯股份; 7.8%; 19.4%; 9.19; 10.1%; 强中选强||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="5" t="n">
@@ -46320,6 +48850,23 @@
       </c>
       <c r="BE4" t="inlineStr"/>
       <c r="BF4" t="inlineStr"/>
+      <c r="BG4" t="inlineStr">
+        <is>
+          <t>603045.SH; 福达合金; 2.8%; 13.2%; 15.33; -0.7%; 价升量涨||阳线||缩量</t>
+        </is>
+      </c>
+      <c r="BH4" t="inlineStr"/>
+      <c r="BI4" t="inlineStr">
+        <is>
+          <t>603042.SH; 华脉科技; 6.0%; 17.0%; 16.64; 10.0%; 强中选强||阳线||放量</t>
+        </is>
+      </c>
+      <c r="BJ4" t="inlineStr">
+        <is>
+          <t>000668.SZ; 荣丰控股; 4.7%; 15.5%; 6.11; 10.1%; 阳线||放量||价升量缩</t>
+        </is>
+      </c>
+      <c r="BK4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="5" t="n">
@@ -46582,6 +49129,19 @@
       </c>
       <c r="BE5" t="inlineStr"/>
       <c r="BF5" t="inlineStr"/>
+      <c r="BG5" t="inlineStr">
+        <is>
+          <t>002718.SZ; 友邦吊顶; 2.2%; 12.5%; 15.43; -10.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="BH5" t="inlineStr"/>
+      <c r="BI5" t="inlineStr">
+        <is>
+          <t>002122.SZ; 汇洲智能; 4.6%; 15.0%; 4.29; 9.7%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="BJ5" t="inlineStr"/>
+      <c r="BK5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="5" t="n">
@@ -46832,6 +49392,19 @@
       </c>
       <c r="BE6" t="inlineStr"/>
       <c r="BF6" t="inlineStr"/>
+      <c r="BG6" t="inlineStr">
+        <is>
+          <t>301628.SZ; 强达电路; 2.0%; 14.6%; 110.75; -4.7%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="BH6" t="inlineStr"/>
+      <c r="BI6" t="inlineStr">
+        <is>
+          <t>603667.SH; 五洲新春; 3.5%; 13.9%; 48.29; 10.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="BJ6" t="inlineStr"/>
+      <c r="BK6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="5" t="n">
@@ -47070,6 +49643,19 @@
       </c>
       <c r="BE7" t="inlineStr"/>
       <c r="BF7" t="inlineStr"/>
+      <c r="BG7" t="inlineStr">
+        <is>
+          <t>605398.SH; 新炬网络; 1.9%; 12.1%; 25.38; 10.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="BH7" t="inlineStr"/>
+      <c r="BI7" t="inlineStr">
+        <is>
+          <t>002364.SZ; 中恒电气; 3.4%; 13.8%; 14.34; 10.0%; 阳线||缩量||价升量缩</t>
+        </is>
+      </c>
+      <c r="BJ7" t="inlineStr"/>
+      <c r="BK7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="5" t="n">
@@ -47296,6 +49882,19 @@
       </c>
       <c r="BE8" t="inlineStr"/>
       <c r="BF8" t="inlineStr"/>
+      <c r="BG8" t="inlineStr">
+        <is>
+          <t>300561.SZ; 汇金科技; 1.8%; 12.0%; 54.54; -4.7%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="BH8" t="inlineStr"/>
+      <c r="BI8" t="inlineStr">
+        <is>
+          <t>301397.SZ; 溯联股份; 2.9%; 17.2%; 34.3; 13.8%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
+      <c r="BJ8" t="inlineStr"/>
+      <c r="BK8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="5" t="n">
@@ -47514,6 +50113,15 @@
       </c>
       <c r="BE9" t="inlineStr"/>
       <c r="BF9" t="inlineStr"/>
+      <c r="BG9" t="inlineStr"/>
+      <c r="BH9" t="inlineStr"/>
+      <c r="BI9" t="inlineStr">
+        <is>
+          <t>301000.SZ; 肇民科技; 2.0%; 13.2%; 37.92; 11.0%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
+      <c r="BJ9" t="inlineStr"/>
+      <c r="BK9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="5" t="n">
@@ -47708,6 +50316,15 @@
       <c r="BD10" t="inlineStr"/>
       <c r="BE10" t="inlineStr"/>
       <c r="BF10" t="inlineStr"/>
+      <c r="BG10" t="inlineStr"/>
+      <c r="BH10" t="inlineStr"/>
+      <c r="BI10" t="inlineStr">
+        <is>
+          <t>301220.SZ; 亚香股份; 1.2%; 13.0%; 44.7; 11.7%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
+      <c r="BJ10" t="inlineStr"/>
+      <c r="BK10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="5" t="n">
@@ -47890,6 +50507,15 @@
       <c r="BD11" t="inlineStr"/>
       <c r="BE11" t="inlineStr"/>
       <c r="BF11" t="inlineStr"/>
+      <c r="BG11" t="inlineStr"/>
+      <c r="BH11" t="inlineStr"/>
+      <c r="BI11" t="inlineStr">
+        <is>
+          <t>300017.SZ; 网宿科技; 0.5%; 12.9%; 11.37; 12.4%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="BJ11" t="inlineStr"/>
+      <c r="BK11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="5" t="n">
@@ -48048,6 +50674,11 @@
       <c r="BD12" t="inlineStr"/>
       <c r="BE12" t="inlineStr"/>
       <c r="BF12" t="inlineStr"/>
+      <c r="BG12" t="inlineStr"/>
+      <c r="BH12" t="inlineStr"/>
+      <c r="BI12" t="inlineStr"/>
+      <c r="BJ12" t="inlineStr"/>
+      <c r="BK12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="5" t="n">
@@ -48190,6 +50821,11 @@
       <c r="BD13" t="inlineStr"/>
       <c r="BE13" t="inlineStr"/>
       <c r="BF13" t="inlineStr"/>
+      <c r="BG13" t="inlineStr"/>
+      <c r="BH13" t="inlineStr"/>
+      <c r="BI13" t="inlineStr"/>
+      <c r="BJ13" t="inlineStr"/>
+      <c r="BK13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="5" t="n">
@@ -48328,6 +50964,11 @@
       <c r="BD14" t="inlineStr"/>
       <c r="BE14" t="inlineStr"/>
       <c r="BF14" t="inlineStr"/>
+      <c r="BG14" t="inlineStr"/>
+      <c r="BH14" t="inlineStr"/>
+      <c r="BI14" t="inlineStr"/>
+      <c r="BJ14" t="inlineStr"/>
+      <c r="BK14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="5" t="n">
@@ -48458,6 +51099,11 @@
       <c r="BD15" t="inlineStr"/>
       <c r="BE15" t="inlineStr"/>
       <c r="BF15" t="inlineStr"/>
+      <c r="BG15" t="inlineStr"/>
+      <c r="BH15" t="inlineStr"/>
+      <c r="BI15" t="inlineStr"/>
+      <c r="BJ15" t="inlineStr"/>
+      <c r="BK15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="5" t="n">
@@ -48584,6 +51230,11 @@
       <c r="BD16" t="inlineStr"/>
       <c r="BE16" t="inlineStr"/>
       <c r="BF16" t="inlineStr"/>
+      <c r="BG16" t="inlineStr"/>
+      <c r="BH16" t="inlineStr"/>
+      <c r="BI16" t="inlineStr"/>
+      <c r="BJ16" t="inlineStr"/>
+      <c r="BK16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="5" t="n">
@@ -48702,6 +51353,11 @@
       <c r="BD17" t="inlineStr"/>
       <c r="BE17" t="inlineStr"/>
       <c r="BF17" t="inlineStr"/>
+      <c r="BG17" t="inlineStr"/>
+      <c r="BH17" t="inlineStr"/>
+      <c r="BI17" t="inlineStr"/>
+      <c r="BJ17" t="inlineStr"/>
+      <c r="BK17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="5" t="n">
@@ -48816,6 +51472,11 @@
       <c r="BD18" t="inlineStr"/>
       <c r="BE18" t="inlineStr"/>
       <c r="BF18" t="inlineStr"/>
+      <c r="BG18" t="inlineStr"/>
+      <c r="BH18" t="inlineStr"/>
+      <c r="BI18" t="inlineStr"/>
+      <c r="BJ18" t="inlineStr"/>
+      <c r="BK18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="5" t="n">
@@ -48926,6 +51587,11 @@
       <c r="BD19" t="inlineStr"/>
       <c r="BE19" t="inlineStr"/>
       <c r="BF19" t="inlineStr"/>
+      <c r="BG19" t="inlineStr"/>
+      <c r="BH19" t="inlineStr"/>
+      <c r="BI19" t="inlineStr"/>
+      <c r="BJ19" t="inlineStr"/>
+      <c r="BK19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="5" t="n">
@@ -49036,6 +51702,11 @@
       <c r="BD20" t="inlineStr"/>
       <c r="BE20" t="inlineStr"/>
       <c r="BF20" t="inlineStr"/>
+      <c r="BG20" t="inlineStr"/>
+      <c r="BH20" t="inlineStr"/>
+      <c r="BI20" t="inlineStr"/>
+      <c r="BJ20" t="inlineStr"/>
+      <c r="BK20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="5" t="n">
@@ -49146,6 +51817,11 @@
       <c r="BD21" t="inlineStr"/>
       <c r="BE21" t="inlineStr"/>
       <c r="BF21" t="inlineStr"/>
+      <c r="BG21" t="inlineStr"/>
+      <c r="BH21" t="inlineStr"/>
+      <c r="BI21" t="inlineStr"/>
+      <c r="BJ21" t="inlineStr"/>
+      <c r="BK21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="5" t="n">
@@ -49248,6 +51924,11 @@
       <c r="BD22" t="inlineStr"/>
       <c r="BE22" t="inlineStr"/>
       <c r="BF22" t="inlineStr"/>
+      <c r="BG22" t="inlineStr"/>
+      <c r="BH22" t="inlineStr"/>
+      <c r="BI22" t="inlineStr"/>
+      <c r="BJ22" t="inlineStr"/>
+      <c r="BK22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="5" t="n">
@@ -49346,6 +52027,11 @@
       <c r="BD23" t="inlineStr"/>
       <c r="BE23" t="inlineStr"/>
       <c r="BF23" t="inlineStr"/>
+      <c r="BG23" t="inlineStr"/>
+      <c r="BH23" t="inlineStr"/>
+      <c r="BI23" t="inlineStr"/>
+      <c r="BJ23" t="inlineStr"/>
+      <c r="BK23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="5" t="n">
@@ -49440,6 +52126,11 @@
       <c r="BD24" t="inlineStr"/>
       <c r="BE24" t="inlineStr"/>
       <c r="BF24" t="inlineStr"/>
+      <c r="BG24" t="inlineStr"/>
+      <c r="BH24" t="inlineStr"/>
+      <c r="BI24" t="inlineStr"/>
+      <c r="BJ24" t="inlineStr"/>
+      <c r="BK24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="5" t="n">
@@ -49530,6 +52221,11 @@
       <c r="BD25" t="inlineStr"/>
       <c r="BE25" t="inlineStr"/>
       <c r="BF25" t="inlineStr"/>
+      <c r="BG25" t="inlineStr"/>
+      <c r="BH25" t="inlineStr"/>
+      <c r="BI25" t="inlineStr"/>
+      <c r="BJ25" t="inlineStr"/>
+      <c r="BK25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="5" t="n">
@@ -49612,6 +52308,11 @@
       <c r="BD26" t="inlineStr"/>
       <c r="BE26" t="inlineStr"/>
       <c r="BF26" t="inlineStr"/>
+      <c r="BG26" t="inlineStr"/>
+      <c r="BH26" t="inlineStr"/>
+      <c r="BI26" t="inlineStr"/>
+      <c r="BJ26" t="inlineStr"/>
+      <c r="BK26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="5" t="n">
@@ -49694,6 +52395,11 @@
       <c r="BD27" t="inlineStr"/>
       <c r="BE27" t="inlineStr"/>
       <c r="BF27" t="inlineStr"/>
+      <c r="BG27" t="inlineStr"/>
+      <c r="BH27" t="inlineStr"/>
+      <c r="BI27" t="inlineStr"/>
+      <c r="BJ27" t="inlineStr"/>
+      <c r="BK27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="5" t="n">
@@ -49776,6 +52482,11 @@
       <c r="BD28" t="inlineStr"/>
       <c r="BE28" t="inlineStr"/>
       <c r="BF28" t="inlineStr"/>
+      <c r="BG28" t="inlineStr"/>
+      <c r="BH28" t="inlineStr"/>
+      <c r="BI28" t="inlineStr"/>
+      <c r="BJ28" t="inlineStr"/>
+      <c r="BK28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="5" t="n">
@@ -49858,6 +52569,11 @@
       <c r="BD29" t="inlineStr"/>
       <c r="BE29" t="inlineStr"/>
       <c r="BF29" t="inlineStr"/>
+      <c r="BG29" t="inlineStr"/>
+      <c r="BH29" t="inlineStr"/>
+      <c r="BI29" t="inlineStr"/>
+      <c r="BJ29" t="inlineStr"/>
+      <c r="BK29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="5" t="n">
@@ -49936,6 +52652,11 @@
       <c r="BD30" t="inlineStr"/>
       <c r="BE30" t="inlineStr"/>
       <c r="BF30" t="inlineStr"/>
+      <c r="BG30" t="inlineStr"/>
+      <c r="BH30" t="inlineStr"/>
+      <c r="BI30" t="inlineStr"/>
+      <c r="BJ30" t="inlineStr"/>
+      <c r="BK30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="5" t="n">
@@ -50014,6 +52735,11 @@
       <c r="BD31" t="inlineStr"/>
       <c r="BE31" t="inlineStr"/>
       <c r="BF31" t="inlineStr"/>
+      <c r="BG31" t="inlineStr"/>
+      <c r="BH31" t="inlineStr"/>
+      <c r="BI31" t="inlineStr"/>
+      <c r="BJ31" t="inlineStr"/>
+      <c r="BK31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="5" t="n">
@@ -50092,6 +52818,11 @@
       <c r="BD32" t="inlineStr"/>
       <c r="BE32" t="inlineStr"/>
       <c r="BF32" t="inlineStr"/>
+      <c r="BG32" t="inlineStr"/>
+      <c r="BH32" t="inlineStr"/>
+      <c r="BI32" t="inlineStr"/>
+      <c r="BJ32" t="inlineStr"/>
+      <c r="BK32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="5" t="n">
@@ -50170,6 +52901,11 @@
       <c r="BD33" t="inlineStr"/>
       <c r="BE33" t="inlineStr"/>
       <c r="BF33" t="inlineStr"/>
+      <c r="BG33" t="inlineStr"/>
+      <c r="BH33" t="inlineStr"/>
+      <c r="BI33" t="inlineStr"/>
+      <c r="BJ33" t="inlineStr"/>
+      <c r="BK33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="5" t="n">
@@ -50240,6 +52976,11 @@
       <c r="BD34" t="inlineStr"/>
       <c r="BE34" t="inlineStr"/>
       <c r="BF34" t="inlineStr"/>
+      <c r="BG34" t="inlineStr"/>
+      <c r="BH34" t="inlineStr"/>
+      <c r="BI34" t="inlineStr"/>
+      <c r="BJ34" t="inlineStr"/>
+      <c r="BK34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="5" t="n">
@@ -50310,6 +53051,11 @@
       <c r="BD35" t="inlineStr"/>
       <c r="BE35" t="inlineStr"/>
       <c r="BF35" t="inlineStr"/>
+      <c r="BG35" t="inlineStr"/>
+      <c r="BH35" t="inlineStr"/>
+      <c r="BI35" t="inlineStr"/>
+      <c r="BJ35" t="inlineStr"/>
+      <c r="BK35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="5" t="n">
@@ -50380,6 +53126,11 @@
       <c r="BD36" t="inlineStr"/>
       <c r="BE36" t="inlineStr"/>
       <c r="BF36" t="inlineStr"/>
+      <c r="BG36" t="inlineStr"/>
+      <c r="BH36" t="inlineStr"/>
+      <c r="BI36" t="inlineStr"/>
+      <c r="BJ36" t="inlineStr"/>
+      <c r="BK36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="5" t="n">
@@ -50450,6 +53201,11 @@
       <c r="BD37" t="inlineStr"/>
       <c r="BE37" t="inlineStr"/>
       <c r="BF37" t="inlineStr"/>
+      <c r="BG37" t="inlineStr"/>
+      <c r="BH37" t="inlineStr"/>
+      <c r="BI37" t="inlineStr"/>
+      <c r="BJ37" t="inlineStr"/>
+      <c r="BK37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="5" t="n">
@@ -50520,6 +53276,11 @@
       <c r="BD38" t="inlineStr"/>
       <c r="BE38" t="inlineStr"/>
       <c r="BF38" t="inlineStr"/>
+      <c r="BG38" t="inlineStr"/>
+      <c r="BH38" t="inlineStr"/>
+      <c r="BI38" t="inlineStr"/>
+      <c r="BJ38" t="inlineStr"/>
+      <c r="BK38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="5" t="n">
@@ -50590,6 +53351,11 @@
       <c r="BD39" t="inlineStr"/>
       <c r="BE39" t="inlineStr"/>
       <c r="BF39" t="inlineStr"/>
+      <c r="BG39" t="inlineStr"/>
+      <c r="BH39" t="inlineStr"/>
+      <c r="BI39" t="inlineStr"/>
+      <c r="BJ39" t="inlineStr"/>
+      <c r="BK39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="5" t="n">
@@ -50660,6 +53426,11 @@
       <c r="BD40" t="inlineStr"/>
       <c r="BE40" t="inlineStr"/>
       <c r="BF40" t="inlineStr"/>
+      <c r="BG40" t="inlineStr"/>
+      <c r="BH40" t="inlineStr"/>
+      <c r="BI40" t="inlineStr"/>
+      <c r="BJ40" t="inlineStr"/>
+      <c r="BK40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="5" t="n">
@@ -50730,6 +53501,11 @@
       <c r="BD41" t="inlineStr"/>
       <c r="BE41" t="inlineStr"/>
       <c r="BF41" t="inlineStr"/>
+      <c r="BG41" t="inlineStr"/>
+      <c r="BH41" t="inlineStr"/>
+      <c r="BI41" t="inlineStr"/>
+      <c r="BJ41" t="inlineStr"/>
+      <c r="BK41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="5" t="n">
@@ -50796,6 +53572,11 @@
       <c r="BD42" t="inlineStr"/>
       <c r="BE42" t="inlineStr"/>
       <c r="BF42" t="inlineStr"/>
+      <c r="BG42" t="inlineStr"/>
+      <c r="BH42" t="inlineStr"/>
+      <c r="BI42" t="inlineStr"/>
+      <c r="BJ42" t="inlineStr"/>
+      <c r="BK42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="5" t="n">
@@ -50862,6 +53643,11 @@
       <c r="BD43" t="inlineStr"/>
       <c r="BE43" t="inlineStr"/>
       <c r="BF43" t="inlineStr"/>
+      <c r="BG43" t="inlineStr"/>
+      <c r="BH43" t="inlineStr"/>
+      <c r="BI43" t="inlineStr"/>
+      <c r="BJ43" t="inlineStr"/>
+      <c r="BK43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="5" t="n">
@@ -50928,6 +53714,11 @@
       <c r="BD44" t="inlineStr"/>
       <c r="BE44" t="inlineStr"/>
       <c r="BF44" t="inlineStr"/>
+      <c r="BG44" t="inlineStr"/>
+      <c r="BH44" t="inlineStr"/>
+      <c r="BI44" t="inlineStr"/>
+      <c r="BJ44" t="inlineStr"/>
+      <c r="BK44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="5" t="n">
@@ -50994,6 +53785,11 @@
       <c r="BD45" t="inlineStr"/>
       <c r="BE45" t="inlineStr"/>
       <c r="BF45" t="inlineStr"/>
+      <c r="BG45" t="inlineStr"/>
+      <c r="BH45" t="inlineStr"/>
+      <c r="BI45" t="inlineStr"/>
+      <c r="BJ45" t="inlineStr"/>
+      <c r="BK45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="5" t="n">
@@ -51060,6 +53856,11 @@
       <c r="BD46" t="inlineStr"/>
       <c r="BE46" t="inlineStr"/>
       <c r="BF46" t="inlineStr"/>
+      <c r="BG46" t="inlineStr"/>
+      <c r="BH46" t="inlineStr"/>
+      <c r="BI46" t="inlineStr"/>
+      <c r="BJ46" t="inlineStr"/>
+      <c r="BK46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="5" t="n">
@@ -51126,6 +53927,11 @@
       <c r="BD47" t="inlineStr"/>
       <c r="BE47" t="inlineStr"/>
       <c r="BF47" t="inlineStr"/>
+      <c r="BG47" t="inlineStr"/>
+      <c r="BH47" t="inlineStr"/>
+      <c r="BI47" t="inlineStr"/>
+      <c r="BJ47" t="inlineStr"/>
+      <c r="BK47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="5" t="n">
@@ -51192,6 +53998,11 @@
       <c r="BD48" t="inlineStr"/>
       <c r="BE48" t="inlineStr"/>
       <c r="BF48" t="inlineStr"/>
+      <c r="BG48" t="inlineStr"/>
+      <c r="BH48" t="inlineStr"/>
+      <c r="BI48" t="inlineStr"/>
+      <c r="BJ48" t="inlineStr"/>
+      <c r="BK48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="5" t="n">
@@ -51258,6 +54069,11 @@
       <c r="BD49" t="inlineStr"/>
       <c r="BE49" t="inlineStr"/>
       <c r="BF49" t="inlineStr"/>
+      <c r="BG49" t="inlineStr"/>
+      <c r="BH49" t="inlineStr"/>
+      <c r="BI49" t="inlineStr"/>
+      <c r="BJ49" t="inlineStr"/>
+      <c r="BK49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="5" t="n">
@@ -51324,6 +54140,11 @@
       <c r="BD50" t="inlineStr"/>
       <c r="BE50" t="inlineStr"/>
       <c r="BF50" t="inlineStr"/>
+      <c r="BG50" t="inlineStr"/>
+      <c r="BH50" t="inlineStr"/>
+      <c r="BI50" t="inlineStr"/>
+      <c r="BJ50" t="inlineStr"/>
+      <c r="BK50" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/excel/fupan_stocks.xlsx
+++ b/excel/fupan_stocks.xlsx
@@ -470,7 +470,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK65"/>
+  <dimension ref="A1:BM65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -789,6 +789,16 @@
           <t>2025年02月05日</t>
         </is>
       </c>
+      <c r="BL1" s="5" t="inlineStr">
+        <is>
+          <t>2025年02月06日</t>
+        </is>
+      </c>
+      <c r="BM1" s="5" t="inlineStr">
+        <is>
+          <t>2025年02月07日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="5" t="n">
@@ -1104,6 +1114,16 @@
           <t>300766.SZ; 每日互动; 0;  09:25:00; 2天2板; 28.92;  09:25:00; 20.0%; 2; DeepSeek概念+营销+数据</t>
         </is>
       </c>
+      <c r="BL2" t="inlineStr">
+        <is>
+          <t>000972.SZ; 中基健康; 0;  09:30:00; 2天2板; 3.75;  09:30:00; 3.0%; 3; 拟购买新业能化100%股权+番茄</t>
+        </is>
+      </c>
+      <c r="BM2" t="inlineStr">
+        <is>
+          <t>605398.SH; 新炬网络; 0;  09:25:00; 7天7板; 37.16;  09:25:00; 10.0%; 7; AI Agent+数据中心运维+华为鲲鹏</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="n">
@@ -1419,6 +1439,16 @@
           <t>003005.SZ; 竞业达; 0;  09:25:00; 2天2板; 35.66;  09:25:00; 10.0%; 2; 年报预增+智慧城市+AI教育</t>
         </is>
       </c>
+      <c r="BL3" t="inlineStr">
+        <is>
+          <t>600126.SH; 杭钢股份; 0;  09:30:00; 2天2板; 6.92;  09:30:00; 10.0%; 2; DeepSeek概念+云计算+钢铁+浙江国资</t>
+        </is>
+      </c>
+      <c r="BM3" t="inlineStr">
+        <is>
+          <t>002036.SZ; 联创电子; 0;  09:25:00; 2天2板; 11.17;  09:25:00; 10.0%; 2; 车载镜头+辅助安全驾驶+比亚迪</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="5" t="n">
@@ -1734,6 +1764,16 @@
           <t>002881.SZ; 美格智能; 0;  09:25:00; 3天3板; 44.26;  09:25:00; 10.0%; 3; 开发DeepSeek-R1模型端侧落地应用+端侧AI+年报预增</t>
         </is>
       </c>
+      <c r="BL4" t="inlineStr">
+        <is>
+          <t>600120.SH; 浙江东方; 0;  09:30:00; 3天3板; 6.78;  09:30:00; 10.1%; 3; 澄清未投资DeepSeek+多元金融+浙江国企+年报预增</t>
+        </is>
+      </c>
+      <c r="BM4" t="inlineStr">
+        <is>
+          <t>002881.SZ; 美格智能; 0;  09:25:00; 5天5板; 53.56;  09:25:00; 10.0%; 5; 开发DeepSeek-R1模型端侧落地应用+端侧AI+年报预增</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="n">
@@ -2049,6 +2089,16 @@
           <t>000818.SZ; 航锦科技; 0;  09:25:00; 2天2板; 18.47;  09:25:00; 10.0%; 2; 幻方合作+算力+英伟达+国企</t>
         </is>
       </c>
+      <c r="BL5" t="inlineStr">
+        <is>
+          <t>000818.SZ; 航锦科技; 0;  09:30:00; 3天3板; 22.35;  09:30:00; 10.0%; 3; 幻方合作+算力+英伟达+国企</t>
+        </is>
+      </c>
+      <c r="BM5" t="inlineStr">
+        <is>
+          <t>600126.SH; 杭钢股份; 0;  09:25:01; 3天3板; 6.92;  09:25:01; 10.0%; 3; DeepSeek概念+云计算+钢铁+浙江国资</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="5" t="n">
@@ -2364,6 +2414,16 @@
           <t>000532.SZ; 华金资本; 0;  09:25:00; 2天2板; 16.08;  09:25:00; 10.0%; 2; 参与DeepSeek融资+多元金融+珠海国资</t>
         </is>
       </c>
+      <c r="BL6" t="inlineStr">
+        <is>
+          <t>002881.SZ; 美格智能; 0;  09:30:00; 4天4板; 53.56;  09:30:00; 10.0%; 4; 开发DeepSeek-R1模型端侧落地应用+端侧AI+年报预增</t>
+        </is>
+      </c>
+      <c r="BM6" t="inlineStr">
+        <is>
+          <t>603390.SH; 通达电气; 0;  09:25:02; 2天2板; 11.18;  09:25:02; 10.0%; 2; 比亚迪+智慧交通+车联网+移动医疗</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="n">
@@ -2679,6 +2739,16 @@
           <t>600120.SH; 浙江东方; 0;  09:25:01; 2天2板; 5.6;  09:25:01; 10.0%; 2; DeepSeek+拟收购银行股份+浙江国企+年报预增</t>
         </is>
       </c>
+      <c r="BL7" t="inlineStr">
+        <is>
+          <t>603110.SH; 东方材料; 0;  09:30:17; 2天2板; 19.4;  09:30:17; 10.0%; 2; 东方超算+PCB电子油墨</t>
+        </is>
+      </c>
+      <c r="BM7" t="inlineStr">
+        <is>
+          <t>600633.SH; 浙数文化; 0;  09:25:02; 3天3板; 13.59;  09:25:02; 10.0%; 3; AI应用+算力租赁+数据交易中心+杭州国资</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="5" t="n">
@@ -2994,6 +3064,16 @@
           <t>603636.SH; 南威软件; 0;  09:25:02; 2天2板; 13.72;  09:25:02; 10.0%; 2; AI智能体+电子政务+华为</t>
         </is>
       </c>
+      <c r="BL8" t="inlineStr">
+        <is>
+          <t>300766.SZ; 每日互动; 1;  09:31:02; 3天3板; 39.94;  09:30:00; 15.1%; 3; DeepSeek概念+营销+数据</t>
+        </is>
+      </c>
+      <c r="BM8" t="inlineStr">
+        <is>
+          <t>603300.SH; 海南华铁; 0;  09:25:03; 2天2板; 6.58;  09:25:03; 10.0%; 2; 海南国资+算力+低空经济</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="n">
@@ -3309,6 +3389,16 @@
           <t>603039.SH; 泛微网络; 0;  09:30:23; 3天3板; 64.9;  09:30:23; 10.0%; 3; AI应用+信创+办公软件+上海</t>
         </is>
       </c>
+      <c r="BL9" t="inlineStr">
+        <is>
+          <t>605398.SH; 新炬网络; 2;  09:33:32; 6天6板; 37.16;  09:30:47; 10.0%; 6; AI Agent+数据中心运维+华为鲲鹏</t>
+        </is>
+      </c>
+      <c r="BM9" t="inlineStr">
+        <is>
+          <t>600355.SH; 精伦电子; 2;  09:38:07; 3天3板; 3.72;  09:31:58; 10.1%; 3; 机器人+智能制造+智能电网</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="5" t="n">
@@ -3624,6 +3714,16 @@
           <t>301512.SZ; 智信精密; 1;  09:51:00; 2天2板; 54;  09:25:00; 20.0%; 2; 自动化设备+机器人+消费电子+苹果</t>
         </is>
       </c>
+      <c r="BL10" t="inlineStr">
+        <is>
+          <t>002122.SZ; 汇洲智能; 2;  09:34:47; 2天2板; 5.29;  09:32:32; 10.0%; 2; 数据中心+工业母机+小红书审核</t>
+        </is>
+      </c>
+      <c r="BM10" t="inlineStr">
+        <is>
+          <t>001368.SZ; 通达创智; 5;  09:39:45; 2天2板; 23.99;  09:30:12; 10.0%; 2; 体育户外+三胎+外销</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="5" t="n">
@@ -3939,6 +4039,16 @@
           <t>600261.SH; 阳光照明; 2;  09:57:28; 2天2板; 3.91;  09:25:01; 10.1%; 2; 持有幻方产品+照明电器+高股息+外销</t>
         </is>
       </c>
+      <c r="BL11" t="inlineStr">
+        <is>
+          <t>002691.SZ; 冀凯股份; 0;  09:41:17; 12天10板; 11.12;  09:41:17; 10.0%; 3; 机器人+矿山装备+3D打印</t>
+        </is>
+      </c>
+      <c r="BM11" t="inlineStr">
+        <is>
+          <t>002861.SZ; 瀛通通讯; 1;  09:46:03; 11天7板; 18.4;  09:45:42; 10.0%; 1; AI终端+电声产品+比亚迪、小米等客户+外销</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="5" t="n">
@@ -4254,6 +4364,16 @@
           <t>002816.SZ; 和科达; 0;  09:58:33; 4天3板; 13.56;  09:58:33; 10.0%; 1; 半导体清洗+阜阳国资入主+污水处理</t>
         </is>
       </c>
+      <c r="BL12" t="inlineStr">
+        <is>
+          <t>603728.SH; 鸣志电器; 0;  09:41:32; 2天2板; 78.6;  09:41:32; 4.2%; 2; 人形机器人+电机+外销</t>
+        </is>
+      </c>
+      <c r="BM12" t="inlineStr">
+        <is>
+          <t>002577.SZ; 雷柏科技; 0;  09:47:27; 2天2板; 23.38;  09:47:27; 10.0%; 2; AI眼镜+游戏设备+星闪</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="5" t="n">
@@ -4559,6 +4679,16 @@
           <t>002599.SZ; 盛通股份; 2;  10:04:39; 3天2板; 8.24;  09:30:36; 10.0%; 1; 人形机器人+宇树科技合作+教育+鸿蒙</t>
         </is>
       </c>
+      <c r="BL13" t="inlineStr">
+        <is>
+          <t>003015.SZ; 日久光电; 2;  09:48:35; 3天2板; 16.35;  09:32:32; -1.9%; 1; 可用于AR眼镜+小米+光学光电子</t>
+        </is>
+      </c>
+      <c r="BM13" t="inlineStr">
+        <is>
+          <t>002306.SZ; 中科云网; 0;  09:51:45; 3天2板; 2.49;  09:51:45; 10.2%; 1; 光伏+餐饮团膳+获1300万元债务豁免</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="5" t="n">
@@ -4864,6 +4994,16 @@
           <t>605398.SH; 新炬网络; 1;  10:06:38; 5天5板; 30.71;  09:25:02; 10.0%; 5; AI Agent+数据中心运维+华为鲲鹏</t>
         </is>
       </c>
+      <c r="BL14" t="inlineStr">
+        <is>
+          <t>600633.SH; 浙数文化; 0;  09:48:50; 2天2板; 13.59;  09:48:50; 10.0%; 2; AI应用+算力租赁+数据交易中心+杭州国资</t>
+        </is>
+      </c>
+      <c r="BM14" t="inlineStr">
+        <is>
+          <t>002261.SZ; 拓维信息; 0;  10:05:18; 3天3板; 22.47;  10:05:18; 10.0%; 3; 昇腾大模型一体机+鸿蒙+信创</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="5" t="n">
@@ -5164,6 +5304,16 @@
           <t>600807.SH; 济高发展; 0;  10:07:10; 2天2板; 3.1;  10:07:10; 9.9%; 2; 资产注入猜测+体外诊断+济南国资</t>
         </is>
       </c>
+      <c r="BL15" t="inlineStr">
+        <is>
+          <t>000532.SZ; 华金资本; 5;  09:55:50; 3天3板; 18.51;  09:32:02; 4.6%; 3; 参与DeepSeek融资（已澄清）+多元金融+珠海国资</t>
+        </is>
+      </c>
+      <c r="BM15" t="inlineStr">
+        <is>
+          <t>603150.SH; 万朗磁塑; 4;  10:06:27; 2天2板; 32.34;  09:25:03; 10.0%; 2; 无人驾驶+稀土永磁+汽车零部件+比亚迪概念</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="5" t="n">
@@ -5444,6 +5594,16 @@
           <t>600588.SH; 用友网络; 0;  10:50:07; 3天2板; 12;  10:50:07; 10.0%; 1; AI应用+业绩落地+ERP龙头</t>
         </is>
       </c>
+      <c r="BL16" t="inlineStr">
+        <is>
+          <t>002261.SZ; 拓维信息; 0;  10:11:36; 2天2板; 22.47;  10:11:36; 10.0%; 2; 昇腾大模型一体机+鸿蒙+信创</t>
+        </is>
+      </c>
+      <c r="BM16" t="inlineStr">
+        <is>
+          <t>600580.SH; 卧龙电驱; 3;  14:09:47; 3天2板; 26.54;  09:40:56; 10.0%; 1; 人形机器人+数据中心+飞行汽车+电机</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="5" t="n">
@@ -5704,6 +5864,16 @@
           <t>002691.SZ; 冀凯股份; 2;  10:53:03; 11天9板; 9.19;  10:46:03; 10.1%; 2; 矿山装备+机器人+3D打印</t>
         </is>
       </c>
+      <c r="BL17" t="inlineStr">
+        <is>
+          <t>002530.SZ; 金财互联; 0;  10:52:38; 4天3板; 12.23;  10:52:38; -3.2%; 1; AI智能体+财税大模型+机器人</t>
+        </is>
+      </c>
+      <c r="BM17" t="inlineStr">
+        <is>
+          <t>002213.SZ; 大为股份; 6;  14:16:18; 3天3板; 18.17;  09:25:00; 10.0%; 3; 存储芯片+比亚迪+智能终端+锂电池</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="5" t="n">
@@ -5954,6 +6124,16 @@
           <t>000882.SZ; 华联股份; 2;  14:36:46; 5天5板; 3.75;  10:03:01; 10.0%; 5; 零售+影视+收购北京SKP旗下资产</t>
         </is>
       </c>
+      <c r="BL18" t="inlineStr">
+        <is>
+          <t>002213.SZ; 大为股份; 1;  13:18:57; 2天2板; 18.17;  13:13:39; 10.0%; 2; 存储芯片+比亚迪+智能终端+锂电池</t>
+        </is>
+      </c>
+      <c r="BM18" t="inlineStr">
+        <is>
+          <t>600120.SH; 浙江东方; 33;  14:24:30; 4天4板; 6.78;  09:31:24; 10.1%; 4; 澄清未投资DeepSeek+多元金融+浙江国企+年报预增</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="5" t="n">
@@ -6199,6 +6379,16 @@
           <t>605060.SH; 联德股份; 0;  14:40:31; 3天2板; 22.12;  14:40:31; 10.0%; 1; 压缩机+数据中心+出海</t>
         </is>
       </c>
+      <c r="BL19" t="inlineStr">
+        <is>
+          <t>603596.SH; 伯特利; 1;  13:21:32; 2天2板; 59.55;  13:18:23; 7.7%; 2; 比亚迪概念+智能驾驶+飞行汽车+特斯拉概念</t>
+        </is>
+      </c>
+      <c r="BM19" t="inlineStr">
+        <is>
+          <t>002123.SZ; 梦网科技; 3;  14:25:21; 3天3板; 14.19;  09:32:36; 10.0%; 3; DeepSeek概念+拟收购碧橙数字控制权+云通信+鸿蒙</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="5" t="n">
@@ -6419,6 +6609,16 @@
           <t>002799.SZ; 环球印务; 0;  13:15:11; 3天2板; 8.9;  13:15:11; -1.3%; 1; 字节（营销）+腾讯+医药包装+国企</t>
         </is>
       </c>
+      <c r="BL20" t="inlineStr">
+        <is>
+          <t>600355.SH; 精伦电子; 0;  13:25:55; 2天2板; 3.72;  13:25:55; 10.1%; 2; 机器人+智能制造+智能电网</t>
+        </is>
+      </c>
+      <c r="BM20" t="inlineStr">
+        <is>
+          <t>605299.SH; 舒华体育; 4;  14:26:24; 3天2板; 10.35;  11:08:09; 10.0%; 1; 健身器材+冰雪产业+跨境电商</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="5" t="n">
@@ -6629,6 +6829,16 @@
           <t>300515.SZ; 三德科技; 3;  14:44:36; 2天2板; 18.44;  09:40:32; 3.9%; 2; 年报预增+机器人概念+智能装备</t>
         </is>
       </c>
+      <c r="BL21" t="inlineStr">
+        <is>
+          <t>002123.SZ; 梦网科技; 9;  13:46:59; 2天2板; 14.19;  10:17:28; 10.0%; 2; DeepSeek概念+拟收购碧橙数字控制权+云通信+鸿蒙</t>
+        </is>
+      </c>
+      <c r="BM21" t="inlineStr">
+        <is>
+          <t>300846.SZ; 首都在线; 1;  14:28:54; 3天2板; 18.52;  09:32:51; 20.0%; 1; DeepSeek概念+算力+数据中心</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="5" t="n">
@@ -6829,6 +7039,11 @@
           <t>300792.SZ; 壹网壹创; 3;  14:15:42; 3天3板; 37.6;  09:38:09; 20.0%; 3; 小红书+电子商务+出海</t>
         </is>
       </c>
+      <c r="BM22" t="inlineStr">
+        <is>
+          <t>600588.SH; 用友网络; 2;  14:29:29; 5天3板; 13.7;  10:03:59; 10.0%; 1; ERP龙头+AI应用+业绩落地</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="5" t="n">
@@ -7019,6 +7234,11 @@
           <t>603777.SH; 来伊份; 5;  14:37:57; 6天6板; 24.6;  09:34:42; 10.0%; 6; 小红书+礼品+腾讯+电商</t>
         </is>
       </c>
+      <c r="BM23" t="inlineStr">
+        <is>
+          <t>000818.SZ; 航锦科技; 10;  14:31:03; 4天4板; 22.35;  10:23:06; 10.0%; 4; 幻方合作+算力+英伟达+国企</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="5" t="n">
@@ -7204,6 +7424,11 @@
           <t>002712.SZ; 思美传媒; 5;  14:43:18; 2天2板; 6.27;  09:33:03; 10.0%; 2; 小红书+营销+字节+智谱</t>
         </is>
       </c>
+      <c r="BM24" t="inlineStr">
+        <is>
+          <t>002448.SZ; 中原内配; 11;  14:31:42; 2天2板; 7.91;  09:30:12; 10.0%; 2; 发动机+无人驾驶+MCU</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="5" t="n">
@@ -7389,6 +7614,11 @@
           <t>002164.SZ; 宁波东力; 10;  14:45:06; 4天4板; 7.03;  09:39:06; 10.0%; 4; 行星减速器+齿轮箱+传动装置</t>
         </is>
       </c>
+      <c r="BM25" t="inlineStr">
+        <is>
+          <t>603920.SH; 世运电路; 11;  14:33:15; 2天2板; 37;  09:55:21; 10.0%; 2; PCB+特斯拉+人形机器人+无人驾驶</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="5" t="n">
@@ -7569,6 +7799,11 @@
           <t>002582.SZ; 好想你; 0;  14:49:00; 2天2板; 10.47;  14:49:00; 10.0%; 2; 微信小店+红枣+间接参投蜜雪冰城</t>
         </is>
       </c>
+      <c r="BM26" t="inlineStr">
+        <is>
+          <t>003005.SZ; 竞业达; 0;  14:33:24; 4天3板; 40.56;  14:33:24; 10.0%; 1; AI教育+智慧城市+年报预增</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="5" t="n">
@@ -7744,6 +7979,11 @@
           <t>600981.SH; 汇鸿集团; 1;  14:51:17; 2天2板; 2.97;  14:06:20; 10.0%; 2; 参股弘业期货+供应链运营+资产置换</t>
         </is>
       </c>
+      <c r="BM27" t="inlineStr">
+        <is>
+          <t>603110.SH; 东方材料; 6;  14:38:18; 3天3板; 19.4;  09:25:03; 10.0%; 3; 东方超算+PCB电子油墨</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="5" t="n">
@@ -7919,6 +8159,11 @@
           <t>600693.SH; 东百集团; 4;  14:55:10; 16天9板; 7.22;  14:49:22; 10.1%; 1; 零售+免税店+跨境电商</t>
         </is>
       </c>
+      <c r="BM28" t="inlineStr">
+        <is>
+          <t>603496.SH; 恒为科技; 2;  14:41:40; 3天2板; 28.16;  13:06:04; 10.0%; 1; 华为昇腾+网络可视化</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="5" t="n">
@@ -8084,6 +8329,11 @@
           <t>600423.SH; 柳化股份; 1;  13:43:15; 3天3板; 3.73;  10:37:00; 10.0%; 3; 芯片概念+电子级双氧水+国企</t>
         </is>
       </c>
+      <c r="BM29" t="inlineStr">
+        <is>
+          <t>600186.SH; 莲花控股; 7;  14:54:31; 2天2板; 6.51;  10:28:22; 10.0%; 2; 部署DeepSeek R1大模型+算力+味精+年报预增</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="5" t="n">
@@ -8244,6 +8494,11 @@
           <t>002031.SZ; 巨轮智能; 0;  13:56:57; 2天2板; 6.68;  13:56:57; 10.0%; 2; 人形机器人+RV减速器+轮胎模具</t>
         </is>
       </c>
+      <c r="BM30" t="inlineStr">
+        <is>
+          <t>002691.SZ; 冀凯股份; 9;  14:55:45; 13天11板; 11.12;  09:30:06; 10.0%; 4; 机器人+矿山装备+3D打印</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="5" t="n">
@@ -8397,6 +8652,11 @@
       <c r="BB31" t="inlineStr">
         <is>
           <t>002187.SZ; 广百股份; 1;  14:52:03; 7天4板; 9.15;  10:59:06; 10.0%; 1; 百货零售+IP经济+黄金珠宝+国企</t>
+        </is>
+      </c>
+      <c r="BM31" t="inlineStr">
+        <is>
+          <t>002122.SZ; 汇洲智能; 4;  15:00:00; 3天3板; 5.29;  13:48:57; 10.0%; 3; 数据中心+工业母机+小红书审核</t>
         </is>
       </c>
     </row>
@@ -10981,7 +11241,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK146"/>
+  <dimension ref="A1:BM146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11300,6 +11560,16 @@
           <t>2025年02月05日</t>
         </is>
       </c>
+      <c r="BL1" s="5" t="inlineStr">
+        <is>
+          <t>2025年02月06日</t>
+        </is>
+      </c>
+      <c r="BM1" s="5" t="inlineStr">
+        <is>
+          <t>2025年02月07日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="5" t="n">
@@ -11603,6 +11873,11 @@
       <c r="BK2" t="inlineStr">
         <is>
           <t>000802.SZ; 北京文化; 0;  09:25:00; 一字跌停||缩量跌停; 6.3; -10.0%; 1; 影视股普跌</t>
+        </is>
+      </c>
+      <c r="BM2" t="inlineStr">
+        <is>
+          <t>002718.SZ; 友邦吊顶; 2;  09:32:06; 放量跌停; 15.84; -10.0%; 1; 此前涨幅较大+年报预亏</t>
         </is>
       </c>
     </row>
@@ -19007,7 +19282,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK72"/>
+  <dimension ref="A1:BM72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19326,6 +19601,16 @@
           <t>2025年02月05日</t>
         </is>
       </c>
+      <c r="BL1" s="5" t="inlineStr">
+        <is>
+          <t>2025年02月06日</t>
+        </is>
+      </c>
+      <c r="BM1" s="5" t="inlineStr">
+        <is>
+          <t>2025年02月07日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="5" t="n">
@@ -19641,6 +19926,16 @@
           <t>000678.SZ; 襄阳轴承; 1;  09:30:36; 主板; 6.44; 曾涨停; 5.2%; 0.08H;  09:30:36</t>
         </is>
       </c>
+      <c r="BL2" t="inlineStr">
+        <is>
+          <t>002713.SZ; 东易日盛; 1;  09:33:47; 主板; 4.2; 曾涨停; 0.7%; 0.03H;  09:33:47</t>
+        </is>
+      </c>
+      <c r="BM2" t="inlineStr">
+        <is>
+          <t>000972.SZ; 中基健康; 4;  09:25:00; 主板; 3.75; 曾涨停; 3.0%; 0.05H;  09:25:00|| 09:32:57|| 09:33:54|| 09:42:00</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="n">
@@ -19956,6 +20251,16 @@
           <t>002861.SZ; 瀛通通讯; 2;  09:31:36; 主板; 16.7; 曾涨停; 0.5%; 0.00H;  09:31:36|| 09:32:00</t>
         </is>
       </c>
+      <c r="BL3" t="inlineStr">
+        <is>
+          <t>002718.SZ; 友邦吊顶; 1;  09:34:02; 主板; 15.84; 曾涨停; -10.0%; 0.00H;  09:34:02</t>
+        </is>
+      </c>
+      <c r="BM3" t="inlineStr">
+        <is>
+          <t>605055.SH; 迎丰股份; 1;  09:30:18; 主板; 5.68; 曾涨停; 1.1%; 0.07H;  09:30:18</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="5" t="n">
@@ -20271,6 +20576,16 @@
           <t>603880.SH; 南卫股份; 4;  09:33:03; 主板; 5.1; 曾涨停; 5.4%; 0.85H;  09:33:03|| 09:33:33|| 09:34:36|| 09:38:45</t>
         </is>
       </c>
+      <c r="BL4" t="inlineStr">
+        <is>
+          <t>002892.SZ; 科力尔; 1;  09:45:49; 主板; 18.17; 曾涨停; -1.0%; 0.19H;  09:45:49</t>
+        </is>
+      </c>
+      <c r="BM4" t="inlineStr">
+        <is>
+          <t>300790.SZ; 宇瞳光学; 2;  09:30:45; 创业板; 28.91; 曾涨停; 16.3%; 0.02H;  09:30:45|| 09:53:36</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="n">
@@ -20586,6 +20901,16 @@
           <t>605069.SH; 正和生态; 1;  09:33:06; 主板; 8.52; 曾涨停; 0.5%; 0.00H;  09:33:06</t>
         </is>
       </c>
+      <c r="BL5" t="inlineStr">
+        <is>
+          <t>003005.SZ; 竞业达; 1;  09:46:50; 主板; 40.56; 曾涨停; 10.0%; 0.03H;  09:46:50</t>
+        </is>
+      </c>
+      <c r="BM5" t="inlineStr">
+        <is>
+          <t>002655.SZ; 共达电声; 2;  09:33:30; 主板; 13.34; 曾涨停; 7.2%; 0.00H;  09:33:30|| 09:33:48</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="5" t="n">
@@ -20901,6 +21226,16 @@
           <t>600986.SH; 浙文互联; 1;  09:33:09; 主板; 6.84; 曾涨停; 4.3%; 0.34H;  09:33:09</t>
         </is>
       </c>
+      <c r="BL6" t="inlineStr">
+        <is>
+          <t>603915.SH; 国茂股份; 1;  09:51:40; 主板; 14.71; 曾涨停; 1.2%; 0.03H;  09:51:40</t>
+        </is>
+      </c>
+      <c r="BM6" t="inlineStr">
+        <is>
+          <t>603130.SH; 云中马; 1;  09:35:50; 主板; 22.6; 曾涨停; 5.1%; 0.01H;  09:35:50</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="n">
@@ -21216,6 +21551,16 @@
           <t>603890.SH; 春秋电子; 1;  09:44:21; 主板; 13.15; 曾涨停; 6.7%; 0.33H;  09:44:21</t>
         </is>
       </c>
+      <c r="BL7" t="inlineStr">
+        <is>
+          <t>002579.SZ; 中京电子; 1;  10:15:58; 主板; 8.74; 曾涨停; -0.1%; 0.13H;  10:15:58</t>
+        </is>
+      </c>
+      <c r="BM7" t="inlineStr">
+        <is>
+          <t>300588.SZ; 熙菱信息; 2;  09:36:36; 创业板; 15.62; 曾涨停; 11.5%; 0.03H;  09:36:36|| 09:39:48</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="5" t="n">
@@ -21531,6 +21876,16 @@
           <t>002664.SZ; 信质集团; 1;  09:47:36; 主板; 15.4; 曾涨停; 8.1%; 0.00H;  09:47:36</t>
         </is>
       </c>
+      <c r="BL8" t="inlineStr">
+        <is>
+          <t>600155.SH; 华创云信; 1;  10:53:23; 主板; 7.53; 曾涨停; 1.9%; 0.21H;  10:53:23</t>
+        </is>
+      </c>
+      <c r="BM8" t="inlineStr">
+        <is>
+          <t>603887.SH; 城地香江; 2;  09:47:58; 主板; 15.91; 曾涨停; 7.5%; 2.99H;  09:47:58|| 10:00:37</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="n">
@@ -21846,6 +22201,16 @@
           <t>600186.SH; 莲花控股; 1;  09:48:57; 主板; 5.38; 曾涨停; 7.0%; 0.01H;  09:48:57</t>
         </is>
       </c>
+      <c r="BL9" t="inlineStr">
+        <is>
+          <t>300638.SZ; 广和通; 1;  10:55:39; 创业板; 36.3; 曾涨停; 3.0%; 1.79H;  10:55:39</t>
+        </is>
+      </c>
+      <c r="BM9" t="inlineStr">
+        <is>
+          <t>603667.SH; 五洲新春; 1;  09:49:31; 主板; 46.5; 曾涨停; 5.3%; 0.39H;  09:49:31</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="5" t="n">
@@ -22161,6 +22526,16 @@
           <t>000158.SZ; 常山北明; 1;  09:50:15; 主板; 19.31; 曾涨停; 8.5%; 0.28H;  09:50:15</t>
         </is>
       </c>
+      <c r="BL10" t="inlineStr">
+        <is>
+          <t>300676.SZ; 华大基因; 1;  11:00:27; 创业板; 49.98; 曾涨停; 7.7%; 0.46H;  11:00:27</t>
+        </is>
+      </c>
+      <c r="BM10" t="inlineStr">
+        <is>
+          <t>301551.SZ; 无线传媒; 1;  09:54:06; 创业板; 61.99; 曾涨停; 19.5%; 3.06H;  09:54:06</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="5" t="n">
@@ -22471,6 +22846,16 @@
           <t>002272.SZ; 川润股份; 3;  09:50:24; 主板; 8.37; 曾涨停; 6.5%; 0.06H;  09:50:24|| 09:53:30|| 09:54:03</t>
         </is>
       </c>
+      <c r="BL11" t="inlineStr">
+        <is>
+          <t>603236.SH; 移远通信; 2;  11:11:34; 主板; 90.08; 曾涨停; -1.3%; 0.01H;  11:11:34|| 13:09:22</t>
+        </is>
+      </c>
+      <c r="BM11" t="inlineStr">
+        <is>
+          <t>603037.SH; 凯众股份; 1;  09:56:57; 主板; 16.12; 曾涨停; 5.0%; 2.95H;  09:56:57</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="5" t="n">
@@ -22781,6 +23166,16 @@
           <t>002394.SZ; 联发股份; 6;  09:52:30; 主板; 8.35; 曾涨停; 3.1%; 0.15H;  09:52:30|| 09:53:39|| 09:54:45|| 10:20:42|| 10:25:33|| 10:26:03</t>
         </is>
       </c>
+      <c r="BL12" t="inlineStr">
+        <is>
+          <t>603118.SH; 共进股份; 2;  11:16:34; 主板; 10.2; 曾涨停; 0.6%; 0.01H;  11:16:34|| 11:19:19</t>
+        </is>
+      </c>
+      <c r="BM12" t="inlineStr">
+        <is>
+          <t>001223.SZ; 欧克科技; 1;  09:58:15; 主板; 47.86; 曾涨停; 7.1%; 1.01H;  09:58:15</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="5" t="n">
@@ -23086,6 +23481,16 @@
           <t>002406.SZ; 远东传动; 2;  10:02:27; 主板; 6.54; 曾涨停; 5.8%; 0.02H;  10:02:27|| 10:03:42</t>
         </is>
       </c>
+      <c r="BL13" t="inlineStr">
+        <is>
+          <t>603119.SH; 浙江荣泰; 2;  11:24:19; 主板; 28.25; 曾涨停; -3.6%; 0.49H;  11:24:19|| 13:15:39</t>
+        </is>
+      </c>
+      <c r="BM13" t="inlineStr">
+        <is>
+          <t>603901.SH; 永创智能; 1;  10:01:24; 主板; 9.79; 曾涨停; 7.6%; 2.31H;  10:01:24</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="5" t="n">
@@ -23391,6 +23796,16 @@
           <t>002681.SZ; 奋达科技; 1;  10:10:24; 主板; 7.27; 曾涨停; 8.7%; 0.03H;  10:10:24</t>
         </is>
       </c>
+      <c r="BL14" t="inlineStr">
+        <is>
+          <t>002384.SZ; 东山精密; 1;  13:00:20; 主板; 31.97; 曾涨停; -1.1%; 0.01H;  13:00:20</t>
+        </is>
+      </c>
+      <c r="BM14" t="inlineStr">
+        <is>
+          <t>003010.SZ; 若羽臣; 1;  10:02:12; 主板; 30.5; 曾涨停; 7.2%; 2.71H;  10:02:12</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="5" t="n">
@@ -23696,6 +24111,16 @@
           <t>601777.SH; 力帆科技; 1;  10:18:58; 主板; 6.74; 曾涨停; 8.7%; 1.80H;  10:18:58</t>
         </is>
       </c>
+      <c r="BL15" t="inlineStr">
+        <is>
+          <t>605299.SH; 舒华体育; 2;  13:06:20; 主板; 10.35; 曾涨停; 10.0%; 0.02H;  13:06:20|| 13:07:50</t>
+        </is>
+      </c>
+      <c r="BM15" t="inlineStr">
+        <is>
+          <t>603166.SH; 福达股份; 5;  10:04:23; 主板; 11.05; 曾涨停; 9.3%; 0.20H;  10:04:23|| 14:36:23|| 14:38:47|| 14:42:35|| 14:45:35</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="5" t="n">
@@ -23996,6 +24421,16 @@
           <t>600732.SH; 爱旭股份; 1;  10:43:20; 主板; 11.25; 曾涨停; 7.0%; 1.09H;  10:43:20</t>
         </is>
       </c>
+      <c r="BL16" t="inlineStr">
+        <is>
+          <t>601689.SH; 拓普集团; 5;  13:09:52; 主板; 73.21; 曾涨停; -2.0%; 0.31H;  13:09:52|| 13:10:39|| 13:37:11|| 13:51:27|| 14:56:25</t>
+        </is>
+      </c>
+      <c r="BM16" t="inlineStr">
+        <is>
+          <t>603106.SH; 恒银科技; 2;  10:04:54; 主板; 9.64; 曾涨停; 8.6%; 2.49H;  10:04:54|| 10:18:42</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="5" t="n">
@@ -24286,6 +24721,16 @@
           <t>003021.SZ; 兆威机电; 1;  11:09:54; 主板; 100.98; 曾涨停; 8.3%; 0.90H;  11:09:54</t>
         </is>
       </c>
+      <c r="BL17" t="inlineStr">
+        <is>
+          <t>002861.SZ; 瀛通通讯; 1;  13:17:02; 主板; 18.4; 曾涨停; 10.0%; 0.00H;  13:17:02</t>
+        </is>
+      </c>
+      <c r="BM17" t="inlineStr">
+        <is>
+          <t>002945.SZ; 华林证券; 3;  10:18:39; 主板; 16.1; 曾涨停; 7.5%; 1.31H;  10:18:39|| 11:03:36|| 14:04:45</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="5" t="n">
@@ -24571,6 +25016,16 @@
           <t>002912.SZ; 中新赛克; 1;  11:17:48; 主板; 26.45; 曾涨停; 5.5%; 0.03H;  11:17:48</t>
         </is>
       </c>
+      <c r="BL18" t="inlineStr">
+        <is>
+          <t>002125.SZ; 湘潭电化; 1;  13:40:12; 主板; 11.08; 曾涨停; 2.7%; 0.03H;  13:40:12</t>
+        </is>
+      </c>
+      <c r="BM18" t="inlineStr">
+        <is>
+          <t>000681.SZ; 视觉中国; 1;  10:21:03; 主板; 26.51; 曾涨停; 3.6%; 0.01H;  10:21:03</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="5" t="n">
@@ -24856,6 +25311,16 @@
           <t>002153.SZ; 石基信息; 1;  13:00:00; 主板; 7.07; 曾涨停; 7.8%; 0.86H;  13:00:00</t>
         </is>
       </c>
+      <c r="BL19" t="inlineStr">
+        <is>
+          <t>600580.SH; 卧龙电驱; 2;  13:47:53; 主板; 26.54; 曾涨停; 10.0%; 0.30H;  13:47:53|| 13:57:27</t>
+        </is>
+      </c>
+      <c r="BM19" t="inlineStr">
+        <is>
+          <t>300159.SZ; 新研股份; 1;  10:22:18; 创业板; 2.44; 曾涨停; 15.6%; 0.02H;  10:22:18</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="5" t="n">
@@ -25121,6 +25586,16 @@
           <t>300223.SZ; 北京君正; 1;  13:08:42; 创业板; 73.37; 曾涨停; 13.9%; 0.13H;  13:08:42</t>
         </is>
       </c>
+      <c r="BL20" t="inlineStr">
+        <is>
+          <t>002896.SZ; 中大力德; 2;  13:50:25; 主板; 64.13; 曾涨停; -1.1%; 0.03H;  13:50:25|| 13:53:27</t>
+        </is>
+      </c>
+      <c r="BM20" t="inlineStr">
+        <is>
+          <t>603383.SH; 顶点软件; 3;  10:38:33; 主板; 41; 曾涨停; 8.8%; 2.20H;  10:38:33|| 13:45:33|| 14:02:24</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="5" t="n">
@@ -25386,6 +25861,16 @@
           <t>002848.SZ; 高斯贝尔; 1;  13:09:21; 主板; 6.03; 曾涨停; 7.1%; 0.02H;  13:09:21</t>
         </is>
       </c>
+      <c r="BL21" t="inlineStr">
+        <is>
+          <t>002050.SZ; 三花智控; 1;  13:52:57; 主板; 35.32; 曾涨停; 0.3%; 0.28H;  13:52:57</t>
+        </is>
+      </c>
+      <c r="BM21" t="inlineStr">
+        <is>
+          <t>000977.SZ; 浪潮信息; 1;  10:42:09; 主板; 60.28; 曾涨停; 7.1%; 1.74H;  10:42:09</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="5" t="n">
@@ -25641,6 +26126,16 @@
           <t>000681.SZ; 视觉中国; 2;  13:22:24; 主板; 25.35; 曾涨停; 4.8%; 0.00H;  13:22:24|| 13:25:54</t>
         </is>
       </c>
+      <c r="BL22" t="inlineStr">
+        <is>
+          <t>603636.SH; 南威软件; 1;  13:53:12; 主板; 14.39; 曾涨停; 2.8%; 0.01H;  13:53:12</t>
+        </is>
+      </c>
+      <c r="BM22" t="inlineStr">
+        <is>
+          <t>603380.SH; 易德龙; 1;  10:51:57; 主板; 26.9; 曾涨停; 6.6%; 2.03H;  10:51:57</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="5" t="n">
@@ -25871,6 +26366,16 @@
           <t>002583.SZ; 海能达; 1;  10:02:48; 主板; 13.15; 曾涨停; -1.8%; 1.23H;  10:02:48</t>
         </is>
       </c>
+      <c r="BL23" t="inlineStr">
+        <is>
+          <t>600686.SH; 金龙汽车; 2;  14:41:13; 主板; 14.83; 曾涨停; -0.8%; 0.01H;  14:41:13|| 14:41:43</t>
+        </is>
+      </c>
+      <c r="BM23" t="inlineStr">
+        <is>
+          <t>603063.SH; 禾望电气; 1;  10:57:44; 主板; 29.18; 曾涨停; 5.7%; 0.14H;  10:57:44</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="5" t="n">
@@ -26101,6 +26606,11 @@
           <t>605018.SH; 长华集团; 1;  10:03:48; 主板; 12.1; 曾涨停; 10.0%; 0.00H;  10:03:48</t>
         </is>
       </c>
+      <c r="BM24" t="inlineStr">
+        <is>
+          <t>603108.SH; 润达医疗; 4;  10:59:18; 主板; 18.91; 曾涨停; 8.6%; 1.85H;  10:59:18|| 11:17:42|| 13:45:27|| 13:46:39</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="5" t="n">
@@ -26326,6 +26836,11 @@
           <t>605180.SH; 华生科技; 1;  10:20:17; 主板; 12.85; 曾涨停; 1.8%; 0.08H;  10:20:17</t>
         </is>
       </c>
+      <c r="BM25" t="inlineStr">
+        <is>
+          <t>600410.SH; 华胜天成; 1;  11:10:32; 主板; 9.58; 曾涨停; 6.2%; 1.17H;  11:10:32</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="5" t="n">
@@ -26536,6 +27051,11 @@
           <t>002691.SZ; 冀凯股份; 7;  10:31:32; 主板; 7.59; 曾涨停; -10.0%; 0.31H;  10:31:32|| 10:33:17|| 10:35:17|| 10:53:31|| 10:54:01|| 10:56:01|| 10:59:16</t>
         </is>
       </c>
+      <c r="BM26" t="inlineStr">
+        <is>
+          <t>001266.SZ; 宏英智能; 2;  11:17:33; 主板; 25.17; 曾涨停; 4.6%; 0.48H;  11:17:33|| 13:13:18</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="5" t="n">
@@ -26741,6 +27261,11 @@
           <t>301310.SZ; 鑫宏业; 1;  10:43:02; 创业板; 29.6; 曾涨停; -0.1%; 0.60H;  10:43:02</t>
         </is>
       </c>
+      <c r="BM27" t="inlineStr">
+        <is>
+          <t>002560.SZ; 通达股份; 2;  11:20:06; 主板; 6.58; 曾涨停; 6.1%; 0.02H;  11:20:06|| 11:20:48</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="5" t="n">
@@ -26931,6 +27456,11 @@
           <t>605488.SH; 福莱新材; 4;  10:45:02; 主板; 33.29; 曾涨停; -2.1%; 0.13H;  10:45:02|| 10:53:46|| 11:05:51|| 11:07:23</t>
         </is>
       </c>
+      <c r="BM28" t="inlineStr">
+        <is>
+          <t>603596.SH; 伯特利; 5;  11:28:32; 主板; 59.55; 曾涨停; 7.7%; 0.01H;  11:28:32|| 11:28:41|| 11:28:47|| 11:28:53|| 13:00:05</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="5" t="n">
@@ -27121,6 +27651,11 @@
           <t>002645.SZ; 华宏科技; 1;  10:59:01; 主板; 6.88; 曾涨停; -1.0%; 1.05H;  10:59:01</t>
         </is>
       </c>
+      <c r="BM29" t="inlineStr">
+        <is>
+          <t>000503.SZ; 国新健康; 1;  13:00:03; 主板; 11.5; 曾涨停; 6.2%; 1.09H;  13:00:03</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="5" t="n">
@@ -27306,6 +27841,11 @@
           <t>002674.SZ; 兴业科技; 1;  11:18:53; 主板; 10.46; 曾涨停; 3.6%; 0.00H;  11:18:53</t>
         </is>
       </c>
+      <c r="BM30" t="inlineStr">
+        <is>
+          <t>600609.SH; 金杯汽车; 1;  13:00:30; 主板; 7.49; 曾涨停; 8.7%; 0.08H;  13:00:30</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="5" t="n">
@@ -27481,6 +28021,11 @@
           <t>002921.SZ; 联诚精密; 1;  13:03:07; 主板; 12.31; 曾涨停; 4.1%; 1.07H;  13:03:07</t>
         </is>
       </c>
+      <c r="BM31" t="inlineStr">
+        <is>
+          <t>301596.SZ; 瑞迪智驱; 3;  13:01:36; 创业板; 139.08; 曾涨停; 14.1%; 0.25H;  13:01:36|| 13:02:18|| 13:03:24</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="5" t="n">
@@ -27636,6 +28181,11 @@
           <t>001282.SZ; 三联锻造; 1;  13:04:37; 主板; 27.03; 曾涨停; 10.0%; 0.38H;  13:04:37</t>
         </is>
       </c>
+      <c r="BM32" t="inlineStr">
+        <is>
+          <t>002065.SZ; 东华软件; 1;  13:02:33; 主板; 8.45; 曾涨停; 8.2%; 0.72H;  13:02:33</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="5" t="n">
@@ -27781,6 +28331,11 @@
           <t>603273.SH; 天元智能; 1;  13:18:37; 主板; 17.15; 曾涨停; 0.0%; 0.02H;  13:18:37</t>
         </is>
       </c>
+      <c r="BM33" t="inlineStr">
+        <is>
+          <t>002098.SZ; 浔兴股份; 1;  13:06:09; 主板; 8.98; 曾涨停; 5.6%; 0.16H;  13:06:09</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="5" t="n">
@@ -27921,6 +28476,11 @@
           <t>002830.SZ; 名雕股份; 1;  14:29:16; 主板; 12.86; 曾涨停; -1.8%; 0.01H;  14:29:16</t>
         </is>
       </c>
+      <c r="BM34" t="inlineStr">
+        <is>
+          <t>000567.SZ; 海德股份; 1;  13:07:03; 主板; 6.48; 曾涨停; 7.1%; 1.03H;  13:07:03</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="5" t="n">
@@ -28036,6 +28596,11 @@
           <t>002931.SZ; 锋龙股份; 1;  14:30:03; 主板; 17.35; 曾涨停; 6.7%; 0.18H;  14:30:03</t>
         </is>
       </c>
+      <c r="BM35" t="inlineStr">
+        <is>
+          <t>603031.SH; 安孚科技; 1;  13:09:33; 主板; 29.4; 曾涨停; 8.2%; 0.01H;  13:09:33</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="5" t="n">
@@ -28146,6 +28711,11 @@
           <t>600272.SH; 开开实业; 1;  14:52:46; 主板; 16.56; 曾涨停; 8.8%; 0.05H;  14:52:46</t>
         </is>
       </c>
+      <c r="BM36" t="inlineStr">
+        <is>
+          <t>002777.SZ; 久远银海; 1;  13:10:39; 主板; 19.89; 曾涨停; 9.8%; 0.36H;  13:10:39</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="5" t="n">
@@ -28251,6 +28821,11 @@
           <t>002702.SZ; 海欣食品; 1;  10:10:01; 主板; 4.31; 曾涨停; -2.0%; 0.01H;  10:10:01</t>
         </is>
       </c>
+      <c r="BM37" t="inlineStr">
+        <is>
+          <t>600602.SH; 云赛智联; 1;  13:11:06; 主板; 16.38; 曾涨停; 5.4%; 0.68H;  13:11:06</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="5" t="n">
@@ -28346,6 +28921,11 @@
           <t>000419.SZ; 通程控股; 8;  10:14:53; 主板; 5.71; 曾涨停; -0.9%; 2.65H;  10:14:53|| 10:20:22|| 11:12:59|| 14:13:24|| 14:16:08|| 14:19:05|| 14:21:11|| 14:28:42</t>
         </is>
       </c>
+      <c r="BM38" t="inlineStr">
+        <is>
+          <t>002212.SZ; 天融信; 1;  13:13:03; 主板; 8.11; 曾涨停; 6.2%; 0.71H;  13:13:03</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="5" t="n">
@@ -28441,6 +29021,11 @@
           <t>600337.SH; 美克家居; 5;  10:19:09; 主板; 1.85; 曾涨停; -2.1%; 1.96H;  10:19:09|| 10:20:22|| 10:22:41|| 14:42:59|| 14:44:49</t>
         </is>
       </c>
+      <c r="BM39" t="inlineStr">
+        <is>
+          <t>000626.SZ; 远大控股; 1;  13:18:18; 主板; 6.07; 曾涨停; 3.2%; 0.05H;  13:18:18</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="5" t="n">
@@ -28536,6 +29121,11 @@
           <t>601933.SH; 永辉超市; 2;  10:25:25; 主板; 6.34; 曾涨停; -6.1%; 0.10H;  10:25:25|| 10:55:56</t>
         </is>
       </c>
+      <c r="BM40" t="inlineStr">
+        <is>
+          <t>002778.SZ; 中晟高科; 1;  13:22:12; 主板; 18.89; 曾涨停; 9.4%; 1.03H;  13:22:12</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="5" t="n">
@@ -28626,6 +29216,11 @@
           <t>600712.SH; 南宁百货; 2;  10:26:43; 主板; 7.23; 曾涨停; -1.0%; 0.04H;  10:26:43|| 10:28:17</t>
         </is>
       </c>
+      <c r="BM41" t="inlineStr">
+        <is>
+          <t>603138.SH; 海量数据; 1;  13:26:35; 主板; 16.06; 曾涨停; 5.4%; 0.17H;  13:26:35</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="5" t="n">
@@ -28711,6 +29306,11 @@
           <t>002187.SZ; 广百股份; 3;  10:31:05; 主板; 7.08; 曾涨停; -4.8%; 0.11H;  10:31:05|| 10:33:18|| 10:35:17</t>
         </is>
       </c>
+      <c r="BM42" t="inlineStr">
+        <is>
+          <t>600203.SH; 福日电子; 1;  13:29:10; 主板; 9.82; 曾涨停; 8.6%; 0.21H;  13:29:10</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="5" t="n">
@@ -28791,6 +29391,11 @@
           <t>603887.SH; 城地香江; 4;  10:31:33; 主板; 15.92; 曾涨停; 2.2%; 1.24H;  10:31:33|| 10:35:17|| 10:37:07|| 10:48:36</t>
         </is>
       </c>
+      <c r="BM43" t="inlineStr">
+        <is>
+          <t>600397.SH; 安源煤业; 2;  13:35:07; 主板; 4.52; 曾涨停; 6.6%; 0.81H;  13:35:07|| 13:36:31</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="5" t="n">
@@ -28871,6 +29476,11 @@
           <t>601999.SH; 出版传媒; 1;  10:33:44; 主板; 6.27; 曾涨停; -3.4%; 1.67H;  10:33:44</t>
         </is>
       </c>
+      <c r="BM44" t="inlineStr">
+        <is>
+          <t>002757.SZ; 南兴股份; 3;  13:35:48; 主板; 18.15; 曾涨停; 5.0%; 0.03H;  13:35:48|| 13:37:33|| 13:38:06</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="5" t="n">
@@ -28949,6 +29559,11 @@
       <c r="AG45" t="inlineStr">
         <is>
           <t>600682.SH; 南京新百; 3;  10:34:23; 主板; 6.84; 曾涨停; -2.3%; 2.16H;  10:34:23|| 14:17:55|| 14:20:18</t>
+        </is>
+      </c>
+      <c r="BM45" t="inlineStr">
+        <is>
+          <t>603194.SH; 中力股份; 1;  13:46:45; 主板; 37.43; 曾涨停; 7.0%; 0.00H;  13:46:45</t>
         </is>
       </c>
     </row>
@@ -29918,7 +30533,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK128"/>
+  <dimension ref="A1:BM128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30237,6 +30852,16 @@
           <t>2025年02月05日</t>
         </is>
       </c>
+      <c r="BL1" s="5" t="inlineStr">
+        <is>
+          <t>2025年02月06日</t>
+        </is>
+      </c>
+      <c r="BM1" s="5" t="inlineStr">
+        <is>
+          <t>2025年02月07日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="5" t="n">
@@ -30552,6 +31177,16 @@
           <t>000972.SZ; 中基健康; 0;  09:25:00; 首板涨停; 3.31;  09:25:00; 10.0%; 2; 拟购买新业能化100%股权+复牌+番茄</t>
         </is>
       </c>
+      <c r="BL2" t="inlineStr">
+        <is>
+          <t>002905.SZ; 金逸影视; 0;  09:30:47; 首板涨停; 7.77;  09:30:47; -1.3%; 1; 电影放映+电商</t>
+        </is>
+      </c>
+      <c r="BM2" t="inlineStr">
+        <is>
+          <t>605228.SH; 神通科技; 0;  09:25:01; 首板涨停; 10.77;  09:25:01; 10.0%; 1; 激光雷达+汽车零部件+智能座舱+特斯拉</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="n">
@@ -30867,6 +31502,16 @@
           <t>601360.SH; 三六零; 0;  09:25:00; 首板涨停; 12.21;  09:25:00; 10.0%; 1; DeepSeek概念+纳米AI搜索</t>
         </is>
       </c>
+      <c r="BL3" t="inlineStr">
+        <is>
+          <t>603311.SH; 金海高科; 0;  09:34:32; 首板涨停; 11.32;  09:34:32; -1.1%; 1; 家电+空气净化+新能源汽车</t>
+        </is>
+      </c>
+      <c r="BM3" t="inlineStr">
+        <is>
+          <t>300057.SZ; 万顺新材; 0;  09:32:30; 首板涨停; 5.59;  09:32:30; 20.0%; 1; DeepSeek+比亚迪概念+PET铜箔+铝加工</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="5" t="n">
@@ -31182,6 +31827,16 @@
           <t>600126.SH; 杭钢股份; 0;  09:25:01; 首板涨停; 5.72;  09:25:01; 10.0%; 1; DeepSeek概念+云计算+钢铁+浙江国资</t>
         </is>
       </c>
+      <c r="BL4" t="inlineStr">
+        <is>
+          <t>002577.SZ; 雷柏科技; 1;  09:35:47; 首板涨停; 23.38;  09:34:47; 10.0%; 1; AI眼镜+游戏设备+星闪</t>
+        </is>
+      </c>
+      <c r="BM4" t="inlineStr">
+        <is>
+          <t>000779.SZ; 甘咨询; 0;  09:34:51; 首板涨停; 9.11;  09:34:51; 10.0%; 1; 数据中心+房屋检测+工程咨询+西部大开发</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="n">
@@ -31497,6 +32152,16 @@
           <t>002313.SZ; 日海智能; 0;  09:30:42; 首板涨停; 9.19;  09:30:42; 10.1%; 1; 机器人+无线通信模组产品+数据中心+控股股东变更</t>
         </is>
       </c>
+      <c r="BL5" t="inlineStr">
+        <is>
+          <t>002664.SZ; 信质集团; 0;  09:37:32; 首板涨停; 16.85;  09:37:32; -0.5%; 1; 汽车电机+人形机器人+华为+无人机</t>
+        </is>
+      </c>
+      <c r="BM5" t="inlineStr">
+        <is>
+          <t>002865.SZ; 钧达股份; 1;  09:38:06; 首板涨停; 64.36;  09:35:42; 10.0%; 1; 光伏电池+TOPCon+钙钛矿电池</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="5" t="n">
@@ -31812,6 +32477,16 @@
           <t>002261.SZ; 拓维信息; 0;  09:30:48; 首板涨停; 18.57;  09:30:48; 10.0%; 1; 昇腾大模型一体机+鸿蒙+信创</t>
         </is>
       </c>
+      <c r="BL6" t="inlineStr">
+        <is>
+          <t>603578.SH; 三星新材; 0;  09:37:32; 首板涨停; 12.8;  09:37:32; -1.2%; 1; 低温储藏设备+玻璃门体+光伏</t>
+        </is>
+      </c>
+      <c r="BM6" t="inlineStr">
+        <is>
+          <t>601929.SH; 吉视传媒; 0;  09:39:35; 首板涨停; 1.96;  09:39:35; 10.1%; 1; 传媒+置入优质资产+吉林国资</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="n">
@@ -32127,6 +32802,16 @@
           <t>300287.SZ; 飞利信; 0;  09:30:57; 首板涨停; 5.68;  09:30:57; 20.1%; 1; 会议音视频+算力+国产版“谷歌地球”</t>
         </is>
       </c>
+      <c r="BL7" t="inlineStr">
+        <is>
+          <t>300211.SZ; 亿通科技; 0;  09:39:02; 首板涨停; 9.58;  09:39:02; -2.1%; 1; SOC芯片+可穿戴设备芯片+华米</t>
+        </is>
+      </c>
+      <c r="BM7" t="inlineStr">
+        <is>
+          <t>000042.SZ; 中洲控股; 1;  09:39:51; 首板涨停; 5.53;  09:38:48; 9.9%; 1; 房地产+粤港澳大湾区</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="5" t="n">
@@ -32442,6 +33127,16 @@
           <t>002123.SZ; 梦网科技; 0;  09:31:51; 首板涨停; 11.73;  09:31:51; 10.0%; 1; DeepSeek概念+拟收购碧橙数字控制权+云通信</t>
         </is>
       </c>
+      <c r="BL8" t="inlineStr">
+        <is>
+          <t>603278.SH; 大业股份; 0;  09:41:47; 首板涨停; 9.72;  09:41:47; 1.2%; 1; 灵巧手+轮胎+拟投建摩洛哥生产基地</t>
+        </is>
+      </c>
+      <c r="BM8" t="inlineStr">
+        <is>
+          <t>000520.SZ; 凤凰航运; 0;  09:41:06; 首板涨停; 5.01;  09:41:06; 10.1%; 1; 航运概念</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="n">
@@ -32757,6 +33452,16 @@
           <t>300229.SZ; 拓尔思; 0;  09:32:15; 首板涨停; 26.53;  09:32:15; 20.0%; 1; 与DeepSeek联合开发+大模型+AI语料</t>
         </is>
       </c>
+      <c r="BL9" t="inlineStr">
+        <is>
+          <t>002815.SZ; 崇达技术; 2;  09:42:02; 首板涨停; 11.61;  09:39:47; -0.6%; 1; PCB+人形机器人+AIPC+外销</t>
+        </is>
+      </c>
+      <c r="BM9" t="inlineStr">
+        <is>
+          <t>002674.SZ; 兴业科技; 1;  09:43:54; 首板涨停; 10.16;  09:31:03; 10.0%; 1; 天然牛皮革+华为汽车+高股息</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="5" t="n">
@@ -33072,6 +33777,16 @@
           <t>002137.SZ; 实益达; 0;  09:32:21; 首板涨停; 8.23;  09:32:21; 10.0%; 1; 间接投资宇树科技+微信营销+智能终端+先进封装</t>
         </is>
       </c>
+      <c r="BL10" t="inlineStr">
+        <is>
+          <t>002009.SZ; 天奇股份; 1;  09:42:02; 首板涨停; 15.53;  09:41:02; 0.1%; 1; 人形机器人+汽车拆解</t>
+        </is>
+      </c>
+      <c r="BM10" t="inlineStr">
+        <is>
+          <t>002596.SZ; 海南瑞泽; 0;  09:44:09; 首板涨停; 3.4;  09:44:09; 10.0%; 1; 海南自贸区+实控人变更预期+混凝土</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="5" t="n">
@@ -33387,6 +34102,16 @@
           <t>002067.SZ; 景兴纸业; 0;  09:35:18; 首板涨停; 3.83;  09:35:18; 10.1%; 1; 间接投资宇树科技+机器人+造纸</t>
         </is>
       </c>
+      <c r="BL11" t="inlineStr">
+        <is>
+          <t>300382.SZ; 斯莱克; 0;  09:43:19; 首板涨停; 12.9;  09:43:19; 4.8%; 1; 部分回购注销完成+机器人+锂电池+开拓美国业务</t>
+        </is>
+      </c>
+      <c r="BM11" t="inlineStr">
+        <is>
+          <t>002163.SZ; 海南发展; 1;  09:51:42; 首板涨停; 8.98;  09:43:45; 10.0%; 1; 海南国资+光伏</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="5" t="n">
@@ -33702,6 +34427,16 @@
           <t>600589.SH; 大位科技; 0;  09:35:26; 首板涨停; 3.85;  09:35:26; 10.0%; 1; 数据中心+拟公开挂牌转让部分资产+完成重整</t>
         </is>
       </c>
+      <c r="BL12" t="inlineStr">
+        <is>
+          <t>600889.SH; 南京化纤; 2;  09:53:11; 首板涨停; 19.85;  09:46:05; 1.8%; 1; 并购重组+人形机器人+南京国企</t>
+        </is>
+      </c>
+      <c r="BM12" t="inlineStr">
+        <is>
+          <t>600666.SH; 奥瑞德; 0;  09:53:43; 首板涨停; 2.51;  09:53:43; 10.1%; 1; 算力+蓝宝石+摘帽</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="5" t="n">
@@ -34017,6 +34752,16 @@
           <t>600602.SH; 云赛智联; 1;  09:36:05; 首板涨停; 14.96;  09:25:02; 10.0%; 1; 算力+微软+上海国资</t>
         </is>
       </c>
+      <c r="BL13" t="inlineStr">
+        <is>
+          <t>002600.SZ; 领益智造; 0;  09:55:50; 首板涨停; 10.16;  09:55:50; 4.0%; 1; 人形机器人+AI终端+苹果</t>
+        </is>
+      </c>
+      <c r="BM13" t="inlineStr">
+        <is>
+          <t>002849.SZ; 威星智能; 0;  09:59:03; 首板涨停; 16.89;  09:59:03; 10.0%; 1; 摩尔线程合作+智能燃气</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="5" t="n">
@@ -34332,6 +35077,16 @@
           <t>600797.SH; 浙大网新; 1;  09:39:00; 首板涨停; 7.3;  09:32:20; 9.9%; 1; 云计算+蚂蚁金服合作+字节</t>
         </is>
       </c>
+      <c r="BL14" t="inlineStr">
+        <is>
+          <t>600595.SH; 中孚实业; 2;  09:56:47; 首板涨停; 3.57;  09:30:17; 5.6%; 1; 推出中长期员工持股计划</t>
+        </is>
+      </c>
+      <c r="BM14" t="inlineStr">
+        <is>
+          <t>000761.SZ; 本钢板材; 0;  10:12:30; 首板涨停; 3.3;  10:12:30; 10.0%; 1; 钢铁+央企改革</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="5" t="n">
@@ -34642,6 +35397,16 @@
           <t>603918.SH; 金桥信息; 0;  09:45:12; 首板涨停; 14.11;  09:45:12; 10.0%; 1; 智慧法院+蚂蚁+化债(AMC概念）</t>
         </is>
       </c>
+      <c r="BL15" t="inlineStr">
+        <is>
+          <t>603066.SH; 音飞储存; 0;  10:02:52; 首板涨停; 11.43;  10:02:52; 0.7%; 1; 机器人+智能物流+国企改革</t>
+        </is>
+      </c>
+      <c r="BM15" t="inlineStr">
+        <is>
+          <t>002629.SZ; 仁智股份; 0;  10:13:06; 首板涨停; 4.79;  10:13:06; 10.1%; 1; 光伏+油服工程+年报预计扭亏</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="5" t="n">
@@ -34952,6 +35717,16 @@
           <t>605299.SH; 舒华体育; 0;  09:46:52; 首板涨停; 8.97;  09:46:52; 10.1%; 1; 健身器材+冰雪产业+跨境电商</t>
         </is>
       </c>
+      <c r="BL16" t="inlineStr">
+        <is>
+          <t>600186.SH; 莲花控股; 0;  10:18:13; 首板涨停; 6.51;  10:18:13; 10.0%; 1; 部署DeepSeek R1大模型+算力+味精</t>
+        </is>
+      </c>
+      <c r="BM16" t="inlineStr">
+        <is>
+          <t>603803.SH; 瑞斯康达; 0;  10:14:25; 首板涨停; 11.46;  10:14:25; 10.0%; 1; 光通信+算力+ASIC芯片</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="5" t="n">
@@ -35257,6 +36032,16 @@
           <t>002421.SZ; 达实智能; 1;  09:50:54; 首板涨停; 3.53;  09:44:03; 10.0%; 1; 机器人+卫星通信+物联网+一带一路</t>
         </is>
       </c>
+      <c r="BL17" t="inlineStr">
+        <is>
+          <t>603305.SH; 旭升集团; 0;  10:24:13; 首板涨停; 17.85;  10:24:13; 3.5%; 1; 特斯拉+汽车零部件+新能源轻量化+出海</t>
+        </is>
+      </c>
+      <c r="BM17" t="inlineStr">
+        <is>
+          <t>002613.SZ; 北玻股份; 0;  10:18:06; 首板涨停; 4.36;  10:18:06; 10.1%; 1; 光伏+玻璃+苹果总部玻璃+出口沙特</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="5" t="n">
@@ -35562,6 +36347,16 @@
           <t>000004.SZ; 国华网安; 0;  09:56:57; 首板涨停; 11.45;  09:56:57; 10.0%; 1; 网络安全+鸿蒙+国产适配</t>
         </is>
       </c>
+      <c r="BL18" t="inlineStr">
+        <is>
+          <t>603893.SH; 瑞芯微; 0;  10:25:58; 首板涨停; 186.79;  10:25:58; 0.1%; 1; SoC芯片+NPU+AI眼镜</t>
+        </is>
+      </c>
+      <c r="BM18" t="inlineStr">
+        <is>
+          <t>600756.SH; 浪潮软件; 1;  10:22:17; 首板涨停; 17.01;  10:21:26; 10.0%; 1; 数字政府+山东国资+资产重组预期</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="5" t="n">
@@ -35862,6 +36657,16 @@
           <t>603021.SH; 山东华鹏; 0;  09:59:45; 首板涨停; 4.1;  09:59:45; 9.9%; 1; 重组公司（现已终止）曾有HBM上游材料+日用玻璃</t>
         </is>
       </c>
+      <c r="BL19" t="inlineStr">
+        <is>
+          <t>603486.SH; 科沃斯; 0;  10:50:36; 首板涨停; 50.14;  10:50:36; 3.3%; 1; 家庭服务机器人+出海</t>
+        </is>
+      </c>
+      <c r="BM19" t="inlineStr">
+        <is>
+          <t>002369.SZ; 卓翼科技; 0;  10:23:18; 首板涨停; 7.55;  10:23:18; 10.1%; 1; AR智能眼镜+消费电子+小米概念+机器人</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="5" t="n">
@@ -36162,6 +36967,16 @@
           <t>300251.SZ; 光线传媒; 12;  10:08:30; 首板涨停; 11.44;  09:25:00; 20.0%; 1; 《哪吒2》制霸春节档</t>
         </is>
       </c>
+      <c r="BL20" t="inlineStr">
+        <is>
+          <t>002526.SZ; 山东矿机; 0;  10:52:38; 首板涨停; 4.26;  10:52:38; 3.1%; 1; 机器人+低空无人机+煤炭机械设备</t>
+        </is>
+      </c>
+      <c r="BM20" t="inlineStr">
+        <is>
+          <t>605255.SH; 天普股份; 0;  10:29:53; 首板涨停; 14.73;  10:29:53; 10.0%; 1; 汽车零部件+汽车胶管+密封系统零件</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="5" t="n">
@@ -36462,6 +37277,16 @@
           <t>002819.SZ; 东方中科; 3;  10:12:09; 首板涨停; 28.79;  09:48:57; 10.0%; 1; 网络安全+华为鸿蒙+车联网+中科系</t>
         </is>
       </c>
+      <c r="BL21" t="inlineStr">
+        <is>
+          <t>002979.SZ; 雷赛智能; 0;  10:58:12; 首板涨停; 39.66;  10:58:12; -0.7%; 1; 人形机器人+运动控制产品+华为</t>
+        </is>
+      </c>
+      <c r="BM21" t="inlineStr">
+        <is>
+          <t>000536.SZ; 华映科技; 0;  10:46:54; 首板涨停; 4.9;  10:46:54; 10.1%; 1; 显示面板+华为手机+大摩新进第8大流通股东+福建国资</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="5" t="n">
@@ -36762,6 +37587,16 @@
           <t>603728.SH; 鸣志电器; 0;  10:12:48; 首板涨停; 68.55;  10:12:48; 10.0%; 1; 人形机器人+电机+外销</t>
         </is>
       </c>
+      <c r="BL22" t="inlineStr">
+        <is>
+          <t>600593.SH; 大连圣亚; 0;  11:07:32; 首板涨停; 30.34;  11:07:32; -1.3%; 1; 冰雪产业+东北旅游+大连国资</t>
+        </is>
+      </c>
+      <c r="BM22" t="inlineStr">
+        <is>
+          <t>002634.SZ; 棒杰股份; 0;  10:48:09; 首板涨停; 3.72;  10:48:09; 10.1%; 1; 光伏+无缝服装</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="5" t="n">
@@ -37057,6 +37892,16 @@
           <t>002031.SZ; 巨轮智能; 0;  10:20:24; 首板涨停; 6.75;  10:20:24; 9.9%; 1; 人形机器人+XT减速器+轮胎模具</t>
         </is>
       </c>
+      <c r="BL23" t="inlineStr">
+        <is>
+          <t>002965.SZ; 祥鑫科技; 7;  11:12:34; 首板涨停; 50.6;  10:44:31; 3.7%; 1; 人形机器人+液冷服务器+无人驾驶+低空经济</t>
+        </is>
+      </c>
+      <c r="BM23" t="inlineStr">
+        <is>
+          <t>000710.SZ; 贝瑞基因; 1;  10:58:33; 首板涨停; 9.59;  09:38:45; 10.0%; 1; 智能医疗+基因检测+生育健康</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="5" t="n">
@@ -37347,6 +38192,16 @@
           <t>002843.SZ; 泰嘉股份; 6;  10:45:27; 首板涨停; 26.72;  09:35:54; 10.0%; 1; 数据中心电源+智能终端充电电源</t>
         </is>
       </c>
+      <c r="BL24" t="inlineStr">
+        <is>
+          <t>001368.SZ; 通达创智; 0;  11:21:34; 首板涨停; 23.99;  11:21:34; 10.0%; 1; 体育户外+外销+三胎+次新股+福建</t>
+        </is>
+      </c>
+      <c r="BM24" t="inlineStr">
+        <is>
+          <t>002016.SZ; 世荣兆业; 0;  11:11:48; 首板涨停; 6.2;  11:11:48; 9.9%; 1; 房地产+物业管理+珠海国资</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="5" t="n">
@@ -37637,6 +38492,16 @@
           <t>603988.SH; 中电电机; 0;  10:46:23; 首板涨停; 21.9;  10:46:23; 10.0%; 1; 电动机+风电+实控人此前变更</t>
         </is>
       </c>
+      <c r="BL25" t="inlineStr">
+        <is>
+          <t>600967.SH; 内蒙一机; 0;  11:22:34; 首板涨停; 9.97;  11:22:34; 2.3%; 1; 军工+中兵系+无人机+机器人</t>
+        </is>
+      </c>
+      <c r="BM25" t="inlineStr">
+        <is>
+          <t>600785.SH; 新华百货; 1;  11:21:54; 首板涨停; 11.68;  11:21:15; 10.0%; 1; 零售+IP+字节</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="5" t="n">
@@ -37922,6 +38787,16 @@
           <t>300846.SZ; 首都在线; 0;  10:46:36; 首板涨停; 14.88;  10:46:36; 20.0%; 1; 算力+数据中心+智谱合作</t>
         </is>
       </c>
+      <c r="BL26" t="inlineStr">
+        <is>
+          <t>000810.SZ; 创维数字; 0;  11:24:49; 首板涨停; 14.22;  11:24:49; 3.7%; 1; AI眼镜+边缘算力+腾讯合作</t>
+        </is>
+      </c>
+      <c r="BM26" t="inlineStr">
+        <is>
+          <t>603618.SH; 杭电股份; 0;  11:29:45; 首板涨停; 6.35;  11:29:45; 10.1%; 1; PET铜箔+电力电缆+光纤光缆+杭州</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="5" t="n">
@@ -38202,6 +39077,16 @@
           <t>002306.SZ; 中科云网; 0;  10:47:54; 首板涨停; 2.24;  10:47:54; 9.8%; 1; 光伏+餐饮团膳+获1300万元债务豁免</t>
         </is>
       </c>
+      <c r="BL27" t="inlineStr">
+        <is>
+          <t>605055.SH; 迎丰股份; 0;  11:26:19; 首板涨停; 5.68;  11:26:19; 1.1%; 1; 纺织制造+高档印染面料</t>
+        </is>
+      </c>
+      <c r="BM27" t="inlineStr">
+        <is>
+          <t>002542.SZ; 中化岩土; 0;  13:19:12; 首板涨停; 3.73;  13:19:12; 10.0%; 1; 低空经济+工程服务+数据中心+成都国资</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="5" t="n">
@@ -38477,6 +39362,16 @@
           <t>601789.SH; 宁波建工; 0;  10:52:22; 首板涨停; 4.61;  10:52:22; 10.0%; 1; 参股中经云+拟收购宁波交工100%股权+工程施工+宁波国资</t>
         </is>
       </c>
+      <c r="BL28" t="inlineStr">
+        <is>
+          <t>603390.SH; 通达电气; 0;  13:00:35; 首板涨停; 11.18;  13:00:35; 10.0%; 1; 比亚迪+智慧交通+车联网+移动医疗</t>
+        </is>
+      </c>
+      <c r="BM28" t="inlineStr">
+        <is>
+          <t>603716.SH; 塞力医疗; 0;  13:53:08; 首板涨停; 8.58;  13:53:08; 10.0%; 1; DRG/DIP+体外诊断+智慧供应链</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="5" t="n">
@@ -38742,6 +39637,16 @@
           <t>603496.SH; 恒为科技; 0;  11:01:15; 首板涨停; 24.21;  11:01:15; 10.0%; 1; 华为昇腾+网络可视化</t>
         </is>
       </c>
+      <c r="BL29" t="inlineStr">
+        <is>
+          <t>603300.SH; 海南华铁; 0;  13:00:35; 首板涨停; 6.58;  13:00:35; 10.0%; 1; 海南国资+算力+低空经济</t>
+        </is>
+      </c>
+      <c r="BM29" t="inlineStr">
+        <is>
+          <t>002824.SZ; 和胜股份; 0;  13:55:18; 首板涨停; 17.19;  13:55:18; 10.0%; 1; 小米+比亚迪概念+消费电子+电池托盘</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="5" t="n">
@@ -39002,6 +39907,16 @@
           <t>600633.SH; 浙数文化; 1;  11:03:11; 首板涨停; 11.23;  09:51:11; 10.0%; 1; 参投云深处+数据要素+AI应用+国企</t>
         </is>
       </c>
+      <c r="BL30" t="inlineStr">
+        <is>
+          <t>300790.SZ; 宇瞳光学; 0;  13:01:35; 首板涨停; 28.91;  13:01:35; 16.3%; 1; AI眼镜+光学镜头+车载镜头</t>
+        </is>
+      </c>
+      <c r="BM30" t="inlineStr">
+        <is>
+          <t>301208.SZ; 中亦科技; 2;  14:00:45; 首板涨停; 43.19;  11:15:42; 20.0%; 1; 算力+鸿蒙+AI智能体+IT服务</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="5" t="n">
@@ -39257,6 +40172,16 @@
           <t>300624.SZ; 万兴科技; 0;  11:10:51; 首板涨停; 82.15;  11:10:51; 20.0%; 1; AI应用+视频创意软件</t>
         </is>
       </c>
+      <c r="BL31" t="inlineStr">
+        <is>
+          <t>000868.SZ; 安凯客车; 0;  13:01:50; 首板涨停; 6.3;  13:01:50; 4.7%; 1; 无人驾驶+客车+江淮汽车+外销</t>
+        </is>
+      </c>
+      <c r="BM31" t="inlineStr">
+        <is>
+          <t>603193.SH; 润本股份; 1;  14:18:32; 首板涨停; 28.71;  10:44:08; 10.0%; 1; 驱蚊+电商</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="5" t="n">
@@ -39512,6 +40437,16 @@
           <t>000815.SZ; 美利云; 1;  11:17:06; 首板涨停; 10.47;  10:47:27; 10.0%; 1; 算力+金山云合作+拟停止造纸业务+央企</t>
         </is>
       </c>
+      <c r="BL32" t="inlineStr">
+        <is>
+          <t>002036.SZ; 联创电子; 0;  13:03:35; 首板涨停; 11.17;  13:03:35; 10.0%; 1; 车载ADAS镜头+比亚迪概念+光学镜头+机器人概念</t>
+        </is>
+      </c>
+      <c r="BM32" t="inlineStr">
+        <is>
+          <t>002044.SZ; 美年健康; 3;  14:24:42; 首板涨停; 4.94;  10:54:45; 10.0%; 1; 健康体检服务+AI医疗+华为</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="5" t="n">
@@ -39762,6 +40697,16 @@
           <t>603895.SH; 天永智能; 0;  11:21:10; 首板涨停; 24.19;  11:21:10; 10.0%; 1; 机器人+自动化装备+特斯拉+赛力斯</t>
         </is>
       </c>
+      <c r="BL33" t="inlineStr">
+        <is>
+          <t>603150.SH; 万朗磁塑; 0;  13:05:20; 首板涨停; 32.34;  13:05:20; 10.0%; 1; 无人驾驶+汽车零部件+比亚迪概念+磁性材料</t>
+        </is>
+      </c>
+      <c r="BM33" t="inlineStr">
+        <is>
+          <t>600207.SH; 安彩高科; 11;  14:28:11; 首板涨停; 4.71;  09:51:17; 10.0%; 1; 光伏玻璃+半导体用玻璃+河南国资</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="5" t="n">
@@ -40007,6 +40952,16 @@
           <t>002122.SZ; 汇洲智能; 4;  11:25:15; 首板涨停; 4.37;  09:30:21; 10.1%; 1; 数据中心+小红书审核+工业母机</t>
         </is>
       </c>
+      <c r="BL34" t="inlineStr">
+        <is>
+          <t>002576.SZ; 通达动力; 0;  13:06:20; 首板涨停; 15.98;  13:06:20; 0.9%; 1; 比亚迪+电机+机器人</t>
+        </is>
+      </c>
+      <c r="BM34" t="inlineStr">
+        <is>
+          <t>000158.SZ; 常山北明; 4;  14:31:12; 首板涨停; 22.42;  10:19:03; 10.0%; 1; 华为昇腾+华为鲲鹏+算力租赁+国企</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="5" t="n">
@@ -40252,6 +41207,16 @@
           <t>002195.SZ; 岩山科技; 0;  11:28:18; 首板涨停; 4.48;  11:28:18; 10.1%; 1; 大模型+脑机接口+互联网信息</t>
         </is>
       </c>
+      <c r="BL35" t="inlineStr">
+        <is>
+          <t>002448.SZ; 中原内配; 0;  13:09:37; 首板涨停; 7.91;  13:09:37; 10.0%; 1; 发动机+无人驾驶+氢能源</t>
+        </is>
+      </c>
+      <c r="BM35" t="inlineStr">
+        <is>
+          <t>603882.SH; 金域医学; 2;  14:34:40; 首板涨停; 30.09;  10:55:53; 10.0%; 1; AI医疗+第三方医学检验</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="5" t="n">
@@ -40492,6 +41457,16 @@
           <t>603110.SH; 东方材料; 1;  11:29:55; 首板涨停; 16.04;  11:23:52; 10.0%; 1; 东方超算+PCB电子油墨</t>
         </is>
       </c>
+      <c r="BL36" t="inlineStr">
+        <is>
+          <t>603166.SH; 福达股份; 0;  13:14:09; 首板涨停; 11.05;  13:14:09; 9.3%; 1; 机器人+比亚迪+汽车离合器</t>
+        </is>
+      </c>
+      <c r="BM36" t="inlineStr">
+        <is>
+          <t>000034.SZ; 神州数码; 4;  14:41:03; 首板涨停; 39.88;  10:52:51; 10.0%; 1; 华为昇腾+DeepSeek概念</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="5" t="n">
@@ -40732,6 +41707,16 @@
           <t>002213.SZ; 大为股份; 0;  13:06:15; 首板涨停; 15.02;  13:06:15; 10.0%; 1; 存储芯片+智能终端+锂电池</t>
         </is>
       </c>
+      <c r="BL37" t="inlineStr">
+        <is>
+          <t>002779.SZ; 中坚科技; 0;  13:19:52; 首板涨停; 106.4;  13:19:52; 6.3%; 1; 机器人+园林机械</t>
+        </is>
+      </c>
+      <c r="BM37" t="inlineStr">
+        <is>
+          <t>002858.SZ; 力盛体育; 1;  14:42:30; 首板涨停; 13.48;  13:01:03; 10.0%; 1; 无人驾驶+AI体育+IP经济+汽车运动运营</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="5" t="n">
@@ -40967,6 +41952,16 @@
           <t>000503.SZ; 国新健康; 1;  13:07:24; 首板涨停; 10.65;  13:00:00; 10.0%; 1; DRG/DIP+数据要素+华为+央企</t>
         </is>
       </c>
+      <c r="BL38" t="inlineStr">
+        <is>
+          <t>002403.SZ; 爱仕达; 0;  13:23:22; 首板涨停; 18.09;  13:23:22; 1.7%; 1; 人形机器人+小家电+网络直播</t>
+        </is>
+      </c>
+      <c r="BM38" t="inlineStr">
+        <is>
+          <t>600481.SH; 双良节能; 3;  14:42:42; 首板涨停; 6.25;  09:55:36; 10.0%; 1; 光伏+单晶硅+氢能源+液冷服务器</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="5" t="n">
@@ -41197,6 +42192,16 @@
           <t>600173.SH; 卧龙地产; 0;  13:10:21; 首板涨停; 4.66;  13:10:21; 9.9%; 1; 拟收购资产+房地产+金属铜+稀土</t>
         </is>
       </c>
+      <c r="BL39" t="inlineStr">
+        <is>
+          <t>603280.SH; 南方路机; 1;  13:27:40; 首板涨停; 23.43;  13:18:08; -3.9%; 1; 机器人+工程搅拌设备+核电</t>
+        </is>
+      </c>
+      <c r="BM39" t="inlineStr">
+        <is>
+          <t>002010.SZ; 传化智联; 0;  14:47:33; 首板涨停; 4.84;  14:47:33; 10.0%; 1; 物流+合成橡胶+参股蚂蚁消金+出售资产</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="5" t="n">
@@ -41422,6 +42427,16 @@
           <t>600421.SH; 华嵘控股; 0;  13:13:46; 首板涨停; 5.78;  13:13:46; 10.1%; 1; 数据要素+房屋建筑PC构件+装配式建筑+风电混塔模具</t>
         </is>
       </c>
+      <c r="BL40" t="inlineStr">
+        <is>
+          <t>603920.SH; 世运电路; 2;  13:28:40; 首板涨停; 37;  13:00:35; 10.0%; 1; PCB+特斯拉+人形机器人+国企</t>
+        </is>
+      </c>
+      <c r="BM40" t="inlineStr">
+        <is>
+          <t>002175.SZ; 东方智造; 1;  14:48:03; 首板涨停; 5.28;  13:23:27; 10.0%; 1; 智能制造+精密仪器+芯片</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="5" t="n">
@@ -41647,6 +42662,16 @@
           <t>603322.SH; 超讯通信; 0;  13:20:08; 首板涨停; 40.1;  13:20:08; 10.0%; 1; 多模态AI+算力+超聚变服务器</t>
         </is>
       </c>
+      <c r="BL41" t="inlineStr">
+        <is>
+          <t>301261.SZ; 恒工精密; 2;  13:33:10; 首板涨停; 61.9;  13:20:54; 3.0%; 1; 人形机器人+精密加工件+工业母机</t>
+        </is>
+      </c>
+      <c r="BM41" t="inlineStr">
+        <is>
+          <t>301030.SZ; 仕净科技; 2;  14:53:36; 首板涨停; 22.5;  10:05:30; 20.0%; 1; 光伏+污水处理</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="5" t="n">
@@ -41867,6 +42892,16 @@
           <t>002253.SZ; 川大智胜; 7;  13:25:42; 首板涨停; 11.9;  10:52:15; 10.0%; 1; 华为昇腾+低空安全管控+超跌反弹</t>
         </is>
       </c>
+      <c r="BL42" t="inlineStr">
+        <is>
+          <t>600206.SH; 有研新材; 2;  13:35:25; 首板涨停; 17.18;  13:19:17; 2.1%; 1; 靶材+中芯国际概念+稀土永磁+固态电池</t>
+        </is>
+      </c>
+      <c r="BM42" t="inlineStr">
+        <is>
+          <t>600839.SH; 四川长虹; 1;  14:53:50; 首板涨停; 10.52;  13:13:59; 10.0%; 1; 智能家电+云计算+四川国资</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="5" t="n">
@@ -42087,6 +43122,16 @@
           <t>301306.SZ; 西测测试; 1;  13:48:09; 首板涨停; 40.06;  13:07:18; 20.0%; 1; 存储芯片+商业航天+飞机产品检测</t>
         </is>
       </c>
+      <c r="BL43" t="inlineStr">
+        <is>
+          <t>603583.SH; 捷昌驱动; 0;  13:42:57; 首板涨停; 32;  13:42:57; 4.8%; 1; 人形机器人+灵巧手+智能家居+汽车零部件</t>
+        </is>
+      </c>
+      <c r="BM43" t="inlineStr">
+        <is>
+          <t>603612.SH; 索通发展; 18;  14:56:29; 首板涨停; 15.99;  10:52:41; 10.0%; 1; 锂电池+预焙阳极+年报预计扭亏</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="5" t="n">
@@ -42307,6 +43352,16 @@
           <t>600143.SH; 金发科技; 2;  13:52:41; 首板涨停; 10.23;  10:55:14; 10.0%; 1; 机器人+PEEK材料+改性塑料龙头+年报预增</t>
         </is>
       </c>
+      <c r="BL44" t="inlineStr">
+        <is>
+          <t>605555.SH; 德昌股份; 0;  13:52:42; 首板涨停; 26.98;  13:52:42; 2.1%; 1; 人形机器人+无人驾驶+吸尘器+汽车电机</t>
+        </is>
+      </c>
+      <c r="BM44" t="inlineStr">
+        <is>
+          <t>600732.SH; 爱旭股份; 9;  15:00:01; 首板涨停; 13.02;  09:41:22; 10.0%; 1; 光伏+预计今年业绩明显改善</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="5" t="n">
@@ -42517,6 +43572,11 @@
           <t>002496.SZ; 辉丰股份; 5;  14:04:27; 首板涨停; 1.55;  10:02:48; 9.9%; 1; 低价股+农药+氢能源+电商</t>
         </is>
       </c>
+      <c r="BL45" t="inlineStr">
+        <is>
+          <t>002126.SZ; 银轮股份; 6;  14:00:12; 首板涨停; 22.67;  13:12:54; 4.3%; 1; 汽车热管理+液冷服务器+比亚迪概念+低空经济</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="5" t="n">
@@ -42722,6 +43782,11 @@
           <t>600355.SH; 精伦电子; 1;  14:12:42; 首板涨停; 3.07;  09:42:03; 10.0%; 1; 机器人+智能制造+智能电网</t>
         </is>
       </c>
+      <c r="BL46" t="inlineStr">
+        <is>
+          <t>002284.SZ; 亚太股份; 0;  14:25:08; 首板涨停; 9.19;  14:25:08; 2.3%; 1; 获定点通知+比亚迪+无人驾驶+汽车基础制动系统</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="5" t="n">
@@ -42917,6 +43982,11 @@
           <t>301387.SZ; 光大同创; 18;  14:17:36; 首板涨停; 36.29;  09:43:36; 20.0%; 1; 碳纤维+机器人+智能穿戴+消费电子</t>
         </is>
       </c>
+      <c r="BL47" t="inlineStr">
+        <is>
+          <t>003021.SZ; 兆威机电; 4;  14:27:43; 首板涨停; 111.73;  10:24:13; 0.6%; 1; 人形机器人+灵巧手+减速器+MR</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="5" t="n">
@@ -43112,6 +44182,11 @@
           <t>603273.SH; 天元智能; 0;  14:18:49; 首板涨停; 18.46;  14:18:49; 10.0%; 1; 工程机械+氢能源</t>
         </is>
       </c>
+      <c r="BL48" t="inlineStr">
+        <is>
+          <t>002594.SZ; 比亚迪; 0;  14:30:59; 首板涨停; 326.9;  14:30:59; 5.1%; 1; 将于2月10日召开智能化战略发布会</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="5" t="n">
@@ -43302,6 +44377,11 @@
           <t>002131.SZ; 利欧股份; 2;  14:24:54; 首板涨停; 4;  14:20:12; 9.9%; 1; AI营销+小红书+TikTok+华为鲸鸿</t>
         </is>
       </c>
+      <c r="BL49" t="inlineStr">
+        <is>
+          <t>603297.SH; 永新光学; 0;  14:33:57; 首板涨停; 108.2;  14:33:57; 7.7%; 1; 激光雷达+无人驾驶+光刻机镜头+AI眼镜</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="5" t="n">
@@ -43492,6 +44572,11 @@
           <t>603596.SH; 伯特利; 2;  14:27:36; 首板涨停; 50.28;  14:15:06; 10.0%; 1; 汽车零部件+智能驾驶+华为汽车+特斯拉概念</t>
         </is>
       </c>
+      <c r="BL50" t="inlineStr">
+        <is>
+          <t>002387.SZ; 维信诺; 3;  14:35:26; 首板涨停; 10.39;  13:10:39; 2.6%; 1; 面板+小米+努比亚+拟收购资产</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="5" t="n">
@@ -43677,6 +44762,11 @@
           <t>603881.SH; 数据港; 6;  14:54:38; 首板涨停; 21.84;  13:00:02; 10.0%; 1; 数据中心+液冷+上海国资</t>
         </is>
       </c>
+      <c r="BL51" t="inlineStr">
+        <is>
+          <t>301488.SZ; 豪恩汽电; 0;  14:36:41; 首板涨停; 67.08;  14:36:41; 3.5%; 1; 比亚迪概念+无人驾驶+机器人</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="5" t="n">
@@ -43847,6 +44937,11 @@
           <t>300253.SZ; 卫宁健康; 1;  14:55:12; 首板涨停; 7.84;  11:13:15; 20.1%; 1; AI智能体+DRG/DIP+智慧医疗+鸿蒙</t>
         </is>
       </c>
+      <c r="BL52" t="inlineStr">
+        <is>
+          <t>002920.SZ; 德赛西威; 0;  14:37:11; 首板涨停; 133.58;  14:37:11; 6.6%; 1; 智能座舱+T-box+比亚迪</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="5" t="n">
@@ -44012,6 +45107,11 @@
           <t>600580.SH; 卧龙电驱; 13;  14:55:18; 首板涨停; 22.76;  10:21:21; 10.0%; 1; 人形机器人+飞行汽车+电机</t>
         </is>
       </c>
+      <c r="BL53" t="inlineStr">
+        <is>
+          <t>002413.SZ; 雷科防务; 0;  14:38:56; 首板涨停; 4.75;  14:38:56; 3.7%; 1; 雷达+自动驾驶+无人机+卫星</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="5" t="n">
@@ -44162,6 +45262,11 @@
           <t>600410.SH; 华胜天成; 0;  10:40:41; 首板涨停; 7.67;  10:40:41; 3.2%; 1; 华为昇腾（算力）+机器人+字节+AI应用</t>
         </is>
       </c>
+      <c r="BL54" t="inlineStr">
+        <is>
+          <t>600114.SH; 东睦股份; 1;  14:40:26; 首板涨停; 20.69;  13:35:40; 2.6%; 1; 机器人+消费电子+算力</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="5" t="n">
@@ -44312,6 +45417,11 @@
           <t>002335.SZ; 科华数据; 1;  10:46:50; 首板涨停; 30.39;  10:39:39; 1.8%; 1; 数据中心+UPS+液冷+新能源</t>
         </is>
       </c>
+      <c r="BL55" t="inlineStr">
+        <is>
+          <t>603197.SH; 保隆科技; 0;  14:45:56; 首板涨停; 43.53;  14:45:56; 4.3%; 1; 汽车电子+比亚迪</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="5" t="n">
@@ -44452,6 +45562,11 @@
           <t>002050.SZ; 三花智控; 0;  10:47:06; 首板涨停; 29.22;  10:47:06; 2.2%; 1; 特斯拉+人形机器人+汽车热管理</t>
         </is>
       </c>
+      <c r="BL56" t="inlineStr">
+        <is>
+          <t>603786.SH; 科博达; 0;  14:46:11; 首板涨停; 71.65;  14:46:11; 5.1%; 1; 比亚迪+无人驾驶+汽车电子</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="5" t="n">
@@ -44592,6 +45707,11 @@
           <t>603350.SH; 安乃达; 0;  10:47:56; 首板涨停; 33.98;  10:47:56; 0.8%; 1; 机器人+直驱轮毂电机+两轮车+次新</t>
         </is>
       </c>
+      <c r="BL57" t="inlineStr">
+        <is>
+          <t>002906.SZ; 华阳集团; 0;  14:47:53; 首板涨停; 34.1;  14:47:53; 0.9%; 1; 汽车电子+智能座舱+华为汽车</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="5" t="n">
@@ -44722,6 +45842,11 @@
           <t>300007.SZ; 汉威科技; 1;  10:47:56; 首板涨停; 28.4;  10:21:45; 6.7%; 1; 人形机器人+传感器+芯片</t>
         </is>
       </c>
+      <c r="BL58" t="inlineStr">
+        <is>
+          <t>002913.SZ; 奥士康; 1;  14:54:54; 首板涨停; 28.69;  10:49:02; 1.6%; 1; PCB+AIPC+华为+英伟达</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="5" t="n">
@@ -44847,6 +45972,11 @@
           <t>002269.SZ; 美邦服饰; 2;  10:49:01; 首板涨停; 2.38;  10:43:31; -1.7%; 1; 服装+电商+IP经济+低价股</t>
         </is>
       </c>
+      <c r="BL59" t="inlineStr">
+        <is>
+          <t>300718.SZ; 长盛轴承; 1;  14:56:44; 首板涨停; 69.85;  13:32:25; 8.0%; 1; 机器人+宇树科技+自润滑轴承</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="5" t="n">
@@ -44960,6 +46090,11 @@
       <c r="BA60" t="inlineStr">
         <is>
           <t>603969.SH; 银龙股份; 0;  10:51:44; 首板涨停; 6.55;  10:51:44; 3.8%; 1; 预应力材料+轨道交通+储能+出海</t>
+        </is>
+      </c>
+      <c r="BL60" t="inlineStr">
+        <is>
+          <t>603171.SH; 税友股份; 1;  15:00:00; 首板涨停; 36.5;  11:13:04; -3.9%; 1; AI应用+财税数字化+华为鸿蒙</t>
         </is>
       </c>
     </row>
@@ -47639,7 +48774,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK50"/>
+  <dimension ref="A1:BM50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47958,6 +49093,16 @@
           <t>2025年02月05日</t>
         </is>
       </c>
+      <c r="BL1" s="5" t="inlineStr">
+        <is>
+          <t>2025年02月06日</t>
+        </is>
+      </c>
+      <c r="BM1" s="5" t="inlineStr">
+        <is>
+          <t>2025年02月07日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="5" t="n">
@@ -48269,6 +49414,16 @@
           <t>003032.SZ; 传智教育; 10.0%; 12.1%; 8.26; 0.9%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="BL2" t="inlineStr">
+        <is>
+          <t>601869.SH; 长飞光纤; 7.0%; 12.6%; 39.66; 0.7%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
+      <c r="BM2" t="inlineStr">
+        <is>
+          <t>003005.SZ; 竞业达; 7.0%; 18.3%; 40.56; 10.0%; 阳线||放量||价升量缩</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="n">
@@ -48580,6 +49735,16 @@
           <t>002691.SZ; 冀凯股份; 7.8%; 19.4%; 9.19; 10.1%; 强中选强||阳线||放量</t>
         </is>
       </c>
+      <c r="BL3" t="inlineStr">
+        <is>
+          <t>300170.SZ; 汉得信息; 5.0%; 12.4%; 20.27; -4.1%; 阳线||放量||价升量缩</t>
+        </is>
+      </c>
+      <c r="BM3" t="inlineStr">
+        <is>
+          <t>002861.SZ; 瀛通通讯; 4.4%; 15.0%; 18.4; 10.0%; 强中选强||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="5" t="n">
@@ -48867,6 +50032,16 @@
         </is>
       </c>
       <c r="BK4" t="inlineStr"/>
+      <c r="BL4" t="inlineStr">
+        <is>
+          <t>002896.SZ; 中大力德; 3.9%; 13.8%; 64.13; -1.1%; 阳线||放量||价升量缩</t>
+        </is>
+      </c>
+      <c r="BM4" t="inlineStr">
+        <is>
+          <t>300307.SZ; 慈星股份; 4.2%; 12.8%; 9.27; 8.0%; 强中选强||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="n">
@@ -49142,6 +50317,16 @@
       </c>
       <c r="BJ5" t="inlineStr"/>
       <c r="BK5" t="inlineStr"/>
+      <c r="BL5" t="inlineStr">
+        <is>
+          <t>603893.SH; 瑞芯微; 3.8%; 14.3%; 186.79; 0.1%; 阳线||缩量||价升量缩</t>
+        </is>
+      </c>
+      <c r="BM5" t="inlineStr">
+        <is>
+          <t>001395.SZ; 亚联机械; 1.0%; 15.7%; 46.86; 14.5%; 价升量涨||阳线||长上影线</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="5" t="n">
@@ -49405,6 +50590,16 @@
       </c>
       <c r="BJ6" t="inlineStr"/>
       <c r="BK6" t="inlineStr"/>
+      <c r="BL6" t="inlineStr">
+        <is>
+          <t>300638.SZ; 广和通; 3.7%; 19.6%; 36.3; 3.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="BM6" t="inlineStr">
+        <is>
+          <t>300253.SZ; 卫宁健康; 0.9%; 17.2%; 9.26; 16.2%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="n">
@@ -49656,6 +50851,16 @@
       </c>
       <c r="BJ7" t="inlineStr"/>
       <c r="BK7" t="inlineStr"/>
+      <c r="BL7" t="inlineStr">
+        <is>
+          <t>002691.SZ; 冀凯股份; 3.4%; 13.9%; 11.12; 10.0%; 强中选强||阳线||放量</t>
+        </is>
+      </c>
+      <c r="BM7" t="inlineStr">
+        <is>
+          <t>300377.SZ; 赢时胜; 0.8%; 14.3%; 30.29; 13.4%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="5" t="n">
@@ -49895,6 +51100,16 @@
       </c>
       <c r="BJ8" t="inlineStr"/>
       <c r="BK8" t="inlineStr"/>
+      <c r="BL8" t="inlineStr">
+        <is>
+          <t>603278.SH; 大业股份; 2.5%; 12.8%; 9.72; 1.2%; 阳线||缩量||价升量缩</t>
+        </is>
+      </c>
+      <c r="BM8" t="inlineStr">
+        <is>
+          <t>301208.SZ; 中亦科技; 0.5%; 20.6%; 43.19; 20.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="n">
@@ -50122,6 +51337,12 @@
       </c>
       <c r="BJ9" t="inlineStr"/>
       <c r="BK9" t="inlineStr"/>
+      <c r="BL9" t="inlineStr">
+        <is>
+          <t>300718.SZ; 长盛轴承; 1.7%; 22.0%; 69.85; 8.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="BM9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="5" t="n">
@@ -50325,6 +51546,12 @@
       </c>
       <c r="BJ10" t="inlineStr"/>
       <c r="BK10" t="inlineStr"/>
+      <c r="BL10" t="inlineStr">
+        <is>
+          <t>300790.SZ; 宇瞳光学; 1.4%; 21.8%; 28.91; 16.3%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="BM10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="5" t="n">
@@ -50516,6 +51743,12 @@
       </c>
       <c r="BJ11" t="inlineStr"/>
       <c r="BK11" t="inlineStr"/>
+      <c r="BL11" t="inlineStr">
+        <is>
+          <t>300475.SZ; 香农芯创; 1.0%; 12.6%; 31.03; -1.4%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="BM11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="5" t="n">
@@ -50679,6 +51912,12 @@
       <c r="BI12" t="inlineStr"/>
       <c r="BJ12" t="inlineStr"/>
       <c r="BK12" t="inlineStr"/>
+      <c r="BL12" t="inlineStr">
+        <is>
+          <t>300352.SZ; 北信源; 0.7%; 12.1%; 6.37; -2.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="BM12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="5" t="n">
@@ -50826,6 +52065,12 @@
       <c r="BI13" t="inlineStr"/>
       <c r="BJ13" t="inlineStr"/>
       <c r="BK13" t="inlineStr"/>
+      <c r="BL13" t="inlineStr">
+        <is>
+          <t>300403.SZ; 汉宇集团; 0.6%; 13.3%; 13.72; -1.9%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="BM13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="5" t="n">
@@ -50969,6 +52214,12 @@
       <c r="BI14" t="inlineStr"/>
       <c r="BJ14" t="inlineStr"/>
       <c r="BK14" t="inlineStr"/>
+      <c r="BL14" t="inlineStr">
+        <is>
+          <t>300953.SZ; 震裕科技; 0.6%; 14.8%; 137.62; -2.9%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="BM14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="5" t="n">
@@ -51104,6 +52355,12 @@
       <c r="BI15" t="inlineStr"/>
       <c r="BJ15" t="inlineStr"/>
       <c r="BK15" t="inlineStr"/>
+      <c r="BL15" t="inlineStr">
+        <is>
+          <t>301261.SZ; 恒工精密; 0.5%; 20.7%; 61.9; 3.0%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
+      <c r="BM15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="5" t="n">
@@ -51235,6 +52492,12 @@
       <c r="BI16" t="inlineStr"/>
       <c r="BJ16" t="inlineStr"/>
       <c r="BK16" t="inlineStr"/>
+      <c r="BL16" t="inlineStr">
+        <is>
+          <t>300177.SZ; 中海达; 0.3%; 12.4%; 11.54; -0.5%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="BM16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="5" t="n">
@@ -51358,6 +52621,12 @@
       <c r="BI17" t="inlineStr"/>
       <c r="BJ17" t="inlineStr"/>
       <c r="BK17" t="inlineStr"/>
+      <c r="BL17" t="inlineStr">
+        <is>
+          <t>300680.SZ; 隆盛科技; 0.2%; 13.1%; 30.95; -3.3%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="BM17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="5" t="n">
@@ -51477,6 +52746,12 @@
       <c r="BI18" t="inlineStr"/>
       <c r="BJ18" t="inlineStr"/>
       <c r="BK18" t="inlineStr"/>
+      <c r="BL18" t="inlineStr">
+        <is>
+          <t>301488.SZ; 豪恩汽电; 0.0%; 20.0%; 67.08; 3.5%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="BM18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="5" t="n">
@@ -51592,6 +52867,8 @@
       <c r="BI19" t="inlineStr"/>
       <c r="BJ19" t="inlineStr"/>
       <c r="BK19" t="inlineStr"/>
+      <c r="BL19" t="inlineStr"/>
+      <c r="BM19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="5" t="n">
@@ -51707,6 +52984,8 @@
       <c r="BI20" t="inlineStr"/>
       <c r="BJ20" t="inlineStr"/>
       <c r="BK20" t="inlineStr"/>
+      <c r="BL20" t="inlineStr"/>
+      <c r="BM20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="5" t="n">
@@ -51822,6 +53101,8 @@
       <c r="BI21" t="inlineStr"/>
       <c r="BJ21" t="inlineStr"/>
       <c r="BK21" t="inlineStr"/>
+      <c r="BL21" t="inlineStr"/>
+      <c r="BM21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="5" t="n">
@@ -51929,6 +53210,8 @@
       <c r="BI22" t="inlineStr"/>
       <c r="BJ22" t="inlineStr"/>
       <c r="BK22" t="inlineStr"/>
+      <c r="BL22" t="inlineStr"/>
+      <c r="BM22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="5" t="n">
@@ -52032,6 +53315,8 @@
       <c r="BI23" t="inlineStr"/>
       <c r="BJ23" t="inlineStr"/>
       <c r="BK23" t="inlineStr"/>
+      <c r="BL23" t="inlineStr"/>
+      <c r="BM23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="5" t="n">
@@ -52131,6 +53416,8 @@
       <c r="BI24" t="inlineStr"/>
       <c r="BJ24" t="inlineStr"/>
       <c r="BK24" t="inlineStr"/>
+      <c r="BL24" t="inlineStr"/>
+      <c r="BM24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="5" t="n">
@@ -52226,6 +53513,8 @@
       <c r="BI25" t="inlineStr"/>
       <c r="BJ25" t="inlineStr"/>
       <c r="BK25" t="inlineStr"/>
+      <c r="BL25" t="inlineStr"/>
+      <c r="BM25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="5" t="n">
@@ -52313,6 +53602,8 @@
       <c r="BI26" t="inlineStr"/>
       <c r="BJ26" t="inlineStr"/>
       <c r="BK26" t="inlineStr"/>
+      <c r="BL26" t="inlineStr"/>
+      <c r="BM26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="5" t="n">
@@ -52400,6 +53691,8 @@
       <c r="BI27" t="inlineStr"/>
       <c r="BJ27" t="inlineStr"/>
       <c r="BK27" t="inlineStr"/>
+      <c r="BL27" t="inlineStr"/>
+      <c r="BM27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="5" t="n">
@@ -52487,6 +53780,8 @@
       <c r="BI28" t="inlineStr"/>
       <c r="BJ28" t="inlineStr"/>
       <c r="BK28" t="inlineStr"/>
+      <c r="BL28" t="inlineStr"/>
+      <c r="BM28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="5" t="n">
@@ -52574,6 +53869,8 @@
       <c r="BI29" t="inlineStr"/>
       <c r="BJ29" t="inlineStr"/>
       <c r="BK29" t="inlineStr"/>
+      <c r="BL29" t="inlineStr"/>
+      <c r="BM29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="5" t="n">
@@ -52657,6 +53954,8 @@
       <c r="BI30" t="inlineStr"/>
       <c r="BJ30" t="inlineStr"/>
       <c r="BK30" t="inlineStr"/>
+      <c r="BL30" t="inlineStr"/>
+      <c r="BM30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="5" t="n">
@@ -52740,6 +54039,8 @@
       <c r="BI31" t="inlineStr"/>
       <c r="BJ31" t="inlineStr"/>
       <c r="BK31" t="inlineStr"/>
+      <c r="BL31" t="inlineStr"/>
+      <c r="BM31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="5" t="n">
@@ -52823,6 +54124,8 @@
       <c r="BI32" t="inlineStr"/>
       <c r="BJ32" t="inlineStr"/>
       <c r="BK32" t="inlineStr"/>
+      <c r="BL32" t="inlineStr"/>
+      <c r="BM32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="5" t="n">
@@ -52906,6 +54209,8 @@
       <c r="BI33" t="inlineStr"/>
       <c r="BJ33" t="inlineStr"/>
       <c r="BK33" t="inlineStr"/>
+      <c r="BL33" t="inlineStr"/>
+      <c r="BM33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="5" t="n">
@@ -52981,6 +54286,8 @@
       <c r="BI34" t="inlineStr"/>
       <c r="BJ34" t="inlineStr"/>
       <c r="BK34" t="inlineStr"/>
+      <c r="BL34" t="inlineStr"/>
+      <c r="BM34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="5" t="n">
@@ -53056,6 +54363,8 @@
       <c r="BI35" t="inlineStr"/>
       <c r="BJ35" t="inlineStr"/>
       <c r="BK35" t="inlineStr"/>
+      <c r="BL35" t="inlineStr"/>
+      <c r="BM35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="5" t="n">
@@ -53131,6 +54440,8 @@
       <c r="BI36" t="inlineStr"/>
       <c r="BJ36" t="inlineStr"/>
       <c r="BK36" t="inlineStr"/>
+      <c r="BL36" t="inlineStr"/>
+      <c r="BM36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="5" t="n">
@@ -53206,6 +54517,8 @@
       <c r="BI37" t="inlineStr"/>
       <c r="BJ37" t="inlineStr"/>
       <c r="BK37" t="inlineStr"/>
+      <c r="BL37" t="inlineStr"/>
+      <c r="BM37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="5" t="n">
@@ -53281,6 +54594,8 @@
       <c r="BI38" t="inlineStr"/>
       <c r="BJ38" t="inlineStr"/>
       <c r="BK38" t="inlineStr"/>
+      <c r="BL38" t="inlineStr"/>
+      <c r="BM38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="5" t="n">
@@ -53356,6 +54671,8 @@
       <c r="BI39" t="inlineStr"/>
       <c r="BJ39" t="inlineStr"/>
       <c r="BK39" t="inlineStr"/>
+      <c r="BL39" t="inlineStr"/>
+      <c r="BM39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="5" t="n">
@@ -53431,6 +54748,8 @@
       <c r="BI40" t="inlineStr"/>
       <c r="BJ40" t="inlineStr"/>
       <c r="BK40" t="inlineStr"/>
+      <c r="BL40" t="inlineStr"/>
+      <c r="BM40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="5" t="n">
@@ -53506,6 +54825,8 @@
       <c r="BI41" t="inlineStr"/>
       <c r="BJ41" t="inlineStr"/>
       <c r="BK41" t="inlineStr"/>
+      <c r="BL41" t="inlineStr"/>
+      <c r="BM41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="5" t="n">
@@ -53577,6 +54898,8 @@
       <c r="BI42" t="inlineStr"/>
       <c r="BJ42" t="inlineStr"/>
       <c r="BK42" t="inlineStr"/>
+      <c r="BL42" t="inlineStr"/>
+      <c r="BM42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="5" t="n">
@@ -53648,6 +54971,8 @@
       <c r="BI43" t="inlineStr"/>
       <c r="BJ43" t="inlineStr"/>
       <c r="BK43" t="inlineStr"/>
+      <c r="BL43" t="inlineStr"/>
+      <c r="BM43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="5" t="n">
@@ -53719,6 +55044,8 @@
       <c r="BI44" t="inlineStr"/>
       <c r="BJ44" t="inlineStr"/>
       <c r="BK44" t="inlineStr"/>
+      <c r="BL44" t="inlineStr"/>
+      <c r="BM44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="5" t="n">
@@ -53790,6 +55117,8 @@
       <c r="BI45" t="inlineStr"/>
       <c r="BJ45" t="inlineStr"/>
       <c r="BK45" t="inlineStr"/>
+      <c r="BL45" t="inlineStr"/>
+      <c r="BM45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="5" t="n">
@@ -53861,6 +55190,8 @@
       <c r="BI46" t="inlineStr"/>
       <c r="BJ46" t="inlineStr"/>
       <c r="BK46" t="inlineStr"/>
+      <c r="BL46" t="inlineStr"/>
+      <c r="BM46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="5" t="n">
@@ -53932,6 +55263,8 @@
       <c r="BI47" t="inlineStr"/>
       <c r="BJ47" t="inlineStr"/>
       <c r="BK47" t="inlineStr"/>
+      <c r="BL47" t="inlineStr"/>
+      <c r="BM47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="5" t="n">
@@ -54003,6 +55336,8 @@
       <c r="BI48" t="inlineStr"/>
       <c r="BJ48" t="inlineStr"/>
       <c r="BK48" t="inlineStr"/>
+      <c r="BL48" t="inlineStr"/>
+      <c r="BM48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="5" t="n">
@@ -54074,6 +55409,8 @@
       <c r="BI49" t="inlineStr"/>
       <c r="BJ49" t="inlineStr"/>
       <c r="BK49" t="inlineStr"/>
+      <c r="BL49" t="inlineStr"/>
+      <c r="BM49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="5" t="n">
@@ -54145,6 +55482,8 @@
       <c r="BI50" t="inlineStr"/>
       <c r="BJ50" t="inlineStr"/>
       <c r="BK50" t="inlineStr"/>
+      <c r="BL50" t="inlineStr"/>
+      <c r="BM50" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/excel/fupan_stocks.xlsx
+++ b/excel/fupan_stocks.xlsx
@@ -470,7 +470,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BM65"/>
+  <dimension ref="A1:BN65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -799,6 +799,11 @@
           <t>2025年02月07日</t>
         </is>
       </c>
+      <c r="BN1" s="5" t="inlineStr">
+        <is>
+          <t>2025年02月10日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="5" t="n">
@@ -1124,6 +1129,11 @@
           <t>605398.SH; 新炬网络; 0;  09:25:00; 7天7板; 37.16;  09:25:00; 10.0%; 7; AI Agent+数据中心运维+华为鲲鹏</t>
         </is>
       </c>
+      <c r="BN2" t="inlineStr">
+        <is>
+          <t>000818.SZ; 航锦科技; 0;  09:25:00; 5天5板; 24.59;  09:25:00; 10.0%; 5; 幻方合作+算力+英伟达+国企</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="n">
@@ -1449,6 +1459,11 @@
           <t>002036.SZ; 联创电子; 0;  09:25:00; 2天2板; 11.17;  09:25:00; 10.0%; 2; 车载镜头+辅助安全驾驶+比亚迪</t>
         </is>
       </c>
+      <c r="BN3" t="inlineStr">
+        <is>
+          <t>002261.SZ; 拓维信息; 0;  09:25:00; 4天4板; 24.72;  09:25:00; 10.0%; 4; 昇腾大模型一体机+鸿蒙+信创</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="5" t="n">
@@ -1774,6 +1789,11 @@
           <t>002881.SZ; 美格智能; 0;  09:25:00; 5天5板; 53.56;  09:25:00; 10.0%; 5; 开发DeepSeek-R1模型端侧落地应用+端侧AI+年报预增</t>
         </is>
       </c>
+      <c r="BN4" t="inlineStr">
+        <is>
+          <t>002881.SZ; 美格智能; 0;  09:25:00; 6天6板; 58.92;  09:25:00; 10.0%; 6; 开发DeepSeek-R1模型端侧落地应用+端侧AI</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="n">
@@ -2099,6 +2119,11 @@
           <t>600126.SH; 杭钢股份; 0;  09:25:01; 3天3板; 6.92;  09:25:01; 10.0%; 3; DeepSeek概念+云计算+钢铁+浙江国资</t>
         </is>
       </c>
+      <c r="BN5" t="inlineStr">
+        <is>
+          <t>605398.SH; 新炬网络; 0;  09:25:01; 8天8板; 40.88;  09:25:01; 10.0%; 8; AI Agent+数据中心运维+华为鲲鹏</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="5" t="n">
@@ -2424,6 +2449,11 @@
           <t>603390.SH; 通达电气; 0;  09:25:02; 2天2板; 11.18;  09:25:02; 10.0%; 2; 比亚迪+智慧交通+车联网+移动医疗</t>
         </is>
       </c>
+      <c r="BN6" t="inlineStr">
+        <is>
+          <t>600666.SH; 奥瑞德; 0;  09:25:01; 2天2板; 2.76;  09:25:01; 10.0%; 2; DeepSeek概念+算力+蓝宝石</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="n">
@@ -2749,6 +2779,11 @@
           <t>600633.SH; 浙数文化; 0;  09:25:02; 3天3板; 13.59;  09:25:02; 10.0%; 3; AI应用+算力租赁+数据交易中心+杭州国资</t>
         </is>
       </c>
+      <c r="BN7" t="inlineStr">
+        <is>
+          <t>603300.SH; 海南华铁; 0;  09:25:02; 3天3板; 7.24;  09:25:02; 10.0%; 3; 回购+算力+海南国资+低空经济</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="5" t="n">
@@ -3074,6 +3109,11 @@
           <t>603300.SH; 海南华铁; 0;  09:25:03; 2天2板; 6.58;  09:25:03; 10.0%; 2; 海南国资+算力+低空经济</t>
         </is>
       </c>
+      <c r="BN8" t="inlineStr">
+        <is>
+          <t>600126.SH; 杭钢股份; 0;  09:25:02; 4天4板; 7.61;  09:25:02; 10.0%; 4; DeepSeek概念+云计算+钢铁+浙江国资</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="n">
@@ -3399,6 +3439,11 @@
           <t>600355.SH; 精伦电子; 2;  09:38:07; 3天3板; 3.72;  09:31:58; 10.1%; 3; 机器人+智能制造+智能电网</t>
         </is>
       </c>
+      <c r="BN9" t="inlineStr">
+        <is>
+          <t>600633.SH; 浙数文化; 0;  09:25:03; 4天4板; 14.95;  09:25:03; 10.0%; 4; 算力租赁+数据交易中心+AI应用+杭州国资</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="5" t="n">
@@ -3724,6 +3769,11 @@
           <t>001368.SZ; 通达创智; 5;  09:39:45; 2天2板; 23.99;  09:30:12; 10.0%; 2; 体育户外+三胎+外销</t>
         </is>
       </c>
+      <c r="BN10" t="inlineStr">
+        <is>
+          <t>601929.SH; 吉视传媒; 0;  09:33:47; 2天2板; 2.16;  09:33:47; 10.2%; 2; 传媒+置入优质资产+吉林国资</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="5" t="n">
@@ -4049,6 +4099,11 @@
           <t>002861.SZ; 瀛通通讯; 1;  09:46:03; 11天7板; 18.4;  09:45:42; 10.0%; 1; AI终端+电声产品+比亚迪、小米等客户+外销</t>
         </is>
       </c>
+      <c r="BN11" t="inlineStr">
+        <is>
+          <t>603803.SH; 瑞斯康达; 2;  09:33:56; 2天2板; 12.61;  09:31:32; 10.0%; 2; 算力+光通信+ASIC芯片</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="5" t="n">
@@ -4374,6 +4429,11 @@
           <t>002577.SZ; 雷柏科技; 0;  09:47:27; 2天2板; 23.38;  09:47:27; 10.0%; 2; AI眼镜+游戏设备+星闪</t>
         </is>
       </c>
+      <c r="BN12" t="inlineStr">
+        <is>
+          <t>002016.SZ; 世荣兆业; 0;  09:34:57; 2天2板; 6.82;  09:34:57; 10.0%; 2; 房地产+物业管理+珠海国资</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="5" t="n">
@@ -4689,6 +4749,11 @@
           <t>002306.SZ; 中科云网; 0;  09:51:45; 3天2板; 2.49;  09:51:45; 10.2%; 1; 光伏+餐饮团膳+获1300万元债务豁免</t>
         </is>
       </c>
+      <c r="BN13" t="inlineStr">
+        <is>
+          <t>000710.SZ; 贝瑞基因; 2;  09:42:21; 2天2板; 10.55;  09:30:15; 10.0%; 2; 智能医疗+基因检测+生育健康</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="5" t="n">
@@ -5004,6 +5069,11 @@
           <t>002261.SZ; 拓维信息; 0;  10:05:18; 3天3板; 22.47;  10:05:18; 10.0%; 3; 昇腾大模型一体机+鸿蒙+信创</t>
         </is>
       </c>
+      <c r="BN14" t="inlineStr">
+        <is>
+          <t>000034.SZ; 神州数码; 4;  09:44:09; 2天2板; 43.87;  09:30:18; 10.0%; 2; 华为昇腾+DeepSeek概念</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="5" t="n">
@@ -5314,6 +5384,11 @@
           <t>603150.SH; 万朗磁塑; 4;  10:06:27; 2天2板; 32.34;  09:25:03; 10.0%; 2; 无人驾驶+稀土永磁+汽车零部件+比亚迪概念</t>
         </is>
       </c>
+      <c r="BN15" t="inlineStr">
+        <is>
+          <t>002123.SZ; 梦网科技; 2;  09:58:15; 4天4板; 15.61;  09:31:06; 10.0%; 4; DeepSeek概念+拟收购碧橙数字控制权+云通信+鸿蒙</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="5" t="n">
@@ -5604,6 +5679,11 @@
           <t>600580.SH; 卧龙电驱; 3;  14:09:47; 3天2板; 26.54;  09:40:56; 10.0%; 1; 人形机器人+数据中心+飞行汽车+电机</t>
         </is>
       </c>
+      <c r="BN16" t="inlineStr">
+        <is>
+          <t>002542.SZ; 中化岩土; 0;  10:17:54; 2天2板; 4.1;  10:17:54; 9.9%; 2; 云计算+成都国资+低空经济+工程服务</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="5" t="n">
@@ -5874,6 +5954,11 @@
           <t>002213.SZ; 大为股份; 6;  14:16:18; 3天3板; 18.17;  09:25:00; 10.0%; 3; 存储芯片+比亚迪+智能终端+锂电池</t>
         </is>
       </c>
+      <c r="BN17" t="inlineStr">
+        <is>
+          <t>000856.SZ; 冀东装备; 5;  10:36:57; 10天7板; 11.87;  09:40:33; 10.0%; 1; 机器人+水泥装备+北京国资</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="5" t="n">
@@ -6134,6 +6219,11 @@
           <t>600120.SH; 浙江东方; 33;  14:24:30; 4天4板; 6.78;  09:31:24; 10.1%; 4; 澄清未投资DeepSeek+多元金融+浙江国企+年报预增</t>
         </is>
       </c>
+      <c r="BN18" t="inlineStr">
+        <is>
+          <t>603716.SH; 塞力医疗; 6;  10:41:12; 2天2板; 9.44;  10:19:57; 10.0%; 2; DRG/DIP+体外诊断+智慧供应链</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="5" t="n">
@@ -6389,6 +6479,11 @@
           <t>002123.SZ; 梦网科技; 3;  14:25:21; 3天3板; 14.19;  09:32:36; 10.0%; 3; DeepSeek概念+拟收购碧橙数字控制权+云通信+鸿蒙</t>
         </is>
       </c>
+      <c r="BN19" t="inlineStr">
+        <is>
+          <t>000158.SZ; 常山北明; 8;  10:45:45; 2天2板; 24.66;  10:03:36; 10.0%; 2; 华为昇腾+华为鲲鹏+算力租赁+国资云</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="5" t="n">
@@ -6619,6 +6714,11 @@
           <t>605299.SH; 舒华体育; 4;  14:26:24; 3天2板; 10.35;  11:08:09; 10.0%; 1; 健身器材+冰雪产业+跨境电商</t>
         </is>
       </c>
+      <c r="BN20" t="inlineStr">
+        <is>
+          <t>002044.SZ; 美年健康; 0;  10:56:18; 2天2板; 5.43;  10:56:18; 9.9%; 2; 健康体检服务+AI医疗+华为</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="5" t="n">
@@ -6839,6 +6939,11 @@
           <t>300846.SZ; 首都在线; 1;  14:28:54; 3天2板; 18.52;  09:32:51; 20.0%; 1; DeepSeek概念+算力+数据中心</t>
         </is>
       </c>
+      <c r="BN21" t="inlineStr">
+        <is>
+          <t>300766.SZ; 每日互动; 7;  11:27:48; 5天4板; 47.93;  11:20:24; 20.0%; 1; DeepSeek概念+营销+数据</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="5" t="n">
@@ -7044,6 +7149,11 @@
           <t>600588.SH; 用友网络; 2;  14:29:29; 5天3板; 13.7;  10:03:59; 10.0%; 1; ERP龙头+AI应用+业绩落地</t>
         </is>
       </c>
+      <c r="BN22" t="inlineStr">
+        <is>
+          <t>603882.SH; 金域医学; 2;  13:00:03; 2天2板; 33.1;  11:07:44; 10.0%; 2; AI医疗+第三方医学检验</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="5" t="n">
@@ -7239,6 +7349,11 @@
           <t>000818.SZ; 航锦科技; 10;  14:31:03; 4天4板; 22.35;  10:23:06; 10.0%; 4; 幻方合作+算力+英伟达+国企</t>
         </is>
       </c>
+      <c r="BN23" t="inlineStr">
+        <is>
+          <t>600120.SH; 浙江东方; 14;  13:17:49; 5天5板; 7.46;  09:53:07; 10.0%; 5; 澄清未投资DeepSeek+多元金融+浙江国企+年报预增</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="5" t="n">
@@ -7429,6 +7544,11 @@
           <t>002448.SZ; 中原内配; 11;  14:31:42; 2天2板; 7.91;  09:30:12; 10.0%; 2; 发动机+无人驾驶+MCU</t>
         </is>
       </c>
+      <c r="BN24" t="inlineStr">
+        <is>
+          <t>002036.SZ; 联创电子; 5;  13:52:06; 3天3板; 12.29;  11:19:48; 10.0%; 3; 车载镜头+辅助安全驾驶+比亚迪</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="5" t="n">
@@ -7619,6 +7739,11 @@
           <t>603920.SH; 世运电路; 11;  14:33:15; 2天2板; 37;  09:55:21; 10.0%; 2; PCB+特斯拉+人形机器人+无人驾驶</t>
         </is>
       </c>
+      <c r="BN25" t="inlineStr">
+        <is>
+          <t>603390.SH; 通达电气; 3;  13:59:06; 3天3板; 12.3;  09:34:09; 10.0%; 3; 比亚迪+智慧交通+车联网+移动医疗</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="5" t="n">
@@ -7804,6 +7929,11 @@
           <t>003005.SZ; 竞业达; 0;  14:33:24; 4天3板; 40.56;  14:33:24; 10.0%; 1; AI教育+智慧城市+年报预增</t>
         </is>
       </c>
+      <c r="BN26" t="inlineStr">
+        <is>
+          <t>600839.SH; 四川长虹; 1;  14:21:40; 2天2板; 11.57;  14:11:04; 10.0%; 2; 云计算+AI智能体+智能家电+四川国资</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="5" t="n">
@@ -7984,6 +8114,11 @@
           <t>603110.SH; 东方材料; 6;  14:38:18; 3天3板; 19.4;  09:25:03; 10.0%; 3; 东方超算+PCB电子油墨</t>
         </is>
       </c>
+      <c r="BN27" t="inlineStr">
+        <is>
+          <t>002175.SZ; 东方智造; 0;  14:39:57; 2天2板; 5.81;  14:39:57; 10.0%; 2; 智能制造+精密仪器+芯片</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="5" t="n">
@@ -8164,6 +8299,11 @@
           <t>603496.SH; 恒为科技; 2;  14:41:40; 3天2板; 28.16;  13:06:04; 10.0%; 1; 华为昇腾+网络可视化</t>
         </is>
       </c>
+      <c r="BN28" t="inlineStr">
+        <is>
+          <t>300846.SZ; 首都在线; 0;  14:48:51; 4天3板; 22.22;  14:48:51; 20.0%; 2; DeepSeek概念+算力+数据中心</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="5" t="n">
@@ -8334,6 +8474,11 @@
           <t>600186.SH; 莲花控股; 7;  14:54:31; 2天2板; 6.51;  10:28:22; 10.0%; 2; 部署DeepSeek R1大模型+算力+味精+年报预增</t>
         </is>
       </c>
+      <c r="BN29" t="inlineStr">
+        <is>
+          <t>002306.SZ; 中科云网; 2;  14:49:30; 4天3板; 2.74;  14:27:15; 10.0%; 2; 光伏+餐饮团膳+获1300万元债务豁免</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="5" t="n">
@@ -8497,6 +8642,11 @@
       <c r="BM30" t="inlineStr">
         <is>
           <t>002691.SZ; 冀凯股份; 9;  14:55:45; 13天11板; 11.12;  09:30:06; 10.0%; 4; 机器人+矿山装备+3D打印</t>
+        </is>
+      </c>
+      <c r="BN30" t="inlineStr">
+        <is>
+          <t>600785.SH; 新华百货; 4;  14:54:01; 2天2板; 12.85;  14:19:13; 10.0%; 2; 零售+IP+字节</t>
         </is>
       </c>
     </row>
@@ -11241,7 +11391,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BM146"/>
+  <dimension ref="A1:BN146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11570,6 +11720,11 @@
           <t>2025年02月07日</t>
         </is>
       </c>
+      <c r="BN1" s="5" t="inlineStr">
+        <is>
+          <t>2025年02月10日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="5" t="n">
@@ -11878,6 +12033,11 @@
       <c r="BM2" t="inlineStr">
         <is>
           <t>002718.SZ; 友邦吊顶; 2;  09:32:06; 放量跌停; 15.84; -10.0%; 1; 此前涨幅较大+年报预亏</t>
+        </is>
+      </c>
+      <c r="BN2" t="inlineStr">
+        <is>
+          <t>600225.SH; 退市卓朗; 1;  09:25:02; 放量跌停; 0.27; -10.0%; 1; 进入退市整理期交易</t>
         </is>
       </c>
     </row>
@@ -19282,7 +19442,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BM72"/>
+  <dimension ref="A1:BN72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19611,6 +19771,11 @@
           <t>2025年02月07日</t>
         </is>
       </c>
+      <c r="BN1" s="5" t="inlineStr">
+        <is>
+          <t>2025年02月10日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="5" t="n">
@@ -19936,6 +20101,11 @@
           <t>000972.SZ; 中基健康; 4;  09:25:00; 主板; 3.75; 曾涨停; 3.0%; 0.05H;  09:25:00|| 09:32:57|| 09:33:54|| 09:42:00</t>
         </is>
       </c>
+      <c r="BN2" t="inlineStr">
+        <is>
+          <t>603618.SH; 杭电股份; 1;  09:25:01; 主板; 6.47; 曾涨停; 1.9%; 0.01H;  09:25:01</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="n">
@@ -20261,6 +20431,11 @@
           <t>605055.SH; 迎丰股份; 1;  09:30:18; 主板; 5.68; 曾涨停; 1.1%; 0.07H;  09:30:18</t>
         </is>
       </c>
+      <c r="BN3" t="inlineStr">
+        <is>
+          <t>002573.SZ; 清新环境; 1;  09:37:00; 主板; 4.04; 曾涨停; 5.5%; 0.01H;  09:37:00</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="5" t="n">
@@ -20586,6 +20761,11 @@
           <t>300790.SZ; 宇瞳光学; 2;  09:30:45; 创业板; 28.91; 曾涨停; 16.3%; 0.02H;  09:30:45|| 09:53:36</t>
         </is>
       </c>
+      <c r="BN4" t="inlineStr">
+        <is>
+          <t>601728.SH; 中国电信; 3;  09:46:41; 主板; 7.6; 曾涨停; 6.6%; 0.51H;  09:46:41|| 10:16:11|| 10:17:35</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="n">
@@ -20911,6 +21091,11 @@
           <t>002655.SZ; 共达电声; 2;  09:33:30; 主板; 13.34; 曾涨停; 7.2%; 0.00H;  09:33:30|| 09:33:48</t>
         </is>
       </c>
+      <c r="BN5" t="inlineStr">
+        <is>
+          <t>003007.SZ; 直真科技; 2;  10:09:00; 主板; 33.86; 曾涨停; 2.6%; 0.02H;  10:09:00|| 10:11:48</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="5" t="n">
@@ -21236,6 +21421,11 @@
           <t>603130.SH; 云中马; 1;  09:35:50; 主板; 22.6; 曾涨停; 5.1%; 0.01H;  09:35:50</t>
         </is>
       </c>
+      <c r="BN6" t="inlineStr">
+        <is>
+          <t>603193.SH; 润本股份; 4;  10:23:00; 主板; 29.41; 曾涨停; 2.4%; 0.01H;  10:23:00|| 10:23:27|| 10:24:03|| 10:26:00</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="n">
@@ -21561,6 +21751,11 @@
           <t>300588.SZ; 熙菱信息; 2;  09:36:36; 创业板; 15.62; 曾涨停; 11.5%; 0.03H;  09:36:36|| 09:39:48</t>
         </is>
       </c>
+      <c r="BN7" t="inlineStr">
+        <is>
+          <t>600735.SH; 新华锦; 4;  10:36:38; 主板; 4.95; 曾涨停; 6.5%; 0.59H;  10:36:38|| 10:37:32|| 10:40:02|| 10:40:50</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="5" t="n">
@@ -21886,6 +22081,11 @@
           <t>603887.SH; 城地香江; 2;  09:47:58; 主板; 15.91; 曾涨停; 7.5%; 2.99H;  09:47:58|| 10:00:37</t>
         </is>
       </c>
+      <c r="BN8" t="inlineStr">
+        <is>
+          <t>603186.SH; 华正新材; 1;  10:48:29; 主板; 26.61; 曾涨停; 4.2%; 0.00H;  10:48:29</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="n">
@@ -22211,6 +22411,11 @@
           <t>603667.SH; 五洲新春; 1;  09:49:31; 主板; 46.5; 曾涨停; 5.3%; 0.39H;  09:49:31</t>
         </is>
       </c>
+      <c r="BN9" t="inlineStr">
+        <is>
+          <t>300235.SZ; 方直科技; 1;  11:13:45; 创业板; 13.34; 曾涨停; 12.8%; 0.05H;  11:13:45</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="5" t="n">
@@ -22536,6 +22741,11 @@
           <t>301551.SZ; 无线传媒; 1;  09:54:06; 创业板; 61.99; 曾涨停; 19.5%; 3.06H;  09:54:06</t>
         </is>
       </c>
+      <c r="BN10" t="inlineStr">
+        <is>
+          <t>001229.SZ; 魅视科技; 3;  13:41:45; 主板; 38.87; 曾涨停; 5.2%; 0.00H;  13:41:45|| 13:42:06|| 13:42:30</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="5" t="n">
@@ -22856,6 +23066,11 @@
           <t>603037.SH; 凯众股份; 1;  09:56:57; 主板; 16.12; 曾涨停; 5.0%; 2.95H;  09:56:57</t>
         </is>
       </c>
+      <c r="BN11" t="inlineStr">
+        <is>
+          <t>002607.SZ; 中公教育; 2;  14:38:03; 主板; 3.76; 曾涨停; 8.0%; 0.03H;  14:38:03|| 14:40:15</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="5" t="n">
@@ -23174,6 +23389,11 @@
       <c r="BM12" t="inlineStr">
         <is>
           <t>001223.SZ; 欧克科技; 1;  09:58:15; 主板; 47.86; 曾涨停; 7.1%; 1.01H;  09:58:15</t>
+        </is>
+      </c>
+      <c r="BN12" t="inlineStr">
+        <is>
+          <t>002575.SZ; 群兴玩具; 5;  14:45:54; 主板; 8.07; 曾涨停; 7.3%; 0.04H;  14:45:54|| 14:47:45|| 14:49:06|| 14:50:15|| 14:50:51</t>
         </is>
       </c>
     </row>
@@ -30533,7 +30753,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BM128"/>
+  <dimension ref="A1:BN128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30862,6 +31082,11 @@
           <t>2025年02月07日</t>
         </is>
       </c>
+      <c r="BN1" s="5" t="inlineStr">
+        <is>
+          <t>2025年02月10日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="5" t="n">
@@ -31187,6 +31412,11 @@
           <t>605228.SH; 神通科技; 0;  09:25:01; 首板涨停; 10.77;  09:25:01; 10.0%; 1; 激光雷达+汽车零部件+智能座舱+特斯拉</t>
         </is>
       </c>
+      <c r="BN2" t="inlineStr">
+        <is>
+          <t>600006.SH; 东风股份; 0;  09:25:00; 首板涨停; 8.03;  09:25:00; 10.0%; 1; 长安东风或重组+接入DeepSeek全系列模型+新能源汽车</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="n">
@@ -31512,6 +31742,11 @@
           <t>300057.SZ; 万顺新材; 0;  09:32:30; 首板涨停; 5.59;  09:32:30; 20.0%; 1; DeepSeek+比亚迪概念+PET铜箔+铝加工</t>
         </is>
       </c>
+      <c r="BN3" t="inlineStr">
+        <is>
+          <t>600081.SH; 东风科技; 0;  09:25:02; 首板涨停; 11.89;  09:25:02; 10.0%; 1; 长安东风或重组</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="5" t="n">
@@ -31837,6 +32072,11 @@
           <t>000779.SZ; 甘咨询; 0;  09:34:51; 首板涨停; 9.11;  09:34:51; 10.0%; 1; 数据中心+房屋检测+工程咨询+西部大开发</t>
         </is>
       </c>
+      <c r="BN4" t="inlineStr">
+        <is>
+          <t>002929.SZ; 润建股份; 0;  09:30:00; 首板涨停; 39.02;  09:30:00; 10.0%; 1; 部署DeepSeek至R1（满血）版本+算力+英伟达+大模型</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="n">
@@ -32162,6 +32402,11 @@
           <t>002865.SZ; 钧达股份; 1;  09:38:06; 首板涨停; 64.36;  09:35:42; 10.0%; 1; 光伏电池+TOPCon+钙钛矿电池</t>
         </is>
       </c>
+      <c r="BN5" t="inlineStr">
+        <is>
+          <t>002775.SZ; 文科股份; 1;  09:35:36; 首板涨停; 3.81;  09:32:45; 10.1%; 1; 旅游+光伏+佛山国资</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="5" t="n">
@@ -32487,6 +32732,11 @@
           <t>601929.SH; 吉视传媒; 0;  09:39:35; 首板涨停; 1.96;  09:39:35; 10.1%; 1; 传媒+置入优质资产+吉林国资</t>
         </is>
       </c>
+      <c r="BN6" t="inlineStr">
+        <is>
+          <t>600698.SH; 湖南天雁; 2;  09:36:06; 首板涨停; 5.86;  09:25:03; 9.9%; 1; 长安东风或重组</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="n">
@@ -32812,6 +33062,11 @@
           <t>000042.SZ; 中洲控股; 1;  09:39:51; 首板涨停; 5.53;  09:38:48; 9.9%; 1; 房地产+粤港澳大湾区</t>
         </is>
       </c>
+      <c r="BN7" t="inlineStr">
+        <is>
+          <t>600624.SH; 复旦复华; 0;  09:40:25; 首板涨停; 6.9;  09:40:25; 10.0%; 1; 量子科技+医药+数字经济+上海国资</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="5" t="n">
@@ -33137,6 +33392,11 @@
           <t>000520.SZ; 凤凰航运; 0;  09:41:06; 首板涨停; 5.01;  09:41:06; 10.1%; 1; 航运概念</t>
         </is>
       </c>
+      <c r="BN8" t="inlineStr">
+        <is>
+          <t>603220.SH; 中贝通信; 2;  09:41:12; 首板涨停; 25.08;  09:37:21; 10.0%; 1; 算力+华为算力</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="n">
@@ -33462,6 +33722,11 @@
           <t>002674.SZ; 兴业科技; 1;  09:43:54; 首板涨停; 10.16;  09:31:03; 10.0%; 1; 天然牛皮革+华为汽车+高股息</t>
         </is>
       </c>
+      <c r="BN9" t="inlineStr">
+        <is>
+          <t>600178.SH; 东安动力; 3;  09:44:56; 首板涨停; 12.89;  09:25:02; 10.0%; 1; 长安东风或重组</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="5" t="n">
@@ -33787,6 +34052,11 @@
           <t>002596.SZ; 海南瑞泽; 0;  09:44:09; 首板涨停; 3.4;  09:44:09; 10.0%; 1; 海南自贸区+实控人变更预期+混凝土</t>
         </is>
       </c>
+      <c r="BN10" t="inlineStr">
+        <is>
+          <t>600193.SH; 创兴资源; 0;  09:45:04; 首板涨停; 3.59;  09:45:04; 10.1%; 1; 算力+稀土永磁+建筑装饰</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="5" t="n">
@@ -34112,6 +34382,11 @@
           <t>002163.SZ; 海南发展; 1;  09:51:42; 首板涨停; 8.98;  09:43:45; 10.0%; 1; 海南国资+光伏</t>
         </is>
       </c>
+      <c r="BN11" t="inlineStr">
+        <is>
+          <t>601606.SH; 长城军工; 0;  09:48:09; 首板涨停; 12.69;  09:48:09; 10.0%; 1; 控股股东拟变更+兵装重组概念+军工+国企</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="5" t="n">
@@ -34437,6 +34712,11 @@
           <t>600666.SH; 奥瑞德; 0;  09:53:43; 首板涨停; 2.51;  09:53:43; 10.1%; 1; 算力+蓝宝石+摘帽</t>
         </is>
       </c>
+      <c r="BN12" t="inlineStr">
+        <is>
+          <t>600812.SH; 华北制药; 1;  09:50:06; 首板涨停; 6.35;  09:46:36; 10.1%; 1; 流感+医药+维生素</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="5" t="n">
@@ -34762,6 +35042,11 @@
           <t>002849.SZ; 威星智能; 0;  09:59:03; 首板涨停; 16.89;  09:59:03; 10.0%; 1; 摩尔线程合作+智能燃气</t>
         </is>
       </c>
+      <c r="BN13" t="inlineStr">
+        <is>
+          <t>002189.SZ; 中光学; 1;  09:50:18; 首板涨停; 21.45;  09:25:00; 10.0%; 1; 兵装重组概念+光学</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="5" t="n">
@@ -35087,6 +35372,11 @@
           <t>000761.SZ; 本钢板材; 0;  10:12:30; 首板涨停; 3.3;  10:12:30; 10.0%; 1; 钢铁+央企改革</t>
         </is>
       </c>
+      <c r="BN14" t="inlineStr">
+        <is>
+          <t>603985.SH; 恒润股份; 0;  09:51:00; 首板涨停; 12.38;  09:51:00; 10.0%; 1; 算力+风电+国企</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="5" t="n">
@@ -35407,6 +35697,11 @@
           <t>002629.SZ; 仁智股份; 0;  10:13:06; 首板涨停; 4.79;  10:13:06; 10.1%; 1; 光伏+油服工程+年报预计扭亏</t>
         </is>
       </c>
+      <c r="BN15" t="inlineStr">
+        <is>
+          <t>002380.SZ; 科远智慧; 0;  09:52:06; 首板涨停; 23.47;  09:52:06; 10.0%; 1; 年报预增+机器人概念+数据要素+工业互联网</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="5" t="n">
@@ -35727,6 +36022,11 @@
           <t>603803.SH; 瑞斯康达; 0;  10:14:25; 首板涨停; 11.46;  10:14:25; 10.0%; 1; 光通信+算力+ASIC芯片</t>
         </is>
       </c>
+      <c r="BN16" t="inlineStr">
+        <is>
+          <t>002229.SZ; 鸿博股份; 0;  09:54:27; 首板涨停; 13.38;  09:54:27; 10.0%; 1; 算力+彩票+无实控人</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="5" t="n">
@@ -36042,6 +36342,11 @@
           <t>002613.SZ; 北玻股份; 0;  10:18:06; 首板涨停; 4.36;  10:18:06; 10.1%; 1; 光伏+玻璃+苹果总部玻璃+出口沙特</t>
         </is>
       </c>
+      <c r="BN17" t="inlineStr">
+        <is>
+          <t>000032.SZ; 深桑达A; 3;  09:55:57; 首板涨停; 20.11;  09:30:57; 10.0%; 1; 中国电子云上线DeepSeek-R1/V3全量模型+云计算+央企</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="5" t="n">
@@ -36357,6 +36662,11 @@
           <t>600756.SH; 浪潮软件; 1;  10:22:17; 首板涨停; 17.01;  10:21:26; 10.0%; 1; 数字政府+山东国资+资产重组预期</t>
         </is>
       </c>
+      <c r="BN18" t="inlineStr">
+        <is>
+          <t>600654.SH; 中安科; 0;  09:56:24; 首板涨停; 3.64;  09:56:24; 10.0%; 1; 算力+智能安防+境外安保综合服务</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="5" t="n">
@@ -36667,6 +36977,11 @@
           <t>002369.SZ; 卓翼科技; 0;  10:23:18; 首板涨停; 7.55;  10:23:18; 10.1%; 1; AR智能眼镜+消费电子+小米概念+机器人</t>
         </is>
       </c>
+      <c r="BN19" t="inlineStr">
+        <is>
+          <t>300271.SZ; 华宇软件; 0;  09:58:33; 首板涨停; 8.98;  09:58:33; 20.1%; 1; 法律大模型+华为+数据要素+信创</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="5" t="n">
@@ -36977,6 +37292,11 @@
           <t>605255.SH; 天普股份; 0;  10:29:53; 首板涨停; 14.73;  10:29:53; 10.0%; 1; 汽车零部件+汽车胶管+密封系统零件</t>
         </is>
       </c>
+      <c r="BN20" t="inlineStr">
+        <is>
+          <t>600476.SH; 湘邮科技; 0;  10:05:03; 首板涨停; 17.16;  10:05:03; 10.0%; 1; 云计算+车联网+央企</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="5" t="n">
@@ -37287,6 +37607,11 @@
           <t>000536.SZ; 华映科技; 0;  10:46:54; 首板涨停; 4.9;  10:46:54; 10.1%; 1; 显示面板+华为手机+大摩新进第8大流通股东+福建国资</t>
         </is>
       </c>
+      <c r="BN21" t="inlineStr">
+        <is>
+          <t>000785.SZ; 居然智家; 1;  10:05:57; 首板涨停; 3.8;  09:32:30; 10.1%; 1; DeepSeek概念+AI智能体+零售+华为</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="5" t="n">
@@ -37597,6 +37922,11 @@
           <t>002634.SZ; 棒杰股份; 0;  10:48:09; 首板涨停; 3.72;  10:48:09; 10.1%; 1; 光伏+无缝服装</t>
         </is>
       </c>
+      <c r="BN22" t="inlineStr">
+        <is>
+          <t>002059.SZ; 云南旅游; 1;  10:07:27; 首板涨停; 5.57;  10:02:06; 10.1%; 1; 东盟国家旅游团可免签入境云南西双版纳</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="5" t="n">
@@ -37902,6 +38232,11 @@
           <t>000710.SZ; 贝瑞基因; 1;  10:58:33; 首板涨停; 9.59;  09:38:45; 10.0%; 1; 智能医疗+基因检测+生育健康</t>
         </is>
       </c>
+      <c r="BN23" t="inlineStr">
+        <is>
+          <t>600579.SH; 中化装备; 0;  10:11:15; 首板涨停; 9.25;  10:11:15; 10.0%; 1; 重大资产重组+央企改革+机器人+专用设备</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="5" t="n">
@@ -38202,6 +38537,11 @@
           <t>002016.SZ; 世荣兆业; 0;  11:11:48; 首板涨停; 6.2;  11:11:48; 9.9%; 1; 房地产+物业管理+珠海国资</t>
         </is>
       </c>
+      <c r="BN24" t="inlineStr">
+        <is>
+          <t>300078.SZ; 思创医惠; 1;  10:14:42; 首板涨停; 3.94;  09:44:15; 20.1%; 1; DRG/DIP+智慧医疗+辅助生殖+机器人</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="5" t="n">
@@ -38502,6 +38842,11 @@
           <t>600785.SH; 新华百货; 1;  11:21:54; 首板涨停; 11.68;  11:21:15; 10.0%; 1; 零售+IP+字节</t>
         </is>
       </c>
+      <c r="BN25" t="inlineStr">
+        <is>
+          <t>605069.SH; 正和生态; 0;  10:23:12; 首板涨停; 9.01;  10:23:12; 10.0%; 1; AI智能体+智谱合作+生态保护</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="5" t="n">
@@ -38797,6 +39142,11 @@
           <t>603618.SH; 杭电股份; 0;  11:29:45; 首板涨停; 6.35;  11:29:45; 10.1%; 1; PET铜箔+电力电缆+光纤光缆+杭州</t>
         </is>
       </c>
+      <c r="BN26" t="inlineStr">
+        <is>
+          <t>605186.SH; 健麾信息; 0;  10:23:24; 首板涨停; 23.08;  10:23:24; 10.0%; 1; 智慧药房+机器人+沙特+AI语料</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="5" t="n">
@@ -39087,6 +39437,11 @@
           <t>002542.SZ; 中化岩土; 0;  13:19:12; 首板涨停; 3.73;  13:19:12; 10.0%; 1; 低空经济+工程服务+数据中心+成都国资</t>
         </is>
       </c>
+      <c r="BN27" t="inlineStr">
+        <is>
+          <t>002199.SZ; 东晶电子; 0;  10:24:51; 首板涨停; 7.38;  10:24:51; 10.0%; 1; 第一大股东变更+石英晶体元器件</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="5" t="n">
@@ -39372,6 +39727,11 @@
           <t>603716.SH; 塞力医疗; 0;  13:53:08; 首板涨停; 8.58;  13:53:08; 10.0%; 1; DRG/DIP+体外诊断+智慧供应链</t>
         </is>
       </c>
+      <c r="BN28" t="inlineStr">
+        <is>
+          <t>603958.SH; 哈森股份; 0;  10:30:30; 首板涨停; 14.61;  10:30:30; 10.0%; 1; 拟购买辰瓴光学100%股权及苏州郎克斯45%股权+消费电子</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="5" t="n">
@@ -39647,6 +40007,11 @@
           <t>002824.SZ; 和胜股份; 0;  13:55:18; 首板涨停; 17.19;  13:55:18; 10.0%; 1; 小米+比亚迪概念+消费电子+电池托盘</t>
         </is>
       </c>
+      <c r="BN29" t="inlineStr">
+        <is>
+          <t>000029.SZ; 深深房A; 0;  10:30:45; 首板涨停; 15.57;  10:30:45; 10.0%; 1; 房地产+深圳国企</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="5" t="n">
@@ -39917,6 +40282,11 @@
           <t>301208.SZ; 中亦科技; 2;  14:00:45; 首板涨停; 43.19;  11:15:42; 20.0%; 1; 算力+鸿蒙+AI智能体+IT服务</t>
         </is>
       </c>
+      <c r="BN30" t="inlineStr">
+        <is>
+          <t>600797.SH; 浙大网新; 0;  10:31:56; 首板涨停; 8.4;  10:31:56; 9.9%; 1; 云计算+蚂蚁金服合作+字节</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="5" t="n">
@@ -40182,6 +40552,11 @@
           <t>603193.SH; 润本股份; 1;  14:18:32; 首板涨停; 28.71;  10:44:08; 10.0%; 1; 驱蚊+电商</t>
         </is>
       </c>
+      <c r="BN31" t="inlineStr">
+        <is>
+          <t>002335.SZ; 科华数据; 0;  10:34:42; 首板涨停; 33.84;  10:34:42; 10.0%; 1; 数据中心+UPS+液冷+新能源</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="5" t="n">
@@ -40447,6 +40822,11 @@
           <t>002044.SZ; 美年健康; 3;  14:24:42; 首板涨停; 4.94;  10:54:45; 10.0%; 1; 健康体检服务+AI医疗+华为</t>
         </is>
       </c>
+      <c r="BN32" t="inlineStr">
+        <is>
+          <t>002173.SZ; 创新医疗; 0;  10:34:45; 首板涨停; 10.01;  10:34:45; 10.0%; 1; 脑机接口+养老+民营医院</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="5" t="n">
@@ -40707,6 +41087,11 @@
           <t>600207.SH; 安彩高科; 11;  14:28:11; 首板涨停; 4.71;  09:51:17; 10.0%; 1; 光伏玻璃+半导体用玻璃+河南国资</t>
         </is>
       </c>
+      <c r="BN33" t="inlineStr">
+        <is>
+          <t>603090.SH; 宏盛股份; 0;  10:37:11; 首板涨停; 20.32;  10:37:11; 10.0%; 1; 数据中心+换热器+锂电池+外销</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="5" t="n">
@@ -40962,6 +41347,11 @@
           <t>000158.SZ; 常山北明; 4;  14:31:12; 首板涨停; 22.42;  10:19:03; 10.0%; 1; 华为昇腾+华为鲲鹏+算力租赁+国企</t>
         </is>
       </c>
+      <c r="BN34" t="inlineStr">
+        <is>
+          <t>002879.SZ; 长缆科技; 1;  10:37:39; 首板涨停; 17.01;  10:09:48; 10.0%; 1; 数据中心+核电+机器人+电力电缆附件</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="5" t="n">
@@ -41217,6 +41607,11 @@
           <t>603882.SH; 金域医学; 2;  14:34:40; 首板涨停; 30.09;  10:55:53; 10.0%; 1; AI医疗+第三方医学检验</t>
         </is>
       </c>
+      <c r="BN35" t="inlineStr">
+        <is>
+          <t>300451.SZ; 创业慧康; 0;  10:46:39; 首板涨停; 5.94;  10:46:39; 20.0%; 1; 接入DeepSeek+医学大模型+AI医疗</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="5" t="n">
@@ -41467,6 +41862,11 @@
           <t>000034.SZ; 神州数码; 4;  14:41:03; 首板涨停; 39.88;  10:52:51; 10.0%; 1; 华为昇腾+DeepSeek概念</t>
         </is>
       </c>
+      <c r="BN36" t="inlineStr">
+        <is>
+          <t>000062.SZ; 深圳华强; 0;  10:49:36; 首板涨停; 24.68;  10:49:36; 10.0%; 1; 华为海思概念+电子元器件分销+消费电子</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="5" t="n">
@@ -41717,6 +42117,11 @@
           <t>002858.SZ; 力盛体育; 1;  14:42:30; 首板涨停; 13.48;  13:01:03; 10.0%; 1; 无人驾驶+AI体育+IP经济+汽车运动运营</t>
         </is>
       </c>
+      <c r="BN37" t="inlineStr">
+        <is>
+          <t>002630.SZ; 华西能源; 0;  11:01:36; 首板涨停; 4.37;  11:01:36; 10.1%; 1; 电站装备+新能源+节能环保</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="5" t="n">
@@ -41962,6 +42367,11 @@
           <t>600481.SH; 双良节能; 3;  14:42:42; 首板涨停; 6.25;  09:55:36; 10.0%; 1; 光伏+单晶硅+氢能源+液冷服务器</t>
         </is>
       </c>
+      <c r="BN38" t="inlineStr">
+        <is>
+          <t>000004.SZ; 国华网安; 0;  11:08:03; 首板涨停; 13.97;  11:08:03; 10.0%; 1; 网络安全+鸿蒙+国产适配</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="5" t="n">
@@ -42202,6 +42612,11 @@
           <t>002010.SZ; 传化智联; 0;  14:47:33; 首板涨停; 4.84;  14:47:33; 10.0%; 1; 物流+合成橡胶+参股蚂蚁消金+出售资产</t>
         </is>
       </c>
+      <c r="BN39" t="inlineStr">
+        <is>
+          <t>002599.SZ; 盛通股份; 0;  11:13:09; 首板涨停; 9.54;  11:13:09; 10.0%; 1; 人形机器人+宇树科技合作+教育+鸿蒙</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="5" t="n">
@@ -42437,6 +42852,11 @@
           <t>002175.SZ; 东方智造; 1;  14:48:03; 首板涨停; 5.28;  13:23:27; 10.0%; 1; 智能制造+精密仪器+芯片</t>
         </is>
       </c>
+      <c r="BN40" t="inlineStr">
+        <is>
+          <t>002212.SZ; 天融信; 3;  11:14:57; 首板涨停; 8.92;  11:08:57; 10.0%; 1; DeepSeek概念+云服务+量子密码+华为鲲鹏</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="5" t="n">
@@ -42672,6 +43092,11 @@
           <t>301030.SZ; 仕净科技; 2;  14:53:36; 首板涨停; 22.5;  10:05:30; 20.0%; 1; 光伏+污水处理</t>
         </is>
       </c>
+      <c r="BN41" t="inlineStr">
+        <is>
+          <t>002253.SZ; 川大智胜; 0;  11:19:15; 首板涨停; 13.57;  11:19:15; 10.0%; 1; 国资背景+华为昇腾+低空安全管控</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="5" t="n">
@@ -42902,6 +43327,11 @@
           <t>600839.SH; 四川长虹; 1;  14:53:50; 首板涨停; 10.52;  13:13:59; 10.0%; 1; 智能家电+云计算+四川国资</t>
         </is>
       </c>
+      <c r="BN42" t="inlineStr">
+        <is>
+          <t>002835.SZ; 同为股份; 0;  13:02:54; 首板涨停; 21.52;  13:02:54; 10.0%; 1; 视频监控+AI智能+外销</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="5" t="n">
@@ -43132,6 +43562,11 @@
           <t>603612.SH; 索通发展; 18;  14:56:29; 首板涨停; 15.99;  10:52:41; 10.0%; 1; 锂电池+预焙阳极+年报预计扭亏</t>
         </is>
       </c>
+      <c r="BN43" t="inlineStr">
+        <is>
+          <t>301536.SZ; 星宸科技; 0;  13:06:39; 首板涨停; 89.04;  13:06:39; 20.0%; 1; 端边侧AI SoC+智能视觉+AI眼镜+机器人</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="5" t="n">
@@ -43362,6 +43797,11 @@
           <t>600732.SH; 爱旭股份; 9;  15:00:01; 首板涨停; 13.02;  09:41:22; 10.0%; 1; 光伏+预计今年业绩明显改善</t>
         </is>
       </c>
+      <c r="BN44" t="inlineStr">
+        <is>
+          <t>002695.SZ; 煌上煌; 0;  13:11:30; 首板涨停; 9.17;  13:11:30; 10.0%; 1; 食品饮料+电商+新零售</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="5" t="n">
@@ -43577,6 +44017,11 @@
           <t>002126.SZ; 银轮股份; 6;  14:00:12; 首板涨停; 22.67;  13:12:54; 4.3%; 1; 汽车热管理+液冷服务器+比亚迪概念+低空经济</t>
         </is>
       </c>
+      <c r="BN45" t="inlineStr">
+        <is>
+          <t>300603.SZ; 立昂技术; 1;  13:15:48; 首板涨停; 13.34;  10:28:33; 20.0%; 1; 算力+华为+一带一路</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="5" t="n">
@@ -43787,6 +44232,11 @@
           <t>002284.SZ; 亚太股份; 0;  14:25:08; 首板涨停; 9.19;  14:25:08; 2.3%; 1; 获定点通知+比亚迪+无人驾驶+汽车基础制动系统</t>
         </is>
       </c>
+      <c r="BN46" t="inlineStr">
+        <is>
+          <t>003029.SZ; 吉大正元; 0;  13:15:51; 首板涨停; 24.87;  13:15:51; 10.0%; 1; AI智能体+网络安全+华为鸿蒙+量子科技</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="5" t="n">
@@ -43987,6 +44437,11 @@
           <t>003021.SZ; 兆威机电; 4;  14:27:43; 首板涨停; 111.73;  10:24:13; 0.6%; 1; 人形机器人+灵巧手+减速器+MR</t>
         </is>
       </c>
+      <c r="BN47" t="inlineStr">
+        <is>
+          <t>603189.SH; 网达软件; 0;  13:16:31; 首板涨停; 17.84;  13:16:31; 10.0%; 1; 视频技术+MR+空间计算+年报预增</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="5" t="n">
@@ -44187,6 +44642,11 @@
           <t>002594.SZ; 比亚迪; 0;  14:30:59; 首板涨停; 326.9;  14:30:59; 5.1%; 1; 将于2月10日召开智能化战略发布会</t>
         </is>
       </c>
+      <c r="BN48" t="inlineStr">
+        <is>
+          <t>002131.SZ; 利欧股份; 0;  13:19:21; 首板涨停; 4.54;  13:19:21; 9.9%; 1; AI营销+TikTok+华为鲸鸿</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="5" t="n">
@@ -44382,6 +44842,11 @@
           <t>603297.SH; 永新光学; 0;  14:33:57; 首板涨停; 108.2;  14:33:57; 7.7%; 1; 激光雷达+无人驾驶+光刻机镜头+AI眼镜</t>
         </is>
       </c>
+      <c r="BN49" t="inlineStr">
+        <is>
+          <t>002899.SZ; 英派斯; 0;  13:23:24; 首板涨停; 27.39;  13:23:24; 10.0%; 1; AI眼镜+华为鸿蒙+健身器材+外销</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="5" t="n">
@@ -44577,6 +45042,11 @@
           <t>002387.SZ; 维信诺; 3;  14:35:26; 首板涨停; 10.39;  13:10:39; 2.6%; 1; 面板+小米+努比亚+拟收购资产</t>
         </is>
       </c>
+      <c r="BN50" t="inlineStr">
+        <is>
+          <t>603729.SH; 龙韵股份; 0;  13:23:43; 首板涨停; 17.89;  13:23:43; 10.0%; 1; 年报预增+营销+抖音概念+MCN机构</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="5" t="n">
@@ -44767,6 +45237,11 @@
           <t>301488.SZ; 豪恩汽电; 0;  14:36:41; 首板涨停; 67.08;  14:36:41; 3.5%; 1; 比亚迪概念+无人驾驶+机器人</t>
         </is>
       </c>
+      <c r="BN51" t="inlineStr">
+        <is>
+          <t>002987.SZ; 京北方; 0;  13:25:09; 首板涨停; 16.58;  13:25:09; 10.0%; 1; DeepSeek概念+AI应用+金融科技+鸿蒙概念</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="5" t="n">
@@ -44942,6 +45417,11 @@
           <t>002920.SZ; 德赛西威; 0;  14:37:11; 首板涨停; 133.58;  14:37:11; 6.6%; 1; 智能座舱+T-box+比亚迪</t>
         </is>
       </c>
+      <c r="BN52" t="inlineStr">
+        <is>
+          <t>002693.SZ; 双成药业; 0;  13:28:09; 首板涨停; 15.62;  13:28:09; 10.0%; 1; 拟收购宁波奥拉半导体+多肽药</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="5" t="n">
@@ -45112,6 +45592,11 @@
           <t>002413.SZ; 雷科防务; 0;  14:38:56; 首板涨停; 4.75;  14:38:56; 3.7%; 1; 雷达+自动驾驶+无人机+卫星</t>
         </is>
       </c>
+      <c r="BN53" t="inlineStr">
+        <is>
+          <t>600996.SH; 贵广网络; 0;  13:41:19; 首板涨停; 9.25;  13:41:19; 10.0%; 1; 算力+腾讯云交流座谈+电视广播+贵州国资</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="5" t="n">
@@ -45267,6 +45752,11 @@
           <t>600114.SH; 东睦股份; 1;  14:40:26; 首板涨停; 20.69;  13:35:40; 2.6%; 1; 机器人+消费电子+算力</t>
         </is>
       </c>
+      <c r="BN54" t="inlineStr">
+        <is>
+          <t>000958.SZ; 电投产融; 3;  13:58:00; 首板涨停; 6.52;  10:55:09; 9.9%; 1; 央企+拟置入电投核能100%股权</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="5" t="n">
@@ -45422,6 +45912,11 @@
           <t>603197.SH; 保隆科技; 0;  14:45:56; 首板涨停; 43.53;  14:45:56; 4.3%; 1; 汽车电子+比亚迪</t>
         </is>
       </c>
+      <c r="BN55" t="inlineStr">
+        <is>
+          <t>603881.SH; 数据港; 7;  14:00:40; 首板涨停; 24.7;  09:33:55; 10.0%; 1; 数据中心+液冷+上海国资</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="5" t="n">
@@ -45567,6 +46062,11 @@
           <t>603786.SH; 科博达; 0;  14:46:11; 首板涨停; 71.65;  14:46:11; 5.1%; 1; 比亚迪+无人驾驶+汽车电子</t>
         </is>
       </c>
+      <c r="BN56" t="inlineStr">
+        <is>
+          <t>600814.SH; 杭州解百; 0;  14:04:32; 首板涨停; 7.92;  14:04:32; 10.0%; 1; 百货商场+杭州国资</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="5" t="n">
@@ -45712,6 +46212,11 @@
           <t>002906.SZ; 华阳集团; 0;  14:47:53; 首板涨停; 34.1;  14:47:53; 0.9%; 1; 汽车电子+智能座舱+华为汽车</t>
         </is>
       </c>
+      <c r="BN57" t="inlineStr">
+        <is>
+          <t>000564.SZ; 供销大集; 0;  14:12:21; 首板涨停; 2.95;  14:12:21; 10.1%; 1; 零售+供销社+海航系+统一大市场</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="5" t="n">
@@ -45847,6 +46352,11 @@
           <t>002913.SZ; 奥士康; 1;  14:54:54; 首板涨停; 28.69;  10:49:02; 1.6%; 1; PCB+AIPC+华为+英伟达</t>
         </is>
       </c>
+      <c r="BN58" t="inlineStr">
+        <is>
+          <t>000056.SZ; 皇庭国际; 0;  14:14:15; 首板涨停; 3.08;  14:14:15; 10.0%; 1; 功率半导体+先进封装+债务重组+不动产运营管理</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="5" t="n">
@@ -45977,6 +46487,11 @@
           <t>300718.SZ; 长盛轴承; 1;  14:56:44; 首板涨停; 69.85;  13:32:25; 8.0%; 1; 机器人+宇树科技+自润滑轴承</t>
         </is>
       </c>
+      <c r="BN59" t="inlineStr">
+        <is>
+          <t>600694.SH; 大商股份; 0;  14:14:34; 首板涨停; 27.15;  14:14:34; 10.0%; 1; 零售+免税店+高股息</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="5" t="n">
@@ -46097,6 +46612,11 @@
           <t>603171.SH; 税友股份; 1;  15:00:00; 首板涨停; 36.5;  11:13:04; -3.9%; 1; AI应用+财税数字化+华为鸿蒙</t>
         </is>
       </c>
+      <c r="BN60" t="inlineStr">
+        <is>
+          <t>000419.SZ; 通程控股; 12;  14:15:09; 首板涨停; 6.04;  09:44:21; 10.0%; 1; 零售+互联网金融+股权转让+长沙国资</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="5" t="n">
@@ -46207,6 +46727,11 @@
           <t>600824.SH; 益民集团; 2;  10:57:32; 首板涨停; 5.24;  10:50:30; 0.6%; 1; 零售+养老+上海国企改革</t>
         </is>
       </c>
+      <c r="BN61" t="inlineStr">
+        <is>
+          <t>603270.SH; 金帝股份; 0;  14:16:30; 首板涨停; 24.01;  14:16:30; 10.0%; 1; 机器人+汽车零部件+风电</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="5" t="n">
@@ -46317,6 +46842,11 @@
           <t>300846.SZ; 首都在线; 0;  11:01:26; 首板涨停; 13.42;  11:01:26; 1.8%; 1; 算力+数据中心+智谱合作</t>
         </is>
       </c>
+      <c r="BN62" t="inlineStr">
+        <is>
+          <t>605300.SH; 佳禾食品; 3;  14:21:48; 首板涨停; 14.28;  14:19:36; 10.0%; 1; 饮料乳品+微信小店+代糖+跨境电商</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="5" t="n">
@@ -46427,6 +46957,11 @@
           <t>002115.SZ; 三维通信; 1;  11:05:28; 首板涨停; 7.57;  10:30:42; 10.0%; 1; 字节+营销+卫星通信+机器人</t>
         </is>
       </c>
+      <c r="BN63" t="inlineStr">
+        <is>
+          <t>603214.SH; 爱婴室; 2;  14:22:24; 首板涨停; 24.29;  14:13:57; 10.0%; 1; 母婴商品+新零售+跨境电商</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="5" t="n">
@@ -46522,6 +47057,11 @@
           <t>000882.SZ; 华联股份; 0;  11:07:13; 首板涨停; 2.38;  11:07:13; 0.4%; 1; 零售+影视+收购北京SKP旗下资产+间接持有少量地平线股份</t>
         </is>
       </c>
+      <c r="BN64" t="inlineStr">
+        <is>
+          <t>600846.SH; 同济科技; 6;  14:25:13; 首板涨停; 8.97;  10:56:01; 10.1%; 1; 工程咨询+环保+创投+上海国资</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="5" t="n">
@@ -46607,6 +47147,11 @@
           <t>600539.SH; 狮头股份; 0;  11:16:48; 首板涨停; 8.01;  11:16:48; 10.0%; 1; 电商服务+宠物食品+布局小红书</t>
         </is>
       </c>
+      <c r="BN65" t="inlineStr">
+        <is>
+          <t>300937.SZ; 药易购; 3;  14:26:21; 首板涨停; 32.22;  11:11:45; 20.0%; 1; 部署DeepSeek+医药流通智能体+AI新零售</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="5" t="n">
@@ -46692,6 +47237,11 @@
           <t>002366.SZ; 融发核电; 0;  11:23:33; 首板涨停; 4.91;  11:23:33; -0.2%; 1; 核电+小型堆核岛主设备关键装备制造+核聚变</t>
         </is>
       </c>
+      <c r="BN66" t="inlineStr">
+        <is>
+          <t>003032.SZ; 传智教育; 0;  14:34:39; 首板涨停; 8.99;  14:34:39; 10.0%; 1; 教育+智谱华章合作+华为鸿蒙</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="5" t="n">
@@ -46777,6 +47327,11 @@
           <t>002605.SZ; 姚记科技; 0;  13:00:16; 首板涨停; 28.34;  13:00:16; 4.6%; 1; 互联网营销+字节+手机游戏+体育IP</t>
         </is>
       </c>
+      <c r="BN67" t="inlineStr">
+        <is>
+          <t>600881.SH; 亚泰集团; 1;  14:36:16; 首板涨停; 1.98;  14:27:55; 10.0%; 1; 并购重组+长春国资+建材地产医药投资+低价股</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="5" t="n">
@@ -46852,6 +47407,11 @@
           <t>603048.SH; 浙江黎明; 0;  13:01:22; 首板涨停; 15.53;  13:01:22; 1.6%; 1; 冷锻+汽车零部件+比亚迪</t>
         </is>
       </c>
+      <c r="BN68" t="inlineStr">
+        <is>
+          <t>300251.SZ; 光线传媒; 0;  14:37:21; 首板涨停; 16.75;  14:37:21; 20.0%; 1; 《哪吒之魔童闹海》总票房破82亿</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="5" t="n">
@@ -46927,6 +47487,11 @@
           <t>601616.SH; 广电电气; 0;  13:04:47; 首板涨停; 4;  13:04:47; 0.8%; 1; 电力设备+数据中心+充电桩</t>
         </is>
       </c>
+      <c r="BN69" t="inlineStr">
+        <is>
+          <t>301220.SZ; 亚香股份; 0;  14:40:51; 首板涨停; 58.36;  14:40:51; 20.0%; 1; 香兰素涨价+香料</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="5" t="n">
@@ -47002,6 +47567,11 @@
           <t>002122.SZ; 汇洲智能; 0;  13:05:26; 首板涨停; 4.64;  13:05:26; 10.0%; 1; 数据中心+字节+数据要素+工业母机</t>
         </is>
       </c>
+      <c r="BN70" t="inlineStr">
+        <is>
+          <t>600986.SH; 浙文互联; 3;  14:44:44; 首板涨停; 8.13;  13:04:08; 10.0%; 1; DeepSeek概念+营销+字节+算力+国企</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="5" t="n">
@@ -47072,6 +47642,11 @@
           <t>002960.SZ; 青鸟消防; 0;  13:07:50; 首板涨停; 11.71;  13:07:50; -1.4%; 1; AI消防+机器人</t>
         </is>
       </c>
+      <c r="BN71" t="inlineStr">
+        <is>
+          <t>002397.SZ; 梦洁股份; 3;  14:45:12; 首板涨停; 3.52;  09:31:06; 10.0%; 1; 床上用品+微盟合作+电子商务+股权转让</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="5" t="n">
@@ -47137,6 +47712,11 @@
           <t>002137.SZ; 实益达; 0;  13:09:37; 首板涨停; 7.94;  13:09:37; 2.2%; 1; 微信营销+智能终端+先进封装</t>
         </is>
       </c>
+      <c r="BN72" t="inlineStr">
+        <is>
+          <t>600589.SH; 大位科技; 8;  14:47:40; 首板涨停; 4.47;  09:45:37; 10.1%; 1; 数据中心+拟公开挂牌转让部分资产+完成重整</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="5" t="n">
@@ -47202,6 +47782,11 @@
           <t>002426.SZ; 胜利精密; 0;  13:10:17; 首板涨停; 3.15;  13:10:17; 1.3%; 1; 消费电子+智能穿戴+AIPC+特斯拉</t>
         </is>
       </c>
+      <c r="BN73" t="inlineStr">
+        <is>
+          <t>300244.SZ; 迪安诊断; 1;  14:48:33; 首板涨停; 14.88;  14:42:51; 20.0%; 1; 医学诊断+智能医疗+O2O</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="5" t="n">
@@ -47267,6 +47852,11 @@
           <t>300553.SZ; 集智股份; 0;  13:13:19; 首板涨停; 29.42;  13:13:19; -1.8%; 1; 机器人概念+电机+航空发动机</t>
         </is>
       </c>
+      <c r="BN74" t="inlineStr">
+        <is>
+          <t>603119.SH; 浙江荣泰; 1;  14:49:35; 首板涨停; 31.08;  13:12:50; 10.0%; 1; 机器人+特斯拉+汽车零部件+外销</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="5" t="n">
@@ -47332,6 +47922,11 @@
           <t>002593.SZ; 日上集团; 2;  13:17:15; 首板涨停; 5.14;  13:10:17; -1.7%; 1; 汽车车轮+车联网+钢结构+华为</t>
         </is>
       </c>
+      <c r="BN75" t="inlineStr">
+        <is>
+          <t>002571.SZ; 德力股份; 3;  14:50:48; 首板涨停; 4.68;  14:28:21; 10.1%; 1; IP+光伏+游戏+日用玻璃器皿</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="5" t="n">
@@ -47397,6 +47992,11 @@
           <t>603320.SH; 迪贝电气; 0;  13:18:20; 首板涨停; 15.79;  13:18:20; -1.4%; 1; 年报预增+家用电器+压缩机电机+热泵</t>
         </is>
       </c>
+      <c r="BN76" t="inlineStr">
+        <is>
+          <t>600979.SH; 广安爱众; 0;  14:51:30; 首板涨停; 5.14;  14:51:30; 10.1%; 1; “丝绸云谷”算力项目+入股华大半导体+水电气+国企改革</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="5" t="n">
@@ -47462,6 +48062,11 @@
           <t>002717.SZ; 岭南股份; 0;  13:21:37; 首板涨停; 3.62;  13:21:37; 3.4%; 1; 营销+腾讯+抖音+影视IP+国企</t>
         </is>
       </c>
+      <c r="BN77" t="inlineStr">
+        <is>
+          <t>600696.SH; 岩石股份; 0;  14:53:03; 首板涨停; 9.96;  14:53:03; 10.1%; 1; 白酒+电子商务</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="5" t="n">
@@ -47520,6 +48125,11 @@
       <c r="BA78" t="inlineStr">
         <is>
           <t>002903.SZ; 宇环数控; 0;  13:26:21; 首板涨停; 16.96;  13:26:21; -1.7%; 1; 机器人概念+消费电子+苹果+工业母机</t>
+        </is>
+      </c>
+      <c r="BN78" t="inlineStr">
+        <is>
+          <t>603095.SH; 越剑智能; 3;  14:56:39; 首板涨停; 24.53;  14:20:48; 10.0%; 1; 机器人+华为+智能制造+创投</t>
         </is>
       </c>
     </row>
@@ -48774,7 +49384,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BM50"/>
+  <dimension ref="A1:BN50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49103,6 +49713,11 @@
           <t>2025年02月07日</t>
         </is>
       </c>
+      <c r="BN1" s="5" t="inlineStr">
+        <is>
+          <t>2025年02月10日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="5" t="n">
@@ -49424,6 +50039,11 @@
           <t>003005.SZ; 竞业达; 7.0%; 18.3%; 40.56; 10.0%; 阳线||放量||价升量缩</t>
         </is>
       </c>
+      <c r="BN2" t="inlineStr">
+        <is>
+          <t>000532.SZ; 华金资本; 9.4%; 13.2%; 18.98; 2.5%; 阳线||放量||价升量缩</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="n">
@@ -49745,6 +50365,11 @@
           <t>002861.SZ; 瀛通通讯; 4.4%; 15.0%; 18.4; 10.0%; 强中选强||阳线||放量</t>
         </is>
       </c>
+      <c r="BN3" t="inlineStr">
+        <is>
+          <t>301596.SZ; 瑞迪智驱; 2.9%; 17.8%; 159.01; 14.3%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="5" t="n">
@@ -50042,6 +50667,11 @@
           <t>300307.SZ; 慈星股份; 4.2%; 12.8%; 9.27; 8.0%; 强中选强||阳线||放量</t>
         </is>
       </c>
+      <c r="BN4" t="inlineStr">
+        <is>
+          <t>301550.SZ; 斯菱股份; 1.4%; 17.2%; 112.4; 15.6%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="n">
@@ -50327,6 +50957,11 @@
           <t>001395.SZ; 亚联机械; 1.0%; 15.7%; 46.86; 14.5%; 价升量涨||阳线||长上影线</t>
         </is>
       </c>
+      <c r="BN5" t="inlineStr">
+        <is>
+          <t>300235.SZ; 方直科技; 0.6%; 13.4%; 13.34; 12.8%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="5" t="n">
@@ -50600,6 +51235,11 @@
           <t>300253.SZ; 卫宁健康; 0.9%; 17.2%; 9.26; 16.2%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="BN6" t="inlineStr">
+        <is>
+          <t>300937.SZ; 药易购; 0.0%; 20.0%; 32.22; 20.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="n">
@@ -50861,6 +51501,7 @@
           <t>300377.SZ; 赢时胜; 0.8%; 14.3%; 30.29; 13.4%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="BN7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="5" t="n">
@@ -51110,6 +51751,7 @@
           <t>301208.SZ; 中亦科技; 0.5%; 20.6%; 43.19; 20.0%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="BN8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="5" t="n">
@@ -51343,6 +51985,7 @@
         </is>
       </c>
       <c r="BM9" t="inlineStr"/>
+      <c r="BN9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="5" t="n">
@@ -51552,6 +52195,7 @@
         </is>
       </c>
       <c r="BM10" t="inlineStr"/>
+      <c r="BN10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="5" t="n">
@@ -51749,6 +52393,7 @@
         </is>
       </c>
       <c r="BM11" t="inlineStr"/>
+      <c r="BN11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="5" t="n">
@@ -51918,6 +52563,7 @@
         </is>
       </c>
       <c r="BM12" t="inlineStr"/>
+      <c r="BN12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="5" t="n">
@@ -52071,6 +52717,7 @@
         </is>
       </c>
       <c r="BM13" t="inlineStr"/>
+      <c r="BN13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="5" t="n">
@@ -52220,6 +52867,7 @@
         </is>
       </c>
       <c r="BM14" t="inlineStr"/>
+      <c r="BN14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="5" t="n">
@@ -52361,6 +53009,7 @@
         </is>
       </c>
       <c r="BM15" t="inlineStr"/>
+      <c r="BN15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="5" t="n">
@@ -52498,6 +53147,7 @@
         </is>
       </c>
       <c r="BM16" t="inlineStr"/>
+      <c r="BN16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="5" t="n">
@@ -52627,6 +53277,7 @@
         </is>
       </c>
       <c r="BM17" t="inlineStr"/>
+      <c r="BN17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="5" t="n">
@@ -52752,6 +53403,7 @@
         </is>
       </c>
       <c r="BM18" t="inlineStr"/>
+      <c r="BN18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="5" t="n">
@@ -52869,6 +53521,7 @@
       <c r="BK19" t="inlineStr"/>
       <c r="BL19" t="inlineStr"/>
       <c r="BM19" t="inlineStr"/>
+      <c r="BN19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="5" t="n">
@@ -52986,6 +53639,7 @@
       <c r="BK20" t="inlineStr"/>
       <c r="BL20" t="inlineStr"/>
       <c r="BM20" t="inlineStr"/>
+      <c r="BN20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="5" t="n">
@@ -53103,6 +53757,7 @@
       <c r="BK21" t="inlineStr"/>
       <c r="BL21" t="inlineStr"/>
       <c r="BM21" t="inlineStr"/>
+      <c r="BN21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="5" t="n">
@@ -53212,6 +53867,7 @@
       <c r="BK22" t="inlineStr"/>
       <c r="BL22" t="inlineStr"/>
       <c r="BM22" t="inlineStr"/>
+      <c r="BN22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="5" t="n">
@@ -53317,6 +53973,7 @@
       <c r="BK23" t="inlineStr"/>
       <c r="BL23" t="inlineStr"/>
       <c r="BM23" t="inlineStr"/>
+      <c r="BN23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="5" t="n">
@@ -53418,6 +54075,7 @@
       <c r="BK24" t="inlineStr"/>
       <c r="BL24" t="inlineStr"/>
       <c r="BM24" t="inlineStr"/>
+      <c r="BN24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="5" t="n">
@@ -53515,6 +54173,7 @@
       <c r="BK25" t="inlineStr"/>
       <c r="BL25" t="inlineStr"/>
       <c r="BM25" t="inlineStr"/>
+      <c r="BN25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="5" t="n">
@@ -53604,6 +54263,7 @@
       <c r="BK26" t="inlineStr"/>
       <c r="BL26" t="inlineStr"/>
       <c r="BM26" t="inlineStr"/>
+      <c r="BN26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="5" t="n">
@@ -53693,6 +54353,7 @@
       <c r="BK27" t="inlineStr"/>
       <c r="BL27" t="inlineStr"/>
       <c r="BM27" t="inlineStr"/>
+      <c r="BN27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="5" t="n">
@@ -53782,6 +54443,7 @@
       <c r="BK28" t="inlineStr"/>
       <c r="BL28" t="inlineStr"/>
       <c r="BM28" t="inlineStr"/>
+      <c r="BN28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="5" t="n">
@@ -53871,6 +54533,7 @@
       <c r="BK29" t="inlineStr"/>
       <c r="BL29" t="inlineStr"/>
       <c r="BM29" t="inlineStr"/>
+      <c r="BN29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="5" t="n">
@@ -53956,6 +54619,7 @@
       <c r="BK30" t="inlineStr"/>
       <c r="BL30" t="inlineStr"/>
       <c r="BM30" t="inlineStr"/>
+      <c r="BN30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="5" t="n">
@@ -54041,6 +54705,7 @@
       <c r="BK31" t="inlineStr"/>
       <c r="BL31" t="inlineStr"/>
       <c r="BM31" t="inlineStr"/>
+      <c r="BN31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="5" t="n">
@@ -54126,6 +54791,7 @@
       <c r="BK32" t="inlineStr"/>
       <c r="BL32" t="inlineStr"/>
       <c r="BM32" t="inlineStr"/>
+      <c r="BN32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="5" t="n">
@@ -54211,6 +54877,7 @@
       <c r="BK33" t="inlineStr"/>
       <c r="BL33" t="inlineStr"/>
       <c r="BM33" t="inlineStr"/>
+      <c r="BN33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="5" t="n">
@@ -54288,6 +54955,7 @@
       <c r="BK34" t="inlineStr"/>
       <c r="BL34" t="inlineStr"/>
       <c r="BM34" t="inlineStr"/>
+      <c r="BN34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="5" t="n">
@@ -54365,6 +55033,7 @@
       <c r="BK35" t="inlineStr"/>
       <c r="BL35" t="inlineStr"/>
       <c r="BM35" t="inlineStr"/>
+      <c r="BN35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="5" t="n">
@@ -54442,6 +55111,7 @@
       <c r="BK36" t="inlineStr"/>
       <c r="BL36" t="inlineStr"/>
       <c r="BM36" t="inlineStr"/>
+      <c r="BN36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="5" t="n">
@@ -54519,6 +55189,7 @@
       <c r="BK37" t="inlineStr"/>
       <c r="BL37" t="inlineStr"/>
       <c r="BM37" t="inlineStr"/>
+      <c r="BN37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="5" t="n">
@@ -54596,6 +55267,7 @@
       <c r="BK38" t="inlineStr"/>
       <c r="BL38" t="inlineStr"/>
       <c r="BM38" t="inlineStr"/>
+      <c r="BN38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="5" t="n">
@@ -54673,6 +55345,7 @@
       <c r="BK39" t="inlineStr"/>
       <c r="BL39" t="inlineStr"/>
       <c r="BM39" t="inlineStr"/>
+      <c r="BN39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="5" t="n">
@@ -54750,6 +55423,7 @@
       <c r="BK40" t="inlineStr"/>
       <c r="BL40" t="inlineStr"/>
       <c r="BM40" t="inlineStr"/>
+      <c r="BN40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="5" t="n">
@@ -54827,6 +55501,7 @@
       <c r="BK41" t="inlineStr"/>
       <c r="BL41" t="inlineStr"/>
       <c r="BM41" t="inlineStr"/>
+      <c r="BN41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="5" t="n">
@@ -54900,6 +55575,7 @@
       <c r="BK42" t="inlineStr"/>
       <c r="BL42" t="inlineStr"/>
       <c r="BM42" t="inlineStr"/>
+      <c r="BN42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="5" t="n">
@@ -54973,6 +55649,7 @@
       <c r="BK43" t="inlineStr"/>
       <c r="BL43" t="inlineStr"/>
       <c r="BM43" t="inlineStr"/>
+      <c r="BN43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="5" t="n">
@@ -55046,6 +55723,7 @@
       <c r="BK44" t="inlineStr"/>
       <c r="BL44" t="inlineStr"/>
       <c r="BM44" t="inlineStr"/>
+      <c r="BN44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="5" t="n">
@@ -55119,6 +55797,7 @@
       <c r="BK45" t="inlineStr"/>
       <c r="BL45" t="inlineStr"/>
       <c r="BM45" t="inlineStr"/>
+      <c r="BN45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="5" t="n">
@@ -55192,6 +55871,7 @@
       <c r="BK46" t="inlineStr"/>
       <c r="BL46" t="inlineStr"/>
       <c r="BM46" t="inlineStr"/>
+      <c r="BN46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="5" t="n">
@@ -55265,6 +55945,7 @@
       <c r="BK47" t="inlineStr"/>
       <c r="BL47" t="inlineStr"/>
       <c r="BM47" t="inlineStr"/>
+      <c r="BN47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="5" t="n">
@@ -55338,6 +56019,7 @@
       <c r="BK48" t="inlineStr"/>
       <c r="BL48" t="inlineStr"/>
       <c r="BM48" t="inlineStr"/>
+      <c r="BN48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="5" t="n">
@@ -55411,6 +56093,7 @@
       <c r="BK49" t="inlineStr"/>
       <c r="BL49" t="inlineStr"/>
       <c r="BM49" t="inlineStr"/>
+      <c r="BN49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="5" t="n">
@@ -55484,6 +56167,7 @@
       <c r="BK50" t="inlineStr"/>
       <c r="BL50" t="inlineStr"/>
       <c r="BM50" t="inlineStr"/>
+      <c r="BN50" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/excel/fupan_stocks.xlsx
+++ b/excel/fupan_stocks.xlsx
@@ -470,7 +470,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BN65"/>
+  <dimension ref="A1:BP65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -804,6 +804,16 @@
           <t>2025年02月10日</t>
         </is>
       </c>
+      <c r="BO1" s="5" t="inlineStr">
+        <is>
+          <t>2025年02月11日</t>
+        </is>
+      </c>
+      <c r="BP1" s="5" t="inlineStr">
+        <is>
+          <t>2025年02月12日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="5" t="n">
@@ -1134,6 +1144,16 @@
           <t>000818.SZ; 航锦科技; 0;  09:25:00; 5天5板; 24.59;  09:25:00; 10.0%; 5; 幻方合作+算力+英伟达+国企</t>
         </is>
       </c>
+      <c r="BO2" t="inlineStr">
+        <is>
+          <t>605398.SH; 新炬网络; 0;  09:30:00; 9天9板; 49.47;  09:30:00; 10.0%; 9; AI Agent+数据中心运维+华为鲲鹏</t>
+        </is>
+      </c>
+      <c r="BP2" t="inlineStr">
+        <is>
+          <t>002123.SZ; 梦网科技; 0;  09:25:00; 6天6板; 18.89;  09:25:00; 10.0%; 6; DeepSeek概念+拟收购碧橙数字控制权+云通信+鸿蒙</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="n">
@@ -1464,6 +1484,16 @@
           <t>002261.SZ; 拓维信息; 0;  09:25:00; 4天4板; 24.72;  09:25:00; 10.0%; 4; 昇腾大模型一体机+鸿蒙+信创</t>
         </is>
       </c>
+      <c r="BO3" t="inlineStr">
+        <is>
+          <t>002881.SZ; 美格智能; 0;  09:30:00; 7天7板; 71.29;  09:30:00; 10.0%; 7; 开发DeepSeek-R1模型端侧落地应用+端侧AI</t>
+        </is>
+      </c>
+      <c r="BP3" t="inlineStr">
+        <is>
+          <t>600797.SH; 浙大网新; 0;  09:25:00; 3天2板; 8.98;  09:25:00; 10.0%; 1; 云计算+蚂蚁金服合作+杭州</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="5" t="n">
@@ -1794,6 +1824,16 @@
           <t>002881.SZ; 美格智能; 0;  09:25:00; 6天6板; 58.92;  09:25:00; 10.0%; 6; 开发DeepSeek-R1模型端侧落地应用+端侧AI</t>
         </is>
       </c>
+      <c r="BO4" t="inlineStr">
+        <is>
+          <t>000785.SZ; 居然智家; 0;  09:30:00; 2天2板; 4.6;  09:30:00; 10.0%; 2; DeepSeek概念+AI智能体+零售+华为</t>
+        </is>
+      </c>
+      <c r="BP4" t="inlineStr">
+        <is>
+          <t>002929.SZ; 润建股份; 0;  09:25:00; 3天3板; 47.21;  09:25:00; 10.0%; 3; 阿里云+部署DeepSeek至R1（满血）版本+算力</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="n">
@@ -2124,6 +2164,16 @@
           <t>605398.SH; 新炬网络; 0;  09:25:01; 8天8板; 40.88;  09:25:01; 10.0%; 8; AI Agent+数据中心运维+华为鲲鹏</t>
         </is>
       </c>
+      <c r="BO5" t="inlineStr">
+        <is>
+          <t>600126.SH; 杭钢股份; 0;  09:30:00; 5天5板; 9.21;  09:30:00; 10.0%; 5; DeepSeek概念+云计算+钢铁+浙江国资</t>
+        </is>
+      </c>
+      <c r="BP5" t="inlineStr">
+        <is>
+          <t>603881.SH; 数据港; 0;  09:25:01; 3天2板; 28.18;  09:25:01; 10.0%; 1; 数据中心+阿里巴巴+液冷+上海国资</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="5" t="n">
@@ -2454,6 +2504,16 @@
           <t>600666.SH; 奥瑞德; 0;  09:25:01; 2天2板; 2.76;  09:25:01; 10.0%; 2; DeepSeek概念+算力+蓝宝石</t>
         </is>
       </c>
+      <c r="BO6" t="inlineStr">
+        <is>
+          <t>600633.SH; 浙数文化; 0;  09:30:00; 5天5板; 18.1;  09:30:00; 10.0%; 5; 算力租赁+AI应用+文生视频+杭州国资</t>
+        </is>
+      </c>
+      <c r="BP6" t="inlineStr">
+        <is>
+          <t>600126.SH; 杭钢股份; 0;  09:25:01; 6天6板; 9.21;  09:25:01; 10.0%; 6; DeepSeek概念+云计算+钢铁+浙江国资</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="n">
@@ -2784,6 +2844,16 @@
           <t>603300.SH; 海南华铁; 0;  09:25:02; 3天3板; 7.24;  09:25:02; 10.0%; 3; 回购+算力+海南国资+低空经济</t>
         </is>
       </c>
+      <c r="BO7" t="inlineStr">
+        <is>
+          <t>002261.SZ; 拓维信息; 0;  09:30:00; 5天5板; 29.91;  09:30:00; 10.0%; 5; 昇腾大模型一体机+鸿蒙+信创</t>
+        </is>
+      </c>
+      <c r="BP7" t="inlineStr">
+        <is>
+          <t>600633.SH; 浙数文化; 0;  09:25:02; 6天6板; 18.1;  09:25:02; 10.0%; 6; 算力租赁+AI应用+文生视频+杭州国资</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="5" t="n">
@@ -3114,6 +3184,16 @@
           <t>600126.SH; 杭钢股份; 0;  09:25:02; 4天4板; 7.61;  09:25:02; 10.0%; 4; DeepSeek概念+云计算+钢铁+浙江国资</t>
         </is>
       </c>
+      <c r="BO8" t="inlineStr">
+        <is>
+          <t>002016.SZ; 世荣兆业; 0;  09:30:00; 3天3板; 7.63;  09:30:00; 1.7%; 3; 房地产+物业管理+珠海国资</t>
+        </is>
+      </c>
+      <c r="BP8" t="inlineStr">
+        <is>
+          <t>605398.SH; 新炬网络; 0;  09:30:19; 10天10板; 49.47;  09:30:19; 10.0%; 10; AI Agent+数据中心运维+华为鲲鹏</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="n">
@@ -3444,6 +3524,16 @@
           <t>600633.SH; 浙数文化; 0;  09:25:03; 4天4板; 14.95;  09:25:03; 10.0%; 4; 算力租赁+数据交易中心+AI应用+杭州国资</t>
         </is>
       </c>
+      <c r="BO9" t="inlineStr">
+        <is>
+          <t>002835.SZ; 同为股份; 0;  09:30:15; 2天2板; 22.35;  09:30:15; -5.6%; 2; 视频监控+AI智能+外销</t>
+        </is>
+      </c>
+      <c r="BP9" t="inlineStr">
+        <is>
+          <t>603956.SH; 威派格; 1;  09:33:10; 2天2板; 7;  09:31:43; 10.1%; 2; 公司“河图 AI” 平台已接入DeepSeek+智慧水务</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="5" t="n">
@@ -3774,6 +3864,16 @@
           <t>601929.SH; 吉视传媒; 0;  09:33:47; 2天2板; 2.16;  09:33:47; 10.2%; 2; 传媒+置入优质资产+吉林国资</t>
         </is>
       </c>
+      <c r="BO10" t="inlineStr">
+        <is>
+          <t>002123.SZ; 梦网科技; 0;  09:35:45; 5天5板; 18.89;  09:35:45; 10.0%; 5; DeepSeek概念+拟收购碧橙数字控制权+云通信+鸿蒙</t>
+        </is>
+      </c>
+      <c r="BP10" t="inlineStr">
+        <is>
+          <t>002261.SZ; 拓维信息; 1;  09:35:57; 6天6板; 29.91;  09:34:24; 10.0%; 6; 昇腾大模型一体机+鸿蒙+信创</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="5" t="n">
@@ -4104,6 +4204,16 @@
           <t>603803.SH; 瑞斯康达; 2;  09:33:56; 2天2板; 12.61;  09:31:32; 10.0%; 2; 算力+光通信+ASIC芯片</t>
         </is>
       </c>
+      <c r="BO11" t="inlineStr">
+        <is>
+          <t>002929.SZ; 润建股份; 3;  09:36:00; 2天2板; 47.21;  09:33:15; 10.0%; 2; 部署DeepSeek至R1（满血）版本+算力+英伟达+大模型</t>
+        </is>
+      </c>
+      <c r="BP11" t="inlineStr">
+        <is>
+          <t>000785.SZ; 居然智家; 3;  09:36:30; 3天3板; 4.6;  09:32:24; 10.0%; 3; DeepSeek概念+AI智能体+零售+华为</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="5" t="n">
@@ -4434,6 +4544,16 @@
           <t>002016.SZ; 世荣兆业; 0;  09:34:57; 2天2板; 6.82;  09:34:57; 10.0%; 2; 房地产+物业管理+珠海国资</t>
         </is>
       </c>
+      <c r="BO12" t="inlineStr">
+        <is>
+          <t>603300.SH; 海南华铁; 1;  09:38:24; 4天4板; 8.14;  09:30:00; 2.3%; 4; 回购+算力+海南国资+低空经济</t>
+        </is>
+      </c>
+      <c r="BP12" t="inlineStr">
+        <is>
+          <t>000156.SZ; 华数传媒; 0;  09:41:06; 2天2板; 9.32;  09:41:06; 10.0%; 2; 电视广播+虚拟人+IP+杭州国资</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="5" t="n">
@@ -4754,6 +4874,16 @@
           <t>000710.SZ; 贝瑞基因; 2;  09:42:21; 2天2板; 10.55;  09:30:15; 10.0%; 2; 智能医疗+基因检测+生育健康</t>
         </is>
       </c>
+      <c r="BO13" t="inlineStr">
+        <is>
+          <t>600193.SH; 创兴资源; 3;  09:43:52; 2天2板; 3.85;  09:30:45; -2.5%; 2; 算力+稀土永磁+建筑装饰</t>
+        </is>
+      </c>
+      <c r="BP13" t="inlineStr">
+        <is>
+          <t>002881.SZ; 美格智能; 5;  09:44:57; 8天8板; 71.29;  09:31:27; 10.0%; 8; 开发DeepSeek-R1模型端侧落地应用+端侧AI</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="5" t="n">
@@ -5074,6 +5204,16 @@
           <t>000034.SZ; 神州数码; 4;  09:44:09; 2天2板; 43.87;  09:30:18; 10.0%; 2; 华为昇腾+DeepSeek概念</t>
         </is>
       </c>
+      <c r="BO14" t="inlineStr">
+        <is>
+          <t>301220.SZ; 亚香股份; 0;  09:52:52; 2天2板; 73.83;  09:52:52; 5.4%; 2; 拟转让控股子公司+香兰素涨价+香料</t>
+        </is>
+      </c>
+      <c r="BP14" t="inlineStr">
+        <is>
+          <t>600120.SH; 浙江东方; 1;  09:45:26; 7天7板; 9.03;  09:44:32; 10.0%; 7; 澄清未投资DeepSeek+多元金融+浙江国企+年报预增</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="5" t="n">
@@ -5389,6 +5529,16 @@
           <t>002123.SZ; 梦网科技; 2;  09:58:15; 4天4板; 15.61;  09:31:06; 10.0%; 4; DeepSeek概念+拟收购碧橙数字控制权+云通信+鸿蒙</t>
         </is>
       </c>
+      <c r="BO15" t="inlineStr">
+        <is>
+          <t>603270.SH; 金帝股份; 2;  09:55:07; 2天2板; 25.19;  09:46:52; -4.6%; 2; 机器人+汽车零部件+风电</t>
+        </is>
+      </c>
+      <c r="BP15" t="inlineStr">
+        <is>
+          <t>003029.SZ; 吉大正元; 0;  09:48:06; 3天2板; 26.68;  09:48:06; 10.0%; 1; AI智能体+网络安全+国资云+量子科技</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="5" t="n">
@@ -5684,6 +5834,16 @@
           <t>002542.SZ; 中化岩土; 0;  10:17:54; 2天2板; 4.1;  10:17:54; 9.9%; 2; 云计算+成都国资+低空经济+工程服务</t>
         </is>
       </c>
+      <c r="BO16" t="inlineStr">
+        <is>
+          <t>002577.SZ; 雷柏科技; 1;  09:57:22; 4天3板; 25.4;  09:56:52; -1.1%; 1; AI眼镜+游戏设备+星闪</t>
+        </is>
+      </c>
+      <c r="BP16" t="inlineStr">
+        <is>
+          <t>002691.SZ; 冀凯股份; 1;  09:53:06; 16天13板; 12.49;  09:30:51; 10.0%; 2; 机器人+矿山装备+3D打印</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="5" t="n">
@@ -5959,6 +6119,16 @@
           <t>000856.SZ; 冀东装备; 5;  10:36:57; 10天7板; 11.87;  09:40:33; 10.0%; 1; 机器人+水泥装备+北京国资</t>
         </is>
       </c>
+      <c r="BO17" t="inlineStr">
+        <is>
+          <t>600120.SH; 浙江东方; 1;  10:10:22; 6天6板; 9.03;  09:45:07; 10.0%; 6; 澄清未投资DeepSeek+多元金融+浙江国企+年报预增</t>
+        </is>
+      </c>
+      <c r="BP17" t="inlineStr">
+        <is>
+          <t>600355.SH; 精伦电子; 0;  10:28:44; 6天4板; 4.08;  10:28:44; 10.0%; 1; 机器人+智能制造+智能电网</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="5" t="n">
@@ -6224,6 +6394,16 @@
           <t>603716.SH; 塞力医疗; 6;  10:41:12; 2天2板; 9.44;  10:19:57; 10.0%; 2; DRG/DIP+体外诊断+智慧供应链</t>
         </is>
       </c>
+      <c r="BO18" t="inlineStr">
+        <is>
+          <t>600081.SH; 东风科技; 7;  10:42:23; 2天2板; 12.7;  09:30:15; -2.9%; 2; 长安东风或重组</t>
+        </is>
+      </c>
+      <c r="BP18" t="inlineStr">
+        <is>
+          <t>000158.SZ; 常山北明; 2;  10:49:06; 4天3板; 26.57;  09:42:54; 10.0%; 1; 国资云+华为昇腾+华为鲲鹏+算力租赁</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="5" t="n">
@@ -6484,6 +6664,16 @@
           <t>000158.SZ; 常山北明; 8;  10:45:45; 2天2板; 24.66;  10:03:36; 10.0%; 2; 华为昇腾+华为鲲鹏+算力租赁+国资云</t>
         </is>
       </c>
+      <c r="BO19" t="inlineStr">
+        <is>
+          <t>002036.SZ; 联创电子; 9;  10:49:30; 4天4板; 13.16;  09:34:45; -2.7%; 4; 车载镜头+辅助安全驾驶+比亚迪</t>
+        </is>
+      </c>
+      <c r="BP19" t="inlineStr">
+        <is>
+          <t>002044.SZ; 美年健康; 0;  13:27:42; 4天3板; 5.76;  13:27:42; 9.9%; 1; 健康体检服务+AI医疗+AI智能体+华为</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="5" t="n">
@@ -6719,6 +6909,16 @@
           <t>002044.SZ; 美年健康; 0;  10:56:18; 2天2板; 5.43;  10:56:18; 9.9%; 2; 健康体检服务+AI医疗+华为</t>
         </is>
       </c>
+      <c r="BO20" t="inlineStr">
+        <is>
+          <t>600666.SH; 奥瑞德; 4;  10:57:45; 3天3板; 3.03;  09:30:00; -0.3%; 3; DeepSeek概念+算力+蓝宝石</t>
+        </is>
+      </c>
+      <c r="BP20" t="inlineStr">
+        <is>
+          <t>603390.SH; 通达电气; 8;  13:35:46; 5天4板; 12.76;  09:40:16; 10.0%; 1; 比亚迪+智慧交通+车联网+移动医疗</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="5" t="n">
@@ -6944,6 +7144,16 @@
           <t>300766.SZ; 每日互动; 7;  11:27:48; 5天4板; 47.93;  11:20:24; 20.0%; 1; DeepSeek概念+营销+数据</t>
         </is>
       </c>
+      <c r="BO21" t="inlineStr">
+        <is>
+          <t>000056.SZ; 皇庭国际; 1;  13:07:00; 2天2板; 3.35;  09:44:52; -1.2%; 2; 功率半导体+先进封装+债务重组+不动产运营管理</t>
+        </is>
+      </c>
+      <c r="BP21" t="inlineStr">
+        <is>
+          <t>605488.SH; 福莱新材; 1;  13:56:37; 2天2板; 41.58;  13:43:16; 10.0%; 2; 机器人+灵巧手+柔性传感器</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="5" t="n">
@@ -7154,6 +7364,16 @@
           <t>603882.SH; 金域医学; 2;  13:00:03; 2天2板; 33.1;  11:07:44; 10.0%; 2; AI医疗+第三方医学检验</t>
         </is>
       </c>
+      <c r="BO22" t="inlineStr">
+        <is>
+          <t>000818.SZ; 航锦科技; 4;  13:49:22; 6天6板; 27.5;  09:30:00; 1.7%; 6; 幻方合作+算力+英伟达+国企</t>
+        </is>
+      </c>
+      <c r="BP22" t="inlineStr">
+        <is>
+          <t>603110.SH; 东方材料; 3;  13:56:59; 6天4板; 19.69;  13:32:35; 10.0%; 1; 东方超算+DeepSeek概念+PCB电子油墨</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="5" t="n">
@@ -7354,6 +7574,16 @@
           <t>600120.SH; 浙江东方; 14;  13:17:49; 5天5板; 7.46;  09:53:07; 10.0%; 5; 澄清未投资DeepSeek+多元金融+浙江国企+年报预增</t>
         </is>
       </c>
+      <c r="BO23" t="inlineStr">
+        <is>
+          <t>300251.SZ; 光线传媒; 0;  13:53:07; 2天2板; 24.12;  13:53:07; 20.0%; 2; 《哪吒2》成首部全球票房榜前30的亚洲电影</t>
+        </is>
+      </c>
+      <c r="BP23" t="inlineStr">
+        <is>
+          <t>000856.SZ; 冀东装备; 3;  14:09:15; 12天8板; 12.65;  14:05:57; 10.0%; 1; 机器人+水泥装备+北京国资</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="5" t="n">
@@ -7549,6 +7779,16 @@
           <t>002036.SZ; 联创电子; 5;  13:52:06; 3天3板; 12.29;  11:19:48; 10.0%; 3; 车载镜头+辅助安全驾驶+比亚迪</t>
         </is>
       </c>
+      <c r="BO24" t="inlineStr">
+        <is>
+          <t>603803.SH; 瑞斯康达; 5;  14:19:33; 3天3板; 13.45;  11:21:19; -3.0%; 3; 算力+光通信+ASIC芯片</t>
+        </is>
+      </c>
+      <c r="BP24" t="inlineStr">
+        <is>
+          <t>600986.SH; 浙文互联; 4;  14:35:57; 3天2板; 8.56;  14:15:27; 10.0%; 1; DeepSeek概念+营销+算力+浙江国资</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="5" t="n">
@@ -7744,6 +7984,16 @@
           <t>603390.SH; 通达电气; 3;  13:59:06; 3天3板; 12.3;  09:34:09; 10.0%; 3; 比亚迪+智慧交通+车联网+移动医疗</t>
         </is>
       </c>
+      <c r="BO25" t="inlineStr">
+        <is>
+          <t>002397.SZ; 梦洁股份; 0;  14:25:18; 2天2板; 3.75;  14:25:18; -3.1%; 2; 床上用品+微盟合作+电子商务+股权转让</t>
+        </is>
+      </c>
+      <c r="BP25" t="inlineStr">
+        <is>
+          <t>603366.SH; 日出东方; 0;  14:38:59; 2天2板; 14.27;  14:38:59; 10.0%; 2; 液冷超充+太阳能热水器+华为</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="5" t="n">
@@ -7934,6 +8184,16 @@
           <t>600839.SH; 四川长虹; 1;  14:21:40; 2天2板; 11.57;  14:11:04; 10.0%; 2; 云计算+AI智能体+智能家电+四川国资</t>
         </is>
       </c>
+      <c r="BO26" t="inlineStr">
+        <is>
+          <t>600186.SH; 莲花控股; 5;  14:51:33; 4天3板; 7.97;  10:53:45; 6.8%; 1; 部署DeepSeek R1大模型+算力+味精</t>
+        </is>
+      </c>
+      <c r="BP26" t="inlineStr">
+        <is>
+          <t>300251.SZ; 光线传媒; 6;  14:42:39; 3天3板; 24.12;  10:39:48; 20.0%; 3; 《哪吒2》票房破90亿元</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="5" t="n">
@@ -8117,6 +8377,16 @@
       <c r="BN27" t="inlineStr">
         <is>
           <t>002175.SZ; 东方智造; 0;  14:39:57; 2天2板; 5.81;  14:39:57; 10.0%; 2; 智能制造+精密仪器+芯片</t>
+        </is>
+      </c>
+      <c r="BO27" t="inlineStr">
+        <is>
+          <t>002691.SZ; 冀凯股份; 0;  14:52:23; 15天12板; 12.49;  14:52:23; 10.0%; 1; 机器人+矿山装备+3D打印</t>
+        </is>
+      </c>
+      <c r="BP27" t="inlineStr">
+        <is>
+          <t>300220.SZ; 金运激光; 0;  14:54:15; 2天2板; 21;  14:54:15; 20.0%; 2; IP衍生品运营+激光切割设备+无人零售+外销</t>
         </is>
       </c>
     </row>
@@ -11391,7 +11661,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BN146"/>
+  <dimension ref="A1:BP146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11723,6 +11993,16 @@
       <c r="BN1" s="5" t="inlineStr">
         <is>
           <t>2025年02月10日</t>
+        </is>
+      </c>
+      <c r="BO1" s="5" t="inlineStr">
+        <is>
+          <t>2025年02月11日</t>
+        </is>
+      </c>
+      <c r="BP1" s="5" t="inlineStr">
+        <is>
+          <t>2025年02月12日</t>
         </is>
       </c>
     </row>
@@ -19442,7 +19722,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BN72"/>
+  <dimension ref="A1:BP72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19776,6 +20056,16 @@
           <t>2025年02月10日</t>
         </is>
       </c>
+      <c r="BO1" s="5" t="inlineStr">
+        <is>
+          <t>2025年02月11日</t>
+        </is>
+      </c>
+      <c r="BP1" s="5" t="inlineStr">
+        <is>
+          <t>2025年02月12日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="5" t="n">
@@ -20106,6 +20396,16 @@
           <t>603618.SH; 杭电股份; 1;  09:25:01; 主板; 6.47; 曾涨停; 1.9%; 0.01H;  09:25:01</t>
         </is>
       </c>
+      <c r="BO2" t="inlineStr">
+        <is>
+          <t>000710.SZ; 贝瑞基因; 4;  09:30:00; 主板; 10.65; 曾涨停; -7.8%; 3.93H;  09:30:00|| 09:30:45|| 09:50:07|| 14:56:23</t>
+        </is>
+      </c>
+      <c r="BP2" t="inlineStr">
+        <is>
+          <t>300688.SZ; 创业黑马; 2;  09:25:00; 创业板; 40.1; 曾涨停; 15.1%; 0.27H;  09:25:00|| 10:05:21</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="n">
@@ -20436,6 +20736,16 @@
           <t>002573.SZ; 清新环境; 1;  09:37:00; 主板; 4.04; 曾涨停; 5.5%; 0.01H;  09:37:00</t>
         </is>
       </c>
+      <c r="BO3" t="inlineStr">
+        <is>
+          <t>603918.SH; 金桥信息; 1;  09:31:00; 主板; 17.26; 曾涨停; 1.1%; 0.01H;  09:31:00</t>
+        </is>
+      </c>
+      <c r="BP3" t="inlineStr">
+        <is>
+          <t>002016.SZ; 世荣兆业; 1;  09:25:00; 主板; 7.63; 曾涨停; 1.7%; 0.00H;  09:25:00</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="5" t="n">
@@ -20766,6 +21076,16 @@
           <t>601728.SH; 中国电信; 3;  09:46:41; 主板; 7.6; 曾涨停; 6.6%; 0.51H;  09:46:41|| 10:16:11|| 10:17:35</t>
         </is>
       </c>
+      <c r="BO4" t="inlineStr">
+        <is>
+          <t>600698.SH; 湖南天雁; 1;  09:33:00; 主板; 5.89; 曾涨停; 0.3%; 0.00H;  09:33:00</t>
+        </is>
+      </c>
+      <c r="BP4" t="inlineStr">
+        <is>
+          <t>600658.SH; 电子城; 1;  09:25:02; 主板; 4.71; 曾涨停; 5.6%; 0.91H;  09:25:02</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="n">
@@ -21096,6 +21416,16 @@
           <t>003007.SZ; 直真科技; 2;  10:09:00; 主板; 33.86; 曾涨停; 2.6%; 0.02H;  10:09:00|| 10:11:48</t>
         </is>
       </c>
+      <c r="BO5" t="inlineStr">
+        <is>
+          <t>002364.SZ; 中恒电气; 4;  09:35:15; 主板; 15.92; 曾涨停; 10.0%; 0.94H;  09:35:15|| 09:57:37|| 10:51:15|| 11:10:00</t>
+        </is>
+      </c>
+      <c r="BP5" t="inlineStr">
+        <is>
+          <t>002102.SZ; 能特科技; 1;  09:30:03; 主板; 2.86; 曾涨停; 6.7%; 0.26H;  09:30:03</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="5" t="n">
@@ -21426,6 +21756,16 @@
           <t>603193.SH; 润本股份; 4;  10:23:00; 主板; 29.41; 曾涨停; 2.4%; 0.01H;  10:23:00|| 10:23:27|| 10:24:03|| 10:26:00</t>
         </is>
       </c>
+      <c r="BO6" t="inlineStr">
+        <is>
+          <t>605218.SH; 伟时电子; 1;  09:35:45; 主板; 25.49; 曾涨停; 0.4%; 0.90H;  09:35:45</t>
+        </is>
+      </c>
+      <c r="BP6" t="inlineStr">
+        <is>
+          <t>603130.SH; 云中马; 2;  09:30:28; 主板; 25.28; 曾涨停; 2.2%; 0.02H;  09:30:28|| 09:30:52</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="n">
@@ -21756,6 +22096,16 @@
           <t>600735.SH; 新华锦; 4;  10:36:38; 主板; 4.95; 曾涨停; 6.5%; 0.59H;  10:36:38|| 10:37:32|| 10:40:02|| 10:40:50</t>
         </is>
       </c>
+      <c r="BO7" t="inlineStr">
+        <is>
+          <t>600979.SH; 广安爱众; 1;  09:47:52; 主板; 5.45; 曾涨停; 3.2%; 0.00H;  09:47:52</t>
+        </is>
+      </c>
+      <c r="BP7" t="inlineStr">
+        <is>
+          <t>603966.SH; 法兰泰克; 1;  09:31:00; 主板; 8.53; 曾涨停; 3.5%; 0.08H;  09:31:00</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="5" t="n">
@@ -22086,6 +22436,16 @@
           <t>603186.SH; 华正新材; 1;  10:48:29; 主板; 26.61; 曾涨停; 4.2%; 0.00H;  10:48:29</t>
         </is>
       </c>
+      <c r="BO8" t="inlineStr">
+        <is>
+          <t>600148.SH; 长春一东; 1;  09:54:07; 主板; 20.15; 曾涨停; -2.6%; 0.01H;  09:54:07</t>
+        </is>
+      </c>
+      <c r="BP8" t="inlineStr">
+        <is>
+          <t>002441.SZ; 众业达; 1;  09:31:48; 主板; 9.67; 曾涨停; 2.8%; 0.00H;  09:31:48</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="n">
@@ -22416,6 +22776,16 @@
           <t>300235.SZ; 方直科技; 1;  11:13:45; 创业板; 13.34; 曾涨停; 12.8%; 0.05H;  11:13:45</t>
         </is>
       </c>
+      <c r="BO9" t="inlineStr">
+        <is>
+          <t>603809.SH; 豪能股份; 2;  10:03:52; 主板; 17.45; 曾涨停; -0.8%; 0.02H;  10:03:52|| 10:04:58</t>
+        </is>
+      </c>
+      <c r="BP9" t="inlineStr">
+        <is>
+          <t>603206.SH; 嘉环科技; 1;  09:33:46; 主板; 18.22; 曾涨停; 4.5%; 0.38H;  09:33:46</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="5" t="n">
@@ -22746,6 +23116,16 @@
           <t>001229.SZ; 魅视科技; 3;  13:41:45; 主板; 38.87; 曾涨停; 5.2%; 0.00H;  13:41:45|| 13:42:06|| 13:42:30</t>
         </is>
       </c>
+      <c r="BO10" t="inlineStr">
+        <is>
+          <t>000737.SZ; 北方铜业; 1;  10:29:53; 主板; 9.52; 曾涨停; -3.8%; 0.61H;  10:29:53</t>
+        </is>
+      </c>
+      <c r="BP10" t="inlineStr">
+        <is>
+          <t>603933.SH; 睿能科技; 1;  09:35:31; 主板; 17.12; 曾涨停; 2.3%; 0.01H;  09:35:31</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="5" t="n">
@@ -23071,6 +23451,16 @@
           <t>002607.SZ; 中公教育; 2;  14:38:03; 主板; 3.76; 曾涨停; 8.0%; 0.03H;  14:38:03|| 14:40:15</t>
         </is>
       </c>
+      <c r="BO11" t="inlineStr">
+        <is>
+          <t>600916.SH; 中国黄金; 1;  10:31:23; 主板; 9.04; 曾涨停; -4.7%; 0.43H;  10:31:23</t>
+        </is>
+      </c>
+      <c r="BP11" t="inlineStr">
+        <is>
+          <t>601216.SH; 君正集团; 1;  09:36:52; 主板; 5.97; 曾涨停; 6.0%; 0.00H;  09:36:52</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="5" t="n">
@@ -23396,6 +23786,16 @@
           <t>002575.SZ; 群兴玩具; 5;  14:45:54; 主板; 8.07; 曾涨停; 7.3%; 0.04H;  14:45:54|| 14:47:45|| 14:49:06|| 14:50:15|| 14:50:51</t>
         </is>
       </c>
+      <c r="BO12" t="inlineStr">
+        <is>
+          <t>600490.SH; 鹏欣资源; 2;  10:34:08; 主板; 3.5; 曾涨停; -4.6%; 0.06H;  10:34:08|| 10:37:53</t>
+        </is>
+      </c>
+      <c r="BP12" t="inlineStr">
+        <is>
+          <t>003021.SZ; 兆威机电; 3;  10:05:21; 主板; 129.98; 曾涨停; 9.9%; 0.01H;  10:05:21|| 10:06:03|| 10:44:15</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="5" t="n">
@@ -23711,6 +24111,16 @@
           <t>603901.SH; 永创智能; 1;  10:01:24; 主板; 9.79; 曾涨停; 7.6%; 2.31H;  10:01:24</t>
         </is>
       </c>
+      <c r="BO13" t="inlineStr">
+        <is>
+          <t>300192.SZ; 科德教育; 1;  10:50:15; 创业板; 20.67; 曾涨停; -0.6%; 1.42H;  10:50:15</t>
+        </is>
+      </c>
+      <c r="BP13" t="inlineStr">
+        <is>
+          <t>603950.SH; 长源东谷; 1;  10:11:01; 主板; 21.48; 曾涨停; 5.3%; 0.00H;  10:11:01</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="5" t="n">
@@ -24026,6 +24436,16 @@
           <t>003010.SZ; 若羽臣; 1;  10:02:12; 主板; 30.5; 曾涨停; 7.2%; 2.71H;  10:02:12</t>
         </is>
       </c>
+      <c r="BO14" t="inlineStr">
+        <is>
+          <t>603636.SH; 南威软件; 1;  10:59:00; 主板; 15.1; 曾涨停; 2.0%; 0.00H;  10:59:00</t>
+        </is>
+      </c>
+      <c r="BP14" t="inlineStr">
+        <is>
+          <t>002135.SZ; 东南网架; 6;  10:12:18; 主板; 4.67; 曾涨停; 5.4%; 0.01H;  10:12:18|| 10:13:48|| 10:14:09|| 10:14:27|| 10:14:48|| 10:15:00</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="5" t="n">
@@ -24341,6 +24761,16 @@
           <t>603166.SH; 福达股份; 5;  10:04:23; 主板; 11.05; 曾涨停; 9.3%; 0.20H;  10:04:23|| 14:36:23|| 14:38:47|| 14:42:35|| 14:45:35</t>
         </is>
       </c>
+      <c r="BO15" t="inlineStr">
+        <is>
+          <t>300766.SZ; 每日互动; 1;  11:13:45; 创业板; 55; 曾涨停; 5.6%; 0.98H;  11:13:45</t>
+        </is>
+      </c>
+      <c r="BP15" t="inlineStr">
+        <is>
+          <t>600996.SH; 贵广网络; 1;  10:21:11; 主板; 9.87; 曾涨停; 8.7%; 1.11H;  10:21:11</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="5" t="n">
@@ -24651,6 +25081,16 @@
           <t>603106.SH; 恒银科技; 2;  10:04:54; 主板; 9.64; 曾涨停; 8.6%; 2.49H;  10:04:54|| 10:18:42</t>
         </is>
       </c>
+      <c r="BO16" t="inlineStr">
+        <is>
+          <t>000712.SZ; 锦龙股份; 1;  11:27:20; 主板; 15.08; 曾涨停; 1.9%; 0.85H;  11:27:20</t>
+        </is>
+      </c>
+      <c r="BP16" t="inlineStr">
+        <is>
+          <t>000042.SZ; 中洲控股; 1;  10:24:18; 主板; 6.13; 曾涨停; 8.3%; 0.00H;  10:24:18</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="5" t="n">
@@ -24951,6 +25391,16 @@
           <t>002945.SZ; 华林证券; 3;  10:18:39; 主板; 16.1; 曾涨停; 7.5%; 1.31H;  10:18:39|| 11:03:36|| 14:04:45</t>
         </is>
       </c>
+      <c r="BO17" t="inlineStr">
+        <is>
+          <t>300634.SZ; 彩讯股份; 2;  13:10:30; 创业板; 33.74; 曾涨停; -1.4%; 0.59H;  13:10:30|| 14:22:33</t>
+        </is>
+      </c>
+      <c r="BP17" t="inlineStr">
+        <is>
+          <t>002886.SZ; 沃特股份; 1;  10:24:33; 主板; 18.74; 曾涨停; 5.3%; 0.00H;  10:24:33</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="5" t="n">
@@ -25246,6 +25696,16 @@
           <t>000681.SZ; 视觉中国; 1;  10:21:03; 主板; 26.51; 曾涨停; 3.6%; 0.01H;  10:21:03</t>
         </is>
       </c>
+      <c r="BO18" t="inlineStr">
+        <is>
+          <t>300378.SZ; 鼎捷数智; 1;  13:14:00; 创业板; 43.42; 曾涨停; 4.2%; 0.15H;  13:14:00</t>
+        </is>
+      </c>
+      <c r="BP18" t="inlineStr">
+        <is>
+          <t>600588.SH; 用友网络; 1;  10:25:48; 主板; 15.82; 曾涨停; 6.3%; 1.03H;  10:25:48</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="5" t="n">
@@ -25541,6 +26001,16 @@
           <t>300159.SZ; 新研股份; 1;  10:22:18; 创业板; 2.44; 曾涨停; 15.6%; 0.02H;  10:22:18</t>
         </is>
       </c>
+      <c r="BO19" t="inlineStr">
+        <is>
+          <t>603039.SH; 泛微网络; 1;  13:17:30; 主板; 71.5; 曾涨停; 3.8%; 0.00H;  13:17:30</t>
+        </is>
+      </c>
+      <c r="BP19" t="inlineStr">
+        <is>
+          <t>002649.SZ; 博彦科技; 3;  10:33:54; 主板; 15.4; 曾涨停; 10.0%; 1.84H;  10:33:54|| 13:07:39|| 14:54:00</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="5" t="n">
@@ -25816,6 +26286,16 @@
           <t>603383.SH; 顶点软件; 3;  10:38:33; 主板; 41; 曾涨停; 8.8%; 2.20H;  10:38:33|| 13:45:33|| 14:02:24</t>
         </is>
       </c>
+      <c r="BO20" t="inlineStr">
+        <is>
+          <t>300687.SZ; 赛意信息; 1;  13:33:45; 创业板; 24.7; 曾涨停; 5.2%; 0.01H;  13:33:45</t>
+        </is>
+      </c>
+      <c r="BP20" t="inlineStr">
+        <is>
+          <t>603327.SH; 福蓉科技; 1;  10:34:58; 主板; 13.59; 曾涨停; 6.0%; 0.04H;  10:34:58</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="5" t="n">
@@ -26091,6 +26571,16 @@
           <t>000977.SZ; 浪潮信息; 1;  10:42:09; 主板; 60.28; 曾涨停; 7.1%; 1.74H;  10:42:09</t>
         </is>
       </c>
+      <c r="BO21" t="inlineStr">
+        <is>
+          <t>603278.SH; 大业股份; 1;  13:35:00; 主板; 10.05; 曾涨停; -3.2%; 0.67H;  13:35:00</t>
+        </is>
+      </c>
+      <c r="BP21" t="inlineStr">
+        <is>
+          <t>002195.SZ; 岩山科技; 1;  13:12:24; 主板; 5.27; 曾涨停; 8.0%; 0.02H;  13:12:24</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="5" t="n">
@@ -26356,6 +26846,16 @@
           <t>603380.SH; 易德龙; 1;  10:51:57; 主板; 26.9; 曾涨停; 6.6%; 2.03H;  10:51:57</t>
         </is>
       </c>
+      <c r="BO22" t="inlineStr">
+        <is>
+          <t>002248.SZ; 华东数控; 1;  13:45:50; 主板; 8.76; 曾涨停; -0.5%; 0.12H;  13:45:50</t>
+        </is>
+      </c>
+      <c r="BP22" t="inlineStr">
+        <is>
+          <t>002765.SZ; 蓝黛科技; 1;  14:16:03; 主板; 11.3; 曾涨停; 6.7%; 0.26H;  14:16:03</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="5" t="n">
@@ -26596,6 +27096,16 @@
           <t>603063.SH; 禾望电气; 1;  10:57:44; 主板; 29.18; 曾涨停; 5.7%; 0.14H;  10:57:44</t>
         </is>
       </c>
+      <c r="BO23" t="inlineStr">
+        <is>
+          <t>002552.SZ; 宝鼎科技; 1;  13:59:22; 主板; 16.35; 曾涨停; -1.0%; 0.09H;  13:59:22</t>
+        </is>
+      </c>
+      <c r="BP23" t="inlineStr">
+        <is>
+          <t>002466.SZ; 天齐锂业; 2;  14:20:18; 主板; 33.86; 曾涨停; 7.7%; 0.02H;  14:20:18|| 14:22:48</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="5" t="n">
@@ -26831,6 +27341,11 @@
           <t>603108.SH; 润达医疗; 4;  10:59:18; 主板; 18.91; 曾涨停; 8.6%; 1.85H;  10:59:18|| 11:17:42|| 13:45:27|| 13:46:39</t>
         </is>
       </c>
+      <c r="BO24" t="inlineStr">
+        <is>
+          <t>002400.SZ; 省广集团; 2;  14:05:31; 主板; 9.78; 曾涨停; -0.5%; 0.75H;  14:05:31|| 14:51:02</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="5" t="n">
@@ -27061,6 +27576,11 @@
           <t>600410.SH; 华胜天成; 1;  11:10:32; 主板; 9.58; 曾涨停; 6.2%; 1.17H;  11:10:32</t>
         </is>
       </c>
+      <c r="BO25" t="inlineStr">
+        <is>
+          <t>002291.SZ; 遥望科技; 1;  14:13:31; 主板; 7.26; 曾涨停; -1.8%; 0.05H;  14:13:31</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="5" t="n">
@@ -27276,6 +27796,11 @@
           <t>001266.SZ; 宏英智能; 2;  11:17:33; 主板; 25.17; 曾涨停; 4.6%; 0.48H;  11:17:33|| 13:13:18</t>
         </is>
       </c>
+      <c r="BO26" t="inlineStr">
+        <is>
+          <t>002593.SZ; 日上集团; 2;  14:33:48; 主板; 5.72; 曾涨停; 1.4%; 0.02H;  14:33:48|| 14:36:48</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="5" t="n">
@@ -27486,6 +28011,11 @@
           <t>002560.SZ; 通达股份; 2;  11:20:06; 主板; 6.58; 曾涨停; 6.1%; 0.02H;  11:20:06|| 11:20:48</t>
         </is>
       </c>
+      <c r="BO27" t="inlineStr">
+        <is>
+          <t>002115.SZ; 三维通信; 3;  14:44:49; 主板; 8.03; 曾涨停; -2.0%; 0.09H;  14:44:49|| 14:47:27|| 14:53:08</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="5" t="n">
@@ -27679,6 +28209,11 @@
       <c r="BM28" t="inlineStr">
         <is>
           <t>603596.SH; 伯特利; 5;  11:28:32; 主板; 59.55; 曾涨停; 7.7%; 0.01H;  11:28:32|| 11:28:41|| 11:28:47|| 11:28:53|| 13:00:05</t>
+        </is>
+      </c>
+      <c r="BO28" t="inlineStr">
+        <is>
+          <t>603666.SH; 亿嘉和; 1;  14:51:02; 主板; 34.69; 曾涨停; 10.0%; 0.01H;  14:51:02</t>
         </is>
       </c>
     </row>
@@ -30753,7 +31288,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BN128"/>
+  <dimension ref="A1:BP128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31087,6 +31622,16 @@
           <t>2025年02月10日</t>
         </is>
       </c>
+      <c r="BO1" s="5" t="inlineStr">
+        <is>
+          <t>2025年02月11日</t>
+        </is>
+      </c>
+      <c r="BP1" s="5" t="inlineStr">
+        <is>
+          <t>2025年02月12日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="5" t="n">
@@ -31417,6 +31962,16 @@
           <t>600006.SH; 东风股份; 0;  09:25:00; 首板涨停; 8.03;  09:25:00; 10.0%; 1; 长安东风或重组+接入DeepSeek全系列模型+新能源汽车</t>
         </is>
       </c>
+      <c r="BO2" t="inlineStr">
+        <is>
+          <t>300839.SZ; 博汇股份; 0;  09:30:00; 首板涨停; 8.52;  09:30:00; -3.6%; 1; 无锡国资拟入主</t>
+        </is>
+      </c>
+      <c r="BP2" t="inlineStr">
+        <is>
+          <t>603666.SH; 亿嘉和; 0;  09:25:02; 首板涨停; 34.69;  09:25:02; 10.0%; 1; 人形机器人+多模态AI+低空经济</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="n">
@@ -31747,6 +32302,16 @@
           <t>600081.SH; 东风科技; 0;  09:25:02; 首板涨停; 11.89;  09:25:02; 10.0%; 1; 长安东风或重组</t>
         </is>
       </c>
+      <c r="BO3" t="inlineStr">
+        <is>
+          <t>600279.SH; 重庆港; 0;  09:30:00; 首板涨停; 5.49;  09:30:00; -0.2%; 1; 与中国物流筹划战略整合事宜+港口航运</t>
+        </is>
+      </c>
+      <c r="BP3" t="inlineStr">
+        <is>
+          <t>002364.SZ; 中恒电气; 0;  09:30:00; 首板涨停; 15.92;  09:30:00; 10.0%; 1; 阿里+字节+数据中心+电源系统</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="5" t="n">
@@ -32077,6 +32642,16 @@
           <t>002929.SZ; 润建股份; 0;  09:30:00; 首板涨停; 39.02;  09:30:00; 10.0%; 1; 部署DeepSeek至R1（满血）版本+算力+英伟达+大模型</t>
         </is>
       </c>
+      <c r="BO4" t="inlineStr">
+        <is>
+          <t>603778.SH; 国晟科技; 0;  09:31:00; 首板涨停; 3.5;  09:31:00; -2.8%; 1; 重大项目中标+“光伏+生态”</t>
+        </is>
+      </c>
+      <c r="BP4" t="inlineStr">
+        <is>
+          <t>002153.SZ; 石基信息; 0;  09:30:06; 首板涨停; 8.45;  09:30:06; 10.0%; 1; 阿里合作+Saas服务+人工智能+全资子公司签合同</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="n">
@@ -32407,6 +32982,16 @@
           <t>002775.SZ; 文科股份; 1;  09:35:36; 首板涨停; 3.81;  09:32:45; 10.1%; 1; 旅游+光伏+佛山国资</t>
         </is>
       </c>
+      <c r="BO5" t="inlineStr">
+        <is>
+          <t>002995.SZ; 天地在线; 0;  09:33:00; 首板涨停; 22.9;  09:33:00; -2.3%; 1; 营销+字节+拟收购佳投集团100%股权</t>
+        </is>
+      </c>
+      <c r="BP5" t="inlineStr">
+        <is>
+          <t>601177.SH; 杭齿前进; 0;  09:31:05; 首板涨停; 10.2;  09:31:05; 10.0%; 1; 人形机器人+杭州国资+齿轮传动+减速器</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="5" t="n">
@@ -32737,6 +33322,16 @@
           <t>600698.SH; 湖南天雁; 2;  09:36:06; 首板涨停; 5.86;  09:25:03; 9.9%; 1; 长安东风或重组</t>
         </is>
       </c>
+      <c r="BO6" t="inlineStr">
+        <is>
+          <t>603900.SH; 莱绅通灵; 0;  09:37:39; 首板涨停; 6.56;  09:37:39; 4.1%; 1; 黄金+珠宝首饰+IP</t>
+        </is>
+      </c>
+      <c r="BP6" t="inlineStr">
+        <is>
+          <t>600590.SH; 泰豪科技; 0;  09:31:17; 首板涨停; 5.49;  09:31:17; 10.0%; 1; 数据中心发电机+机器狗+军工+混改/重组经验丰富</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="n">
@@ -33067,6 +33662,16 @@
           <t>600624.SH; 复旦复华; 0;  09:40:25; 首板涨停; 6.9;  09:40:25; 10.0%; 1; 量子科技+医药+数字经济+上海国资</t>
         </is>
       </c>
+      <c r="BO7" t="inlineStr">
+        <is>
+          <t>603660.SH; 苏州科达; 1;  09:41:07; 首板涨停; 8.2;  09:39:52; -4.1%; 1; 视频科技+量子科技+智慧交通</t>
+        </is>
+      </c>
+      <c r="BP7" t="inlineStr">
+        <is>
+          <t>002272.SZ; 川润股份; 0;  09:32:06; 首板涨停; 9.9;  09:32:06; 10.0%; 1; 液冷服务器+华为+风电</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="5" t="n">
@@ -33397,6 +34002,16 @@
           <t>603220.SH; 中贝通信; 2;  09:41:12; 首板涨停; 25.08;  09:37:21; 10.0%; 1; 算力+华为算力</t>
         </is>
       </c>
+      <c r="BO8" t="inlineStr">
+        <is>
+          <t>300220.SZ; 金运激光; 0;  09:43:07; 首板涨停; 21;  09:43:07; 20.0%; 1; IP衍生品运营+激光切割设备+无人零售+外销</t>
+        </is>
+      </c>
+      <c r="BP8" t="inlineStr">
+        <is>
+          <t>600187.SH; 国中水务; 0;  09:33:09; 首板涨停; 3.43;  09:33:09; 9.9%; 1; 出售污水处理业务+拟控股北京汇源</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="n">
@@ -33727,6 +34342,16 @@
           <t>600178.SH; 东安动力; 3;  09:44:56; 首板涨停; 12.89;  09:25:02; 10.0%; 1; 长安东风或重组</t>
         </is>
       </c>
+      <c r="BO9" t="inlineStr">
+        <is>
+          <t>003033.SZ; 征和工业; 7;  09:44:07; 首板涨停; 33.6;  09:32:15; -1.9%; 1; 车辆链+比亚迪+农机+出海</t>
+        </is>
+      </c>
+      <c r="BP9" t="inlineStr">
+        <is>
+          <t>002811.SZ; 郑中设计; 0;  09:37:30; 首板涨停; 10.73;  09:37:30; 10.1%; 1; AI设计+IP+室内设计+小红书</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="5" t="n">
@@ -34057,6 +34682,16 @@
           <t>600193.SH; 创兴资源; 0;  09:45:04; 首板涨停; 3.59;  09:45:04; 10.1%; 1; 算力+稀土永磁+建筑装饰</t>
         </is>
       </c>
+      <c r="BO10" t="inlineStr">
+        <is>
+          <t>603126.SH; 中材节能; 0;  09:48:52; 首板涨停; 6.93;  09:48:52; 2.1%; 1; 中字头+余热发电+节能环保</t>
+        </is>
+      </c>
+      <c r="BP10" t="inlineStr">
+        <is>
+          <t>603103.SH; 横店影视; 0;  09:39:36; 首板涨停; 14.89;  09:39:36; 10.0%; 1; 影视+IP衍生品</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="5" t="n">
@@ -34387,6 +35022,16 @@
           <t>601606.SH; 长城军工; 0;  09:48:09; 首板涨停; 12.69;  09:48:09; 10.0%; 1; 控股股东拟变更+兵装重组概念+军工+国企</t>
         </is>
       </c>
+      <c r="BO11" t="inlineStr">
+        <is>
+          <t>605488.SH; 福莱新材; 0;  09:49:52; 首板涨停; 41.58;  09:49:52; 10.0%; 1; 机器人+灵巧手+柔性传感器</t>
+        </is>
+      </c>
+      <c r="BP11" t="inlineStr">
+        <is>
+          <t>000880.SZ; 潍柴重机; 0;  09:41:57; 首板涨停; 21.76;  09:41:57; 10.0%; 1; 数据中心发电机+柴油机零部件+国企</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="5" t="n">
@@ -34717,6 +35362,16 @@
           <t>600812.SH; 华北制药; 1;  09:50:06; 首板涨停; 6.35;  09:46:36; 10.1%; 1; 流感+医药+维生素</t>
         </is>
       </c>
+      <c r="BO12" t="inlineStr">
+        <is>
+          <t>603610.SH; 麒盛科技; 0;  09:50:07; 首板涨停; 12.52;  09:50:07; -1.6%; 1; 脑机接口+智能电动床+外销</t>
+        </is>
+      </c>
+      <c r="BP12" t="inlineStr">
+        <is>
+          <t>600182.SH; S佳通; 0;  09:42:52; 首板涨停; 16.74;  09:42:52; 5.0%; 1; 轮胎+股改</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="5" t="n">
@@ -35047,6 +35702,16 @@
           <t>002189.SZ; 中光学; 1;  09:50:18; 首板涨停; 21.45;  09:25:00; 10.0%; 1; 兵装重组概念+光学</t>
         </is>
       </c>
+      <c r="BO13" t="inlineStr">
+        <is>
+          <t>600739.SH; 辽宁成大; 0;  09:54:07; 首板涨停; 11.85;  09:54:07; 5.8%; 1; 实控人或发生变更+生物制药+参股券商+创投</t>
+        </is>
+      </c>
+      <c r="BP13" t="inlineStr">
+        <is>
+          <t>603117.SH; 万林物流; 0;  09:44:15; 首板涨停; 6.18;  09:44:15; 10.0%; 1; 资产注入预期+物流</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="5" t="n">
@@ -35377,6 +36042,16 @@
           <t>603985.SH; 恒润股份; 0;  09:51:00; 首板涨停; 12.38;  09:51:00; 10.0%; 1; 算力+风电+国企</t>
         </is>
       </c>
+      <c r="BO14" t="inlineStr">
+        <is>
+          <t>002031.SZ; 巨轮智能; 0;  09:59:37; 首板涨停; 8.77;  09:59:37; 5.4%; 1; 人形机器人+XT减速器+轮胎模具</t>
+        </is>
+      </c>
+      <c r="BP14" t="inlineStr">
+        <is>
+          <t>300491.SZ; 通合科技; 0;  09:46:33; 首板涨停; 20.02;  09:46:33; 20.0%; 1; 智能电网+电源管理+充电桩</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="5" t="n">
@@ -35702,6 +36377,16 @@
           <t>002380.SZ; 科远智慧; 0;  09:52:06; 首板涨停; 23.47;  09:52:06; 10.0%; 1; 年报预增+机器人概念+数据要素+工业互联网</t>
         </is>
       </c>
+      <c r="BO15" t="inlineStr">
+        <is>
+          <t>002426.SZ; 胜利精密; 0;  10:03:22; 首板涨停; 3.46;  10:03:22; 2.1%; 1; 消费电子+智能穿戴+AIPC+特斯拉</t>
+        </is>
+      </c>
+      <c r="BP15" t="inlineStr">
+        <is>
+          <t>003016.SZ; 欣贺股份; 0;  09:49:18; 首板涨停; 8.05;  09:49:18; 10.0%; 1; 女装+腾讯合作+电商+小红书直播</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="5" t="n">
@@ -36027,6 +36712,16 @@
           <t>002229.SZ; 鸿博股份; 0;  09:54:27; 首板涨停; 13.38;  09:54:27; 10.0%; 1; 算力+彩票+无实控人</t>
         </is>
       </c>
+      <c r="BO16" t="inlineStr">
+        <is>
+          <t>002441.SZ; 众业达; 0;  10:12:32; 首板涨停; 9.67;  10:12:32; 2.8%; 1; 工业电气分销+机器人+高股息</t>
+        </is>
+      </c>
+      <c r="BP16" t="inlineStr">
+        <is>
+          <t>300249.SZ; 依米康; 0;  09:50:30; 首板涨停; 16.04;  09:50:30; 20.0%; 1; 液冷服务器+算力+数据中心</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="5" t="n">
@@ -36347,6 +37042,16 @@
           <t>000032.SZ; 深桑达A; 3;  09:55:57; 首板涨停; 20.11;  09:30:57; 10.0%; 1; 中国电子云上线DeepSeek-R1/V3全量模型+云计算+央企</t>
         </is>
       </c>
+      <c r="BO17" t="inlineStr">
+        <is>
+          <t>002348.SZ; 高乐股份; 3;  10:58:45; 首板涨停; 3.73;  09:30:45; -1.1%; 1; IP经济+玩具+机器人概念+固态电池</t>
+        </is>
+      </c>
+      <c r="BP17" t="inlineStr">
+        <is>
+          <t>603010.SH; 万盛股份; 1;  09:50:48; 首板涨停; 11.02;  09:30:54; 10.0%; 1; 阻燃剂+比亚迪+并购重组+复星系</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="5" t="n">
@@ -36667,6 +37372,16 @@
           <t>600654.SH; 中安科; 0;  09:56:24; 首板涨停; 3.64;  09:56:24; 10.0%; 1; 算力+智能安防+境外安保综合服务</t>
         </is>
       </c>
+      <c r="BO18" t="inlineStr">
+        <is>
+          <t>000156.SZ; 华数传媒; 0;  11:10:30; 首板涨停; 9.32;  11:10:30; 10.0%; 1; 杭州+电视广播+虚拟人+国企改革</t>
+        </is>
+      </c>
+      <c r="BP18" t="inlineStr">
+        <is>
+          <t>002418.SZ; 康盛股份; 0;  09:53:00; 首板涨停; 3.43;  09:53:00; 9.9%; 1; 液冷服务器+BBU+股权转让+制冷管路</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="5" t="n">
@@ -36982,6 +37697,16 @@
           <t>300271.SZ; 华宇软件; 0;  09:58:33; 首板涨停; 8.98;  09:58:33; 20.1%; 1; 法律大模型+华为+数据要素+信创</t>
         </is>
       </c>
+      <c r="BO19" t="inlineStr">
+        <is>
+          <t>600422.SH; 昆药集团; 0;  11:22:04; 首板涨停; 17.7;  11:22:04; -0.8%; 1; 年报预增+中药+医药流通+国企</t>
+        </is>
+      </c>
+      <c r="BP19" t="inlineStr">
+        <is>
+          <t>603657.SH; 春光科技; 0;  10:01:53; 首板涨停; 15.81;  10:01:53; 10.0%; 1; 机器人+家用电器+小米概念</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="5" t="n">
@@ -37297,6 +38022,16 @@
           <t>600476.SH; 湘邮科技; 0;  10:05:03; 首板涨停; 17.16;  10:05:03; 10.0%; 1; 云计算+车联网+央企</t>
         </is>
       </c>
+      <c r="BO20" t="inlineStr">
+        <is>
+          <t>600477.SH; 杭萧钢构; 0;  11:25:50; 首板涨停; 3.01;  11:25:50; 3.1%; 1; 杭州+数据中心建设+绿色建筑</t>
+        </is>
+      </c>
+      <c r="BP20" t="inlineStr">
+        <is>
+          <t>603612.SH; 索通发展; 0;  10:03:40; 首板涨停; 18.57;  10:03:40; 10.0%; 1; 无人驾驶+锂电池+预焙阳极</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="5" t="n">
@@ -37612,6 +38347,16 @@
           <t>000785.SZ; 居然智家; 1;  10:05:57; 首板涨停; 3.8;  09:32:30; 10.1%; 1; DeepSeek概念+AI智能体+零售+华为</t>
         </is>
       </c>
+      <c r="BO21" t="inlineStr">
+        <is>
+          <t>603130.SH; 云中马; 0;  13:00:15; 首板涨停; 25.28;  13:00:15; 2.2%; 1; 革基布+节能环保</t>
+        </is>
+      </c>
+      <c r="BP21" t="inlineStr">
+        <is>
+          <t>600405.SH; 动力源; 1;  10:13:34; 首板涨停; 5.56;  10:11:28; 10.1%; 1; AI服务器电源+液冷充电桩+华为</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="5" t="n">
@@ -37927,6 +38672,16 @@
           <t>002059.SZ; 云南旅游; 1;  10:07:27; 首板涨停; 5.57;  10:02:06; 10.1%; 1; 东盟国家旅游团可免签入境云南西双版纳</t>
         </is>
       </c>
+      <c r="BO22" t="inlineStr">
+        <is>
+          <t>603956.SH; 威派格; 0;  13:00:30; 首板涨停; 7;  13:00:30; 10.1%; 1; 公司“河图 AI” 平台已接入DeepSeek+智慧水务</t>
+        </is>
+      </c>
+      <c r="BP22" t="inlineStr">
+        <is>
+          <t>600811.SH; 东方集团; 0;  10:25:41; 首板涨停; 2.15;  10:25:41; 10.3%; 1; 预重整+农产品加工+跨境支付</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="5" t="n">
@@ -38237,6 +38992,16 @@
           <t>600579.SH; 中化装备; 0;  10:11:15; 首板涨停; 9.25;  10:11:15; 10.0%; 1; 重大资产重组+央企改革+机器人+专用设备</t>
         </is>
       </c>
+      <c r="BO23" t="inlineStr">
+        <is>
+          <t>603366.SH; 日出东方; 2;  13:05:00; 首板涨停; 14.27;  10:20:49; 10.0%; 1; 液冷超充+太阳能热水器+华为</t>
+        </is>
+      </c>
+      <c r="BP23" t="inlineStr">
+        <is>
+          <t>300258.SZ; 精锻科技; 0;  10:39:27; 首板涨停; 11.58;  10:39:27; 20.0%; 1; 汽车零部件+人形机器人+比亚迪概念+泰国工厂</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="5" t="n">
@@ -38542,6 +39307,16 @@
           <t>300078.SZ; 思创医惠; 1;  10:14:42; 首板涨停; 3.94;  09:44:15; 20.1%; 1; DRG/DIP+智慧医疗+辅助生殖+机器人</t>
         </is>
       </c>
+      <c r="BO24" t="inlineStr">
+        <is>
+          <t>603286.SH; 日盈电子; 0;  13:12:30; 首板涨停; 26.31;  13:12:30; 2.3%; 1; 智能座舱+无人驾驶+高速线束产品</t>
+        </is>
+      </c>
+      <c r="BP24" t="inlineStr">
+        <is>
+          <t>000681.SZ; 视觉中国; 1;  10:43:09; 首板涨停; 27.79;  10:00:18; 10.0%; 1; DeepSeek概念+AI智能体+视觉版权+剪映等合作</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="5" t="n">
@@ -38847,6 +39622,16 @@
           <t>605069.SH; 正和生态; 0;  10:23:12; 首板涨停; 9.01;  10:23:12; 10.0%; 1; AI智能体+智谱合作+生态保护</t>
         </is>
       </c>
+      <c r="BO25" t="inlineStr">
+        <is>
+          <t>603991.SH; 至正股份; 0;  13:26:15; 首板涨停; 64.36;  13:26:15; -2.2%; 1; 拟收购半导体材料供应商+半导体设备</t>
+        </is>
+      </c>
+      <c r="BP25" t="inlineStr">
+        <is>
+          <t>002855.SZ; 捷荣技术; 0;  10:47:03; 首板涨停; 21.63;  10:47:03; 10.0%; 1; 消费电子+华为+新能源</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="5" t="n">
@@ -39147,6 +39932,16 @@
           <t>605186.SH; 健麾信息; 0;  10:23:24; 首板涨停; 23.08;  10:23:24; 10.0%; 1; 智慧药房+机器人+沙特+AI语料</t>
         </is>
       </c>
+      <c r="BO26" t="inlineStr">
+        <is>
+          <t>002313.SZ; 日海智能; 0;  13:32:30; 首板涨停; 10.93;  13:32:30; -1.3%; 1; 机器人+无线通信模组产品+数据中心+控股股东变更</t>
+        </is>
+      </c>
+      <c r="BP26" t="inlineStr">
+        <is>
+          <t>600843.SH; 上工申贝; 1;  11:29:44; 首板涨停; 13.53;  09:48:35; 10.0%; 1; 机器人概念+碳纤维运动飞机+缝纫设备</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="5" t="n">
@@ -39442,6 +40237,16 @@
           <t>002199.SZ; 东晶电子; 0;  10:24:51; 首板涨停; 7.38;  10:24:51; 10.0%; 1; 第一大股东变更+石英晶体元器件</t>
         </is>
       </c>
+      <c r="BO27" t="inlineStr">
+        <is>
+          <t>002870.SZ; 香山股份; 0;  13:32:45; 首板涨停; 34.9;  13:32:45; -2.9%; 1; 比亚迪概念+人形机器人+低空经济+控股股东拟变更为均胜电子</t>
+        </is>
+      </c>
+      <c r="BP27" t="inlineStr">
+        <is>
+          <t>600172.SH; 黄河旋风; 1;  11:29:55; 首板涨停; 4.48;  10:48:49; 10.1%; 1; 培育钻石+超高压合成装备+国企+增持</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="5" t="n">
@@ -39732,6 +40537,16 @@
           <t>603958.SH; 哈森股份; 0;  10:30:30; 首板涨停; 14.61;  10:30:30; 10.0%; 1; 拟购买辰瓴光学100%股权及苏州郎克斯45%股权+消费电子</t>
         </is>
       </c>
+      <c r="BO28" t="inlineStr">
+        <is>
+          <t>605016.SH; 百龙创园; 1;  13:36:00; 首板涨停; 19.16;  09:31:15; 4.9%; 1; 代糖+阿洛酮糖+三季报增长+外销</t>
+        </is>
+      </c>
+      <c r="BP28" t="inlineStr">
+        <is>
+          <t>601116.SH; 三江购物; 0;  13:01:31; 首板涨停; 11.69;  13:01:31; 10.0%; 1; 生鲜超市+阿里巴巴</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="5" t="n">
@@ -40012,6 +40827,16 @@
           <t>000029.SZ; 深深房A; 0;  10:30:45; 首板涨停; 15.57;  10:30:45; 10.0%; 1; 房地产+深圳国企</t>
         </is>
       </c>
+      <c r="BO29" t="inlineStr">
+        <is>
+          <t>603330.SH; 天洋新材; 0;  13:36:00; 首板涨停; 7.81;  13:36:00; 0.4%; 1; 光伏+热塑性环保粘接材料+消费电子+华为概念</t>
+        </is>
+      </c>
+      <c r="BP29" t="inlineStr">
+        <is>
+          <t>605336.SH; 帅丰电器; 0;  13:05:06; 首板涨停; 15.24;  13:05:06; 10.0%; 1; 智能厨房电器+电商+高股息</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="5" t="n">
@@ -40287,6 +41112,16 @@
           <t>600797.SH; 浙大网新; 0;  10:31:56; 首板涨停; 8.4;  10:31:56; 9.9%; 1; 云计算+蚂蚁金服合作+字节</t>
         </is>
       </c>
+      <c r="BO30" t="inlineStr">
+        <is>
+          <t>603466.SH; 风语筑; 0;  13:42:16; 首板涨停; 10.48;  13:42:16; -1.8%; 1; AI 3D+数字视觉服务</t>
+        </is>
+      </c>
+      <c r="BP30" t="inlineStr">
+        <is>
+          <t>002639.SZ; 雪人股份; 0;  13:15:15; 首板涨停; 7.71;  13:15:15; 10.0%; 1; 冰雪产业+数据中心+氢能源</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="5" t="n">
@@ -40557,6 +41392,16 @@
           <t>002335.SZ; 科华数据; 0;  10:34:42; 首板涨停; 33.84;  10:34:42; 10.0%; 1; 数据中心+UPS+液冷+新能源</t>
         </is>
       </c>
+      <c r="BO31" t="inlineStr">
+        <is>
+          <t>002878.SZ; 元隆雅图; 0;  13:54:52; 首板涨停; 20.09;  13:54:52; 3.7%; 1; 哪吒周边+IP文创+营销+微信小店</t>
+        </is>
+      </c>
+      <c r="BP31" t="inlineStr">
+        <is>
+          <t>600516.SH; 方大炭素; 0;  13:17:01; 首板涨停; 5.13;  13:17:01; 10.1%; 1; 石墨电极+核电+锂电池+方大系</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="5" t="n">
@@ -40827,6 +41672,16 @@
           <t>002173.SZ; 创新医疗; 0;  10:34:45; 首板涨停; 10.01;  10:34:45; 10.0%; 1; 脑机接口+养老+民营医院</t>
         </is>
       </c>
+      <c r="BO32" t="inlineStr">
+        <is>
+          <t>605599.SH; 菜百股份; 2;  13:56:22; 首板涨停; 11.46;  09:47:52; -3.9%; 1; 黄金概念+珠宝饰品+北京国资</t>
+        </is>
+      </c>
+      <c r="BP32" t="inlineStr">
+        <is>
+          <t>603219.SH; 富佳股份; 0;  13:21:17; 首板涨停; 17.2;  13:21:17; 10.0%; 1; 机器人+吸尘器+外销</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="5" t="n">
@@ -41092,6 +41947,16 @@
           <t>603090.SH; 宏盛股份; 0;  10:37:11; 首板涨停; 20.32;  10:37:11; 10.0%; 1; 数据中心+换热器+锂电池+外销</t>
         </is>
       </c>
+      <c r="BO33" t="inlineStr">
+        <is>
+          <t>603598.SH; 引力传媒; 2;  14:10:01; 首板涨停; 22.65;  10:20:32; -1.2%; 1; AI智能体+营销+抖音概念+华为鸿蒙</t>
+        </is>
+      </c>
+      <c r="BP33" t="inlineStr">
+        <is>
+          <t>000887.SZ; 中鼎股份; 7;  13:32:18; 首板涨停; 17.28;  09:53:36; 10.0%; 1; 机器人+液冷服务器+磁流变减震器+飞行汽车</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="5" t="n">
@@ -41352,6 +42217,16 @@
           <t>002879.SZ; 长缆科技; 1;  10:37:39; 首板涨停; 17.01;  10:09:48; 10.0%; 1; 数据中心+核电+机器人+电力电缆附件</t>
         </is>
       </c>
+      <c r="BO34" t="inlineStr">
+        <is>
+          <t>002181.SZ; 粤传媒; 2;  14:11:31; 首板涨停; 6.65;  14:09:46; 0.2%; 1; 文化传媒+AI营销+教育+广州国企</t>
+        </is>
+      </c>
+      <c r="BP34" t="inlineStr">
+        <is>
+          <t>601727.SH; 上海电气; 2;  13:41:33; 首板涨停; 8.56;  10:25:30; 10.0%; 1; 电力设备+智能电网+人形机器人+上海国资</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="5" t="n">
@@ -41612,6 +42487,16 @@
           <t>300451.SZ; 创业慧康; 0;  10:46:39; 首板涨停; 5.94;  10:46:39; 20.0%; 1; 接入DeepSeek+医学大模型+AI医疗</t>
         </is>
       </c>
+      <c r="BO35" t="inlineStr">
+        <is>
+          <t>603107.SH; 上海汽配; 0;  14:19:33; 首板涨停; 17.74;  14:19:33; -2.8%; 1; 汽车热管理+供货滴滴/百度+上海国资+外销</t>
+        </is>
+      </c>
+      <c r="BP35" t="inlineStr">
+        <is>
+          <t>603501.SH; 韦尔股份; 3;  13:57:58; 首板涨停; 135.3;  13:42:46; 10.0%; 1; 受益于比亚迪自动驾驶+图像传感器</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="5" t="n">
@@ -41867,6 +42752,16 @@
           <t>000062.SZ; 深圳华强; 0;  10:49:36; 首板涨停; 24.68;  10:49:36; 10.0%; 1; 华为海思概念+电子元器件分销+消费电子</t>
         </is>
       </c>
+      <c r="BO36" t="inlineStr">
+        <is>
+          <t>603511.SH; 爱慕股份; 0;  14:30:03; 首板涨停; 14.31;  14:30:03; -2.1%; 1; IP经济+小红书+服装+电商</t>
+        </is>
+      </c>
+      <c r="BP36" t="inlineStr">
+        <is>
+          <t>600386.SH; 北巴传媒; 0;  13:59:57; 首板涨停; 4.92;  13:59:57; 10.1%; 1; 公交广告媒体+汽车拆解+北京国资</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="5" t="n">
@@ -42122,6 +43017,16 @@
           <t>002630.SZ; 华西能源; 0;  11:01:36; 首板涨停; 4.37;  11:01:36; 10.1%; 1; 电站装备+新能源+节能环保</t>
         </is>
       </c>
+      <c r="BO37" t="inlineStr">
+        <is>
+          <t>002927.SZ; 泰永长征; 0;  14:30:48; 首板涨停; 14.32;  14:30:48; -2.8%; 1; 供货数据中心项目+高压快充+电网设备+PCB</t>
+        </is>
+      </c>
+      <c r="BP37" t="inlineStr">
+        <is>
+          <t>600611.SH; 大众交通; 1;  14:10:01; 首板涨停; 7.41;  13:47:16; 9.9%; 1; 网约车+交通运输+持股国泰君安</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="5" t="n">
@@ -42372,6 +43277,16 @@
           <t>000004.SZ; 国华网安; 0;  11:08:03; 首板涨停; 13.97;  11:08:03; 10.0%; 1; 网络安全+鸿蒙+国产适配</t>
         </is>
       </c>
+      <c r="BO38" t="inlineStr">
+        <is>
+          <t>000890.SZ; 法尔胜; 4;  14:39:33; 首板涨停; 3.63;  14:28:18; -2.9%; 1; 超导热门股+钢丝+光纤</t>
+        </is>
+      </c>
+      <c r="BP38" t="inlineStr">
+        <is>
+          <t>000595.SZ; 宝塔实业; 0;  14:10:51; 首板涨停; 6.4;  14:10:51; 10.0%; 1; 子公司恢复采购活动+机器人+拟购新能源资产+宁夏国资</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="5" t="n">
@@ -42617,6 +43532,16 @@
           <t>002599.SZ; 盛通股份; 0;  11:13:09; 首板涨停; 9.54;  11:13:09; 10.0%; 1; 人形机器人+宇树科技合作+教育+鸿蒙</t>
         </is>
       </c>
+      <c r="BO39" t="inlineStr">
+        <is>
+          <t>300478.SZ; 杭州高新; 1;  15:00:00; 首板涨停; 11.43;  11:29:57; -6.0%; 1; 杭州+线缆用高分子材料+核电</t>
+        </is>
+      </c>
+      <c r="BP39" t="inlineStr">
+        <is>
+          <t>600650.SH; 锦江在线; 1;  14:15:59; 首板涨停; 16.4;  13:54:13; 10.0%; 1; 无人出租车+上海国资+持股国泰君安</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="5" t="n">
@@ -42857,6 +43782,11 @@
           <t>002212.SZ; 天融信; 3;  11:14:57; 首板涨停; 8.92;  11:08:57; 10.0%; 1; DeepSeek概念+云服务+量子密码+华为鲲鹏</t>
         </is>
       </c>
+      <c r="BP40" t="inlineStr">
+        <is>
+          <t>601231.SH; 环旭电子; 3;  14:22:53; 首板涨停; 17.46;  14:20:23; 10.0%; 1; AI终端+消费电子</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="5" t="n">
@@ -43097,6 +44027,11 @@
           <t>002253.SZ; 川大智胜; 0;  11:19:15; 首板涨停; 13.57;  11:19:15; 10.0%; 1; 国资背景+华为昇腾+低空安全管控</t>
         </is>
       </c>
+      <c r="BP41" t="inlineStr">
+        <is>
+          <t>600845.SH; 宝信软件; 1;  14:23:32; 首板涨停; 33.69;  13:21:20; 10.0%; 1; 工业软件+数据中心+人工智能+国企</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="5" t="n">
@@ -43332,6 +44267,11 @@
           <t>002835.SZ; 同为股份; 0;  13:02:54; 首板涨停; 21.52;  13:02:54; 10.0%; 1; 视频监控+AI智能+外销</t>
         </is>
       </c>
+      <c r="BP42" t="inlineStr">
+        <is>
+          <t>600327.SH; 大东方; 0;  14:37:49; 首板涨停; 5.68;  14:37:49; 10.1%; 1; 零售+医疗健康+老字号</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="5" t="n">
@@ -43567,6 +44507,11 @@
           <t>301536.SZ; 星宸科技; 0;  13:06:39; 首板涨停; 89.04;  13:06:39; 20.0%; 1; 端边侧AI SoC+智能视觉+AI眼镜+机器人</t>
         </is>
       </c>
+      <c r="BP43" t="inlineStr">
+        <is>
+          <t>000997.SZ; 新大陆; 9;  14:40:42; 首板涨停; 24.62;  14:18:42; 10.0%; 1; 接入DeepSeek+多模态AI+计算机设备</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="5" t="n">
@@ -43802,6 +44747,11 @@
           <t>002695.SZ; 煌上煌; 0;  13:11:30; 首板涨停; 9.17;  13:11:30; 10.0%; 1; 食品饮料+电商+新零售</t>
         </is>
       </c>
+      <c r="BP44" t="inlineStr">
+        <is>
+          <t>300344.SZ; 立方数科; 1;  14:42:42; 首板涨停; 7.63;  11:22:18; 20.0%; 1; 拟间接收购云掌财经+智能软硬件+云计算</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="5" t="n">
@@ -44022,6 +44972,11 @@
           <t>300603.SZ; 立昂技术; 1;  13:15:48; 首板涨停; 13.34;  10:28:33; 20.0%; 1; 算力+华为+一带一路</t>
         </is>
       </c>
+      <c r="BP45" t="inlineStr">
+        <is>
+          <t>601162.SH; 天风证券; 0;  14:44:29; 首板涨停; 4.77;  14:44:29; 9.9%; 1; 证券+国企+推进增持计划</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="5" t="n">
@@ -44237,6 +45192,11 @@
           <t>003029.SZ; 吉大正元; 0;  13:15:51; 首板涨停; 24.87;  13:15:51; 10.0%; 1; AI智能体+网络安全+华为鸿蒙+量子科技</t>
         </is>
       </c>
+      <c r="BP46" t="inlineStr">
+        <is>
+          <t>002530.SZ; 金财互联; 2;  14:44:33; 首板涨停; 13.09;  11:11:06; 10.0%; 1; 云计算+AI智能体+财税大模型+机器人</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="5" t="n">
@@ -44442,6 +45402,11 @@
           <t>603189.SH; 网达软件; 0;  13:16:31; 首板涨停; 17.84;  13:16:31; 10.0%; 1; 视频技术+MR+空间计算+年报预增</t>
         </is>
       </c>
+      <c r="BP47" t="inlineStr">
+        <is>
+          <t>600761.SH; 安徽合力; 17;  14:47:19; 首板涨停; 19.31;  13:38:07; 10.0%; 1; AGV全系列产品+工业互联网+工业车辆+国企</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="5" t="n">
@@ -44647,6 +45612,11 @@
           <t>002131.SZ; 利欧股份; 0;  13:19:21; 首板涨停; 4.54;  13:19:21; 9.9%; 1; AI营销+TikTok+华为鲸鸿</t>
         </is>
       </c>
+      <c r="BP48" t="inlineStr">
+        <is>
+          <t>600173.SH; 卧龙地产; 0;  14:48:59; 首板涨停; 5.3;  14:48:59; 10.0%; 1; 房地产+金属铜+稀土+拟收购资产</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="5" t="n">
@@ -44847,6 +45817,11 @@
           <t>002899.SZ; 英派斯; 0;  13:23:24; 首板涨停; 27.39;  13:23:24; 10.0%; 1; AI眼镜+华为鸿蒙+健身器材+外销</t>
         </is>
       </c>
+      <c r="BP49" t="inlineStr">
+        <is>
+          <t>603171.SH; 税友股份; 4;  14:51:43; 首板涨停; 42.67;  11:04:49; 10.0%; 1; 云计算+DeepSeek概念+财税数字化+华为鸿蒙</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="5" t="n">
@@ -45047,6 +46022,11 @@
           <t>603729.SH; 龙韵股份; 0;  13:23:43; 首板涨停; 17.89;  13:23:43; 10.0%; 1; 年报预增+营销+抖音概念+MCN机构</t>
         </is>
       </c>
+      <c r="BP50" t="inlineStr">
+        <is>
+          <t>000002.SZ; 万科A; 0;  14:52:48; 首板涨停; 7.96;  14:52:48; 9.9%; 1; 万科AH股直线拉升</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="5" t="n">
@@ -45240,6 +46220,11 @@
       <c r="BN51" t="inlineStr">
         <is>
           <t>002987.SZ; 京北方; 0;  13:25:09; 首板涨停; 16.58;  13:25:09; 10.0%; 1; DeepSeek概念+AI应用+金融科技+鸿蒙概念</t>
+        </is>
+      </c>
+      <c r="BP51" t="inlineStr">
+        <is>
+          <t>300170.SZ; 汉得信息; 6;  14:53:54; 首板涨停; 25.22;  13:04:21; 20.0%; 1; DeepSeek概念+AI智能体+字节+ERP</t>
         </is>
       </c>
     </row>
@@ -49384,7 +50369,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BN50"/>
+  <dimension ref="A1:BP50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49718,6 +50703,16 @@
           <t>2025年02月10日</t>
         </is>
       </c>
+      <c r="BO1" s="5" t="inlineStr">
+        <is>
+          <t>2025年02月11日</t>
+        </is>
+      </c>
+      <c r="BP1" s="5" t="inlineStr">
+        <is>
+          <t>2025年02月12日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="5" t="n">
@@ -50044,6 +51039,16 @@
           <t>000532.SZ; 华金资本; 9.4%; 13.2%; 18.98; 2.5%; 阳线||放量||价升量缩</t>
         </is>
       </c>
+      <c r="BO2" t="inlineStr">
+        <is>
+          <t>600186.SH; 莲花控股; 3.7%; 14.2%; 7.97; 6.8%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="BP2" t="inlineStr">
+        <is>
+          <t>603110.SH; 东方材料; 4.0%; 14.5%; 19.69; 10.0%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="n">
@@ -50370,6 +51375,16 @@
           <t>301596.SZ; 瑞迪智驱; 2.9%; 17.8%; 159.01; 14.3%; 价升量涨||强中选强||阳线</t>
         </is>
       </c>
+      <c r="BO3" t="inlineStr">
+        <is>
+          <t>300634.SZ; 彩讯股份; 3.5%; 18.7%; 33.74; -1.4%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="BP3" t="inlineStr">
+        <is>
+          <t>603390.SH; 通达电气; 2.8%; 13.1%; 12.76; 10.0%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="5" t="n">
@@ -50672,6 +51687,16 @@
           <t>301550.SZ; 斯菱股份; 1.4%; 17.2%; 112.4; 15.6%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="BO4" t="inlineStr">
+        <is>
+          <t>002691.SZ; 冀凯股份; 2.7%; 13.0%; 12.49; 10.0%; 强中选强||阳线||放量</t>
+        </is>
+      </c>
+      <c r="BP4" t="inlineStr">
+        <is>
+          <t>300170.SZ; 汉得信息; 1.2%; 21.4%; 25.22; 20.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="n">
@@ -50962,6 +51987,16 @@
           <t>300235.SZ; 方直科技; 0.6%; 13.4%; 13.34; 12.8%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="BO5" t="inlineStr">
+        <is>
+          <t>300378.SZ; 鼎捷数智; 2.5%; 16.2%; 43.42; 4.2%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="BP5" t="inlineStr">
+        <is>
+          <t>300829.SZ; 金丹科技; 0.3%; 13.5%; 18.32; 13.2%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="5" t="n">
@@ -51240,6 +52275,16 @@
           <t>300937.SZ; 药易购; 0.0%; 20.0%; 32.22; 20.0%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="BO6" t="inlineStr">
+        <is>
+          <t>300478.SZ; 杭州高新; 1.9%; 22.3%; 11.43; -6.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="BP6" t="inlineStr">
+        <is>
+          <t>301255.SZ; 通力科技; 0.2%; 12.3%; 38.49; 12.1%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="n">
@@ -51502,6 +52547,16 @@
         </is>
       </c>
       <c r="BN7" t="inlineStr"/>
+      <c r="BO7" t="inlineStr">
+        <is>
+          <t>300192.SZ; 科德教育; 1.9%; 13.4%; 20.67; -0.6%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="BP7" t="inlineStr">
+        <is>
+          <t>300782.SZ; 卓胜微; 0.0%; 16.2%; 96.38; 16.2%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="5" t="n">
@@ -51752,6 +52807,12 @@
         </is>
       </c>
       <c r="BN8" t="inlineStr"/>
+      <c r="BO8" t="inlineStr">
+        <is>
+          <t>605488.SH; 福莱新材; 1.9%; 12.1%; 41.58; 10.0%; 价升量涨||阳线||缩量</t>
+        </is>
+      </c>
+      <c r="BP8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="5" t="n">
@@ -51986,6 +53047,12 @@
       </c>
       <c r="BM9" t="inlineStr"/>
       <c r="BN9" t="inlineStr"/>
+      <c r="BO9" t="inlineStr">
+        <is>
+          <t>301551.SZ; 无线传媒; 1.5%; 12.7%; 65.94; -4.1%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="BP9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="5" t="n">
@@ -52196,6 +53263,12 @@
       </c>
       <c r="BM10" t="inlineStr"/>
       <c r="BN10" t="inlineStr"/>
+      <c r="BO10" t="inlineStr">
+        <is>
+          <t>300220.SZ; 金运激光; 0.9%; 21.1%; 21; 20.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="BP10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="5" t="n">
@@ -52394,6 +53467,8 @@
       </c>
       <c r="BM11" t="inlineStr"/>
       <c r="BN11" t="inlineStr"/>
+      <c r="BO11" t="inlineStr"/>
+      <c r="BP11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="5" t="n">
@@ -52564,6 +53639,8 @@
       </c>
       <c r="BM12" t="inlineStr"/>
       <c r="BN12" t="inlineStr"/>
+      <c r="BO12" t="inlineStr"/>
+      <c r="BP12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="5" t="n">
@@ -52718,6 +53795,8 @@
       </c>
       <c r="BM13" t="inlineStr"/>
       <c r="BN13" t="inlineStr"/>
+      <c r="BO13" t="inlineStr"/>
+      <c r="BP13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="5" t="n">
@@ -52868,6 +53947,8 @@
       </c>
       <c r="BM14" t="inlineStr"/>
       <c r="BN14" t="inlineStr"/>
+      <c r="BO14" t="inlineStr"/>
+      <c r="BP14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="5" t="n">
@@ -53010,6 +54091,8 @@
       </c>
       <c r="BM15" t="inlineStr"/>
       <c r="BN15" t="inlineStr"/>
+      <c r="BO15" t="inlineStr"/>
+      <c r="BP15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="5" t="n">
@@ -53148,6 +54231,8 @@
       </c>
       <c r="BM16" t="inlineStr"/>
       <c r="BN16" t="inlineStr"/>
+      <c r="BO16" t="inlineStr"/>
+      <c r="BP16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="5" t="n">
@@ -53278,6 +54363,8 @@
       </c>
       <c r="BM17" t="inlineStr"/>
       <c r="BN17" t="inlineStr"/>
+      <c r="BO17" t="inlineStr"/>
+      <c r="BP17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="5" t="n">
@@ -53404,6 +54491,8 @@
       </c>
       <c r="BM18" t="inlineStr"/>
       <c r="BN18" t="inlineStr"/>
+      <c r="BO18" t="inlineStr"/>
+      <c r="BP18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="5" t="n">
@@ -53522,6 +54611,8 @@
       <c r="BL19" t="inlineStr"/>
       <c r="BM19" t="inlineStr"/>
       <c r="BN19" t="inlineStr"/>
+      <c r="BO19" t="inlineStr"/>
+      <c r="BP19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="5" t="n">
@@ -53640,6 +54731,8 @@
       <c r="BL20" t="inlineStr"/>
       <c r="BM20" t="inlineStr"/>
       <c r="BN20" t="inlineStr"/>
+      <c r="BO20" t="inlineStr"/>
+      <c r="BP20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="5" t="n">
@@ -53758,6 +54851,8 @@
       <c r="BL21" t="inlineStr"/>
       <c r="BM21" t="inlineStr"/>
       <c r="BN21" t="inlineStr"/>
+      <c r="BO21" t="inlineStr"/>
+      <c r="BP21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="5" t="n">
@@ -53868,6 +54963,8 @@
       <c r="BL22" t="inlineStr"/>
       <c r="BM22" t="inlineStr"/>
       <c r="BN22" t="inlineStr"/>
+      <c r="BO22" t="inlineStr"/>
+      <c r="BP22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="5" t="n">
@@ -53974,6 +55071,8 @@
       <c r="BL23" t="inlineStr"/>
       <c r="BM23" t="inlineStr"/>
       <c r="BN23" t="inlineStr"/>
+      <c r="BO23" t="inlineStr"/>
+      <c r="BP23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="5" t="n">
@@ -54076,6 +55175,8 @@
       <c r="BL24" t="inlineStr"/>
       <c r="BM24" t="inlineStr"/>
       <c r="BN24" t="inlineStr"/>
+      <c r="BO24" t="inlineStr"/>
+      <c r="BP24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="5" t="n">
@@ -54174,6 +55275,8 @@
       <c r="BL25" t="inlineStr"/>
       <c r="BM25" t="inlineStr"/>
       <c r="BN25" t="inlineStr"/>
+      <c r="BO25" t="inlineStr"/>
+      <c r="BP25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="5" t="n">
@@ -54264,6 +55367,8 @@
       <c r="BL26" t="inlineStr"/>
       <c r="BM26" t="inlineStr"/>
       <c r="BN26" t="inlineStr"/>
+      <c r="BO26" t="inlineStr"/>
+      <c r="BP26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="5" t="n">
@@ -54354,6 +55459,8 @@
       <c r="BL27" t="inlineStr"/>
       <c r="BM27" t="inlineStr"/>
       <c r="BN27" t="inlineStr"/>
+      <c r="BO27" t="inlineStr"/>
+      <c r="BP27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="5" t="n">
@@ -54444,6 +55551,8 @@
       <c r="BL28" t="inlineStr"/>
       <c r="BM28" t="inlineStr"/>
       <c r="BN28" t="inlineStr"/>
+      <c r="BO28" t="inlineStr"/>
+      <c r="BP28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="5" t="n">
@@ -54534,6 +55643,8 @@
       <c r="BL29" t="inlineStr"/>
       <c r="BM29" t="inlineStr"/>
       <c r="BN29" t="inlineStr"/>
+      <c r="BO29" t="inlineStr"/>
+      <c r="BP29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="5" t="n">
@@ -54620,6 +55731,8 @@
       <c r="BL30" t="inlineStr"/>
       <c r="BM30" t="inlineStr"/>
       <c r="BN30" t="inlineStr"/>
+      <c r="BO30" t="inlineStr"/>
+      <c r="BP30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="5" t="n">
@@ -54706,6 +55819,8 @@
       <c r="BL31" t="inlineStr"/>
       <c r="BM31" t="inlineStr"/>
       <c r="BN31" t="inlineStr"/>
+      <c r="BO31" t="inlineStr"/>
+      <c r="BP31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="5" t="n">
@@ -54792,6 +55907,8 @@
       <c r="BL32" t="inlineStr"/>
       <c r="BM32" t="inlineStr"/>
       <c r="BN32" t="inlineStr"/>
+      <c r="BO32" t="inlineStr"/>
+      <c r="BP32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="5" t="n">
@@ -54878,6 +55995,8 @@
       <c r="BL33" t="inlineStr"/>
       <c r="BM33" t="inlineStr"/>
       <c r="BN33" t="inlineStr"/>
+      <c r="BO33" t="inlineStr"/>
+      <c r="BP33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="5" t="n">
@@ -54956,6 +56075,8 @@
       <c r="BL34" t="inlineStr"/>
       <c r="BM34" t="inlineStr"/>
       <c r="BN34" t="inlineStr"/>
+      <c r="BO34" t="inlineStr"/>
+      <c r="BP34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="5" t="n">
@@ -55034,6 +56155,8 @@
       <c r="BL35" t="inlineStr"/>
       <c r="BM35" t="inlineStr"/>
       <c r="BN35" t="inlineStr"/>
+      <c r="BO35" t="inlineStr"/>
+      <c r="BP35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="5" t="n">
@@ -55112,6 +56235,8 @@
       <c r="BL36" t="inlineStr"/>
       <c r="BM36" t="inlineStr"/>
       <c r="BN36" t="inlineStr"/>
+      <c r="BO36" t="inlineStr"/>
+      <c r="BP36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="5" t="n">
@@ -55190,6 +56315,8 @@
       <c r="BL37" t="inlineStr"/>
       <c r="BM37" t="inlineStr"/>
       <c r="BN37" t="inlineStr"/>
+      <c r="BO37" t="inlineStr"/>
+      <c r="BP37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="5" t="n">
@@ -55268,6 +56395,8 @@
       <c r="BL38" t="inlineStr"/>
       <c r="BM38" t="inlineStr"/>
       <c r="BN38" t="inlineStr"/>
+      <c r="BO38" t="inlineStr"/>
+      <c r="BP38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="5" t="n">
@@ -55346,6 +56475,8 @@
       <c r="BL39" t="inlineStr"/>
       <c r="BM39" t="inlineStr"/>
       <c r="BN39" t="inlineStr"/>
+      <c r="BO39" t="inlineStr"/>
+      <c r="BP39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="5" t="n">
@@ -55424,6 +56555,8 @@
       <c r="BL40" t="inlineStr"/>
       <c r="BM40" t="inlineStr"/>
       <c r="BN40" t="inlineStr"/>
+      <c r="BO40" t="inlineStr"/>
+      <c r="BP40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="5" t="n">
@@ -55502,6 +56635,8 @@
       <c r="BL41" t="inlineStr"/>
       <c r="BM41" t="inlineStr"/>
       <c r="BN41" t="inlineStr"/>
+      <c r="BO41" t="inlineStr"/>
+      <c r="BP41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="5" t="n">
@@ -55576,6 +56711,8 @@
       <c r="BL42" t="inlineStr"/>
       <c r="BM42" t="inlineStr"/>
       <c r="BN42" t="inlineStr"/>
+      <c r="BO42" t="inlineStr"/>
+      <c r="BP42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="5" t="n">
@@ -55650,6 +56787,8 @@
       <c r="BL43" t="inlineStr"/>
       <c r="BM43" t="inlineStr"/>
       <c r="BN43" t="inlineStr"/>
+      <c r="BO43" t="inlineStr"/>
+      <c r="BP43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="5" t="n">
@@ -55724,6 +56863,8 @@
       <c r="BL44" t="inlineStr"/>
       <c r="BM44" t="inlineStr"/>
       <c r="BN44" t="inlineStr"/>
+      <c r="BO44" t="inlineStr"/>
+      <c r="BP44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="5" t="n">
@@ -55798,6 +56939,8 @@
       <c r="BL45" t="inlineStr"/>
       <c r="BM45" t="inlineStr"/>
       <c r="BN45" t="inlineStr"/>
+      <c r="BO45" t="inlineStr"/>
+      <c r="BP45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="5" t="n">
@@ -55872,6 +57015,8 @@
       <c r="BL46" t="inlineStr"/>
       <c r="BM46" t="inlineStr"/>
       <c r="BN46" t="inlineStr"/>
+      <c r="BO46" t="inlineStr"/>
+      <c r="BP46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="5" t="n">
@@ -55946,6 +57091,8 @@
       <c r="BL47" t="inlineStr"/>
       <c r="BM47" t="inlineStr"/>
       <c r="BN47" t="inlineStr"/>
+      <c r="BO47" t="inlineStr"/>
+      <c r="BP47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="5" t="n">
@@ -56020,6 +57167,8 @@
       <c r="BL48" t="inlineStr"/>
       <c r="BM48" t="inlineStr"/>
       <c r="BN48" t="inlineStr"/>
+      <c r="BO48" t="inlineStr"/>
+      <c r="BP48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="5" t="n">
@@ -56094,6 +57243,8 @@
       <c r="BL49" t="inlineStr"/>
       <c r="BM49" t="inlineStr"/>
       <c r="BN49" t="inlineStr"/>
+      <c r="BO49" t="inlineStr"/>
+      <c r="BP49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="5" t="n">
@@ -56168,6 +57319,8 @@
       <c r="BL50" t="inlineStr"/>
       <c r="BM50" t="inlineStr"/>
       <c r="BN50" t="inlineStr"/>
+      <c r="BO50" t="inlineStr"/>
+      <c r="BP50" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/excel/fupan_stocks.xlsx
+++ b/excel/fupan_stocks.xlsx
@@ -470,7 +470,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP65"/>
+  <dimension ref="A1:BQ65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -814,6 +814,11 @@
           <t>2025年02月12日</t>
         </is>
       </c>
+      <c r="BQ1" s="5" t="inlineStr">
+        <is>
+          <t>2025年02月13日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="5" t="n">
@@ -1154,6 +1159,11 @@
           <t>002123.SZ; 梦网科技; 0;  09:25:00; 6天6板; 18.89;  09:25:00; 10.0%; 6; DeepSeek概念+拟收购碧橙数字控制权+云通信+鸿蒙</t>
         </is>
       </c>
+      <c r="BQ2" t="inlineStr">
+        <is>
+          <t>601177.SH; 杭齿前进; 0;  09:25:02; 2天2板; 11.22;  09:25:02; 10.0%; 2; 人形机器人+杭州国资+齿轮传动+减速器</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="n">
@@ -1494,6 +1504,11 @@
           <t>600797.SH; 浙大网新; 0;  09:25:00; 3天2板; 8.98;  09:25:00; 10.0%; 1; 云计算+蚂蚁金服合作+杭州</t>
         </is>
       </c>
+      <c r="BQ3" t="inlineStr">
+        <is>
+          <t>600126.SH; 杭钢股份; 0;  09:25:03; 7天7板; 10.13;  09:25:03; 10.0%; 7; DeepSeek概念+云计算+浙江国资+钢铁</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="5" t="n">
@@ -1834,6 +1849,11 @@
           <t>002929.SZ; 润建股份; 0;  09:25:00; 3天3板; 47.21;  09:25:00; 10.0%; 3; 阿里云+部署DeepSeek至R1（满血）版本+算力</t>
         </is>
       </c>
+      <c r="BQ4" t="inlineStr">
+        <is>
+          <t>603956.SH; 威派格; 2;  09:30:15; 3天3板; 7.7;  09:25:03; 10.0%; 3; 公司“河图 AI” 平台已接入DeepSeek+智慧水务</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="n">
@@ -2174,6 +2194,11 @@
           <t>603881.SH; 数据港; 0;  09:25:01; 3天2板; 28.18;  09:25:01; 10.0%; 1; 数据中心+阿里巴巴+液冷+上海国资</t>
         </is>
       </c>
+      <c r="BQ5" t="inlineStr">
+        <is>
+          <t>000818.SZ; 航锦科技; 0;  09:32:03; 8天7板; 30.25;  09:32:03; 10.0%; 1; 幻方合作+算力+英伟达+国企</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="5" t="n">
@@ -2514,6 +2539,11 @@
           <t>600126.SH; 杭钢股份; 0;  09:25:01; 6天6板; 9.21;  09:25:01; 10.0%; 6; DeepSeek概念+云计算+钢铁+浙江国资</t>
         </is>
       </c>
+      <c r="BQ6" t="inlineStr">
+        <is>
+          <t>600986.SH; 浙文互联; 0;  09:39:24; 4天3板; 9.42;  09:39:24; 10.0%; 2; DeepSeek概念+营销+算力+浙江国资</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="n">
@@ -2854,6 +2884,11 @@
           <t>600633.SH; 浙数文化; 0;  09:25:02; 6天6板; 18.1;  09:25:02; 10.0%; 6; 算力租赁+AI应用+文生视频+杭州国资</t>
         </is>
       </c>
+      <c r="BQ7" t="inlineStr">
+        <is>
+          <t>600811.SH; 东方集团; 0;  09:39:47; 2天2板; 2.37;  09:39:47; 10.2%; 2; 预重整+农产品加工+跨境支付</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="5" t="n">
@@ -3194,6 +3229,11 @@
           <t>605398.SH; 新炬网络; 0;  09:30:19; 10天10板; 49.47;  09:30:19; 10.0%; 10; AI Agent+数据中心运维+华为鲲鹏</t>
         </is>
       </c>
+      <c r="BQ8" t="inlineStr">
+        <is>
+          <t>603881.SH; 数据港; 7;  10:15:18; 4天3板; 31;  09:25:03; 10.0%; 2; 数据中心+阿里巴巴+液冷+上海国资</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="n">
@@ -3534,6 +3574,11 @@
           <t>603956.SH; 威派格; 1;  09:33:10; 2天2板; 7;  09:31:43; 10.1%; 2; 公司“河图 AI” 平台已接入DeepSeek+智慧水务</t>
         </is>
       </c>
+      <c r="BQ9" t="inlineStr">
+        <is>
+          <t>000785.SZ; 居然智家; 2;  10:21:45; 4天4板; 5.06;  10:19:30; 10.0%; 4; DeepSeek概念+AI智能体+零售+华为</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="5" t="n">
@@ -3874,6 +3919,11 @@
           <t>002261.SZ; 拓维信息; 1;  09:35:57; 6天6板; 29.91;  09:34:24; 10.0%; 6; 昇腾大模型一体机+鸿蒙+信创</t>
         </is>
       </c>
+      <c r="BQ10" t="inlineStr">
+        <is>
+          <t>002418.SZ; 康盛股份; 1;  10:47:48; 2天2板; 3.77;  10:46:42; 9.9%; 2; 液冷服务器+BBU+股权转让+制冷管路</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="5" t="n">
@@ -4214,6 +4264,11 @@
           <t>000785.SZ; 居然智家; 3;  09:36:30; 3天3板; 4.6;  09:32:24; 10.0%; 3; DeepSeek概念+AI智能体+零售+华为</t>
         </is>
       </c>
+      <c r="BQ11" t="inlineStr">
+        <is>
+          <t>300344.SZ; 立方数科; 2;  11:06:27; 2天2板; 9.16;  10:21:45; 20.1%; 2; 拟间接收购云掌财经+智能软硬件+云计算</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="5" t="n">
@@ -4554,6 +4609,11 @@
           <t>000156.SZ; 华数传媒; 0;  09:41:06; 2天2板; 9.32;  09:41:06; 10.0%; 2; 电视广播+虚拟人+IP+杭州国资</t>
         </is>
       </c>
+      <c r="BQ12" t="inlineStr">
+        <is>
+          <t>600839.SH; 四川长虹; 0;  11:22:50; 5天3板; 12.95;  11:22:50; 10.0%; 1; 智能家电+云计算+华为+四川国资</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="5" t="n">
@@ -4884,6 +4944,11 @@
           <t>002881.SZ; 美格智能; 5;  09:44:57; 8天8板; 71.29;  09:31:27; 10.0%; 8; 开发DeepSeek-R1模型端侧落地应用+端侧AI</t>
         </is>
       </c>
+      <c r="BQ13" t="inlineStr">
+        <is>
+          <t>300251.SZ; 光线传媒; 4;  13:12:00; 4天4板; 28.94;  13:06:42; 20.0%; 4; 《哪吒2》票房突破94亿元</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="5" t="n">
@@ -5214,6 +5279,11 @@
           <t>600120.SH; 浙江东方; 1;  09:45:26; 7天7板; 9.03;  09:44:32; 10.0%; 7; 澄清未投资DeepSeek+多元金融+浙江国企+年报预增</t>
         </is>
       </c>
+      <c r="BQ14" t="inlineStr">
+        <is>
+          <t>002313.SZ; 日海智能; 1;  13:21:27; 3天2板; 12.02;  09:30:06; 10.0%; 1; 机器人+无线通信模组产品+数据中心+控股股东变更</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="5" t="n">
@@ -5539,6 +5609,11 @@
           <t>003029.SZ; 吉大正元; 0;  09:48:06; 3天2板; 26.68;  09:48:06; 10.0%; 1; AI智能体+网络安全+国资云+量子科技</t>
         </is>
       </c>
+      <c r="BQ15" t="inlineStr">
+        <is>
+          <t>603103.SH; 横店影视; 0;  13:27:21; 2天2板; 16.38;  13:27:21; 10.0%; 2; 影视+IP衍生品</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="5" t="n">
@@ -5844,6 +5919,11 @@
           <t>002691.SZ; 冀凯股份; 1;  09:53:06; 16天13板; 12.49;  09:30:51; 10.0%; 2; 机器人+矿山装备+3D打印</t>
         </is>
       </c>
+      <c r="BQ16" t="inlineStr">
+        <is>
+          <t>600081.SH; 东风科技; 0;  13:38:30; 4天3板; 13.97;  13:38:30; 10.0%; 1; 长安东风或重组</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="5" t="n">
@@ -6129,6 +6209,11 @@
           <t>600355.SH; 精伦电子; 0;  10:28:44; 6天4板; 4.08;  10:28:44; 10.0%; 1; 机器人+智能制造+智能电网</t>
         </is>
       </c>
+      <c r="BQ17" t="inlineStr">
+        <is>
+          <t>601116.SH; 三江购物; 4;  13:54:01; 2天2板; 12.86;  13:42:25; 10.0%; 2; 生鲜超市+阿里巴巴</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="5" t="n">
@@ -6404,6 +6489,11 @@
           <t>000158.SZ; 常山北明; 2;  10:49:06; 4天3板; 26.57;  09:42:54; 10.0%; 1; 国资云+华为昇腾+华为鲲鹏+算力租赁</t>
         </is>
       </c>
+      <c r="BQ18" t="inlineStr">
+        <is>
+          <t>002364.SZ; 中恒电气; 16;  14:34:06; 2天2板; 17.51;  09:44:45; 10.0%; 2; 阿里+字节+数据中心+电源系统</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="5" t="n">
@@ -6674,6 +6764,11 @@
           <t>002044.SZ; 美年健康; 0;  13:27:42; 4天3板; 5.76;  13:27:42; 9.9%; 1; 健康体检服务+AI医疗+AI智能体+华为</t>
         </is>
       </c>
+      <c r="BQ19" t="inlineStr">
+        <is>
+          <t>603110.SH; 东方材料; 2;  14:40:56; 7天5板; 21.66;  10:10:08; 10.0%; 2; 东方超算+DeepSeek概念+PCB电子油墨</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="5" t="n">
@@ -6919,6 +7014,11 @@
           <t>603390.SH; 通达电气; 8;  13:35:46; 5天4板; 12.76;  09:40:16; 10.0%; 1; 比亚迪+智慧交通+车联网+移动医疗</t>
         </is>
       </c>
+      <c r="BQ20" t="inlineStr">
+        <is>
+          <t>603300.SH; 海南华铁; 1;  14:44:59; 6天5板; 8.95;  13:41:05; 10.0%; 1; 回购+算力+海南国资+低空经济</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="5" t="n">
@@ -7154,6 +7254,11 @@
           <t>605488.SH; 福莱新材; 1;  13:56:37; 2天2板; 41.58;  13:43:16; 10.0%; 2; 机器人+灵巧手+柔性传感器</t>
         </is>
       </c>
+      <c r="BQ21" t="inlineStr">
+        <is>
+          <t>002691.SZ; 冀凯股份; 22;  14:50:27; 17天14板; 13.74;  09:33:51; 10.0%; 3; 机器人+矿山装备+3D打印</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="5" t="n">
@@ -7374,6 +7479,11 @@
           <t>603110.SH; 东方材料; 3;  13:56:59; 6天4板; 19.69;  13:32:35; 10.0%; 1; 东方超算+DeepSeek概念+PCB电子油墨</t>
         </is>
       </c>
+      <c r="BQ22" t="inlineStr">
+        <is>
+          <t>000681.SZ; 视觉中国; 28;  14:50:33; 2天2板; 30.57;  09:30:36; 10.0%; 2; AI智能体+DeepSeek概念+视觉版权+剪映等合作</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="5" t="n">
@@ -7582,6 +7692,11 @@
       <c r="BP23" t="inlineStr">
         <is>
           <t>000856.SZ; 冀东装备; 3;  14:09:15; 12天8板; 12.65;  14:05:57; 10.0%; 1; 机器人+水泥装备+北京国资</t>
+        </is>
+      </c>
+      <c r="BQ23" t="inlineStr">
+        <is>
+          <t>002123.SZ; 梦网科技; 1;  15:00:00; 7天7板; 20.78;  09:25:00; 10.0%; 7; DeepSeek概念+拟收购碧橙数字控制权+云通信+鸿蒙</t>
         </is>
       </c>
     </row>
@@ -11661,7 +11776,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP146"/>
+  <dimension ref="A1:BQ146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12005,6 +12120,11 @@
           <t>2025年02月12日</t>
         </is>
       </c>
+      <c r="BQ1" s="5" t="inlineStr">
+        <is>
+          <t>2025年02月13日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="5" t="n">
@@ -12320,6 +12440,11 @@
           <t>600225.SH; 退市卓朗; 1;  09:25:02; 放量跌停; 0.27; -10.0%; 1; 进入退市整理期交易</t>
         </is>
       </c>
+      <c r="BQ2" t="inlineStr">
+        <is>
+          <t>003021.SZ; 兆威机电; 1;  10:34:12; 放量跌停; 116.98; -10.0%; 1; 机器人概念股集体下挫+资金获利了结</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="n">
@@ -12623,6 +12748,11 @@
       <c r="BK3" t="inlineStr">
         <is>
           <t>000856.SZ; 冀东装备; 1;  09:25:00; 放量跌停; 11.46; -10.0%; 1; 异常波动+尚未在人形机器人领域进行布局或开展具体合作+近期涨幅较大</t>
+        </is>
+      </c>
+      <c r="BQ3" t="inlineStr">
+        <is>
+          <t>600186.SH; 莲花控股; 0;  14:56:59; 放量跌停; 7.17; -10.0%; 1; 异常波动+莲花紫星算力应用领域仍处于起步阶段</t>
         </is>
       </c>
     </row>
@@ -19722,7 +19852,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP72"/>
+  <dimension ref="A1:BQ72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20066,6 +20196,11 @@
           <t>2025年02月12日</t>
         </is>
       </c>
+      <c r="BQ1" s="5" t="inlineStr">
+        <is>
+          <t>2025年02月13日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="5" t="n">
@@ -20406,6 +20541,11 @@
           <t>300688.SZ; 创业黑马; 2;  09:25:00; 创业板; 40.1; 曾涨停; 15.1%; 0.27H;  09:25:00|| 10:05:21</t>
         </is>
       </c>
+      <c r="BQ2" t="inlineStr">
+        <is>
+          <t>002929.SZ; 润建股份; 10;  09:25:00; 主板; 50.2; 曾涨停; 6.3%; 0.76H;  09:25:00|| 09:43:36|| 13:11:09|| 13:40:03|| 13:41:42|| 13:42:39|| 14:15:21|| 14:34:33|| 14:37:21|| 14:41:39</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="n">
@@ -20746,6 +20886,11 @@
           <t>002016.SZ; 世荣兆业; 1;  09:25:00; 主板; 7.63; 曾涨停; 1.7%; 0.00H;  09:25:00</t>
         </is>
       </c>
+      <c r="BQ3" t="inlineStr">
+        <is>
+          <t>000868.SZ; 安凯客车; 1;  09:25:00; 主板; 6.83; 曾涨停; 2.4%; 0.03H;  09:25:00</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="5" t="n">
@@ -21086,6 +21231,11 @@
           <t>600658.SH; 电子城; 1;  09:25:02; 主板; 4.71; 曾涨停; 5.6%; 0.91H;  09:25:02</t>
         </is>
       </c>
+      <c r="BQ4" t="inlineStr">
+        <is>
+          <t>605398.SH; 新炬网络; 24;  09:25:02; 主板; 52.7; 曾涨停; 6.5%; 0.37H;  09:25:02|| 09:31:53|| 09:33:11|| 09:34:20|| 09:35:23|| 09:36:41|| 09:37:20|| 09:37:38|| 09:37:47|| 09:38:08|| 13:52:14|| 13:56:56|| 14:03:29|| 14:04:17|| 14:04:56|| 14:05:53|| 14:06:44|| 14:07:02|| 14:07:29|| 14:08:05|| 14:22:41|| 14:25:44|| 14:36:47|| 14:53:14</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="n">
@@ -21426,6 +21576,11 @@
           <t>002102.SZ; 能特科技; 1;  09:30:03; 主板; 2.86; 曾涨停; 6.7%; 0.26H;  09:30:03</t>
         </is>
       </c>
+      <c r="BQ5" t="inlineStr">
+        <is>
+          <t>600120.SH; 浙江东方; 1;  09:25:02; 主板; 8.69; 曾涨停; -3.8%; 0.00H;  09:25:02</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="5" t="n">
@@ -21766,6 +21921,11 @@
           <t>603130.SH; 云中马; 2;  09:30:28; 主板; 25.28; 曾涨停; 2.2%; 0.02H;  09:30:28|| 09:30:52</t>
         </is>
       </c>
+      <c r="BQ6" t="inlineStr">
+        <is>
+          <t>603666.SH; 亿嘉和; 1;  09:25:02; 主板; 35.8; 曾涨停; 3.2%; 0.01H;  09:25:02</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="n">
@@ -22106,6 +22266,11 @@
           <t>603966.SH; 法兰泰克; 1;  09:31:00; 主板; 8.53; 曾涨停; 3.5%; 0.08H;  09:31:00</t>
         </is>
       </c>
+      <c r="BQ7" t="inlineStr">
+        <is>
+          <t>600797.SH; 浙大网新; 3;  09:25:03; 主板; 9.44; 曾涨停; 5.1%; 0.23H;  09:25:03|| 09:43:33|| 09:54:42</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="5" t="n">
@@ -22446,6 +22611,11 @@
           <t>002441.SZ; 众业达; 1;  09:31:48; 主板; 9.67; 曾涨停; 2.8%; 0.00H;  09:31:48</t>
         </is>
       </c>
+      <c r="BQ8" t="inlineStr">
+        <is>
+          <t>600843.SH; 上工申贝; 1;  09:30:27; 主板; 14.04; 曾涨停; 3.8%; 3.85H;  09:30:27</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="n">
@@ -22786,6 +22956,11 @@
           <t>603206.SH; 嘉环科技; 1;  09:33:46; 主板; 18.22; 曾涨停; 4.5%; 0.38H;  09:33:46</t>
         </is>
       </c>
+      <c r="BQ9" t="inlineStr">
+        <is>
+          <t>002261.SZ; 拓维信息; 1;  09:31:42; 主板; 30.19; 曾涨停; 0.9%; 0.00H;  09:31:42</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="5" t="n">
@@ -23126,6 +23301,11 @@
           <t>603933.SH; 睿能科技; 1;  09:35:31; 主板; 17.12; 曾涨停; 2.3%; 0.01H;  09:35:31</t>
         </is>
       </c>
+      <c r="BQ10" t="inlineStr">
+        <is>
+          <t>002757.SZ; 南兴股份; 1;  09:32:54; 主板; 18.38; 曾涨停; 2.2%; 0.00H;  09:32:54</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="5" t="n">
@@ -23461,6 +23641,11 @@
           <t>601216.SH; 君正集团; 1;  09:36:52; 主板; 5.97; 曾涨停; 6.0%; 0.00H;  09:36:52</t>
         </is>
       </c>
+      <c r="BQ11" t="inlineStr">
+        <is>
+          <t>603219.SH; 富佳股份; 2;  09:40:20; 主板; 17.3; 曾涨停; 0.6%; 0.01H;  09:40:20|| 09:41:41</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="5" t="n">
@@ -23796,6 +23981,11 @@
           <t>003021.SZ; 兆威机电; 3;  10:05:21; 主板; 129.98; 曾涨停; 9.9%; 0.01H;  10:05:21|| 10:06:03|| 10:44:15</t>
         </is>
       </c>
+      <c r="BQ12" t="inlineStr">
+        <is>
+          <t>002016.SZ; 世荣兆业; 2;  09:43:09; 主板; 8.08; 曾涨停; 5.9%; 0.01H;  09:43:09|| 09:44:00</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="5" t="n">
@@ -24121,6 +24311,11 @@
           <t>603950.SH; 长源东谷; 1;  10:11:01; 主板; 21.48; 曾涨停; 5.3%; 0.00H;  10:11:01</t>
         </is>
       </c>
+      <c r="BQ13" t="inlineStr">
+        <is>
+          <t>002153.SZ; 石基信息; 4;  09:59:00; 主板; 8.95; 曾涨停; 5.9%; 0.02H;  09:59:00|| 09:59:27|| 10:01:36|| 10:03:06</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="5" t="n">
@@ -24446,6 +24641,11 @@
           <t>002135.SZ; 东南网架; 6;  10:12:18; 主板; 4.67; 曾涨停; 5.4%; 0.01H;  10:12:18|| 10:13:48|| 10:14:09|| 10:14:27|| 10:14:48|| 10:15:00</t>
         </is>
       </c>
+      <c r="BQ14" t="inlineStr">
+        <is>
+          <t>603990.SH; 麦迪科技; 1;  10:15:57; 主板; 13.39; 曾涨停; 5.0%; 0.01H;  10:15:57</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="5" t="n">
@@ -24771,6 +24971,11 @@
           <t>600996.SH; 贵广网络; 1;  10:21:11; 主板; 9.87; 曾涨停; 8.7%; 1.11H;  10:21:11</t>
         </is>
       </c>
+      <c r="BQ15" t="inlineStr">
+        <is>
+          <t>600173.SH; 卧龙地产; 10;  10:24:10; 主板; 5.65; 曾涨停; 6.6%; 0.35H;  10:24:10|| 10:25:43|| 11:16:13|| 13:00:10|| 13:04:40|| 13:53:19|| 13:53:37|| 13:54:10|| 13:54:34|| 13:55:40</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="5" t="n">
@@ -25091,6 +25296,11 @@
           <t>000042.SZ; 中洲控股; 1;  10:24:18; 主板; 6.13; 曾涨停; 8.3%; 0.00H;  10:24:18</t>
         </is>
       </c>
+      <c r="BQ16" t="inlineStr">
+        <is>
+          <t>300846.SZ; 首都在线; 1;  11:01:51; 创业板; 26.26; 曾涨停; 14.2%; 0.03H;  11:01:51</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="5" t="n">
@@ -25401,6 +25611,11 @@
           <t>002886.SZ; 沃特股份; 1;  10:24:33; 主板; 18.74; 曾涨停; 5.3%; 0.00H;  10:24:33</t>
         </is>
       </c>
+      <c r="BQ17" t="inlineStr">
+        <is>
+          <t>603800.SH; 洪田股份; 1;  11:29:48; 主板; 27.42; 曾涨停; 4.5%; 0.05H;  11:29:48</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="5" t="n">
@@ -25706,6 +25921,11 @@
           <t>600588.SH; 用友网络; 1;  10:25:48; 主板; 15.82; 曾涨停; 6.3%; 1.03H;  10:25:48</t>
         </is>
       </c>
+      <c r="BQ18" t="inlineStr">
+        <is>
+          <t>002369.SZ; 卓翼科技; 1;  13:01:21; 主板; 8.54; 曾涨停; 5.4%; 1.49H;  13:01:21</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="5" t="n">
@@ -26011,6 +26231,11 @@
           <t>002649.SZ; 博彦科技; 3;  10:33:54; 主板; 15.4; 曾涨停; 10.0%; 1.84H;  10:33:54|| 13:07:39|| 14:54:00</t>
         </is>
       </c>
+      <c r="BQ19" t="inlineStr">
+        <is>
+          <t>600977.SH; 中国电影; 2;  13:01:49; 主板; 12.51; 曾涨停; 9.5%; 1.64H;  13:01:49|| 13:15:46</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="5" t="n">
@@ -26296,6 +26521,11 @@
           <t>603327.SH; 福蓉科技; 1;  10:34:58; 主板; 13.59; 曾涨停; 6.0%; 0.04H;  10:34:58</t>
         </is>
       </c>
+      <c r="BQ20" t="inlineStr">
+        <is>
+          <t>603319.SH; 湘油泵; 1;  13:02:28; 主板; 31.72; 曾涨停; 5.9%; 1.54H;  13:02:28</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="5" t="n">
@@ -26581,6 +26811,11 @@
           <t>002195.SZ; 岩山科技; 1;  13:12:24; 主板; 5.27; 曾涨停; 8.0%; 0.02H;  13:12:24</t>
         </is>
       </c>
+      <c r="BQ21" t="inlineStr">
+        <is>
+          <t>000564.SZ; 供销大集; 1;  13:07:15; 主板; 3.25; 曾涨停; 6.9%; 0.08H;  13:07:15</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="5" t="n">
@@ -26856,6 +27091,11 @@
           <t>002765.SZ; 蓝黛科技; 1;  14:16:03; 主板; 11.3; 曾涨停; 6.7%; 0.26H;  14:16:03</t>
         </is>
       </c>
+      <c r="BQ22" t="inlineStr">
+        <is>
+          <t>002112.SZ; 三变科技; 2;  13:23:03; 主板; 14.45; 曾涨停; 4.1%; 0.01H;  13:23:03|| 13:24:00</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="5" t="n">
@@ -27106,6 +27346,11 @@
           <t>002466.SZ; 天齐锂业; 2;  14:20:18; 主板; 33.86; 曾涨停; 7.7%; 0.02H;  14:20:18|| 14:22:48</t>
         </is>
       </c>
+      <c r="BQ23" t="inlineStr">
+        <is>
+          <t>603887.SH; 城地香江; 2;  13:35:57; 主板; 17.97; 曾涨停; 5.3%; 0.49H;  13:35:57|| 14:07:09</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="5" t="n">
@@ -27346,6 +27591,11 @@
           <t>002400.SZ; 省广集团; 2;  14:05:31; 主板; 9.78; 曾涨停; -0.5%; 0.75H;  14:05:31|| 14:51:02</t>
         </is>
       </c>
+      <c r="BQ24" t="inlineStr">
+        <is>
+          <t>000034.SZ; 神州数码; 1;  13:40:12; 主板; 48.13; 曾涨停; 7.1%; 0.80H;  13:40:12</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="5" t="n">
@@ -27581,6 +27831,11 @@
           <t>002291.SZ; 遥望科技; 1;  14:13:31; 主板; 7.26; 曾涨停; -1.8%; 0.05H;  14:13:31</t>
         </is>
       </c>
+      <c r="BQ25" t="inlineStr">
+        <is>
+          <t>600498.SH; 烽火通信; 1;  14:03:23; 主板; 22.97; 曾涨停; 6.0%; 0.31H;  14:03:23</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="5" t="n">
@@ -27801,6 +28056,11 @@
           <t>002593.SZ; 日上集团; 2;  14:33:48; 主板; 5.72; 曾涨停; 1.4%; 0.02H;  14:33:48|| 14:36:48</t>
         </is>
       </c>
+      <c r="BQ26" t="inlineStr">
+        <is>
+          <t>600193.SH; 创兴资源; 3;  14:07:47; 主板; 4.07; 曾涨停; 5.7%; 0.09H;  14:07:47|| 14:09:35|| 14:11:08</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="5" t="n">
@@ -28016,6 +28276,11 @@
           <t>002115.SZ; 三维通信; 3;  14:44:49; 主板; 8.03; 曾涨停; -2.0%; 0.09H;  14:44:49|| 14:47:27|| 14:53:08</t>
         </is>
       </c>
+      <c r="BQ27" t="inlineStr">
+        <is>
+          <t>601162.SH; 天风证券; 1;  14:11:12; 主板; 5.01; 曾涨停; 5.0%; 0.14H;  14:11:12</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="5" t="n">
@@ -28216,6 +28481,11 @@
           <t>603666.SH; 亿嘉和; 1;  14:51:02; 主板; 34.69; 曾涨停; 10.0%; 0.01H;  14:51:02</t>
         </is>
       </c>
+      <c r="BQ28" t="inlineStr">
+        <is>
+          <t>603955.SH; 大千生态; 1;  14:13:51; 主板; 21.41; 曾涨停; 6.5%; 0.02H;  14:13:51</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="5" t="n">
@@ -28411,6 +28681,11 @@
           <t>000503.SZ; 国新健康; 1;  13:00:03; 主板; 11.5; 曾涨停; 6.2%; 1.09H;  13:00:03</t>
         </is>
       </c>
+      <c r="BQ29" t="inlineStr">
+        <is>
+          <t>000686.SZ; 东北证券; 1;  14:14:51; 主板; 8.48; 曾涨停; 5.1%; 0.01H;  14:14:51</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="5" t="n">
@@ -28599,6 +28874,11 @@
       <c r="BM30" t="inlineStr">
         <is>
           <t>600609.SH; 金杯汽车; 1;  13:00:30; 主板; 7.49; 曾涨停; 8.7%; 0.08H;  13:00:30</t>
+        </is>
+      </c>
+      <c r="BQ30" t="inlineStr">
+        <is>
+          <t>601216.SH; 君正集团; 1;  14:16:37; 主板; 6.42; 曾涨停; 7.5%; 0.15H;  14:16:37</t>
         </is>
       </c>
     </row>
@@ -31288,7 +31568,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP128"/>
+  <dimension ref="A1:BQ128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31632,6 +31912,11 @@
           <t>2025年02月12日</t>
         </is>
       </c>
+      <c r="BQ1" s="5" t="inlineStr">
+        <is>
+          <t>2025年02月13日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="5" t="n">
@@ -31972,6 +32257,11 @@
           <t>603666.SH; 亿嘉和; 0;  09:25:02; 首板涨停; 34.69;  09:25:02; 10.0%; 1; 人形机器人+多模态AI+低空经济</t>
         </is>
       </c>
+      <c r="BQ2" t="inlineStr">
+        <is>
+          <t>000702.SZ; 正虹科技; 0;  09:30:57; 首板涨停; 7.99;  09:30:57; 10.1%; 1; 猪肉+国企</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="n">
@@ -32312,6 +32602,11 @@
           <t>002364.SZ; 中恒电气; 0;  09:30:00; 首板涨停; 15.92;  09:30:00; 10.0%; 1; 阿里+字节+数据中心+电源系统</t>
         </is>
       </c>
+      <c r="BQ3" t="inlineStr">
+        <is>
+          <t>002883.SZ; 中设股份; 0;  09:31:24; 首板涨停; 12.12;  09:31:24; 10.0%; 1; 低空经济+车联网+工程设计+国企</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="5" t="n">
@@ -32652,6 +32947,11 @@
           <t>002153.SZ; 石基信息; 0;  09:30:06; 首板涨停; 8.45;  09:30:06; 10.0%; 1; 阿里合作+Saas服务+人工智能+全资子公司签合同</t>
         </is>
       </c>
+      <c r="BQ4" t="inlineStr">
+        <is>
+          <t>603682.SH; 锦和商管; 0;  09:31:56; 首板涨停; 5.98;  09:31:56; 9.9%; 1; 新型城镇化+物业管理+IP合作</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="n">
@@ -32992,6 +33292,11 @@
           <t>601177.SH; 杭齿前进; 0;  09:31:05; 首板涨停; 10.2;  09:31:05; 10.0%; 1; 人形机器人+杭州国资+齿轮传动+减速器</t>
         </is>
       </c>
+      <c r="BQ5" t="inlineStr">
+        <is>
+          <t>301238.SZ; 瑞泰新材; 0;  09:42:18; 首板涨停; 18.84;  09:42:18; 20.0%; 1; 固态电池+锂电池+国企</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="5" t="n">
@@ -33332,6 +33637,11 @@
           <t>600590.SH; 泰豪科技; 0;  09:31:17; 首板涨停; 5.49;  09:31:17; 10.0%; 1; 数据中心发电机+机器狗+军工+混改/重组经验丰富</t>
         </is>
       </c>
+      <c r="BQ6" t="inlineStr">
+        <is>
+          <t>605298.SH; 必得科技; 0;  09:44:40; 首板涨停; 13.37;  09:44:40; 10.0%; 1; 高铁+轨交设备+专精特新</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="n">
@@ -33672,6 +33982,11 @@
           <t>002272.SZ; 川润股份; 0;  09:32:06; 首板涨停; 9.9;  09:32:06; 10.0%; 1; 液冷服务器+华为+风电</t>
         </is>
       </c>
+      <c r="BQ7" t="inlineStr">
+        <is>
+          <t>002269.SZ; 美邦服饰; 0;  09:45:12; 首板涨停; 2.35;  09:45:12; 9.8%; 1; 服装+电商+IP经济+低价股</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="5" t="n">
@@ -34012,6 +34327,11 @@
           <t>600187.SH; 国中水务; 0;  09:33:09; 首板涨停; 3.43;  09:33:09; 9.9%; 1; 出售污水处理业务+拟控股北京汇源</t>
         </is>
       </c>
+      <c r="BQ8" t="inlineStr">
+        <is>
+          <t>600696.SH; 岩石股份; 2;  09:46:01; 首板涨停; 11.15;  09:40:01; 10.0%; 1; 白酒+电子商务</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="n">
@@ -34352,6 +34672,11 @@
           <t>002811.SZ; 郑中设计; 0;  09:37:30; 首板涨停; 10.73;  09:37:30; 10.1%; 1; AI设计+IP+室内设计+小红书</t>
         </is>
       </c>
+      <c r="BQ9" t="inlineStr">
+        <is>
+          <t>300530.SZ; 领湃科技; 0;  09:51:57; 首板涨停; 20.4;  09:51:57; 20.0%; 1; 固态电池+充电桩+湖南国资</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="5" t="n">
@@ -34692,6 +35017,11 @@
           <t>603103.SH; 横店影视; 0;  09:39:36; 首板涨停; 14.89;  09:39:36; 10.0%; 1; 影视+IP衍生品</t>
         </is>
       </c>
+      <c r="BQ10" t="inlineStr">
+        <is>
+          <t>603278.SH; 大业股份; 2;  09:52:00; 首板涨停; 11.06;  09:30:24; 10.0%; 1; 灵巧手+轮胎+拟投建摩洛哥生产基地</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="5" t="n">
@@ -35032,6 +35362,11 @@
           <t>000880.SZ; 潍柴重机; 0;  09:41:57; 首板涨停; 21.76;  09:41:57; 10.0%; 1; 数据中心发电机+柴油机零部件+国企</t>
         </is>
       </c>
+      <c r="BQ11" t="inlineStr">
+        <is>
+          <t>603477.SH; 巨星农牧; 1;  09:52:19; 首板涨停; 17.92;  09:45:01; 10.0%; 1; 1月销量同比增长+生猪+饲料+皮革</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="5" t="n">
@@ -35372,6 +35707,11 @@
           <t>600182.SH; S佳通; 0;  09:42:52; 首板涨停; 16.74;  09:42:52; 5.0%; 1; 轮胎+股改</t>
         </is>
       </c>
+      <c r="BQ12" t="inlineStr">
+        <is>
+          <t>600868.SH; 梅雁吉祥; 1;  09:59:37; 首板涨停; 3.05;  09:53:13; 10.1%; 1; 氢能源+绿色电力+飞轮储能+锑+回购增持再贷款</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="5" t="n">
@@ -35712,6 +36052,11 @@
           <t>603117.SH; 万林物流; 0;  09:44:15; 首板涨停; 6.18;  09:44:15; 10.0%; 1; 资产注入预期+物流</t>
         </is>
       </c>
+      <c r="BQ13" t="inlineStr">
+        <is>
+          <t>300071.SZ; 福石控股; 2;  10:01:15; 首板涨停; 7.88;  09:55:03; 19.9%; 1; AI营销+DeepSeek概念+实控人增持</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="5" t="n">
@@ -36052,6 +36397,11 @@
           <t>300491.SZ; 通合科技; 0;  09:46:33; 首板涨停; 20.02;  09:46:33; 20.0%; 1; 智能电网+电源管理+充电桩</t>
         </is>
       </c>
+      <c r="BQ14" t="inlineStr">
+        <is>
+          <t>601789.SH; 宁波建工; 0;  10:03:24; 首板涨停; 5.47;  10:03:24; 10.1%; 1; 参股中经云+拟收购宁波交工100%股权+工程施工+宁波国资</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="5" t="n">
@@ -36387,6 +36737,11 @@
           <t>003016.SZ; 欣贺股份; 0;  09:49:18; 首板涨停; 8.05;  09:49:18; 10.0%; 1; 女装+腾讯合作+电商+小红书直播</t>
         </is>
       </c>
+      <c r="BQ15" t="inlineStr">
+        <is>
+          <t>600658.SH; 电子城; 0;  10:21:11; 首板涨停; 5.18;  10:21:11; 10.0%; 1; 云计算+创投+房地产+北京国资</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="5" t="n">
@@ -36722,6 +37077,11 @@
           <t>300249.SZ; 依米康; 0;  09:50:30; 首板涨停; 16.04;  09:50:30; 20.0%; 1; 液冷服务器+算力+数据中心</t>
         </is>
       </c>
+      <c r="BQ16" t="inlineStr">
+        <is>
+          <t>605296.SH; 神农集团; 0;  10:21:33; 首板涨停; 27.56;  10:21:33; 10.0%; 1; 猪肉+预制菜</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="5" t="n">
@@ -37052,6 +37412,11 @@
           <t>603010.SH; 万盛股份; 1;  09:50:48; 首板涨停; 11.02;  09:30:54; 10.0%; 1; 阻燃剂+比亚迪+并购重组+复星系</t>
         </is>
       </c>
+      <c r="BQ17" t="inlineStr">
+        <is>
+          <t>600503.SH; 华丽家族; 0;  10:23:53; 首板涨停; 2.92;  10:23:53; 10.2%; 1; 房地产+机器人+石墨烯</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="5" t="n">
@@ -37382,6 +37747,11 @@
           <t>002418.SZ; 康盛股份; 0;  09:53:00; 首板涨停; 3.43;  09:53:00; 9.9%; 1; 液冷服务器+BBU+股权转让+制冷管路</t>
         </is>
       </c>
+      <c r="BQ18" t="inlineStr">
+        <is>
+          <t>603636.SH; 南威软件; 0;  10:47:43; 首板涨停; 16.61;  10:47:43; 10.0%; 1; DeepSeek概念+AI智能体+华为昇腾+数字政府</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="5" t="n">
@@ -37707,6 +38077,11 @@
           <t>603657.SH; 春光科技; 0;  10:01:53; 首板涨停; 15.81;  10:01:53; 10.0%; 1; 机器人+家用电器+小米概念</t>
         </is>
       </c>
+      <c r="BQ19" t="inlineStr">
+        <is>
+          <t>603918.SH; 金桥信息; 0;  10:57:04; 首板涨停; 18.99;  10:57:04; 10.0%; 1; 智慧法院+蚂蚁+化债(AMC概念）</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="5" t="n">
@@ -38032,6 +38407,11 @@
           <t>603612.SH; 索通发展; 0;  10:03:40; 首板涨停; 18.57;  10:03:40; 10.0%; 1; 无人驾驶+锂电池+预焙阳极</t>
         </is>
       </c>
+      <c r="BQ20" t="inlineStr">
+        <is>
+          <t>002693.SZ; 双成药业; 8;  11:11:30; 首板涨停; 17.38;  10:42:39; 10.0%; 1; 拟收购宁波奥拉半导体+多肽药</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="5" t="n">
@@ -38357,6 +38737,11 @@
           <t>600405.SH; 动力源; 1;  10:13:34; 首板涨停; 5.56;  10:11:28; 10.1%; 1; AI服务器电源+液冷充电桩+华为</t>
         </is>
       </c>
+      <c r="BQ21" t="inlineStr">
+        <is>
+          <t>600340.SH; 华夏幸福; 0;  11:15:02; 首板涨停; 2.83;  11:15:02; 10.1%; 1; 房地产+低空经济+债务重组</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="5" t="n">
@@ -38682,6 +39067,11 @@
           <t>600811.SH; 东方集团; 0;  10:25:41; 首板涨停; 2.15;  10:25:41; 10.3%; 1; 预重整+农产品加工+跨境支付</t>
         </is>
       </c>
+      <c r="BQ22" t="inlineStr">
+        <is>
+          <t>000892.SZ; 欢瑞世纪; 1;  11:15:39; 首板涨停; 3.93;  10:40:39; 10.1%; 1; 影视剧+IP经济+直播带货+短剧</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="5" t="n">
@@ -39002,6 +39392,11 @@
           <t>300258.SZ; 精锻科技; 0;  10:39:27; 首板涨停; 11.58;  10:39:27; 20.0%; 1; 汽车零部件+人形机器人+比亚迪概念+泰国工厂</t>
         </is>
       </c>
+      <c r="BQ23" t="inlineStr">
+        <is>
+          <t>001330.SZ; 博纳影业; 0;  11:20:45; 首板涨停; 6.02;  11:20:45; 10.1%; 1; 影视院线+阿里巴巴+AIGC</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="5" t="n">
@@ -39317,6 +39712,11 @@
           <t>000681.SZ; 视觉中国; 1;  10:43:09; 首板涨停; 27.79;  10:00:18; 10.0%; 1; DeepSeek概念+AI智能体+视觉版权+剪映等合作</t>
         </is>
       </c>
+      <c r="BQ24" t="inlineStr">
+        <is>
+          <t>300816.SZ; 艾可蓝; 0;  11:21:36; 首板涨停; 31.66;  11:21:36; 20.0%; 1; 参股云计算公司+DeepSeek概念+发动机尾气后处理+氢能源</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="5" t="n">
@@ -39632,6 +40032,11 @@
           <t>002855.SZ; 捷荣技术; 0;  10:47:03; 首板涨停; 21.63;  10:47:03; 10.0%; 1; 消费电子+华为+新能源</t>
         </is>
       </c>
+      <c r="BQ25" t="inlineStr">
+        <is>
+          <t>603095.SH; 越剑智能; 0;  11:29:21; 首板涨停; 26.11;  11:29:21; 10.0%; 1; 机器人+华为+智能制造+创投</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="5" t="n">
@@ -39942,6 +40347,11 @@
           <t>600843.SH; 上工申贝; 1;  11:29:44; 首板涨停; 13.53;  09:48:35; 10.0%; 1; 机器人概念+碳纤维运动飞机+缝纫设备</t>
         </is>
       </c>
+      <c r="BQ26" t="inlineStr">
+        <is>
+          <t>603815.SH; 交建股份; 0;  13:02:41; 首板涨停; 6.96;  13:02:41; 10.0%; 1; 基建+新型城镇化+设合资公司</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="5" t="n">
@@ -40247,6 +40657,11 @@
           <t>600172.SH; 黄河旋风; 1;  11:29:55; 首板涨停; 4.48;  10:48:49; 10.1%; 1; 培育钻石+超高压合成装备+国企+增持</t>
         </is>
       </c>
+      <c r="BQ27" t="inlineStr">
+        <is>
+          <t>002238.SZ; 天威视讯; 0;  13:17:21; 首板涨停; 9.37;  13:17:21; 10.0%; 1; 短剧+数字电视+数据中心+深圳国资</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="5" t="n">
@@ -40547,6 +40962,11 @@
           <t>601116.SH; 三江购物; 0;  13:01:31; 首板涨停; 11.69;  13:01:31; 10.0%; 1; 生鲜超市+阿里巴巴</t>
         </is>
       </c>
+      <c r="BQ28" t="inlineStr">
+        <is>
+          <t>600439.SH; 瑞贝卡; 0;  13:18:59; 首板涨停; 3.89;  13:18:59; 9.9%; 1; 资产注入预期+华为昇腾+假发+外销</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="5" t="n">
@@ -40837,6 +41257,11 @@
           <t>605336.SH; 帅丰电器; 0;  13:05:06; 首板涨停; 15.24;  13:05:06; 10.0%; 1; 智能厨房电器+电商+高股息</t>
         </is>
       </c>
+      <c r="BQ29" t="inlineStr">
+        <is>
+          <t>002307.SZ; 北新路桥; 2;  13:27:00; 首板涨停; 4.05;  09:49:00; 10.1%; 1; 新疆国资+基建+高速公路</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="5" t="n">
@@ -41122,6 +41547,11 @@
           <t>002639.SZ; 雪人股份; 0;  13:15:15; 首板涨停; 7.71;  13:15:15; 10.0%; 1; 冰雪产业+数据中心+氢能源</t>
         </is>
       </c>
+      <c r="BQ30" t="inlineStr">
+        <is>
+          <t>301396.SZ; 宏景科技; 4;  13:41:48; 首板涨停; 37.92;  13:00:48; 20.0%; 1; AI智能体+算力+智慧城市</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="5" t="n">
@@ -41402,6 +41832,11 @@
           <t>600516.SH; 方大炭素; 0;  13:17:01; 首板涨停; 5.13;  13:17:01; 10.1%; 1; 石墨电极+核电+锂电池+方大系</t>
         </is>
       </c>
+      <c r="BQ31" t="inlineStr">
+        <is>
+          <t>000833.SZ; 粤桂股份; 6;  13:49:00; 首板涨停; 14.05;  09:46:00; 10.0%; 1; 锂电池+硫铁矿+光伏+广东国资</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="5" t="n">
@@ -41682,6 +42117,11 @@
           <t>603219.SH; 富佳股份; 0;  13:21:17; 首板涨停; 17.2;  13:21:17; 10.0%; 1; 机器人+吸尘器+外销</t>
         </is>
       </c>
+      <c r="BQ32" t="inlineStr">
+        <is>
+          <t>002717.SZ; 岭南股份; 0;  13:57:42; 首板涨停; 3.85;  13:57:42; 10.0%; 1; 影视IP+营销+腾讯+抖音+国企</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="5" t="n">
@@ -41957,6 +42397,11 @@
           <t>000887.SZ; 中鼎股份; 7;  13:32:18; 首板涨停; 17.28;  09:53:36; 10.0%; 1; 机器人+液冷服务器+磁流变减震器+飞行汽车</t>
         </is>
       </c>
+      <c r="BQ33" t="inlineStr">
+        <is>
+          <t>002694.SZ; 顾地科技; 0;  14:06:06; 首板涨停; 4.86;  14:06:06; 10.0%; 1; 地下管网+水利+新型城镇化+旅游</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="5" t="n">
@@ -42227,6 +42672,11 @@
           <t>601727.SH; 上海电气; 2;  13:41:33; 首板涨停; 8.56;  10:25:30; 10.0%; 1; 电力设备+智能电网+人形机器人+上海国资</t>
         </is>
       </c>
+      <c r="BQ34" t="inlineStr">
+        <is>
+          <t>002649.SZ; 博彦科技; 1;  14:09:27; 首板涨停; 16.94;  13:11:03; 10.0%; 2; 金融信创+阿里等大模型厂商合作+鸿蒙</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="5" t="n">
@@ -42497,6 +42947,11 @@
           <t>603501.SH; 韦尔股份; 3;  13:57:58; 首板涨停; 135.3;  13:42:46; 10.0%; 1; 受益于比亚迪自动驾驶+图像传感器</t>
         </is>
       </c>
+      <c r="BQ35" t="inlineStr">
+        <is>
+          <t>603086.SH; 先达股份; 0;  14:36:51; 首板涨停; 4.91;  14:36:51; 10.1%; 1; 农药+生态农业+大豆</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="5" t="n">
@@ -42762,6 +43217,11 @@
           <t>600386.SH; 北巴传媒; 0;  13:59:57; 首板涨停; 4.92;  13:59:57; 10.1%; 1; 公交广告媒体+汽车拆解+北京国资</t>
         </is>
       </c>
+      <c r="BQ36" t="inlineStr">
+        <is>
+          <t>002739.SZ; 万达电影; 6;  14:40:30; 首板涨停; 13.65;  13:01:15; 10.0%; 1; 电影+IP经济</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="5" t="n">
@@ -43027,6 +43487,11 @@
           <t>600611.SH; 大众交通; 1;  14:10:01; 首板涨停; 7.41;  13:47:16; 9.9%; 1; 网约车+交通运输+持股国泰君安</t>
         </is>
       </c>
+      <c r="BQ37" t="inlineStr">
+        <is>
+          <t>000838.SZ; 财信发展; 0;  14:41:54; 首板涨停; 2.81;  14:41:54; 10.2%; 1; 房地产+破产重整申请+重庆+环保</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="5" t="n">
@@ -43287,6 +43752,11 @@
           <t>000595.SZ; 宝塔实业; 0;  14:10:51; 首板涨停; 6.4;  14:10:51; 10.0%; 1; 子公司恢复采购活动+机器人+拟购新能源资产+宁夏国资</t>
         </is>
       </c>
+      <c r="BQ38" t="inlineStr">
+        <is>
+          <t>002761.SZ; 浙江建投; 0;  14:46:54; 首板涨停; 9.81;  14:46:54; 10.0%; 1; 大基建+一带一路+浙江国资</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="5" t="n">
@@ -43542,6 +44012,11 @@
           <t>600650.SH; 锦江在线; 1;  14:15:59; 首板涨停; 16.4;  13:54:13; 10.0%; 1; 无人出租车+上海国资+持股国泰君安</t>
         </is>
       </c>
+      <c r="BQ39" t="inlineStr">
+        <is>
+          <t>300027.SZ; 华谊兄弟; 6;  14:51:33; 首板涨停; 3.5;  13:28:09; 19.9%; 1; 影视+IP运营+短剧</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="5" t="n">
@@ -43787,6 +44262,11 @@
           <t>601231.SH; 环旭电子; 3;  14:22:53; 首板涨停; 17.46;  14:20:23; 10.0%; 1; AI终端+消费电子</t>
         </is>
       </c>
+      <c r="BQ40" t="inlineStr">
+        <is>
+          <t>601599.SH; 浙文影业; 1;  14:52:57; 首板涨停; 4.49;  10:06:51; 10.0%; 1; 影视院线+资产注入预期+浙江国资</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="5" t="n">
@@ -44030,6 +44510,11 @@
       <c r="BP41" t="inlineStr">
         <is>
           <t>600845.SH; 宝信软件; 1;  14:23:32; 首板涨停; 33.69;  13:21:20; 10.0%; 1; 工业软件+数据中心+人工智能+国企</t>
+        </is>
+      </c>
+      <c r="BQ41" t="inlineStr">
+        <is>
+          <t>600588.SH; 用友网络; 1;  14:56:00; 首板涨停; 17.4;  09:50:06; 10.0%; 1; 云计算+DeepSeek概念+ERP龙头+AI智能体</t>
         </is>
       </c>
     </row>
@@ -50369,7 +50854,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP50"/>
+  <dimension ref="A1:BQ50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50713,6 +51198,11 @@
           <t>2025年02月12日</t>
         </is>
       </c>
+      <c r="BQ1" s="5" t="inlineStr">
+        <is>
+          <t>2025年02月13日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="5" t="n">
@@ -51049,6 +51539,11 @@
           <t>603110.SH; 东方材料; 4.0%; 14.5%; 19.69; 10.0%; 价升量涨||强中选强||阳线</t>
         </is>
       </c>
+      <c r="BQ2" t="inlineStr">
+        <is>
+          <t>600658.SH; 电子城; 3.4%; 13.8%; 5.18; 10.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="n">
@@ -51385,6 +51880,11 @@
           <t>603390.SH; 通达电气; 2.8%; 13.1%; 12.76; 10.0%; 价升量涨||强中选强||阳线</t>
         </is>
       </c>
+      <c r="BQ3" t="inlineStr">
+        <is>
+          <t>600588.SH; 用友网络; 2.1%; 12.4%; 17.4; 10.0%; 阳线||放量||价升量缩</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="5" t="n">
@@ -51697,6 +52197,11 @@
           <t>300170.SZ; 汉得信息; 1.2%; 21.4%; 25.22; 20.0%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="BQ4" t="inlineStr">
+        <is>
+          <t>300027.SZ; 华谊兄弟; 2.1%; 22.4%; 3.5; 19.9%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="n">
@@ -51997,6 +52502,7 @@
           <t>300829.SZ; 金丹科技; 0.3%; 13.5%; 18.32; 13.2%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="BQ5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="5" t="n">
@@ -52285,6 +52791,7 @@
           <t>301255.SZ; 通力科技; 0.2%; 12.3%; 38.49; 12.1%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="BQ6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="5" t="n">
@@ -52557,6 +53064,7 @@
           <t>300782.SZ; 卓胜微; 0.0%; 16.2%; 96.38; 16.2%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="BQ7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="5" t="n">
@@ -52813,6 +53321,7 @@
         </is>
       </c>
       <c r="BP8" t="inlineStr"/>
+      <c r="BQ8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="5" t="n">
@@ -53053,6 +53562,7 @@
         </is>
       </c>
       <c r="BP9" t="inlineStr"/>
+      <c r="BQ9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="5" t="n">
@@ -53269,6 +53779,7 @@
         </is>
       </c>
       <c r="BP10" t="inlineStr"/>
+      <c r="BQ10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="5" t="n">
@@ -53469,6 +53980,7 @@
       <c r="BN11" t="inlineStr"/>
       <c r="BO11" t="inlineStr"/>
       <c r="BP11" t="inlineStr"/>
+      <c r="BQ11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="5" t="n">
@@ -53641,6 +54153,7 @@
       <c r="BN12" t="inlineStr"/>
       <c r="BO12" t="inlineStr"/>
       <c r="BP12" t="inlineStr"/>
+      <c r="BQ12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="5" t="n">
@@ -53797,6 +54310,7 @@
       <c r="BN13" t="inlineStr"/>
       <c r="BO13" t="inlineStr"/>
       <c r="BP13" t="inlineStr"/>
+      <c r="BQ13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="5" t="n">
@@ -53949,6 +54463,7 @@
       <c r="BN14" t="inlineStr"/>
       <c r="BO14" t="inlineStr"/>
       <c r="BP14" t="inlineStr"/>
+      <c r="BQ14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="5" t="n">
@@ -54093,6 +54608,7 @@
       <c r="BN15" t="inlineStr"/>
       <c r="BO15" t="inlineStr"/>
       <c r="BP15" t="inlineStr"/>
+      <c r="BQ15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="5" t="n">
@@ -54233,6 +54749,7 @@
       <c r="BN16" t="inlineStr"/>
       <c r="BO16" t="inlineStr"/>
       <c r="BP16" t="inlineStr"/>
+      <c r="BQ16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="5" t="n">
@@ -54365,6 +54882,7 @@
       <c r="BN17" t="inlineStr"/>
       <c r="BO17" t="inlineStr"/>
       <c r="BP17" t="inlineStr"/>
+      <c r="BQ17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="5" t="n">
@@ -54493,6 +55011,7 @@
       <c r="BN18" t="inlineStr"/>
       <c r="BO18" t="inlineStr"/>
       <c r="BP18" t="inlineStr"/>
+      <c r="BQ18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="5" t="n">
@@ -54613,6 +55132,7 @@
       <c r="BN19" t="inlineStr"/>
       <c r="BO19" t="inlineStr"/>
       <c r="BP19" t="inlineStr"/>
+      <c r="BQ19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="5" t="n">
@@ -54733,6 +55253,7 @@
       <c r="BN20" t="inlineStr"/>
       <c r="BO20" t="inlineStr"/>
       <c r="BP20" t="inlineStr"/>
+      <c r="BQ20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="5" t="n">
@@ -54853,6 +55374,7 @@
       <c r="BN21" t="inlineStr"/>
       <c r="BO21" t="inlineStr"/>
       <c r="BP21" t="inlineStr"/>
+      <c r="BQ21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="5" t="n">
@@ -54965,6 +55487,7 @@
       <c r="BN22" t="inlineStr"/>
       <c r="BO22" t="inlineStr"/>
       <c r="BP22" t="inlineStr"/>
+      <c r="BQ22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="5" t="n">
@@ -55073,6 +55596,7 @@
       <c r="BN23" t="inlineStr"/>
       <c r="BO23" t="inlineStr"/>
       <c r="BP23" t="inlineStr"/>
+      <c r="BQ23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="5" t="n">
@@ -55177,6 +55701,7 @@
       <c r="BN24" t="inlineStr"/>
       <c r="BO24" t="inlineStr"/>
       <c r="BP24" t="inlineStr"/>
+      <c r="BQ24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="5" t="n">
@@ -55277,6 +55802,7 @@
       <c r="BN25" t="inlineStr"/>
       <c r="BO25" t="inlineStr"/>
       <c r="BP25" t="inlineStr"/>
+      <c r="BQ25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="5" t="n">
@@ -55369,6 +55895,7 @@
       <c r="BN26" t="inlineStr"/>
       <c r="BO26" t="inlineStr"/>
       <c r="BP26" t="inlineStr"/>
+      <c r="BQ26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="5" t="n">
@@ -55461,6 +55988,7 @@
       <c r="BN27" t="inlineStr"/>
       <c r="BO27" t="inlineStr"/>
       <c r="BP27" t="inlineStr"/>
+      <c r="BQ27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="5" t="n">
@@ -55553,6 +56081,7 @@
       <c r="BN28" t="inlineStr"/>
       <c r="BO28" t="inlineStr"/>
       <c r="BP28" t="inlineStr"/>
+      <c r="BQ28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="5" t="n">
@@ -55645,6 +56174,7 @@
       <c r="BN29" t="inlineStr"/>
       <c r="BO29" t="inlineStr"/>
       <c r="BP29" t="inlineStr"/>
+      <c r="BQ29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="5" t="n">
@@ -55733,6 +56263,7 @@
       <c r="BN30" t="inlineStr"/>
       <c r="BO30" t="inlineStr"/>
       <c r="BP30" t="inlineStr"/>
+      <c r="BQ30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="5" t="n">
@@ -55821,6 +56352,7 @@
       <c r="BN31" t="inlineStr"/>
       <c r="BO31" t="inlineStr"/>
       <c r="BP31" t="inlineStr"/>
+      <c r="BQ31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="5" t="n">
@@ -55909,6 +56441,7 @@
       <c r="BN32" t="inlineStr"/>
       <c r="BO32" t="inlineStr"/>
       <c r="BP32" t="inlineStr"/>
+      <c r="BQ32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="5" t="n">
@@ -55997,6 +56530,7 @@
       <c r="BN33" t="inlineStr"/>
       <c r="BO33" t="inlineStr"/>
       <c r="BP33" t="inlineStr"/>
+      <c r="BQ33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="5" t="n">
@@ -56077,6 +56611,7 @@
       <c r="BN34" t="inlineStr"/>
       <c r="BO34" t="inlineStr"/>
       <c r="BP34" t="inlineStr"/>
+      <c r="BQ34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="5" t="n">
@@ -56157,6 +56692,7 @@
       <c r="BN35" t="inlineStr"/>
       <c r="BO35" t="inlineStr"/>
       <c r="BP35" t="inlineStr"/>
+      <c r="BQ35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="5" t="n">
@@ -56237,6 +56773,7 @@
       <c r="BN36" t="inlineStr"/>
       <c r="BO36" t="inlineStr"/>
       <c r="BP36" t="inlineStr"/>
+      <c r="BQ36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="5" t="n">
@@ -56317,6 +56854,7 @@
       <c r="BN37" t="inlineStr"/>
       <c r="BO37" t="inlineStr"/>
       <c r="BP37" t="inlineStr"/>
+      <c r="BQ37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="5" t="n">
@@ -56397,6 +56935,7 @@
       <c r="BN38" t="inlineStr"/>
       <c r="BO38" t="inlineStr"/>
       <c r="BP38" t="inlineStr"/>
+      <c r="BQ38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="5" t="n">
@@ -56477,6 +57016,7 @@
       <c r="BN39" t="inlineStr"/>
       <c r="BO39" t="inlineStr"/>
       <c r="BP39" t="inlineStr"/>
+      <c r="BQ39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="5" t="n">
@@ -56557,6 +57097,7 @@
       <c r="BN40" t="inlineStr"/>
       <c r="BO40" t="inlineStr"/>
       <c r="BP40" t="inlineStr"/>
+      <c r="BQ40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="5" t="n">
@@ -56637,6 +57178,7 @@
       <c r="BN41" t="inlineStr"/>
       <c r="BO41" t="inlineStr"/>
       <c r="BP41" t="inlineStr"/>
+      <c r="BQ41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="5" t="n">
@@ -56713,6 +57255,7 @@
       <c r="BN42" t="inlineStr"/>
       <c r="BO42" t="inlineStr"/>
       <c r="BP42" t="inlineStr"/>
+      <c r="BQ42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="5" t="n">
@@ -56789,6 +57332,7 @@
       <c r="BN43" t="inlineStr"/>
       <c r="BO43" t="inlineStr"/>
       <c r="BP43" t="inlineStr"/>
+      <c r="BQ43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="5" t="n">
@@ -56865,6 +57409,7 @@
       <c r="BN44" t="inlineStr"/>
       <c r="BO44" t="inlineStr"/>
       <c r="BP44" t="inlineStr"/>
+      <c r="BQ44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="5" t="n">
@@ -56941,6 +57486,7 @@
       <c r="BN45" t="inlineStr"/>
       <c r="BO45" t="inlineStr"/>
       <c r="BP45" t="inlineStr"/>
+      <c r="BQ45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="5" t="n">
@@ -57017,6 +57563,7 @@
       <c r="BN46" t="inlineStr"/>
       <c r="BO46" t="inlineStr"/>
       <c r="BP46" t="inlineStr"/>
+      <c r="BQ46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="5" t="n">
@@ -57093,6 +57640,7 @@
       <c r="BN47" t="inlineStr"/>
       <c r="BO47" t="inlineStr"/>
       <c r="BP47" t="inlineStr"/>
+      <c r="BQ47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="5" t="n">
@@ -57169,6 +57717,7 @@
       <c r="BN48" t="inlineStr"/>
       <c r="BO48" t="inlineStr"/>
       <c r="BP48" t="inlineStr"/>
+      <c r="BQ48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="5" t="n">
@@ -57245,6 +57794,7 @@
       <c r="BN49" t="inlineStr"/>
       <c r="BO49" t="inlineStr"/>
       <c r="BP49" t="inlineStr"/>
+      <c r="BQ49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="5" t="n">
@@ -57321,6 +57871,7 @@
       <c r="BN50" t="inlineStr"/>
       <c r="BO50" t="inlineStr"/>
       <c r="BP50" t="inlineStr"/>
+      <c r="BQ50" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/excel/fupan_stocks.xlsx
+++ b/excel/fupan_stocks.xlsx
@@ -470,7 +470,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BQ65"/>
+  <dimension ref="A1:BS65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -819,6 +819,16 @@
           <t>2025年02月13日</t>
         </is>
       </c>
+      <c r="BR1" s="5" t="inlineStr">
+        <is>
+          <t>2025年02月14日</t>
+        </is>
+      </c>
+      <c r="BS1" s="5" t="inlineStr">
+        <is>
+          <t>2025年02月17日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="5" t="n">
@@ -1164,6 +1174,16 @@
           <t>601177.SH; 杭齿前进; 0;  09:25:02; 2天2板; 11.22;  09:25:02; 10.0%; 2; 人形机器人+杭州国资+齿轮传动+减速器</t>
         </is>
       </c>
+      <c r="BR2" t="inlineStr">
+        <is>
+          <t>603956.SH; 威派格; 0;  09:30:00; 4天4板; 9.32;  09:30:00; 10.0%; 4; 公司“河图 AI” 平台已接入DeepSeek+智慧水务</t>
+        </is>
+      </c>
+      <c r="BS2" t="inlineStr">
+        <is>
+          <t>002030.SZ; 达安基因; 0;  09:25:00; 2天2板; 6.97;  09:25:00; 9.9%; 2; 智能医疗+分子诊断+基因测序+广州国资</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="n">
@@ -1509,6 +1529,16 @@
           <t>600126.SH; 杭钢股份; 0;  09:25:03; 7天7板; 10.13;  09:25:03; 10.0%; 7; DeepSeek概念+云计算+浙江国资+钢铁</t>
         </is>
       </c>
+      <c r="BR3" t="inlineStr">
+        <is>
+          <t>002123.SZ; 梦网科技; 0;  09:30:30; 8天8板; 20.57;  09:30:30; -10.0%; 8; DeepSeek概念+拟收购碧橙数字控制权+云通信+鸿蒙</t>
+        </is>
+      </c>
+      <c r="BS3" t="inlineStr">
+        <is>
+          <t>002044.SZ; 美年健康; 0;  09:25:00; 7天5板; 7.15;  09:25:00; 10.0%; 2; AI健管大模型+数据要素+健康体检服务+华为</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="5" t="n">
@@ -1854,6 +1884,16 @@
           <t>603956.SH; 威派格; 2;  09:30:15; 3天3板; 7.7;  09:25:03; 10.0%; 3; 公司“河图 AI” 平台已接入DeepSeek+智慧水务</t>
         </is>
       </c>
+      <c r="BR4" t="inlineStr">
+        <is>
+          <t>002313.SZ; 日海智能; 0;  09:31:30; 4天3板; 13.3;  09:31:30; 0.6%; 2; DeepSeek概念+机器人+数据中心+控股股东变更</t>
+        </is>
+      </c>
+      <c r="BS4" t="inlineStr">
+        <is>
+          <t>002335.SZ; 科华数据; 0;  09:25:00; 2天2板; 41.97;  09:25:00; 10.0%; 2; 数据中心+腾讯云+UPS+液冷</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="n">
@@ -2199,6 +2239,16 @@
           <t>000818.SZ; 航锦科技; 0;  09:32:03; 8天7板; 30.25;  09:32:03; 10.0%; 1; 幻方合作+算力+英伟达+国企</t>
         </is>
       </c>
+      <c r="BR5" t="inlineStr">
+        <is>
+          <t>002044.SZ; 美年健康; 0;  09:34:30; 6天4板; 7.15;  09:34:30; 10.0%; 1; AI健管大模型+数据要素+健康体检服务+华为</t>
+        </is>
+      </c>
+      <c r="BS5" t="inlineStr">
+        <is>
+          <t>603716.SH; 塞力医疗; 0;  09:25:01; 2天2板; 10.67;  09:25:01; 10.0%; 2; DRG/DIP+体外诊断+智慧供应链</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="5" t="n">
@@ -2544,6 +2594,16 @@
           <t>600986.SH; 浙文互联; 0;  09:39:24; 4天3板; 9.42;  09:39:24; 10.0%; 2; DeepSeek概念+营销+算力+浙江国资</t>
         </is>
       </c>
+      <c r="BR6" t="inlineStr">
+        <is>
+          <t>603086.SH; 先达股份; 2;  09:39:45; 2天2板; 5.94;  09:33:00; 10.0%; 2; 农药+生态农业+大豆</t>
+        </is>
+      </c>
+      <c r="BS6" t="inlineStr">
+        <is>
+          <t>603881.SH; 数据港; 0;  09:25:02; 6天5板; 37.51;  09:25:02; 10.0%; 4; 数据中心+腾讯概念+阿里巴巴+上海国资</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="n">
@@ -2889,6 +2949,16 @@
           <t>600811.SH; 东方集团; 0;  09:39:47; 2天2板; 2.37;  09:39:47; 10.2%; 2; 预重整+农产品加工+跨境支付</t>
         </is>
       </c>
+      <c r="BR7" t="inlineStr">
+        <is>
+          <t>300816.SZ; 艾可蓝; 0;  09:41:30; 2天2板; 38.21;  09:41:30; 0.6%; 2; 参股云计算公司+DeepSeek概念+发动机尾气后处理+氢能源</t>
+        </is>
+      </c>
+      <c r="BS7" t="inlineStr">
+        <is>
+          <t>000710.SZ; 贝瑞基因; 1;  09:31:33; 2天2板; 12.8;  09:30:09; 10.0%; 2; 智能医疗+基因检测+DeepSeek概念</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="5" t="n">
@@ -3234,6 +3304,16 @@
           <t>603881.SH; 数据港; 7;  10:15:18; 4天3板; 31;  09:25:03; 10.0%; 2; 数据中心+阿里巴巴+液冷+上海国资</t>
         </is>
       </c>
+      <c r="BR8" t="inlineStr">
+        <is>
+          <t>603636.SH; 南威软件; 0;  09:45:15; 2天2板; 16.88;  09:45:15; -7.6%; 2; DeepSeek概念+AI智能体+华为昇腾+数字政府</t>
+        </is>
+      </c>
+      <c r="BS8" t="inlineStr">
+        <is>
+          <t>002112.SZ; 三变科技; 6;  09:37:09; 2天2板; 17.49;  09:30:24; 10.0%; 2; 数据中心+电力设备+光伏+国企</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="n">
@@ -3579,6 +3659,16 @@
           <t>000785.SZ; 居然智家; 2;  10:21:45; 4天4板; 5.06;  10:19:30; 10.0%; 4; DeepSeek概念+AI智能体+零售+华为</t>
         </is>
       </c>
+      <c r="BR9" t="inlineStr">
+        <is>
+          <t>601116.SH; 三江购物; 0;  09:58:13; 3天3板; 14.92;  09:58:13; 5.4%; 3; 阿里巴巴+生鲜超市</t>
+        </is>
+      </c>
+      <c r="BS9" t="inlineStr">
+        <is>
+          <t>002622.SZ; 皓宸医疗; 0;  09:37:15; 2天2板; 3.43;  09:37:15; 9.9%; 2; 智能医疗+口腔医疗</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="5" t="n">
@@ -3924,6 +4014,16 @@
           <t>002418.SZ; 康盛股份; 1;  10:47:48; 2天2板; 3.77;  10:46:42; 9.9%; 2; 液冷服务器+BBU+股权转让+制冷管路</t>
         </is>
       </c>
+      <c r="BR10" t="inlineStr">
+        <is>
+          <t>603881.SH; 数据港; 0;  10:07:00; 5天4板; 37.51;  10:07:00; 10.0%; 3; 数据中心+阿里巴巴+液冷+上海国资</t>
+        </is>
+      </c>
+      <c r="BS10" t="inlineStr">
+        <is>
+          <t>002717.SZ; 岭南股份; 0;  09:38:36; 3天2板; 4.24;  09:38:36; 10.1%; 1; 影视IP+腾讯+营销+国企</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="5" t="n">
@@ -4269,6 +4369,16 @@
           <t>300344.SZ; 立方数科; 2;  11:06:27; 2天2板; 9.16;  10:21:45; 20.1%; 2; 拟间接收购云掌财经+智能软硬件+云计算</t>
         </is>
       </c>
+      <c r="BR11" t="inlineStr">
+        <is>
+          <t>601177.SH; 杭齿前进; 8;  10:13:57; 3天3板; 13.57;  09:30:45; 10.0%; 3; 人形机器人+杭州国资+齿轮传动+减速器</t>
+        </is>
+      </c>
+      <c r="BS11" t="inlineStr">
+        <is>
+          <t>601177.SH; 杭齿前进; 6;  09:55:08; 4天4板; 13.57;  09:30:53; 10.0%; 4; 杭州国资+人形机器人+齿轮传动+化债（AMC概念）</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="5" t="n">
@@ -4614,6 +4724,16 @@
           <t>600839.SH; 四川长虹; 0;  11:22:50; 5天3板; 12.95;  11:22:50; 10.0%; 1; 智能家电+云计算+华为+四川国资</t>
         </is>
       </c>
+      <c r="BR12" t="inlineStr">
+        <is>
+          <t>300530.SZ; 领湃科技; 8;  10:21:10; 2天2板; 27.31;  09:33:30; 11.6%; 2; 固态电池+充电桩+湖南国资</t>
+        </is>
+      </c>
+      <c r="BS12" t="inlineStr">
+        <is>
+          <t>600421.SH; 华嵘控股; 0;  10:25:34; 2天2板; 7.61;  10:25:34; 10.0%; 2; 数据要素+房屋建筑PC构件+装配式建筑+风电混塔模具</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="5" t="n">
@@ -4949,6 +5069,16 @@
           <t>300251.SZ; 光线传媒; 4;  13:12:00; 4天4板; 28.94;  13:06:42; 20.0%; 4; 《哪吒2》票房突破94亿元</t>
         </is>
       </c>
+      <c r="BR13" t="inlineStr">
+        <is>
+          <t>603117.SH; 万林物流; 0;  10:39:48; 3天2板; 6.69;  10:39:48; -3.2%; 1; 资产注入预期+物流</t>
+        </is>
+      </c>
+      <c r="BS13" t="inlineStr">
+        <is>
+          <t>300478.SZ; 杭州高新; 6;  13:12:18; 2天2板; 15.53;  10:02:54; 20.0%; 2; 杭州+网络游戏+线缆用高分子材料+核电</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="5" t="n">
@@ -5284,6 +5414,16 @@
           <t>002313.SZ; 日海智能; 1;  13:21:27; 3天2板; 12.02;  09:30:06; 10.0%; 1; 机器人+无线通信模组产品+数据中心+控股股东变更</t>
         </is>
       </c>
+      <c r="BR14" t="inlineStr">
+        <is>
+          <t>300251.SZ; 光线传媒; 11;  10:58:08; 5天5板; 29.66;  10:15:42; -14.6%; 5; 《哪吒2》成为中国影史首部百亿影片</t>
+        </is>
+      </c>
+      <c r="BS14" t="inlineStr">
+        <is>
+          <t>600986.SH; 浙文互联; 3;  13:35:48; 6天4板; 9.8;  11:18:21; 10.0%; 1; DeepSeek概念+营销+算力+浙江国资</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="5" t="n">
@@ -5614,6 +5754,16 @@
           <t>603103.SH; 横店影视; 0;  13:27:21; 2天2板; 16.38;  13:27:21; 10.0%; 2; 影视+IP衍生品</t>
         </is>
       </c>
+      <c r="BR15" t="inlineStr">
+        <is>
+          <t>002261.SZ; 拓维信息; 1;  11:00:38; 8天7板; 31.78;  10:53:08; -4.3%; 1; 昇腾大模型一体机+鸿蒙+蚂蚁金服+信创</t>
+        </is>
+      </c>
+      <c r="BS15" t="inlineStr">
+        <is>
+          <t>000818.SZ; 航锦科技; 2;  13:44:21; 10天8板; 36.19;  09:33:30; 10.0%; 1; 幻方合作+算力+英伟达+国企</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="5" t="n">
@@ -5924,6 +6074,16 @@
           <t>600081.SH; 东风科技; 0;  13:38:30; 4天3板; 13.97;  13:38:30; 10.0%; 1; 长安东风或重组</t>
         </is>
       </c>
+      <c r="BR16" t="inlineStr">
+        <is>
+          <t>301396.SZ; 宏景科技; 2;  11:12:21; 2天2板; 50.5;  11:09:06; 11.0%; 2; AI智能体+算力+智慧城市</t>
+        </is>
+      </c>
+      <c r="BS16" t="inlineStr">
+        <is>
+          <t>600633.SH; 浙数文化; 0;  14:02:25; 9天7板; 19.75;  14:02:25; 10.0%; 1; 数据交易中心+AI应用+算力+杭州国资</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="5" t="n">
@@ -6214,6 +6374,16 @@
           <t>601116.SH; 三江购物; 4;  13:54:01; 2天2板; 12.86;  13:42:25; 10.0%; 2; 生鲜超市+阿里巴巴</t>
         </is>
       </c>
+      <c r="BR17" t="inlineStr">
+        <is>
+          <t>603918.SH; 金桥信息; 3;  14:10:21; 2天2板; 20.48;  11:09:21; -2.0%; 2; 智慧法院+阿里+化债(AMC概念）</t>
+        </is>
+      </c>
+      <c r="BS17" t="inlineStr">
+        <is>
+          <t>603086.SH; 先达股份; 8;  14:03:32; 3天3板; 5.94;  09:58:44; 10.0%; 3; 农药+生态农业+大豆</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="5" t="n">
@@ -6494,6 +6664,16 @@
           <t>002364.SZ; 中恒电气; 16;  14:34:06; 2天2板; 17.51;  09:44:45; 10.0%; 2; 阿里+字节+数据中心+电源系统</t>
         </is>
       </c>
+      <c r="BR18" t="inlineStr">
+        <is>
+          <t>600126.SH; 杭钢股份; 0;  14:20:06; 8天8板; 12.25;  14:20:06; 10.0%; 8; DeepSeek概念+云计算+浙江国资+钢铁</t>
+        </is>
+      </c>
+      <c r="BS18" t="inlineStr">
+        <is>
+          <t>002524.SZ; 光正眼科; 10;  14:06:21; 2天2板; 4.52;  09:31:39; 10.0%; 2; 眼科医疗+全飞秒</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="5" t="n">
@@ -6769,6 +6949,16 @@
           <t>603110.SH; 东方材料; 2;  14:40:56; 7天5板; 21.66;  10:10:08; 10.0%; 2; 东方超算+DeepSeek概念+PCB电子油墨</t>
         </is>
       </c>
+      <c r="BR19" t="inlineStr">
+        <is>
+          <t>002929.SZ; 润建股份; 2;  14:23:38; 5天4板; 51.65;  13:04:43; -6.5%; 1; 阿里云+部署DeepSeek至R1（满血）版本+算力</t>
+        </is>
+      </c>
+      <c r="BS19" t="inlineStr">
+        <is>
+          <t>600126.SH; 杭钢股份; 28;  14:09:40; 9天9板; 12.25;  09:41:10; 10.0%; 9; DeepSeek概念+云计算+浙江国资+钢铁</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="5" t="n">
@@ -7019,6 +7209,16 @@
           <t>603300.SH; 海南华铁; 1;  14:44:59; 6天5板; 8.95;  13:41:05; 10.0%; 1; 回购+算力+海南国资+低空经济</t>
         </is>
       </c>
+      <c r="BR20" t="inlineStr">
+        <is>
+          <t>603803.SH; 瑞斯康达; 1;  14:40:36; 6天4板; 13.22;  11:28:29; -10.0%; 1; 算力+光通信+ASIC芯片</t>
+        </is>
+      </c>
+      <c r="BS20" t="inlineStr">
+        <is>
+          <t>600602.SH; 云赛智联; 9;  14:10:25; 2天2板; 21.12;  09:25:01; 10.0%; 2; 国资云+算力+阿里+腾讯+Deepseek概念</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="5" t="n">
@@ -7259,6 +7459,16 @@
           <t>002691.SZ; 冀凯股份; 22;  14:50:27; 17天14板; 13.74;  09:33:51; 10.0%; 3; 机器人+矿山装备+3D打印</t>
         </is>
       </c>
+      <c r="BR21" t="inlineStr">
+        <is>
+          <t>000880.SZ; 潍柴重机; 0;  14:44:31; 3天2板; 24.62;  14:44:31; 7.0%; 1; 数据中心发电机+柴油机零部件+国企</t>
+        </is>
+      </c>
+      <c r="BS21" t="inlineStr">
+        <is>
+          <t>601789.SH; 宁波建工; 9;  14:10:27; 3天2板; 5.72;  09:35:03; 10.0%; 1; 参股中经云+拟收购宁波交工100%股权+阿里巴巴+宁波国资</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="5" t="n">
@@ -7484,6 +7694,16 @@
           <t>000681.SZ; 视觉中国; 28;  14:50:33; 2天2板; 30.57;  09:30:36; 10.0%; 2; AI智能体+DeepSeek概念+视觉版权+剪映等合作</t>
         </is>
       </c>
+      <c r="BR22" t="inlineStr">
+        <is>
+          <t>000785.SZ; 居然智家; 3;  14:50:23; 5天5板; 5.01;  09:35:00; -10.1%; 5; DeepSeek概念+AI智能体+零售+华为</t>
+        </is>
+      </c>
+      <c r="BS22" t="inlineStr">
+        <is>
+          <t>603990.SH; 麦迪科技; 19;  14:15:27; 2天2板; 16.2;  09:39:12; 10.0%; 2; AI医疗+人形机器人+民营医院+国企</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="5" t="n">
@@ -7699,6 +7919,16 @@
           <t>002123.SZ; 梦网科技; 1;  15:00:00; 7天7板; 20.78;  09:25:00; 10.0%; 7; DeepSeek概念+拟收购碧橙数字控制权+云通信+鸿蒙</t>
         </is>
       </c>
+      <c r="BR23" t="inlineStr">
+        <is>
+          <t>600843.SH; 上工申贝; 3;  14:53:36; 3天2板; 15.8;  14:37:18; 2.3%; 1; 碳纤维运动飞机+机器人概念+缝纫设备</t>
+        </is>
+      </c>
+      <c r="BS23" t="inlineStr">
+        <is>
+          <t>000856.SZ; 冀东装备; 3;  14:28:03; 15天9板; 12.67;  14:26:06; 10.0%; 1; 机器人+水泥装备+北京国资</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="5" t="n">
@@ -7904,6 +8134,11 @@
           <t>600986.SH; 浙文互联; 4;  14:35:57; 3天2板; 8.56;  14:15:27; 10.0%; 1; DeepSeek概念+营销+算力+浙江国资</t>
         </is>
       </c>
+      <c r="BS24" t="inlineStr">
+        <is>
+          <t>600868.SH; 梅雁吉祥; 2;  14:32:46; 3天2板; 3.18;  14:12:43; 10.0%; 1; 绿色电力+锑+飞轮储能+氢能源</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="5" t="n">
@@ -8109,6 +8344,11 @@
           <t>603366.SH; 日出东方; 0;  14:38:59; 2天2板; 14.27;  14:38:59; 10.0%; 2; 液冷超充+太阳能热水器+华为</t>
         </is>
       </c>
+      <c r="BS25" t="inlineStr">
+        <is>
+          <t>603110.SH; 东方材料; 0;  14:34:35; 9天6板; 22.32;  14:34:35; 10.0%; 1; 东方超算+DeepSeek概念+PCB电子油墨</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="5" t="n">
@@ -8309,6 +8549,11 @@
           <t>300251.SZ; 光线传媒; 6;  14:42:39; 3天3板; 24.12;  10:39:48; 20.0%; 3; 《哪吒2》票房破90亿元</t>
         </is>
       </c>
+      <c r="BS26" t="inlineStr">
+        <is>
+          <t>603956.SH; 威派格; 16;  14:43:08; 5天5板; 9.32;  09:25:02; 10.0%; 5; DeepSeek概念+智慧水务+数据要素+华为鲲鹏</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="5" t="n">
@@ -8504,6 +8749,11 @@
           <t>300220.SZ; 金运激光; 0;  14:54:15; 2天2板; 21;  14:54:15; 20.0%; 2; IP衍生品运营+激光切割设备+无人零售+外销</t>
         </is>
       </c>
+      <c r="BS27" t="inlineStr">
+        <is>
+          <t>301230.SZ; 泓博医药; 19;  14:50:21; 2天2板; 44.33;  09:41:42; 20.0%; 2; AI制药+创新药+外销</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="5" t="n">
@@ -8689,6 +8939,11 @@
           <t>300846.SZ; 首都在线; 0;  14:48:51; 4天3板; 22.22;  14:48:51; 20.0%; 2; DeepSeek概念+算力+数据中心</t>
         </is>
       </c>
+      <c r="BS28" t="inlineStr">
+        <is>
+          <t>301459.SZ; 丰茂股份; 6;  14:54:15; 2天2板; 61.27;  14:29:09; 20.0%; 2; 汽车零部件+比亚迪概念+橡胶</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="5" t="n">
@@ -8862,6 +9117,11 @@
       <c r="BN29" t="inlineStr">
         <is>
           <t>002306.SZ; 中科云网; 2;  14:49:30; 4天3板; 2.74;  14:27:15; 10.0%; 2; 光伏+餐饮团膳+获1300万元债务豁免</t>
+        </is>
+      </c>
+      <c r="BS29" t="inlineStr">
+        <is>
+          <t>605488.SH; 福莱新材; 0;  14:55:14; 5天3板; 44;  14:55:14; 10.0%; 1; 机器人+灵巧手+柔性传感器</t>
         </is>
       </c>
     </row>
@@ -11776,7 +12036,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BQ146"/>
+  <dimension ref="A1:BS146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12125,6 +12385,16 @@
           <t>2025年02月13日</t>
         </is>
       </c>
+      <c r="BR1" s="5" t="inlineStr">
+        <is>
+          <t>2025年02月14日</t>
+        </is>
+      </c>
+      <c r="BS1" s="5" t="inlineStr">
+        <is>
+          <t>2025年02月17日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="5" t="n">
@@ -12445,6 +12715,16 @@
           <t>003021.SZ; 兆威机电; 1;  10:34:12; 放量跌停; 116.98; -10.0%; 1; 机器人概念股集体下挫+资金获利了结</t>
         </is>
       </c>
+      <c r="BR2" t="inlineStr">
+        <is>
+          <t>605398.SH; 新炬网络; 0;  09:30:00; 一字跌停||缩量跌停; 42.83; -9.7%; 1; 异常波动+涨幅过高</t>
+        </is>
+      </c>
+      <c r="BS2" t="inlineStr">
+        <is>
+          <t>603803.SH; 瑞斯康达; 7;  09:31:41; 放量跌停; 13.22; -10.0%; 1; 数据中心板块高位股调整+年报预亏</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="n">
@@ -12755,6 +13035,16 @@
           <t>600186.SH; 莲花控股; 0;  14:56:59; 放量跌停; 7.17; -10.0%; 1; 异常波动+莲花紫星算力应用领域仍处于起步阶段</t>
         </is>
       </c>
+      <c r="BR3" t="inlineStr">
+        <is>
+          <t>002031.SZ; 巨轮智能; 1;  09:30:00; 缩量跌停; 8.51; 0.8%; 1; 异常波动+资金出逃</t>
+        </is>
+      </c>
+      <c r="BS3" t="inlineStr">
+        <is>
+          <t>000785.SZ; 居然智家; 5;  09:31:45; 放量跌停; 5.01; -10.1%; 1; DeepSeek概念股冲高回落</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="5" t="n">
@@ -13055,6 +13345,16 @@
           <t>000882.SZ; 华联股份; 0;  09:25:00; 一字跌停||缩量跌停; 3.04; -10.1%; 2; 异常波动+近期涨幅较大</t>
         </is>
       </c>
+      <c r="BR4" t="inlineStr">
+        <is>
+          <t>002691.SZ; 冀凯股份; 3;  09:30:30; 放量跌停; 13.15; 6.3%; 1; 资金获利了结+此前异常波动</t>
+        </is>
+      </c>
+      <c r="BS4" t="inlineStr">
+        <is>
+          <t>603103.SH; 横店影视; 10;  09:59:45; 放量跌停; 15.12; -10.0%; 1; 异常波动+影视院线板块大幅调整</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="n">
@@ -13330,6 +13630,16 @@
           <t>001330.SZ; 博纳影业; 1;  09:25:00; 缩量跌停; 5.36; -10.1%; 1; 《蛟龙行动》票房表现不佳+影视股普跌</t>
         </is>
       </c>
+      <c r="BR5" t="inlineStr">
+        <is>
+          <t>600120.SH; 浙江东方; 3;  10:01:14; 放量跌停; 7.65; -2.2%; 1; 澄清未投资DeepSeek+此前涨幅较大</t>
+        </is>
+      </c>
+      <c r="BS5" t="inlineStr">
+        <is>
+          <t>002123.SZ; 梦网科技; 9;  13:36:51; 天地板跌停||放量跌停; 20.57; -10.0%; 1; 严重异常波动+DeepSeek概念午后跳水</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="5" t="n">
@@ -13585,6 +13895,16 @@
           <t>002519.SZ; 银河电子; 0;  09:25:00; 一字跌停||缩量跌停; 4.82; -9.9%; 2; 年报预亏</t>
         </is>
       </c>
+      <c r="BR6" t="inlineStr">
+        <is>
+          <t>000856.SZ; 冀东装备; 1;  14:07:21; 放量跌停; 12.67; 10.0%; 1; 资金出逃</t>
+        </is>
+      </c>
+      <c r="BS6" t="inlineStr">
+        <is>
+          <t>603095.SH; 越剑智能; 0;  13:48:42; 放量跌停; 25.04; -10.0%; 1; 资金出逃</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="n">
@@ -13828,6 +14148,11 @@
       <c r="BK7" t="inlineStr">
         <is>
           <t>002851.SZ; 麦格米特; 1;  09:25:00; 缩量跌停; 56.56; -10.0%; 1; 英伟达产业链大跌</t>
+        </is>
+      </c>
+      <c r="BR7" t="inlineStr">
+        <is>
+          <t>002016.SZ; 世荣兆业; 2;  14:35:41; 放量跌停; 6.72; -7.6%; 1; 资金出逃+房地产板块走弱</t>
         </is>
       </c>
     </row>
@@ -19852,7 +20177,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BQ72"/>
+  <dimension ref="A1:BS72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20201,6 +20526,16 @@
           <t>2025年02月13日</t>
         </is>
       </c>
+      <c r="BR1" s="5" t="inlineStr">
+        <is>
+          <t>2025年02月14日</t>
+        </is>
+      </c>
+      <c r="BS1" s="5" t="inlineStr">
+        <is>
+          <t>2025年02月17日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="5" t="n">
@@ -20546,6 +20881,16 @@
           <t>002929.SZ; 润建股份; 10;  09:25:00; 主板; 50.2; 曾涨停; 6.3%; 0.76H;  09:25:00|| 09:43:36|| 13:11:09|| 13:40:03|| 13:41:42|| 13:42:39|| 14:15:21|| 14:34:33|| 14:37:21|| 14:41:39</t>
         </is>
       </c>
+      <c r="BR2" t="inlineStr">
+        <is>
+          <t>600986.SH; 浙文互联; 2;  09:31:15; 主板; 9.8; 曾涨停; 10.0%; 0.01H;  09:31:15|| 09:32:15</t>
+        </is>
+      </c>
+      <c r="BS2" t="inlineStr">
+        <is>
+          <t>002123.SZ; 梦网科技; 2;  09:25:00; 主板; 20.57; 曾涨停; -10.0%; 0.04H;  09:25:00|| 09:32:27</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="n">
@@ -20891,6 +21236,16 @@
           <t>000868.SZ; 安凯客车; 1;  09:25:00; 主板; 6.83; 曾涨停; 2.4%; 0.03H;  09:25:00</t>
         </is>
       </c>
+      <c r="BR3" t="inlineStr">
+        <is>
+          <t>603280.SH; 南方路机; 1;  09:32:15; 主板; 23.78; 曾涨停; 1.5%; 0.00H;  09:32:15</t>
+        </is>
+      </c>
+      <c r="BS3" t="inlineStr">
+        <is>
+          <t>002238.SZ; 天威视讯; 1;  09:25:00; 主板; 9.49; 曾涨停; 1.5%; 0.01H;  09:25:00</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="5" t="n">
@@ -21236,6 +21591,16 @@
           <t>605398.SH; 新炬网络; 24;  09:25:02; 主板; 52.7; 曾涨停; 6.5%; 0.37H;  09:25:02|| 09:31:53|| 09:33:11|| 09:34:20|| 09:35:23|| 09:36:41|| 09:37:20|| 09:37:38|| 09:37:47|| 09:38:08|| 13:52:14|| 13:56:56|| 14:03:29|| 14:04:17|| 14:04:56|| 14:05:53|| 14:06:44|| 14:07:02|| 14:07:29|| 14:08:05|| 14:22:41|| 14:25:44|| 14:36:47|| 14:53:14</t>
         </is>
       </c>
+      <c r="BR4" t="inlineStr">
+        <is>
+          <t>605088.SH; 冠盛股份; 2;  09:35:15; 主板; 30.14; 曾涨停; -5.0%; 2.84H;  09:35:15|| 09:43:15</t>
+        </is>
+      </c>
+      <c r="BS4" t="inlineStr">
+        <is>
+          <t>300657.SZ; 弘信电子; 1;  09:25:00; 创业板; 36.5; 曾涨停; 13.1%; 2.71H;  09:25:00</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="n">
@@ -21581,6 +21946,16 @@
           <t>600120.SH; 浙江东方; 1;  09:25:02; 主板; 8.69; 曾涨停; -3.8%; 0.00H;  09:25:02</t>
         </is>
       </c>
+      <c r="BR5" t="inlineStr">
+        <is>
+          <t>605133.SH; 嵘泰股份; 2;  09:36:30; 主板; 28.26; 曾涨停; 3.6%; 2.65H;  09:36:30|| 10:01:29</t>
+        </is>
+      </c>
+      <c r="BS5" t="inlineStr">
+        <is>
+          <t>301396.SZ; 宏景科技; 3;  09:25:00; 创业板; 50.5; 曾涨停; 11.0%; 2.77H;  09:25:00|| 13:53:33|| 13:57:54</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="5" t="n">
@@ -21926,6 +22301,16 @@
           <t>603666.SH; 亿嘉和; 1;  09:25:02; 主板; 35.8; 曾涨停; 3.2%; 0.01H;  09:25:02</t>
         </is>
       </c>
+      <c r="BR6" t="inlineStr">
+        <is>
+          <t>000813.SZ; 德展健康; 2;  09:44:00; 主板; 3.5; 曾涨停; -0.6%; 0.02H;  09:44:00|| 09:44:45</t>
+        </is>
+      </c>
+      <c r="BS6" t="inlineStr">
+        <is>
+          <t>603039.SH; 泛微网络; 1;  09:25:03; 主板; 79.9; 曾涨停; 3.2%; 2.56H;  09:25:03</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="n">
@@ -22271,6 +22656,16 @@
           <t>600797.SH; 浙大网新; 3;  09:25:03; 主板; 9.44; 曾涨停; 5.1%; 0.23H;  09:25:03|| 09:43:33|| 09:54:42</t>
         </is>
       </c>
+      <c r="BR7" t="inlineStr">
+        <is>
+          <t>603103.SH; 横店影视; 1;  10:18:18; 主板; 15.12; 曾涨停; -10.0%; 0.00H;  10:18:18</t>
+        </is>
+      </c>
+      <c r="BS7" t="inlineStr">
+        <is>
+          <t>603085.SH; 天成自控; 1;  09:25:04; 主板; 11.81; 曾涨停; 0.1%; 0.00H;  09:25:04</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="5" t="n">
@@ -22616,6 +23011,16 @@
           <t>600843.SH; 上工申贝; 1;  09:30:27; 主板; 14.04; 曾涨停; 3.8%; 3.85H;  09:30:27</t>
         </is>
       </c>
+      <c r="BR8" t="inlineStr">
+        <is>
+          <t>603171.SH; 税友股份; 2;  10:24:55; 主板; 44.65; 曾涨停; -0.7%; 0.05H;  10:24:55|| 10:25:40</t>
+        </is>
+      </c>
+      <c r="BS8" t="inlineStr">
+        <is>
+          <t>603296.SH; 华勤技术; 8;  09:30:09; 主板; 92.31; 曾涨停; 5.9%; 0.29H;  09:30:09|| 09:31:07|| 09:31:33|| 09:45:45|| 09:49:48|| 10:03:27|| 10:07:48|| 10:09:13</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="n">
@@ -22961,6 +23366,16 @@
           <t>002261.SZ; 拓维信息; 1;  09:31:42; 主板; 30.19; 曾涨停; 0.9%; 0.00H;  09:31:42</t>
         </is>
       </c>
+      <c r="BR9" t="inlineStr">
+        <is>
+          <t>300344.SZ; 立方数科; 1;  10:29:10; 创业板; 8.96; 曾涨停; -9.2%; 0.00H;  10:29:10</t>
+        </is>
+      </c>
+      <c r="BS9" t="inlineStr">
+        <is>
+          <t>002313.SZ; 日海智能; 3;  09:30:15; 主板; 13.3; 曾涨停; 0.6%; 0.02H;  09:30:15|| 09:30:45|| 09:48:00</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="5" t="n">
@@ -23306,6 +23721,16 @@
           <t>002757.SZ; 南兴股份; 1;  09:32:54; 主板; 18.38; 曾涨停; 2.2%; 0.00H;  09:32:54</t>
         </is>
       </c>
+      <c r="BR10" t="inlineStr">
+        <is>
+          <t>301486.SZ; 致尚科技; 1;  10:46:08; 创业板; 68.22; 曾涨停; 13.5%; 0.73H;  10:46:08</t>
+        </is>
+      </c>
+      <c r="BS10" t="inlineStr">
+        <is>
+          <t>000032.SZ; 深桑达A; 14;  09:30:18; 主板; 25.34; 曾涨停; 5.7%; 2.18H;  09:30:18|| 09:31:24|| 09:35:36|| 09:38:33|| 09:49:27|| 09:51:33|| 09:59:45|| 10:03:24|| 10:07:42|| 10:12:03|| 11:22:30|| 11:26:12|| 14:16:42|| 14:18:27</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="5" t="n">
@@ -23646,6 +24071,16 @@
           <t>603219.SH; 富佳股份; 2;  09:40:20; 主板; 17.3; 曾涨停; 0.6%; 0.01H;  09:40:20|| 09:41:41</t>
         </is>
       </c>
+      <c r="BR11" t="inlineStr">
+        <is>
+          <t>002036.SZ; 联创电子; 1;  11:08:51; 主板; 13.28; 曾涨停; 1.5%; 0.02H;  11:08:51</t>
+        </is>
+      </c>
+      <c r="BS11" t="inlineStr">
+        <is>
+          <t>603258.SH; 电魂网络; 4;  09:32:01; 主板; 26.01; 曾涨停; 3.6%; 0.01H;  09:32:01|| 09:54:22|| 09:54:34|| 09:54:49</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="5" t="n">
@@ -23986,6 +24421,16 @@
           <t>002016.SZ; 世荣兆业; 2;  09:43:09; 主板; 8.08; 曾涨停; 5.9%; 0.01H;  09:43:09|| 09:44:00</t>
         </is>
       </c>
+      <c r="BR12" t="inlineStr">
+        <is>
+          <t>301488.SZ; 豪恩汽电; 2;  11:09:06; 创业板; 76.4; 曾涨停; 3.1%; 0.02H;  11:09:06|| 11:10:06</t>
+        </is>
+      </c>
+      <c r="BS12" t="inlineStr">
+        <is>
+          <t>301365.SZ; 矩阵股份; 1;  09:33:51; 创业板; 16.77; 曾涨停; 12.6%; 2.66H;  09:33:51</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="5" t="n">
@@ -24316,6 +24761,16 @@
           <t>002153.SZ; 石基信息; 4;  09:59:00; 主板; 8.95; 曾涨停; 5.9%; 0.02H;  09:59:00|| 09:59:27|| 10:01:36|| 10:03:06</t>
         </is>
       </c>
+      <c r="BR13" t="inlineStr">
+        <is>
+          <t>002191.SZ; 劲嘉股份; 4;  11:10:51; 主板; 4.19; 曾涨停; -5.2%; 0.03H;  11:10:51|| 11:11:36|| 11:12:51|| 11:14:36</t>
+        </is>
+      </c>
+      <c r="BS13" t="inlineStr">
+        <is>
+          <t>000034.SZ; 神州数码; 5;  09:35:33; 主板; 54.22; 曾涨停; 2.4%; 0.40H;  09:35:33|| 09:38:24|| 09:39:39|| 09:59:21|| 10:18:45</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="5" t="n">
@@ -24646,6 +25101,16 @@
           <t>603990.SH; 麦迪科技; 1;  10:15:57; 主板; 13.39; 曾涨停; 5.0%; 0.01H;  10:15:57</t>
         </is>
       </c>
+      <c r="BR14" t="inlineStr">
+        <is>
+          <t>002886.SZ; 沃特股份; 1;  13:02:28; 主板; 19.56; 曾涨停; 2.2%; 0.03H;  13:02:28</t>
+        </is>
+      </c>
+      <c r="BS14" t="inlineStr">
+        <is>
+          <t>603918.SH; 金桥信息; 1;  09:36:48; 主板; 20.48; 曾涨停; -2.0%; 0.00H;  09:36:48</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="5" t="n">
@@ -24976,6 +25441,16 @@
           <t>600173.SH; 卧龙地产; 10;  10:24:10; 主板; 5.65; 曾涨停; 6.6%; 0.35H;  10:24:10|| 10:25:43|| 11:16:13|| 13:00:10|| 13:04:40|| 13:53:19|| 13:53:37|| 13:54:10|| 13:54:34|| 13:55:40</t>
         </is>
       </c>
+      <c r="BR15" t="inlineStr">
+        <is>
+          <t>603566.SH; 普莱柯; 1;  13:12:43; 主板; 12.86; 曾涨停; -4.1%; 0.06H;  13:12:43</t>
+        </is>
+      </c>
+      <c r="BS15" t="inlineStr">
+        <is>
+          <t>601116.SH; 三江购物; 8;  09:40:12; 主板; 14.92; 曾涨停; 5.4%; 0.17H;  09:40:12|| 11:29:27|| 14:32:03|| 14:34:48|| 14:38:04|| 14:38:40|| 14:42:00|| 14:42:25</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="5" t="n">
@@ -25301,6 +25776,16 @@
           <t>300846.SZ; 首都在线; 1;  11:01:51; 创业板; 26.26; 曾涨停; 14.2%; 0.03H;  11:01:51</t>
         </is>
       </c>
+      <c r="BR16" t="inlineStr">
+        <is>
+          <t>300244.SZ; 迪安诊断; 4;  13:28:38; 创业板; 19.82; 曾涨停; 9.3%; 0.83H;  13:28:38|| 13:42:53|| 14:14:51|| 14:45:52</t>
+        </is>
+      </c>
+      <c r="BS16" t="inlineStr">
+        <is>
+          <t>000977.SZ; 浪潮信息; 1;  09:40:51; 主板; 67.87; 曾涨停; 7.3%; 0.00H;  09:40:51</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="5" t="n">
@@ -25616,6 +26101,16 @@
           <t>603800.SH; 洪田股份; 1;  11:29:48; 主板; 27.42; 曾涨停; 4.5%; 0.05H;  11:29:48</t>
         </is>
       </c>
+      <c r="BR17" t="inlineStr">
+        <is>
+          <t>300253.SZ; 卫宁健康; 7;  13:31:08; 创业板; 12.58; 曾涨停; 1.1%; 0.18H;  13:31:08|| 14:20:49|| 14:31:47|| 14:36:29|| 14:38:45|| 14:40:06|| 14:40:36</t>
+        </is>
+      </c>
+      <c r="BS17" t="inlineStr">
+        <is>
+          <t>605068.SH; 明新旭腾; 1;  09:40:58; 主板; 14.36; 曾涨停; 5.4%; 0.06H;  09:40:58</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="5" t="n">
@@ -25926,6 +26421,16 @@
           <t>002369.SZ; 卓翼科技; 1;  13:01:21; 主板; 8.54; 曾涨停; 5.4%; 1.49H;  13:01:21</t>
         </is>
       </c>
+      <c r="BR18" t="inlineStr">
+        <is>
+          <t>603095.SH; 越剑智能; 2;  13:34:23; 主板; 25.04; 曾涨停; -10.0%; 0.08H;  13:34:23|| 13:42:08</t>
+        </is>
+      </c>
+      <c r="BS18" t="inlineStr">
+        <is>
+          <t>300559.SZ; 佳发教育; 2;  09:41:24; 创业板; 15.1; 曾涨停; 8.7%; 0.04H;  09:41:24|| 09:43:12</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="5" t="n">
@@ -26236,6 +26741,16 @@
           <t>600977.SH; 中国电影; 2;  13:01:49; 主板; 12.51; 曾涨停; 9.5%; 1.64H;  13:01:49|| 13:15:46</t>
         </is>
       </c>
+      <c r="BR19" t="inlineStr">
+        <is>
+          <t>600229.SH; 城市传媒; 1;  13:56:14; 主板; 7.43; 曾涨停; -2.5%; 0.27H;  13:56:14</t>
+        </is>
+      </c>
+      <c r="BS19" t="inlineStr">
+        <is>
+          <t>600661.SH; 昂立教育; 1;  09:43:20; 主板; 12.3; 曾涨停; 4.9%; 0.00H;  09:43:20</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="5" t="n">
@@ -26526,6 +27041,16 @@
           <t>603319.SH; 湘油泵; 1;  13:02:28; 主板; 31.72; 曾涨停; 5.9%; 1.54H;  13:02:28</t>
         </is>
       </c>
+      <c r="BR20" t="inlineStr">
+        <is>
+          <t>600050.SH; 中国联通; 2;  13:57:37; 主板; 6.51; 曾涨停; 8.9%; 0.06H;  13:57:37|| 14:01:20</t>
+        </is>
+      </c>
+      <c r="BS20" t="inlineStr">
+        <is>
+          <t>002987.SZ; 京北方; 2;  09:45:21; 主板; 19.09; 曾涨停; 7.6%; 1.65H;  09:45:21|| 10:33:00</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="5" t="n">
@@ -26816,6 +27341,16 @@
           <t>000564.SZ; 供销大集; 1;  13:07:15; 主板; 3.25; 曾涨停; 6.9%; 0.08H;  13:07:15</t>
         </is>
       </c>
+      <c r="BR21" t="inlineStr">
+        <is>
+          <t>603030.SH; 全筑股份; 3;  13:57:37; 主板; 2.9; 曾涨停; 5.1%; 0.38H;  13:57:37|| 14:10:36|| 14:33:07</t>
+        </is>
+      </c>
+      <c r="BS21" t="inlineStr">
+        <is>
+          <t>603882.SH; 金域医学; 4;  09:47:00; 主板; 37.22; 曾涨停; 2.5%; 0.24H;  09:47:00|| 10:02:21|| 10:02:30|| 10:02:42</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="5" t="n">
@@ -27096,6 +27631,16 @@
           <t>002112.SZ; 三变科技; 2;  13:23:03; 主板; 14.45; 曾涨停; 4.1%; 0.01H;  13:23:03|| 13:24:00</t>
         </is>
       </c>
+      <c r="BR22" t="inlineStr">
+        <is>
+          <t>600633.SH; 浙数文化; 1;  14:05:21; 主板; 19.75; 曾涨停; 10.0%; 0.01H;  14:05:21</t>
+        </is>
+      </c>
+      <c r="BS22" t="inlineStr">
+        <is>
+          <t>002916.SZ; 深南电路; 22;  09:48:24; 主板; 147.98; 曾涨停; 8.5%; 1.58H;  09:48:24|| 09:52:48|| 09:53:00|| 09:53:12|| 09:53:30|| 09:53:36|| 09:53:45|| 09:54:03|| 09:54:09|| 09:54:45|| 09:54:51|| 09:59:06|| 10:17:15|| 10:17:42|| 10:17:54|| 10:18:06|| 10:20:18|| 10:20:24|| 10:20:48|| 10:20:54|| 13:01:06|| 13:01:33</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="5" t="n">
@@ -27351,6 +27896,16 @@
           <t>603887.SH; 城地香江; 2;  13:35:57; 主板; 17.97; 曾涨停; 5.3%; 0.49H;  13:35:57|| 14:07:09</t>
         </is>
       </c>
+      <c r="BR23" t="inlineStr">
+        <is>
+          <t>600570.SH; 恒生电子; 1;  14:31:02; 主板; 34.63; 曾涨停; -0.9%; 0.06H;  14:31:02</t>
+        </is>
+      </c>
+      <c r="BS23" t="inlineStr">
+        <is>
+          <t>000516.SZ; 国际医学; 1;  09:48:30; 主板; 5.82; 曾涨停; 8.2%; 1.71H;  09:48:30</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="5" t="n">
@@ -27596,6 +28151,11 @@
           <t>000034.SZ; 神州数码; 1;  13:40:12; 主板; 48.13; 曾涨停; 7.1%; 0.80H;  13:40:12</t>
         </is>
       </c>
+      <c r="BS24" t="inlineStr">
+        <is>
+          <t>301018.SZ; 申菱环境; 1;  09:48:30; 创业板; 45.19; 曾涨停; 18.3%; 1.89H;  09:48:30</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="5" t="n">
@@ -27836,6 +28396,11 @@
           <t>600498.SH; 烽火通信; 1;  14:03:23; 主板; 22.97; 曾涨停; 6.0%; 0.31H;  14:03:23</t>
         </is>
       </c>
+      <c r="BS25" t="inlineStr">
+        <is>
+          <t>002841.SZ; 视源股份; 1;  09:51:30; 主板; 45.9; 曾涨停; 5.1%; 0.38H;  09:51:30</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="5" t="n">
@@ -28061,6 +28626,11 @@
           <t>600193.SH; 创兴资源; 3;  14:07:47; 主板; 4.07; 曾涨停; 5.7%; 0.09H;  14:07:47|| 14:09:35|| 14:11:08</t>
         </is>
       </c>
+      <c r="BS26" t="inlineStr">
+        <is>
+          <t>603108.SH; 润达医疗; 1;  09:54:48; 主板; 22.61; 曾涨停; 2.8%; 0.00H;  09:54:48</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="5" t="n">
@@ -28281,6 +28851,11 @@
           <t>601162.SH; 天风证券; 1;  14:11:12; 主板; 5.01; 曾涨停; 5.0%; 0.14H;  14:11:12</t>
         </is>
       </c>
+      <c r="BS27" t="inlineStr">
+        <is>
+          <t>002575.SZ; 群兴玩具; 5;  09:59:27; 主板; 9.04; 曾涨停; 7.5%; 1.17H;  09:59:27|| 13:00:12|| 13:10:09|| 13:11:39|| 13:12:57</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="5" t="n">
@@ -28486,6 +29061,11 @@
           <t>603955.SH; 大千生态; 1;  14:13:51; 主板; 21.41; 曾涨停; 6.5%; 0.02H;  14:13:51</t>
         </is>
       </c>
+      <c r="BS28" t="inlineStr">
+        <is>
+          <t>603585.SH; 苏利股份; 1;  10:02:03; 主板; 14.07; 曾涨停; 4.1%; 0.00H;  10:02:03</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="5" t="n">
@@ -28686,6 +29266,11 @@
           <t>000686.SZ; 东北证券; 1;  14:14:51; 主板; 8.48; 曾涨停; 5.1%; 0.01H;  14:14:51</t>
         </is>
       </c>
+      <c r="BS29" t="inlineStr">
+        <is>
+          <t>603050.SH; 科林电气; 1;  10:25:52; 主板; 22.14; 曾涨停; 6.6%; 0.06H;  10:25:52</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="5" t="n">
@@ -28881,6 +29466,11 @@
           <t>601216.SH; 君正集团; 1;  14:16:37; 主板; 6.42; 曾涨停; 7.5%; 0.15H;  14:16:37</t>
         </is>
       </c>
+      <c r="BS30" t="inlineStr">
+        <is>
+          <t>603063.SH; 禾望电气; 3;  10:26:38; 主板; 32.96; 曾涨停; 7.8%; 1.27H;  10:26:38|| 10:27:50|| 10:57:11</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="5" t="n">
@@ -29061,6 +29651,11 @@
           <t>301596.SZ; 瑞迪智驱; 3;  13:01:36; 创业板; 139.08; 曾涨停; 14.1%; 0.25H;  13:01:36|| 13:02:18|| 13:03:24</t>
         </is>
       </c>
+      <c r="BS31" t="inlineStr">
+        <is>
+          <t>002152.SZ; 广电运通; 1;  10:29:57; 主板; 13.71; 曾涨停; 7.1%; 0.30H;  10:29:57</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="5" t="n">
@@ -29221,6 +29816,11 @@
           <t>002065.SZ; 东华软件; 1;  13:02:33; 主板; 8.45; 曾涨停; 8.2%; 0.72H;  13:02:33</t>
         </is>
       </c>
+      <c r="BS32" t="inlineStr">
+        <is>
+          <t>601059.SH; 信达证券; 1;  10:33:59; 主板; 15.04; 曾涨停; 7.3%; 0.57H;  10:33:59</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="5" t="n">
@@ -29371,6 +29971,11 @@
           <t>002098.SZ; 浔兴股份; 1;  13:06:09; 主板; 8.98; 曾涨停; 5.6%; 0.16H;  13:06:09</t>
         </is>
       </c>
+      <c r="BS33" t="inlineStr">
+        <is>
+          <t>300674.SZ; 宇信科技; 1;  10:34:57; 创业板; 30.4; 曾涨停; 14.1%; 0.40H;  10:34:57</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="5" t="n">
@@ -29516,6 +30121,11 @@
           <t>000567.SZ; 海德股份; 1;  13:07:03; 主板; 6.48; 曾涨停; 7.1%; 1.03H;  13:07:03</t>
         </is>
       </c>
+      <c r="BS34" t="inlineStr">
+        <is>
+          <t>002908.SZ; 德生科技; 1;  10:41:00; 主板; 10.11; 曾涨停; 3.9%; 0.39H;  10:41:00</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="5" t="n">
@@ -29636,6 +30246,11 @@
           <t>603031.SH; 安孚科技; 1;  13:09:33; 主板; 29.4; 曾涨停; 8.2%; 0.01H;  13:09:33</t>
         </is>
       </c>
+      <c r="BS35" t="inlineStr">
+        <is>
+          <t>002285.SZ; 世联行; 1;  10:45:03; 主板; 2.7; 曾涨停; 7.6%; 0.72H;  10:45:03</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="5" t="n">
@@ -29751,6 +30366,11 @@
           <t>002777.SZ; 久远银海; 1;  13:10:39; 主板; 19.89; 曾涨停; 9.8%; 0.36H;  13:10:39</t>
         </is>
       </c>
+      <c r="BS36" t="inlineStr">
+        <is>
+          <t>603228.SH; 景旺电子; 11;  10:51:37; 主板; 36.65; 曾涨停; 7.9%; 0.21H;  10:51:37|| 10:53:31|| 10:59:37|| 11:01:31|| 11:03:46|| 11:06:10|| 11:10:25|| 11:12:40|| 11:14:37|| 11:15:49|| 11:29:55</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="5" t="n">
@@ -29861,6 +30481,11 @@
           <t>600602.SH; 云赛智联; 1;  13:11:06; 主板; 16.38; 曾涨停; 5.4%; 0.68H;  13:11:06</t>
         </is>
       </c>
+      <c r="BS37" t="inlineStr">
+        <is>
+          <t>002281.SZ; 光迅科技; 1;  10:51:39; 主板; 54.2; 曾涨停; 8.2%; 0.57H;  10:51:39</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="5" t="n">
@@ -29961,6 +30586,11 @@
           <t>002212.SZ; 天融信; 1;  13:13:03; 主板; 8.11; 曾涨停; 6.2%; 0.71H;  13:13:03</t>
         </is>
       </c>
+      <c r="BS38" t="inlineStr">
+        <is>
+          <t>002851.SZ; 麦格米特; 2;  10:58:09; 主板; 61.34; 曾涨停; 7.1%; 0.08H;  10:58:09|| 11:04:24</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="5" t="n">
@@ -30061,6 +30691,11 @@
           <t>000626.SZ; 远大控股; 1;  13:18:18; 主板; 6.07; 曾涨停; 3.2%; 0.05H;  13:18:18</t>
         </is>
       </c>
+      <c r="BS39" t="inlineStr">
+        <is>
+          <t>003019.SZ; 宸展光电; 1;  10:58:36; 主板; 26.43; 曾涨停; 7.3%; 1.28H;  10:58:36</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="5" t="n">
@@ -30161,6 +30796,11 @@
           <t>002778.SZ; 中晟高科; 1;  13:22:12; 主板; 18.89; 曾涨停; 9.4%; 1.03H;  13:22:12</t>
         </is>
       </c>
+      <c r="BS40" t="inlineStr">
+        <is>
+          <t>000948.SZ; 南天信息; 2;  11:07:57; 主板; 22.07; 曾涨停; 9.7%; 0.01H;  11:07:57|| 11:10:12</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="5" t="n">
@@ -30256,6 +30896,11 @@
           <t>603138.SH; 海量数据; 1;  13:26:35; 主板; 16.06; 曾涨停; 5.4%; 0.17H;  13:26:35</t>
         </is>
       </c>
+      <c r="BS41" t="inlineStr">
+        <is>
+          <t>603322.SH; 超讯通信; 1;  11:12:10; 主板; 48.6; 曾涨停; 8.5%; 0.00H;  11:12:10</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="5" t="n">
@@ -30346,6 +30991,11 @@
           <t>600203.SH; 福日电子; 1;  13:29:10; 主板; 9.82; 曾涨停; 8.6%; 0.21H;  13:29:10</t>
         </is>
       </c>
+      <c r="BS42" t="inlineStr">
+        <is>
+          <t>600814.SH; 杭州解百; 1;  11:27:51; 主板; 8.44; 曾涨停; 3.8%; 0.25H;  11:27:51</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="5" t="n">
@@ -30431,6 +31081,11 @@
           <t>600397.SH; 安源煤业; 2;  13:35:07; 主板; 4.52; 曾涨停; 6.6%; 0.81H;  13:35:07|| 13:36:31</t>
         </is>
       </c>
+      <c r="BS43" t="inlineStr">
+        <is>
+          <t>002574.SZ; 明牌珠宝; 1;  11:28:39; 主板; 4.9; 曾涨停; 3.6%; 0.01H;  11:28:39</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="5" t="n">
@@ -30516,6 +31171,11 @@
           <t>002757.SZ; 南兴股份; 3;  13:35:48; 主板; 18.15; 曾涨停; 5.0%; 0.03H;  13:35:48|| 13:37:33|| 13:38:06</t>
         </is>
       </c>
+      <c r="BS44" t="inlineStr">
+        <is>
+          <t>600050.SH; 中国联通; 1;  13:07:54; 主板; 6.51; 曾涨停; 8.9%; 0.00H;  13:07:54</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="5" t="n">
@@ -30601,6 +31261,11 @@
           <t>603194.SH; 中力股份; 1;  13:46:45; 主板; 37.43; 曾涨停; 7.0%; 0.00H;  13:46:45</t>
         </is>
       </c>
+      <c r="BS45" t="inlineStr">
+        <is>
+          <t>601133.SH; 柏诚股份; 1;  13:22:48; 主板; 12.11; 曾涨停; 6.0%; 0.11H;  13:22:48</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="5" t="n">
@@ -30681,6 +31346,11 @@
           <t>002281.SZ; 光迅科技; 2;  10:38:33; 主板; 52.17; 曾涨停; -6.0%; 1.74H;  10:38:33|| 13:53:24</t>
         </is>
       </c>
+      <c r="BS46" t="inlineStr">
+        <is>
+          <t>002122.SZ; 汇洲智能; 1;  13:35:48; 主板; 5.15; 曾涨停; 6.8%; 0.07H;  13:35:48</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="5" t="n">
@@ -30756,6 +31426,11 @@
           <t>600103.SH; 青山纸业; 1;  10:44:30; 主板; 2.56; 曾涨停; -7.9%; 0.07H;  10:44:30</t>
         </is>
       </c>
+      <c r="BS47" t="inlineStr">
+        <is>
+          <t>002896.SZ; 中大力德; 4;  14:19:51; 主板; 71.01; 曾涨停; 10.0%; 0.02H;  14:19:51|| 14:20:24|| 14:21:15|| 14:21:51</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="5" t="n">
@@ -30826,6 +31501,11 @@
           <t>600826.SH; 兰生股份; 2;  10:46:47; 主板; 8.6; 曾涨停; -1.8%; 1.99H;  10:46:47|| 10:54:08</t>
         </is>
       </c>
+      <c r="BS48" t="inlineStr">
+        <is>
+          <t>603189.SH; 网达软件; 2;  14:23:12; 主板; 19.38; 曾涨停; 7.1%; 0.27H;  14:23:12|| 14:26:36</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="5" t="n">
@@ -30891,6 +31571,11 @@
           <t>000801.SZ; 四川九洲; 2;  10:52:09; 主板; 14.31; 曾涨停; -5.5%; 0.07H;  10:52:09|| 10:58:06</t>
         </is>
       </c>
+      <c r="BS49" t="inlineStr">
+        <is>
+          <t>000663.SZ; 永安林业; 3;  14:53:39; 主板; 5.99; 曾涨停; 9.9%; 0.01H;  14:53:39|| 14:55:18|| 14:55:57</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="5" t="n">
@@ -30954,6 +31639,11 @@
       <c r="AG50" t="inlineStr">
         <is>
           <t>001359.SZ; 平安电工; 1;  11:16:12; 主板; 25.91; 曾涨停; -1.1%; 0.08H;  11:16:12</t>
+        </is>
+      </c>
+      <c r="BS50" t="inlineStr">
+        <is>
+          <t>603211.SH; 晋拓股份; 1;  14:54:05; 主板; 20.23; 曾涨停; 9.9%; 0.03H;  14:54:05</t>
         </is>
       </c>
     </row>
@@ -31568,7 +32258,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BQ128"/>
+  <dimension ref="A1:BS128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31917,6 +32607,16 @@
           <t>2025年02月13日</t>
         </is>
       </c>
+      <c r="BR1" s="5" t="inlineStr">
+        <is>
+          <t>2025年02月14日</t>
+        </is>
+      </c>
+      <c r="BS1" s="5" t="inlineStr">
+        <is>
+          <t>2025年02月17日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="5" t="n">
@@ -32262,6 +32962,16 @@
           <t>000702.SZ; 正虹科技; 0;  09:30:57; 首板涨停; 7.99;  09:30:57; 10.1%; 1; 猪肉+国企</t>
         </is>
       </c>
+      <c r="BR2" t="inlineStr">
+        <is>
+          <t>002211.SZ; 宏达新材; 0;  09:30:30; 首板涨停; 4.14;  09:30:30; 2.0%; 1; 高温硅橡胶+有机硅+神经网络计算（业务或已停止）</t>
+        </is>
+      </c>
+      <c r="BS2" t="inlineStr">
+        <is>
+          <t>300065.SZ; 海兰信; 0;  09:25:00; 首板涨停; 10.66;  09:25:00; 20.0%; 1; 拟购买海兰寰宇100%的股权+海洋信息技术</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="n">
@@ -32607,6 +33317,16 @@
           <t>002883.SZ; 中设股份; 0;  09:31:24; 首板涨停; 12.12;  09:31:24; 10.0%; 1; 低空经济+车联网+工程设计+国企</t>
         </is>
       </c>
+      <c r="BR3" t="inlineStr">
+        <is>
+          <t>603085.SH; 天成自控; 0;  09:31:00; 首板涨停; 11.81;  09:31:00; 0.1%; 1; 飞行汽车+汽车座椅+航天座椅</t>
+        </is>
+      </c>
+      <c r="BS3" t="inlineStr">
+        <is>
+          <t>002065.SZ; 东华软件; 0;  09:25:00; 首板涨停; 10.31;  09:25:00; 10.0%; 1; 腾讯+DeepSeek概念+数字基础设施建设</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="5" t="n">
@@ -32952,6 +33672,16 @@
           <t>603682.SH; 锦和商管; 0;  09:31:56; 首板涨停; 5.98;  09:31:56; 9.9%; 1; 新型城镇化+物业管理+IP合作</t>
         </is>
       </c>
+      <c r="BR4" t="inlineStr">
+        <is>
+          <t>002030.SZ; 达安基因; 0;  09:31:45; 首板涨停; 6.97;  09:31:45; 9.9%; 1; 智能医疗+分子诊断+基因测序+广州国资</t>
+        </is>
+      </c>
+      <c r="BS4" t="inlineStr">
+        <is>
+          <t>300069.SZ; 金利华电; 0;  09:25:00; 首板涨停; 16.09;  09:25:00; 20.0%; 1; 拟购买海德利森100%股权+电网设备</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="n">
@@ -33297,6 +34027,16 @@
           <t>301238.SZ; 瑞泰新材; 0;  09:42:18; 首板涨停; 18.84;  09:42:18; 20.0%; 1; 固态电池+锂电池+国企</t>
         </is>
       </c>
+      <c r="BR5" t="inlineStr">
+        <is>
+          <t>603716.SH; 塞力医疗; 0;  09:31:45; 首板涨停; 10.67;  09:31:45; 10.0%; 1; DRG/DIP+体外诊断+智慧供应链</t>
+        </is>
+      </c>
+      <c r="BS5" t="inlineStr">
+        <is>
+          <t>002527.SZ; 新时达; 0;  09:25:00; 首板涨停; 11.17;  09:25:00; 10.0%; 1; 海尔入主+机器人+电梯</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="5" t="n">
@@ -33642,6 +34382,16 @@
           <t>605298.SH; 必得科技; 0;  09:44:40; 首板涨停; 13.37;  09:44:40; 10.0%; 1; 高铁+轨交设备+专精特新</t>
         </is>
       </c>
+      <c r="BR6" t="inlineStr">
+        <is>
+          <t>002326.SZ; 永太科技; 1;  09:36:45; 首板涨停; 9.5;  09:32:30; -0.8%; 1; 液冷+锂电池+氟化工+宁德时代</t>
+        </is>
+      </c>
+      <c r="BS6" t="inlineStr">
+        <is>
+          <t>603629.SH; 利通电子; 0;  09:25:02; 首板涨停; 26.63;  09:25:02; 10.0%; 1; 算力租赁+英伟达概念+参股通航智能</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="n">
@@ -33987,6 +34737,16 @@
           <t>002269.SZ; 美邦服饰; 0;  09:45:12; 首板涨停; 2.35;  09:45:12; 9.8%; 1; 服装+电商+IP经济+低价股</t>
         </is>
       </c>
+      <c r="BR7" t="inlineStr">
+        <is>
+          <t>301602.SZ; 超研股份; 0;  09:37:15; 首板涨停; 31.14;  09:37:15; 14.8%; 1; 智能医疗+医疗器械+机器人概念+核电+次新股</t>
+        </is>
+      </c>
+      <c r="BS7" t="inlineStr">
+        <is>
+          <t>603818.SH; 曲美家居; 0;  09:25:03; 首板涨停; 3.14;  09:25:03; 10.2%; 1; 与群核科技（酷家乐）合作+中高档民用家具+外销</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="5" t="n">
@@ -34332,6 +35092,16 @@
           <t>600696.SH; 岩石股份; 2;  09:46:01; 首板涨停; 11.15;  09:40:01; 10.0%; 1; 白酒+电子商务</t>
         </is>
       </c>
+      <c r="BR8" t="inlineStr">
+        <is>
+          <t>002622.SZ; 皓宸医疗; 0;  09:37:45; 首板涨停; 3.43;  09:37:45; 9.9%; 1; 智能医疗+口腔医疗</t>
+        </is>
+      </c>
+      <c r="BS8" t="inlineStr">
+        <is>
+          <t>601616.SH; 广电电气; 0;  09:25:03; 首板涨停; 4.51;  09:25:03; 10.0%; 1; 腾讯概念+数据中心+年报预增+电力设备</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="n">
@@ -34677,6 +35447,16 @@
           <t>300530.SZ; 领湃科技; 0;  09:51:57; 首板涨停; 20.4;  09:51:57; 20.0%; 1; 固态电池+充电桩+湖南国资</t>
         </is>
       </c>
+      <c r="BR9" t="inlineStr">
+        <is>
+          <t>002254.SZ; 泰和新材; 0;  09:38:45; 首板涨停; 10.38;  09:38:45; 0.5%; 1; 化纤+顺周期+国企改革</t>
+        </is>
+      </c>
+      <c r="BS9" t="inlineStr">
+        <is>
+          <t>002848.SZ; 高斯贝尔; 0;  09:31:27; 首板涨停; 6.91;  09:31:27; 10.0%; 1; 卫星导航+覆铜板+算力+国企</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="5" t="n">
@@ -35022,6 +35802,16 @@
           <t>603278.SH; 大业股份; 2;  09:52:00; 首板涨停; 11.06;  09:30:24; 10.0%; 1; 灵巧手+轮胎+拟投建摩洛哥生产基地</t>
         </is>
       </c>
+      <c r="BR10" t="inlineStr">
+        <is>
+          <t>002524.SZ; 光正眼科; 0;  09:39:15; 首板涨停; 4.52;  09:39:15; 10.0%; 1; 眼科医疗+全飞秒</t>
+        </is>
+      </c>
+      <c r="BS10" t="inlineStr">
+        <is>
+          <t>002786.SZ; 银宝山新; 0;  09:31:39; 首板涨停; 10.58;  09:31:39; 10.0%; 1; 实控人东方资管(AMC)+机器人+芯片激光焊接机+华为汽车</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="5" t="n">
@@ -35367,6 +36157,16 @@
           <t>603477.SH; 巨星农牧; 1;  09:52:19; 首板涨停; 17.92;  09:45:01; 10.0%; 1; 1月销量同比增长+生猪+饲料+皮革</t>
         </is>
       </c>
+      <c r="BR11" t="inlineStr">
+        <is>
+          <t>000032.SZ; 深桑达A; 1;  09:41:30; 首板涨停; 25.34;  09:31:00; 5.7%; 1; 数据要素+云计算+央企+DeepSeek</t>
+        </is>
+      </c>
+      <c r="BS11" t="inlineStr">
+        <is>
+          <t>603389.SH; 亚振家居; 0;  09:32:22; 首板涨停; 5.84;  09:32:22; 10.0%; 1; 智能家居+酷家乐+培育钻石+新零售</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="5" t="n">
@@ -35712,6 +36512,16 @@
           <t>600868.SH; 梅雁吉祥; 1;  09:59:37; 首板涨停; 3.05;  09:53:13; 10.1%; 1; 氢能源+绿色电力+飞轮储能+锑+回购增持再贷款</t>
         </is>
       </c>
+      <c r="BR12" t="inlineStr">
+        <is>
+          <t>600421.SH; 华嵘控股; 0;  09:47:00; 首板涨停; 7.61;  09:47:00; 10.0%; 1; 数据要素+房屋建筑PC构件+装配式建筑+风电混塔模具</t>
+        </is>
+      </c>
+      <c r="BS12" t="inlineStr">
+        <is>
+          <t>600678.SH; 四川金顶; 1;  09:34:13; 首板涨停; 7.21;  09:30:49; 10.1%; 1; DeepSeek概念+子公司近期竞得采矿权+氢能源+建筑材料</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="5" t="n">
@@ -36057,6 +36867,16 @@
           <t>300071.SZ; 福石控股; 2;  10:01:15; 首板涨停; 7.88;  09:55:03; 19.9%; 1; AI营销+DeepSeek概念+实控人增持</t>
         </is>
       </c>
+      <c r="BR13" t="inlineStr">
+        <is>
+          <t>600539.SH; 狮头股份; 0;  09:49:00; 首板涨停; 9.46;  09:49:00; 0.5%; 1; 电商服务+宠物食品+布局小红书</t>
+        </is>
+      </c>
+      <c r="BS13" t="inlineStr">
+        <is>
+          <t>603838.SH; 四通股份; 0;  09:34:15; 首板涨停; 5.68;  09:34:15; 10.1%; 1; 家居生活陶瓷+外销+与马可波罗为同一实控人+微盘股</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="5" t="n">
@@ -36402,6 +37222,16 @@
           <t>601789.SH; 宁波建工; 0;  10:03:24; 首板涨停; 5.47;  10:03:24; 10.1%; 1; 参股中经云+拟收购宁波交工100%股权+工程施工+宁波国资</t>
         </is>
       </c>
+      <c r="BR14" t="inlineStr">
+        <is>
+          <t>600734.SH; 实达集团; 2;  09:57:43; 首板涨停; 4.46;  09:32:30; -0.7%; 1; AI智能体+数据要素+算力+资产注入预期</t>
+        </is>
+      </c>
+      <c r="BS14" t="inlineStr">
+        <is>
+          <t>002686.SZ; 亿利达; 1;  09:34:24; 首板涨停; 5.95;  09:30:33; 10.0%; 1; AMC+空调风机+高压快充+浙江国资</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="5" t="n">
@@ -36742,6 +37572,16 @@
           <t>600658.SH; 电子城; 0;  10:21:11; 首板涨停; 5.18;  10:21:11; 10.0%; 1; 云计算+创投+房地产+北京国资</t>
         </is>
       </c>
+      <c r="BR15" t="inlineStr">
+        <is>
+          <t>600397.SH; 安源煤业; 0;  09:58:43; 首板涨停; 5.18;  09:58:43; 0.8%; 1; 控股股东拟变更为江钨控股+煤炭+江西国资</t>
+        </is>
+      </c>
+      <c r="BS15" t="inlineStr">
+        <is>
+          <t>603813.SH; 原尚股份; 0;  09:36:21; 首板涨停; 10.86;  09:36:21; 10.0%; 1; 物流+冷链物流</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="5" t="n">
@@ -37082,6 +37922,16 @@
           <t>605296.SH; 神农集团; 0;  10:21:33; 首板涨停; 27.56;  10:21:33; 10.0%; 1; 猪肉+预制菜</t>
         </is>
       </c>
+      <c r="BR16" t="inlineStr">
+        <is>
+          <t>000034.SZ; 神州数码; 0;  10:00:19; 首板涨停; 54.22;  10:00:19; 2.4%; 1; 华为昇腾+DeepSeek概念</t>
+        </is>
+      </c>
+      <c r="BS16" t="inlineStr">
+        <is>
+          <t>605186.SH; 健麾信息; 0;  09:37:08; 首板涨停; 24.88;  09:37:08; 10.0%; 1; 接入DeepSeek+智慧药房+机器人+AI语料</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="5" t="n">
@@ -37417,6 +38267,16 @@
           <t>600503.SH; 华丽家族; 0;  10:23:53; 首板涨停; 2.92;  10:23:53; 10.2%; 1; 房地产+机器人+石墨烯</t>
         </is>
       </c>
+      <c r="BR17" t="inlineStr">
+        <is>
+          <t>000695.SZ; 滨海能源; 0;  10:06:45; 首板涨停; 10.65;  10:06:45; -2.0%; 1; 硅基负极+固态电池+光伏+包装印刷</t>
+        </is>
+      </c>
+      <c r="BS17" t="inlineStr">
+        <is>
+          <t>600590.SH; 泰豪科技; 1;  09:38:53; 首板涨停; 6.14;  09:31:56; 10.0%; 1; 数据中心发电机+机器狗+军工+混改/重组经验丰富</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="5" t="n">
@@ -37752,6 +38612,16 @@
           <t>603636.SH; 南威软件; 0;  10:47:43; 首板涨停; 16.61;  10:47:43; 10.0%; 1; DeepSeek概念+AI智能体+华为昇腾+数字政府</t>
         </is>
       </c>
+      <c r="BR18" t="inlineStr">
+        <is>
+          <t>300287.SZ; 飞利信; 0;  10:11:57; 首板涨停; 7.38;  10:11:57; 2.6%; 1; 算力+数据要素+会议音视频+国产版“谷歌地球”</t>
+        </is>
+      </c>
+      <c r="BS18" t="inlineStr">
+        <is>
+          <t>301428.SZ; 世纪恒通; 7;  09:40:12; 首板涨停; 48.1;  09:25:00; 20.0%; 1; 腾讯合作+营销+车主信息服务</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="5" t="n">
@@ -38082,6 +38952,16 @@
           <t>603918.SH; 金桥信息; 0;  10:57:04; 首板涨停; 18.99;  10:57:04; 10.0%; 1; 智慧法院+蚂蚁+化债(AMC概念）</t>
         </is>
       </c>
+      <c r="BR19" t="inlineStr">
+        <is>
+          <t>601100.SH; 恒立液压; 1;  10:13:09; 首板涨停; 70.55;  10:00:04; 1.9%; 1; 高端装备+油缸+滚珠丝杠+线性驱动器</t>
+        </is>
+      </c>
+      <c r="BS19" t="inlineStr">
+        <is>
+          <t>603070.SH; 万控智造; 0;  09:43:31; 首板涨停; 15.19;  09:43:31; 10.0%; 1; 数据中心+配电开关控制设备+环网柜</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="5" t="n">
@@ -38412,6 +39292,16 @@
           <t>002693.SZ; 双成药业; 8;  11:11:30; 首板涨停; 17.38;  10:42:39; 10.0%; 1; 拟收购宁波奥拉半导体+多肽药</t>
         </is>
       </c>
+      <c r="BR20" t="inlineStr">
+        <is>
+          <t>600498.SH; 烽火通信; 3;  10:22:25; 首板涨停; 24.94;  10:08:21; -1.3%; 1; 算力+华为+央企</t>
+        </is>
+      </c>
+      <c r="BS20" t="inlineStr">
+        <is>
+          <t>600817.SH; 宇通重工; 2;  09:44:40; 首板涨停; 13.06;  09:25:01; 10.0%; 1; 文远知行合作+无人驾驶+环卫设备+新能源环卫车</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="5" t="n">
@@ -38742,6 +39632,16 @@
           <t>600340.SH; 华夏幸福; 0;  11:15:02; 首板涨停; 2.83;  11:15:02; 10.1%; 1; 房地产+低空经济+债务重组</t>
         </is>
       </c>
+      <c r="BR21" t="inlineStr">
+        <is>
+          <t>000503.SZ; 国新健康; 1;  10:28:55; 首板涨停; 12.78;  09:53:37; 2.1%; 1; DRG/DIP+数据要素+央企</t>
+        </is>
+      </c>
+      <c r="BS21" t="inlineStr">
+        <is>
+          <t>603315.SH; 福鞍股份; 0;  09:46:02; 首板涨停; 12.4;  09:46:02; 10.0%; 1; 算力+锂电池+大型铸钢件+年报预增</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="5" t="n">
@@ -39072,6 +39972,16 @@
           <t>000892.SZ; 欢瑞世纪; 1;  11:15:39; 首板涨停; 3.93;  10:40:39; 10.1%; 1; 影视剧+IP经济+直播带货+短剧</t>
         </is>
       </c>
+      <c r="BR22" t="inlineStr">
+        <is>
+          <t>002335.SZ; 科华数据; 0;  10:33:12; 首板涨停; 41.97;  10:33:12; 10.0%; 1; 数据中心+UPS+液冷+DeepSeek概念</t>
+        </is>
+      </c>
+      <c r="BS22" t="inlineStr">
+        <is>
+          <t>003032.SZ; 传智教育; 0;  09:50:27; 首板涨停; 9.94;  09:50:27; 10.0%; 1; 教育+人形机器人+华为鸿蒙+收购成功</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="5" t="n">
@@ -39397,6 +40307,16 @@
           <t>001330.SZ; 博纳影业; 0;  11:20:45; 首板涨停; 6.02;  11:20:45; 10.1%; 1; 影视院线+阿里巴巴+AIGC</t>
         </is>
       </c>
+      <c r="BR23" t="inlineStr">
+        <is>
+          <t>603768.SH; 常青股份; 0;  10:39:48; 首板涨停; 13.42;  10:39:48; -2.8%; 1; 汽车零部件+华为汽车+一体化压铸</t>
+        </is>
+      </c>
+      <c r="BS23" t="inlineStr">
+        <is>
+          <t>603275.SH; 众辰科技; 0;  09:54:51; 首板涨停; 41.47;  09:54:51; 10.0%; 1; 机器人+工业自动化</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="5" t="n">
@@ -39717,6 +40637,16 @@
           <t>300816.SZ; 艾可蓝; 0;  11:21:36; 首板涨停; 31.66;  11:21:36; 20.0%; 1; 参股云计算公司+DeepSeek概念+发动机尾气后处理+氢能源</t>
         </is>
       </c>
+      <c r="BR24" t="inlineStr">
+        <is>
+          <t>002436.SZ; 兴森科技; 0;  10:40:50; 首板涨停; 12.81;  10:40:50; 1.6%; 1; PCB+先进封装+华为+低空经济</t>
+        </is>
+      </c>
+      <c r="BS24" t="inlineStr">
+        <is>
+          <t>000839.SZ; 中信国安; 2;  10:03:57; 首板涨停; 3.39;  09:51:42; 10.1%; 1; 央企+此前控股股东重整+传媒</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="5" t="n">
@@ -40037,6 +40967,16 @@
           <t>603095.SH; 越剑智能; 0;  11:29:21; 首板涨停; 26.11;  11:29:21; 10.0%; 1; 机器人+华为+智能制造+创投</t>
         </is>
       </c>
+      <c r="BR25" t="inlineStr">
+        <is>
+          <t>000710.SZ; 贝瑞基因; 5;  11:00:38; 首板涨停; 12.8;  09:31:15; 10.0%; 1; 智能医疗+基因检测+生育健康</t>
+        </is>
+      </c>
+      <c r="BS25" t="inlineStr">
+        <is>
+          <t>002629.SZ; 仁智股份; 0;  10:05:42; 首板涨停; 5.04;  10:05:42; 10.0%; 1; 光伏+油服工程+年报预计扭亏</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="5" t="n">
@@ -40352,6 +41292,16 @@
           <t>603815.SH; 交建股份; 0;  13:02:41; 首板涨停; 6.96;  13:02:41; 10.0%; 1; 基建+新型城镇化+设合资公司</t>
         </is>
       </c>
+      <c r="BR26" t="inlineStr">
+        <is>
+          <t>300212.SZ; 易华录; 0;  11:09:51; 首板涨停; 28.83;  11:09:51; -2.4%; 1; 数据要素+央企</t>
+        </is>
+      </c>
+      <c r="BS26" t="inlineStr">
+        <is>
+          <t>603269.SH; 海鸥股份; 0;  10:07:47; 首板涨停; 12.43;  10:07:47; 10.0%; 1; 冷却塔+氢能源+核电+外销</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="5" t="n">
@@ -40662,6 +41612,16 @@
           <t>002238.SZ; 天威视讯; 0;  13:17:21; 首板涨停; 9.37;  13:17:21; 10.0%; 1; 短剧+数字电视+数据中心+深圳国资</t>
         </is>
       </c>
+      <c r="BR27" t="inlineStr">
+        <is>
+          <t>603990.SH; 麦迪科技; 5;  13:00:13; 首板涨停; 16.2;  09:39:30; 10.0%; 1; AI医疗+人形机器人+民营医院+国企</t>
+        </is>
+      </c>
+      <c r="BS27" t="inlineStr">
+        <is>
+          <t>000816.SZ; 智慧农业; 0;  10:09:03; 首板涨停; 3.59;  10:09:03; 10.1%; 1; 农机+有色金属+外销</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="5" t="n">
@@ -40967,6 +41927,16 @@
           <t>600439.SH; 瑞贝卡; 0;  13:18:59; 首板涨停; 3.89;  13:18:59; 9.9%; 1; 资产注入预期+华为昇腾+假发+外销</t>
         </is>
       </c>
+      <c r="BR28" t="inlineStr">
+        <is>
+          <t>603039.SH; 泛微网络; 0;  13:19:58; 首板涨停; 79.9;  13:19:58; 3.2%; 1; DeepSeek概念+AI应用+信创+办公软件</t>
+        </is>
+      </c>
+      <c r="BS28" t="inlineStr">
+        <is>
+          <t>300359.SZ; 全通教育; 0;  10:10:33; 首板涨停; 6.98;  10:10:33; 19.9%; 1; 智慧教育</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="5" t="n">
@@ -41262,6 +42232,16 @@
           <t>002307.SZ; 北新路桥; 2;  13:27:00; 首板涨停; 4.05;  09:49:00; 10.1%; 1; 新疆国资+基建+高速公路</t>
         </is>
       </c>
+      <c r="BR29" t="inlineStr">
+        <is>
+          <t>300078.SZ; 思创医惠; 3;  13:22:08; 首板涨停; 5.27;  09:54:54; 15.1%; 1; DRG/DIP+智慧医疗+辅助生殖</t>
+        </is>
+      </c>
+      <c r="BS29" t="inlineStr">
+        <is>
+          <t>603917.SH; 合力科技; 1;  10:13:03; 首板涨停; 12.84;  09:56:42; 10.0%; 1; 汽车零部件+一体化压铸+智能制造</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="5" t="n">
@@ -41552,6 +42532,16 @@
           <t>301396.SZ; 宏景科技; 4;  13:41:48; 首板涨停; 37.92;  13:00:48; 20.0%; 1; AI智能体+算力+智慧城市</t>
         </is>
       </c>
+      <c r="BR30" t="inlineStr">
+        <is>
+          <t>301230.SZ; 泓博医药; 0;  13:26:53; 首板涨停; 44.33;  13:26:53; 20.0%; 1; AI制药+创新药+外销</t>
+        </is>
+      </c>
+      <c r="BS30" t="inlineStr">
+        <is>
+          <t>600892.SH; 大晟文化; 0;  10:15:27; 首板涨停; 3.55;  10:15:27; 9.9%; 1; 影视+网络游戏+唐山国资入主</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="5" t="n">
@@ -41837,6 +42827,16 @@
           <t>000833.SZ; 粤桂股份; 6;  13:49:00; 首板涨停; 14.05;  09:46:00; 10.0%; 1; 锂电池+硫铁矿+光伏+广东国资</t>
         </is>
       </c>
+      <c r="BR31" t="inlineStr">
+        <is>
+          <t>002990.SZ; 盛视科技; 0;  13:29:08; 首板涨停; 28.11;  13:29:08; -0.6%; 1; 多模态AI+机器人+华为昇腾+智慧口岸</t>
+        </is>
+      </c>
+      <c r="BS31" t="inlineStr">
+        <is>
+          <t>600130.SH; 波导股份; 0;  10:22:04; 首板涨停; 3.98;  10:22:04; 9.9%; 1; 手机+汽车电子+参股华大北斗</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="5" t="n">
@@ -42122,6 +43122,16 @@
           <t>002717.SZ; 岭南股份; 0;  13:57:42; 首板涨停; 3.85;  13:57:42; 10.0%; 1; 影视IP+营销+腾讯+抖音+国企</t>
         </is>
       </c>
+      <c r="BR32" t="inlineStr">
+        <is>
+          <t>300454.SZ; 深信服; 7;  13:42:53; 首板涨停; 100;  13:13:58; -5.3%; 1; 云计算+网络安全+机器人</t>
+        </is>
+      </c>
+      <c r="BS32" t="inlineStr">
+        <is>
+          <t>600217.SH; 中再资环; 0;  10:24:56; 首板涨停; 5.31;  10:24:56; 9.9%; 1; 资产重组预期+供销社+固废回收</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="5" t="n">
@@ -42402,6 +43412,16 @@
           <t>002694.SZ; 顾地科技; 0;  14:06:06; 首板涨停; 4.86;  14:06:06; 10.0%; 1; 地下管网+水利+新型城镇化+旅游</t>
         </is>
       </c>
+      <c r="BR33" t="inlineStr">
+        <is>
+          <t>603258.SH; 电魂网络; 0;  13:56:59; 首板涨停; 26.01;  13:56:59; 3.6%; 1; 杭州+网络游戏+AIGC概念</t>
+        </is>
+      </c>
+      <c r="BS33" t="inlineStr">
+        <is>
+          <t>603109.SH; 神驰机电; 0;  10:29:07; 首板涨停; 19.86;  10:29:07; 10.0%; 1; 小型发电机+数据中心+汽车零部件+农机</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="5" t="n">
@@ -42677,6 +43697,16 @@
           <t>002649.SZ; 博彦科技; 1;  14:09:27; 首板涨停; 16.94;  13:11:03; 10.0%; 2; 金融信创+阿里等大模型厂商合作+鸿蒙</t>
         </is>
       </c>
+      <c r="BR34" t="inlineStr">
+        <is>
+          <t>002777.SZ; 久远银海; 1;  14:04:21; 首板涨停; 22.13;  13:29:38; -0.7%; 1; 银海“闻语”大模型+DRG/DIP+数据要素+国企</t>
+        </is>
+      </c>
+      <c r="BS34" t="inlineStr">
+        <is>
+          <t>601010.SH; 文峰股份; 2;  10:30:58; 首板涨停; 3.08;  10:29:46; 10.0%; 1; 零售+电商+低价股</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="5" t="n">
@@ -42952,6 +43982,16 @@
           <t>603086.SH; 先达股份; 0;  14:36:51; 首板涨停; 4.91;  14:36:51; 10.1%; 1; 农药+生态农业+大豆</t>
         </is>
       </c>
+      <c r="BR35" t="inlineStr">
+        <is>
+          <t>002112.SZ; 三变科技; 11;  14:08:36; 首板涨停; 17.49;  10:42:23; 10.0%; 1; 数据中心+电力设备+光伏+国企</t>
+        </is>
+      </c>
+      <c r="BS35" t="inlineStr">
+        <is>
+          <t>603717.SH; 天域生物; 0;  10:33:06; 首板涨停; 8.48;  10:33:06; 10.0%; 1; 猪肉+养殖+光伏+锂电池</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="5" t="n">
@@ -43222,6 +44262,16 @@
           <t>002739.SZ; 万达电影; 6;  14:40:30; 首板涨停; 13.65;  13:01:15; 10.0%; 1; 电影+IP经济</t>
         </is>
       </c>
+      <c r="BR36" t="inlineStr">
+        <is>
+          <t>600602.SH; 云赛智联; 5;  14:12:36; 首板涨停; 21.12;  13:09:13; 10.0%; 1; 国资云+算力+阿里+华为+Deepseek概念</t>
+        </is>
+      </c>
+      <c r="BS36" t="inlineStr">
+        <is>
+          <t>603789.SH; 星光农机; 2;  10:34:08; 首板涨停; 7.17;  10:00:20; 10.0%; 1; 农机+机器人+资产注入预期</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="5" t="n">
@@ -43492,6 +44542,16 @@
           <t>000838.SZ; 财信发展; 0;  14:41:54; 首板涨停; 2.81;  14:41:54; 10.2%; 1; 房地产+破产重整申请+重庆+环保</t>
         </is>
       </c>
+      <c r="BR37" t="inlineStr">
+        <is>
+          <t>002095.SZ; 生意宝; 0;  14:12:51; 首板涨停; 22.23;  14:12:51; 3.6%; 1; 数据要素+跨境电商+互联网金融</t>
+        </is>
+      </c>
+      <c r="BS37" t="inlineStr">
+        <is>
+          <t>002893.SZ; 京能热力; 0;  10:37:24; 首板涨停; 10.65;  10:37:24; 10.0%; 1; 热力供应+供热节能+资产注入预期+北京国资</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="5" t="n">
@@ -43757,6 +44817,16 @@
           <t>002761.SZ; 浙江建投; 0;  14:46:54; 首板涨停; 9.81;  14:46:54; 10.0%; 1; 大基建+一带一路+浙江国资</t>
         </is>
       </c>
+      <c r="BR38" t="inlineStr">
+        <is>
+          <t>603882.SH; 金域医学; 2;  14:12:51; 首板涨停; 37.22;  10:52:08; 2.5%; 1; 智能医疗+第三方医学检验</t>
+        </is>
+      </c>
+      <c r="BS38" t="inlineStr">
+        <is>
+          <t>002816.SZ; 和科达; 0;  10:38:15; 首板涨停; 15.14;  10:38:15; 10.0%; 1; 半导体清洗+阜阳国资入主+污水处理</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="5" t="n">
@@ -44017,6 +45087,16 @@
           <t>300027.SZ; 华谊兄弟; 6;  14:51:33; 首板涨停; 3.5;  13:28:09; 19.9%; 1; 影视+IP运营+短剧</t>
         </is>
       </c>
+      <c r="BR39" t="inlineStr">
+        <is>
+          <t>600624.SH; 复旦复华; 6;  14:13:36; 首板涨停; 7.84;  13:35:38; 0.0%; 1; 医药+量子科技+数字经济+上海国资</t>
+        </is>
+      </c>
+      <c r="BS39" t="inlineStr">
+        <is>
+          <t>002133.SZ; 广宇集团; 0;  10:41:06; 首板涨停; 2.76;  10:41:06; 10.0%; 1; 拟增资健康管理子公司+房地产+农业种植+低价破净股</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="5" t="n">
@@ -44267,6 +45347,16 @@
           <t>601599.SH; 浙文影业; 1;  14:52:57; 首板涨停; 4.49;  10:06:51; 10.0%; 1; 影视院线+资产注入预期+浙江国资</t>
         </is>
       </c>
+      <c r="BR40" t="inlineStr">
+        <is>
+          <t>300478.SZ; 杭州高新; 0;  14:16:06; 首板涨停; 15.53;  14:16:06; 20.0%; 1; 杭州+网络游戏+线缆用高分子材料+核电</t>
+        </is>
+      </c>
+      <c r="BS40" t="inlineStr">
+        <is>
+          <t>000056.SZ; 皇庭国际; 0;  10:43:30; 首板涨停; 3.48;  10:43:30; 10.1%; 1; 功率半导体+先进封装+债务重组+不动产运营管理</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="5" t="n">
@@ -44517,6 +45607,16 @@
           <t>600588.SH; 用友网络; 1;  14:56:00; 首板涨停; 17.4;  09:50:06; 10.0%; 1; 云计算+DeepSeek概念+ERP龙头+AI智能体</t>
         </is>
       </c>
+      <c r="BR41" t="inlineStr">
+        <is>
+          <t>603739.SH; 蔚蓝生物; 0;  14:16:51; 首板涨停; 13.53;  14:16:51; -1.6%; 1; 合成生物+食品安全</t>
+        </is>
+      </c>
+      <c r="BS41" t="inlineStr">
+        <is>
+          <t>603637.SH; 镇海股份; 0;  10:47:45; 首板涨停; 9.39;  10:47:45; 10.0%; 1; 国企改革+石油化工+氢能源</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="5" t="n">
@@ -44757,6 +45857,16 @@
           <t>600327.SH; 大东方; 0;  14:37:49; 首板涨停; 5.68;  14:37:49; 10.1%; 1; 零售+医疗健康+老字号</t>
         </is>
       </c>
+      <c r="BR42" t="inlineStr">
+        <is>
+          <t>300153.SZ; 科泰电源; 0;  14:18:36; 首板涨停; 23.71;  14:18:36; 12.1%; 1; 数据中心+电力设备+储能</t>
+        </is>
+      </c>
+      <c r="BS42" t="inlineStr">
+        <is>
+          <t>605060.SH; 联德股份; 0;  10:53:47; 首板涨停; 21.33;  10:53:47; 10.0%; 1; 压缩机+数据中心+出海+工业互联网</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="5" t="n">
@@ -44997,6 +46107,16 @@
           <t>000997.SZ; 新大陆; 9;  14:40:42; 首板涨停; 24.62;  14:18:42; 10.0%; 1; 接入DeepSeek+多模态AI+计算机设备</t>
         </is>
       </c>
+      <c r="BR43" t="inlineStr">
+        <is>
+          <t>301585.SZ; 蓝宇股份; 0;  14:18:51; 首板涨停; 57;  14:18:51; 12.8%; 1; 次新股+数码喷印墨水+专精特新+浙江</t>
+        </is>
+      </c>
+      <c r="BS43" t="inlineStr">
+        <is>
+          <t>000533.SZ; 顺钠股份; 1;  11:04:57; 首板涨停; 6.71;  10:58:21; 10.0%; 1; 东数西算+输配电设备+核电变压器+光伏</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="5" t="n">
@@ -45237,6 +46357,16 @@
           <t>300344.SZ; 立方数科; 1;  14:42:42; 首板涨停; 7.63;  11:22:18; 20.0%; 1; 拟间接收购云掌财经+智能软硬件+云计算</t>
         </is>
       </c>
+      <c r="BR44" t="inlineStr">
+        <is>
+          <t>301459.SZ; 丰茂股份; 0;  14:22:51; 首板涨停; 61.27;  14:22:51; 20.0%; 1; 汽车零部件+比亚迪概念+橡胶</t>
+        </is>
+      </c>
+      <c r="BS44" t="inlineStr">
+        <is>
+          <t>001324.SZ; 长青科技; 0;  11:05:39; 首板涨停; 19.26;  11:05:39; 10.0%; 1; 机器人+轨道交通</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="5" t="n">
@@ -45462,6 +46592,16 @@
           <t>601162.SH; 天风证券; 0;  14:44:29; 首板涨停; 4.77;  14:44:29; 9.9%; 1; 证券+国企+推进增持计划</t>
         </is>
       </c>
+      <c r="BR45" t="inlineStr">
+        <is>
+          <t>603031.SH; 安孚科技; 1;  14:25:39; 首板涨停; 30.28;  14:22:28; -1.7%; 1; GPU企业象帝先战略合作+南孚电池</t>
+        </is>
+      </c>
+      <c r="BS45" t="inlineStr">
+        <is>
+          <t>002501.SZ; 利源股份; 2;  11:07:51; 首板涨停; 1.84;  10:42:54; 10.2%; 1; 光伏+工业铝型材+新能源汽车+低价股</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="5" t="n">
@@ -45682,6 +46822,16 @@
           <t>002530.SZ; 金财互联; 2;  14:44:33; 首板涨停; 13.09;  11:11:06; 10.0%; 1; 云计算+AI智能体+财税大模型+机器人</t>
         </is>
       </c>
+      <c r="BR46" t="inlineStr">
+        <is>
+          <t>002632.SZ; 道明光学; 3;  14:26:57; 首板涨停; 9.38;  10:19:47; -3.7%; 1; 石墨烯散热膜+固态电池+智能终端+AI手机</t>
+        </is>
+      </c>
+      <c r="BS46" t="inlineStr">
+        <is>
+          <t>002067.SZ; 景兴纸业; 0;  13:00:15; 首板涨停; 4.48;  13:00:15; 10.1%; 1; 间接投资宇树科技+机器人+造纸</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="5" t="n">
@@ -45892,6 +47042,16 @@
           <t>600761.SH; 安徽合力; 17;  14:47:19; 首板涨停; 19.31;  13:38:07; 10.0%; 1; AGV全系列产品+工业互联网+工业车辆+国企</t>
         </is>
       </c>
+      <c r="BR47" t="inlineStr">
+        <is>
+          <t>000948.SZ; 南天信息; 1;  14:40:36; 首板涨停; 22.07;  14:38:45; 9.7%; 1; 金融科技+信创+云南国资+华为</t>
+        </is>
+      </c>
+      <c r="BS47" t="inlineStr">
+        <is>
+          <t>002137.SZ; 实益达; 2;  13:12:36; 首板涨停; 9.52;  13:03:24; 10.1%; 1; 间接投资宇树科技+微信营销+智能终端+先进封装</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="5" t="n">
@@ -46102,6 +47262,16 @@
           <t>600173.SH; 卧龙地产; 0;  14:48:59; 首板涨停; 5.3;  14:48:59; 10.0%; 1; 房地产+金属铜+稀土+拟收购资产</t>
         </is>
       </c>
+      <c r="BR48" t="inlineStr">
+        <is>
+          <t>002841.SZ; 视源股份; 0;  14:45:52; 首板涨停; 45.9;  14:45:52; 5.1%; 1; DeepSeek概念+液晶显示主控板卡+机器人+并购预期</t>
+        </is>
+      </c>
+      <c r="BS48" t="inlineStr">
+        <is>
+          <t>002058.SZ; 威尔泰; 0;  13:18:12; 首板涨停; 10.25;  13:18:12; 10.0%; 1; 筹划重大资产重组+汽车检具+特斯拉</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="5" t="n">
@@ -46307,6 +47477,16 @@
           <t>603171.SH; 税友股份; 4;  14:51:43; 首板涨停; 42.67;  11:04:49; 10.0%; 1; 云计算+DeepSeek概念+财税数字化+华为鸿蒙</t>
         </is>
       </c>
+      <c r="BR49" t="inlineStr">
+        <is>
+          <t>603108.SH; 润达医疗; 5;  14:45:52; 首板涨停; 22.61;  13:11:28; 2.8%; 1; AI医生助理+华为+杭州国资</t>
+        </is>
+      </c>
+      <c r="BS49" t="inlineStr">
+        <is>
+          <t>000096.SZ; 广聚能源; 0;  13:32:48; 首板涨停; 13.94;  13:32:48; 10.0%; 1; 拟收购航天欧华100%股权+石油石化+国企改革</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="5" t="n">
@@ -46512,6 +47692,16 @@
           <t>000002.SZ; 万科A; 0;  14:52:48; 首板涨停; 7.96;  14:52:48; 9.9%; 1; 万科AH股直线拉升</t>
         </is>
       </c>
+      <c r="BR50" t="inlineStr">
+        <is>
+          <t>002208.SZ; 合肥城建; 2;  14:56:18; 首板涨停; 7.85;  14:33:52; -0.8%; 1; 蚂蚁金服概念+房地产+合肥国资+拟收购安徽公共资源交易集团</t>
+        </is>
+      </c>
+      <c r="BS50" t="inlineStr">
+        <is>
+          <t>002010.SZ; 传化智联; 2;  13:36:36; 首板涨停; 5.68;  11:16:39; 10.1%; 1; 参股蚂蚁消金+物流+合成橡胶</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="5" t="n">
@@ -46712,6 +47902,11 @@
           <t>300170.SZ; 汉得信息; 6;  14:53:54; 首板涨停; 25.22;  13:04:21; 20.0%; 1; DeepSeek概念+AI智能体+字节+ERP</t>
         </is>
       </c>
+      <c r="BS51" t="inlineStr">
+        <is>
+          <t>001298.SZ; 好上好; 1;  13:41:33; 首板涨停; 27.19;  13:18:48; 10.0%; 1; 存储芯片+分销+AI眼镜+外销</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="5" t="n">
@@ -46892,6 +48087,11 @@
           <t>002693.SZ; 双成药业; 0;  13:28:09; 首板涨停; 15.62;  13:28:09; 10.0%; 1; 拟收购宁波奥拉半导体+多肽药</t>
         </is>
       </c>
+      <c r="BS52" t="inlineStr">
+        <is>
+          <t>000967.SZ; 盈峰环境; 3;  13:42:06; 首板涨停; 5.3;  09:56:30; 10.0%; 1; 云计算+智慧环卫+机器人</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="5" t="n">
@@ -47067,6 +48267,11 @@
           <t>600996.SH; 贵广网络; 0;  13:41:19; 首板涨停; 9.25;  13:41:19; 10.0%; 1; 算力+腾讯云交流座谈+电视广播+贵州国资</t>
         </is>
       </c>
+      <c r="BS53" t="inlineStr">
+        <is>
+          <t>600107.SH; 美尔雅; 1;  13:42:28; 首板涨停; 5.07;  10:17:43; 10.0%; 1; 服装服饰+医药商业+天然气</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="5" t="n">
@@ -47227,6 +48432,11 @@
           <t>000958.SZ; 电投产融; 3;  13:58:00; 首板涨停; 6.52;  10:55:09; 9.9%; 1; 央企+拟置入电投核能100%股权</t>
         </is>
       </c>
+      <c r="BS54" t="inlineStr">
+        <is>
+          <t>002681.SZ; 奋达科技; 3;  13:42:48; 首板涨停; 8.43;  09:56:30; 10.1%; 1; AI陪伴机器人+智能穿戴+智能音箱</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="5" t="n">
@@ -47387,6 +48597,11 @@
           <t>603881.SH; 数据港; 7;  14:00:40; 首板涨停; 24.7;  09:33:55; 10.0%; 1; 数据中心+液冷+上海国资</t>
         </is>
       </c>
+      <c r="BS55" t="inlineStr">
+        <is>
+          <t>301189.SZ; 奥尼电子; 2;  13:48:12; 首板涨停; 30.08;  09:42:48; 20.0%; 1; 智能视听终端+车载摄像头+英伟达</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="5" t="n">
@@ -47537,6 +48752,11 @@
           <t>600814.SH; 杭州解百; 0;  14:04:32; 首板涨停; 7.92;  14:04:32; 10.0%; 1; 百货商场+杭州国资</t>
         </is>
       </c>
+      <c r="BS56" t="inlineStr">
+        <is>
+          <t>603360.SH; 百傲化学; 2;  13:48:37; 首板涨停; 27.53;  13:24:52; 10.0%; 1; 光刻机+拟跨界并购半导体公司芯慧联+股权变动+工业杀菌剂</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="5" t="n">
@@ -47687,6 +48907,11 @@
           <t>000564.SZ; 供销大集; 0;  14:12:21; 首板涨停; 2.95;  14:12:21; 10.1%; 1; 零售+供销社+海航系+统一大市场</t>
         </is>
       </c>
+      <c r="BS57" t="inlineStr">
+        <is>
+          <t>603119.SH; 浙江荣泰; 10;  14:04:13; 首板涨停; 33.21;  09:31:31; 10.0%; 1; 拟受让股权+机器人+特斯拉+外销</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="5" t="n">
@@ -47827,6 +49052,11 @@
           <t>000056.SZ; 皇庭国际; 0;  14:14:15; 首板涨停; 3.08;  14:14:15; 10.0%; 1; 功率半导体+先进封装+债务重组+不动产运营管理</t>
         </is>
       </c>
+      <c r="BS58" t="inlineStr">
+        <is>
+          <t>603583.SH; 捷昌驱动; 2;  14:06:07; 首板涨停; 34.19;  13:24:10; 10.0%; 1; 人形机器人+灵巧手+线性驱动产品</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="5" t="n">
@@ -47962,6 +49192,11 @@
           <t>600694.SH; 大商股份; 0;  14:14:34; 首板涨停; 27.15;  14:14:34; 10.0%; 1; 零售+免税店+高股息</t>
         </is>
       </c>
+      <c r="BS59" t="inlineStr">
+        <is>
+          <t>300911.SZ; 亿田智能; 1;  14:13:48; 首板涨停; 39.6;  10:04:33; 20.0%; 1; 算力+燧原科技合作+家用电器+电子商务</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="5" t="n">
@@ -48087,6 +49322,11 @@
           <t>000419.SZ; 通程控股; 12;  14:15:09; 首板涨停; 6.04;  09:44:21; 10.0%; 1; 零售+互联网金融+股权转让+长沙国资</t>
         </is>
       </c>
+      <c r="BS60" t="inlineStr">
+        <is>
+          <t>603286.SH; 日盈电子; 12;  14:14:31; 首板涨停; 26.85;  13:01:31; 10.0%; 1; 无人驾驶+智能座舱+高速线束产品</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="5" t="n">
@@ -48202,6 +49442,11 @@
           <t>603270.SH; 金帝股份; 0;  14:16:30; 首板涨停; 24.01;  14:16:30; 10.0%; 1; 机器人+汽车零部件+风电</t>
         </is>
       </c>
+      <c r="BS61" t="inlineStr">
+        <is>
+          <t>002184.SZ; 海得控制; 0;  14:20:27; 首板涨停; 14.95;  14:20:27; 10.0%; 1; 数据中心（储能系统供电）+光模块+机器人+华为</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="5" t="n">
@@ -48317,6 +49562,11 @@
           <t>605300.SH; 佳禾食品; 3;  14:21:48; 首板涨停; 14.28;  14:19:36; 10.0%; 1; 饮料乳品+微信小店+代糖+跨境电商</t>
         </is>
       </c>
+      <c r="BS62" t="inlineStr">
+        <is>
+          <t>603516.SH; 淳中科技; 1;  14:25:02; 首板涨停; 55.67;  11:07:14; 10.0%; 1; 年报预增+N公司对接业务实现突破+液冷+ASIC芯片</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="5" t="n">
@@ -48432,6 +49682,11 @@
           <t>603214.SH; 爱婴室; 2;  14:22:24; 首板涨停; 24.29;  14:13:57; 10.0%; 1; 母婴商品+新零售+跨境电商</t>
         </is>
       </c>
+      <c r="BS63" t="inlineStr">
+        <is>
+          <t>300718.SZ; 长盛轴承; 3;  14:33:21; 首板涨停; 77.6;  14:16:30; 20.0%; 1; 机器人+宇树科技+自润滑轴承</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="5" t="n">
@@ -48532,6 +49787,11 @@
           <t>600846.SH; 同济科技; 6;  14:25:13; 首板涨停; 8.97;  10:56:01; 10.1%; 1; 工程咨询+环保+创投+上海国资</t>
         </is>
       </c>
+      <c r="BS64" t="inlineStr">
+        <is>
+          <t>002616.SZ; 长青集团; 0;  14:35:57; 首板涨停; 5.35;  14:35:57; 10.1%; 1; 环保热能+生物质能发电+股份转让</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="5" t="n">
@@ -48622,6 +49882,11 @@
           <t>300937.SZ; 药易购; 3;  14:26:21; 首板涨停; 32.22;  11:11:45; 20.0%; 1; 部署DeepSeek+医药流通智能体+AI新零售</t>
         </is>
       </c>
+      <c r="BS65" t="inlineStr">
+        <is>
+          <t>002837.SZ; 英维克; 7;  14:44:21; 首板涨停; 44.11;  09:57:21; 10.0%; 1; 液冷+腾讯、阿里等合作+英伟达合作</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="5" t="n">
@@ -48712,6 +49977,11 @@
           <t>003032.SZ; 传智教育; 0;  14:34:39; 首板涨停; 8.99;  14:34:39; 10.0%; 1; 教育+智谱华章合作+华为鸿蒙</t>
         </is>
       </c>
+      <c r="BS66" t="inlineStr">
+        <is>
+          <t>601777.SH; 力帆科技; 0;  14:46:51; 首板涨停; 8.75;  14:46:51; 10.1%; 1; 拟更名“千里科技”+聚焦“AI+车”</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="5" t="n">
@@ -48802,6 +50072,11 @@
           <t>600881.SH; 亚泰集团; 1;  14:36:16; 首板涨停; 1.98;  14:27:55; 10.0%; 1; 并购重组+长春国资+建材地产医药投资+低价股</t>
         </is>
       </c>
+      <c r="BS67" t="inlineStr">
+        <is>
+          <t>600636.SH; 国新文化; 9;  14:50:45; 首板涨停; 9.25;  09:31:57; 10.0%; 1; AI教育+多模态AI+算力+央企</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="5" t="n">
@@ -48882,6 +50157,11 @@
           <t>300251.SZ; 光线传媒; 0;  14:37:21; 首板涨停; 16.75;  14:37:21; 20.0%; 1; 《哪吒之魔童闹海》总票房破82亿</t>
         </is>
       </c>
+      <c r="BS68" t="inlineStr">
+        <is>
+          <t>301510.SZ; 固高科技; 0;  14:52:51; 首板涨停; 35.88;  14:52:51; 20.0%; 1; 机器人+先进封装</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="5" t="n">
@@ -48962,6 +50242,11 @@
           <t>301220.SZ; 亚香股份; 0;  14:40:51; 首板涨停; 58.36;  14:40:51; 20.0%; 1; 香兰素涨价+香料</t>
         </is>
       </c>
+      <c r="BS69" t="inlineStr">
+        <is>
+          <t>002757.SZ; 南兴股份; 5;  14:54:21; 首板涨停; 20.92;  09:30:33; 10.0%; 1; 腾讯+小鹭AIGC智能助手+云计算+板式家具设备</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="5" t="n">
@@ -49040,6 +50325,11 @@
       <c r="BN70" t="inlineStr">
         <is>
           <t>600986.SH; 浙文互联; 3;  14:44:44; 首板涨停; 8.13;  13:04:08; 10.0%; 1; DeepSeek概念+营销+字节+算力+国企</t>
+        </is>
+      </c>
+      <c r="BS70" t="inlineStr">
+        <is>
+          <t>002198.SZ; 嘉应制药; 7;  14:56:45; 首板涨停; 7.71;  10:19:24; 10.0%; 1; 中药+冰片</t>
         </is>
       </c>
     </row>
@@ -50854,7 +52144,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BQ50"/>
+  <dimension ref="A1:BS50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -51203,6 +52493,16 @@
           <t>2025年02月13日</t>
         </is>
       </c>
+      <c r="BR1" s="5" t="inlineStr">
+        <is>
+          <t>2025年02月14日</t>
+        </is>
+      </c>
+      <c r="BS1" s="5" t="inlineStr">
+        <is>
+          <t>2025年02月17日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="5" t="n">
@@ -51544,6 +52844,16 @@
           <t>600658.SH; 电子城; 3.4%; 13.8%; 5.18; 10.0%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="BR2" t="inlineStr">
+        <is>
+          <t>002929.SZ; 润建股份; 3.6%; 14.1%; 51.65; -6.5%; 阳线||放量||价升量缩</t>
+        </is>
+      </c>
+      <c r="BS2" t="inlineStr">
+        <is>
+          <t>002691.SZ; 冀凯股份; 8.6%; 16.3%; 13.15; 6.3%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="n">
@@ -51885,6 +53195,16 @@
           <t>600588.SH; 用友网络; 2.1%; 12.4%; 17.4; 10.0%; 阳线||放量||价升量缩</t>
         </is>
       </c>
+      <c r="BR3" t="inlineStr">
+        <is>
+          <t>300311.SZ; 任子行; 3.2%; 13.4%; 7.69; 1.1%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="BS3" t="inlineStr">
+        <is>
+          <t>603110.SH; 东方材料; 6.0%; 17.0%; 22.32; 10.0%; 强中选强||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="5" t="n">
@@ -52202,6 +53522,16 @@
           <t>300027.SZ; 华谊兄弟; 2.1%; 22.4%; 3.5; 19.9%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="BR4" t="inlineStr">
+        <is>
+          <t>301396.SZ; 宏景科技; 2.6%; 23.2%; 50.5; 11.0%; 强中选强||阳线||放量</t>
+        </is>
+      </c>
+      <c r="BS4" t="inlineStr">
+        <is>
+          <t>000856.SZ; 冀东装备; 4.5%; 15.2%; 12.67; 10.0%; 阳线||放量||价升量缩</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="n">
@@ -52503,6 +53833,16 @@
         </is>
       </c>
       <c r="BQ5" t="inlineStr"/>
+      <c r="BR5" t="inlineStr">
+        <is>
+          <t>603803.SH; 瑞斯康达; 2.6%; 13.0%; 13.22; -10.0%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
+      <c r="BS5" t="inlineStr">
+        <is>
+          <t>002779.SZ; 中坚科技; 3.9%; 13.0%; 111.89; 8.6%; 价升量涨||阳线||缩量</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="5" t="n">
@@ -52792,6 +54132,16 @@
         </is>
       </c>
       <c r="BQ6" t="inlineStr"/>
+      <c r="BR6" t="inlineStr">
+        <is>
+          <t>000034.SZ; 神州数码; 2.2%; 12.4%; 54.22; 2.4%; 阳线||放量||价升量缩</t>
+        </is>
+      </c>
+      <c r="BS6" t="inlineStr">
+        <is>
+          <t>600633.SH; 浙数文化; 3.1%; 13.5%; 19.75; 10.0%; 强中选强||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="n">
@@ -53065,6 +54415,16 @@
         </is>
       </c>
       <c r="BQ7" t="inlineStr"/>
+      <c r="BR7" t="inlineStr">
+        <is>
+          <t>603990.SH; 麦迪科技; 2.1%; 12.4%; 16.2; 10.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="BS7" t="inlineStr">
+        <is>
+          <t>300718.SZ; 长盛轴承; 2.6%; 23.2%; 77.6; 20.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="5" t="n">
@@ -53322,6 +54682,16 @@
       </c>
       <c r="BP8" t="inlineStr"/>
       <c r="BQ8" t="inlineStr"/>
+      <c r="BR8" t="inlineStr">
+        <is>
+          <t>300287.SZ; 飞利信; 1.8%; 22.3%; 7.38; 2.6%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="BS8" t="inlineStr">
+        <is>
+          <t>301413.SZ; 安培龙; 1.0%; 14.6%; 91.93; 13.5%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="n">
@@ -53563,6 +54933,16 @@
       </c>
       <c r="BP9" t="inlineStr"/>
       <c r="BQ9" t="inlineStr"/>
+      <c r="BR9" t="inlineStr">
+        <is>
+          <t>300220.SZ; 金运激光; 1.8%; 14.9%; 20.3; -7.6%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
+      <c r="BS9" t="inlineStr">
+        <is>
+          <t>300918.SZ; 南山智尚; 0.9%; 17.0%; 13.99; 15.9%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="5" t="n">
@@ -53780,6 +55160,16 @@
       </c>
       <c r="BP10" t="inlineStr"/>
       <c r="BQ10" t="inlineStr"/>
+      <c r="BR10" t="inlineStr">
+        <is>
+          <t>300478.SZ; 杭州高新; 1.7%; 22.1%; 15.53; 20.0%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
+      <c r="BS10" t="inlineStr">
+        <is>
+          <t>300007.SZ; 汉威科技; 0.5%; 15.8%; 33; 15.2%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="5" t="n">
@@ -53981,6 +55371,16 @@
       <c r="BO11" t="inlineStr"/>
       <c r="BP11" t="inlineStr"/>
       <c r="BQ11" t="inlineStr"/>
+      <c r="BR11" t="inlineStr">
+        <is>
+          <t>301585.SZ; 蓝宇股份; 0.1%; 20.1%; 57; 12.8%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="BS11" t="inlineStr">
+        <is>
+          <t>301486.SZ; 致尚科技; 0.4%; 13.9%; 68.22; 13.5%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="5" t="n">
@@ -54154,6 +55554,12 @@
       <c r="BO12" t="inlineStr"/>
       <c r="BP12" t="inlineStr"/>
       <c r="BQ12" t="inlineStr"/>
+      <c r="BR12" t="inlineStr"/>
+      <c r="BS12" t="inlineStr">
+        <is>
+          <t>300278.SZ; 华昌达; 0.3%; 14.4%; 7; 14.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="5" t="n">
@@ -54311,6 +55717,12 @@
       <c r="BO13" t="inlineStr"/>
       <c r="BP13" t="inlineStr"/>
       <c r="BQ13" t="inlineStr"/>
+      <c r="BR13" t="inlineStr"/>
+      <c r="BS13" t="inlineStr">
+        <is>
+          <t>300115.SZ; 长盈精密; 0.2%; 12.5%; 24.2; 12.2%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="5" t="n">
@@ -54464,6 +55876,8 @@
       <c r="BO14" t="inlineStr"/>
       <c r="BP14" t="inlineStr"/>
       <c r="BQ14" t="inlineStr"/>
+      <c r="BR14" t="inlineStr"/>
+      <c r="BS14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="5" t="n">
@@ -54609,6 +56023,8 @@
       <c r="BO15" t="inlineStr"/>
       <c r="BP15" t="inlineStr"/>
       <c r="BQ15" t="inlineStr"/>
+      <c r="BR15" t="inlineStr"/>
+      <c r="BS15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="5" t="n">
@@ -54750,6 +56166,8 @@
       <c r="BO16" t="inlineStr"/>
       <c r="BP16" t="inlineStr"/>
       <c r="BQ16" t="inlineStr"/>
+      <c r="BR16" t="inlineStr"/>
+      <c r="BS16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="5" t="n">
@@ -54883,6 +56301,8 @@
       <c r="BO17" t="inlineStr"/>
       <c r="BP17" t="inlineStr"/>
       <c r="BQ17" t="inlineStr"/>
+      <c r="BR17" t="inlineStr"/>
+      <c r="BS17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="5" t="n">
@@ -55012,6 +56432,8 @@
       <c r="BO18" t="inlineStr"/>
       <c r="BP18" t="inlineStr"/>
       <c r="BQ18" t="inlineStr"/>
+      <c r="BR18" t="inlineStr"/>
+      <c r="BS18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="5" t="n">
@@ -55133,6 +56555,8 @@
       <c r="BO19" t="inlineStr"/>
       <c r="BP19" t="inlineStr"/>
       <c r="BQ19" t="inlineStr"/>
+      <c r="BR19" t="inlineStr"/>
+      <c r="BS19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="5" t="n">
@@ -55254,6 +56678,8 @@
       <c r="BO20" t="inlineStr"/>
       <c r="BP20" t="inlineStr"/>
       <c r="BQ20" t="inlineStr"/>
+      <c r="BR20" t="inlineStr"/>
+      <c r="BS20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="5" t="n">
@@ -55375,6 +56801,8 @@
       <c r="BO21" t="inlineStr"/>
       <c r="BP21" t="inlineStr"/>
       <c r="BQ21" t="inlineStr"/>
+      <c r="BR21" t="inlineStr"/>
+      <c r="BS21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="5" t="n">
@@ -55488,6 +56916,8 @@
       <c r="BO22" t="inlineStr"/>
       <c r="BP22" t="inlineStr"/>
       <c r="BQ22" t="inlineStr"/>
+      <c r="BR22" t="inlineStr"/>
+      <c r="BS22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="5" t="n">
@@ -55597,6 +57027,8 @@
       <c r="BO23" t="inlineStr"/>
       <c r="BP23" t="inlineStr"/>
       <c r="BQ23" t="inlineStr"/>
+      <c r="BR23" t="inlineStr"/>
+      <c r="BS23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="5" t="n">
@@ -55702,6 +57134,8 @@
       <c r="BO24" t="inlineStr"/>
       <c r="BP24" t="inlineStr"/>
       <c r="BQ24" t="inlineStr"/>
+      <c r="BR24" t="inlineStr"/>
+      <c r="BS24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="5" t="n">
@@ -55803,6 +57237,8 @@
       <c r="BO25" t="inlineStr"/>
       <c r="BP25" t="inlineStr"/>
       <c r="BQ25" t="inlineStr"/>
+      <c r="BR25" t="inlineStr"/>
+      <c r="BS25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="5" t="n">
@@ -55896,6 +57332,8 @@
       <c r="BO26" t="inlineStr"/>
       <c r="BP26" t="inlineStr"/>
       <c r="BQ26" t="inlineStr"/>
+      <c r="BR26" t="inlineStr"/>
+      <c r="BS26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="5" t="n">
@@ -55989,6 +57427,8 @@
       <c r="BO27" t="inlineStr"/>
       <c r="BP27" t="inlineStr"/>
       <c r="BQ27" t="inlineStr"/>
+      <c r="BR27" t="inlineStr"/>
+      <c r="BS27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="5" t="n">
@@ -56082,6 +57522,8 @@
       <c r="BO28" t="inlineStr"/>
       <c r="BP28" t="inlineStr"/>
       <c r="BQ28" t="inlineStr"/>
+      <c r="BR28" t="inlineStr"/>
+      <c r="BS28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="5" t="n">
@@ -56175,6 +57617,8 @@
       <c r="BO29" t="inlineStr"/>
       <c r="BP29" t="inlineStr"/>
       <c r="BQ29" t="inlineStr"/>
+      <c r="BR29" t="inlineStr"/>
+      <c r="BS29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="5" t="n">
@@ -56264,6 +57708,8 @@
       <c r="BO30" t="inlineStr"/>
       <c r="BP30" t="inlineStr"/>
       <c r="BQ30" t="inlineStr"/>
+      <c r="BR30" t="inlineStr"/>
+      <c r="BS30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="5" t="n">
@@ -56353,6 +57799,8 @@
       <c r="BO31" t="inlineStr"/>
       <c r="BP31" t="inlineStr"/>
       <c r="BQ31" t="inlineStr"/>
+      <c r="BR31" t="inlineStr"/>
+      <c r="BS31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="5" t="n">
@@ -56442,6 +57890,8 @@
       <c r="BO32" t="inlineStr"/>
       <c r="BP32" t="inlineStr"/>
       <c r="BQ32" t="inlineStr"/>
+      <c r="BR32" t="inlineStr"/>
+      <c r="BS32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="5" t="n">
@@ -56531,6 +57981,8 @@
       <c r="BO33" t="inlineStr"/>
       <c r="BP33" t="inlineStr"/>
       <c r="BQ33" t="inlineStr"/>
+      <c r="BR33" t="inlineStr"/>
+      <c r="BS33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="5" t="n">
@@ -56612,6 +58064,8 @@
       <c r="BO34" t="inlineStr"/>
       <c r="BP34" t="inlineStr"/>
       <c r="BQ34" t="inlineStr"/>
+      <c r="BR34" t="inlineStr"/>
+      <c r="BS34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="5" t="n">
@@ -56693,6 +58147,8 @@
       <c r="BO35" t="inlineStr"/>
       <c r="BP35" t="inlineStr"/>
       <c r="BQ35" t="inlineStr"/>
+      <c r="BR35" t="inlineStr"/>
+      <c r="BS35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="5" t="n">
@@ -56774,6 +58230,8 @@
       <c r="BO36" t="inlineStr"/>
       <c r="BP36" t="inlineStr"/>
       <c r="BQ36" t="inlineStr"/>
+      <c r="BR36" t="inlineStr"/>
+      <c r="BS36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="5" t="n">
@@ -56855,6 +58313,8 @@
       <c r="BO37" t="inlineStr"/>
       <c r="BP37" t="inlineStr"/>
       <c r="BQ37" t="inlineStr"/>
+      <c r="BR37" t="inlineStr"/>
+      <c r="BS37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="5" t="n">
@@ -56936,6 +58396,8 @@
       <c r="BO38" t="inlineStr"/>
       <c r="BP38" t="inlineStr"/>
       <c r="BQ38" t="inlineStr"/>
+      <c r="BR38" t="inlineStr"/>
+      <c r="BS38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="5" t="n">
@@ -57017,6 +58479,8 @@
       <c r="BO39" t="inlineStr"/>
       <c r="BP39" t="inlineStr"/>
       <c r="BQ39" t="inlineStr"/>
+      <c r="BR39" t="inlineStr"/>
+      <c r="BS39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="5" t="n">
@@ -57098,6 +58562,8 @@
       <c r="BO40" t="inlineStr"/>
       <c r="BP40" t="inlineStr"/>
       <c r="BQ40" t="inlineStr"/>
+      <c r="BR40" t="inlineStr"/>
+      <c r="BS40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="5" t="n">
@@ -57179,6 +58645,8 @@
       <c r="BO41" t="inlineStr"/>
       <c r="BP41" t="inlineStr"/>
       <c r="BQ41" t="inlineStr"/>
+      <c r="BR41" t="inlineStr"/>
+      <c r="BS41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="5" t="n">
@@ -57256,6 +58724,8 @@
       <c r="BO42" t="inlineStr"/>
       <c r="BP42" t="inlineStr"/>
       <c r="BQ42" t="inlineStr"/>
+      <c r="BR42" t="inlineStr"/>
+      <c r="BS42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="5" t="n">
@@ -57333,6 +58803,8 @@
       <c r="BO43" t="inlineStr"/>
       <c r="BP43" t="inlineStr"/>
       <c r="BQ43" t="inlineStr"/>
+      <c r="BR43" t="inlineStr"/>
+      <c r="BS43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="5" t="n">
@@ -57410,6 +58882,8 @@
       <c r="BO44" t="inlineStr"/>
       <c r="BP44" t="inlineStr"/>
       <c r="BQ44" t="inlineStr"/>
+      <c r="BR44" t="inlineStr"/>
+      <c r="BS44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="5" t="n">
@@ -57487,6 +58961,8 @@
       <c r="BO45" t="inlineStr"/>
       <c r="BP45" t="inlineStr"/>
       <c r="BQ45" t="inlineStr"/>
+      <c r="BR45" t="inlineStr"/>
+      <c r="BS45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="5" t="n">
@@ -57564,6 +59040,8 @@
       <c r="BO46" t="inlineStr"/>
       <c r="BP46" t="inlineStr"/>
       <c r="BQ46" t="inlineStr"/>
+      <c r="BR46" t="inlineStr"/>
+      <c r="BS46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="5" t="n">
@@ -57641,6 +59119,8 @@
       <c r="BO47" t="inlineStr"/>
       <c r="BP47" t="inlineStr"/>
       <c r="BQ47" t="inlineStr"/>
+      <c r="BR47" t="inlineStr"/>
+      <c r="BS47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="5" t="n">
@@ -57718,6 +59198,8 @@
       <c r="BO48" t="inlineStr"/>
       <c r="BP48" t="inlineStr"/>
       <c r="BQ48" t="inlineStr"/>
+      <c r="BR48" t="inlineStr"/>
+      <c r="BS48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="5" t="n">
@@ -57795,6 +59277,8 @@
       <c r="BO49" t="inlineStr"/>
       <c r="BP49" t="inlineStr"/>
       <c r="BQ49" t="inlineStr"/>
+      <c r="BR49" t="inlineStr"/>
+      <c r="BS49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="5" t="n">
@@ -57872,6 +59356,8 @@
       <c r="BO50" t="inlineStr"/>
       <c r="BP50" t="inlineStr"/>
       <c r="BQ50" t="inlineStr"/>
+      <c r="BR50" t="inlineStr"/>
+      <c r="BS50" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/excel/fupan_stocks.xlsx
+++ b/excel/fupan_stocks.xlsx
@@ -470,7 +470,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BS65"/>
+  <dimension ref="A1:BT65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -829,6 +829,11 @@
           <t>2025年02月17日</t>
         </is>
       </c>
+      <c r="BT1" s="5" t="inlineStr">
+        <is>
+          <t>2025年02月18日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="5" t="n">
@@ -1184,6 +1189,11 @@
           <t>002030.SZ; 达安基因; 0;  09:25:00; 2天2板; 6.97;  09:25:00; 9.9%; 2; 智能医疗+分子诊断+基因测序+广州国资</t>
         </is>
       </c>
+      <c r="BT2" t="inlineStr">
+        <is>
+          <t>000096.SZ; 广聚能源; 0;  09:25:00; 2天2板; 15.33;  09:25:00; 10.0%; 2; 拟收购航天欧华100%股权+石油石化+数据中心+国企改革</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="n">
@@ -1539,6 +1549,11 @@
           <t>002044.SZ; 美年健康; 0;  09:25:00; 7天5板; 7.15;  09:25:00; 10.0%; 2; AI健管大模型+数据要素+健康体检服务+华为</t>
         </is>
       </c>
+      <c r="BT3" t="inlineStr">
+        <is>
+          <t>002065.SZ; 东华软件; 0;  09:25:00; 2天2板; 11.34;  09:25:00; 10.0%; 2; 腾讯+DeepSeek概念+数字基础设施建设</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="5" t="n">
@@ -1894,6 +1909,11 @@
           <t>002335.SZ; 科华数据; 0;  09:25:00; 2天2板; 41.97;  09:25:00; 10.0%; 2; 数据中心+腾讯云+UPS+液冷</t>
         </is>
       </c>
+      <c r="BT4" t="inlineStr">
+        <is>
+          <t>002527.SZ; 新时达; 0;  09:25:00; 2天2板; 12.29;  09:25:00; 10.0%; 2; 海尔入主+机器人+电梯</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="n">
@@ -2249,6 +2269,11 @@
           <t>603716.SH; 塞力医疗; 0;  09:25:01; 2天2板; 10.67;  09:25:01; 10.0%; 2; DRG/DIP+体外诊断+智慧供应链</t>
         </is>
       </c>
+      <c r="BT5" t="inlineStr">
+        <is>
+          <t>601177.SH; 杭齿前进; 0;  09:25:02; 5天5板; 14.93;  09:25:02; 10.0%; 5; 杭州国资+人形机器人+齿轮传动+化债（AMC概念）</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="5" t="n">
@@ -2604,6 +2629,11 @@
           <t>603881.SH; 数据港; 0;  09:25:02; 6天5板; 37.51;  09:25:02; 10.0%; 4; 数据中心+腾讯概念+阿里巴巴+上海国资</t>
         </is>
       </c>
+      <c r="BT6" t="inlineStr">
+        <is>
+          <t>600892.SH; 大晟文化; 0;  09:30:00; 2天2板; 3.91;  09:30:00; 10.1%; 2; 网络游戏+影视+唐山国资入主</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="n">
@@ -2959,6 +2989,11 @@
           <t>000710.SZ; 贝瑞基因; 1;  09:31:33; 2天2板; 12.8;  09:30:09; 10.0%; 2; 智能医疗+基因检测+DeepSeek概念</t>
         </is>
       </c>
+      <c r="BT7" t="inlineStr">
+        <is>
+          <t>000856.SZ; 冀东装备; 0;  09:30:24; 16天10板; 13.94;  09:30:24; 10.0%; 2; 机器人+水泥装备+北京国资</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="5" t="n">
@@ -3314,6 +3349,11 @@
           <t>002112.SZ; 三变科技; 6;  09:37:09; 2天2板; 17.49;  09:30:24; 10.0%; 2; 数据中心+电力设备+光伏+国企</t>
         </is>
       </c>
+      <c r="BT8" t="inlineStr">
+        <is>
+          <t>601616.SH; 广电电气; 1;  09:30:36; 2天2板; 4.96;  09:25:00; 10.0%; 2; 腾讯概念+数据中心+年报预增+电力设备</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="n">
@@ -3669,6 +3709,11 @@
           <t>002622.SZ; 皓宸医疗; 0;  09:37:15; 2天2板; 3.43;  09:37:15; 9.9%; 2; 智能医疗+口腔医疗</t>
         </is>
       </c>
+      <c r="BT9" t="inlineStr">
+        <is>
+          <t>600678.SH; 四川金顶; 0;  09:31:39; 2天2板; 7.93;  09:31:39; 10.0%; 2; DeepSeek概念+子公司近期竞得采矿权+机器人+氢能源</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="5" t="n">
@@ -4024,6 +4069,11 @@
           <t>002717.SZ; 岭南股份; 0;  09:38:36; 3天2板; 4.24;  09:38:36; 10.1%; 1; 影视IP+腾讯+营销+国企</t>
         </is>
       </c>
+      <c r="BT10" t="inlineStr">
+        <is>
+          <t>002893.SZ; 京能热力; 0;  09:35:18; 2天2板; 11.72;  09:35:18; 10.0%; 2; 热力供应+供热节能+资产注入预期+北京国资</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="5" t="n">
@@ -4379,6 +4429,11 @@
           <t>601177.SH; 杭齿前进; 6;  09:55:08; 4天4板; 13.57;  09:30:53; 10.0%; 4; 杭州国资+人形机器人+齿轮传动+化债（AMC概念）</t>
         </is>
       </c>
+      <c r="BT11" t="inlineStr">
+        <is>
+          <t>603086.SH; 先达股份; 1;  09:56:07; 4天4板; 6.53;  09:30:52; 9.9%; 4; 农药+生态农业+大豆</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="5" t="n">
@@ -4734,6 +4789,11 @@
           <t>600421.SH; 华嵘控股; 0;  10:25:34; 2天2板; 7.61;  10:25:34; 10.0%; 2; 数据要素+房屋建筑PC构件+装配式建筑+风电混塔模具</t>
         </is>
       </c>
+      <c r="BT12" t="inlineStr">
+        <is>
+          <t>603956.SH; 威派格; 6;  11:13:39; 6天6板; 10.25;  10:18:09; 10.0%; 6; DeepSeek概念+智慧水务+数据要素+华为鲲鹏</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="5" t="n">
@@ -5079,6 +5139,11 @@
           <t>300478.SZ; 杭州高新; 6;  13:12:18; 2天2板; 15.53;  10:02:54; 20.0%; 2; 杭州+网络游戏+线缆用高分子材料+核电</t>
         </is>
       </c>
+      <c r="BT13" t="inlineStr">
+        <is>
+          <t>603789.SH; 星光农机; 10;  14:38:27; 2天2板; 7.89;  13:52:42; 10.0%; 2; 农机+机器人+资产注入预期</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="5" t="n">
@@ -5424,6 +5489,11 @@
           <t>600986.SH; 浙文互联; 3;  13:35:48; 6天4板; 9.8;  11:18:21; 10.0%; 1; DeepSeek概念+营销+算力+浙江国资</t>
         </is>
       </c>
+      <c r="BT14" t="inlineStr">
+        <is>
+          <t>002058.SZ; 威尔泰; 16;  14:39:09; 2天2板; 11.28;  13:17:12; 10.0%; 2; 筹划重大资产重组+汽车检具+特斯拉</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="5" t="n">
@@ -5764,6 +5834,11 @@
           <t>000818.SZ; 航锦科技; 2;  13:44:21; 10天8板; 36.19;  09:33:30; 10.0%; 1; 幻方合作+算力+英伟达+国企</t>
         </is>
       </c>
+      <c r="BT15" t="inlineStr">
+        <is>
+          <t>600421.SH; 华嵘控股; 3;  14:39:36; 3天3板; 8.37;  09:33:51; 10.0%; 3; 数据要素+房屋建筑PC构件+装配式建筑+风电混塔模具</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="5" t="n">
@@ -6084,6 +6159,11 @@
           <t>600633.SH; 浙数文化; 0;  14:02:25; 9天7板; 19.75;  14:02:25; 10.0%; 1; 数据交易中心+AI应用+算力+杭州国资</t>
         </is>
       </c>
+      <c r="BT16" t="inlineStr">
+        <is>
+          <t>603300.SH; 海南华铁; 11;  14:42:18; 9天6板; 8.8;  09:32:03; 10.0%; 1; 算力+低空经济+海南国资</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="5" t="n">
@@ -6384,6 +6464,11 @@
           <t>603086.SH; 先达股份; 8;  14:03:32; 3天3板; 5.94;  09:58:44; 10.0%; 3; 农药+生态农业+大豆</t>
         </is>
       </c>
+      <c r="BT17" t="inlineStr">
+        <is>
+          <t>000967.SZ; 盈峰环境; 44;  14:43:48; 2天2板; 5.83;  09:33:54; 10.0%; 2; 机器人+智慧环卫+云计算</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="5" t="n">
@@ -6674,6 +6759,11 @@
           <t>002524.SZ; 光正眼科; 10;  14:06:21; 2天2板; 4.52;  09:31:39; 10.0%; 2; 眼科医疗+全飞秒</t>
         </is>
       </c>
+      <c r="BT18" t="inlineStr">
+        <is>
+          <t>002757.SZ; 南兴股份; 4;  14:49:12; 2天2板; 23.01;  10:01:39; 10.0%; 2; 腾讯+小鹭AIGC智能助手+云计算+板式家具设备</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="5" t="n">
@@ -6959,6 +7049,11 @@
           <t>600126.SH; 杭钢股份; 28;  14:09:40; 9天9板; 12.25;  09:41:10; 10.0%; 9; DeepSeek概念+云计算+浙江国资+钢铁</t>
         </is>
       </c>
+      <c r="BT19" t="inlineStr">
+        <is>
+          <t>600602.SH; 云赛智联; 2;  14:54:16; 3天3板; 23.23;  09:47:19; 10.0%; 3; 国资云+阿里+腾讯+Deepseek概念</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="5" t="n">
@@ -7219,6 +7314,11 @@
           <t>600602.SH; 云赛智联; 9;  14:10:25; 2天2板; 21.12;  09:25:01; 10.0%; 2; 国资云+算力+阿里+腾讯+Deepseek概念</t>
         </is>
       </c>
+      <c r="BT20" t="inlineStr">
+        <is>
+          <t>300344.SZ; 立方数科; 5;  14:54:48; 5天3板; 10.75;  11:14:36; 20.0%; 1; 拟间接收购云掌财经+智能软硬件+云计算</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="5" t="n">
@@ -7467,6 +7567,11 @@
       <c r="BS21" t="inlineStr">
         <is>
           <t>601789.SH; 宁波建工; 9;  14:10:27; 3天2板; 5.72;  09:35:03; 10.0%; 1; 参股中经云+拟收购宁波交工100%股权+阿里巴巴+宁波国资</t>
+        </is>
+      </c>
+      <c r="BT21" t="inlineStr">
+        <is>
+          <t>603918.SH; 金桥信息; 3;  14:55:16; 4天3板; 22.53;  14:38:49; 10.0%; 1; 智慧法院+阿里+化债(AMC概念）</t>
         </is>
       </c>
     </row>
@@ -12036,7 +12141,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BS146"/>
+  <dimension ref="A1:BT146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12395,6 +12500,11 @@
           <t>2025年02月17日</t>
         </is>
       </c>
+      <c r="BT1" s="5" t="inlineStr">
+        <is>
+          <t>2025年02月18日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="5" t="n">
@@ -12725,6 +12835,11 @@
           <t>603803.SH; 瑞斯康达; 7;  09:31:41; 放量跌停; 13.22; -10.0%; 1; 数据中心板块高位股调整+年报预亏</t>
         </is>
       </c>
+      <c r="BT2" t="inlineStr">
+        <is>
+          <t>002313.SZ; 日海智能; 1;  09:25:00; 缩量跌停; 11.97; -10.0%; 1; DeepSeek概念股多数走弱</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="n">
@@ -13045,6 +13160,11 @@
           <t>000785.SZ; 居然智家; 5;  09:31:45; 放量跌停; 5.01; -10.1%; 1; DeepSeek概念股冲高回落</t>
         </is>
       </c>
+      <c r="BT3" t="inlineStr">
+        <is>
+          <t>002123.SZ; 梦网科技; 1;  09:25:00; 缩量跌停; 18.51; -10.0%; 2; 多只高位人气股大幅走弱</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="5" t="n">
@@ -13355,6 +13475,11 @@
           <t>603103.SH; 横店影视; 10;  09:59:45; 放量跌停; 15.12; -10.0%; 1; 异常波动+影视院线板块大幅调整</t>
         </is>
       </c>
+      <c r="BT4" t="inlineStr">
+        <is>
+          <t>600126.SH; 杭钢股份; 1;  09:25:01; 放量跌停; 11.03; -10.0%; 1; 发布风险提示+多只高位人气股大幅走弱</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="n">
@@ -13640,6 +13765,11 @@
           <t>002123.SZ; 梦网科技; 9;  13:36:51; 天地板跌停||放量跌停; 20.57; -10.0%; 1; 严重异常波动+DeepSeek概念午后跳水</t>
         </is>
       </c>
+      <c r="BT5" t="inlineStr">
+        <is>
+          <t>601116.SH; 三江购物; 0;  09:25:03; 一字跌停||缩量跌停; 13.43; -10.0%; 1; 多只高位人气股大幅走弱</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="5" t="n">
@@ -13905,6 +14035,11 @@
           <t>603095.SH; 越剑智能; 0;  13:48:42; 放量跌停; 25.04; -10.0%; 1; 资金出逃</t>
         </is>
       </c>
+      <c r="BT6" t="inlineStr">
+        <is>
+          <t>601777.SH; 千里科技; 3;  09:54:00; 放量跌停; 7.88; -9.9%; 1; 资金获利了结</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="n">
@@ -14155,6 +14290,11 @@
           <t>002016.SZ; 世荣兆业; 2;  14:35:41; 放量跌停; 6.72; -7.6%; 1; 资金出逃+房地产板块走弱</t>
         </is>
       </c>
+      <c r="BT7" t="inlineStr">
+        <is>
+          <t>603039.SH; 泛微网络; 0;  09:57:28; 放量跌停; 71.91; -10.0%; 1; 资金获利了结+多只高位人气股大幅走弱</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="5" t="n">
@@ -14380,6 +14520,11 @@
           <t>600696.SH; 岩石股份; 0;  09:25:01; 一字跌停||缩量跌停; 8.45; -10.0%; 2; 可能被实施退市风险警示+年报预亏</t>
         </is>
       </c>
+      <c r="BT8" t="inlineStr">
+        <is>
+          <t>603881.SH; 数据港; 5;  10:11:27; 放量跌停; 33.76; -10.0%; 1; 发布交易风险提示+多只高位人气股大幅走弱</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="n">
@@ -14585,6 +14730,11 @@
           <t>603063.SH; 禾望电气; 0;  09:25:02; 一字跌停||缩量跌停; 28.44; -10.0%; 1; 算力电力相关个股大跌</t>
         </is>
       </c>
+      <c r="BT9" t="inlineStr">
+        <is>
+          <t>000710.SZ; 贝瑞基因; 1;  10:12:36; 放量跌停; 11.52; -10.0%; 1; AI医疗概念回落+资金获利了结</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="5" t="n">
@@ -14790,6 +14940,11 @@
           <t>603928.SH; 兴业股份; 0;  09:25:03; 一字跌停||缩量跌停; 11.76; -10.0%; 2; 短期涨幅较大</t>
         </is>
       </c>
+      <c r="BT10" t="inlineStr">
+        <is>
+          <t>603803.SH; 瑞斯康达; 0;  13:16:20; 缩量跌停; 11.9; -10.0%; 2; 算力板块大跌</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="5" t="n">
@@ -14985,6 +15140,11 @@
           <t>605277.SH; 新亚电子; 1;  09:30:02; 缩量跌停; 16.16; -10.0%; 2; 英伟达产业链大跌</t>
         </is>
       </c>
+      <c r="BT11" t="inlineStr">
+        <is>
+          <t>603990.SH; 麦迪科技; 5;  13:34:43; 放量跌停; 14.58; -10.0%; 1; 异常波动+资金获利了结</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="5" t="n">
@@ -15160,6 +15320,11 @@
           <t>603308.SH; 应流股份; 1;  09:30:45; 缩量跌停; 20.11; -10.0%; 1; 近期涨幅较大</t>
         </is>
       </c>
+      <c r="BT12" t="inlineStr">
+        <is>
+          <t>603189.SH; 网达软件; 0;  13:35:48; 放量跌停; 17.44; -10.0%; 1; AI应用股大跌</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="5" t="n">
@@ -15335,6 +15500,11 @@
           <t>601869.SH; 长飞光纤; 0;  09:30:53; 缩量跌停; 37.62; -10.0%; 1; 英伟达产业链大跌</t>
         </is>
       </c>
+      <c r="BT13" t="inlineStr">
+        <is>
+          <t>600797.SH; 浙大网新; 0;  13:45:52; 放量跌停; 9.2; -10.0%; 1; DeepSeek概念板块大跌</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="5" t="n">
@@ -15495,6 +15665,11 @@
           <t>603211.SH; 晋拓股份; 0;  09:31:00; 缩量跌停; 19.3; -10.0%; 2; 近期涨幅较大</t>
         </is>
       </c>
+      <c r="BT14" t="inlineStr">
+        <is>
+          <t>603585.SH; 苏利股份; 0;  13:46:21; 放量跌停; 12.66; -10.0%; 1; 资金出逃</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="5" t="n">
@@ -15650,6 +15825,11 @@
           <t>002484.SZ; 江海股份; 0;  09:31:00; 缩量跌停; 21.63; -10.0%; 1; 资金获利了结</t>
         </is>
       </c>
+      <c r="BT15" t="inlineStr">
+        <is>
+          <t>603682.SH; 锦和商管; 3;  14:19:21; 放量跌停; 5.96; -10.0%; 1; 异常波动+零售板块大跌</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="5" t="n">
@@ -15803,6 +15983,11 @@
       <c r="BK16" t="inlineStr">
         <is>
           <t>603042.SH; 华脉科技; 2;  09:31:48; 放量跌停; 13.48; -10.0%; 2; 英伟达产业链大跌</t>
+        </is>
+      </c>
+      <c r="BT16" t="inlineStr">
+        <is>
+          <t>603108.SH; 润达医疗; 1;  14:28:03; 放量跌停; 20.35; -10.0%; 1; AI医疗股大跌</t>
         </is>
       </c>
     </row>
@@ -20177,7 +20362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BS72"/>
+  <dimension ref="A1:BT72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20536,6 +20721,11 @@
           <t>2025年02月17日</t>
         </is>
       </c>
+      <c r="BT1" s="5" t="inlineStr">
+        <is>
+          <t>2025年02月18日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="5" t="n">
@@ -20891,6 +21081,11 @@
           <t>002123.SZ; 梦网科技; 2;  09:25:00; 主板; 20.57; 曾涨停; -10.0%; 0.04H;  09:25:00|| 09:32:27</t>
         </is>
       </c>
+      <c r="BT2" t="inlineStr">
+        <is>
+          <t>002112.SZ; 三变科技; 16;  09:25:00; 主板; 17.84; 曾涨停; 2.0%; 2.19H;  09:25:00|| 13:03:12|| 13:03:57|| 13:06:18|| 13:08:21|| 13:11:06|| 13:11:33|| 13:12:06|| 13:12:27|| 13:13:18|| 13:18:03|| 13:21:03|| 13:21:54|| 13:22:15|| 13:22:27|| 13:22:48</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="n">
@@ -21246,6 +21441,11 @@
           <t>002238.SZ; 天威视讯; 1;  09:25:00; 主板; 9.49; 曾涨停; 1.5%; 0.01H;  09:25:00</t>
         </is>
       </c>
+      <c r="BT3" t="inlineStr">
+        <is>
+          <t>001324.SZ; 长青科技; 1;  09:25:00; 主板; 18.84; 曾涨停; -2.2%; 0.00H;  09:25:00</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="5" t="n">
@@ -21601,6 +21801,11 @@
           <t>300657.SZ; 弘信电子; 1;  09:25:00; 创业板; 36.5; 曾涨停; 13.1%; 2.71H;  09:25:00</t>
         </is>
       </c>
+      <c r="BT4" t="inlineStr">
+        <is>
+          <t>603258.SH; 电魂网络; 1;  09:30:16; 主板; 26.4; 曾涨停; 1.5%; 0.13H;  09:30:16</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="n">
@@ -21956,6 +22161,11 @@
           <t>301396.SZ; 宏景科技; 3;  09:25:00; 创业板; 50.5; 曾涨停; 11.0%; 2.77H;  09:25:00|| 13:53:33|| 13:57:54</t>
         </is>
       </c>
+      <c r="BT5" t="inlineStr">
+        <is>
+          <t>002620.SZ; 瑞和股份; 1;  09:30:21; 主板; 3.51; 曾涨停; 2.3%; 0.66H;  09:30:21</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="5" t="n">
@@ -22311,6 +22521,11 @@
           <t>603039.SH; 泛微网络; 1;  09:25:03; 主板; 79.9; 曾涨停; 3.2%; 2.56H;  09:25:03</t>
         </is>
       </c>
+      <c r="BT6" t="inlineStr">
+        <is>
+          <t>301248.SZ; 杰创智能; 1;  09:32:39; 创业板; 21.16; 曾涨停; 3.2%; 0.01H;  09:32:39</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="n">
@@ -22666,6 +22881,11 @@
           <t>603085.SH; 天成自控; 1;  09:25:04; 主板; 11.81; 曾涨停; 0.1%; 0.00H;  09:25:04</t>
         </is>
       </c>
+      <c r="BT7" t="inlineStr">
+        <is>
+          <t>600590.SH; 泰豪科技; 1;  09:35:54; 主板; 6.28; 曾涨停; 2.3%; 3.67H;  09:35:54</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="5" t="n">
@@ -23021,6 +23241,11 @@
           <t>603296.SH; 华勤技术; 8;  09:30:09; 主板; 92.31; 曾涨停; 5.9%; 0.29H;  09:30:09|| 09:31:07|| 09:31:33|| 09:45:45|| 09:49:48|| 10:03:27|| 10:07:48|| 10:09:13</t>
         </is>
       </c>
+      <c r="BT8" t="inlineStr">
+        <is>
+          <t>002985.SZ; 北摩高科; 3;  09:36:33; 主板; 23.64; 曾涨停; 5.7%; 0.01H;  09:36:33|| 10:14:48|| 10:15:06</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="n">
@@ -23376,6 +23601,11 @@
           <t>002313.SZ; 日海智能; 3;  09:30:15; 主板; 13.3; 曾涨停; 0.6%; 0.02H;  09:30:15|| 09:30:45|| 09:48:00</t>
         </is>
       </c>
+      <c r="BT9" t="inlineStr">
+        <is>
+          <t>000032.SZ; 深桑达A; 4;  09:37:09; 主板; 25.58; 曾涨停; 0.9%; 0.01H;  09:37:09|| 09:37:30|| 09:37:51|| 09:38:18</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="5" t="n">
@@ -23731,6 +23961,11 @@
           <t>000032.SZ; 深桑达A; 14;  09:30:18; 主板; 25.34; 曾涨停; 5.7%; 2.18H;  09:30:18|| 09:31:24|| 09:35:36|| 09:38:33|| 09:49:27|| 09:51:33|| 09:59:45|| 10:03:24|| 10:07:42|| 10:12:03|| 11:22:30|| 11:26:12|| 14:16:42|| 14:18:27</t>
         </is>
       </c>
+      <c r="BT10" t="inlineStr">
+        <is>
+          <t>600986.SH; 浙文互联; 4;  09:44:32; 主板; 10.4; 曾涨停; 6.1%; 3.36H;  09:44:32|| 13:15:05|| 14:14:26|| 14:36:11</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="5" t="n">
@@ -24081,6 +24316,11 @@
           <t>603258.SH; 电魂网络; 4;  09:32:01; 主板; 26.01; 曾涨停; 3.6%; 0.01H;  09:32:01|| 09:54:22|| 09:54:34|| 09:54:49</t>
         </is>
       </c>
+      <c r="BT11" t="inlineStr">
+        <is>
+          <t>002598.SZ; 山东章鼓; 1;  09:52:15; 主板; 10.59; 曾涨停; 3.2%; 0.01H;  09:52:15</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="5" t="n">
@@ -24431,6 +24671,11 @@
           <t>301365.SZ; 矩阵股份; 1;  09:33:51; 创业板; 16.77; 曾涨停; 12.6%; 2.66H;  09:33:51</t>
         </is>
       </c>
+      <c r="BT12" t="inlineStr">
+        <is>
+          <t>603583.SH; 捷昌驱动; 8;  10:24:24; 主板; 36.77; 曾涨停; 7.5%; 0.73H;  10:24:24|| 10:27:06|| 11:15:51|| 11:19:27|| 11:27:06|| 11:29:18|| 13:42:21|| 13:42:51</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="5" t="n">
@@ -24771,6 +25016,11 @@
           <t>000034.SZ; 神州数码; 5;  09:35:33; 主板; 54.22; 曾涨停; 2.4%; 0.40H;  09:35:33|| 09:38:24|| 09:39:39|| 09:59:21|| 10:18:45</t>
         </is>
       </c>
+      <c r="BT13" t="inlineStr">
+        <is>
+          <t>002134.SZ; 天津普林; 1;  10:28:51; 主板; 20.05; 曾涨停; 5.6%; 1.03H;  10:28:51</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="5" t="n">
@@ -25111,6 +25361,11 @@
           <t>603918.SH; 金桥信息; 1;  09:36:48; 主板; 20.48; 曾涨停; -2.0%; 0.00H;  09:36:48</t>
         </is>
       </c>
+      <c r="BT14" t="inlineStr">
+        <is>
+          <t>603767.SH; 中马传动; 1;  11:12:15; 主板; 12.87; 曾涨停; 7.0%; 0.42H;  11:12:15</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="5" t="n">
@@ -25451,6 +25706,11 @@
           <t>601116.SH; 三江购物; 8;  09:40:12; 主板; 14.92; 曾涨停; 5.4%; 0.17H;  09:40:12|| 11:29:27|| 14:32:03|| 14:34:48|| 14:38:04|| 14:38:40|| 14:42:00|| 14:42:25</t>
         </is>
       </c>
+      <c r="BT15" t="inlineStr">
+        <is>
+          <t>605488.SH; 福莱新材; 1;  11:15:25; 主板; 47.21; 曾涨停; 7.3%; 1.49H;  11:15:25</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="5" t="n">
@@ -25786,6 +26046,11 @@
           <t>000977.SZ; 浪潮信息; 1;  09:40:51; 主板; 67.87; 曾涨停; 7.3%; 0.00H;  09:40:51</t>
         </is>
       </c>
+      <c r="BT16" t="inlineStr">
+        <is>
+          <t>603917.SH; 合力科技; 8;  11:22:31; 主板; 13.6; 曾涨停; 5.9%; 0.06H;  11:22:31|| 11:24:25|| 11:26:25|| 11:26:49|| 11:27:34|| 11:28:04|| 11:28:13|| 11:28:28</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="5" t="n">
@@ -26111,6 +26376,11 @@
           <t>605068.SH; 明新旭腾; 1;  09:40:58; 主板; 14.36; 曾涨停; 5.4%; 0.06H;  09:40:58</t>
         </is>
       </c>
+      <c r="BT17" t="inlineStr">
+        <is>
+          <t>603312.SH; 西典新能; 1;  11:27:33; 主板; 38.59; 曾涨停; 7.4%; 0.06H;  11:27:33</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="5" t="n">
@@ -26431,6 +26701,11 @@
           <t>300559.SZ; 佳发教育; 2;  09:41:24; 创业板; 15.1; 曾涨停; 8.7%; 0.04H;  09:41:24|| 09:43:12</t>
         </is>
       </c>
+      <c r="BT18" t="inlineStr">
+        <is>
+          <t>603839.SH; 安正时尚; 1;  13:00:22; 主板; 5.91; 曾涨停; 3.1%; 0.00H;  13:00:22</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="5" t="n">
@@ -26751,6 +27026,11 @@
           <t>600661.SH; 昂立教育; 1;  09:43:20; 主板; 12.3; 曾涨停; 4.9%; 0.00H;  09:43:20</t>
         </is>
       </c>
+      <c r="BT19" t="inlineStr">
+        <is>
+          <t>600520.SH; 文一科技; 1;  13:06:51; 主板; 36.34; 曾涨停; 3.8%; 0.00H;  13:06:51</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="5" t="n">
@@ -27051,6 +27331,11 @@
           <t>002987.SZ; 京北方; 2;  09:45:21; 主板; 19.09; 曾涨停; 7.6%; 1.65H;  09:45:21|| 10:33:00</t>
         </is>
       </c>
+      <c r="BT20" t="inlineStr">
+        <is>
+          <t>002848.SZ; 高斯贝尔; 2;  13:09:30; 主板; 7.31; 曾涨停; 5.8%; 0.01H;  13:09:30|| 13:10:39</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="5" t="n">
@@ -27351,6 +27636,11 @@
           <t>603882.SH; 金域医学; 4;  09:47:00; 主板; 37.22; 曾涨停; 2.5%; 0.24H;  09:47:00|| 10:02:21|| 10:02:30|| 10:02:42</t>
         </is>
       </c>
+      <c r="BT21" t="inlineStr">
+        <is>
+          <t>300853.SZ; 申昊科技; 1;  13:14:45; 创业板; 27.19; 曾涨停; 12.2%; 0.01H;  13:14:45</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="5" t="n">
@@ -27641,6 +27931,11 @@
           <t>002916.SZ; 深南电路; 22;  09:48:24; 主板; 147.98; 曾涨停; 8.5%; 1.58H;  09:48:24|| 09:52:48|| 09:53:00|| 09:53:12|| 09:53:30|| 09:53:36|| 09:53:45|| 09:54:03|| 09:54:09|| 09:54:45|| 09:54:51|| 09:59:06|| 10:17:15|| 10:17:42|| 10:17:54|| 10:18:06|| 10:20:18|| 10:20:24|| 10:20:48|| 10:20:54|| 13:01:06|| 13:01:33</t>
         </is>
       </c>
+      <c r="BT22" t="inlineStr">
+        <is>
+          <t>601010.SH; 文峰股份; 2;  13:40:14; 主板; 3.22; 曾涨停; 4.5%; 1.00H;  13:40:14|| 14:39:50</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="5" t="n">
@@ -27906,6 +28201,11 @@
           <t>000516.SZ; 国际医学; 1;  09:48:30; 主板; 5.82; 曾涨停; 8.2%; 1.71H;  09:48:30</t>
         </is>
       </c>
+      <c r="BT23" t="inlineStr">
+        <is>
+          <t>603629.SH; 利通电子; 2;  14:04:23; 主板; 27.54; 曾涨停; 3.4%; 0.02H;  14:04:23|| 14:06:29</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="5" t="n">
@@ -28156,6 +28456,11 @@
           <t>301018.SZ; 申菱环境; 1;  09:48:30; 创业板; 45.19; 曾涨停; 18.3%; 1.89H;  09:48:30</t>
         </is>
       </c>
+      <c r="BT24" t="inlineStr">
+        <is>
+          <t>603110.SH; 东方材料; 1;  14:05:03; 主板; 23.4; 曾涨停; 4.8%; 0.18H;  14:05:03</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="5" t="n">
@@ -28399,6 +28704,11 @@
       <c r="BS25" t="inlineStr">
         <is>
           <t>002841.SZ; 视源股份; 1;  09:51:30; 主板; 45.9; 曾涨停; 5.1%; 0.38H;  09:51:30</t>
+        </is>
+      </c>
+      <c r="BT25" t="inlineStr">
+        <is>
+          <t>603617.SH; 君禾股份; 1;  14:47:37; 主板; 8.16; 曾涨停; 7.8%; 0.02H;  14:47:37</t>
         </is>
       </c>
     </row>
@@ -32258,7 +32568,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BS128"/>
+  <dimension ref="A1:BT128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32617,6 +32927,11 @@
           <t>2025年02月17日</t>
         </is>
       </c>
+      <c r="BT1" s="5" t="inlineStr">
+        <is>
+          <t>2025年02月18日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="5" t="n">
@@ -32972,6 +33287,11 @@
           <t>300065.SZ; 海兰信; 0;  09:25:00; 首板涨停; 10.66;  09:25:00; 20.0%; 1; 拟购买海兰寰宇100%的股权+海洋信息技术</t>
         </is>
       </c>
+      <c r="BT2" t="inlineStr">
+        <is>
+          <t>002474.SZ; 榕基软件; 0;  09:25:00; 首板涨停; 7.78;  09:25:00; 10.0%; 1; 智慧政务+数据要素+华为昇思+信创</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="n">
@@ -33327,6 +33647,11 @@
           <t>002065.SZ; 东华软件; 0;  09:25:00; 首板涨停; 10.31;  09:25:00; 10.0%; 1; 腾讯+DeepSeek概念+数字基础设施建设</t>
         </is>
       </c>
+      <c r="BT3" t="inlineStr">
+        <is>
+          <t>603209.SH; 兴通股份; 0;  09:31:31; 首板涨停; 16.23;  09:31:31; 10.0%; 1; DeepSeek概念+数据要素+航运+化学品运输</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="5" t="n">
@@ -33682,6 +34007,11 @@
           <t>300069.SZ; 金利华电; 0;  09:25:00; 首板涨停; 16.09;  09:25:00; 20.0%; 1; 拟购买海德利森100%股权+电网设备</t>
         </is>
       </c>
+      <c r="BT4" t="inlineStr">
+        <is>
+          <t>002121.SZ; 科陆电子; 0;  09:33:12; 首板涨停; 4.69;  09:33:12; 10.1%; 1; 储能+电网设备+充电桩+锂电池</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="n">
@@ -34037,6 +34367,11 @@
           <t>002527.SZ; 新时达; 0;  09:25:00; 首板涨停; 11.17;  09:25:00; 10.0%; 1; 海尔入主+机器人+电梯</t>
         </is>
       </c>
+      <c r="BT5" t="inlineStr">
+        <is>
+          <t>002453.SZ; 华软科技; 0;  09:35:30; 首板涨停; 5.94;  09:35:30; 10.0%; 1; 光刻胶+精细化工+保健品</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="5" t="n">
@@ -34392,6 +34727,11 @@
           <t>603629.SH; 利通电子; 0;  09:25:02; 首板涨停; 26.63;  09:25:02; 10.0%; 1; 算力租赁+英伟达概念+参股通航智能</t>
         </is>
       </c>
+      <c r="BT6" t="inlineStr">
+        <is>
+          <t>002866.SZ; 传艺科技; 2;  09:38:42; 首板涨停; 17.72;  09:36:24; 10.0%; 1; 固态电池+钠离子电池+消费电子</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="n">
@@ -34747,6 +35087,11 @@
           <t>603818.SH; 曲美家居; 0;  09:25:03; 首板涨停; 3.14;  09:25:03; 10.2%; 1; 与群核科技（酷家乐）合作+中高档民用家具+外销</t>
         </is>
       </c>
+      <c r="BT7" t="inlineStr">
+        <is>
+          <t>002547.SZ; 春兴精工; 0;  09:39:57; 首板涨停; 5.2;  09:39:57; 9.9%; 1; 特斯拉+汽车零部件+5.5G</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="5" t="n">
@@ -35102,6 +35447,11 @@
           <t>601616.SH; 广电电气; 0;  09:25:03; 首板涨停; 4.51;  09:25:03; 10.0%; 1; 腾讯概念+数据中心+年报预增+电力设备</t>
         </is>
       </c>
+      <c r="BT8" t="inlineStr">
+        <is>
+          <t>300648.SZ; 星云股份; 1;  09:48:45; 首板涨停; 27.3;  09:40:30; 20.0%; 1; 锂电池检测+储能+高压快充+华为</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="n">
@@ -35457,6 +35807,11 @@
           <t>002848.SZ; 高斯贝尔; 0;  09:31:27; 首板涨停; 6.91;  09:31:27; 10.0%; 1; 卫星导航+覆铜板+算力+国企</t>
         </is>
       </c>
+      <c r="BT9" t="inlineStr">
+        <is>
+          <t>603906.SH; 龙蟠科技; 1;  10:03:27; 首板涨停; 11.14;  09:49:21; 10.0%; 1; 固态电池+磷酸铁锂+宁德时代概念+出海</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="5" t="n">
@@ -35812,6 +36167,11 @@
           <t>002786.SZ; 银宝山新; 0;  09:31:39; 首板涨停; 10.58;  09:31:39; 10.0%; 1; 实控人东方资管(AMC)+机器人+芯片激光焊接机+华为汽车</t>
         </is>
       </c>
+      <c r="BT10" t="inlineStr">
+        <is>
+          <t>605255.SH; 天普股份; 1;  10:16:42; 首板涨停; 15.24;  10:11:12; 10.0%; 1; 汽车零部件+汽车胶管+密封系统零件</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="5" t="n">
@@ -36167,6 +36527,11 @@
           <t>603389.SH; 亚振家居; 0;  09:32:22; 首板涨停; 5.84;  09:32:22; 10.0%; 1; 智能家居+酷家乐+培育钻石+新零售</t>
         </is>
       </c>
+      <c r="BT11" t="inlineStr">
+        <is>
+          <t>002290.SZ; 禾盛新材; 0;  10:35:27; 首板涨停; 19.88;  10:35:27; 10.0%; 1; DeepSeek概念+商汤合作+家电零部件+文化传媒</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="5" t="n">
@@ -36522,6 +36887,11 @@
           <t>600678.SH; 四川金顶; 1;  09:34:13; 首板涨停; 7.21;  09:30:49; 10.1%; 1; DeepSeek概念+子公司近期竞得采矿权+氢能源+建筑材料</t>
         </is>
       </c>
+      <c r="BT12" t="inlineStr">
+        <is>
+          <t>000761.SZ; 本钢板材; 0;  10:55:00; 首板涨停; 3.86;  10:55:00; 10.0%; 1; 钢铁+央企改革</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="5" t="n">
@@ -36877,6 +37247,11 @@
           <t>603838.SH; 四通股份; 0;  09:34:15; 首板涨停; 5.68;  09:34:15; 10.1%; 1; 家居生活陶瓷+外销+与马可波罗为同一实控人+微盘股</t>
         </is>
       </c>
+      <c r="BT13" t="inlineStr">
+        <is>
+          <t>300946.SZ; 恒而达; 0;  11:25:24; 首板涨停; 33.04;  11:25:24; 20.0%; 1; 滚珠丝杠+工业母机+智能数控装备</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="5" t="n">
@@ -37232,6 +37607,11 @@
           <t>002686.SZ; 亿利达; 1;  09:34:24; 首板涨停; 5.95;  09:30:33; 10.0%; 1; AMC+空调风机+高压快充+浙江国资</t>
         </is>
       </c>
+      <c r="BT14" t="inlineStr">
+        <is>
+          <t>003013.SZ; 地铁设计; 0;  13:04:15; 首板涨停; 15.42;  13:04:15; 10.0%; 1; 拟收购广州地铁工程咨询+轨道交通+数据中心+广州国资</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="5" t="n">
@@ -37582,6 +37962,11 @@
           <t>603813.SH; 原尚股份; 0;  09:36:21; 首板涨停; 10.86;  09:36:21; 10.0%; 1; 物流+冷链物流</t>
         </is>
       </c>
+      <c r="BT15" t="inlineStr">
+        <is>
+          <t>002102.SZ; 能特科技; 0;  13:06:33; 首板涨停; 3;  13:06:33; 9.9%; 1; 医药中间体+维生素E+合成生物+黄金</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="5" t="n">
@@ -37932,6 +38317,11 @@
           <t>605186.SH; 健麾信息; 0;  09:37:08; 首板涨停; 24.88;  09:37:08; 10.0%; 1; 接入DeepSeek+智慧药房+机器人+AI语料</t>
         </is>
       </c>
+      <c r="BT16" t="inlineStr">
+        <is>
+          <t>600058.SH; 五矿发展; 0;  13:27:43; 首板涨停; 7.69;  13:27:43; 10.0%; 1; 金属贸易+供应链+央企</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="5" t="n">
@@ -38277,6 +38667,11 @@
           <t>600590.SH; 泰豪科技; 1;  09:38:53; 首板涨停; 6.14;  09:31:56; 10.0%; 1; 数据中心发电机+机器狗+军工+混改/重组经验丰富</t>
         </is>
       </c>
+      <c r="BT17" t="inlineStr">
+        <is>
+          <t>002398.SZ; 垒知集团; 0;  14:08:15; 首板涨停; 6.25;  14:08:15; 10.0%; 1; 整合微软OpenAI解决方案+建筑材料+工程质量检测</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="5" t="n">
@@ -38622,6 +39017,11 @@
           <t>301428.SZ; 世纪恒通; 7;  09:40:12; 首板涨停; 48.1;  09:25:00; 20.0%; 1; 腾讯合作+营销+车主信息服务</t>
         </is>
       </c>
+      <c r="BT18" t="inlineStr">
+        <is>
+          <t>300490.SZ; 华自科技; 14;  14:21:09; 首板涨停; 9.62;  09:55:21; 20.0%; 1; 储能+固态电池+钠离子电池+数据中心</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="5" t="n">
@@ -38962,6 +39362,11 @@
           <t>603070.SH; 万控智造; 0;  09:43:31; 首板涨停; 15.19;  09:43:31; 10.0%; 1; 数据中心+配电开关控制设备+环网柜</t>
         </is>
       </c>
+      <c r="BT19" t="inlineStr">
+        <is>
+          <t>605378.SH; 野马电池; 3;  14:26:04; 首板涨停; 24;  09:42:52; 10.0%; 1; 锌锰电池+拟投建越南生产基地+外销</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="5" t="n">
@@ -39302,6 +39707,11 @@
           <t>600817.SH; 宇通重工; 2;  09:44:40; 首板涨停; 13.06;  09:25:01; 10.0%; 1; 文远知行合作+无人驾驶+环卫设备+新能源环卫车</t>
         </is>
       </c>
+      <c r="BT20" t="inlineStr">
+        <is>
+          <t>600410.SH; 华胜天成; 2;  14:40:09; 首板涨停; 10.78;  09:40:39; 10.0%; 1; 华为昇腾+腾讯+机器人+AI应用</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="5" t="n">
@@ -39642,6 +40052,11 @@
           <t>603315.SH; 福鞍股份; 0;  09:46:02; 首板涨停; 12.4;  09:46:02; 10.0%; 1; 算力+锂电池+大型铸钢件+年报预增</t>
         </is>
       </c>
+      <c r="BT21" t="inlineStr">
+        <is>
+          <t>600326.SH; 西藏天路; 3;  14:40:35; 首板涨停; 6.77;  10:15:29; 10.1%; 1; 西部大开发+西藏国资+水泥+金属铜</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="5" t="n">
@@ -39982,6 +40397,11 @@
           <t>003032.SZ; 传智教育; 0;  09:50:27; 首板涨停; 9.94;  09:50:27; 10.0%; 1; 教育+人形机器人+华为鸿蒙+收购成功</t>
         </is>
       </c>
+      <c r="BT22" t="inlineStr">
+        <is>
+          <t>002827.SZ; 高争民爆; 3;  14:42:18; 首板涨停; 27.34;  11:00:15; 10.0%; 1; 民爆+水利水电+西藏国企+西部大开发</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="5" t="n">
@@ -40317,6 +40737,11 @@
           <t>603275.SH; 众辰科技; 0;  09:54:51; 首板涨停; 41.47;  09:54:51; 10.0%; 1; 机器人+工业自动化</t>
         </is>
       </c>
+      <c r="BT23" t="inlineStr">
+        <is>
+          <t>000065.SZ; 北方国际; 9;  14:43:06; 首板涨停; 10.89;  10:20:21; 10.0%; 1; 国际工程承包商+煤炭+风电+央企国企改革</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="5" t="n">
@@ -40647,6 +41072,11 @@
           <t>000839.SZ; 中信国安; 2;  10:03:57; 首板涨停; 3.39;  09:51:42; 10.1%; 1; 央企+此前控股股东重整+传媒</t>
         </is>
       </c>
+      <c r="BT24" t="inlineStr">
+        <is>
+          <t>603082.SH; 北自科技; 1;  14:44:39; 首板涨停; 43.04;  11:11:45; 10.0%; 1; 人形机器人+智能物流+央企</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="5" t="n">
@@ -40977,6 +41407,11 @@
           <t>002629.SZ; 仁智股份; 0;  10:05:42; 首板涨停; 5.04;  10:05:42; 10.0%; 1; 光伏+油服工程+年报预计扭亏</t>
         </is>
       </c>
+      <c r="BT25" t="inlineStr">
+        <is>
+          <t>002328.SZ; 新朋股份; 24;  14:46:51; 首板涨停; 6.79;  11:14:42; 10.0%; 1; 特斯拉+新能源汽车+储能+创投</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="5" t="n">
@@ -41300,6 +41735,11 @@
       <c r="BS26" t="inlineStr">
         <is>
           <t>603269.SH; 海鸥股份; 0;  10:07:47; 首板涨停; 12.43;  10:07:47; 10.0%; 1; 冷却塔+氢能源+核电+外销</t>
+        </is>
+      </c>
+      <c r="BT26" t="inlineStr">
+        <is>
+          <t>600884.SH; 杉杉股份; 1;  14:50:35; 首板涨停; 7.26;  09:43:59; 10.0%; 1; 固态电池+负极材料+破净股</t>
         </is>
       </c>
     </row>
@@ -52144,7 +52584,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BS50"/>
+  <dimension ref="A1:BT50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -52503,6 +52943,11 @@
           <t>2025年02月17日</t>
         </is>
       </c>
+      <c r="BT1" s="5" t="inlineStr">
+        <is>
+          <t>2025年02月18日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="5" t="n">
@@ -52854,6 +53299,11 @@
           <t>002691.SZ; 冀凯股份; 8.6%; 16.3%; 13.15; 6.3%; 价升量涨||强中选强||阳线</t>
         </is>
       </c>
+      <c r="BT2" t="inlineStr">
+        <is>
+          <t>002757.SZ; 南兴股份; 4.4%; 15.1%; 23.01; 10.0%; 强中选强||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="n">
@@ -53205,6 +53655,11 @@
           <t>603110.SH; 东方材料; 6.0%; 17.0%; 22.32; 10.0%; 强中选强||阳线||放量</t>
         </is>
       </c>
+      <c r="BT3" t="inlineStr">
+        <is>
+          <t>603918.SH; 金桥信息; 4.0%; 14.6%; 22.53; 10.0%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="5" t="n">
@@ -53532,6 +53987,11 @@
           <t>000856.SZ; 冀东装备; 4.5%; 15.2%; 12.67; 10.0%; 阳线||放量||价升量缩</t>
         </is>
       </c>
+      <c r="BT4" t="inlineStr">
+        <is>
+          <t>603300.SH; 海南华铁; 3.8%; 14.3%; 8.8; 10.0%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="n">
@@ -53843,6 +54303,11 @@
           <t>002779.SZ; 中坚科技; 3.9%; 13.0%; 111.89; 8.6%; 价升量涨||阳线||缩量</t>
         </is>
       </c>
+      <c r="BT5" t="inlineStr">
+        <is>
+          <t>300766.SZ; 每日互动; 3.4%; 13.3%; 58.9; 9.5%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="5" t="n">
@@ -54142,6 +54607,11 @@
           <t>600633.SH; 浙数文化; 3.1%; 13.5%; 19.75; 10.0%; 强中选强||阳线||放量</t>
         </is>
       </c>
+      <c r="BT6" t="inlineStr">
+        <is>
+          <t>002398.SZ; 垒知集团; 3.0%; 13.4%; 6.25; 10.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="n">
@@ -54425,6 +54895,11 @@
           <t>300718.SZ; 长盛轴承; 2.6%; 23.2%; 77.6; 20.0%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="BT7" t="inlineStr">
+        <is>
+          <t>300853.SZ; 申昊科技; 0.3%; 12.6%; 27.19; 12.2%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="5" t="n">
@@ -54692,6 +55167,7 @@
           <t>301413.SZ; 安培龙; 1.0%; 14.6%; 91.93; 13.5%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="BT8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="5" t="n">
@@ -54943,6 +55419,7 @@
           <t>300918.SZ; 南山智尚; 0.9%; 17.0%; 13.99; 15.9%; 价升量涨||强中选强||阳线</t>
         </is>
       </c>
+      <c r="BT9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="5" t="n">
@@ -55170,6 +55647,7 @@
           <t>300007.SZ; 汉威科技; 0.5%; 15.8%; 33; 15.2%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="BT10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="5" t="n">
@@ -55381,6 +55859,7 @@
           <t>301486.SZ; 致尚科技; 0.4%; 13.9%; 68.22; 13.5%; 价升量涨||强中选强||阳线</t>
         </is>
       </c>
+      <c r="BT11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="5" t="n">
@@ -55560,6 +56039,7 @@
           <t>300278.SZ; 华昌达; 0.3%; 14.4%; 7; 14.0%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="BT12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="5" t="n">
@@ -55723,6 +56203,7 @@
           <t>300115.SZ; 长盈精密; 0.2%; 12.5%; 24.2; 12.2%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="BT13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="5" t="n">
@@ -55878,6 +56359,7 @@
       <c r="BQ14" t="inlineStr"/>
       <c r="BR14" t="inlineStr"/>
       <c r="BS14" t="inlineStr"/>
+      <c r="BT14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="5" t="n">
@@ -56025,6 +56507,7 @@
       <c r="BQ15" t="inlineStr"/>
       <c r="BR15" t="inlineStr"/>
       <c r="BS15" t="inlineStr"/>
+      <c r="BT15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="5" t="n">
@@ -56168,6 +56651,7 @@
       <c r="BQ16" t="inlineStr"/>
       <c r="BR16" t="inlineStr"/>
       <c r="BS16" t="inlineStr"/>
+      <c r="BT16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="5" t="n">
@@ -56303,6 +56787,7 @@
       <c r="BQ17" t="inlineStr"/>
       <c r="BR17" t="inlineStr"/>
       <c r="BS17" t="inlineStr"/>
+      <c r="BT17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="5" t="n">
@@ -56434,6 +56919,7 @@
       <c r="BQ18" t="inlineStr"/>
       <c r="BR18" t="inlineStr"/>
       <c r="BS18" t="inlineStr"/>
+      <c r="BT18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="5" t="n">
@@ -56557,6 +57043,7 @@
       <c r="BQ19" t="inlineStr"/>
       <c r="BR19" t="inlineStr"/>
       <c r="BS19" t="inlineStr"/>
+      <c r="BT19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="5" t="n">
@@ -56680,6 +57167,7 @@
       <c r="BQ20" t="inlineStr"/>
       <c r="BR20" t="inlineStr"/>
       <c r="BS20" t="inlineStr"/>
+      <c r="BT20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="5" t="n">
@@ -56803,6 +57291,7 @@
       <c r="BQ21" t="inlineStr"/>
       <c r="BR21" t="inlineStr"/>
       <c r="BS21" t="inlineStr"/>
+      <c r="BT21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="5" t="n">
@@ -56918,6 +57407,7 @@
       <c r="BQ22" t="inlineStr"/>
       <c r="BR22" t="inlineStr"/>
       <c r="BS22" t="inlineStr"/>
+      <c r="BT22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="5" t="n">
@@ -57029,6 +57519,7 @@
       <c r="BQ23" t="inlineStr"/>
       <c r="BR23" t="inlineStr"/>
       <c r="BS23" t="inlineStr"/>
+      <c r="BT23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="5" t="n">
@@ -57136,6 +57627,7 @@
       <c r="BQ24" t="inlineStr"/>
       <c r="BR24" t="inlineStr"/>
       <c r="BS24" t="inlineStr"/>
+      <c r="BT24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="5" t="n">
@@ -57239,6 +57731,7 @@
       <c r="BQ25" t="inlineStr"/>
       <c r="BR25" t="inlineStr"/>
       <c r="BS25" t="inlineStr"/>
+      <c r="BT25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="5" t="n">
@@ -57334,6 +57827,7 @@
       <c r="BQ26" t="inlineStr"/>
       <c r="BR26" t="inlineStr"/>
       <c r="BS26" t="inlineStr"/>
+      <c r="BT26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="5" t="n">
@@ -57429,6 +57923,7 @@
       <c r="BQ27" t="inlineStr"/>
       <c r="BR27" t="inlineStr"/>
       <c r="BS27" t="inlineStr"/>
+      <c r="BT27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="5" t="n">
@@ -57524,6 +58019,7 @@
       <c r="BQ28" t="inlineStr"/>
       <c r="BR28" t="inlineStr"/>
       <c r="BS28" t="inlineStr"/>
+      <c r="BT28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="5" t="n">
@@ -57619,6 +58115,7 @@
       <c r="BQ29" t="inlineStr"/>
       <c r="BR29" t="inlineStr"/>
       <c r="BS29" t="inlineStr"/>
+      <c r="BT29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="5" t="n">
@@ -57710,6 +58207,7 @@
       <c r="BQ30" t="inlineStr"/>
       <c r="BR30" t="inlineStr"/>
       <c r="BS30" t="inlineStr"/>
+      <c r="BT30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="5" t="n">
@@ -57801,6 +58299,7 @@
       <c r="BQ31" t="inlineStr"/>
       <c r="BR31" t="inlineStr"/>
       <c r="BS31" t="inlineStr"/>
+      <c r="BT31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="5" t="n">
@@ -57892,6 +58391,7 @@
       <c r="BQ32" t="inlineStr"/>
       <c r="BR32" t="inlineStr"/>
       <c r="BS32" t="inlineStr"/>
+      <c r="BT32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="5" t="n">
@@ -57983,6 +58483,7 @@
       <c r="BQ33" t="inlineStr"/>
       <c r="BR33" t="inlineStr"/>
       <c r="BS33" t="inlineStr"/>
+      <c r="BT33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="5" t="n">
@@ -58066,6 +58567,7 @@
       <c r="BQ34" t="inlineStr"/>
       <c r="BR34" t="inlineStr"/>
       <c r="BS34" t="inlineStr"/>
+      <c r="BT34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="5" t="n">
@@ -58149,6 +58651,7 @@
       <c r="BQ35" t="inlineStr"/>
       <c r="BR35" t="inlineStr"/>
       <c r="BS35" t="inlineStr"/>
+      <c r="BT35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="5" t="n">
@@ -58232,6 +58735,7 @@
       <c r="BQ36" t="inlineStr"/>
       <c r="BR36" t="inlineStr"/>
       <c r="BS36" t="inlineStr"/>
+      <c r="BT36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="5" t="n">
@@ -58315,6 +58819,7 @@
       <c r="BQ37" t="inlineStr"/>
       <c r="BR37" t="inlineStr"/>
       <c r="BS37" t="inlineStr"/>
+      <c r="BT37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="5" t="n">
@@ -58398,6 +58903,7 @@
       <c r="BQ38" t="inlineStr"/>
       <c r="BR38" t="inlineStr"/>
       <c r="BS38" t="inlineStr"/>
+      <c r="BT38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="5" t="n">
@@ -58481,6 +58987,7 @@
       <c r="BQ39" t="inlineStr"/>
       <c r="BR39" t="inlineStr"/>
       <c r="BS39" t="inlineStr"/>
+      <c r="BT39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="5" t="n">
@@ -58564,6 +59071,7 @@
       <c r="BQ40" t="inlineStr"/>
       <c r="BR40" t="inlineStr"/>
       <c r="BS40" t="inlineStr"/>
+      <c r="BT40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="5" t="n">
@@ -58647,6 +59155,7 @@
       <c r="BQ41" t="inlineStr"/>
       <c r="BR41" t="inlineStr"/>
       <c r="BS41" t="inlineStr"/>
+      <c r="BT41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="5" t="n">
@@ -58726,6 +59235,7 @@
       <c r="BQ42" t="inlineStr"/>
       <c r="BR42" t="inlineStr"/>
       <c r="BS42" t="inlineStr"/>
+      <c r="BT42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="5" t="n">
@@ -58805,6 +59315,7 @@
       <c r="BQ43" t="inlineStr"/>
       <c r="BR43" t="inlineStr"/>
       <c r="BS43" t="inlineStr"/>
+      <c r="BT43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="5" t="n">
@@ -58884,6 +59395,7 @@
       <c r="BQ44" t="inlineStr"/>
       <c r="BR44" t="inlineStr"/>
       <c r="BS44" t="inlineStr"/>
+      <c r="BT44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="5" t="n">
@@ -58963,6 +59475,7 @@
       <c r="BQ45" t="inlineStr"/>
       <c r="BR45" t="inlineStr"/>
       <c r="BS45" t="inlineStr"/>
+      <c r="BT45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="5" t="n">
@@ -59042,6 +59555,7 @@
       <c r="BQ46" t="inlineStr"/>
       <c r="BR46" t="inlineStr"/>
       <c r="BS46" t="inlineStr"/>
+      <c r="BT46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="5" t="n">
@@ -59121,6 +59635,7 @@
       <c r="BQ47" t="inlineStr"/>
       <c r="BR47" t="inlineStr"/>
       <c r="BS47" t="inlineStr"/>
+      <c r="BT47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="5" t="n">
@@ -59200,6 +59715,7 @@
       <c r="BQ48" t="inlineStr"/>
       <c r="BR48" t="inlineStr"/>
       <c r="BS48" t="inlineStr"/>
+      <c r="BT48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="5" t="n">
@@ -59279,6 +59795,7 @@
       <c r="BQ49" t="inlineStr"/>
       <c r="BR49" t="inlineStr"/>
       <c r="BS49" t="inlineStr"/>
+      <c r="BT49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="5" t="n">
@@ -59358,6 +59875,7 @@
       <c r="BQ50" t="inlineStr"/>
       <c r="BR50" t="inlineStr"/>
       <c r="BS50" t="inlineStr"/>
+      <c r="BT50" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/excel/fupan_stocks.xlsx
+++ b/excel/fupan_stocks.xlsx
@@ -470,7 +470,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BT65"/>
+  <dimension ref="A1:BU65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -834,6 +834,11 @@
           <t>2025年02月18日</t>
         </is>
       </c>
+      <c r="BU1" s="5" t="inlineStr">
+        <is>
+          <t>2025年02月19日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="5" t="n">
@@ -1194,6 +1199,11 @@
           <t>000096.SZ; 广聚能源; 0;  09:25:00; 2天2板; 15.33;  09:25:00; 10.0%; 2; 拟收购航天欧华100%股权+石油石化+数据中心+国企改革</t>
         </is>
       </c>
+      <c r="BU2" t="inlineStr">
+        <is>
+          <t>002527.SZ; 新时达; 0;  09:25:00; 3天3板; 13.52;  09:25:00; 10.0%; 3; 海尔入主+机器人+电梯</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="n">
@@ -1554,6 +1564,11 @@
           <t>002065.SZ; 东华软件; 0;  09:25:00; 2天2板; 11.34;  09:25:00; 10.0%; 2; 腾讯+DeepSeek概念+数字基础设施建设</t>
         </is>
       </c>
+      <c r="BU3" t="inlineStr">
+        <is>
+          <t>600678.SH; 四川金顶; 0;  09:25:00; 3天3板; 8.72;  09:25:00; 10.0%; 3; DeepSeek概念+子公司近期竞得采矿权+机器人+氢能源</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="5" t="n">
@@ -1914,6 +1929,11 @@
           <t>002527.SZ; 新时达; 0;  09:25:00; 2天2板; 12.29;  09:25:00; 10.0%; 2; 海尔入主+机器人+电梯</t>
         </is>
       </c>
+      <c r="BU4" t="inlineStr">
+        <is>
+          <t>605255.SH; 天普股份; 0;  09:30:01; 2天2板; 16.76;  09:30:01; 10.0%; 2; 汽车零部件+汽车胶管+密封系统零件</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="n">
@@ -2274,6 +2294,11 @@
           <t>601177.SH; 杭齿前进; 0;  09:25:02; 5天5板; 14.93;  09:25:02; 10.0%; 5; 杭州国资+人形机器人+齿轮传动+化债（AMC概念）</t>
         </is>
       </c>
+      <c r="BU5" t="inlineStr">
+        <is>
+          <t>601177.SH; 杭齿前进; 0;  09:30:47; 6天6板; 16.42;  09:30:47; 10.0%; 6; 杭州国资+人形机器人+齿轮传动+化债（AMC概念）</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="5" t="n">
@@ -2634,6 +2659,11 @@
           <t>600892.SH; 大晟文化; 0;  09:30:00; 2天2板; 3.91;  09:30:00; 10.1%; 2; 网络游戏+影视+唐山国资入主</t>
         </is>
       </c>
+      <c r="BU6" t="inlineStr">
+        <is>
+          <t>003013.SZ; 地铁设计; 0;  09:36:24; 2天2板; 16.96;  09:36:24; 10.0%; 2; 拟收购广州地铁工程咨询+轨道交通+数据中心+广州国资</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="n">
@@ -2994,6 +3024,11 @@
           <t>000856.SZ; 冀东装备; 0;  09:30:24; 16天10板; 13.94;  09:30:24; 10.0%; 2; 机器人+水泥装备+北京国资</t>
         </is>
       </c>
+      <c r="BU7" t="inlineStr">
+        <is>
+          <t>002290.SZ; 禾盛新材; 1;  09:36:48; 2天2板; 21.87;  09:34:39; 10.0%; 2; DeepSeek概念+商汤合作+家电零部件+文化传媒</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="5" t="n">
@@ -3354,6 +3389,11 @@
           <t>601616.SH; 广电电气; 1;  09:30:36; 2天2板; 4.96;  09:25:00; 10.0%; 2; 腾讯概念+数据中心+年报预增+电力设备</t>
         </is>
       </c>
+      <c r="BU8" t="inlineStr">
+        <is>
+          <t>603583.SH; 捷昌驱动; 0;  09:40:07; 3天2板; 40.45;  09:40:07; 10.0%; 1; 人形机器人+灵巧手+线性驱动产品</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="n">
@@ -3714,6 +3754,11 @@
           <t>600678.SH; 四川金顶; 0;  09:31:39; 2天2板; 7.93;  09:31:39; 10.0%; 2; DeepSeek概念+子公司近期竞得采矿权+机器人+氢能源</t>
         </is>
       </c>
+      <c r="BU9" t="inlineStr">
+        <is>
+          <t>002058.SZ; 威尔泰; 12;  09:47:15; 3天3板; 12.41;  09:36:39; 10.0%; 3; 筹划重大资产重组+汽车检具+特斯拉</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="5" t="n">
@@ -4074,6 +4119,11 @@
           <t>002893.SZ; 京能热力; 0;  09:35:18; 2天2板; 11.72;  09:35:18; 10.0%; 2; 热力供应+供热节能+资产注入预期+北京国资</t>
         </is>
       </c>
+      <c r="BU10" t="inlineStr">
+        <is>
+          <t>600590.SH; 泰豪科技; 2;  09:58:45; 3天2板; 6.91;  09:30:48; 10.0%; 1; 数据中心发电机+机器狗+军工+混改/重组经验丰富</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="5" t="n">
@@ -4434,6 +4484,11 @@
           <t>603086.SH; 先达股份; 1;  09:56:07; 4天4板; 6.53;  09:30:52; 9.9%; 4; 农药+生态农业+大豆</t>
         </is>
       </c>
+      <c r="BU11" t="inlineStr">
+        <is>
+          <t>603286.SH; 日盈电子; 0;  10:12:35; 3天2板; 29.81;  10:12:35; 10.0%; 1; 无人驾驶+智能座舱+高速线束产品</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="5" t="n">
@@ -4794,6 +4849,11 @@
           <t>603956.SH; 威派格; 6;  11:13:39; 6天6板; 10.25;  10:18:09; 10.0%; 6; DeepSeek概念+智慧水务+数据要素+华为鲲鹏</t>
         </is>
       </c>
+      <c r="BU12" t="inlineStr">
+        <is>
+          <t>603813.SH; 原尚股份; 0;  10:26:35; 3天2板; 11.57;  10:26:35; 10.0%; 1; 物流+氢能源</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="5" t="n">
@@ -5144,6 +5204,11 @@
           <t>603789.SH; 星光农机; 10;  14:38:27; 2天2板; 7.89;  13:52:42; 10.0%; 2; 农机+机器人+资产注入预期</t>
         </is>
       </c>
+      <c r="BU13" t="inlineStr">
+        <is>
+          <t>603209.SH; 兴通股份; 4;  10:42:22; 2天2板; 17.85;  09:25:01; 10.0%; 2; DeepSeek概念+数据要素+航运+化学品运输</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="5" t="n">
@@ -5494,6 +5559,11 @@
           <t>002058.SZ; 威尔泰; 16;  14:39:09; 2天2板; 11.28;  13:17:12; 10.0%; 2; 筹划重大资产重组+汽车检具+特斯拉</t>
         </is>
       </c>
+      <c r="BU14" t="inlineStr">
+        <is>
+          <t>000065.SZ; 北方国际; 12;  10:44:33; 2天2板; 11.98;  09:32:24; 10.0%; 2; 国际工程承包商+煤炭+风电+央企国企改革</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="5" t="n">
@@ -5839,6 +5909,11 @@
           <t>600421.SH; 华嵘控股; 3;  14:39:36; 3天3板; 8.37;  09:33:51; 10.0%; 3; 数据要素+房屋建筑PC构件+装配式建筑+风电混塔模具</t>
         </is>
       </c>
+      <c r="BU15" t="inlineStr">
+        <is>
+          <t>605488.SH; 福莱新材; 17;  10:57:58; 7天4板; 51.93;  09:37:01; 10.0%; 1; 机器人+灵巧手+柔性传感器</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="5" t="n">
@@ -6164,6 +6239,11 @@
           <t>603300.SH; 海南华铁; 11;  14:42:18; 9天6板; 8.8;  09:32:03; 10.0%; 1; 算力+低空经济+海南国资</t>
         </is>
       </c>
+      <c r="BU16" t="inlineStr">
+        <is>
+          <t>300065.SZ; 海兰信; 0;  11:14:27; 3天2板; 13.56;  11:14:27; 20.0%; 1; 拟购买海兰寰宇100%的股权+海南海底数据中心+海洋信息技术</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="5" t="n">
@@ -6469,6 +6549,11 @@
           <t>000967.SZ; 盈峰环境; 44;  14:43:48; 2天2板; 5.83;  09:33:54; 10.0%; 2; 机器人+智慧环卫+云计算</t>
         </is>
       </c>
+      <c r="BU17" t="inlineStr">
+        <is>
+          <t>002065.SZ; 东华软件; 18;  11:24:48; 3天3板; 12.47;  10:25:57; 10.0%; 3; 腾讯+DeepSeek概念+数字基础设施建设</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="5" t="n">
@@ -6764,6 +6849,11 @@
           <t>002757.SZ; 南兴股份; 4;  14:49:12; 2天2板; 23.01;  10:01:39; 10.0%; 2; 腾讯+小鹭AIGC智能助手+云计算+板式家具设备</t>
         </is>
       </c>
+      <c r="BU18" t="inlineStr">
+        <is>
+          <t>300718.SZ; 长盛轴承; 3;  13:04:18; 3天2板; 98.77;  10:35:24; 20.0%; 1; 机器人+宇树科技+自润滑轴承+特斯拉</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="5" t="n">
@@ -7054,6 +7144,11 @@
           <t>600602.SH; 云赛智联; 2;  14:54:16; 3天3板; 23.23;  09:47:19; 10.0%; 3; 国资云+阿里+腾讯+Deepseek概念</t>
         </is>
       </c>
+      <c r="BU19" t="inlineStr">
+        <is>
+          <t>000818.SZ; 航锦科技; 9;  13:05:27; 12天9板; 39.05;  09:30:54; 10.0%; 1; 幻方合作+算力+英伟达+国企</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="5" t="n">
@@ -7319,6 +7414,11 @@
           <t>300344.SZ; 立方数科; 5;  14:54:48; 5天3板; 10.75;  11:14:36; 20.0%; 1; 拟间接收购云掌财经+智能软硬件+云计算</t>
         </is>
       </c>
+      <c r="BU20" t="inlineStr">
+        <is>
+          <t>603315.SH; 福鞍股份; 3;  13:23:30; 3天2板; 13.48;  09:31:00; 10.0%; 1; 算力+锂电池+大型铸钢件</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="5" t="n">
@@ -7574,6 +7674,11 @@
           <t>603918.SH; 金桥信息; 3;  14:55:16; 4天3板; 22.53;  14:38:49; 10.0%; 1; 智慧法院+阿里+化债(AMC概念）</t>
         </is>
       </c>
+      <c r="BU21" t="inlineStr">
+        <is>
+          <t>002929.SZ; 润建股份; 3;  13:34:03; 8天5板; 56.58;  10:14:57; 10.0%; 1; 阿里云+部署DeepSeek至R1（满血）版本+算力</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="5" t="n">
@@ -7809,6 +7914,11 @@
           <t>603990.SH; 麦迪科技; 19;  14:15:27; 2天2板; 16.2;  09:39:12; 10.0%; 2; AI医疗+人形机器人+民营医院+国企</t>
         </is>
       </c>
+      <c r="BU22" t="inlineStr">
+        <is>
+          <t>601777.SH; 千里科技; 3;  14:02:41; 3天2板; 8.67;  11:23:47; 10.0%; 1; 拟更名“千里科技”+聚焦“AI+车”</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="5" t="n">
@@ -8034,6 +8144,11 @@
           <t>000856.SZ; 冀东装备; 3;  14:28:03; 15天9板; 12.67;  14:26:06; 10.0%; 1; 机器人+水泥装备+北京国资</t>
         </is>
       </c>
+      <c r="BU23" t="inlineStr">
+        <is>
+          <t>603119.SH; 浙江荣泰; 12;  14:16:41; 3天2板; 35.39;  13:14:59; 10.0%; 1; 人形机器人+丝杠+特斯拉+外销</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="5" t="n">
@@ -8244,6 +8359,11 @@
           <t>600868.SH; 梅雁吉祥; 2;  14:32:46; 3天2板; 3.18;  14:12:43; 10.0%; 1; 绿色电力+锑+飞轮储能+氢能源</t>
         </is>
       </c>
+      <c r="BU24" t="inlineStr">
+        <is>
+          <t>603917.SH; 合力科技; 0;  14:18:40; 3天2板; 14.96;  14:18:40; 10.0%; 1; 汽车零部件+模具+一体化压铸+比亚迪</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="5" t="n">
@@ -8454,6 +8574,11 @@
           <t>603110.SH; 东方材料; 0;  14:34:35; 9天6板; 22.32;  14:34:35; 10.0%; 1; 东方超算+DeepSeek概念+PCB电子油墨</t>
         </is>
       </c>
+      <c r="BU25" t="inlineStr">
+        <is>
+          <t>000710.SZ; 贝瑞基因; 1;  14:21:09; 4天3板; 12.67;  11:27:21; 10.0%; 1; 智能医疗+基因检测+DeepSeek概念</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="5" t="n">
@@ -8657,6 +8782,11 @@
       <c r="BS26" t="inlineStr">
         <is>
           <t>603956.SH; 威派格; 16;  14:43:08; 5天5板; 9.32;  09:25:02; 10.0%; 5; DeepSeek概念+智慧水务+数据要素+华为鲲鹏</t>
+        </is>
+      </c>
+      <c r="BU26" t="inlineStr">
+        <is>
+          <t>000856.SZ; 冀东装备; 9;  14:49:12; 17天11板; 15.33;  09:40:39; 10.0%; 3; 机器人+水泥装备+北京国资</t>
         </is>
       </c>
     </row>
@@ -12141,7 +12271,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BT146"/>
+  <dimension ref="A1:BU146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12505,6 +12635,11 @@
           <t>2025年02月18日</t>
         </is>
       </c>
+      <c r="BU1" s="5" t="inlineStr">
+        <is>
+          <t>2025年02月19日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="5" t="n">
@@ -12840,6 +12975,11 @@
           <t>002313.SZ; 日海智能; 1;  09:25:00; 缩量跌停; 11.97; -10.0%; 1; DeepSeek概念股多数走弱</t>
         </is>
       </c>
+      <c r="BU2" t="inlineStr">
+        <is>
+          <t>603956.SH; 威派格; 0;  09:25:01; 一字跌停||放量跌停; 9.23; -10.0%; 1; 异常波动</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="n">
@@ -13163,6 +13303,11 @@
       <c r="BT3" t="inlineStr">
         <is>
           <t>002123.SZ; 梦网科技; 1;  09:25:00; 缩量跌停; 18.51; -10.0%; 2; 多只高位人气股大幅走弱</t>
+        </is>
+      </c>
+      <c r="BU3" t="inlineStr">
+        <is>
+          <t>603086.SH; 先达股份; 0;  09:30:42; 缩量跌停; 5.88; -10.0%; 1; 异常波动</t>
         </is>
       </c>
     </row>
@@ -20362,7 +20507,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BT72"/>
+  <dimension ref="A1:BU72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20726,6 +20871,11 @@
           <t>2025年02月18日</t>
         </is>
       </c>
+      <c r="BU1" s="5" t="inlineStr">
+        <is>
+          <t>2025年02月19日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="5" t="n">
@@ -21086,6 +21236,11 @@
           <t>002112.SZ; 三变科技; 16;  09:25:00; 主板; 17.84; 曾涨停; 2.0%; 2.19H;  09:25:00|| 13:03:12|| 13:03:57|| 13:06:18|| 13:08:21|| 13:11:06|| 13:11:33|| 13:12:06|| 13:12:27|| 13:13:18|| 13:18:03|| 13:21:03|| 13:21:54|| 13:22:15|| 13:22:27|| 13:22:48</t>
         </is>
       </c>
+      <c r="BU2" t="inlineStr">
+        <is>
+          <t>600468.SH; 百利电气; 1;  09:31:18; 主板; 4.62; 曾涨停; 6.7%; 0.01H;  09:31:18</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="n">
@@ -21446,6 +21601,11 @@
           <t>001324.SZ; 长青科技; 1;  09:25:00; 主板; 18.84; 曾涨停; -2.2%; 0.00H;  09:25:00</t>
         </is>
       </c>
+      <c r="BU3" t="inlineStr">
+        <is>
+          <t>600560.SH; 金自天正; 1;  09:37:00; 主板; 17.1; 曾涨停; 6.3%; 0.00H;  09:37:00</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="5" t="n">
@@ -21806,6 +21966,11 @@
           <t>603258.SH; 电魂网络; 1;  09:30:16; 主板; 26.4; 曾涨停; 1.5%; 0.13H;  09:30:16</t>
         </is>
       </c>
+      <c r="BU4" t="inlineStr">
+        <is>
+          <t>002591.SZ; 恒大高新; 1;  09:51:54; 主板; 5.37; 曾涨停; 3.1%; 0.01H;  09:51:54</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="n">
@@ -22166,6 +22331,11 @@
           <t>002620.SZ; 瑞和股份; 1;  09:30:21; 主板; 3.51; 曾涨停; 2.3%; 0.66H;  09:30:21</t>
         </is>
       </c>
+      <c r="BU5" t="inlineStr">
+        <is>
+          <t>603005.SH; 晶方科技; 2;  09:55:17; 主板; 36.29; 曾涨停; 8.3%; 0.96H;  09:55:17|| 10:01:17</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="5" t="n">
@@ -22526,6 +22696,11 @@
           <t>301248.SZ; 杰创智能; 1;  09:32:39; 创业板; 21.16; 曾涨停; 3.2%; 0.01H;  09:32:39</t>
         </is>
       </c>
+      <c r="BU6" t="inlineStr">
+        <is>
+          <t>002152.SZ; 广电运通; 1;  10:16:30; 主板; 14.2; 曾涨停; 7.2%; 0.01H;  10:16:30</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="n">
@@ -22886,6 +23061,11 @@
           <t>600590.SH; 泰豪科技; 1;  09:35:54; 主板; 6.28; 曾涨停; 2.3%; 3.67H;  09:35:54</t>
         </is>
       </c>
+      <c r="BU7" t="inlineStr">
+        <is>
+          <t>002245.SZ; 蔚蓝锂芯; 2;  10:59:06; 主板; 13.65; 曾涨停; 8.0%; 0.04H;  10:59:06|| 11:12:00</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="5" t="n">
@@ -23246,6 +23426,11 @@
           <t>002985.SZ; 北摩高科; 3;  09:36:33; 主板; 23.64; 曾涨停; 5.7%; 0.01H;  09:36:33|| 10:14:48|| 10:15:06</t>
         </is>
       </c>
+      <c r="BU8" t="inlineStr">
+        <is>
+          <t>002374.SZ; 中锐股份; 1;  11:26:30; 主板; 2.77; 曾涨停; 7.8%; 0.06H;  11:26:30</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="n">
@@ -23606,6 +23791,11 @@
           <t>000032.SZ; 深桑达A; 4;  09:37:09; 主板; 25.58; 曾涨停; 0.9%; 0.01H;  09:37:09|| 09:37:30|| 09:37:51|| 09:38:18</t>
         </is>
       </c>
+      <c r="BU9" t="inlineStr">
+        <is>
+          <t>301210.SZ; 金杨股份; 1;  13:34:39; 创业板; 47.52; 曾涨停; 16.0%; 0.65H;  13:34:39</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="5" t="n">
@@ -23966,6 +24156,11 @@
           <t>600986.SH; 浙文互联; 4;  09:44:32; 主板; 10.4; 曾涨停; 6.1%; 3.36H;  09:44:32|| 13:15:05|| 14:14:26|| 14:36:11</t>
         </is>
       </c>
+      <c r="BU10" t="inlineStr">
+        <is>
+          <t>002722.SZ; 物产金轮; 1;  13:37:00; 主板; 15.86; 曾涨停; 9.2%; 0.19H;  13:37:00</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="5" t="n">
@@ -24319,6 +24514,11 @@
       <c r="BT11" t="inlineStr">
         <is>
           <t>002598.SZ; 山东章鼓; 1;  09:52:15; 主板; 10.59; 曾涨停; 3.2%; 0.01H;  09:52:15</t>
+        </is>
+      </c>
+      <c r="BU11" t="inlineStr">
+        <is>
+          <t>601216.SH; 君正集团; 1;  14:07:56; 主板; 6.26; 曾涨停; 8.3%; 0.37H;  14:07:56</t>
         </is>
       </c>
     </row>
@@ -32568,7 +32768,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BT128"/>
+  <dimension ref="A1:BU128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32932,6 +33132,11 @@
           <t>2025年02月18日</t>
         </is>
       </c>
+      <c r="BU1" s="5" t="inlineStr">
+        <is>
+          <t>2025年02月19日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="5" t="n">
@@ -33292,6 +33497,11 @@
           <t>002474.SZ; 榕基软件; 0;  09:25:00; 首板涨停; 7.78;  09:25:00; 10.0%; 1; 智慧政务+数据要素+华为昇思+信创</t>
         </is>
       </c>
+      <c r="BU2" t="inlineStr">
+        <is>
+          <t>000886.SZ; 海南高速; 0;  09:25:00; 首板涨停; 6.93;  09:25:00; 10.0%; 1; 海南算力+车联网+房地产开发+海南国资</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="n">
@@ -33652,6 +33862,11 @@
           <t>603209.SH; 兴通股份; 0;  09:31:31; 首板涨停; 16.23;  09:31:31; 10.0%; 1; DeepSeek概念+数据要素+航运+化学品运输</t>
         </is>
       </c>
+      <c r="BU3" t="inlineStr">
+        <is>
+          <t>603903.SH; 中持股份; 0;  09:25:02; 首板涨停; 7.19;  09:25:02; 9.9%; 1; 环保基础设施建造服务+氢能源</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="5" t="n">
@@ -34012,6 +34227,11 @@
           <t>002121.SZ; 科陆电子; 0;  09:33:12; 首板涨停; 4.69;  09:33:12; 10.1%; 1; 储能+电网设备+充电桩+锂电池</t>
         </is>
       </c>
+      <c r="BU4" t="inlineStr">
+        <is>
+          <t>002790.SZ; 瑞尔特; 0;  09:30:00; 首板涨停; 8.04;  09:30:00; 10.0%; 1; 冲水组件+家居+外销</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="n">
@@ -34372,6 +34592,11 @@
           <t>002453.SZ; 华软科技; 0;  09:35:30; 首板涨停; 5.94;  09:35:30; 10.0%; 1; 光刻胶+精细化工+保健品</t>
         </is>
       </c>
+      <c r="BU5" t="inlineStr">
+        <is>
+          <t>600105.SH; 永鼎股份; 0;  09:30:28; 首板涨停; 5.83;  09:30:28; 10.0%; 1; 超导+可控核聚变+光模块+光缆电缆</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="5" t="n">
@@ -34732,6 +34957,11 @@
           <t>002866.SZ; 传艺科技; 2;  09:38:42; 首板涨停; 17.72;  09:36:24; 10.0%; 1; 固态电池+钠离子电池+消费电子</t>
         </is>
       </c>
+      <c r="BU6" t="inlineStr">
+        <is>
+          <t>002908.SZ; 德生科技; 0;  09:30:30; 首板涨停; 10.58;  09:30:30; 10.0%; 1; 社保民生+数据要素+AI应用</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="n">
@@ -35092,6 +35322,11 @@
           <t>002547.SZ; 春兴精工; 0;  09:39:57; 首板涨停; 5.2;  09:39:57; 9.9%; 1; 特斯拉+汽车零部件+5.5G</t>
         </is>
       </c>
+      <c r="BU7" t="inlineStr">
+        <is>
+          <t>300571.SZ; 平治信息; 0;  09:32:12; 首板涨停; 37.2;  09:32:12; 20.0%; 1; 算力+AI企业合作</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="5" t="n">
@@ -35452,6 +35687,11 @@
           <t>300648.SZ; 星云股份; 1;  09:48:45; 首板涨停; 27.3;  09:40:30; 20.0%; 1; 锂电池检测+储能+高压快充+华为</t>
         </is>
       </c>
+      <c r="BU8" t="inlineStr">
+        <is>
+          <t>002369.SZ; 卓翼科技; 1;  09:32:57; 首板涨停; 8.55;  09:30:33; 10.0%; 1; AR智能眼镜+消费电子+小米概念+机器人</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="n">
@@ -35812,6 +36052,11 @@
           <t>603906.SH; 龙蟠科技; 1;  10:03:27; 首板涨停; 11.14;  09:49:21; 10.0%; 1; 固态电池+磷酸铁锂+宁德时代概念+出海</t>
         </is>
       </c>
+      <c r="BU9" t="inlineStr">
+        <is>
+          <t>603011.SH; 合锻智能; 0;  09:33:37; 首板涨停; 7.98;  09:33:37; 10.1%; 1; 机器人+液压机+汽车轻量化+核聚变</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="5" t="n">
@@ -36172,6 +36417,11 @@
           <t>605255.SH; 天普股份; 1;  10:16:42; 首板涨停; 15.24;  10:11:12; 10.0%; 1; 汽车零部件+汽车胶管+密封系统零件</t>
         </is>
       </c>
+      <c r="BU10" t="inlineStr">
+        <is>
+          <t>600143.SH; 金发科技; 1;  09:34:00; 首板涨停; 11.24;  09:31:48; 10.0%; 1; 机器人+PEEK材料+改性塑料龙头+年报预增</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="5" t="n">
@@ -36532,6 +36782,11 @@
           <t>002290.SZ; 禾盛新材; 0;  10:35:27; 首板涨停; 19.88;  10:35:27; 10.0%; 1; DeepSeek概念+商汤合作+家电零部件+文化传媒</t>
         </is>
       </c>
+      <c r="BU11" t="inlineStr">
+        <is>
+          <t>002599.SZ; 盛通股份; 0;  09:34:06; 首板涨停; 10.09;  09:34:06; 10.0%; 1; 人形机器人+宇树科技合作+教育+鸿蒙</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="5" t="n">
@@ -36892,6 +37147,11 @@
           <t>000761.SZ; 本钢板材; 0;  10:55:00; 首板涨停; 3.86;  10:55:00; 10.0%; 1; 钢铁+央企改革</t>
         </is>
       </c>
+      <c r="BU12" t="inlineStr">
+        <is>
+          <t>301024.SZ; 霍普股份; 0;  09:37:06; 首板涨停; 27.66;  09:37:06; 20.0%; 1; 建筑设计+光伏</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="5" t="n">
@@ -37252,6 +37512,11 @@
           <t>300946.SZ; 恒而达; 0;  11:25:24; 首板涨停; 33.04;  11:25:24; 20.0%; 1; 滚珠丝杠+工业母机+智能数控装备</t>
         </is>
       </c>
+      <c r="BU13" t="inlineStr">
+        <is>
+          <t>601002.SH; 晋亿实业; 0;  09:38:52; 首板涨停; 4.92;  09:38:52; 10.1%; 1; 签订合同+高铁+各类紧固件+核电</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="5" t="n">
@@ -37612,6 +37877,11 @@
           <t>003013.SZ; 地铁设计; 0;  13:04:15; 首板涨停; 15.42;  13:04:15; 10.0%; 1; 拟收购广州地铁工程咨询+轨道交通+数据中心+广州国资</t>
         </is>
       </c>
+      <c r="BU14" t="inlineStr">
+        <is>
+          <t>003005.SZ; 竞业达; 0;  09:40:24; 首板涨停; 41.56;  09:40:24; 10.0%; 1; DeepSeek概念+AI教育+智慧城市</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="5" t="n">
@@ -37967,6 +38237,11 @@
           <t>002102.SZ; 能特科技; 0;  13:06:33; 首板涨停; 3;  13:06:33; 9.9%; 1; 医药中间体+维生素E+合成生物+黄金</t>
         </is>
       </c>
+      <c r="BU15" t="inlineStr">
+        <is>
+          <t>603015.SH; 弘讯科技; 1;  09:41:50; 首板涨停; 13.39;  09:36:35; 10.0%; 1; 机器人+核聚变电源+工业互联网</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="5" t="n">
@@ -38322,6 +38597,11 @@
           <t>600058.SH; 五矿发展; 0;  13:27:43; 首板涨停; 7.69;  13:27:43; 10.0%; 1; 金属贸易+供应链+央企</t>
         </is>
       </c>
+      <c r="BU16" t="inlineStr">
+        <is>
+          <t>300007.SZ; 汉威科技; 0;  09:46:03; 首板涨停; 37.81;  09:46:03; 20.0%; 1; 人形机器人+传感器+芯片</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="5" t="n">
@@ -38672,6 +38952,11 @@
           <t>002398.SZ; 垒知集团; 0;  14:08:15; 首板涨停; 6.25;  14:08:15; 10.0%; 1; 整合微软OpenAI解决方案+建筑材料+工程质量检测</t>
         </is>
       </c>
+      <c r="BU17" t="inlineStr">
+        <is>
+          <t>000793.SZ; 华闻集团; 3;  09:47:21; 首板涨停; 2.94;  09:31:39; 10.1%; 1; 被债权人申请重整+海南+文旅+农业种植</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="5" t="n">
@@ -39022,6 +39307,11 @@
           <t>300490.SZ; 华自科技; 14;  14:21:09; 首板涨停; 9.62;  09:55:21; 20.0%; 1; 储能+固态电池+钠离子电池+数据中心</t>
         </is>
       </c>
+      <c r="BU18" t="inlineStr">
+        <is>
+          <t>002213.SZ; 大为股份; 1;  09:53:48; 首板涨停; 18.4;  09:49:33; 10.0%; 1; 存储芯片+比亚迪+智能终端+锂电池</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="5" t="n">
@@ -39367,6 +39657,11 @@
           <t>605378.SH; 野马电池; 3;  14:26:04; 首板涨停; 24;  09:42:52; 10.0%; 1; 锌锰电池+拟投建越南生产基地+外销</t>
         </is>
       </c>
+      <c r="BU19" t="inlineStr">
+        <is>
+          <t>603130.SH; 云中马; 0;  09:56:52; 首板涨停; 29.7;  09:56:52; 10.0%; 1; 超高分子量聚乙烯+革基布+节能环保</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="5" t="n">
@@ -39712,6 +40007,11 @@
           <t>600410.SH; 华胜天成; 2;  14:40:09; 首板涨停; 10.78;  09:40:39; 10.0%; 1; 华为昇腾+腾讯+机器人+AI应用</t>
         </is>
       </c>
+      <c r="BU20" t="inlineStr">
+        <is>
+          <t>002276.SZ; 万马股份; 0;  10:02:48; 首板涨停; 9.93;  10:02:48; 10.0%; 1; 机器人+高压快充+国企</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="5" t="n">
@@ -40057,6 +40357,11 @@
           <t>600326.SH; 西藏天路; 3;  14:40:35; 首板涨停; 6.77;  10:15:29; 10.1%; 1; 西部大开发+西藏国资+水泥+金属铜</t>
         </is>
       </c>
+      <c r="BU21" t="inlineStr">
+        <is>
+          <t>603528.SH; 多伦科技; 0;  10:03:27; 首板涨停; 9.67;  10:03:27; 10.0%; 1; 新能源车检+智慧驾培+DeepSeek概念</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="5" t="n">
@@ -40402,6 +40707,11 @@
           <t>002827.SZ; 高争民爆; 3;  14:42:18; 首板涨停; 27.34;  11:00:15; 10.0%; 1; 民爆+水利水电+西藏国企+西部大开发</t>
         </is>
       </c>
+      <c r="BU22" t="inlineStr">
+        <is>
+          <t>000008.SZ; 神州高铁; 0;  10:06:03; 首板涨停; 2.96;  10:06:03; 10.0%; 1; 高铁+机器人+教育+央企</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="5" t="n">
@@ -40742,6 +41052,11 @@
           <t>000065.SZ; 北方国际; 9;  14:43:06; 首板涨停; 10.89;  10:20:21; 10.0%; 1; 国际工程承包商+煤炭+风电+央企国企改革</t>
         </is>
       </c>
+      <c r="BU23" t="inlineStr">
+        <is>
+          <t>600498.SH; 烽火通信; 0;  10:09:34; 首板涨停; 27.93;  10:09:34; 10.0%; 1; 算力+华为+央企</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="5" t="n">
@@ -41077,6 +41392,11 @@
           <t>603082.SH; 北自科技; 1;  14:44:39; 首板涨停; 43.04;  11:11:45; 10.0%; 1; 人形机器人+智能物流+央企</t>
         </is>
       </c>
+      <c r="BU24" t="inlineStr">
+        <is>
+          <t>603261.SH; 立航科技; 0;  10:11:10; 首板涨停; 24.97;  10:11:10; 10.0%; 1; 成飞概念+军工+飞机地面保障设备+无人机</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="5" t="n">
@@ -41412,6 +41732,11 @@
           <t>002328.SZ; 新朋股份; 24;  14:46:51; 首板涨停; 6.79;  11:14:42; 10.0%; 1; 特斯拉+新能源汽车+储能+创投</t>
         </is>
       </c>
+      <c r="BU25" t="inlineStr">
+        <is>
+          <t>603665.SH; 康隆达; 0;  10:14:41; 首板涨停; 17.96;  10:14:41; 10.0%; 1; 超高分子量聚乙烯纤维+手套+锂电池+出海</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="5" t="n">
@@ -41742,6 +42067,11 @@
           <t>600884.SH; 杉杉股份; 1;  14:50:35; 首板涨停; 7.26;  09:43:59; 10.0%; 1; 固态电池+负极材料+破净股</t>
         </is>
       </c>
+      <c r="BU26" t="inlineStr">
+        <is>
+          <t>002922.SZ; 伊戈尔; 0;  10:20:00; 首板涨停; 20.85;  10:20:00; 10.0%; 1; 数据中心+变压器+光伏</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="5" t="n">
@@ -42062,6 +42392,11 @@
           <t>000816.SZ; 智慧农业; 0;  10:09:03; 首板涨停; 3.59;  10:09:03; 10.1%; 1; 农机+有色金属+外销</t>
         </is>
       </c>
+      <c r="BU27" t="inlineStr">
+        <is>
+          <t>603316.SH; 诚邦股份; 1;  10:23:38; 首板涨停; 5.31;  10:04:50; 9.9%; 1; 拟增资获得芯存科技51.02%股权+园林景观+水利+地下管网</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="5" t="n">
@@ -42377,6 +42712,11 @@
           <t>300359.SZ; 全通教育; 0;  10:10:33; 首板涨停; 6.98;  10:10:33; 19.9%; 1; 智慧教育</t>
         </is>
       </c>
+      <c r="BU28" t="inlineStr">
+        <is>
+          <t>002117.SZ; 东港股份; 0;  10:24:12; 首板涨停; 13.86;  10:24:12; 10.0%; 1; 智能机器人+算力+金融企业客户</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="5" t="n">
@@ -42682,6 +43022,11 @@
           <t>603917.SH; 合力科技; 1;  10:13:03; 首板涨停; 12.84;  09:56:42; 10.0%; 1; 汽车零部件+一体化压铸+智能制造</t>
         </is>
       </c>
+      <c r="BU29" t="inlineStr">
+        <is>
+          <t>002380.SZ; 科远智慧; 1;  10:35:54; 首板涨停; 26.64;  10:10:36; 10.0%; 1; 工业自动化+人工智能+机器人概念+数据要素</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="5" t="n">
@@ -42982,6 +43327,11 @@
           <t>600892.SH; 大晟文化; 0;  10:15:27; 首板涨停; 3.55;  10:15:27; 9.9%; 1; 影视+网络游戏+唐山国资入主</t>
         </is>
       </c>
+      <c r="BU30" t="inlineStr">
+        <is>
+          <t>000516.SZ; 国际医学; 1;  10:49:03; 首板涨停; 6.04;  10:33:18; 10.0%; 1; 智能医疗+阿里+民营医院</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="5" t="n">
@@ -43277,6 +43627,11 @@
           <t>600130.SH; 波导股份; 0;  10:22:04; 首板涨停; 3.98;  10:22:04; 9.9%; 1; 手机+汽车电子+参股华大北斗</t>
         </is>
       </c>
+      <c r="BU31" t="inlineStr">
+        <is>
+          <t>600353.SH; 旭光电子; 2;  10:53:10; 首板涨停; 8.17;  10:14:04; 10.0%; 1; 先进封装+发布DeepSeek边缘一体机+光刻机</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="5" t="n">
@@ -43572,6 +43927,11 @@
           <t>600217.SH; 中再资环; 0;  10:24:56; 首板涨停; 5.31;  10:24:56; 9.9%; 1; 资产重组预期+供销社+固废回收</t>
         </is>
       </c>
+      <c r="BU32" t="inlineStr">
+        <is>
+          <t>002399.SZ; 海普瑞; 0;  10:55:24; 首板涨停; 11.29;  10:55:24; 10.0%; 1; 注射用H1710药物临床试验获批+肝素+外销</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="5" t="n">
@@ -43862,6 +44222,11 @@
           <t>603109.SH; 神驰机电; 0;  10:29:07; 首板涨停; 19.86;  10:29:07; 10.0%; 1; 小型发电机+数据中心+汽车零部件+农机</t>
         </is>
       </c>
+      <c r="BU33" t="inlineStr">
+        <is>
+          <t>600246.SH; 万通发展; 0;  11:03:37; 首板涨停; 6.2;  11:03:37; 9.9%; 1; 此前拟收购索尔斯光电股份+毫米波射频芯片+房地产</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="5" t="n">
@@ -44147,6 +44512,11 @@
           <t>601010.SH; 文峰股份; 2;  10:30:58; 首板涨停; 3.08;  10:29:46; 10.0%; 1; 零售+电商+低价股</t>
         </is>
       </c>
+      <c r="BU34" t="inlineStr">
+        <is>
+          <t>600376.SH; 首开股份; 1;  11:03:57; 首板涨停; 2.61;  11:02:40; 10.1%; 1; 房地产+北京国资</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="5" t="n">
@@ -44432,6 +44802,11 @@
           <t>603717.SH; 天域生物; 0;  10:33:06; 首板涨停; 8.48;  10:33:06; 10.0%; 1; 猪肉+养殖+光伏+锂电池</t>
         </is>
       </c>
+      <c r="BU35" t="inlineStr">
+        <is>
+          <t>300276.SZ; 三丰智能; 2;  11:09:39; 首板涨停; 12.16;  10:30:21; 20.0%; 1; 人形机器人+特斯拉+运输设备</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="5" t="n">
@@ -44712,6 +45087,11 @@
           <t>603789.SH; 星光农机; 2;  10:34:08; 首板涨停; 7.17;  10:00:20; 10.0%; 1; 农机+机器人+资产注入预期</t>
         </is>
       </c>
+      <c r="BU36" t="inlineStr">
+        <is>
+          <t>002368.SZ; 太极股份; 0;  11:10:48; 首板涨停; 30.5;  11:10:48; 10.0%; 1; 国资云+DeepSeek概念+鸿蒙+IT服务</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="5" t="n">
@@ -44992,6 +45372,11 @@
           <t>002893.SZ; 京能热力; 0;  10:37:24; 首板涨停; 10.65;  10:37:24; 10.0%; 1; 热力供应+供热节能+资产注入预期+北京国资</t>
         </is>
       </c>
+      <c r="BU37" t="inlineStr">
+        <is>
+          <t>603004.SH; 鼎龙科技; 0;  11:16:38; 首板涨停; 23.09;  11:16:38; 10.0%; 1; PBO单体+染发剂原料+外销</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="5" t="n">
@@ -45267,6 +45652,11 @@
           <t>002816.SZ; 和科达; 0;  10:38:15; 首板涨停; 15.14;  10:38:15; 10.0%; 1; 半导体清洗+阜阳国资入主+污水处理</t>
         </is>
       </c>
+      <c r="BU38" t="inlineStr">
+        <is>
+          <t>605088.SH; 冠盛股份; 0;  11:17:35; 首板涨停; 32.85;  11:17:35; 10.0%; 1; 汽车零部件+固态电池+海外仓</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="5" t="n">
@@ -45537,6 +45927,11 @@
           <t>002133.SZ; 广宇集团; 0;  10:41:06; 首板涨停; 2.76;  10:41:06; 10.0%; 1; 拟增资健康管理子公司+房地产+农业种植+低价破净股</t>
         </is>
       </c>
+      <c r="BU39" t="inlineStr">
+        <is>
+          <t>603882.SH; 金域医学; 1;  11:28:15; 首板涨停; 38.62;  10:59:45; 10.0%; 1; 智能医疗+第三方医学检验</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="5" t="n">
@@ -45797,6 +46192,11 @@
           <t>000056.SZ; 皇庭国际; 0;  10:43:30; 首板涨停; 3.48;  10:43:30; 10.1%; 1; 功率半导体+先进封装+债务重组+不动产运营管理</t>
         </is>
       </c>
+      <c r="BU40" t="inlineStr">
+        <is>
+          <t>603270.SH; 金帝股份; 0;  11:28:48; 首板涨停; 24.6;  11:28:48; 10.0%; 1; 机器人+汽车零部件+风电</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="5" t="n">
@@ -46057,6 +46457,11 @@
           <t>603637.SH; 镇海股份; 0;  10:47:45; 首板涨停; 9.39;  10:47:45; 10.0%; 1; 国企改革+石油化工+氢能源</t>
         </is>
       </c>
+      <c r="BU41" t="inlineStr">
+        <is>
+          <t>002031.SZ; 巨轮智能; 4;  11:29:45; 首板涨停; 8.89;  09:41:06; 10.0%; 1; 人形机器人+XT减速器+轮胎模具</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="5" t="n">
@@ -46307,6 +46712,11 @@
           <t>605060.SH; 联德股份; 0;  10:53:47; 首板涨停; 21.33;  10:53:47; 10.0%; 1; 压缩机+数据中心+出海+工业互联网</t>
         </is>
       </c>
+      <c r="BU42" t="inlineStr">
+        <is>
+          <t>603066.SH; 音飞储存; 0;  13:00:50; 首板涨停; 11.99;  13:00:50; 10.0%; 1; 机器人+智能物流+国企改革</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="5" t="n">
@@ -46557,6 +46967,11 @@
           <t>000533.SZ; 顺钠股份; 1;  11:04:57; 首板涨停; 6.71;  10:58:21; 10.0%; 1; 东数西算+输配电设备+核电变压器+光伏</t>
         </is>
       </c>
+      <c r="BU43" t="inlineStr">
+        <is>
+          <t>002343.SZ; 慈文传媒; 1;  13:01:24; 首板涨停; 7.07;  13:00:48; 10.0%; 1; 传媒+Rokid合作+影视IP+国企</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="5" t="n">
@@ -46807,6 +47222,11 @@
           <t>001324.SZ; 长青科技; 0;  11:05:39; 首板涨停; 19.26;  11:05:39; 10.0%; 1; 机器人+轨道交通</t>
         </is>
       </c>
+      <c r="BU44" t="inlineStr">
+        <is>
+          <t>605128.SH; 上海沿浦; 0;  13:01:24; 首板涨停; 44.73;  13:01:24; 10.0%; 1; 年报预增+特斯拉概念+华为汽车+新能源汽车</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="5" t="n">
@@ -47042,6 +47462,11 @@
           <t>002501.SZ; 利源股份; 2;  11:07:51; 首板涨停; 1.84;  10:42:54; 10.2%; 1; 光伏+工业铝型材+新能源汽车+低价股</t>
         </is>
       </c>
+      <c r="BU45" t="inlineStr">
+        <is>
+          <t>002535.SZ; 林州重机; 0;  13:04:42; 首板涨停; 4.28;  13:04:42; 10.0%; 1; 机器人+军工+煤矿机械</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="5" t="n">
@@ -47272,6 +47697,11 @@
           <t>002067.SZ; 景兴纸业; 0;  13:00:15; 首板涨停; 4.48;  13:00:15; 10.1%; 1; 间接投资宇树科技+机器人+造纸</t>
         </is>
       </c>
+      <c r="BU46" t="inlineStr">
+        <is>
+          <t>600480.SH; 凌云股份; 0;  13:08:01; 首板涨停; 16.56;  13:08:01; 10.0%; 1; 拟投建海外基地+液冷服务器+传感器（可应用于机器人）+中兵系</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="5" t="n">
@@ -47492,6 +47922,11 @@
           <t>002137.SZ; 实益达; 2;  13:12:36; 首板涨停; 9.52;  13:03:24; 10.1%; 1; 间接投资宇树科技+微信营销+智能终端+先进封装</t>
         </is>
       </c>
+      <c r="BU47" t="inlineStr">
+        <is>
+          <t>603926.SH; 铁流股份; 0;  13:10:58; 首板涨停; 10.67;  13:10:58; 10.0%; 1; 汽车传动系统+电机轴</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="5" t="n">
@@ -47712,6 +48147,11 @@
           <t>002058.SZ; 威尔泰; 0;  13:18:12; 首板涨停; 10.25;  13:18:12; 10.0%; 1; 筹划重大资产重组+汽车检具+特斯拉</t>
         </is>
       </c>
+      <c r="BU48" t="inlineStr">
+        <is>
+          <t>603319.SH; 湘油泵; 12;  13:12:34; 首板涨停; 35.64;  09:50:04; 10.0%; 1; 飞行汽车+比亚迪+机器人概念+无人驾驶</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="5" t="n">
@@ -47927,6 +48367,11 @@
           <t>000096.SZ; 广聚能源; 0;  13:32:48; 首板涨停; 13.94;  13:32:48; 10.0%; 1; 拟收购航天欧华100%股权+石油石化+国企改革</t>
         </is>
       </c>
+      <c r="BU49" t="inlineStr">
+        <is>
+          <t>300488.SZ; 恒锋工具; 0;  13:12:39; 首板涨停; 38.5;  13:12:39; 20.0%; 1; 机器人+减速器+精密复杂刃量具</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="5" t="n">
@@ -48142,6 +48587,11 @@
           <t>002010.SZ; 传化智联; 2;  13:36:36; 首板涨停; 5.68;  11:16:39; 10.1%; 1; 参股蚂蚁消金+物流+合成橡胶</t>
         </is>
       </c>
+      <c r="BU50" t="inlineStr">
+        <is>
+          <t>002046.SZ; 国机精工; 0;  13:13:00; 首板涨停; 15.13;  13:13:00; 10.0%; 1; 机器人+航空航天+轴承+央企</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="5" t="n">
@@ -48347,6 +48797,11 @@
           <t>001298.SZ; 好上好; 1;  13:41:33; 首板涨停; 27.19;  13:18:48; 10.0%; 1; 存储芯片+分销+AI眼镜+外销</t>
         </is>
       </c>
+      <c r="BU51" t="inlineStr">
+        <is>
+          <t>002357.SZ; 富临运业; 0;  13:15:21; 首板涨停; 8.23;  13:15:21; 10.0%; 1; 汽车客运服务+网约车+车联网+卫星导航</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="5" t="n">
@@ -48532,6 +48987,11 @@
           <t>000967.SZ; 盈峰环境; 3;  13:42:06; 首板涨停; 5.3;  09:56:30; 10.0%; 1; 云计算+智慧环卫+机器人</t>
         </is>
       </c>
+      <c r="BU52" t="inlineStr">
+        <is>
+          <t>603489.SH; 八方股份; 0;  13:25:44; 首板涨停; 24.61;  13:25:44; 10.0%; 1; 力矩传感器+电踏车电机+锂电池</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="5" t="n">
@@ -48712,6 +49172,11 @@
           <t>600107.SH; 美尔雅; 1;  13:42:28; 首板涨停; 5.07;  10:17:43; 10.0%; 1; 服装服饰+医药商业+天然气</t>
         </is>
       </c>
+      <c r="BU53" t="inlineStr">
+        <is>
+          <t>301398.SZ; 星源卓镁; 1;  13:31:24; 首板涨停; 61.2;  10:28:00; 20.0%; 1; 镁/铝合金压铸产品+特斯拉+小鹏汇天</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="5" t="n">
@@ -48877,6 +49342,11 @@
           <t>002681.SZ; 奋达科技; 3;  13:42:48; 首板涨停; 8.43;  09:56:30; 10.1%; 1; AI陪伴机器人+智能穿戴+智能音箱</t>
         </is>
       </c>
+      <c r="BU54" t="inlineStr">
+        <is>
+          <t>002593.SZ; 日上集团; 4;  13:31:27; 首板涨停; 5.78;  10:35:15; 10.1%; 1; 汽车车轮+大基建+比亚迪</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="5" t="n">
@@ -49042,6 +49512,11 @@
           <t>301189.SZ; 奥尼电子; 2;  13:48:12; 首板涨停; 30.08;  09:42:48; 20.0%; 1; 智能视听终端+车载摄像头+英伟达</t>
         </is>
       </c>
+      <c r="BU55" t="inlineStr">
+        <is>
+          <t>300100.SZ; 双林股份; 1;  13:31:42; 首板涨停; 42.84;  13:05:45; 20.0%; 1; 人形机器人+PEEK材料+特斯拉概念+汽车零部件</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="5" t="n">
@@ -49197,6 +49672,11 @@
           <t>603360.SH; 百傲化学; 2;  13:48:37; 首板涨停; 27.53;  13:24:52; 10.0%; 1; 光刻机+拟跨界并购半导体公司芯慧联+股权变动+工业杀菌剂</t>
         </is>
       </c>
+      <c r="BU56" t="inlineStr">
+        <is>
+          <t>002541.SZ; 鸿路钢构; 0;  13:34:00; 首板涨停; 18.43;  13:34:00; 10.0%; 1; 机器人+光伏+钢结构+装配式建筑</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="5" t="n">
@@ -49352,6 +49832,11 @@
           <t>603119.SH; 浙江荣泰; 10;  14:04:13; 首板涨停; 33.21;  09:31:31; 10.0%; 1; 拟受让股权+机器人+特斯拉+外销</t>
         </is>
       </c>
+      <c r="BU57" t="inlineStr">
+        <is>
+          <t>002913.SZ; 奥士康; 0;  13:34:39; 首板涨停; 31.6;  13:34:39; 10.0%; 1; PCB+AIPC+华为+英伟达</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="5" t="n">
@@ -49497,6 +49982,11 @@
           <t>603583.SH; 捷昌驱动; 2;  14:06:07; 首板涨停; 34.19;  13:24:10; 10.0%; 1; 人形机器人+灵巧手+线性驱动产品</t>
         </is>
       </c>
+      <c r="BU58" t="inlineStr">
+        <is>
+          <t>601921.SH; 浙版传媒; 0;  13:53:02; 首板涨停; 8.77;  13:53:02; 10.0%; 1; 《黑神话：悟空》出版方+出版+短剧+在线教育</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="5" t="n">
@@ -49637,6 +50127,11 @@
           <t>300911.SZ; 亿田智能; 1;  14:13:48; 首板涨停; 39.6;  10:04:33; 20.0%; 1; 算力+燧原科技合作+家用电器+电子商务</t>
         </is>
       </c>
+      <c r="BU59" t="inlineStr">
+        <is>
+          <t>002896.SZ; 中大力德; 18;  13:56:12; 首板涨停; 80.64;  09:52:00; 10.0%; 1; 机器人+减速器+电机</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="5" t="n">
@@ -49767,6 +50262,11 @@
           <t>603286.SH; 日盈电子; 12;  14:14:31; 首板涨停; 26.85;  13:01:31; 10.0%; 1; 无人驾驶+智能座舱+高速线束产品</t>
         </is>
       </c>
+      <c r="BU60" t="inlineStr">
+        <is>
+          <t>605376.SH; 博迁新材; 4;  13:57:01; 首板涨停; 35.41;  13:11:10; 10.0%; 1; 电子专用高端金属粉体材料+纳米材料+MLCC上游+锂电池</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="5" t="n">
@@ -49887,6 +50387,11 @@
           <t>002184.SZ; 海得控制; 0;  14:20:27; 首板涨停; 14.95;  14:20:27; 10.0%; 1; 数据中心（储能系统供电）+光模块+机器人+华为</t>
         </is>
       </c>
+      <c r="BU61" t="inlineStr">
+        <is>
+          <t>002937.SZ; 兴瑞科技; 0;  14:00:45; 首板涨停; 20;  14:00:45; 10.0%; 1; 精密嵌件成型+精密零组件+无人驾驶+汽车电子</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="5" t="n">
@@ -50007,6 +50512,11 @@
           <t>603516.SH; 淳中科技; 1;  14:25:02; 首板涨停; 55.67;  11:07:14; 10.0%; 1; 年报预增+N公司对接业务实现突破+液冷+ASIC芯片</t>
         </is>
       </c>
+      <c r="BU62" t="inlineStr">
+        <is>
+          <t>603501.SH; 韦尔股份; 0;  14:02:44; 首板涨停; 157.96;  14:02:44; 10.0%; 1; 图像传感器+受益于比亚迪自动驾驶及消费电子</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="5" t="n">
@@ -50127,6 +50637,11 @@
           <t>300718.SZ; 长盛轴承; 3;  14:33:21; 首板涨停; 77.6;  14:16:30; 20.0%; 1; 机器人+宇树科技+自润滑轴承</t>
         </is>
       </c>
+      <c r="BU63" t="inlineStr">
+        <is>
+          <t>002870.SZ; 香山股份; 1;  14:05:03; 首板涨停; 37.49;  13:14:09; 10.0%; 1; 人形机器人+汽车零部件+控股股东拟变更为均胜电子</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="5" t="n">
@@ -50232,6 +50747,11 @@
           <t>002616.SZ; 长青集团; 0;  14:35:57; 首板涨停; 5.35;  14:35:57; 10.1%; 1; 环保热能+生物质能发电+股份转让</t>
         </is>
       </c>
+      <c r="BU64" t="inlineStr">
+        <is>
+          <t>300491.SZ; 通合科技; 0;  14:11:48; 首板涨停; 23.94;  14:11:48; 20.0%; 1; 电源管理+智能电网+充电桩</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="5" t="n">
@@ -50327,6 +50847,11 @@
           <t>002837.SZ; 英维克; 7;  14:44:21; 首板涨停; 44.11;  09:57:21; 10.0%; 1; 液冷+腾讯、阿里等合作+英伟达合作</t>
         </is>
       </c>
+      <c r="BU65" t="inlineStr">
+        <is>
+          <t>002664.SZ; 信质集团; 1;  14:13:45; 首板涨停; 19.28;  14:08:36; 10.0%; 1; 汽车电机+人形机器人+华为+无人机</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="5" t="n">
@@ -50422,6 +50947,11 @@
           <t>601777.SH; 力帆科技; 0;  14:46:51; 首板涨停; 8.75;  14:46:51; 10.1%; 1; 拟更名“千里科技”+聚焦“AI+车”</t>
         </is>
       </c>
+      <c r="BU66" t="inlineStr">
+        <is>
+          <t>001380.SZ; 华纬科技; 0;  14:15:06; 首板涨停; 27.71;  14:15:06; 10.0%; 1; 拟投建墨西哥生产基地项目+机器人+汽车零部件+弹簧</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="5" t="n">
@@ -50517,6 +51047,11 @@
           <t>600636.SH; 国新文化; 9;  14:50:45; 首板涨停; 9.25;  09:31:57; 10.0%; 1; AI教育+多模态AI+算力+央企</t>
         </is>
       </c>
+      <c r="BU67" t="inlineStr">
+        <is>
+          <t>002051.SZ; 中工国际; 0;  14:18:21; 首板涨停; 9.01;  14:18:21; 10.0%; 1; 中字头+国际工程总承包+一带一路+基建</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="5" t="n">
@@ -50602,6 +51137,11 @@
           <t>301510.SZ; 固高科技; 0;  14:52:51; 首板涨停; 35.88;  14:52:51; 20.0%; 1; 机器人+先进封装</t>
         </is>
       </c>
+      <c r="BU68" t="inlineStr">
+        <is>
+          <t>000876.SZ; 新希望; 5;  14:20:48; 首板涨停; 10.44;  13:51:48; 10.0%; 1; 猪肉+民营企业座谈会在召开</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="5" t="n">
@@ -50687,6 +51227,11 @@
           <t>002757.SZ; 南兴股份; 5;  14:54:21; 首板涨停; 20.92;  09:30:33; 10.0%; 1; 腾讯+小鹭AIGC智能助手+云计算+板式家具设备</t>
         </is>
       </c>
+      <c r="BU69" t="inlineStr">
+        <is>
+          <t>601100.SH; 恒立液压; 37;  14:26:07; 首板涨停; 78.91;  13:17:25; 10.0%; 1; 丝杠+线性驱动器+油缸</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="5" t="n">
@@ -50772,6 +51317,11 @@
           <t>002198.SZ; 嘉应制药; 7;  14:56:45; 首板涨停; 7.71;  10:19:24; 10.0%; 1; 中药+冰片</t>
         </is>
       </c>
+      <c r="BU70" t="inlineStr">
+        <is>
+          <t>002886.SZ; 沃特股份; 0;  14:33:15; 首板涨停; 21.05;  14:33:15; 10.0%; 1; PEEK材料+低空经济+电磁屏蔽EMI材料</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="5" t="n">
@@ -50847,6 +51397,11 @@
           <t>002397.SZ; 梦洁股份; 3;  14:45:12; 首板涨停; 3.52;  09:31:06; 10.0%; 1; 床上用品+微盟合作+电子商务+股权转让</t>
         </is>
       </c>
+      <c r="BU71" t="inlineStr">
+        <is>
+          <t>603416.SH; 信捷电气; 0;  14:36:39; 首板涨停; 52.54;  14:36:39; 10.0%; 1; 机器人+工业自动化控制产品</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="5" t="n">
@@ -50917,6 +51472,11 @@
           <t>600589.SH; 大位科技; 8;  14:47:40; 首板涨停; 4.47;  09:45:37; 10.1%; 1; 数据中心+拟公开挂牌转让部分资产+完成重整</t>
         </is>
       </c>
+      <c r="BU72" t="inlineStr">
+        <is>
+          <t>600933.SH; 爱柯迪; 0;  14:37:57; 首板涨停; 19.35;  14:37:57; 10.0%; 1; 拟发股收购卓尔博71%股权+机器人概念+汽车零部件</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="5" t="n">
@@ -50987,6 +51547,11 @@
           <t>300244.SZ; 迪安诊断; 1;  14:48:33; 首板涨停; 14.88;  14:42:51; 20.0%; 1; 医学诊断+智能医疗+O2O</t>
         </is>
       </c>
+      <c r="BU73" t="inlineStr">
+        <is>
+          <t>002979.SZ; 雷赛智能; 0;  14:38:21; 首板涨停; 46.97;  14:38:21; 10.0%; 1; 人形机器人+运动控制产品+华为</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="5" t="n">
@@ -51057,6 +51622,11 @@
           <t>603119.SH; 浙江荣泰; 1;  14:49:35; 首板涨停; 31.08;  13:12:50; 10.0%; 1; 机器人+特斯拉+汽车零部件+外销</t>
         </is>
       </c>
+      <c r="BU74" t="inlineStr">
+        <is>
+          <t>002965.SZ; 祥鑫科技; 3;  14:41:09; 首板涨停; 54.34;  14:31:30; 10.0%; 1; 人形机器人+液冷服务器+无人驾驶+低空经济</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="5" t="n">
@@ -51127,6 +51697,11 @@
           <t>002571.SZ; 德力股份; 3;  14:50:48; 首板涨停; 4.68;  14:28:21; 10.1%; 1; IP+光伏+游戏+日用玻璃器皿</t>
         </is>
       </c>
+      <c r="BU75" t="inlineStr">
+        <is>
+          <t>000928.SZ; 中钢国际; 1;  14:44:39; 首板涨停; 6.9;  09:50:42; 10.0%; 1; 工程承包+中字头+高股息</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="5" t="n">
@@ -51197,6 +51772,11 @@
           <t>600979.SH; 广安爱众; 0;  14:51:30; 首板涨停; 5.14;  14:51:30; 10.1%; 1; “丝绸云谷”算力项目+入股华大半导体+水电气+国企改革</t>
         </is>
       </c>
+      <c r="BU76" t="inlineStr">
+        <is>
+          <t>600187.SH; 国中水务; 2;  14:49:08; 首板涨停; 3.54;  09:56:53; 9.9%; 1; 出售污水处理业务+拟控股北京汇源</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="5" t="n">
@@ -51267,6 +51847,11 @@
           <t>600696.SH; 岩石股份; 0;  14:53:03; 首板涨停; 9.96;  14:53:03; 10.1%; 1; 白酒+电子商务</t>
         </is>
       </c>
+      <c r="BU77" t="inlineStr">
+        <is>
+          <t>002522.SZ; 浙江众成; 1;  14:50:39; 首板涨停; 4.53;  14:37:06; 10.0%; 1; 多层共挤热收缩薄膜+PVDF+华为+国企改革</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="5" t="n">
@@ -51332,6 +51917,11 @@
           <t>603095.SH; 越剑智能; 3;  14:56:39; 首板涨停; 24.53;  14:20:48; 10.0%; 1; 机器人+华为+智能制造+创投</t>
         </is>
       </c>
+      <c r="BU78" t="inlineStr">
+        <is>
+          <t>603677.SH; 奇精机械; 0;  14:54:14; 首板涨停; 16.5;  14:54:14; 10.0%; 1; 机器人+汽车零部件+家电+宁波国资</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="5" t="n">
@@ -51387,6 +51977,11 @@
           <t>002583.SZ; 海能达; 4;  13:35:39; 首板涨停; 13.58;  10:50:03; -2.4%; 1; 对讲机终端+卫星通信+低空经济+一带一路</t>
         </is>
       </c>
+      <c r="BU79" t="inlineStr">
+        <is>
+          <t>002126.SZ; 银轮股份; 4;  14:55:12; 首板涨停; 26.68;  14:16:48; 10.0%; 1; 汽车热管理+液冷服务器+比亚迪概念+低空经济</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="5" t="n">
@@ -51440,6 +52035,11 @@
       <c r="BA80" t="inlineStr">
         <is>
           <t>002636.SZ; 金安国纪; 0;  13:37:22; 首板涨停; 8.48;  13:37:22; 10.0%; 1; 覆铜板+PCB</t>
+        </is>
+      </c>
+      <c r="BU80" t="inlineStr">
+        <is>
+          <t>301368.SZ; 丰立智能; 0;  14:55:15; 首板涨停; 76.63;  14:55:15; 20.0%; 1; 人形机器人+减速器+农机</t>
         </is>
       </c>
     </row>
@@ -52584,7 +53184,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BT50"/>
+  <dimension ref="A1:BU50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -52948,6 +53548,11 @@
           <t>2025年02月18日</t>
         </is>
       </c>
+      <c r="BU1" s="5" t="inlineStr">
+        <is>
+          <t>2025年02月19日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="5" t="n">
@@ -53304,6 +53909,11 @@
           <t>002757.SZ; 南兴股份; 4.4%; 15.1%; 23.01; 10.0%; 强中选强||阳线||放量</t>
         </is>
       </c>
+      <c r="BU2" t="inlineStr">
+        <is>
+          <t>600421.SH; 华嵘控股; 10.0%; 13.5%; 8.55; 2.2%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="n">
@@ -53660,6 +54270,11 @@
           <t>603918.SH; 金桥信息; 4.0%; 14.6%; 22.53; 10.0%; 价升量涨||强中选强||阳线</t>
         </is>
       </c>
+      <c r="BU3" t="inlineStr">
+        <is>
+          <t>300478.SZ; 杭州高新; 8.5%; 19.3%; 17.69; 9.2%; 阳线||放量||价升量缩</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="5" t="n">
@@ -53992,6 +54607,11 @@
           <t>603300.SH; 海南华铁; 3.8%; 14.3%; 8.8; 10.0%; 价升量涨||强中选强||阳线</t>
         </is>
       </c>
+      <c r="BU4" t="inlineStr">
+        <is>
+          <t>002123.SZ; 梦网科技; 8.2%; 14.2%; 19.42; 4.9%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="n">
@@ -54308,6 +54928,11 @@
           <t>300766.SZ; 每日互动; 3.4%; 13.3%; 58.9; 9.5%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="BU5" t="inlineStr">
+        <is>
+          <t>603917.SH; 合力科技; 5.0%; 15.8%; 14.96; 10.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="5" t="n">
@@ -54612,6 +55237,11 @@
           <t>002398.SZ; 垒知集团; 3.0%; 13.4%; 6.25; 10.0%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="BU6" t="inlineStr">
+        <is>
+          <t>000710.SZ; 贝瑞基因; 4.5%; 15.2%; 12.67; 10.0%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="n">
@@ -54900,6 +55530,11 @@
           <t>300853.SZ; 申昊科技; 0.3%; 12.6%; 27.19; 12.2%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="BU7" t="inlineStr">
+        <is>
+          <t>603130.SH; 云中马; 2.8%; 13.1%; 29.7; 10.0%; 阳线||放量||价升量缩</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="5" t="n">
@@ -55168,6 +55803,11 @@
         </is>
       </c>
       <c r="BT8" t="inlineStr"/>
+      <c r="BU8" t="inlineStr">
+        <is>
+          <t>300766.SZ; 每日互动; 2.2%; 20.5%; 69.38; 17.8%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="n">
@@ -55420,6 +56060,11 @@
         </is>
       </c>
       <c r="BT9" t="inlineStr"/>
+      <c r="BU9" t="inlineStr">
+        <is>
+          <t>002913.SZ; 奥士康; 2.2%; 12.5%; 31.6; 10.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="5" t="n">
@@ -55648,6 +56293,11 @@
         </is>
       </c>
       <c r="BT10" t="inlineStr"/>
+      <c r="BU10" t="inlineStr">
+        <is>
+          <t>300258.SZ; 精锻科技; 2.0%; 12.3%; 13.27; 10.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="5" t="n">
@@ -55860,6 +56510,11 @@
         </is>
       </c>
       <c r="BT11" t="inlineStr"/>
+      <c r="BU11" t="inlineStr">
+        <is>
+          <t>600498.SH; 烽火通信; 1.9%; 12.1%; 27.93; 10.0%; 阳线||放量||价升量缩</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="5" t="n">
@@ -56040,6 +56695,11 @@
         </is>
       </c>
       <c r="BT12" t="inlineStr"/>
+      <c r="BU12" t="inlineStr">
+        <is>
+          <t>301550.SZ; 斯菱股份; 1.8%; 17.7%; 129.43; 15.6%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="5" t="n">
@@ -56204,6 +56864,11 @@
         </is>
       </c>
       <c r="BT13" t="inlineStr"/>
+      <c r="BU13" t="inlineStr">
+        <is>
+          <t>301325.SZ; 曼恩斯特; 1.6%; 13.6%; 67.86; 11.8%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="5" t="n">
@@ -56360,6 +57025,11 @@
       <c r="BR14" t="inlineStr"/>
       <c r="BS14" t="inlineStr"/>
       <c r="BT14" t="inlineStr"/>
+      <c r="BU14" t="inlineStr">
+        <is>
+          <t>300918.SZ; 南山智尚; 1.4%; 14.6%; 15.89; 13.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="5" t="n">
@@ -56508,6 +57178,11 @@
       <c r="BR15" t="inlineStr"/>
       <c r="BS15" t="inlineStr"/>
       <c r="BT15" t="inlineStr"/>
+      <c r="BU15" t="inlineStr">
+        <is>
+          <t>300491.SZ; 通合科技; 1.3%; 21.6%; 23.94; 20.0%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="5" t="n">
@@ -56652,6 +57327,11 @@
       <c r="BR16" t="inlineStr"/>
       <c r="BS16" t="inlineStr"/>
       <c r="BT16" t="inlineStr"/>
+      <c r="BU16" t="inlineStr">
+        <is>
+          <t>300585.SZ; 奥联电子; 1.0%; 13.3%; 17.65; 12.1%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="5" t="n">
@@ -56788,6 +57468,11 @@
       <c r="BR17" t="inlineStr"/>
       <c r="BS17" t="inlineStr"/>
       <c r="BT17" t="inlineStr"/>
+      <c r="BU17" t="inlineStr">
+        <is>
+          <t>300382.SZ; 斯莱克; 1.0%; 18.3%; 15.29; 17.2%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="5" t="n">
@@ -56920,6 +57605,11 @@
       <c r="BR18" t="inlineStr"/>
       <c r="BS18" t="inlineStr"/>
       <c r="BT18" t="inlineStr"/>
+      <c r="BU18" t="inlineStr">
+        <is>
+          <t>300580.SZ; 贝斯特; 1.0%; 13.5%; 31.78; 12.4%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="5" t="n">
@@ -57044,6 +57734,11 @@
       <c r="BR19" t="inlineStr"/>
       <c r="BS19" t="inlineStr"/>
       <c r="BT19" t="inlineStr"/>
+      <c r="BU19" t="inlineStr">
+        <is>
+          <t>300488.SZ; 恒锋工具; 0.9%; 21.1%; 38.5; 20.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="5" t="n">
@@ -57168,6 +57863,11 @@
       <c r="BR20" t="inlineStr"/>
       <c r="BS20" t="inlineStr"/>
       <c r="BT20" t="inlineStr"/>
+      <c r="BU20" t="inlineStr">
+        <is>
+          <t>301413.SZ; 安培龙; 0.8%; 13.6%; 99.99; 12.7%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="5" t="n">
@@ -57292,6 +57992,11 @@
       <c r="BR21" t="inlineStr"/>
       <c r="BS21" t="inlineStr"/>
       <c r="BT21" t="inlineStr"/>
+      <c r="BU21" t="inlineStr">
+        <is>
+          <t>301261.SZ; 恒工精密; 0.7%; 14.4%; 65.93; 13.6%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="5" t="n">
@@ -57408,6 +58113,11 @@
       <c r="BR22" t="inlineStr"/>
       <c r="BS22" t="inlineStr"/>
       <c r="BT22" t="inlineStr"/>
+      <c r="BU22" t="inlineStr">
+        <is>
+          <t>301196.SZ; 唯科科技; 0.6%; 19.0%; 42.45; 18.2%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="5" t="n">
@@ -57520,6 +58230,11 @@
       <c r="BR23" t="inlineStr"/>
       <c r="BS23" t="inlineStr"/>
       <c r="BT23" t="inlineStr"/>
+      <c r="BU23" t="inlineStr">
+        <is>
+          <t>300432.SZ; 富临精工; 0.4%; 12.5%; 18.53; 12.1%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="5" t="n">
@@ -57628,6 +58343,11 @@
       <c r="BR24" t="inlineStr"/>
       <c r="BS24" t="inlineStr"/>
       <c r="BT24" t="inlineStr"/>
+      <c r="BU24" t="inlineStr">
+        <is>
+          <t>300680.SZ; 隆盛科技; 0.3%; 17.4%; 38.89; 17.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="5" t="n">
@@ -57732,6 +58452,11 @@
       <c r="BR25" t="inlineStr"/>
       <c r="BS25" t="inlineStr"/>
       <c r="BT25" t="inlineStr"/>
+      <c r="BU25" t="inlineStr">
+        <is>
+          <t>300718.SZ; 长盛轴承; 0.1%; 20.2%; 98.77; 20.0%; 阳线||放量||价升量缩</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="5" t="n">
@@ -57828,6 +58553,11 @@
       <c r="BR26" t="inlineStr"/>
       <c r="BS26" t="inlineStr"/>
       <c r="BT26" t="inlineStr"/>
+      <c r="BU26" t="inlineStr">
+        <is>
+          <t>300553.SZ; 集智股份; 0.1%; 12.2%; 33.4; 12.1%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="5" t="n">
@@ -57924,6 +58654,11 @@
       <c r="BR27" t="inlineStr"/>
       <c r="BS27" t="inlineStr"/>
       <c r="BT27" t="inlineStr"/>
+      <c r="BU27" t="inlineStr">
+        <is>
+          <t>300607.SZ; 拓斯达; 0.0%; 13.0%; 35.49; 12.9%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="5" t="n">
@@ -58020,6 +58755,11 @@
       <c r="BR28" t="inlineStr"/>
       <c r="BS28" t="inlineStr"/>
       <c r="BT28" t="inlineStr"/>
+      <c r="BU28" t="inlineStr">
+        <is>
+          <t>301525.SZ; 儒竞科技; 0.0%; 13.3%; 77.3; 13.2%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="5" t="n">
@@ -58116,6 +58856,7 @@
       <c r="BR29" t="inlineStr"/>
       <c r="BS29" t="inlineStr"/>
       <c r="BT29" t="inlineStr"/>
+      <c r="BU29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="5" t="n">
@@ -58208,6 +58949,7 @@
       <c r="BR30" t="inlineStr"/>
       <c r="BS30" t="inlineStr"/>
       <c r="BT30" t="inlineStr"/>
+      <c r="BU30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="5" t="n">
@@ -58300,6 +59042,7 @@
       <c r="BR31" t="inlineStr"/>
       <c r="BS31" t="inlineStr"/>
       <c r="BT31" t="inlineStr"/>
+      <c r="BU31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="5" t="n">
@@ -58392,6 +59135,7 @@
       <c r="BR32" t="inlineStr"/>
       <c r="BS32" t="inlineStr"/>
       <c r="BT32" t="inlineStr"/>
+      <c r="BU32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="5" t="n">
@@ -58484,6 +59228,7 @@
       <c r="BR33" t="inlineStr"/>
       <c r="BS33" t="inlineStr"/>
       <c r="BT33" t="inlineStr"/>
+      <c r="BU33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="5" t="n">
@@ -58568,6 +59313,7 @@
       <c r="BR34" t="inlineStr"/>
       <c r="BS34" t="inlineStr"/>
       <c r="BT34" t="inlineStr"/>
+      <c r="BU34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="5" t="n">
@@ -58652,6 +59398,7 @@
       <c r="BR35" t="inlineStr"/>
       <c r="BS35" t="inlineStr"/>
       <c r="BT35" t="inlineStr"/>
+      <c r="BU35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="5" t="n">
@@ -58736,6 +59483,7 @@
       <c r="BR36" t="inlineStr"/>
       <c r="BS36" t="inlineStr"/>
       <c r="BT36" t="inlineStr"/>
+      <c r="BU36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="5" t="n">
@@ -58820,6 +59568,7 @@
       <c r="BR37" t="inlineStr"/>
       <c r="BS37" t="inlineStr"/>
       <c r="BT37" t="inlineStr"/>
+      <c r="BU37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="5" t="n">
@@ -58904,6 +59653,7 @@
       <c r="BR38" t="inlineStr"/>
       <c r="BS38" t="inlineStr"/>
       <c r="BT38" t="inlineStr"/>
+      <c r="BU38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="5" t="n">
@@ -58988,6 +59738,7 @@
       <c r="BR39" t="inlineStr"/>
       <c r="BS39" t="inlineStr"/>
       <c r="BT39" t="inlineStr"/>
+      <c r="BU39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="5" t="n">
@@ -59072,6 +59823,7 @@
       <c r="BR40" t="inlineStr"/>
       <c r="BS40" t="inlineStr"/>
       <c r="BT40" t="inlineStr"/>
+      <c r="BU40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="5" t="n">
@@ -59156,6 +59908,7 @@
       <c r="BR41" t="inlineStr"/>
       <c r="BS41" t="inlineStr"/>
       <c r="BT41" t="inlineStr"/>
+      <c r="BU41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="5" t="n">
@@ -59236,6 +59989,7 @@
       <c r="BR42" t="inlineStr"/>
       <c r="BS42" t="inlineStr"/>
       <c r="BT42" t="inlineStr"/>
+      <c r="BU42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="5" t="n">
@@ -59316,6 +60070,7 @@
       <c r="BR43" t="inlineStr"/>
       <c r="BS43" t="inlineStr"/>
       <c r="BT43" t="inlineStr"/>
+      <c r="BU43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="5" t="n">
@@ -59396,6 +60151,7 @@
       <c r="BR44" t="inlineStr"/>
       <c r="BS44" t="inlineStr"/>
       <c r="BT44" t="inlineStr"/>
+      <c r="BU44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="5" t="n">
@@ -59476,6 +60232,7 @@
       <c r="BR45" t="inlineStr"/>
       <c r="BS45" t="inlineStr"/>
       <c r="BT45" t="inlineStr"/>
+      <c r="BU45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="5" t="n">
@@ -59556,6 +60313,7 @@
       <c r="BR46" t="inlineStr"/>
       <c r="BS46" t="inlineStr"/>
       <c r="BT46" t="inlineStr"/>
+      <c r="BU46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="5" t="n">
@@ -59636,6 +60394,7 @@
       <c r="BR47" t="inlineStr"/>
       <c r="BS47" t="inlineStr"/>
       <c r="BT47" t="inlineStr"/>
+      <c r="BU47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="5" t="n">
@@ -59716,6 +60475,7 @@
       <c r="BR48" t="inlineStr"/>
       <c r="BS48" t="inlineStr"/>
       <c r="BT48" t="inlineStr"/>
+      <c r="BU48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="5" t="n">
@@ -59796,6 +60556,7 @@
       <c r="BR49" t="inlineStr"/>
       <c r="BS49" t="inlineStr"/>
       <c r="BT49" t="inlineStr"/>
+      <c r="BU49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="5" t="n">
@@ -59876,6 +60637,7 @@
       <c r="BR50" t="inlineStr"/>
       <c r="BS50" t="inlineStr"/>
       <c r="BT50" t="inlineStr"/>
+      <c r="BU50" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/excel/fupan_stocks.xlsx
+++ b/excel/fupan_stocks.xlsx
@@ -470,7 +470,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BU65"/>
+  <dimension ref="A1:BV65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -839,6 +839,11 @@
           <t>2025年02月19日</t>
         </is>
       </c>
+      <c r="BV1" s="5" t="inlineStr">
+        <is>
+          <t>2025年02月20日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="5" t="n">
@@ -1204,6 +1209,11 @@
           <t>002527.SZ; 新时达; 0;  09:25:00; 3天3板; 13.52;  09:25:00; 10.0%; 3; 海尔入主+机器人+电梯</t>
         </is>
       </c>
+      <c r="BV2" t="inlineStr">
+        <is>
+          <t>002343.SZ; 慈文传媒; 0;  09:25:00; 2天2板; 7.78;  09:25:00; 10.0%; 2; Rokid合作+传媒+影视IP+国企</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="n">
@@ -1569,6 +1579,11 @@
           <t>600678.SH; 四川金顶; 0;  09:25:00; 3天3板; 8.72;  09:25:00; 10.0%; 3; DeepSeek概念+子公司近期竞得采矿权+机器人+氢能源</t>
         </is>
       </c>
+      <c r="BV3" t="inlineStr">
+        <is>
+          <t>002369.SZ; 卓翼科技; 0;  09:25:00; 2天2板; 9.41;  09:25:00; 10.1%; 2; AR智能眼镜+消费电子+小米概念+机器人</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="5" t="n">
@@ -1934,6 +1949,11 @@
           <t>605255.SH; 天普股份; 0;  09:30:01; 2天2板; 16.76;  09:30:01; 10.0%; 2; 汽车零部件+汽车胶管+密封系统零件</t>
         </is>
       </c>
+      <c r="BV4" t="inlineStr">
+        <is>
+          <t>601921.SH; 浙版传媒; 0;  09:25:00; 2天2板; 9.65;  09:25:00; 10.0%; 2; 投资Rokid+《黑神话：悟空》出版方+短剧+在线教育</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="n">
@@ -2299,6 +2319,11 @@
           <t>601177.SH; 杭齿前进; 0;  09:30:47; 6天6板; 16.42;  09:30:47; 10.0%; 6; 杭州国资+人形机器人+齿轮传动+化债（AMC概念）</t>
         </is>
       </c>
+      <c r="BV5" t="inlineStr">
+        <is>
+          <t>002599.SZ; 盛通股份; 0;  09:25:00; 2天2板; 11.1;  09:25:00; 10.0%; 2; 人形机器人+宇树科技合作+教育+鸿蒙</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="5" t="n">
@@ -2664,6 +2689,11 @@
           <t>003013.SZ; 地铁设计; 0;  09:36:24; 2天2板; 16.96;  09:36:24; 10.0%; 2; 拟收购广州地铁工程咨询+轨道交通+数据中心+广州国资</t>
         </is>
       </c>
+      <c r="BV6" t="inlineStr">
+        <is>
+          <t>002527.SZ; 新时达; 0;  09:25:00; 4天4板; 14.87;  09:25:00; 10.0%; 4; 海尔入主+机器人+电梯</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="n">
@@ -3029,6 +3059,11 @@
           <t>002290.SZ; 禾盛新材; 1;  09:36:48; 2天2板; 21.87;  09:34:39; 10.0%; 2; DeepSeek概念+商汤合作+家电零部件+文化传媒</t>
         </is>
       </c>
+      <c r="BV7" t="inlineStr">
+        <is>
+          <t>600143.SH; 金发科技; 0;  09:25:00; 2天2板; 12.36;  09:25:00; 10.0%; 2; 机器人+PEEK材料+改性塑料龙头+年报预增</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="5" t="n">
@@ -3394,6 +3429,11 @@
           <t>603583.SH; 捷昌驱动; 0;  09:40:07; 3天2板; 40.45;  09:40:07; 10.0%; 1; 人形机器人+灵巧手+线性驱动产品</t>
         </is>
       </c>
+      <c r="BV8" t="inlineStr">
+        <is>
+          <t>002522.SZ; 浙江众成; 0;  09:25:00; 2天2板; 4.98;  09:25:00; 9.9%; 2; 热塑性弹性体+成人玩具材料+浙江国资</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="n">
@@ -3759,6 +3799,11 @@
           <t>002058.SZ; 威尔泰; 12;  09:47:15; 3天3板; 12.41;  09:36:39; 10.0%; 3; 筹划重大资产重组+汽车检具+特斯拉</t>
         </is>
       </c>
+      <c r="BV9" t="inlineStr">
+        <is>
+          <t>601177.SH; 杭齿前进; 0;  09:25:02; 7天7板; 18.06;  09:25:02; 10.0%; 7; 人形机器人+齿轮传动+化债（AMC概念）+杭州国资</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="5" t="n">
@@ -4124,6 +4169,11 @@
           <t>600590.SH; 泰豪科技; 2;  09:58:45; 3天2板; 6.91;  09:30:48; 10.0%; 1; 数据中心发电机+机器狗+军工+混改/重组经验丰富</t>
         </is>
       </c>
+      <c r="BV10" t="inlineStr">
+        <is>
+          <t>605255.SH; 天普股份; 0;  09:25:03; 3天3板; 18.44;  09:25:03; 10.0%; 3; 汽车胶管+密封系统零件+汽车零部件</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="5" t="n">
@@ -4489,6 +4539,11 @@
           <t>603286.SH; 日盈电子; 0;  10:12:35; 3天2板; 29.81;  10:12:35; 10.0%; 1; 无人驾驶+智能座舱+高速线束产品</t>
         </is>
       </c>
+      <c r="BV11" t="inlineStr">
+        <is>
+          <t>002290.SZ; 禾盛新材; 0;  09:30:12; 3天3板; 24.06;  09:30:12; 10.0%; 3; DeepSeek概念+商汤合作+家电零部件+文化传媒</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="5" t="n">
@@ -4854,6 +4909,11 @@
           <t>603813.SH; 原尚股份; 0;  10:26:35; 3天2板; 11.57;  10:26:35; 10.0%; 1; 物流+氢能源</t>
         </is>
       </c>
+      <c r="BV12" t="inlineStr">
+        <is>
+          <t>002929.SZ; 润建股份; 0;  09:32:33; 9天6板; 62.24;  09:32:33; 10.0%; 2; 阿里云+部署DeepSeek+算力</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="5" t="n">
@@ -5209,6 +5269,11 @@
           <t>603209.SH; 兴通股份; 4;  10:42:22; 2天2板; 17.85;  09:25:01; 10.0%; 2; DeepSeek概念+数据要素+航运+化学品运输</t>
         </is>
       </c>
+      <c r="BV13" t="inlineStr">
+        <is>
+          <t>600590.SH; 泰豪科技; 1;  09:37:05; 4天3板; 7.6;  09:35:38; 10.0%; 2; 数据中心发电机+机器狗+军工+混改/重组经验丰富</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="5" t="n">
@@ -5564,6 +5629,11 @@
           <t>000065.SZ; 北方国际; 12;  10:44:33; 2天2板; 11.98;  09:32:24; 10.0%; 2; 国际工程承包商+煤炭+风电+央企国企改革</t>
         </is>
       </c>
+      <c r="BV14" t="inlineStr">
+        <is>
+          <t>002524.SZ; 光正眼科; 0;  09:38:18; 5天3板; 4.57;  09:38:18; 10.1%; 1; 眼科医疗+全飞秒+探索AI技术应用</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="5" t="n">
@@ -5914,6 +5984,11 @@
           <t>605488.SH; 福莱新材; 17;  10:57:58; 7天4板; 51.93;  09:37:01; 10.0%; 1; 机器人+灵巧手+柔性传感器</t>
         </is>
       </c>
+      <c r="BV15" t="inlineStr">
+        <is>
+          <t>605488.SH; 福莱新材; 5;  09:49:09; 8天5板; 57.12;  09:43:45; 10.0%; 2; 机器人+灵巧手+柔性传感器</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="5" t="n">
@@ -6244,6 +6319,11 @@
           <t>300065.SZ; 海兰信; 0;  11:14:27; 3天2板; 13.56;  11:14:27; 20.0%; 1; 拟购买海兰寰宇100%的股权+海南海底数据中心+海洋信息技术</t>
         </is>
       </c>
+      <c r="BV16" t="inlineStr">
+        <is>
+          <t>600678.SH; 四川金顶; 1;  10:04:32; 4天4板; 9.59;  09:25:02; 10.0%; 4; DeepSeek概念+机器人+氢能源+子公司近期竞得采矿权</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="5" t="n">
@@ -6554,6 +6634,11 @@
           <t>002065.SZ; 东华软件; 18;  11:24:48; 3天3板; 12.47;  10:25:57; 10.0%; 3; 腾讯+DeepSeek概念+数字基础设施建设</t>
         </is>
       </c>
+      <c r="BV17" t="inlineStr">
+        <is>
+          <t>600376.SH; 首开股份; 0;  10:04:37; 2天2板; 2.87;  10:04:37; 10.0%; 2; 房地产+北京国资</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="5" t="n">
@@ -6854,6 +6939,11 @@
           <t>300718.SZ; 长盛轴承; 3;  13:04:18; 3天2板; 98.77;  10:35:24; 20.0%; 1; 机器人+宇树科技+自润滑轴承+特斯拉</t>
         </is>
       </c>
+      <c r="BV18" t="inlineStr">
+        <is>
+          <t>000818.SZ; 航锦科技; 9;  10:25:45; 13天10板; 42.96;  09:44:03; 10.0%; 2; 幻方合作+算力+英伟达+国企</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="5" t="n">
@@ -7149,6 +7239,11 @@
           <t>000818.SZ; 航锦科技; 9;  13:05:27; 12天9板; 39.05;  09:30:54; 10.0%; 1; 幻方合作+算力+英伟达+国企</t>
         </is>
       </c>
+      <c r="BV19" t="inlineStr">
+        <is>
+          <t>000516.SZ; 国际医学; 1;  10:28:42; 2天2板; 6.64;  09:33:27; 9.9%; 2; 智能医疗+阿里+民营医院</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="5" t="n">
@@ -7419,6 +7514,11 @@
           <t>603315.SH; 福鞍股份; 3;  13:23:30; 3天2板; 13.48;  09:31:00; 10.0%; 1; 算力+锂电池+大型铸钢件</t>
         </is>
       </c>
+      <c r="BV20" t="inlineStr">
+        <is>
+          <t>300276.SZ; 三丰智能; 3;  10:35:48; 2天2板; 14.59;  09:51:39; 20.0%; 2; 人形机器人+特斯拉+运输设备</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="5" t="n">
@@ -7679,6 +7779,11 @@
           <t>002929.SZ; 润建股份; 3;  13:34:03; 8天5板; 56.58;  10:14:57; 10.0%; 1; 阿里云+部署DeepSeek至R1（满血）版本+算力</t>
         </is>
       </c>
+      <c r="BV21" t="inlineStr">
+        <is>
+          <t>603315.SH; 福鞍股份; 0;  13:04:38; 4天3板; 14.83;  13:04:38; 10.0%; 2; 算力+锂电池+大型铸钢件</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="5" t="n">
@@ -7919,6 +8024,11 @@
           <t>601777.SH; 千里科技; 3;  14:02:41; 3天2板; 8.67;  11:23:47; 10.0%; 1; 拟更名“千里科技”+聚焦“AI+车”</t>
         </is>
       </c>
+      <c r="BV22" t="inlineStr">
+        <is>
+          <t>000856.SZ; 冀东装备; 0;  13:12:12; 18天12板; 16.86;  13:12:12; 10.0%; 4; 机器人+水泥装备+北京国资</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="5" t="n">
@@ -8149,6 +8259,11 @@
           <t>603119.SH; 浙江荣泰; 12;  14:16:41; 3天2板; 35.39;  13:14:59; 10.0%; 1; 人形机器人+丝杠+特斯拉+外销</t>
         </is>
       </c>
+      <c r="BV23" t="inlineStr">
+        <is>
+          <t>002896.SZ; 中大力德; 0;  13:18:12; 2天2板; 88.7;  13:18:12; 10.0%; 2; 机器人+减速器+电机</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="5" t="n">
@@ -8364,6 +8479,11 @@
           <t>603917.SH; 合力科技; 0;  14:18:40; 3天2板; 14.96;  14:18:40; 10.0%; 1; 汽车零部件+模具+一体化压铸+比亚迪</t>
         </is>
       </c>
+      <c r="BV24" t="inlineStr">
+        <is>
+          <t>000967.SZ; 盈峰环境; 0;  13:46:18; 4天3板; 6.25;  13:46:18; 10.0%; 1; 机器人+智慧环卫+云计算</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="5" t="n">
@@ -8579,6 +8699,11 @@
           <t>000710.SZ; 贝瑞基因; 1;  14:21:09; 4天3板; 12.67;  11:27:21; 10.0%; 1; 智能医疗+基因检测+DeepSeek概念</t>
         </is>
       </c>
+      <c r="BV25" t="inlineStr">
+        <is>
+          <t>002065.SZ; 东华软件; 5;  14:52:51; 4天4板; 13.72;  09:46:09; 10.0%; 4; 腾讯+DeepSeek概念+数字基础设施建设</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="5" t="n">
@@ -8789,6 +8914,11 @@
           <t>000856.SZ; 冀东装备; 9;  14:49:12; 17天11板; 15.33;  09:40:39; 10.0%; 3; 机器人+水泥装备+北京国资</t>
         </is>
       </c>
+      <c r="BV26" t="inlineStr">
+        <is>
+          <t>002058.SZ; 威尔泰; 22;  14:52:57; 4天4板; 13.65;  09:30:33; 10.0%; 4; 筹划重大资产重组+汽车检具+特斯拉</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="5" t="n">
@@ -8989,6 +9119,11 @@
           <t>301230.SZ; 泓博医药; 19;  14:50:21; 2天2板; 44.33;  09:41:42; 20.0%; 2; AI制药+创新药+外销</t>
         </is>
       </c>
+      <c r="BV27" t="inlineStr">
+        <is>
+          <t>603130.SH; 云中马; 1;  14:56:57; 2天2板; 32.67;  14:35:33; 10.0%; 2; 超高分子量聚乙烯+革基布+节能环保</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="5" t="n">
@@ -9177,6 +9312,11 @@
       <c r="BS28" t="inlineStr">
         <is>
           <t>301459.SZ; 丰茂股份; 6;  14:54:15; 2天2板; 61.27;  14:29:09; 20.0%; 2; 汽车零部件+比亚迪概念+橡胶</t>
+        </is>
+      </c>
+      <c r="BV28" t="inlineStr">
+        <is>
+          <t>605376.SH; 博迁新材; 11;  15:00:04; 2天2板; 38.95;  13:34:40; 10.0%; 2; 电子专用高端金属粉体材料+纳米材料+MLCC上游+锂电池</t>
         </is>
       </c>
     </row>
@@ -12271,7 +12411,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BU146"/>
+  <dimension ref="A1:BV146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12640,6 +12780,11 @@
           <t>2025年02月19日</t>
         </is>
       </c>
+      <c r="BV1" s="5" t="inlineStr">
+        <is>
+          <t>2025年02月20日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="5" t="n">
@@ -12978,6 +13123,11 @@
       <c r="BU2" t="inlineStr">
         <is>
           <t>603956.SH; 威派格; 0;  09:25:01; 一字跌停||放量跌停; 9.23; -10.0%; 1; 异常波动</t>
+        </is>
+      </c>
+      <c r="BV2" t="inlineStr">
+        <is>
+          <t>603991.SH; 至正股份; 0;  11:28:05; 放量跌停; 57.85; -10.0%; 1; 此前收到警示函</t>
         </is>
       </c>
     </row>
@@ -20507,7 +20657,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BU72"/>
+  <dimension ref="A1:BV72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20876,6 +21026,11 @@
           <t>2025年02月19日</t>
         </is>
       </c>
+      <c r="BV1" s="5" t="inlineStr">
+        <is>
+          <t>2025年02月20日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="5" t="n">
@@ -21241,6 +21396,11 @@
           <t>600468.SH; 百利电气; 1;  09:31:18; 主板; 4.62; 曾涨停; 6.7%; 0.01H;  09:31:18</t>
         </is>
       </c>
+      <c r="BV2" t="inlineStr">
+        <is>
+          <t>002620.SZ; 瑞和股份; 1;  09:30:42; 主板; 3.53; 曾涨停; 2.9%; 0.01H;  09:30:42</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="n">
@@ -21606,6 +21766,11 @@
           <t>600560.SH; 金自天正; 1;  09:37:00; 主板; 17.1; 曾涨停; 6.3%; 0.00H;  09:37:00</t>
         </is>
       </c>
+      <c r="BV3" t="inlineStr">
+        <is>
+          <t>600571.SH; 信雅达; 3;  09:32:03; 主板; 14.82; 曾涨停; 5.4%; 0.39H;  09:32:03|| 09:35:39|| 09:37:06</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="5" t="n">
@@ -21971,6 +22136,11 @@
           <t>002591.SZ; 恒大高新; 1;  09:51:54; 主板; 5.37; 曾涨停; 3.1%; 0.01H;  09:51:54</t>
         </is>
       </c>
+      <c r="BV4" t="inlineStr">
+        <is>
+          <t>600633.SH; 浙数文化; 6;  09:33:24; 主板; 18.66; 曾涨停; 3.7%; 0.36H;  09:33:24|| 09:33:57|| 09:34:54|| 09:36:03|| 09:36:36|| 09:57:12</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="n">
@@ -22336,6 +22506,11 @@
           <t>603005.SH; 晶方科技; 2;  09:55:17; 主板; 36.29; 曾涨停; 8.3%; 0.96H;  09:55:17|| 10:01:17</t>
         </is>
       </c>
+      <c r="BV5" t="inlineStr">
+        <is>
+          <t>002173.SZ; 创新医疗; 1;  09:33:39; 主板; 10.88; 曾涨停; 7.2%; 0.78H;  09:33:39</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="5" t="n">
@@ -22701,6 +22876,11 @@
           <t>002152.SZ; 广电运通; 1;  10:16:30; 主板; 14.2; 曾涨停; 7.2%; 0.01H;  10:16:30</t>
         </is>
       </c>
+      <c r="BV6" t="inlineStr">
+        <is>
+          <t>600222.SH; 太龙药业; 1;  09:35:24; 主板; 5.42; 曾涨停; 3.2%; 0.01H;  09:35:24</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="n">
@@ -23066,6 +23246,11 @@
           <t>002245.SZ; 蔚蓝锂芯; 2;  10:59:06; 主板; 13.65; 曾涨停; 8.0%; 0.04H;  10:59:06|| 11:12:00</t>
         </is>
       </c>
+      <c r="BV7" t="inlineStr">
+        <is>
+          <t>000710.SZ; 贝瑞基因; 2;  09:36:21; 主板; 12.7; 曾涨停; 0.2%; 0.00H;  09:36:21|| 09:36:33</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="5" t="n">
@@ -23431,6 +23616,11 @@
           <t>002374.SZ; 中锐股份; 1;  11:26:30; 主板; 2.77; 曾涨停; 7.8%; 0.06H;  11:26:30</t>
         </is>
       </c>
+      <c r="BV8" t="inlineStr">
+        <is>
+          <t>300288.SZ; 朗玛信息; 1;  09:42:21; 创业板; 19.23; 曾涨停; 11.0%; 0.66H;  09:42:21</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="n">
@@ -23796,6 +23986,11 @@
           <t>301210.SZ; 金杨股份; 1;  13:34:39; 创业板; 47.52; 曾涨停; 16.0%; 0.65H;  13:34:39</t>
         </is>
       </c>
+      <c r="BV9" t="inlineStr">
+        <is>
+          <t>603999.SH; 读者传媒; 1;  09:44:38; 主板; 6.6; 曾涨停; 4.1%; 0.04H;  09:44:38</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="5" t="n">
@@ -24161,6 +24356,11 @@
           <t>002722.SZ; 物产金轮; 1;  13:37:00; 主板; 15.86; 曾涨停; 9.2%; 0.19H;  13:37:00</t>
         </is>
       </c>
+      <c r="BV10" t="inlineStr">
+        <is>
+          <t>601100.SH; 恒立液压; 3;  09:50:52; 主板; 82.32; 曾涨停; 4.3%; 0.02H;  09:50:52|| 09:52:43|| 09:53:31</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="5" t="n">
@@ -24521,6 +24721,11 @@
           <t>601216.SH; 君正集团; 1;  14:07:56; 主板; 6.26; 曾涨停; 8.3%; 0.37H;  14:07:56</t>
         </is>
       </c>
+      <c r="BV11" t="inlineStr">
+        <is>
+          <t>002489.SZ; 浙江永强; 5;  09:57:42; 主板; 3.6; 曾涨停; 7.1%; 0.40H;  09:57:42|| 09:58:24|| 09:59:12|| 10:00:39|| 10:01:27</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="5" t="n">
@@ -24876,6 +25081,11 @@
           <t>603583.SH; 捷昌驱动; 8;  10:24:24; 主板; 36.77; 曾涨停; 7.5%; 0.73H;  10:24:24|| 10:27:06|| 11:15:51|| 11:19:27|| 11:27:06|| 11:29:18|| 13:42:21|| 13:42:51</t>
         </is>
       </c>
+      <c r="BV12" t="inlineStr">
+        <is>
+          <t>000810.SZ; 创维数字; 1;  10:05:09; 主板; 15.57; 曾涨停; 6.6%; 0.03H;  10:05:09</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="5" t="n">
@@ -25221,6 +25431,11 @@
           <t>002134.SZ; 天津普林; 1;  10:28:51; 主板; 20.05; 曾涨停; 5.6%; 1.03H;  10:28:51</t>
         </is>
       </c>
+      <c r="BV13" t="inlineStr">
+        <is>
+          <t>002445.SZ; 中南文化; 2;  10:18:48; 主板; 2.47; 曾涨停; 3.3%; 0.02H;  10:18:48|| 10:19:36</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="5" t="n">
@@ -25566,6 +25781,11 @@
           <t>603767.SH; 中马传动; 1;  11:12:15; 主板; 12.87; 曾涨停; 7.0%; 0.42H;  11:12:15</t>
         </is>
       </c>
+      <c r="BV14" t="inlineStr">
+        <is>
+          <t>603131.SH; 上海沪工; 1;  10:21:57; 主板; 19.5; 曾涨停; 6.0%; 0.02H;  10:21:57</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="5" t="n">
@@ -25911,6 +26131,11 @@
           <t>605488.SH; 福莱新材; 1;  11:15:25; 主板; 47.21; 曾涨停; 7.3%; 1.49H;  11:15:25</t>
         </is>
       </c>
+      <c r="BV15" t="inlineStr">
+        <is>
+          <t>002094.SZ; 青岛金王; 2;  10:40:24; 主板; 6.12; 曾涨停; 7.2%; 0.02H;  10:40:24|| 10:41:27</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="5" t="n">
@@ -26251,6 +26476,11 @@
           <t>603917.SH; 合力科技; 8;  11:22:31; 主板; 13.6; 曾涨停; 5.9%; 0.06H;  11:22:31|| 11:24:25|| 11:26:25|| 11:26:49|| 11:27:34|| 11:28:04|| 11:28:13|| 11:28:28</t>
         </is>
       </c>
+      <c r="BV16" t="inlineStr">
+        <is>
+          <t>002044.SZ; 美年健康; 2;  11:07:24; 主板; 7.51; 曾涨停; 6.2%; 0.03H;  11:07:24|| 11:13:48</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="5" t="n">
@@ -26581,6 +26811,11 @@
           <t>603312.SH; 西典新能; 1;  11:27:33; 主板; 38.59; 曾涨停; 7.4%; 0.06H;  11:27:33</t>
         </is>
       </c>
+      <c r="BV17" t="inlineStr">
+        <is>
+          <t>603728.SH; 鸣志电器; 1;  13:23:01; 主板; 82.49; 曾涨停; 6.0%; 0.13H;  13:23:01</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="5" t="n">
@@ -26906,6 +27141,11 @@
           <t>603839.SH; 安正时尚; 1;  13:00:22; 主板; 5.91; 曾涨停; 3.1%; 0.00H;  13:00:22</t>
         </is>
       </c>
+      <c r="BV18" t="inlineStr">
+        <is>
+          <t>300007.SZ; 汉威科技; 1;  13:39:09; 创业板; 44.5; 曾涨停; 17.7%; 0.01H;  13:39:09</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="5" t="n">
@@ -27231,6 +27471,11 @@
           <t>600520.SH; 文一科技; 1;  13:06:51; 主板; 36.34; 曾涨停; 3.8%; 0.00H;  13:06:51</t>
         </is>
       </c>
+      <c r="BV19" t="inlineStr">
+        <is>
+          <t>600126.SH; 杭钢股份; 7;  13:46:15; 主板; 11.15; 曾涨停; 6.1%; 0.88H;  13:46:15|| 13:47:03|| 14:10:15|| 14:11:12|| 14:13:39|| 14:42:45|| 14:44:57</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="5" t="n">
@@ -27536,6 +27781,11 @@
           <t>002848.SZ; 高斯贝尔; 2;  13:09:30; 主板; 7.31; 曾涨停; 5.8%; 0.01H;  13:09:30|| 13:10:39</t>
         </is>
       </c>
+      <c r="BV20" t="inlineStr">
+        <is>
+          <t>000759.SZ; 中百集团; 2;  14:02:24; 主板; 8.69; 曾涨停; 7.0%; 0.00H;  14:02:24|| 14:04:12</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="5" t="n">
@@ -27841,6 +28091,11 @@
           <t>300853.SZ; 申昊科技; 1;  13:14:45; 创业板; 27.19; 曾涨停; 12.2%; 0.01H;  13:14:45</t>
         </is>
       </c>
+      <c r="BV21" t="inlineStr">
+        <is>
+          <t>000096.SZ; 广聚能源; 2;  14:03:06; 主板; 16.27; 曾涨停; 10.0%; 0.05H;  14:03:06|| 14:05:51</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="5" t="n">
@@ -28136,6 +28391,11 @@
           <t>601010.SH; 文峰股份; 2;  13:40:14; 主板; 3.22; 曾涨停; 4.5%; 1.00H;  13:40:14|| 14:39:50</t>
         </is>
       </c>
+      <c r="BV22" t="inlineStr">
+        <is>
+          <t>002126.SZ; 银轮股份; 2;  14:23:42; 主板; 27.5; 曾涨停; 3.1%; 0.05H;  14:23:42|| 14:26:36</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="5" t="n">
@@ -28404,6 +28664,11 @@
       <c r="BT23" t="inlineStr">
         <is>
           <t>603629.SH; 利通电子; 2;  14:04:23; 主板; 27.54; 曾涨停; 3.4%; 0.02H;  14:04:23|| 14:06:29</t>
+        </is>
+      </c>
+      <c r="BV23" t="inlineStr">
+        <is>
+          <t>002979.SZ; 雷赛智能; 1;  14:36:51; 主板; 48.96; 曾涨停; 4.2%; 0.02H;  14:36:51</t>
         </is>
       </c>
     </row>
@@ -32768,7 +33033,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BU128"/>
+  <dimension ref="A1:BV128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33137,6 +33402,11 @@
           <t>2025年02月19日</t>
         </is>
       </c>
+      <c r="BV1" s="5" t="inlineStr">
+        <is>
+          <t>2025年02月20日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="5" t="n">
@@ -33502,6 +33772,11 @@
           <t>000886.SZ; 海南高速; 0;  09:25:00; 首板涨停; 6.93;  09:25:00; 10.0%; 1; 海南算力+车联网+房地产开发+海南国资</t>
         </is>
       </c>
+      <c r="BV2" t="inlineStr">
+        <is>
+          <t>001314.SZ; 亿道信息; 0;  09:25:00; 首板涨停; 56.65;  09:25:00; 10.0%; 1; Rokid合作+AR眼镜+AIPC+MR</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="n">
@@ -33867,6 +34142,11 @@
           <t>603903.SH; 中持股份; 0;  09:25:02; 首板涨停; 7.19;  09:25:02; 9.9%; 1; 环保基础设施建造服务+氢能源</t>
         </is>
       </c>
+      <c r="BV3" t="inlineStr">
+        <is>
+          <t>002978.SZ; 安宁股份; 0;  09:25:00; 首板涨停; 32.59;  09:25:00; 10.0%; 1; 筹划重大资产重组+小金属+高股息+钒电池</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="5" t="n">
@@ -34232,6 +34512,11 @@
           <t>002790.SZ; 瑞尔特; 0;  09:30:00; 首板涨停; 8.04;  09:30:00; 10.0%; 1; 冲水组件+家居+外销</t>
         </is>
       </c>
+      <c r="BV4" t="inlineStr">
+        <is>
+          <t>603215.SH; 比依股份; 0;  09:30:00; 首板涨停; 20.1;  09:30:00; 10.0%; 1; AI眼镜+小家电+网红经济</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="n">
@@ -34597,6 +34882,11 @@
           <t>600105.SH; 永鼎股份; 0;  09:30:28; 首板涨停; 5.83;  09:30:28; 10.0%; 1; 超导+可控核聚变+光模块+光缆电缆</t>
         </is>
       </c>
+      <c r="BV5" t="inlineStr">
+        <is>
+          <t>002987.SZ; 京北方; 0;  09:30:00; 首板涨停; 21.44;  09:30:00; 10.0%; 1; DeepSeek概念+金融科技+鸿蒙概念+AI应用</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="5" t="n">
@@ -34962,6 +35252,11 @@
           <t>002908.SZ; 德生科技; 0;  09:30:30; 首板涨停; 10.58;  09:30:30; 10.0%; 1; 社保民生+数据要素+AI应用</t>
         </is>
       </c>
+      <c r="BV6" t="inlineStr">
+        <is>
+          <t>300868.SZ; 杰美特; 0;  09:30:09; 首板涨停; 34.92;  09:30:09; 20.0%; 1; AI眼镜+苹果+华为+跨境电商</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="n">
@@ -35327,6 +35622,11 @@
           <t>300571.SZ; 平治信息; 0;  09:32:12; 首板涨停; 37.2;  09:32:12; 20.0%; 1; 算力+AI企业合作</t>
         </is>
       </c>
+      <c r="BV7" t="inlineStr">
+        <is>
+          <t>300256.SZ; 星星科技; 0;  09:31:12; 首板涨停; 5.1;  09:31:12; 20.0%; 1; AI眼镜+折叠屏+华为+两轮车</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="5" t="n">
@@ -35692,6 +35992,11 @@
           <t>002369.SZ; 卓翼科技; 1;  09:32:57; 首板涨停; 8.55;  09:30:33; 10.0%; 1; AR智能眼镜+消费电子+小米概念+机器人</t>
         </is>
       </c>
+      <c r="BV8" t="inlineStr">
+        <is>
+          <t>002577.SZ; 雷柏科技; 1;  09:32:12; 首板涨停; 26.87;  09:30:51; 10.0%; 1; AI眼镜+游戏设备+星闪</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="n">
@@ -36057,6 +36362,11 @@
           <t>603011.SH; 合锻智能; 0;  09:33:37; 首板涨停; 7.98;  09:33:37; 10.1%; 1; 机器人+液压机+汽车轻量化+核聚变</t>
         </is>
       </c>
+      <c r="BV9" t="inlineStr">
+        <is>
+          <t>002861.SZ; 瀛通通讯; 4;  09:36:36; 首板涨停; 16.15;  09:30:48; 10.0%; 1; AI终端+电声产品+比亚迪、小米等客户+外销</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="5" t="n">
@@ -36422,6 +36732,11 @@
           <t>600143.SH; 金发科技; 1;  09:34:00; 首板涨停; 11.24;  09:31:48; 10.0%; 1; 机器人+PEEK材料+改性塑料龙头+年报预增</t>
         </is>
       </c>
+      <c r="BV10" t="inlineStr">
+        <is>
+          <t>600084.SH; 中信尼雅; 0;  09:36:45; 首板涨停; 5.74;  09:36:45; 10.0%; 1; 葡萄酒+中字头+AMC</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="5" t="n">
@@ -36787,6 +37102,11 @@
           <t>002599.SZ; 盛通股份; 0;  09:34:06; 首板涨停; 10.09;  09:34:06; 10.0%; 1; 人形机器人+宇树科技合作+教育+鸿蒙</t>
         </is>
       </c>
+      <c r="BV11" t="inlineStr">
+        <is>
+          <t>002414.SZ; 高德红外; 0;  09:41:54; 首板涨停; 8.24;  09:41:54; 10.0%; 1; 红外热像仪+军工+AI终端</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="5" t="n">
@@ -37152,6 +37472,11 @@
           <t>301024.SZ; 霍普股份; 0;  09:37:06; 首板涨停; 27.66;  09:37:06; 20.0%; 1; 建筑设计+光伏</t>
         </is>
       </c>
+      <c r="BV12" t="inlineStr">
+        <is>
+          <t>000782.SZ; 恒申新材; 1;  09:43:45; 首板涨停; 4.83;  09:42:42; 10.0%; 1; 锦纶+军工+实控人变更</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="5" t="n">
@@ -37517,6 +37842,11 @@
           <t>601002.SH; 晋亿实业; 0;  09:38:52; 首板涨停; 4.92;  09:38:52; 10.1%; 1; 签订合同+高铁+各类紧固件+核电</t>
         </is>
       </c>
+      <c r="BV13" t="inlineStr">
+        <is>
+          <t>600225.SH; 退市卓朗; 0;  09:44:34; 首板涨停; 0.24;  09:44:34; 9.1%; 1; 退市整理</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="5" t="n">
@@ -37882,6 +38212,11 @@
           <t>003005.SZ; 竞业达; 0;  09:40:24; 首板涨停; 41.56;  09:40:24; 10.0%; 1; DeepSeek概念+AI教育+智慧城市</t>
         </is>
       </c>
+      <c r="BV14" t="inlineStr">
+        <is>
+          <t>000547.SZ; 航天发展; 1;  09:49:00; 首板涨停; 7.79;  09:43:00; 10.0%; 1; 商业卫星+低空经济+DeepSeek概念+央企</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="5" t="n">
@@ -38242,6 +38577,11 @@
           <t>603015.SH; 弘讯科技; 1;  09:41:50; 首板涨停; 13.39;  09:36:35; 10.0%; 1; 机器人+核聚变电源+工业互联网</t>
         </is>
       </c>
+      <c r="BV15" t="inlineStr">
+        <is>
+          <t>002838.SZ; 道恩股份; 1;  09:49:42; 首板涨停; 13.05;  09:46:09; 10.0%; 1; 热塑性弹性体+机器人+汽车家电</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="5" t="n">
@@ -38602,6 +38942,11 @@
           <t>300007.SZ; 汉威科技; 0;  09:46:03; 首板涨停; 37.81;  09:46:03; 20.0%; 1; 人形机器人+传感器+芯片</t>
         </is>
       </c>
+      <c r="BV16" t="inlineStr">
+        <is>
+          <t>002426.SZ; 胜利精密; 0;  09:50:24; 首板涨停; 3.61;  09:50:24; 10.1%; 1; 消费电子+智能穿戴+AIPC+特斯拉</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="5" t="n">
@@ -38957,6 +39302,11 @@
           <t>000793.SZ; 华闻集团; 3;  09:47:21; 首板涨停; 2.94;  09:31:39; 10.1%; 1; 被债权人申请重整+海南+文旅+农业种植</t>
         </is>
       </c>
+      <c r="BV17" t="inlineStr">
+        <is>
+          <t>600807.SH; 济高发展; 0;  09:51:44; 首板涨停; 3.3;  09:51:44; 10.0%; 1; 资产注入猜测+体外诊断+济南国资</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="5" t="n">
@@ -39312,6 +39662,11 @@
           <t>002213.SZ; 大为股份; 1;  09:53:48; 首板涨停; 18.4;  09:49:33; 10.0%; 1; 存储芯片+比亚迪+智能终端+锂电池</t>
         </is>
       </c>
+      <c r="BV18" t="inlineStr">
+        <is>
+          <t>002427.SZ; 尤夫股份; 1;  09:53:45; 首板涨停; 3.92;  09:52:54; 10.1%; 1; 涤纶工业丝+新能源汽车+陕西国资</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="5" t="n">
@@ -39662,6 +40017,11 @@
           <t>603130.SH; 云中马; 0;  09:56:52; 首板涨停; 29.7;  09:56:52; 10.0%; 1; 超高分子量聚乙烯+革基布+节能环保</t>
         </is>
       </c>
+      <c r="BV19" t="inlineStr">
+        <is>
+          <t>003028.SZ; 振邦智能; 0;  09:55:18; 首板涨停; 45.53;  09:55:18; 10.0%; 1; 人形机器人+智能控制器+光伏+逆变器</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="5" t="n">
@@ -40012,6 +40372,11 @@
           <t>002276.SZ; 万马股份; 0;  10:02:48; 首板涨停; 9.93;  10:02:48; 10.0%; 1; 机器人+高压快充+国企</t>
         </is>
       </c>
+      <c r="BV20" t="inlineStr">
+        <is>
+          <t>600861.SH; 北京人力; 0;  09:56:25; 首板涨停; 19.87;  09:56:25; 10.0%; 1; 人力资源+职业教育+北京国资</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="5" t="n">
@@ -40362,6 +40727,11 @@
           <t>603528.SH; 多伦科技; 0;  10:03:27; 首板涨停; 9.67;  10:03:27; 10.0%; 1; 新能源车检+智慧驾培+DeepSeek概念</t>
         </is>
       </c>
+      <c r="BV21" t="inlineStr">
+        <is>
+          <t>605288.SH; 凯迪股份; 1;  09:58:47; 首板涨停; 41.48;  09:48:44; 10.0%; 1; 线性驱动系统+智能医疗+智能家居</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="5" t="n">
@@ -40712,6 +41082,11 @@
           <t>000008.SZ; 神州高铁; 0;  10:06:03; 首板涨停; 2.96;  10:06:03; 10.0%; 1; 高铁+机器人+教育+央企</t>
         </is>
       </c>
+      <c r="BV22" t="inlineStr">
+        <is>
+          <t>001306.SZ; 夏厦精密; 0;  10:02:03; 首板涨停; 77.73;  10:02:03; 10.0%; 1; 人形机器人+减速器+比亚迪</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="5" t="n">
@@ -41057,6 +41432,11 @@
           <t>600498.SH; 烽火通信; 0;  10:09:34; 首板涨停; 27.93;  10:09:34; 10.0%; 1; 算力+华为+央企</t>
         </is>
       </c>
+      <c r="BV23" t="inlineStr">
+        <is>
+          <t>601011.SH; 宝泰隆; 0;  10:03:45; 首板涨停; 2.9;  10:03:45; 9.8%; 1; AI眼镜+收资源勘查许可证+石墨烯+煤炭</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="5" t="n">
@@ -41397,6 +41777,11 @@
           <t>603261.SH; 立航科技; 0;  10:11:10; 首板涨停; 24.97;  10:11:10; 10.0%; 1; 成飞概念+军工+飞机地面保障设备+无人机</t>
         </is>
       </c>
+      <c r="BV24" t="inlineStr">
+        <is>
+          <t>002390.SZ; 信邦制药; 0;  10:16:24; 首板涨停; 4.31;  10:16:24; 9.9%; 1; 中药+民营医院+医药商业</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="5" t="n">
@@ -41737,6 +42122,11 @@
           <t>603665.SH; 康隆达; 0;  10:14:41; 首板涨停; 17.96;  10:14:41; 10.0%; 1; 超高分子量聚乙烯纤维+手套+锂电池+出海</t>
         </is>
       </c>
+      <c r="BV25" t="inlineStr">
+        <is>
+          <t>002277.SZ; 友阿股份; 0;  10:23:15; 首板涨停; 5.48;  10:23:15; 10.0%; 1; 百货零售+机器人+拟收购尚阳通100%股权</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="5" t="n">
@@ -42072,6 +42462,11 @@
           <t>002922.SZ; 伊戈尔; 0;  10:20:00; 首板涨停; 20.85;  10:20:00; 10.0%; 1; 数据中心+变压器+光伏</t>
         </is>
       </c>
+      <c r="BV26" t="inlineStr">
+        <is>
+          <t>002348.SZ; 高乐股份; 4;  10:26:00; 首板涨停; 4;  10:12:48; 9.9%; 1; IP经济+玩具+机器人概念+固态电池</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="5" t="n">
@@ -42397,6 +42792,11 @@
           <t>603316.SH; 诚邦股份; 1;  10:23:38; 首板涨停; 5.31;  10:04:50; 9.9%; 1; 拟增资获得芯存科技51.02%股权+园林景观+水利+地下管网</t>
         </is>
       </c>
+      <c r="BV27" t="inlineStr">
+        <is>
+          <t>600814.SH; 杭州解百; 0;  10:26:38; 首板涨停; 8.76;  10:26:38; 10.1%; 1; 百货商场+杭州国资</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="5" t="n">
@@ -42717,6 +43117,11 @@
           <t>002117.SZ; 东港股份; 0;  10:24:12; 首板涨停; 13.86;  10:24:12; 10.0%; 1; 智能机器人+算力+金融企业客户</t>
         </is>
       </c>
+      <c r="BV28" t="inlineStr">
+        <is>
+          <t>600835.SH; 上海机电; 3;  10:38:04; 首板涨停; 21.16;  10:04:49; 10.0%; 1; 机器人+拟收购上海电气旗下资产+控股股东为上海电气+电梯</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="5" t="n">
@@ -43027,6 +43432,11 @@
           <t>002380.SZ; 科远智慧; 1;  10:35:54; 首板涨停; 26.64;  10:10:36; 10.0%; 1; 工业自动化+人工智能+机器人概念+数据要素</t>
         </is>
       </c>
+      <c r="BV29" t="inlineStr">
+        <is>
+          <t>605366.SH; 宏柏新材; 0;  10:45:37; 首板涨停; 6.16;  10:45:37; 10.0%; 1; 功能性硅烷+橡胶制品</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="5" t="n">
@@ -43332,6 +43742,11 @@
           <t>000516.SZ; 国际医学; 1;  10:49:03; 首板涨停; 6.04;  10:33:18; 10.0%; 1; 智能医疗+阿里+民营医院</t>
         </is>
       </c>
+      <c r="BV30" t="inlineStr">
+        <is>
+          <t>300817.SZ; 双飞集团; 0;  10:48:18; 首板涨停; 23.1;  10:48:18; 20.0%; 1; 机器人+自润滑轴承+特斯拉</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="5" t="n">
@@ -43632,6 +44047,11 @@
           <t>600353.SH; 旭光电子; 2;  10:53:10; 首板涨停; 8.17;  10:14:04; 10.0%; 1; 先进封装+发布DeepSeek边缘一体机+光刻机</t>
         </is>
       </c>
+      <c r="BV31" t="inlineStr">
+        <is>
+          <t>300246.SZ; 宝莱特; 9;  10:50:06; 首板涨停; 8.29;  09:34:15; 20.0%; 1; 医疗器械+健康检测+血液净化</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="5" t="n">
@@ -43932,6 +44352,11 @@
           <t>002399.SZ; 海普瑞; 0;  10:55:24; 首板涨停; 11.29;  10:55:24; 10.0%; 1; 注射用H1710药物临床试验获批+肝素+外销</t>
         </is>
       </c>
+      <c r="BV32" t="inlineStr">
+        <is>
+          <t>600992.SH; 贵绳股份; 0;  10:52:28; 首板涨停; 15.35;  10:52:28; 10.0%; 1; 钢丝钢绳+贵州国资</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="5" t="n">
@@ -44227,6 +44652,11 @@
           <t>600246.SH; 万通发展; 0;  11:03:37; 首板涨停; 6.2;  11:03:37; 9.9%; 1; 此前拟收购索尔斯光电股份+毫米波射频芯片+房地产</t>
         </is>
       </c>
+      <c r="BV33" t="inlineStr">
+        <is>
+          <t>603678.SH; 火炬电子; 0;  10:59:43; 首板涨停; 28.67;  10:59:43; 10.0%; 1; 军工+航空航天+电子元器件+超级电容</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="5" t="n">
@@ -44517,6 +44947,11 @@
           <t>600376.SH; 首开股份; 1;  11:03:57; 首板涨停; 2.61;  11:02:40; 10.1%; 1; 房地产+北京国资</t>
         </is>
       </c>
+      <c r="BV34" t="inlineStr">
+        <is>
+          <t>301300.SZ; 远翔新材; 2;  11:04:21; 首板涨停; 33.53;  10:47:36; 20.0%; 1; 硅橡胶+可用于充气娃娃</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="5" t="n">
@@ -44807,6 +45242,11 @@
           <t>300276.SZ; 三丰智能; 2;  11:09:39; 首板涨停; 12.16;  10:30:21; 20.0%; 1; 人形机器人+特斯拉+运输设备</t>
         </is>
       </c>
+      <c r="BV35" t="inlineStr">
+        <is>
+          <t>600679.SH; 上海凤凰; 0;  11:07:29; 首板涨停; 14.22;  11:07:29; 10.0%; 1; 上海国资+两轮车+首发经济</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="5" t="n">
@@ -45092,6 +45532,11 @@
           <t>002368.SZ; 太极股份; 0;  11:10:48; 首板涨停; 30.5;  11:10:48; 10.0%; 1; 国资云+DeepSeek概念+鸿蒙+IT服务</t>
         </is>
       </c>
+      <c r="BV36" t="inlineStr">
+        <is>
+          <t>603579.SH; 荣泰健康; 0;  11:08:26; 首板涨停; 17.23;  11:08:26; 10.0%; 1; 按摩器具+小米+DeepSeek概念</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="5" t="n">
@@ -45377,6 +45822,11 @@
           <t>603004.SH; 鼎龙科技; 0;  11:16:38; 首板涨停; 23.09;  11:16:38; 10.0%; 1; PBO单体+染发剂原料+外销</t>
         </is>
       </c>
+      <c r="BV37" t="inlineStr">
+        <is>
+          <t>605008.SH; 长鸿高科; 1;  11:17:27; 首板涨停; 13.5;  11:16:07; 10.0%; 1; 热塑性弹性体+可用于仿真机器人外壳皮肤</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="5" t="n">
@@ -45657,6 +46107,11 @@
           <t>605088.SH; 冠盛股份; 0;  11:17:35; 首板涨停; 32.85;  11:17:35; 10.0%; 1; 汽车零部件+固态电池+海外仓</t>
         </is>
       </c>
+      <c r="BV38" t="inlineStr">
+        <is>
+          <t>301336.SZ; 趣睡科技; 0;  11:26:39; 首板涨停; 69.96;  11:26:39; 20.0%; 1; 智能家居+小米</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="5" t="n">
@@ -45932,6 +46387,11 @@
           <t>603882.SH; 金域医学; 1;  11:28:15; 首板涨停; 38.62;  10:59:45; 10.0%; 1; 智能医疗+第三方医学检验</t>
         </is>
       </c>
+      <c r="BV39" t="inlineStr">
+        <is>
+          <t>300019.SZ; 硅宝科技; 1;  11:27:12; 首板涨停; 18.32;  10:44:57; 20.0%; 1; 有机硅+或可用于人形机器人+固态电池</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="5" t="n">
@@ -46197,6 +46657,11 @@
           <t>603270.SH; 金帝股份; 0;  11:28:48; 首板涨停; 24.6;  11:28:48; 10.0%; 1; 机器人+汽车零部件+风电</t>
         </is>
       </c>
+      <c r="BV40" t="inlineStr">
+        <is>
+          <t>600439.SH; 瑞贝卡; 0;  13:00:08; 首板涨停; 4.31;  13:00:08; 9.9%; 1; 假发+华为昇腾+资产注入预期+外销</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="5" t="n">
@@ -46462,6 +46927,11 @@
           <t>002031.SZ; 巨轮智能; 4;  11:29:45; 首板涨停; 8.89;  09:41:06; 10.0%; 1; 人形机器人+XT减速器+轮胎模具</t>
         </is>
       </c>
+      <c r="BV41" t="inlineStr">
+        <is>
+          <t>000590.SZ; 启迪药业; 0;  13:00:12; 首板涨停; 8.03;  13:00:12; 10.0%; 1; 子公司合作华为发布病理大模型+医药大健康领域</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="5" t="n">
@@ -46717,6 +47187,11 @@
           <t>603066.SH; 音飞储存; 0;  13:00:50; 首板涨停; 11.99;  13:00:50; 10.0%; 1; 机器人+智能物流+国企改革</t>
         </is>
       </c>
+      <c r="BV42" t="inlineStr">
+        <is>
+          <t>603511.SH; 爱慕股份; 0;  13:00:30; 首板涨停; 15.24;  13:00:30; 10.0%; 1; IP经济+贴身服饰+小红书+电商</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="5" t="n">
@@ -46972,6 +47447,11 @@
           <t>002343.SZ; 慈文传媒; 1;  13:01:24; 首板涨停; 7.07;  13:00:48; 10.0%; 1; 传媒+Rokid合作+影视IP+国企</t>
         </is>
       </c>
+      <c r="BV43" t="inlineStr">
+        <is>
+          <t>300738.SZ; 奥飞数据; 0;  13:05:54; 首板涨停; 19.92;  13:05:54; 20.0%; 1; 数据中心+运营商、互联网合作</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="5" t="n">
@@ -47227,6 +47707,11 @@
           <t>605128.SH; 上海沿浦; 0;  13:01:24; 首板涨停; 44.73;  13:01:24; 10.0%; 1; 年报预增+特斯拉概念+华为汽车+新能源汽车</t>
         </is>
       </c>
+      <c r="BV44" t="inlineStr">
+        <is>
+          <t>002273.SZ; 水晶光电; 4;  13:06:39; 首板涨停; 25.19;  09:53:15; 10.0%; 1; AR眼镜+果链+华为汽车</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="5" t="n">
@@ -47467,6 +47952,11 @@
           <t>002535.SZ; 林州重机; 0;  13:04:42; 首板涨停; 4.28;  13:04:42; 10.0%; 1; 机器人+军工+煤矿机械</t>
         </is>
       </c>
+      <c r="BV45" t="inlineStr">
+        <is>
+          <t>002795.SZ; 永和智控; 0;  13:08:03; 首板涨停; 5.47;  13:08:03; 10.1%; 1; 阀门+民营医院+肿瘤放射治疗+外销</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="5" t="n">
@@ -47702,6 +48192,11 @@
           <t>600480.SH; 凌云股份; 0;  13:08:01; 首板涨停; 16.56;  13:08:01; 10.0%; 1; 拟投建海外基地+液冷服务器+传感器（可应用于机器人）+中兵系</t>
         </is>
       </c>
+      <c r="BV46" t="inlineStr">
+        <is>
+          <t>002990.SZ; 盛视科技; 0;  13:13:00; 首板涨停; 30.64;  13:13:00; 10.0%; 1; 智慧口岸+机器人+华为昇腾+DeepSeek概念</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="5" t="n">
@@ -47927,6 +48422,11 @@
           <t>603926.SH; 铁流股份; 0;  13:10:58; 首板涨停; 10.67;  13:10:58; 10.0%; 1; 汽车传动系统+电机轴</t>
         </is>
       </c>
+      <c r="BV47" t="inlineStr">
+        <is>
+          <t>002025.SZ; 航天电器; 0;  13:36:09; 首板涨停; 49.48;  13:36:09; 10.0%; 1; 电机+连接器+央企</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="5" t="n">
@@ -48152,6 +48652,11 @@
           <t>603319.SH; 湘油泵; 12;  13:12:34; 首板涨停; 35.64;  09:50:04; 10.0%; 1; 飞行汽车+比亚迪+机器人概念+无人驾驶</t>
         </is>
       </c>
+      <c r="BV48" t="inlineStr">
+        <is>
+          <t>605286.SH; 同力日升; 0;  13:38:04; 首板涨停; 36;  13:38:04; 10.0%; 1; 算力中心能源管理方案+储能+电梯</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="5" t="n">
@@ -48372,6 +48877,11 @@
           <t>300488.SZ; 恒锋工具; 0;  13:12:39; 首板涨停; 38.5;  13:12:39; 20.0%; 1; 机器人+减速器+精密复杂刃量具</t>
         </is>
       </c>
+      <c r="BV49" t="inlineStr">
+        <is>
+          <t>600193.SH; 创兴资源; 0;  13:39:49; 首板涨停; 4.06;  13:39:49; 10.0%; 1; 算力+稀土永磁+建筑装饰</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="5" t="n">
@@ -48592,6 +49102,11 @@
           <t>002046.SZ; 国机精工; 0;  13:13:00; 首板涨停; 15.13;  13:13:00; 10.0%; 1; 机器人+航空航天+轴承+央企</t>
         </is>
       </c>
+      <c r="BV50" t="inlineStr">
+        <is>
+          <t>002722.SZ; 物产金轮; 4;  13:45:45; 首板涨停; 17.45;  09:30:09; 10.0%; 1; AI音乐+特种钢丝+国企改革</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="5" t="n">
@@ -48802,6 +49317,11 @@
           <t>002357.SZ; 富临运业; 0;  13:15:21; 首板涨停; 8.23;  13:15:21; 10.0%; 1; 汽车客运服务+网约车+车联网+卫星导航</t>
         </is>
       </c>
+      <c r="BV51" t="inlineStr">
+        <is>
+          <t>002224.SZ; 三力士; 2;  13:57:00; 首板涨停; 4.69;  09:55:57; 10.1%; 1; 橡胶+拟收购捷克MSR公司</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="5" t="n">
@@ -48992,6 +49512,11 @@
           <t>603489.SH; 八方股份; 0;  13:25:44; 首板涨停; 24.61;  13:25:44; 10.0%; 1; 力矩传感器+电踏车电机+锂电池</t>
         </is>
       </c>
+      <c r="BV52" t="inlineStr">
+        <is>
+          <t>603127.SH; 昭衍新药; 0;  14:01:28; 首板涨停; 20.9;  14:01:28; 10.0%; 1; CRO+创新药+AI辅助诊断技术</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="5" t="n">
@@ -49177,6 +49702,11 @@
           <t>301398.SZ; 星源卓镁; 1;  13:31:24; 首板涨停; 61.2;  10:28:00; 20.0%; 1; 镁/铝合金压铸产品+特斯拉+小鹏汇天</t>
         </is>
       </c>
+      <c r="BV53" t="inlineStr">
+        <is>
+          <t>002219.SZ; 新里程; 1;  14:01:54; 首板涨停; 3;  13:50:42; 9.9%; 1; AI医疗+拟收购股权+民营医院+养老</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="5" t="n">
@@ -49347,6 +49877,11 @@
           <t>002593.SZ; 日上集团; 4;  13:31:27; 首板涨停; 5.78;  10:35:15; 10.1%; 1; 汽车车轮+大基建+比亚迪</t>
         </is>
       </c>
+      <c r="BV54" t="inlineStr">
+        <is>
+          <t>300622.SZ; 博士眼镜; 3;  14:02:39; 首板涨停; 54.11;  10:13:57; 20.0%; 1; AI眼镜+眼镜零售</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="5" t="n">
@@ -49517,6 +50052,11 @@
           <t>300100.SZ; 双林股份; 1;  13:31:42; 首板涨停; 42.84;  13:05:45; 20.0%; 1; 人形机器人+PEEK材料+特斯拉概念+汽车零部件</t>
         </is>
       </c>
+      <c r="BV55" t="inlineStr">
+        <is>
+          <t>002149.SZ; 西部材料; 0;  14:03:00; 首板涨停; 19.33;  14:03:00; 10.0%; 1; 可控核聚变+稀有金属材料+西部大开发+国企</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="5" t="n">
@@ -49677,6 +50217,11 @@
           <t>002541.SZ; 鸿路钢构; 0;  13:34:00; 首板涨停; 18.43;  13:34:00; 10.0%; 1; 机器人+光伏+钢结构+装配式建筑</t>
         </is>
       </c>
+      <c r="BV56" t="inlineStr">
+        <is>
+          <t>300543.SZ; 朗科智能; 2;  14:04:00; 首板涨停; 14.06;  13:23:48; 20.0%; 1; 机器人概念+智能控制器+汽车电子+年报预增</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="5" t="n">
@@ -49837,6 +50382,11 @@
           <t>002913.SZ; 奥士康; 0;  13:34:39; 首板涨停; 31.6;  13:34:39; 10.0%; 1; PCB+AIPC+华为+英伟达</t>
         </is>
       </c>
+      <c r="BV57" t="inlineStr">
+        <is>
+          <t>600316.SH; 洪都航空; 1;  14:08:28; 首板涨停; 34.9;  13:51:52; 10.0%; 1; 中航系+低空经济+军工+C919</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="5" t="n">
@@ -49987,6 +50537,11 @@
           <t>601921.SH; 浙版传媒; 0;  13:53:02; 首板涨停; 8.77;  13:53:02; 10.0%; 1; 《黑神话：悟空》出版方+出版+短剧+在线教育</t>
         </is>
       </c>
+      <c r="BV58" t="inlineStr">
+        <is>
+          <t>002733.SZ; 雄韬股份; 0;  14:11:42; 首板涨停; 18.05;  14:11:42; 10.0%; 1; 数据中心+氢燃料电池+钠离子电池</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="5" t="n">
@@ -50132,6 +50687,11 @@
           <t>002896.SZ; 中大力德; 18;  13:56:12; 首板涨停; 80.64;  09:52:00; 10.0%; 1; 机器人+减速器+电机</t>
         </is>
       </c>
+      <c r="BV59" t="inlineStr">
+        <is>
+          <t>002068.SZ; 黑猫股份; 0;  14:25:57; 首板涨停; 12.52;  14:25:57; 10.0%; 1; 炭黑（橡胶工业原料）+锂电池+国企</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="5" t="n">
@@ -50267,6 +50827,11 @@
           <t>605376.SH; 博迁新材; 4;  13:57:01; 首板涨停; 35.41;  13:11:10; 10.0%; 1; 电子专用高端金属粉体材料+纳米材料+MLCC上游+锂电池</t>
         </is>
       </c>
+      <c r="BV60" t="inlineStr">
+        <is>
+          <t>603179.SH; 新泉股份; 3;  14:26:36; 首板涨停; 54.8;  14:24:18; 10.0%; 1; 汽车零部件+特斯拉</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="5" t="n">
@@ -50392,6 +50957,11 @@
           <t>002937.SZ; 兴瑞科技; 0;  14:00:45; 首板涨停; 20;  14:00:45; 10.0%; 1; 精密嵌件成型+精密零组件+无人驾驶+汽车电子</t>
         </is>
       </c>
+      <c r="BV61" t="inlineStr">
+        <is>
+          <t>301101.SZ; 明月镜片; 4;  14:29:39; 首板涨停; 55.63;  10:14:51; 20.0%; 1; AI眼镜+镜片+小米</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="5" t="n">
@@ -50517,6 +51087,11 @@
           <t>603501.SH; 韦尔股份; 0;  14:02:44; 首板涨停; 157.96;  14:02:44; 10.0%; 1; 图像传感器+受益于比亚迪自动驾驶及消费电子</t>
         </is>
       </c>
+      <c r="BV62" t="inlineStr">
+        <is>
+          <t>002636.SZ; 金安国纪; 0;  14:39:09; 首板涨停; 10.04;  14:39:09; 10.0%; 1; 覆铜板+PCB</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="5" t="n">
@@ -50642,6 +51217,11 @@
           <t>002870.SZ; 香山股份; 1;  14:05:03; 首板涨停; 37.49;  13:14:09; 10.0%; 1; 人形机器人+汽车零部件+控股股东拟变更为均胜电子</t>
         </is>
       </c>
+      <c r="BV63" t="inlineStr">
+        <is>
+          <t>600797.SH; 浙大网新; 2;  14:44:05; 首板涨停; 10.35;  14:38:39; 10.0%; 1; 云计算+DeepSeek概念+阿里+腾讯</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="5" t="n">
@@ -50752,6 +51332,11 @@
           <t>300491.SZ; 通合科技; 0;  14:11:48; 首板涨停; 23.94;  14:11:48; 20.0%; 1; 电源管理+智能电网+充电桩</t>
         </is>
       </c>
+      <c r="BV64" t="inlineStr">
+        <is>
+          <t>002801.SZ; 微光股份; 0;  14:44:36; 首板涨停; 33.26;  14:44:36; 10.0%; 1; 人形机器人+电机</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="5" t="n">
@@ -50852,6 +51437,11 @@
           <t>002664.SZ; 信质集团; 1;  14:13:45; 首板涨停; 19.28;  14:08:36; 10.0%; 1; 汽车电机+人形机器人+华为+无人机</t>
         </is>
       </c>
+      <c r="BV65" t="inlineStr">
+        <is>
+          <t>002272.SZ; 川润股份; 0;  14:48:54; 首板涨停; 10.97;  14:48:54; 10.0%; 1; 液冷服务器+华为+风电</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="5" t="n">
@@ -50950,6 +51540,11 @@
       <c r="BU66" t="inlineStr">
         <is>
           <t>001380.SZ; 华纬科技; 0;  14:15:06; 首板涨停; 27.71;  14:15:06; 10.0%; 1; 拟投建墨西哥生产基地项目+机器人+汽车零部件+弹簧</t>
+        </is>
+      </c>
+      <c r="BV66" t="inlineStr">
+        <is>
+          <t>601566.SH; 九牧王; 1;  14:54:10; 首板涨停; 8.81;  14:16:40; 10.0%; 1; 男装+IP经济</t>
         </is>
       </c>
     </row>
@@ -53184,7 +53779,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BU50"/>
+  <dimension ref="A1:BV50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53553,6 +54148,11 @@
           <t>2025年02月19日</t>
         </is>
       </c>
+      <c r="BV1" s="5" t="inlineStr">
+        <is>
+          <t>2025年02月20日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="5" t="n">
@@ -53914,6 +54514,11 @@
           <t>600421.SH; 华嵘控股; 10.0%; 13.5%; 8.55; 2.2%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="BV2" t="inlineStr">
+        <is>
+          <t>000856.SZ; 冀东装备; 2.9%; 13.2%; 16.86; 10.0%; 强中选强||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="n">
@@ -54275,6 +54880,11 @@
           <t>300478.SZ; 杭州高新; 8.5%; 19.3%; 17.69; 9.2%; 阳线||放量||价升量缩</t>
         </is>
       </c>
+      <c r="BV3" t="inlineStr">
+        <is>
+          <t>300817.SZ; 双飞集团; 2.3%; 22.8%; 23.1; 20.0%; 阳线||放量||价升量缩</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="5" t="n">
@@ -54612,6 +55222,11 @@
           <t>002123.SZ; 梦网科技; 8.2%; 14.2%; 19.42; 4.9%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="BV4" t="inlineStr">
+        <is>
+          <t>301336.SZ; 趣睡科技; 0.5%; 20.6%; 69.96; 20.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="n">
@@ -54933,6 +55548,11 @@
           <t>603917.SH; 合力科技; 5.0%; 15.8%; 14.96; 10.0%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="BV5" t="inlineStr">
+        <is>
+          <t>300246.SZ; 宝莱特; 0.3%; 20.3%; 8.29; 20.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="5" t="n">
@@ -55242,6 +55862,11 @@
           <t>000710.SZ; 贝瑞基因; 4.5%; 15.2%; 12.67; 10.0%; 价升量涨||强中选强||阳线</t>
         </is>
       </c>
+      <c r="BV6" t="inlineStr">
+        <is>
+          <t>300019.SZ; 硅宝科技; 0.2%; 20.2%; 18.32; 20.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="n">
@@ -55535,6 +56160,7 @@
           <t>603130.SH; 云中马; 2.8%; 13.1%; 29.7; 10.0%; 阳线||放量||价升量缩</t>
         </is>
       </c>
+      <c r="BV7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="5" t="n">
@@ -55808,6 +56434,7 @@
           <t>300766.SZ; 每日互动; 2.2%; 20.5%; 69.38; 17.8%; 价升量涨||强中选强||阳线</t>
         </is>
       </c>
+      <c r="BV8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="5" t="n">
@@ -56065,6 +56692,7 @@
           <t>002913.SZ; 奥士康; 2.2%; 12.5%; 31.6; 10.0%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="BV9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="5" t="n">
@@ -56298,6 +56926,7 @@
           <t>300258.SZ; 精锻科技; 2.0%; 12.3%; 13.27; 10.0%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="BV10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="5" t="n">
@@ -56515,6 +57144,7 @@
           <t>600498.SH; 烽火通信; 1.9%; 12.1%; 27.93; 10.0%; 阳线||放量||价升量缩</t>
         </is>
       </c>
+      <c r="BV11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="5" t="n">
@@ -56700,6 +57330,7 @@
           <t>301550.SZ; 斯菱股份; 1.8%; 17.7%; 129.43; 15.6%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="BV12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="5" t="n">
@@ -56869,6 +57500,7 @@
           <t>301325.SZ; 曼恩斯特; 1.6%; 13.6%; 67.86; 11.8%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="BV13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="5" t="n">
@@ -57030,6 +57662,7 @@
           <t>300918.SZ; 南山智尚; 1.4%; 14.6%; 15.89; 13.0%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="BV14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="5" t="n">
@@ -57183,6 +57816,7 @@
           <t>300491.SZ; 通合科技; 1.3%; 21.6%; 23.94; 20.0%; 价升量涨||强中选强||阳线</t>
         </is>
       </c>
+      <c r="BV15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="5" t="n">
@@ -57332,6 +57966,7 @@
           <t>300585.SZ; 奥联电子; 1.0%; 13.3%; 17.65; 12.1%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="BV16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="5" t="n">
@@ -57473,6 +58108,7 @@
           <t>300382.SZ; 斯莱克; 1.0%; 18.3%; 15.29; 17.2%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="BV17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="5" t="n">
@@ -57610,6 +58246,7 @@
           <t>300580.SZ; 贝斯特; 1.0%; 13.5%; 31.78; 12.4%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="BV18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="5" t="n">
@@ -57739,6 +58376,7 @@
           <t>300488.SZ; 恒锋工具; 0.9%; 21.1%; 38.5; 20.0%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="BV19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="5" t="n">
@@ -57868,6 +58506,7 @@
           <t>301413.SZ; 安培龙; 0.8%; 13.6%; 99.99; 12.7%; 价升量涨||强中选强||阳线</t>
         </is>
       </c>
+      <c r="BV20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="5" t="n">
@@ -57997,6 +58636,7 @@
           <t>301261.SZ; 恒工精密; 0.7%; 14.4%; 65.93; 13.6%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="BV21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="5" t="n">
@@ -58118,6 +58758,7 @@
           <t>301196.SZ; 唯科科技; 0.6%; 19.0%; 42.45; 18.2%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="BV22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="5" t="n">
@@ -58235,6 +58876,7 @@
           <t>300432.SZ; 富临精工; 0.4%; 12.5%; 18.53; 12.1%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="BV23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="5" t="n">
@@ -58348,6 +58990,7 @@
           <t>300680.SZ; 隆盛科技; 0.3%; 17.4%; 38.89; 17.0%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="BV24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="5" t="n">
@@ -58457,6 +59100,7 @@
           <t>300718.SZ; 长盛轴承; 0.1%; 20.2%; 98.77; 20.0%; 阳线||放量||价升量缩</t>
         </is>
       </c>
+      <c r="BV25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="5" t="n">
@@ -58558,6 +59202,7 @@
           <t>300553.SZ; 集智股份; 0.1%; 12.2%; 33.4; 12.1%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="BV26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="5" t="n">
@@ -58659,6 +59304,7 @@
           <t>300607.SZ; 拓斯达; 0.0%; 13.0%; 35.49; 12.9%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="BV27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="5" t="n">
@@ -58760,6 +59406,7 @@
           <t>301525.SZ; 儒竞科技; 0.0%; 13.3%; 77.3; 13.2%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="BV28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="5" t="n">
@@ -58857,6 +59504,7 @@
       <c r="BS29" t="inlineStr"/>
       <c r="BT29" t="inlineStr"/>
       <c r="BU29" t="inlineStr"/>
+      <c r="BV29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="5" t="n">
@@ -58950,6 +59598,7 @@
       <c r="BS30" t="inlineStr"/>
       <c r="BT30" t="inlineStr"/>
       <c r="BU30" t="inlineStr"/>
+      <c r="BV30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="5" t="n">
@@ -59043,6 +59692,7 @@
       <c r="BS31" t="inlineStr"/>
       <c r="BT31" t="inlineStr"/>
       <c r="BU31" t="inlineStr"/>
+      <c r="BV31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="5" t="n">
@@ -59136,6 +59786,7 @@
       <c r="BS32" t="inlineStr"/>
       <c r="BT32" t="inlineStr"/>
       <c r="BU32" t="inlineStr"/>
+      <c r="BV32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="5" t="n">
@@ -59229,6 +59880,7 @@
       <c r="BS33" t="inlineStr"/>
       <c r="BT33" t="inlineStr"/>
       <c r="BU33" t="inlineStr"/>
+      <c r="BV33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="5" t="n">
@@ -59314,6 +59966,7 @@
       <c r="BS34" t="inlineStr"/>
       <c r="BT34" t="inlineStr"/>
       <c r="BU34" t="inlineStr"/>
+      <c r="BV34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="5" t="n">
@@ -59399,6 +60052,7 @@
       <c r="BS35" t="inlineStr"/>
       <c r="BT35" t="inlineStr"/>
       <c r="BU35" t="inlineStr"/>
+      <c r="BV35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="5" t="n">
@@ -59484,6 +60138,7 @@
       <c r="BS36" t="inlineStr"/>
       <c r="BT36" t="inlineStr"/>
       <c r="BU36" t="inlineStr"/>
+      <c r="BV36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="5" t="n">
@@ -59569,6 +60224,7 @@
       <c r="BS37" t="inlineStr"/>
       <c r="BT37" t="inlineStr"/>
       <c r="BU37" t="inlineStr"/>
+      <c r="BV37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="5" t="n">
@@ -59654,6 +60310,7 @@
       <c r="BS38" t="inlineStr"/>
       <c r="BT38" t="inlineStr"/>
       <c r="BU38" t="inlineStr"/>
+      <c r="BV38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="5" t="n">
@@ -59739,6 +60396,7 @@
       <c r="BS39" t="inlineStr"/>
       <c r="BT39" t="inlineStr"/>
       <c r="BU39" t="inlineStr"/>
+      <c r="BV39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="5" t="n">
@@ -59824,6 +60482,7 @@
       <c r="BS40" t="inlineStr"/>
       <c r="BT40" t="inlineStr"/>
       <c r="BU40" t="inlineStr"/>
+      <c r="BV40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="5" t="n">
@@ -59909,6 +60568,7 @@
       <c r="BS41" t="inlineStr"/>
       <c r="BT41" t="inlineStr"/>
       <c r="BU41" t="inlineStr"/>
+      <c r="BV41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="5" t="n">
@@ -59990,6 +60650,7 @@
       <c r="BS42" t="inlineStr"/>
       <c r="BT42" t="inlineStr"/>
       <c r="BU42" t="inlineStr"/>
+      <c r="BV42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="5" t="n">
@@ -60071,6 +60732,7 @@
       <c r="BS43" t="inlineStr"/>
       <c r="BT43" t="inlineStr"/>
       <c r="BU43" t="inlineStr"/>
+      <c r="BV43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="5" t="n">
@@ -60152,6 +60814,7 @@
       <c r="BS44" t="inlineStr"/>
       <c r="BT44" t="inlineStr"/>
       <c r="BU44" t="inlineStr"/>
+      <c r="BV44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="5" t="n">
@@ -60233,6 +60896,7 @@
       <c r="BS45" t="inlineStr"/>
       <c r="BT45" t="inlineStr"/>
       <c r="BU45" t="inlineStr"/>
+      <c r="BV45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="5" t="n">
@@ -60314,6 +60978,7 @@
       <c r="BS46" t="inlineStr"/>
       <c r="BT46" t="inlineStr"/>
       <c r="BU46" t="inlineStr"/>
+      <c r="BV46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="5" t="n">
@@ -60395,6 +61060,7 @@
       <c r="BS47" t="inlineStr"/>
       <c r="BT47" t="inlineStr"/>
       <c r="BU47" t="inlineStr"/>
+      <c r="BV47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="5" t="n">
@@ -60476,6 +61142,7 @@
       <c r="BS48" t="inlineStr"/>
       <c r="BT48" t="inlineStr"/>
       <c r="BU48" t="inlineStr"/>
+      <c r="BV48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="5" t="n">
@@ -60557,6 +61224,7 @@
       <c r="BS49" t="inlineStr"/>
       <c r="BT49" t="inlineStr"/>
       <c r="BU49" t="inlineStr"/>
+      <c r="BV49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="5" t="n">
@@ -60638,6 +61306,7 @@
       <c r="BS50" t="inlineStr"/>
       <c r="BT50" t="inlineStr"/>
       <c r="BU50" t="inlineStr"/>
+      <c r="BV50" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/excel/fupan_stocks.xlsx
+++ b/excel/fupan_stocks.xlsx
@@ -470,7 +470,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BV65"/>
+  <dimension ref="A1:BW65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -844,6 +844,11 @@
           <t>2025年02月20日</t>
         </is>
       </c>
+      <c r="BW1" s="5" t="inlineStr">
+        <is>
+          <t>2025年02月21日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="5" t="n">
@@ -1214,6 +1219,11 @@
           <t>002343.SZ; 慈文传媒; 0;  09:25:00; 2天2板; 7.78;  09:25:00; 10.0%; 2; Rokid合作+传媒+影视IP+国企</t>
         </is>
       </c>
+      <c r="BW2" t="inlineStr">
+        <is>
+          <t>002343.SZ; 慈文传媒; 0;  09:30:00; 3天3板; 8.56;  09:30:00; 10.0%; 3; Rokid合作+传媒+影视IP+国企</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="n">
@@ -1584,6 +1594,11 @@
           <t>002369.SZ; 卓翼科技; 0;  09:25:00; 2天2板; 9.41;  09:25:00; 10.1%; 2; AR智能眼镜+消费电子+小米概念+机器人</t>
         </is>
       </c>
+      <c r="BW3" t="inlineStr">
+        <is>
+          <t>002126.SZ; 银轮股份; 0;  09:30:00; 3天2板; 30.25;  09:30:00; 10.0%; 1; 机器人散热+算力液冷散热系统+汽车热管理+比亚迪概念</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="5" t="n">
@@ -1954,6 +1969,11 @@
           <t>601921.SH; 浙版传媒; 0;  09:25:00; 2天2板; 9.65;  09:25:00; 10.0%; 2; 投资Rokid+《黑神话：悟空》出版方+短剧+在线教育</t>
         </is>
       </c>
+      <c r="BW4" t="inlineStr">
+        <is>
+          <t>002527.SZ; 新时达; 0;  09:30:00; 5天5板; 16.36;  09:30:00; 10.0%; 5; 海尔入主+机器人+电梯</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="n">
@@ -2324,6 +2344,11 @@
           <t>002599.SZ; 盛通股份; 0;  09:25:00; 2天2板; 11.1;  09:25:00; 10.0%; 2; 人形机器人+宇树科技合作+教育+鸿蒙</t>
         </is>
       </c>
+      <c r="BW5" t="inlineStr">
+        <is>
+          <t>002929.SZ; 润建股份; 0;  09:30:00; 10天7板; 68.46;  09:30:00; 10.0%; 3; 阿里云+部署DeepSeek+算力</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="5" t="n">
@@ -2694,6 +2719,11 @@
           <t>002527.SZ; 新时达; 0;  09:25:00; 4天4板; 14.87;  09:25:00; 10.0%; 4; 海尔入主+机器人+电梯</t>
         </is>
       </c>
+      <c r="BW6" t="inlineStr">
+        <is>
+          <t>002522.SZ; 浙江众成; 0;  09:30:00; 3天3板; 5.48;  09:30:00; 10.0%; 3; 热塑性弹性体+成人玩具材料+浙江国资</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="n">
@@ -3064,6 +3094,11 @@
           <t>600143.SH; 金发科技; 0;  09:25:00; 2天2板; 12.36;  09:25:00; 10.0%; 2; 机器人+PEEK材料+改性塑料龙头+年报预增</t>
         </is>
       </c>
+      <c r="BW7" t="inlineStr">
+        <is>
+          <t>002369.SZ; 卓翼科技; 1;  09:30:45; 3天3板; 10.35;  09:30:00; 10.0%; 3; AR智能眼镜+机器人+消费电子+小米概念</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="5" t="n">
@@ -3434,6 +3469,11 @@
           <t>002522.SZ; 浙江众成; 0;  09:25:00; 2天2板; 4.98;  09:25:00; 9.9%; 2; 热塑性弹性体+成人玩具材料+浙江国资</t>
         </is>
       </c>
+      <c r="BW8" t="inlineStr">
+        <is>
+          <t>002838.SZ; 道恩股份; 1;  09:32:30; 2天2板; 14.36;  09:30:00; 10.0%; 2; 热塑性弹性体+机器人+汽车家电</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="n">
@@ -3804,6 +3844,11 @@
           <t>601177.SH; 杭齿前进; 0;  09:25:02; 7天7板; 18.06;  09:25:02; 10.0%; 7; 人形机器人+齿轮传动+化债（AMC概念）+杭州国资</t>
         </is>
       </c>
+      <c r="BW9" t="inlineStr">
+        <is>
+          <t>600590.SH; 泰豪科技; 2;  09:33:15; 5天4板; 8.36;  09:30:00; 10.0%; 3; 数据中心发电机+机器狗+军工+混改/重组经验丰富</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="5" t="n">
@@ -4174,6 +4219,11 @@
           <t>605255.SH; 天普股份; 0;  09:25:03; 3天3板; 18.44;  09:25:03; 10.0%; 3; 汽车胶管+密封系统零件+汽车零部件</t>
         </is>
       </c>
+      <c r="BW10" t="inlineStr">
+        <is>
+          <t>002272.SZ; 川润股份; 2;  09:54:45; 2天2板; 12.07;  09:51:30; 10.0%; 2; 液冷服务器+华为+风电</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="5" t="n">
@@ -4544,6 +4594,11 @@
           <t>002290.SZ; 禾盛新材; 0;  09:30:12; 3天3板; 24.06;  09:30:12; 10.0%; 3; DeepSeek概念+商汤合作+家电零部件+文化传媒</t>
         </is>
       </c>
+      <c r="BW11" t="inlineStr">
+        <is>
+          <t>603881.SH; 数据港; 1;  10:01:00; 10天6板; 40.37;  09:30:00; 10.0%; 1; 数据中心+阿里巴巴+腾讯概念+上海国资</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="5" t="n">
@@ -4914,6 +4969,11 @@
           <t>002929.SZ; 润建股份; 0;  09:32:33; 9天6板; 62.24;  09:32:33; 10.0%; 2; 阿里云+部署DeepSeek+算力</t>
         </is>
       </c>
+      <c r="BW12" t="inlineStr">
+        <is>
+          <t>300817.SZ; 双飞集团; 2;  10:09:15; 2天2板; 27.72;  09:39:15; 20.0%; 2; 机器人+自润滑轴承+特斯拉</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="5" t="n">
@@ -5274,6 +5334,11 @@
           <t>600590.SH; 泰豪科技; 1;  09:37:05; 4天3板; 7.6;  09:35:38; 10.0%; 2; 数据中心发电机+机器狗+军工+混改/重组经验丰富</t>
         </is>
       </c>
+      <c r="BW13" t="inlineStr">
+        <is>
+          <t>001306.SZ; 夏厦精密; 2;  10:10:30; 2天2板; 85.5;  10:06:30; 10.0%; 2; 人形机器人+减速器+比亚迪</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="5" t="n">
@@ -5634,6 +5699,11 @@
           <t>002524.SZ; 光正眼科; 0;  09:38:18; 5天3板; 4.57;  09:38:18; 10.1%; 1; 眼科医疗+全飞秒+探索AI技术应用</t>
         </is>
       </c>
+      <c r="BW14" t="inlineStr">
+        <is>
+          <t>002664.SZ; 信质集团; 0;  10:17:00; 3天2板; 21.08;  10:17:00; 10.0%; 1; 汽车电机+人形机器人+华为+无人机</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="5" t="n">
@@ -5989,6 +6059,11 @@
           <t>605488.SH; 福莱新材; 5;  09:49:09; 8天5板; 57.12;  09:43:45; 10.0%; 2; 机器人+灵巧手+柔性传感器</t>
         </is>
       </c>
+      <c r="BW15" t="inlineStr">
+        <is>
+          <t>600126.SH; 杭钢股份; 1;  10:21:45; 13天10板; 12.27;  10:21:00; 10.0%; 1; 云计算+DeepSeek概念+钢铁+浙江国资</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="5" t="n">
@@ -6324,6 +6399,11 @@
           <t>600678.SH; 四川金顶; 1;  10:04:32; 4天4板; 9.59;  09:25:02; 10.0%; 4; DeepSeek概念+机器人+氢能源+子公司近期竞得采矿权</t>
         </is>
       </c>
+      <c r="BW16" t="inlineStr">
+        <is>
+          <t>000967.SZ; 盈峰环境; 4;  10:27:45; 5天4板; 6.88;  10:09:30; 10.1%; 2; 机器人+智慧环卫+云计算</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="5" t="n">
@@ -6639,6 +6719,11 @@
           <t>600376.SH; 首开股份; 0;  10:04:37; 2天2板; 2.87;  10:04:37; 10.0%; 2; 房地产+北京国资</t>
         </is>
       </c>
+      <c r="BW17" t="inlineStr">
+        <is>
+          <t>603300.SH; 海南华铁; 1;  10:28:45; 12天7板; 9.98;  09:32:30; 10.0%; 1; 算力+低空经济+海南国资</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="5" t="n">
@@ -6944,6 +7029,11 @@
           <t>000818.SZ; 航锦科技; 9;  10:25:45; 13天10板; 42.96;  09:44:03; 10.0%; 2; 幻方合作+算力+英伟达+国企</t>
         </is>
       </c>
+      <c r="BW18" t="inlineStr">
+        <is>
+          <t>600602.SH; 云赛智联; 1;  11:26:16; 6天4板; 24.28;  11:24:13; 10.0%; 1; 国资云+阿里+腾讯+Deepseek概念</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="5" t="n">
@@ -7244,6 +7334,11 @@
           <t>000516.SZ; 国际医学; 1;  10:28:42; 2天2板; 6.64;  09:33:27; 9.9%; 2; 智能医疗+阿里+民营医院</t>
         </is>
       </c>
+      <c r="BW19" t="inlineStr">
+        <is>
+          <t>002261.SZ; 拓维信息; 0;  13:00:19; 13天8板; 41.76;  13:00:19; 10.0%; 1; 昇腾大模型一体机+鸿蒙+蚂蚁金服+信创</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="5" t="n">
@@ -7519,6 +7614,11 @@
           <t>300276.SZ; 三丰智能; 3;  10:35:48; 2天2板; 14.59;  09:51:39; 20.0%; 2; 人形机器人+特斯拉+运输设备</t>
         </is>
       </c>
+      <c r="BW20" t="inlineStr">
+        <is>
+          <t>002979.SZ; 雷赛智能; 0;  13:32:22; 3天2板; 53.86;  13:32:22; 10.0%; 1; 人形机器人+运动控制产品+华为</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="5" t="n">
@@ -7784,6 +7884,11 @@
           <t>603315.SH; 福鞍股份; 0;  13:04:38; 4天3板; 14.83;  13:04:38; 10.0%; 2; 算力+锂电池+大型铸钢件</t>
         </is>
       </c>
+      <c r="BW21" t="inlineStr">
+        <is>
+          <t>601177.SH; 杭齿前进; 16;  13:46:49; 8天8板; 19.87;  09:30:45; 10.0%; 8; 人形机器人+齿轮传动+化债（AMC概念）+杭州国资</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="5" t="n">
@@ -8029,6 +8134,11 @@
           <t>000856.SZ; 冀东装备; 0;  13:12:12; 18天12板; 16.86;  13:12:12; 10.0%; 4; 机器人+水泥装备+北京国资</t>
         </is>
       </c>
+      <c r="BW22" t="inlineStr">
+        <is>
+          <t>605376.SH; 博迁新材; 3;  13:48:04; 3天3板; 42.85;  09:54:15; 10.0%; 3; 电子专用高端金属粉体材料+纳米材料+MLCC上游+锂电池</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="5" t="n">
@@ -8264,6 +8374,11 @@
           <t>002896.SZ; 中大力德; 0;  13:18:12; 2天2板; 88.7;  13:18:12; 10.0%; 2; 机器人+减速器+电机</t>
         </is>
       </c>
+      <c r="BW23" t="inlineStr">
+        <is>
+          <t>002990.SZ; 盛视科技; 3;  13:54:20; 2天2板; 33.7;  10:35:33; 10.0%; 2; 智慧口岸+机器人+华为昇腾+DeepSeek概念</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="5" t="n">
@@ -8484,6 +8599,11 @@
           <t>000967.SZ; 盈峰环境; 0;  13:46:18; 4天3板; 6.25;  13:46:18; 10.0%; 1; 机器人+智慧环卫+云计算</t>
         </is>
       </c>
+      <c r="BW24" t="inlineStr">
+        <is>
+          <t>600835.SH; 上海机电; 2;  13:58:19; 2天2板; 23.28;  10:25:45; 10.0%; 2; 机器人+拟收购上海电气旗下资产+控股股东为上海电气+电梯</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="5" t="n">
@@ -8704,6 +8824,11 @@
           <t>002065.SZ; 东华软件; 5;  14:52:51; 4天4板; 13.72;  09:46:09; 10.0%; 4; 腾讯+DeepSeek概念+数字基础设施建设</t>
         </is>
       </c>
+      <c r="BW25" t="inlineStr">
+        <is>
+          <t>002599.SZ; 盛通股份; 6;  14:00:20; 3天3板; 12.21;  09:30:00; 10.0%; 3; 人形机器人+宇树科技合作+教育+鸿蒙</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="5" t="n">
@@ -8919,6 +9044,11 @@
           <t>002058.SZ; 威尔泰; 22;  14:52:57; 4天4板; 13.65;  09:30:33; 10.0%; 4; 筹划重大资产重组+汽车检具+特斯拉</t>
         </is>
       </c>
+      <c r="BW26" t="inlineStr">
+        <is>
+          <t>600187.SH; 国中水务; 5;  14:45:36; 3天2板; 3.75;  13:28:04; 10.0%; 1; 出售污水处理业务+拟控股北京汇源</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="5" t="n">
@@ -9124,6 +9254,11 @@
           <t>603130.SH; 云中马; 1;  14:56:57; 2天2板; 32.67;  14:35:33; 10.0%; 2; 超高分子量聚乙烯+革基布+节能环保</t>
         </is>
       </c>
+      <c r="BW27" t="inlineStr">
+        <is>
+          <t>603956.SH; 威派格; 1;  14:51:54; 9天7板; 10.16;  11:24:13; 10.0%; 1; DeepSeek概念+智慧水务+数据要素+华为鲲鹏</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="5" t="n">
@@ -9319,6 +9454,11 @@
           <t>605376.SH; 博迁新材; 11;  15:00:04; 2天2板; 38.95;  13:34:40; 10.0%; 2; 电子专用高端金属粉体材料+纳米材料+MLCC上游+锂电池</t>
         </is>
       </c>
+      <c r="BW28" t="inlineStr">
+        <is>
+          <t>002896.SZ; 中大力德; 1;  14:55:11; 3天3板; 97.57;  14:54:37; 10.0%; 3; 机器人+减速器+电机</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="5" t="n">
@@ -9497,6 +9637,11 @@
       <c r="BS29" t="inlineStr">
         <is>
           <t>605488.SH; 福莱新材; 0;  14:55:14; 5天3板; 44;  14:55:14; 10.0%; 1; 机器人+灵巧手+柔性传感器</t>
+        </is>
+      </c>
+      <c r="BW29" t="inlineStr">
+        <is>
+          <t>300738.SZ; 奥飞数据; 11;  14:55:11; 2天2板; 23.9;  13:17:16; 20.0%; 2; 数据中心+阿里巴巴</t>
         </is>
       </c>
     </row>
@@ -12411,7 +12556,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BV146"/>
+  <dimension ref="A1:BW146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12783,6 +12928,11 @@
       <c r="BV1" s="5" t="inlineStr">
         <is>
           <t>2025年02月20日</t>
+        </is>
+      </c>
+      <c r="BW1" s="5" t="inlineStr">
+        <is>
+          <t>2025年02月21日</t>
         </is>
       </c>
     </row>
@@ -20657,7 +20807,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BV72"/>
+  <dimension ref="A1:BW72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21031,6 +21181,11 @@
           <t>2025年02月20日</t>
         </is>
       </c>
+      <c r="BW1" s="5" t="inlineStr">
+        <is>
+          <t>2025年02月21日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="5" t="n">
@@ -21401,6 +21556,11 @@
           <t>002620.SZ; 瑞和股份; 1;  09:30:42; 主板; 3.53; 曾涨停; 2.9%; 0.01H;  09:30:42</t>
         </is>
       </c>
+      <c r="BW2" t="inlineStr">
+        <is>
+          <t>600797.SH; 浙大网新; 1;  09:30:00; 主板; 10.61; 曾涨停; 2.5%; 0.38H;  09:30:00</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="n">
@@ -21771,6 +21931,11 @@
           <t>600571.SH; 信雅达; 3;  09:32:03; 主板; 14.82; 曾涨停; 5.4%; 0.39H;  09:32:03|| 09:35:39|| 09:37:06</t>
         </is>
       </c>
+      <c r="BW3" t="inlineStr">
+        <is>
+          <t>002978.SZ; 安宁股份; 1;  09:30:00; 主板; 33.25; 曾涨停; 2.0%; 0.00H;  09:30:00</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="5" t="n">
@@ -22141,6 +22306,11 @@
           <t>600633.SH; 浙数文化; 6;  09:33:24; 主板; 18.66; 曾涨停; 3.7%; 0.36H;  09:33:24|| 09:33:57|| 09:34:54|| 09:36:03|| 09:36:36|| 09:57:12</t>
         </is>
       </c>
+      <c r="BW4" t="inlineStr">
+        <is>
+          <t>002256.SZ; 兆新股份; 1;  09:30:45; 主板; 2.5; 曾涨停; 4.2%; 0.02H;  09:30:45</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="n">
@@ -22511,6 +22681,11 @@
           <t>002173.SZ; 创新医疗; 1;  09:33:39; 主板; 10.88; 曾涨停; 7.2%; 0.78H;  09:33:39</t>
         </is>
       </c>
+      <c r="BW5" t="inlineStr">
+        <is>
+          <t>000156.SZ; 华数传媒; 1;  09:30:45; 主板; 8.88; 曾涨停; 5.5%; 0.05H;  09:30:45</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="5" t="n">
@@ -22881,6 +23056,11 @@
           <t>600222.SH; 太龙药业; 1;  09:35:24; 主板; 5.42; 曾涨停; 3.2%; 0.01H;  09:35:24</t>
         </is>
       </c>
+      <c r="BW6" t="inlineStr">
+        <is>
+          <t>002577.SZ; 雷柏科技; 1;  09:34:15; 主板; 27.08; 曾涨停; 0.8%; 0.00H;  09:34:15</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="n">
@@ -23251,6 +23431,11 @@
           <t>000710.SZ; 贝瑞基因; 2;  09:36:21; 主板; 12.7; 曾涨停; 0.2%; 0.00H;  09:36:21|| 09:36:33</t>
         </is>
       </c>
+      <c r="BW7" t="inlineStr">
+        <is>
+          <t>300249.SZ; 依米康; 1;  09:35:15; 创业板; 20.28; 曾涨停; 8.6%; 0.68H;  09:35:15</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="5" t="n">
@@ -23621,6 +23806,11 @@
           <t>300288.SZ; 朗玛信息; 1;  09:42:21; 创业板; 19.23; 曾涨停; 11.0%; 0.66H;  09:42:21</t>
         </is>
       </c>
+      <c r="BW8" t="inlineStr">
+        <is>
+          <t>003038.SZ; 鑫铂股份; 1;  10:14:30; 主板; 18.93; 曾涨停; 5.3%; 0.31H;  10:14:30</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="n">
@@ -23991,6 +24181,11 @@
           <t>603999.SH; 读者传媒; 1;  09:44:38; 主板; 6.6; 曾涨停; 4.1%; 0.04H;  09:44:38</t>
         </is>
       </c>
+      <c r="BW9" t="inlineStr">
+        <is>
+          <t>002418.SZ; 康盛股份; 3;  10:16:15; 主板; 3.67; 曾涨停; 7.6%; 2.30H;  10:16:15|| 10:28:45|| 13:53:03</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="5" t="n">
@@ -24361,6 +24556,11 @@
           <t>601100.SH; 恒立液压; 3;  09:50:52; 主板; 82.32; 曾涨停; 4.3%; 0.02H;  09:50:52|| 09:52:43|| 09:53:31</t>
         </is>
       </c>
+      <c r="BW10" t="inlineStr">
+        <is>
+          <t>603819.SH; 神力股份; 1;  11:11:24; 主板; 14.89; 曾涨停; 7.8%; 0.84H;  11:11:24</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="5" t="n">
@@ -24726,6 +24926,11 @@
           <t>002489.SZ; 浙江永强; 5;  09:57:42; 主板; 3.6; 曾涨停; 7.1%; 0.40H;  09:57:42|| 09:58:24|| 09:59:12|| 10:00:39|| 10:01:27</t>
         </is>
       </c>
+      <c r="BW11" t="inlineStr">
+        <is>
+          <t>002987.SZ; 京北方; 2;  13:00:04; 主板; 22.46; 曾涨停; 4.8%; 0.12H;  13:00:04|| 13:08:42</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="5" t="n">
@@ -25084,6 +25289,11 @@
       <c r="BV12" t="inlineStr">
         <is>
           <t>000810.SZ; 创维数字; 1;  10:05:09; 主板; 15.57; 曾涨停; 6.6%; 0.03H;  10:05:09</t>
+        </is>
+      </c>
+      <c r="BW12" t="inlineStr">
+        <is>
+          <t>605488.SH; 福莱新材; 1;  14:38:42; 主板; 62.5; 曾涨停; 9.4%; 0.02H;  14:38:42</t>
         </is>
       </c>
     </row>
@@ -33033,7 +33243,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BV128"/>
+  <dimension ref="A1:BW128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33407,6 +33617,11 @@
           <t>2025年02月20日</t>
         </is>
       </c>
+      <c r="BW1" s="5" t="inlineStr">
+        <is>
+          <t>2025年02月21日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="5" t="n">
@@ -33777,6 +33992,11 @@
           <t>001314.SZ; 亿道信息; 0;  09:25:00; 首板涨停; 56.65;  09:25:00; 10.0%; 1; Rokid合作+AR眼镜+AIPC+MR</t>
         </is>
       </c>
+      <c r="BW2" t="inlineStr">
+        <is>
+          <t>300245.SZ; 天玑科技; 0;  09:30:00; 首板涨停; 17.9;  09:30:00; 20.0%; 1; 互联网金融+算力+信创+IT服务</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="n">
@@ -34147,6 +34367,11 @@
           <t>002978.SZ; 安宁股份; 0;  09:25:00; 首板涨停; 32.59;  09:25:00; 10.0%; 1; 筹划重大资产重组+小金属+高股息+钒电池</t>
         </is>
       </c>
+      <c r="BW3" t="inlineStr">
+        <is>
+          <t>002501.SZ; 利源股份; 0;  09:30:00; 首板涨停; 2.07;  09:30:00; 10.1%; 1; 控制权或变更+光伏+工业铝型材+新能源汽车</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="5" t="n">
@@ -34517,6 +34742,11 @@
           <t>603215.SH; 比依股份; 0;  09:30:00; 首板涨停; 20.1;  09:30:00; 10.0%; 1; AI眼镜+小家电+网红经济</t>
         </is>
       </c>
+      <c r="BW4" t="inlineStr">
+        <is>
+          <t>603206.SH; 嘉环科技; 0;  09:30:15; 首板涨停; 20.15;  09:30:15; 10.0%; 1; 算力+阿里+DeepSeek概念+AI智能体</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="n">
@@ -34887,6 +35117,11 @@
           <t>002987.SZ; 京北方; 0;  09:30:00; 首板涨停; 21.44;  09:30:00; 10.0%; 1; DeepSeek概念+金融科技+鸿蒙概念+AI应用</t>
         </is>
       </c>
+      <c r="BW5" t="inlineStr">
+        <is>
+          <t>002364.SZ; 中恒电气; 0;  09:30:15; 首板涨停; 18.68;  09:30:15; 10.0%; 1; 阿里+字节+数据中心+电源系统</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="5" t="n">
@@ -35257,6 +35492,11 @@
           <t>300868.SZ; 杰美特; 0;  09:30:09; 首板涨停; 34.92;  09:30:09; 20.0%; 1; AI眼镜+苹果+华为+跨境电商</t>
         </is>
       </c>
+      <c r="BW6" t="inlineStr">
+        <is>
+          <t>002842.SZ; 翔鹭钨业; 0;  09:32:00; 首板涨停; 7.99;  09:32:00; 10.1%; 1; 钨制品+小金属+铜+股权转让</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="n">
@@ -35627,6 +35867,11 @@
           <t>300256.SZ; 星星科技; 0;  09:31:12; 首板涨停; 5.1;  09:31:12; 20.0%; 1; AI眼镜+折叠屏+华为+两轮车</t>
         </is>
       </c>
+      <c r="BW7" t="inlineStr">
+        <is>
+          <t>301202.SZ; 朗威股份; 0;  09:33:45; 首板涨停; 49.02;  09:33:45; 20.0%; 1; 阿里巴巴+数据中心+液冷服务器+维谛合作</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="5" t="n">
@@ -35997,6 +36242,11 @@
           <t>002577.SZ; 雷柏科技; 1;  09:32:12; 首板涨停; 26.87;  09:30:51; 10.0%; 1; AI眼镜+游戏设备+星闪</t>
         </is>
       </c>
+      <c r="BW8" t="inlineStr">
+        <is>
+          <t>605100.SH; 华丰股份; 1;  09:34:00; 首板涨停; 15.73;  09:31:00; 10.0%; 1; 数据中心发电机+固态电池+柴油发动机</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="n">
@@ -36367,6 +36617,11 @@
           <t>002861.SZ; 瀛通通讯; 4;  09:36:36; 首板涨停; 16.15;  09:30:48; 10.0%; 1; AI终端+电声产品+比亚迪、小米等客户+外销</t>
         </is>
       </c>
+      <c r="BW9" t="inlineStr">
+        <is>
+          <t>603618.SH; 杭电股份; 0;  09:34:45; 首板涨停; 6.85;  09:34:45; 10.0%; 1; 电力电缆+光纤光缆+PET铜箔+杭州</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="5" t="n">
@@ -36737,6 +36992,11 @@
           <t>600084.SH; 中信尼雅; 0;  09:36:45; 首板涨停; 5.74;  09:36:45; 10.0%; 1; 葡萄酒+中字头+AMC</t>
         </is>
       </c>
+      <c r="BW10" t="inlineStr">
+        <is>
+          <t>600589.SH; 大位科技; 3;  09:35:15; 首板涨停; 4.76;  09:30:45; 9.9%; 1; 数据中心+算力+完成重整</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="5" t="n">
@@ -37107,6 +37367,11 @@
           <t>002414.SZ; 高德红外; 0;  09:41:54; 首板涨停; 8.24;  09:41:54; 10.0%; 1; 红外热像仪+军工+AI终端</t>
         </is>
       </c>
+      <c r="BW11" t="inlineStr">
+        <is>
+          <t>600192.SH; 长城电工; 0;  09:35:45; 首板涨停; 6.22;  09:35:45; 10.1%; 1; 电网设备+商业航天+甘肃国资</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="5" t="n">
@@ -37477,6 +37742,11 @@
           <t>000782.SZ; 恒申新材; 1;  09:43:45; 首板涨停; 4.83;  09:42:42; 10.0%; 1; 锦纶+军工+实控人变更</t>
         </is>
       </c>
+      <c r="BW12" t="inlineStr">
+        <is>
+          <t>000880.SZ; 潍柴重机; 6;  09:39:15; 首板涨停; 26.19;  09:30:15; 10.0%; 1; 数据中心发电机+柴油机零部件+国企</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="5" t="n">
@@ -37847,6 +38117,11 @@
           <t>600225.SH; 退市卓朗; 0;  09:44:34; 首板涨停; 0.24;  09:44:34; 9.1%; 1; 退市整理</t>
         </is>
       </c>
+      <c r="BW13" t="inlineStr">
+        <is>
+          <t>301510.SZ; 固高科技; 0;  09:39:45; 首板涨停; 49.98;  09:39:45; 20.0%; 1; 机器人+先进封装</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="5" t="n">
@@ -38217,6 +38492,11 @@
           <t>000547.SZ; 航天发展; 1;  09:49:00; 首板涨停; 7.79;  09:43:00; 10.0%; 1; 商业卫星+低空经济+DeepSeek概念+央企</t>
         </is>
       </c>
+      <c r="BW14" t="inlineStr">
+        <is>
+          <t>603950.SH; 长源东谷; 0;  09:41:00; 首板涨停; 26.79;  09:41:00; 10.0%; 1; 柴油发动机+汽车零部件+飞行汽车</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="5" t="n">
@@ -38582,6 +38862,11 @@
           <t>002838.SZ; 道恩股份; 1;  09:49:42; 首板涨停; 13.05;  09:46:09; 10.0%; 1; 热塑性弹性体+机器人+汽车家电</t>
         </is>
       </c>
+      <c r="BW15" t="inlineStr">
+        <is>
+          <t>002347.SZ; 泰尔股份; 0;  09:41:30; 首板涨停; 9.55;  09:41:30; 10.0%; 1; 机器人+神经网络+商业航天</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="5" t="n">
@@ -38947,6 +39232,11 @@
           <t>002426.SZ; 胜利精密; 0;  09:50:24; 首板涨停; 3.61;  09:50:24; 10.1%; 1; 消费电子+智能穿戴+AIPC+特斯拉</t>
         </is>
       </c>
+      <c r="BW16" t="inlineStr">
+        <is>
+          <t>300961.SZ; 深水海纳; 0;  09:42:45; 首板涨停; 12.5;  09:42:45; 20.0%; 1; 神经网络模型+实控人拟变更为国资+污水处理+鸿蒙</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="5" t="n">
@@ -39307,6 +39597,11 @@
           <t>600807.SH; 济高发展; 0;  09:51:44; 首板涨停; 3.3;  09:51:44; 10.0%; 1; 资产注入猜测+体外诊断+济南国资</t>
         </is>
       </c>
+      <c r="BW17" t="inlineStr">
+        <is>
+          <t>000016.SZ; 深康佳A; 1;  09:43:45; 首板涨停; 5.38;  09:35:00; 10.0%; 1; AI眼镜+DeepSeek概念+存储芯片+拟购买股权</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="5" t="n">
@@ -39667,6 +39962,11 @@
           <t>002427.SZ; 尤夫股份; 1;  09:53:45; 首板涨停; 3.92;  09:52:54; 10.1%; 1; 涤纶工业丝+新能源汽车+陕西国资</t>
         </is>
       </c>
+      <c r="BW18" t="inlineStr">
+        <is>
+          <t>002334.SZ; 英威腾; 1;  09:46:00; 首板涨停; 9.53;  09:33:00; 10.0%; 1; 数据中心+电源+机器人概念+光伏</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="5" t="n">
@@ -40022,6 +40322,11 @@
           <t>003028.SZ; 振邦智能; 0;  09:55:18; 首板涨停; 45.53;  09:55:18; 10.0%; 1; 人形机器人+智能控制器+光伏+逆变器</t>
         </is>
       </c>
+      <c r="BW19" t="inlineStr">
+        <is>
+          <t>000811.SZ; 冰轮环境; 5;  09:46:15; 首板涨停; 15.16;  09:30:15; 10.0%; 1; 数据中心+液冷服务器+冰雪产业+制冷设备</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="5" t="n">
@@ -40377,6 +40682,11 @@
           <t>600861.SH; 北京人力; 0;  09:56:25; 首板涨停; 19.87;  09:56:25; 10.0%; 1; 人力资源+职业教育+北京国资</t>
         </is>
       </c>
+      <c r="BW20" t="inlineStr">
+        <is>
+          <t>002975.SZ; 博杰股份; 0;  09:48:00; 首板涨停; 37.64;  09:48:00; 10.0%; 1; 服务器测试+阿里+机器人</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="5" t="n">
@@ -40732,6 +41042,11 @@
           <t>605288.SH; 凯迪股份; 1;  09:58:47; 首板涨停; 41.48;  09:48:44; 10.0%; 1; 线性驱动系统+智能医疗+智能家居</t>
         </is>
       </c>
+      <c r="BW21" t="inlineStr">
+        <is>
+          <t>605336.SH; 帅丰电器; 0;  09:52:30; 首板涨停; 18.7;  09:52:30; 10.0%; 1; 智能厨房电器+电商+高股息</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="5" t="n">
@@ -41087,6 +41402,11 @@
           <t>001306.SZ; 夏厦精密; 0;  10:02:03; 首板涨停; 77.73;  10:02:03; 10.0%; 1; 人形机器人+减速器+比亚迪</t>
         </is>
       </c>
+      <c r="BW22" t="inlineStr">
+        <is>
+          <t>300153.SZ; 科泰电源; 5;  09:55:00; 首板涨停; 28.9;  09:39:45; 20.0%; 1; 数据中心+电力设备+储能+华为</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="5" t="n">
@@ -41437,6 +41757,11 @@
           <t>601011.SH; 宝泰隆; 0;  10:03:45; 首板涨停; 2.9;  10:03:45; 9.8%; 1; AI眼镜+收资源勘查许可证+石墨烯+煤炭</t>
         </is>
       </c>
+      <c r="BW23" t="inlineStr">
+        <is>
+          <t>001309.SZ; 德明利; 1;  09:56:30; 首板涨停; 133.77;  09:31:00; 10.0%; 1; 存储芯片+互联网厂商合作+外销</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="5" t="n">
@@ -41782,6 +42107,11 @@
           <t>002390.SZ; 信邦制药; 0;  10:16:24; 首板涨停; 4.31;  10:16:24; 9.9%; 1; 中药+民营医院+医药商业</t>
         </is>
       </c>
+      <c r="BW24" t="inlineStr">
+        <is>
+          <t>600184.SH; 光电股份; 0;  09:57:45; 首板涨停; 12.83;  09:57:45; 10.0%; 1; 高性能光学材料+光通信材料+军工+中兵系</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="5" t="n">
@@ -42127,6 +42457,11 @@
           <t>002277.SZ; 友阿股份; 0;  10:23:15; 首板涨停; 5.48;  10:23:15; 10.0%; 1; 百货零售+机器人+拟收购尚阳通100%股权</t>
         </is>
       </c>
+      <c r="BW25" t="inlineStr">
+        <is>
+          <t>601010.SH; 文峰股份; 4;  10:00:00; 首板涨停; 3.44;  09:44:15; 9.9%; 1; 零售+电商</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="5" t="n">
@@ -42467,6 +42802,11 @@
           <t>002348.SZ; 高乐股份; 4;  10:26:00; 首板涨停; 4;  10:12:48; 9.9%; 1; IP经济+玩具+机器人概念+固态电池</t>
         </is>
       </c>
+      <c r="BW26" t="inlineStr">
+        <is>
+          <t>600710.SH; 苏美达; 0;  10:03:30; 首板涨停; 9.92;  10:03:30; 10.0%; 1; 柴油发电机组+船舶制造+央国企+高股息</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="5" t="n">
@@ -42797,6 +43137,11 @@
           <t>600814.SH; 杭州解百; 0;  10:26:38; 首板涨停; 8.76;  10:26:38; 10.1%; 1; 百货商场+杭州国资</t>
         </is>
       </c>
+      <c r="BW27" t="inlineStr">
+        <is>
+          <t>601126.SH; 四方股份; 3;  10:09:30; 首板涨停; 17.81;  09:30:45; 10.0%; 1; 数据中心+智能电网+储能</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="5" t="n">
@@ -43122,6 +43467,11 @@
           <t>600835.SH; 上海机电; 3;  10:38:04; 首板涨停; 21.16;  10:04:49; 10.0%; 1; 机器人+拟收购上海电气旗下资产+控股股东为上海电气+电梯</t>
         </is>
       </c>
+      <c r="BW28" t="inlineStr">
+        <is>
+          <t>002076.SZ; 星光股份; 2;  10:10:30; 首板涨停; 3.77;  09:58:15; 9.9%; 1; 数据中心+量子科技+锂电池+创投</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="5" t="n">
@@ -43437,6 +43787,11 @@
           <t>605366.SH; 宏柏新材; 0;  10:45:37; 首板涨停; 6.16;  10:45:37; 10.0%; 1; 功能性硅烷+橡胶制品</t>
         </is>
       </c>
+      <c r="BW29" t="inlineStr">
+        <is>
+          <t>600477.SH; 杭萧钢构; 0;  10:12:15; 首板涨停; 3.01;  10:12:15; 9.9%; 1; 杭州+数据中心建设+绿色建筑</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="5" t="n">
@@ -43747,6 +44102,11 @@
           <t>300817.SZ; 双飞集团; 0;  10:48:18; 首板涨停; 23.1;  10:48:18; 20.0%; 1; 机器人+自润滑轴承+特斯拉</t>
         </is>
       </c>
+      <c r="BW30" t="inlineStr">
+        <is>
+          <t>300068.SZ; 南都电源; 0;  10:12:30; 首板涨停; 18.6;  10:12:30; 20.0%; 1; 数据中心后备电源+阿里+字节</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="5" t="n">
@@ -44052,6 +44412,11 @@
           <t>300246.SZ; 宝莱特; 9;  10:50:06; 首板涨停; 8.29;  09:34:15; 20.0%; 1; 医疗器械+健康检测+血液净化</t>
         </is>
       </c>
+      <c r="BW31" t="inlineStr">
+        <is>
+          <t>000887.SZ; 中鼎股份; 0;  10:16:00; 首板涨停; 19.76;  10:16:00; 10.0%; 1; 机器人+液冷服务器+磁流变减震器+飞行汽车</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="5" t="n">
@@ -44357,6 +44722,11 @@
           <t>600992.SH; 贵绳股份; 0;  10:52:28; 首板涨停; 15.35;  10:52:28; 10.0%; 1; 钢丝钢绳+贵州国资</t>
         </is>
       </c>
+      <c r="BW32" t="inlineStr">
+        <is>
+          <t>002580.SZ; 圣阳股份; 0;  10:21:15; 首板涨停; 10.59;  10:21:15; 10.0%; 1; 数据中心+电源+字节概念+控股股东筹划战略重组</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="5" t="n">
@@ -44657,6 +45027,11 @@
           <t>603678.SH; 火炬电子; 0;  10:59:43; 首板涨停; 28.67;  10:59:43; 10.0%; 1; 军工+航空航天+电子元器件+超级电容</t>
         </is>
       </c>
+      <c r="BW33" t="inlineStr">
+        <is>
+          <t>002335.SZ; 科华数据; 2;  10:22:15; 首板涨停; 47.4;  09:32:45; 10.0%; 1; 数据中心+阿里、腾讯合作+UPS+液冷</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="5" t="n">
@@ -44952,6 +45327,11 @@
           <t>301300.SZ; 远翔新材; 2;  11:04:21; 首板涨停; 33.53;  10:47:36; 20.0%; 1; 硅橡胶+可用于充气娃娃</t>
         </is>
       </c>
+      <c r="BW34" t="inlineStr">
+        <is>
+          <t>600050.SH; 中国联通; 0;  10:31:24; 首板涨停; 6.82;  10:31:24; 10.0%; 1; 联通云+持续加大算力投入</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="5" t="n">
@@ -45247,6 +45627,11 @@
           <t>600679.SH; 上海凤凰; 0;  11:07:29; 首板涨停; 14.22;  11:07:29; 10.0%; 1; 上海国资+两轮车+首发经济</t>
         </is>
       </c>
+      <c r="BW35" t="inlineStr">
+        <is>
+          <t>002281.SZ; 光迅科技; 1;  10:39:03; 首板涨停; 57.59;  10:24:15; 10.0%; 1; 高速光模块+阿里+腾讯+央企</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="5" t="n">
@@ -45537,6 +45922,11 @@
           <t>603579.SH; 荣泰健康; 0;  11:08:26; 首板涨停; 17.23;  11:08:26; 10.0%; 1; 按摩器具+小米+DeepSeek概念</t>
         </is>
       </c>
+      <c r="BW36" t="inlineStr">
+        <is>
+          <t>002837.SZ; 英维克; 0;  10:47:54; 首板涨停; 47.75;  10:47:54; 10.0%; 1; 液冷+腾讯、阿里等合作+英伟达合作</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="5" t="n">
@@ -45827,6 +46217,11 @@
           <t>605008.SH; 长鸿高科; 1;  11:17:27; 首板涨停; 13.5;  11:16:07; 10.0%; 1; 热塑性弹性体+可用于仿真机器人外壳皮肤</t>
         </is>
       </c>
+      <c r="BW37" t="inlineStr">
+        <is>
+          <t>600198.SH; 大唐电信; 0;  10:52:37; 首板涨停; 10.09;  10:52:37; 10.0%; 1; 特种通信+安全芯片+并购重组+央企</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="5" t="n">
@@ -46112,6 +46507,11 @@
           <t>301336.SZ; 趣睡科技; 0;  11:26:39; 首板涨停; 69.96;  11:26:39; 20.0%; 1; 智能家居+小米</t>
         </is>
       </c>
+      <c r="BW38" t="inlineStr">
+        <is>
+          <t>301018.SZ; 申菱环境; 0;  10:57:16; 首板涨停; 50.98;  10:57:16; 20.0%; 1; 液冷+互联网客户</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="5" t="n">
@@ -46392,6 +46792,11 @@
           <t>300019.SZ; 硅宝科技; 1;  11:27:12; 首板涨停; 18.32;  10:44:57; 20.0%; 1; 有机硅+或可用于人形机器人+固态电池</t>
         </is>
       </c>
+      <c r="BW39" t="inlineStr">
+        <is>
+          <t>002474.SZ; 榕基软件; 0;  10:58:31; 首板涨停; 8.09;  10:58:31; 10.1%; 1; 智慧政务+数据要素+华为昇思+信创</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="5" t="n">
@@ -46662,6 +47067,11 @@
           <t>600439.SH; 瑞贝卡; 0;  13:00:08; 首板涨停; 4.31;  13:00:08; 9.9%; 1; 假发+华为昇腾+资产注入预期+外销</t>
         </is>
       </c>
+      <c r="BW40" t="inlineStr">
+        <is>
+          <t>300077.SZ; 国民技术; 0;  10:58:46; 首板涨停; 28.25;  10:58:46; 20.0%; 1; MCU芯片+汽车芯片+网络安全+锂电池</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="5" t="n">
@@ -46932,6 +47342,11 @@
           <t>000590.SZ; 启迪药业; 0;  13:00:12; 首板涨停; 8.03;  13:00:12; 10.0%; 1; 子公司合作华为发布病理大模型+医药大健康领域</t>
         </is>
       </c>
+      <c r="BW41" t="inlineStr">
+        <is>
+          <t>002518.SZ; 科士达; 0;  11:01:08; 首板涨停; 29.26;  11:01:08; 10.0%; 1; 数据中心+UPS+液冷</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="5" t="n">
@@ -47192,6 +47607,11 @@
           <t>603511.SH; 爱慕股份; 0;  13:00:30; 首板涨停; 15.24;  13:00:30; 10.0%; 1; IP经济+贴身服饰+小红书+电商</t>
         </is>
       </c>
+      <c r="BW42" t="inlineStr">
+        <is>
+          <t>603887.SH; 城地香江; 5;  11:07:56; 首板涨停; 18.4;  10:43:44; 10.0%; 1; 数据中心+互联网客户+实控人拟变更为国务院国资委</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="5" t="n">
@@ -47452,6 +47872,11 @@
           <t>300738.SZ; 奥飞数据; 0;  13:05:54; 首板涨停; 19.92;  13:05:54; 20.0%; 1; 数据中心+运营商、互联网合作</t>
         </is>
       </c>
+      <c r="BW43" t="inlineStr">
+        <is>
+          <t>600869.SH; 远东股份; 1;  11:15:56; 首板涨停; 4.86;  11:01:08; 10.0%; 1; 数据中心+智能缆网+机器人+核电</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="5" t="n">
@@ -47712,6 +48137,11 @@
           <t>002273.SZ; 水晶光电; 4;  13:06:39; 首板涨停; 25.19;  09:53:15; 10.0%; 1; AR眼镜+果链+华为汽车</t>
         </is>
       </c>
+      <c r="BW44" t="inlineStr">
+        <is>
+          <t>002653.SZ; 海思科; 0;  11:16:40; 首板涨停; 32.78;  11:16:40; 10.0%; 1; 创新药+AI药物研发+近期公司药品临床试验获批</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="5" t="n">
@@ -47957,6 +48387,11 @@
           <t>002795.SZ; 永和智控; 0;  13:08:03; 首板涨停; 5.47;  13:08:03; 10.1%; 1; 阀门+民营医院+肿瘤放射治疗+外销</t>
         </is>
       </c>
+      <c r="BW45" t="inlineStr">
+        <is>
+          <t>300383.SZ; 光环新网; 0;  11:17:49; 首板涨停; 20.77;  11:17:49; 20.0%; 1; 数据中心+亚马逊</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="5" t="n">
@@ -48197,6 +48632,11 @@
           <t>002990.SZ; 盛视科技; 0;  13:13:00; 首板涨停; 30.64;  13:13:00; 10.0%; 1; 智慧口岸+机器人+华为昇腾+DeepSeek概念</t>
         </is>
       </c>
+      <c r="BW46" t="inlineStr">
+        <is>
+          <t>002910.SZ; 庄园牧场; 0;  11:18:22; 首板涨停; 8.97;  11:18:22; 10.1%; 1; 乳制品+西部大开发+甘肃国企</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="5" t="n">
@@ -48427,6 +48867,11 @@
           <t>002025.SZ; 航天电器; 0;  13:36:09; 首板涨停; 49.48;  13:36:09; 10.0%; 1; 电机+连接器+央企</t>
         </is>
       </c>
+      <c r="BW47" t="inlineStr">
+        <is>
+          <t>601728.SH; 中国电信; 1;  11:24:13; 首板涨停; 8.6;  10:51:29; 10.0%; 1; 天翼云+持续加大算力投入</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="5" t="n">
@@ -48657,6 +49102,11 @@
           <t>605286.SH; 同力日升; 0;  13:38:04; 首板涨停; 36;  13:38:04; 10.0%; 1; 算力中心能源管理方案+储能+电梯</t>
         </is>
       </c>
+      <c r="BW48" t="inlineStr">
+        <is>
+          <t>605060.SH; 联德股份; 0;  11:25:05; 首板涨停; 23.86;  11:25:05; 10.0%; 1; 压缩机+数据中心+出海+工业互联网</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="5" t="n">
@@ -48882,6 +49332,11 @@
           <t>600193.SH; 创兴资源; 0;  13:39:49; 首板涨停; 4.06;  13:39:49; 10.0%; 1; 算力+稀土永磁+建筑装饰</t>
         </is>
       </c>
+      <c r="BW49" t="inlineStr">
+        <is>
+          <t>300442.SZ; 润泽科技; 3;  13:00:04; 首板涨停; 68.58;  11:21:26; 20.0%; 1; AIDC+液冷+互联网客户</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="5" t="n">
@@ -49107,6 +49562,11 @@
           <t>002722.SZ; 物产金轮; 4;  13:45:45; 首板涨停; 17.45;  09:30:09; 10.0%; 1; AI音乐+特种钢丝+国企改革</t>
         </is>
       </c>
+      <c r="BW50" t="inlineStr">
+        <is>
+          <t>000032.SZ; 深桑达A; 3;  13:00:04; 首板涨停; 28.47;  11:13:25; 10.0%; 1; 国资云+智慧政务+数据要素+DeepSeek</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="5" t="n">
@@ -49322,6 +49782,11 @@
           <t>002224.SZ; 三力士; 2;  13:57:00; 首板涨停; 4.69;  09:55:57; 10.1%; 1; 橡胶+拟收购捷克MSR公司</t>
         </is>
       </c>
+      <c r="BW51" t="inlineStr">
+        <is>
+          <t>600825.SH; 新华传媒; 0;  13:00:19; 首板涨停; 7.41;  13:00:19; 9.9%; 1; 传媒+财联社注入预期+数字广告+上海国企</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="5" t="n">
@@ -49517,6 +49982,11 @@
           <t>603127.SH; 昭衍新药; 0;  14:01:28; 首板涨停; 20.9;  14:01:28; 10.0%; 1; CRO+创新药+AI辅助诊断技术</t>
         </is>
       </c>
+      <c r="BW52" t="inlineStr">
+        <is>
+          <t>603296.SH; 华勤技术; 0;  13:00:34; 首板涨停; 100.91;  13:00:34; 10.0%; 1; AI服务器+腾讯、阿里等客户+消费电子</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="5" t="n">
@@ -49707,6 +50177,11 @@
           <t>002219.SZ; 新里程; 1;  14:01:54; 首板涨停; 3;  13:50:42; 9.9%; 1; AI医疗+拟收购股权+民营医院+养老</t>
         </is>
       </c>
+      <c r="BW53" t="inlineStr">
+        <is>
+          <t>603721.SH; 中广天择; 0;  13:00:49; 首板涨停; 31.52;  13:00:49; 10.0%; 1; 阶跃星辰合作+AI应用+AI语料+阶跃星辰</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="5" t="n">
@@ -49882,6 +50357,11 @@
           <t>300622.SZ; 博士眼镜; 3;  14:02:39; 首板涨停; 54.11;  10:13:57; 20.0%; 1; AI眼镜+眼镜零售</t>
         </is>
       </c>
+      <c r="BW54" t="inlineStr">
+        <is>
+          <t>300870.SZ; 欧陆通; 0;  13:00:49; 首板涨停; 156.62;  13:00:49; 20.0%; 1; 数据中心电源+液冷服务器+阿里巴巴</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="5" t="n">
@@ -50057,6 +50537,11 @@
           <t>002149.SZ; 西部材料; 0;  14:03:00; 首板涨停; 19.33;  14:03:00; 10.0%; 1; 可控核聚变+稀有金属材料+西部大开发+国企</t>
         </is>
       </c>
+      <c r="BW55" t="inlineStr">
+        <is>
+          <t>600756.SH; 浪潮软件; 0;  13:01:47; 首板涨停; 18.99;  13:01:47; 10.0%; 1; 数字政府+山东国资+资产重组预期</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="5" t="n">
@@ -50222,6 +50707,11 @@
           <t>300543.SZ; 朗科智能; 2;  14:04:00; 首板涨停; 14.06;  13:23:48; 20.0%; 1; 机器人概念+智能控制器+汽车电子+年报预增</t>
         </is>
       </c>
+      <c r="BW56" t="inlineStr">
+        <is>
+          <t>000892.SZ; 欢瑞世纪; 0;  13:03:07; 首板涨停; 3.86;  13:03:07; 10.0%; 1; 阶跃星辰合作+AI影视+IP经济+直播带货</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="5" t="n">
@@ -50387,6 +50877,11 @@
           <t>600316.SH; 洪都航空; 1;  14:08:28; 首板涨停; 34.9;  13:51:52; 10.0%; 1; 中航系+低空经济+军工+C919</t>
         </is>
       </c>
+      <c r="BW57" t="inlineStr">
+        <is>
+          <t>603888.SH; 新华网; 0;  13:12:15; 首板涨停; 26.72;  13:12:15; 10.0%; 1; 传媒+阿里合作+央企</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="5" t="n">
@@ -50542,6 +51037,11 @@
           <t>002733.SZ; 雄韬股份; 0;  14:11:42; 首板涨停; 18.05;  14:11:42; 10.0%; 1; 数据中心+氢燃料电池+钠离子电池</t>
         </is>
       </c>
+      <c r="BW58" t="inlineStr">
+        <is>
+          <t>603666.SH; 亿嘉和; 0;  13:21:53; 首板涨停; 39.59;  13:21:53; 10.0%; 1; 人形机器人+多模态AI+低空经济</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="5" t="n">
@@ -50692,6 +51192,11 @@
           <t>002068.SZ; 黑猫股份; 0;  14:25:57; 首板涨停; 12.52;  14:25:57; 10.0%; 1; 炭黑（橡胶工业原料）+锂电池+国企</t>
         </is>
       </c>
+      <c r="BW59" t="inlineStr">
+        <is>
+          <t>000581.SZ; 威孚高科; 0;  13:24:05; 首板涨停; 19.66;  13:24:05; 10.0%; 1; 人形机器人+汽车核心零部件</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="5" t="n">
@@ -50832,6 +51337,11 @@
           <t>603179.SH; 新泉股份; 3;  14:26:36; 首板涨停; 54.8;  14:24:18; 10.0%; 1; 汽车零部件+特斯拉</t>
         </is>
       </c>
+      <c r="BW60" t="inlineStr">
+        <is>
+          <t>603341.SH; 龙旗科技; 0;  13:28:04; 首板涨停; 54.01;  13:28:04; 10.0%; 1; AIPC+AI眼镜+小米概念+次新股</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="5" t="n">
@@ -50962,6 +51472,11 @@
           <t>301101.SZ; 明月镜片; 4;  14:29:39; 首板涨停; 55.63;  10:14:51; 20.0%; 1; AI眼镜+镜片+小米</t>
         </is>
       </c>
+      <c r="BW61" t="inlineStr">
+        <is>
+          <t>000815.SZ; 美利云; 1;  13:33:06; 首板涨停; 12.47;  13:07:39; 10.0%; 1; 算力+金山云合作+拟停止造纸业务+央企</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="5" t="n">
@@ -51092,6 +51607,11 @@
           <t>002636.SZ; 金安国纪; 0;  14:39:09; 首板涨停; 10.04;  14:39:09; 10.0%; 1; 覆铜板+PCB</t>
         </is>
       </c>
+      <c r="BW62" t="inlineStr">
+        <is>
+          <t>603360.SH; 百傲化学; 0;  13:39:20; 首板涨停; 30.17;  13:39:20; 10.0%; 1; 光刻机+拟跨界并购半导体公司芯慧联+股权变动+工业杀菌剂</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="5" t="n">
@@ -51222,6 +51742,11 @@
           <t>600797.SH; 浙大网新; 2;  14:44:05; 首板涨停; 10.35;  14:38:39; 10.0%; 1; 云计算+DeepSeek概念+阿里+腾讯</t>
         </is>
       </c>
+      <c r="BW63" t="inlineStr">
+        <is>
+          <t>301210.SZ; 金杨股份; 0;  13:47:49; 首板涨停; 54.31;  13:47:49; 20.0%; 1; 固态电池+锂电池+电池精密结构件+小金属</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="5" t="n">
@@ -51337,6 +51862,11 @@
           <t>002801.SZ; 微光股份; 0;  14:44:36; 首板涨停; 33.26;  14:44:36; 10.0%; 1; 人形机器人+电机</t>
         </is>
       </c>
+      <c r="BW64" t="inlineStr">
+        <is>
+          <t>600845.SH; 宝信软件; 2;  13:53:35; 首板涨停; 37.05;  13:01:19; 10.0%; 1; 工业软件+数据中心+人工智能+国企</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="5" t="n">
@@ -51442,6 +51972,11 @@
           <t>002272.SZ; 川润股份; 0;  14:48:54; 首板涨停; 10.97;  14:48:54; 10.0%; 1; 液冷服务器+华为+风电</t>
         </is>
       </c>
+      <c r="BW65" t="inlineStr">
+        <is>
+          <t>600100.SH; 同方股份; 1;  14:01:27; 首板涨停; 8.62;  13:57:17; 9.9%; 1; 知网+华为昇腾+控股股东拟变更</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="5" t="n">
@@ -51547,6 +52082,11 @@
           <t>601566.SH; 九牧王; 1;  14:54:10; 首板涨停; 8.81;  14:16:40; 10.0%; 1; 男装+IP经济</t>
         </is>
       </c>
+      <c r="BW66" t="inlineStr">
+        <is>
+          <t>000555.SZ; 神州信息; 0;  14:01:27; 首板涨停; 13.75;  14:01:27; 10.0%; 1; 金融信创+量子科技+网络安全</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="5" t="n">
@@ -51647,6 +52187,11 @@
           <t>002051.SZ; 中工国际; 0;  14:18:21; 首板涨停; 9.01;  14:18:21; 10.0%; 1; 中字头+国际工程总承包+一带一路+基建</t>
         </is>
       </c>
+      <c r="BW67" t="inlineStr">
+        <is>
+          <t>000938.SZ; 紫光股份; 0;  14:08:14; 首板涨停; 32.42;  14:08:14; 10.0%; 1; 算力+新华三</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="5" t="n">
@@ -51737,6 +52282,11 @@
           <t>000876.SZ; 新希望; 5;  14:20:48; 首板涨停; 10.44;  13:51:48; 10.0%; 1; 猪肉+民营企业座谈会在召开</t>
         </is>
       </c>
+      <c r="BW68" t="inlineStr">
+        <is>
+          <t>002939.SZ; 长城证券; 1;  14:09:06; 首板涨停; 8.69;  13:00:04; 10.0%; 1; 证券+央企</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="5" t="n">
@@ -51827,6 +52377,11 @@
           <t>601100.SH; 恒立液压; 37;  14:26:07; 首板涨停; 78.91;  13:17:25; 10.0%; 1; 丝杠+线性驱动器+油缸</t>
         </is>
       </c>
+      <c r="BW69" t="inlineStr">
+        <is>
+          <t>002843.SZ; 泰嘉股份; 2;  14:09:24; 首板涨停; 31.16;  09:51:30; 10.0%; 1; 数据中心电源+智能终端充电电源</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="5" t="n">
@@ -51917,6 +52472,11 @@
           <t>002886.SZ; 沃特股份; 0;  14:33:15; 首板涨停; 21.05;  14:33:15; 10.0%; 1; PEEK材料+低空经济+电磁屏蔽EMI材料</t>
         </is>
       </c>
+      <c r="BW70" t="inlineStr">
+        <is>
+          <t>300214.SZ; 日科化学; 0;  14:33:02; 首板涨停; 7.68;  14:33:02; 20.0%; 1; 算力+PMMA+塑料改性剂</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="5" t="n">
@@ -51997,6 +52557,11 @@
           <t>603416.SH; 信捷电气; 0;  14:36:39; 首板涨停; 52.54;  14:36:39; 10.0%; 1; 机器人+工业自动化控制产品</t>
         </is>
       </c>
+      <c r="BW71" t="inlineStr">
+        <is>
+          <t>601789.SH; 宁波建工; 2;  14:43:27; 首板涨停; 5.63;  09:31:15; 10.0%; 1; 参股中经云+阿里巴巴+拟收购宁波交工100%股权+宁波国资</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="5" t="n">
@@ -52072,6 +52637,11 @@
           <t>600933.SH; 爱柯迪; 0;  14:37:57; 首板涨停; 19.35;  14:37:57; 10.0%; 1; 拟发股收购卓尔博71%股权+机器人概念+汽车零部件</t>
         </is>
       </c>
+      <c r="BW72" t="inlineStr">
+        <is>
+          <t>301165.SZ; 锐捷网络; 0;  14:44:37; 首板涨停; 84.83;  14:44:37; 20.0%; 1; 数据中心交换机+阿里+字节+福建国资</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="5" t="n">
@@ -52147,6 +52717,11 @@
           <t>002979.SZ; 雷赛智能; 0;  14:38:21; 首板涨停; 46.97;  14:38:21; 10.0%; 1; 人形机器人+运动控制产品+华为</t>
         </is>
       </c>
+      <c r="BW73" t="inlineStr">
+        <is>
+          <t>002779.SZ; 中坚科技; 4;  14:44:53; 首板涨停; 148.05;  13:00:19; 10.0%; 1; 机器人+园林机械</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="5" t="n">
@@ -52222,6 +52797,11 @@
           <t>002965.SZ; 祥鑫科技; 3;  14:41:09; 首板涨停; 54.34;  14:31:30; 10.0%; 1; 人形机器人+液冷服务器+无人驾驶+低空经济</t>
         </is>
       </c>
+      <c r="BW74" t="inlineStr">
+        <is>
+          <t>300660.SZ; 江苏雷利; 3;  14:47:35; 首板涨停; 74.8;  14:05:21; 20.0%; 1; 人形机器人+微特电机</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="5" t="n">
@@ -52297,6 +52877,11 @@
           <t>000928.SZ; 中钢国际; 1;  14:44:39; 首板涨停; 6.9;  09:50:42; 10.0%; 1; 工程承包+中字头+高股息</t>
         </is>
       </c>
+      <c r="BW75" t="inlineStr">
+        <is>
+          <t>000695.SZ; 滨海能源; 0;  14:49:12; 首板涨停; 11.69;  14:49:12; 10.0%; 1; 硅基负极+固态电池+光伏+包装印刷</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="5" t="n">
@@ -52372,6 +52957,11 @@
           <t>600187.SH; 国中水务; 2;  14:49:08; 首板涨停; 3.54;  09:56:53; 9.9%; 1; 出售污水处理业务+拟控股北京汇源</t>
         </is>
       </c>
+      <c r="BW76" t="inlineStr">
+        <is>
+          <t>603800.SH; 洪田股份; 1;  14:53:17; 首板涨停; 35.63;  14:27:47; 10.0%; 1; 锂电铜箔+复合集流体设备+油气钻采设备</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="5" t="n">
@@ -52445,6 +53035,11 @@
       <c r="BU77" t="inlineStr">
         <is>
           <t>002522.SZ; 浙江众成; 1;  14:50:39; 首板涨停; 4.53;  14:37:06; 10.0%; 1; 多层共挤热收缩薄膜+PVDF+华为+国企改革</t>
+        </is>
+      </c>
+      <c r="BW77" t="inlineStr">
+        <is>
+          <t>603728.SH; 鸣志电器; 0;  14:56:23; 首板涨停; 90.74;  14:56:23; 10.0%; 1; 人形机器人+电机+外销</t>
         </is>
       </c>
     </row>
@@ -53779,7 +54374,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BV50"/>
+  <dimension ref="A1:BW50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54153,6 +54748,11 @@
           <t>2025年02月20日</t>
         </is>
       </c>
+      <c r="BW1" s="5" t="inlineStr">
+        <is>
+          <t>2025年02月21日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="5" t="n">
@@ -54519,6 +55119,11 @@
           <t>000856.SZ; 冀东装备; 2.9%; 13.2%; 16.86; 10.0%; 强中选强||阳线||放量</t>
         </is>
       </c>
+      <c r="BW2" t="inlineStr">
+        <is>
+          <t>603956.SH; 威派格; 5.1%; 15.8%; 10.16; 10.0%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="n">
@@ -54885,6 +55490,11 @@
           <t>300817.SZ; 双飞集团; 2.3%; 22.8%; 23.1; 20.0%; 阳线||放量||价升量缩</t>
         </is>
       </c>
+      <c r="BW3" t="inlineStr">
+        <is>
+          <t>300660.SZ; 江苏雷利; 3.8%; 24.7%; 74.8; 20.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="5" t="n">
@@ -55227,6 +55837,11 @@
           <t>301336.SZ; 趣睡科技; 0.5%; 20.6%; 69.96; 20.0%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="BW4" t="inlineStr">
+        <is>
+          <t>603728.SH; 鸣志电器; 1.8%; 12.0%; 90.74; 10.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="n">
@@ -55553,6 +56168,11 @@
           <t>300246.SZ; 宝莱特; 0.3%; 20.3%; 8.29; 20.0%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="BW5" t="inlineStr">
+        <is>
+          <t>301486.SZ; 致尚科技; 1.7%; 12.6%; 76.15; 10.7%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="5" t="n">
@@ -55867,6 +56487,11 @@
           <t>300019.SZ; 硅宝科技; 0.2%; 20.2%; 18.32; 20.0%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="BW6" t="inlineStr">
+        <is>
+          <t>300853.SZ; 申昊科技; 1.0%; 13.5%; 33.7; 12.3%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="n">
@@ -56161,6 +56786,11 @@
         </is>
       </c>
       <c r="BV7" t="inlineStr"/>
+      <c r="BW7" t="inlineStr">
+        <is>
+          <t>300217.SZ; 东方电热; 0.6%; 14.3%; 5.51; 13.6%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="5" t="n">
@@ -56435,6 +57065,11 @@
         </is>
       </c>
       <c r="BV8" t="inlineStr"/>
+      <c r="BW8" t="inlineStr">
+        <is>
+          <t>301210.SZ; 金杨股份; 0.2%; 20.3%; 54.31; 20.0%; 强中选强||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="n">
@@ -56693,6 +57328,7 @@
         </is>
       </c>
       <c r="BV9" t="inlineStr"/>
+      <c r="BW9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="5" t="n">
@@ -56927,6 +57563,7 @@
         </is>
       </c>
       <c r="BV10" t="inlineStr"/>
+      <c r="BW10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="5" t="n">
@@ -57145,6 +57782,7 @@
         </is>
       </c>
       <c r="BV11" t="inlineStr"/>
+      <c r="BW11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="5" t="n">
@@ -57331,6 +57969,7 @@
         </is>
       </c>
       <c r="BV12" t="inlineStr"/>
+      <c r="BW12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="5" t="n">
@@ -57501,6 +58140,7 @@
         </is>
       </c>
       <c r="BV13" t="inlineStr"/>
+      <c r="BW13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="5" t="n">
@@ -57663,6 +58303,7 @@
         </is>
       </c>
       <c r="BV14" t="inlineStr"/>
+      <c r="BW14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="5" t="n">
@@ -57817,6 +58458,7 @@
         </is>
       </c>
       <c r="BV15" t="inlineStr"/>
+      <c r="BW15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="5" t="n">
@@ -57967,6 +58609,7 @@
         </is>
       </c>
       <c r="BV16" t="inlineStr"/>
+      <c r="BW16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="5" t="n">
@@ -58109,6 +58752,7 @@
         </is>
       </c>
       <c r="BV17" t="inlineStr"/>
+      <c r="BW17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="5" t="n">
@@ -58247,6 +58891,7 @@
         </is>
       </c>
       <c r="BV18" t="inlineStr"/>
+      <c r="BW18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="5" t="n">
@@ -58377,6 +59022,7 @@
         </is>
       </c>
       <c r="BV19" t="inlineStr"/>
+      <c r="BW19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="5" t="n">
@@ -58507,6 +59153,7 @@
         </is>
       </c>
       <c r="BV20" t="inlineStr"/>
+      <c r="BW20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="5" t="n">
@@ -58637,6 +59284,7 @@
         </is>
       </c>
       <c r="BV21" t="inlineStr"/>
+      <c r="BW21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="5" t="n">
@@ -58759,6 +59407,7 @@
         </is>
       </c>
       <c r="BV22" t="inlineStr"/>
+      <c r="BW22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="5" t="n">
@@ -58877,6 +59526,7 @@
         </is>
       </c>
       <c r="BV23" t="inlineStr"/>
+      <c r="BW23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="5" t="n">
@@ -58991,6 +59641,7 @@
         </is>
       </c>
       <c r="BV24" t="inlineStr"/>
+      <c r="BW24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="5" t="n">
@@ -59101,6 +59752,7 @@
         </is>
       </c>
       <c r="BV25" t="inlineStr"/>
+      <c r="BW25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="5" t="n">
@@ -59203,6 +59855,7 @@
         </is>
       </c>
       <c r="BV26" t="inlineStr"/>
+      <c r="BW26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="5" t="n">
@@ -59305,6 +59958,7 @@
         </is>
       </c>
       <c r="BV27" t="inlineStr"/>
+      <c r="BW27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="5" t="n">
@@ -59407,6 +60061,7 @@
         </is>
       </c>
       <c r="BV28" t="inlineStr"/>
+      <c r="BW28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="5" t="n">
@@ -59505,6 +60160,7 @@
       <c r="BT29" t="inlineStr"/>
       <c r="BU29" t="inlineStr"/>
       <c r="BV29" t="inlineStr"/>
+      <c r="BW29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="5" t="n">
@@ -59599,6 +60255,7 @@
       <c r="BT30" t="inlineStr"/>
       <c r="BU30" t="inlineStr"/>
       <c r="BV30" t="inlineStr"/>
+      <c r="BW30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="5" t="n">
@@ -59693,6 +60350,7 @@
       <c r="BT31" t="inlineStr"/>
       <c r="BU31" t="inlineStr"/>
       <c r="BV31" t="inlineStr"/>
+      <c r="BW31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="5" t="n">
@@ -59787,6 +60445,7 @@
       <c r="BT32" t="inlineStr"/>
       <c r="BU32" t="inlineStr"/>
       <c r="BV32" t="inlineStr"/>
+      <c r="BW32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="5" t="n">
@@ -59881,6 +60540,7 @@
       <c r="BT33" t="inlineStr"/>
       <c r="BU33" t="inlineStr"/>
       <c r="BV33" t="inlineStr"/>
+      <c r="BW33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="5" t="n">
@@ -59967,6 +60627,7 @@
       <c r="BT34" t="inlineStr"/>
       <c r="BU34" t="inlineStr"/>
       <c r="BV34" t="inlineStr"/>
+      <c r="BW34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="5" t="n">
@@ -60053,6 +60714,7 @@
       <c r="BT35" t="inlineStr"/>
       <c r="BU35" t="inlineStr"/>
       <c r="BV35" t="inlineStr"/>
+      <c r="BW35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="5" t="n">
@@ -60139,6 +60801,7 @@
       <c r="BT36" t="inlineStr"/>
       <c r="BU36" t="inlineStr"/>
       <c r="BV36" t="inlineStr"/>
+      <c r="BW36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="5" t="n">
@@ -60225,6 +60888,7 @@
       <c r="BT37" t="inlineStr"/>
       <c r="BU37" t="inlineStr"/>
       <c r="BV37" t="inlineStr"/>
+      <c r="BW37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="5" t="n">
@@ -60311,6 +60975,7 @@
       <c r="BT38" t="inlineStr"/>
       <c r="BU38" t="inlineStr"/>
       <c r="BV38" t="inlineStr"/>
+      <c r="BW38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="5" t="n">
@@ -60397,6 +61062,7 @@
       <c r="BT39" t="inlineStr"/>
       <c r="BU39" t="inlineStr"/>
       <c r="BV39" t="inlineStr"/>
+      <c r="BW39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="5" t="n">
@@ -60483,6 +61149,7 @@
       <c r="BT40" t="inlineStr"/>
       <c r="BU40" t="inlineStr"/>
       <c r="BV40" t="inlineStr"/>
+      <c r="BW40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="5" t="n">
@@ -60569,6 +61236,7 @@
       <c r="BT41" t="inlineStr"/>
       <c r="BU41" t="inlineStr"/>
       <c r="BV41" t="inlineStr"/>
+      <c r="BW41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="5" t="n">
@@ -60651,6 +61319,7 @@
       <c r="BT42" t="inlineStr"/>
       <c r="BU42" t="inlineStr"/>
       <c r="BV42" t="inlineStr"/>
+      <c r="BW42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="5" t="n">
@@ -60733,6 +61402,7 @@
       <c r="BT43" t="inlineStr"/>
       <c r="BU43" t="inlineStr"/>
       <c r="BV43" t="inlineStr"/>
+      <c r="BW43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="5" t="n">
@@ -60815,6 +61485,7 @@
       <c r="BT44" t="inlineStr"/>
       <c r="BU44" t="inlineStr"/>
       <c r="BV44" t="inlineStr"/>
+      <c r="BW44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="5" t="n">
@@ -60897,6 +61568,7 @@
       <c r="BT45" t="inlineStr"/>
       <c r="BU45" t="inlineStr"/>
       <c r="BV45" t="inlineStr"/>
+      <c r="BW45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="5" t="n">
@@ -60979,6 +61651,7 @@
       <c r="BT46" t="inlineStr"/>
       <c r="BU46" t="inlineStr"/>
       <c r="BV46" t="inlineStr"/>
+      <c r="BW46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="5" t="n">
@@ -61061,6 +61734,7 @@
       <c r="BT47" t="inlineStr"/>
       <c r="BU47" t="inlineStr"/>
       <c r="BV47" t="inlineStr"/>
+      <c r="BW47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="5" t="n">
@@ -61143,6 +61817,7 @@
       <c r="BT48" t="inlineStr"/>
       <c r="BU48" t="inlineStr"/>
       <c r="BV48" t="inlineStr"/>
+      <c r="BW48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="5" t="n">
@@ -61225,6 +61900,7 @@
       <c r="BT49" t="inlineStr"/>
       <c r="BU49" t="inlineStr"/>
       <c r="BV49" t="inlineStr"/>
+      <c r="BW49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="5" t="n">
@@ -61307,6 +61983,7 @@
       <c r="BT50" t="inlineStr"/>
       <c r="BU50" t="inlineStr"/>
       <c r="BV50" t="inlineStr"/>
+      <c r="BW50" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
